--- a/data/02_intermediate/cleaned_Hippocampe_Fou_songs.xlsx
+++ b/data/02_intermediate/cleaned_Hippocampe_Fou_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bienvenue dans mon terrier Quand j'hiberne, tous les jours sont fériés De la weed sèche dans mon herbier Maître Renard me l'a livrée à l'insu des fermiers Quand j'me creuse la tête, j'fourmille d'idées C'est le fourbi dans l'fournil où cuisent de savoureuses maquettes J'ai l'tournis, étourdi, pour ne pas dire fonce-dé J'défie les blaireaux qui me toisent et leurs sourcils froncés Dans l'underground, j'ai fait mon trou Encore debout au troisième round, j'enfonce le clou Le vent en poupe, un hippocampe comme figure de proue Pour gagner ma croûte, je n'travaille pas si dur, je joue À cache-cache avec les créatures de Dante et Kafka J'caresse l'une des trois têtes de cerbère qui ronge des carcasses De chérubins damnés dont planent encore les voix de castrats L'été, Hadès me prête sa belle villa dans le Tartare Cru dans mes propos, je cuis sous les projos J'veux juste amuser la galerie, faire cogiter les bobos Les aristos, les prolos, les libéraux, les cocos Les voir s'agiter ensemble et communier lors d'un pogo L'art nous réunit en temps d'crise J'envoie du bois pour épouser ma vie en dents d'scie Retrouve-moi dans trente piges à poil en Birkenstock Sous une plage du Cap d'Agde, Guttentag Herr Lidenbrock Oui, j'ai des copains sous terre, jamais du-per Car j'ai du flair, j'enfouis ma joie, comme Isabelle Huppert Je fouine sur le net à la recherche d'une belette Quand j'en trouve une, je pousse des cris de suricate alerte et J'décalotte délicatement mon rat-taupe nu il est immortel, on dit qu'un vampire l'a mordu Je vais droit au but en déballant ma vie tordue j'rêve éveillé donc, j'avoue, je n'dors plus Fouisseur, je jouis seul en ficelant de ruisselants Écrits, semant l'épuisement chez ceux qui me suivent depuis si longtemps Autour de moi, y'a des cercueils qui s'effritent Y'a les squelettes d'ex mecs obèses qui ont brisé l'omerta Y'a des fossiles disséminés, mes vers qui s'excitent J'ai l'amertume d'une pelure d'agrume, j'perce des tunnels, comme Bertha Mais y'a toujours une lueur dans mon foyer Laissez-moi vous choyer, concocter des potions pour vous soigner Goûtez ma bonne soupe de magma glacé Mes infusions de racines pour digérer le passé Dans mon esprit, c'est l'anarchie, pas un royaume Des images s'entrechoquent faisant l'effet d'un chaud tord-boyaux J'ai mangé le monde, recraché le noyau J'l'ai planté dans un trou noir, j'm'en vais cueillir quelques joyaux You might also like Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Trou story Dans ma maison sous terre1</t>
+          <t>Bienvenue dans mon terrier Quand j'hiberne, tous les jours sont fériés De la weed sèche dans mon herbier Maître Renard me l'a livrée à l'insu des fermiers Quand j'me creuse la tête, j'fourmille d'idées C'est le fourbi dans l'fournil où cuisent de savoureuses maquettes J'ai l'tournis, étourdi, pour ne pas dire fonce-dé J'défie les blaireaux qui me toisent et leurs sourcils froncés Dans l'underground, j'ai fait mon trou Encore debout au troisième round, j'enfonce le clou Le vent en poupe, un hippocampe comme figure de proue Pour gagner ma croûte, je n'travaille pas si dur, je joue À cache-cache avec les créatures de Dante et Kafka J'caresse l'une des trois têtes de cerbère qui ronge des carcasses De chérubins damnés dont planent encore les voix de castrats L'été, Hadès me prête sa belle villa dans le Tartare Cru dans mes propos, je cuis sous les projos J'veux juste amuser la galerie, faire cogiter les bobos Les aristos, les prolos, les libéraux, les cocos Les voir s'agiter ensemble et communier lors d'un pogo L'art nous réunit en temps d'crise J'envoie du bois pour épouser ma vie en dents d'scie Retrouve-moi dans trente piges à poil en Birkenstock Sous une plage du Cap d'Agde, Guttentag Herr Lidenbrock Oui, j'ai des copains sous terre, jamais du-per Car j'ai du flair, j'enfouis ma joie, comme Isabelle Huppert Je fouine sur le net à la recherche d'une belette Quand j'en trouve une, je pousse des cris de suricate alerte et J'décalotte délicatement mon rat-taupe nu il est immortel, on dit qu'un vampire l'a mordu Je vais droit au but en déballant ma vie tordue j'rêve éveillé donc, j'avoue, je n'dors plus Fouisseur, je jouis seul en ficelant de ruisselants Écrits, semant l'épuisement chez ceux qui me suivent depuis si longtemps Autour de moi, y'a des cercueils qui s'effritent Y'a les squelettes d'ex mecs obèses qui ont brisé l'omerta Y'a des fossiles disséminés, mes vers qui s'excitent J'ai l'amertume d'une pelure d'agrume, j'perce des tunnels, comme Bertha Mais y'a toujours une lueur dans mon foyer Laissez-moi vous choyer, concocter des potions pour vous soigner Goûtez ma bonne soupe de magma glacé Mes infusions de racines pour digérer le passé Dans mon esprit, c'est l'anarchie, pas un royaume Des images s'entrechoquent faisant l'effet d'un chaud tord-boyaux J'ai mangé le monde, recraché le noyau J'l'ai planté dans un trou noir, j'm'en vais cueillir quelques joyaux Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Trou story Dans ma maison sous terre1</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ok Tout est prêt pour mon départ Mon passeport, mon poster de Falcor et mon guide du retard Mon baril de Biafine, mon cadran solaire à piles Mes bottes à talons d'Achille, et des ufs de poisson d'avril Mon aspirateur de nuages gris, mon orgue de barbarie Un shampoing anti-poux en cas de tachycardie Mon bâton d'pluie pour rafraîchir mes tympans Ma poudre de Fée du Logis pour nettoyer mon tapis volant Mes mots-fléchés, mon jeu d'échecs et mon Scrabble Mon carnet d'santé, mon éthylotest en forme de poupée gonflable Mon bananier, mon détecteur de métaux pour retrouver mon moral d'acier Mon maillot, mon déo', mon réchaud, mes Lego pour bâtir des châteaux où mes vilains défauts pourront se cacher Un sac poubelle en guise de linceul Pour répondre au silence sans réfléchir, un smiley clin d'il Mon matelas futon, mes stylos sans capuchon En clair, je fourre le strict nécessaire dans mon baluchon x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints Tout part à vau-l'eau, ainsi va la vie, je lève les voiles pour m'en aller voguer J'emporte avec moi un tas de bricoles, cahiers spirales de mes rimes frivoles Mon charabia, mon Picabia, mon Picasso et mon pote pique-assiette Et, dans mon sac, un souk de cassettes de zouk, de ziks de types à casquettes J'emmène loin mon Ghetto-Blaster sur des plages de sable fin Mes mots cassés dans mes calepins, boubou d'Bazin et mocassins Et des lapins sous mon chapeau pour les poser où j'viendrai pas Aux rendez-vous des Pôles Emplois quand j's'rai sur l'île de Koh-Lanta J'prends ma canne à garder la pêche pour attraper des poissons clowns Et des casquettes ratons-laveurs, et toutes mes chaussettes assez cools Des bretzels peace and love et mes patins à glace à la vanille Des visas à vie pour des paysages sans vis-à-vis J'me fais la malle pour une femelle, je suis un chat, j'voyage léché J'prends mes sandales sans leur semelle car j'veux mettre le vent à mes pieds J'oublie pas ma couscoussière, demain, hasta la vista Dans mon sac de mec serein, c'est simple, j'ai presque nada You might also like x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints1</t>
+          <t>Ok Tout est prêt pour mon départ Mon passeport, mon poster de Falcor et mon guide du retard Mon baril de Biafine, mon cadran solaire à piles Mes bottes à talons d'Achille, et des ufs de poisson d'avril Mon aspirateur de nuages gris, mon orgue de barbarie Un shampoing anti-poux en cas de tachycardie Mon bâton d'pluie pour rafraîchir mes tympans Ma poudre de Fée du Logis pour nettoyer mon tapis volant Mes mots-fléchés, mon jeu d'échecs et mon Scrabble Mon carnet d'santé, mon éthylotest en forme de poupée gonflable Mon bananier, mon détecteur de métaux pour retrouver mon moral d'acier Mon maillot, mon déo', mon réchaud, mes Lego pour bâtir des châteaux où mes vilains défauts pourront se cacher Un sac poubelle en guise de linceul Pour répondre au silence sans réfléchir, un smiley clin d'il Mon matelas futon, mes stylos sans capuchon En clair, je fourre le strict nécessaire dans mon baluchon x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints Tout part à vau-l'eau, ainsi va la vie, je lève les voiles pour m'en aller voguer J'emporte avec moi un tas de bricoles, cahiers spirales de mes rimes frivoles Mon charabia, mon Picabia, mon Picasso et mon pote pique-assiette Et, dans mon sac, un souk de cassettes de zouk, de ziks de types à casquettes J'emmène loin mon Ghetto-Blaster sur des plages de sable fin Mes mots cassés dans mes calepins, boubou d'Bazin et mocassins Et des lapins sous mon chapeau pour les poser où j'viendrai pas Aux rendez-vous des Pôles Emplois quand j's'rai sur l'île de Koh-Lanta J'prends ma canne à garder la pêche pour attraper des poissons clowns Et des casquettes ratons-laveurs, et toutes mes chaussettes assez cools Des bretzels peace and love et mes patins à glace à la vanille Des visas à vie pour des paysages sans vis-à-vis J'me fais la malle pour une femelle, je suis un chat, j'voyage léché J'prends mes sandales sans leur semelle car j'veux mettre le vent à mes pieds J'oublie pas ma couscoussière, demain, hasta la vista Dans mon sac de mec serein, c'est simple, j'ai presque nada x2 C'est simple, je suis un mec serein Pour mon bien-être, j'n'ai b'soin de presque rien Des fesses rebondies, une jolie paire de seins Quelques babioles, beaucoup d'alcool, des kilomètres de joints1</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>L'hippocampe, l'hippocampe, l'hippocampe, l'hippocampe A tout, sauf l'apparence d'un poisson Je vous invite à un petit aquatrip Plonge dans mon monde quelques centaines de secondes Laisse-moi chatouiller tes orteils Nage mais ne bois pas la tasse au royaume des algues On aime gazouiller, c'est mortel Poète néo-rétro modeste, zéro défaut recherche D'honnêtes et graciles crevettes avides De rodéos de phrases et de rimes sous-marines acides et équestres Né au beau milieu du Triangle des Bermudes, j'aime M'acoquiner régulièrement avec de belles murènes Cheval des mers superbe, je me déplace verticalement N'ai jamais tort, évidemment, car l'erreur est humaine Je porte et protège mes oeufs, chacun renferme un proverbe, un poème Parfois même les deux Dans de drôles de récifs, tout le monde me fait signe Comme si j'étais Poséidon sur le dos de Nessie Je trie les déchets venus du continent plastique Au risque d'être qualifié de stupide écolo drastique Mais ici-bas, rien n'est problématique Dans des épaves, dansent des crabes avec Ponyo, Bob et Patrick Aquatrip de la Jamaïque aux îles Canaries De l'océan Pacifique aux égoûts de Canardville Sous l'eau tout est magnifique, la quiétude est salvatrice Prends dix années sabbatiques, viens goûter au paradis You might also like Plonge dans mon monde quelques centaines de secondes Laisse-moi chatouiller tes orteils Nage mais ne bois pas la tasse, au royaume des algues On aime gazouiller, c'est mortel Plonge dans mon monde trois cent millions de secondes Laisse-moi chatouiller tes orteils Nage en admirant les phrases dans mes bulles d'aquarap Elles vont mordiller tes oreilles3</t>
+          <t>L'hippocampe, l'hippocampe, l'hippocampe, l'hippocampe A tout, sauf l'apparence d'un poisson Je vous invite à un petit aquatrip Plonge dans mon monde quelques centaines de secondes Laisse-moi chatouiller tes orteils Nage mais ne bois pas la tasse au royaume des algues On aime gazouiller, c'est mortel Poète néo-rétro modeste, zéro défaut recherche D'honnêtes et graciles crevettes avides De rodéos de phrases et de rimes sous-marines acides et équestres Né au beau milieu du Triangle des Bermudes, j'aime M'acoquiner régulièrement avec de belles murènes Cheval des mers superbe, je me déplace verticalement N'ai jamais tort, évidemment, car l'erreur est humaine Je porte et protège mes oeufs, chacun renferme un proverbe, un poème Parfois même les deux Dans de drôles de récifs, tout le monde me fait signe Comme si j'étais Poséidon sur le dos de Nessie Je trie les déchets venus du continent plastique Au risque d'être qualifié de stupide écolo drastique Mais ici-bas, rien n'est problématique Dans des épaves, dansent des crabes avec Ponyo, Bob et Patrick Aquatrip de la Jamaïque aux îles Canaries De l'océan Pacifique aux égoûts de Canardville Sous l'eau tout est magnifique, la quiétude est salvatrice Prends dix années sabbatiques, viens goûter au paradis Plonge dans mon monde quelques centaines de secondes Laisse-moi chatouiller tes orteils Nage mais ne bois pas la tasse, au royaume des algues On aime gazouiller, c'est mortel Plonge dans mon monde trois cent millions de secondes Laisse-moi chatouiller tes orteils Nage en admirant les phrases dans mes bulles d'aquarap Elles vont mordiller tes oreilles3</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Chez moi, y'a un lama, y'a pas d'panorama Là haut, y'a un amas de photos de Valderrama De Clara qui l'écarte, de Carla écarlate À quatre pattes dans l'appart d'un pseudo Bonaparte Chez moi, y'a le dahu et Le Horla Un escalier vers l'au delà, y'a du raffut quand j'y suis pas Y'a du cidre dans un biberon, y'a plus d'citron Y'a des éperons, des électrons libres ou en prison Y'a les textes homériques, la musique prophétique De ce groupe émérite qu'est la Secte Phonétik Y'a les clefs d'un cabriolet, je sais plus où j'l'ai garé Venez me cambrioler, voler mes listes barrées Chez moi, y'a Miyazaki, Haneke, Von Trier et Kubrick Y'a mon prépuce dans l'utérus d'une poupée russe bien rustique Y'a des lamas qui fument, des pyjamas qui puent Des rayons gammas qui tuent, et puis y'a moi qui titube Qui m'inhume ou m'illumine, qui m'anime ou qui déprime Qui bedave et qui cuisine des sardines Y'a des singles has been comme Let me be a Drag Queen Sous la table des chewing gums, des débris de tartines Des synopsis à taffer, des idées agrafées Trop de livres à terminer, des hiéroglyphes à déchiffrer Des femmes à gros pixels dans des films en divX Et, dans des sapes XL, y a des piles de lyrics C'est asymétrique, labyrinthique Assez mythique pour rapper un truc qui peut être un hit Car y'a dix gros kebabs sous des poils de mygales Et y'a mes amygdales dans du sirop d'érable Des manuels de drague, des calamars, des algues Emmanuel à Prague, des Carambar sans blague Des bagues, des dagues, des vagues de gags Des mags de tags, des lags, des spams Des rames, des palmes, des lamas qui parlent C'est crade mais calme, t'as cramé le charmeYou might also like3</t>
+          <t>Chez moi, y'a un lama, y'a pas d'panorama Là haut, y'a un amas de photos de Valderrama De Clara qui l'écarte, de Carla écarlate À quatre pattes dans l'appart d'un pseudo Bonaparte Chez moi, y'a le dahu et Le Horla Un escalier vers l'au delà, y'a du raffut quand j'y suis pas Y'a du cidre dans un biberon, y'a plus d'citron Y'a des éperons, des électrons libres ou en prison Y'a les textes homériques, la musique prophétique De ce groupe émérite qu'est la Secte Phonétik Y'a les clefs d'un cabriolet, je sais plus où j'l'ai garé Venez me cambrioler, voler mes listes barrées Chez moi, y'a Miyazaki, Haneke, Von Trier et Kubrick Y'a mon prépuce dans l'utérus d'une poupée russe bien rustique Y'a des lamas qui fument, des pyjamas qui puent Des rayons gammas qui tuent, et puis y'a moi qui titube Qui m'inhume ou m'illumine, qui m'anime ou qui déprime Qui bedave et qui cuisine des sardines Y'a des singles has been comme Let me be a Drag Queen Sous la table des chewing gums, des débris de tartines Des synopsis à taffer, des idées agrafées Trop de livres à terminer, des hiéroglyphes à déchiffrer Des femmes à gros pixels dans des films en divX Et, dans des sapes XL, y a des piles de lyrics C'est asymétrique, labyrinthique Assez mythique pour rapper un truc qui peut être un hit Car y'a dix gros kebabs sous des poils de mygales Et y'a mes amygdales dans du sirop d'érable Des manuels de drague, des calamars, des algues Emmanuel à Prague, des Carambar sans blague Des bagues, des dagues, des vagues de gags Des mags de tags, des lags, des spams Des rames, des palmes, des lamas qui parlent C'est crade mais calme, t'as cramé le charme3</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>x2 Je suis la risée de tous, le dindon d'la farce Les gens n'ont pas pitié des oufs, personne ne m'regarde en face Car j'ai des pustules et des kystes halés qui tachent De l'herpès sur le visage, pellicules dans la moustache J'ai des rides, j'empeste mais j'oublie en dégustant des pistaches Ridicule comme un gymnaste qui hésite et qui chute au début d'la compèt' J'ai des pistolets qui crachent de l'eau plate ou des billes, les voyous s'cachent J'suis moins robuste qu'une puce ou qu'une limace En voiture, je vomis dans les virages, amiral d'un navire sans équipage En ermitage, fils unique sans héritage Aguerri sous le mistral, je déverse du Sprite dans des verres en cristal Je customise les pizzas en ajoutant des chips et du beurre salé Je débite des tas de répliques nazes type Hasta la vista, baby J'suis lubrique et vacille quand les filles barges disent Casse-toi d'là fissa, t'es laid J'suis limite sale, suis des rites sado-maso tard dans ma gova Et j'imite mal la démarche d'Aldo Maccione à Bora Bora J'ai dragué des trav' hongrois, traqué des dragons froids Braqué des barons, squatté les balançoires en gardant mes bras en croix Parfois, je crois en moi mais quand je croise mon reflet, pris d'effroi Je me dis que personne ne voudra jamais me passer la bague au doigt, non ! x4 You might also like Dans ma chambre, j'ai des posters de Charlemagne J'pars en vacances sur la West Coast, ouais, j'aime la Bretagne Je n'lis jamais l'journal à part celui d'Mickey Gollum, Sinok, Elephant Man sont trois d'mes sobriquets Mon sexe est court comme la carrière d'un acteur de snuff movie Dès qu'une meuf sourit, je jouis, mon sperme sent l'oeuf pourri Je tache mes baggys kakis, chez moi c'est comme à Nagasaki En '45, oui, je range mes habits dans des caddies Pour m'endormir, j'compte les moutons de poussière En fumant des gros spliffs donc mes poumons sont tous verts On m'traite de bouffon parce que j'confonds la dance et le blues Et que je tonds la pelouse avec un coupe-ongles En plus, j'me suis fait piquer par un scorpion en pleine rue Je joue tout seul au morpion, comme ça je perds plus Je chante comme Bernard Lavilliers, radote comme Arlette Laguiller J'finirai sans doute lapidé sans avoir connu l'amitié x4 Une voyante m'a lu les lignes de la main et apparemment Je vais survivre à une chute de plus de cent douze étages L'opulence devrait croiser mon chemin mais j'serai mort avant Écrasé par une ambulance dans les embouteillages J'ai des doigts de feignant, déjà des poils de nez blanc Pourtant je bois de l'Evian souvent et gobe les flans Je fais pas ça pour ber-flam j'ai pas d'euros mais des francs Quand j'prends ma voix de méchant, ça fait rigoler les gens J'dois l'avouer, je n'ai vraiment aucune passion Me faire charrier toute la journée est mon unique occupation Mon urologue se moque de moi à chaque consultation Les nymphomanes aveugles me fuient même en période d'ovulation Je défèque dans les urinoirs en faisant quelques bruits bizarres Je danse le cha-cha-cha sur des messes noires quel désespoir ! Je prépare des omelettes à l'époisses et aux cèpes J'en ai marre, j'fais trop tiep, faut qu'je repasse mes chaussettes x44</t>
+          <t>x2 Je suis la risée de tous, le dindon d'la farce Les gens n'ont pas pitié des oufs, personne ne m'regarde en face Car j'ai des pustules et des kystes halés qui tachent De l'herpès sur le visage, pellicules dans la moustache J'ai des rides, j'empeste mais j'oublie en dégustant des pistaches Ridicule comme un gymnaste qui hésite et qui chute au début d'la compèt' J'ai des pistolets qui crachent de l'eau plate ou des billes, les voyous s'cachent J'suis moins robuste qu'une puce ou qu'une limace En voiture, je vomis dans les virages, amiral d'un navire sans équipage En ermitage, fils unique sans héritage Aguerri sous le mistral, je déverse du Sprite dans des verres en cristal Je customise les pizzas en ajoutant des chips et du beurre salé Je débite des tas de répliques nazes type Hasta la vista, baby J'suis lubrique et vacille quand les filles barges disent Casse-toi d'là fissa, t'es laid J'suis limite sale, suis des rites sado-maso tard dans ma gova Et j'imite mal la démarche d'Aldo Maccione à Bora Bora J'ai dragué des trav' hongrois, traqué des dragons froids Braqué des barons, squatté les balançoires en gardant mes bras en croix Parfois, je crois en moi mais quand je croise mon reflet, pris d'effroi Je me dis que personne ne voudra jamais me passer la bague au doigt, non ! x4 Dans ma chambre, j'ai des posters de Charlemagne J'pars en vacances sur la West Coast, ouais, j'aime la Bretagne Je n'lis jamais l'journal à part celui d'Mickey Gollum, Sinok, Elephant Man sont trois d'mes sobriquets Mon sexe est court comme la carrière d'un acteur de snuff movie Dès qu'une meuf sourit, je jouis, mon sperme sent l'oeuf pourri Je tache mes baggys kakis, chez moi c'est comme à Nagasaki En '45, oui, je range mes habits dans des caddies Pour m'endormir, j'compte les moutons de poussière En fumant des gros spliffs donc mes poumons sont tous verts On m'traite de bouffon parce que j'confonds la dance et le blues Et que je tonds la pelouse avec un coupe-ongles En plus, j'me suis fait piquer par un scorpion en pleine rue Je joue tout seul au morpion, comme ça je perds plus Je chante comme Bernard Lavilliers, radote comme Arlette Laguiller J'finirai sans doute lapidé sans avoir connu l'amitié x4 Une voyante m'a lu les lignes de la main et apparemment Je vais survivre à une chute de plus de cent douze étages L'opulence devrait croiser mon chemin mais j'serai mort avant Écrasé par une ambulance dans les embouteillages J'ai des doigts de feignant, déjà des poils de nez blanc Pourtant je bois de l'Evian souvent et gobe les flans Je fais pas ça pour ber-flam j'ai pas d'euros mais des francs Quand j'prends ma voix de méchant, ça fait rigoler les gens J'dois l'avouer, je n'ai vraiment aucune passion Me faire charrier toute la journée est mon unique occupation Mon urologue se moque de moi à chaque consultation Les nymphomanes aveugles me fuient même en période d'ovulation Je défèque dans les urinoirs en faisant quelques bruits bizarres Je danse le cha-cha-cha sur des messes noires quel désespoir ! Je prépare des omelettes à l'époisses et aux cèpes J'en ai marre, j'fais trop tiep, faut qu'je repasse mes chaussettes x44</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Lorsque le ciel déprime, j'ai la flemme d'écrire Alors j'remate des films rêvant d'être amnésique Quand j'ai l'moral sapé, j'me mets à poil Et sèche mes larmes avec un lance-flammes, ça m'lasse très vite Je comble mes lacunes, éjacule dans des ronces Et vomis dans des lagunes Je me branle trop, j'ai la paume qui fume J'vais m'faire un GTA dans le Royaume d'Hyrule Il neige sur ma terre fleurie J'recouds mon cur dans une mercerie Avec du fil de fer, ai-je l'air de rire ? Je suis le fou dans la chèvrerie J'offre des cravates de notaire à toutes les mamans qui allaitent J'ai des couronnes sur les molaires, pourtant, j'n'ai jamais eu la fève Et, pour éteindre le soleil, je crache de l'eau Chaque nuit, dans mon sommeil, Freddy me gratte le dos J'mène une vie d'patachon, hors de mon lit, j'attrape froid J'ai besoin d'une inhalation doublée d'un hymne à la joie Plus souvent qu'un ébéniste, je touche du bois Ne boude pas, je t'aime... de tout mon foie x2 Cuando se mueran las estrellas Nos miraremos sin llorar Esconderemos la tristeza Nos quedaremos sin soñar You might also like Je n'parviens pas à fabriquer d'amis avec mon imprimante 3D Décidément, désemparé, j'erre dans des salles vides J'appelle en vain des brancardiers car dans ma trachée aride Une bouteille à oxygène est entravée Mon cerveau est en travaux, c'est un chantier sans fin J'observe le monde à travers un miroir sans tain Frissonne de plaisir quand j'lis Les Chants de Maldoror Allongé sur le dos d'un brachiosaure Je n'suis ni pour la monarchie ni contre écouter du Prince Et du Queen dans un lit king size en pure autarcie La bureaucratie me donne de l'urticaire On me traite d'hypocondriaque depuis qu'j'dors sur une civière L'éternité des Hommes est une chimère Le néant m'effraie bien plus que l'enfer ou Lucifer Regarde mes craintes dans cet écrin L'écriture est mon élixir quand la nostalgie m'étreint J'effrite, je graille, je tise le Tigre et l'Euphrate Je baille, médite, je fouille, je rate, je trouve, je gratte Je brouille les pistes, je braille, je triche, je craque Je traque, j'affine, j'attrape, je brille, je rappe J'avance dans le brouillard étourdi J'en ai brûlé des brouillons en refermant mes écoutilles Je me tairai quand j'aurai tout dit J'arrose la tombe de mon enfance, mais rien ne pousse si ce n'est l'oubli x2 Cuando se mueran las estrellas Nos miraremos sin llorar Esconderemos la tristeza Nos quedaremos sin soñar6</t>
+          <t>Lorsque le ciel déprime, j'ai la flemme d'écrire Alors j'remate des films rêvant d'être amnésique Quand j'ai l'moral sapé, j'me mets à poil Et sèche mes larmes avec un lance-flammes, ça m'lasse très vite Je comble mes lacunes, éjacule dans des ronces Et vomis dans des lagunes Je me branle trop, j'ai la paume qui fume J'vais m'faire un GTA dans le Royaume d'Hyrule Il neige sur ma terre fleurie J'recouds mon cur dans une mercerie Avec du fil de fer, ai-je l'air de rire ? Je suis le fou dans la chèvrerie J'offre des cravates de notaire à toutes les mamans qui allaitent J'ai des couronnes sur les molaires, pourtant, j'n'ai jamais eu la fève Et, pour éteindre le soleil, je crache de l'eau Chaque nuit, dans mon sommeil, Freddy me gratte le dos J'mène une vie d'patachon, hors de mon lit, j'attrape froid J'ai besoin d'une inhalation doublée d'un hymne à la joie Plus souvent qu'un ébéniste, je touche du bois Ne boude pas, je t'aime... de tout mon foie x2 Cuando se mueran las estrellas Nos miraremos sin llorar Esconderemos la tristeza Nos quedaremos sin soñar Je n'parviens pas à fabriquer d'amis avec mon imprimante 3D Décidément, désemparé, j'erre dans des salles vides J'appelle en vain des brancardiers car dans ma trachée aride Une bouteille à oxygène est entravée Mon cerveau est en travaux, c'est un chantier sans fin J'observe le monde à travers un miroir sans tain Frissonne de plaisir quand j'lis Les Chants de Maldoror Allongé sur le dos d'un brachiosaure Je n'suis ni pour la monarchie ni contre écouter du Prince Et du Queen dans un lit king size en pure autarcie La bureaucratie me donne de l'urticaire On me traite d'hypocondriaque depuis qu'j'dors sur une civière L'éternité des Hommes est une chimère Le néant m'effraie bien plus que l'enfer ou Lucifer Regarde mes craintes dans cet écrin L'écriture est mon élixir quand la nostalgie m'étreint J'effrite, je graille, je tise le Tigre et l'Euphrate Je baille, médite, je fouille, je rate, je trouve, je gratte Je brouille les pistes, je braille, je triche, je craque Je traque, j'affine, j'attrape, je brille, je rappe J'avance dans le brouillard étourdi J'en ai brûlé des brouillons en refermant mes écoutilles Je me tairai quand j'aurai tout dit J'arrose la tombe de mon enfance, mais rien ne pousse si ce n'est l'oubli x2 Cuando se mueran las estrellas Nos miraremos sin llorar Esconderemos la tristeza Nos quedaremos sin soñar6</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>- C'est elle - On dit qu'elle enlève les enfants pour les manger - En particulier les nourrissons - Han ! Quelle horreur ! - En plus, elle avoue n'être attirée que par les rats - Silence ! Prenez place Nous vous accusons de pratiquer de sombres ablutions De laisser cours à vos pulsions les plus démoniaques De danser nue sous l'orage Mais voici venu le temps des punitions comme l'a prédit l'oracle Vous n'êtes qu'une sorcière, une tortionnaire hors-pair Noir est le sang qui coule dans vos artères Nous allons vous étriper, crever vos yeux Purifier votre âme par le feu, amen Insultez-moi à outrance si cela vous chante Je n'crains pas la souffrance, mais ne m'inculpez pas Ce serait fâcheux pour ces filles et leurs prétendants Qui d'autres que moi pourrait s'occuper de leurs descendants ? Si vous me jetez au bûcher, qui aidera ces filles à avorter ? Qui va adopter les enfants mal-formés abandonnés ? Sachez que la compassion trône sous mon toit de chaume Et que sous les aulnes, il n'y a ni fantôme, ni gnome You might also like Cessez de faire de l'esbroufe Votre baratin ne me touchera point, votre amour pour le malin vous étouffe Et chaque matin, main dans la main, vous chantez au bord du gouffre Dans une odeur de soufre Je vous guérirai, délivré, vous me chérirez Je rirai, quittons cette tour et l'échiquier Il y fait si frais, fuyons sans tarder cette horde de manants Allons forniquer dans l'affreuse grotte de Satan Vous ne décelez en moi que de la noirceur Ne voyez-vous donc pas que je suis votre âme-sur ? Taisez-vous, levez-vous, vous n'inspirez que le dégoût Il n'y a que pour Dieu que je me dévoue À c'propos, n'est-ce point triste que de mourir puceau ? N'est-ce point sorcellerie que de marcher sur l'eau ? Blasphème ! Créature malsaine C'est dans les flammes qu'aura lieu votre baptême Carpe Diem, je profite de l'instant présent Ceci dit, votre Enfer ressemble au soleil incandescent Comment osez-vous prononcer de telles abjections ? Dois-je en déduire que ma clairvoyance est perçue comme une agression ? Vous êtes possédée ! J'ai le goût du risque Vous êtes obsédé par l'amour du Christ Qu'on la fasse taire, qu'on la torture, qu'on la brûle ensuite ! La lumière ne jaillira jamais de l'obscurantisme Cris de femme et crépitement de feu</t>
+          <t>- C'est elle - On dit qu'elle enlève les enfants pour les manger - En particulier les nourrissons - Han ! Quelle horreur ! - En plus, elle avoue n'être attirée que par les rats - Silence ! Prenez place Nous vous accusons de pratiquer de sombres ablutions De laisser cours à vos pulsions les plus démoniaques De danser nue sous l'orage Mais voici venu le temps des punitions comme l'a prédit l'oracle Vous n'êtes qu'une sorcière, une tortionnaire hors-pair Noir est le sang qui coule dans vos artères Nous allons vous étriper, crever vos yeux Purifier votre âme par le feu, amen Insultez-moi à outrance si cela vous chante Je n'crains pas la souffrance, mais ne m'inculpez pas Ce serait fâcheux pour ces filles et leurs prétendants Qui d'autres que moi pourrait s'occuper de leurs descendants ? Si vous me jetez au bûcher, qui aidera ces filles à avorter ? Qui va adopter les enfants mal-formés abandonnés ? Sachez que la compassion trône sous mon toit de chaume Et que sous les aulnes, il n'y a ni fantôme, ni gnome Cessez de faire de l'esbroufe Votre baratin ne me touchera point, votre amour pour le malin vous étouffe Et chaque matin, main dans la main, vous chantez au bord du gouffre Dans une odeur de soufre Je vous guérirai, délivré, vous me chérirez Je rirai, quittons cette tour et l'échiquier Il y fait si frais, fuyons sans tarder cette horde de manants Allons forniquer dans l'affreuse grotte de Satan Vous ne décelez en moi que de la noirceur Ne voyez-vous donc pas que je suis votre âme-sur ? Taisez-vous, levez-vous, vous n'inspirez que le dégoût Il n'y a que pour Dieu que je me dévoue À c'propos, n'est-ce point triste que de mourir puceau ? N'est-ce point sorcellerie que de marcher sur l'eau ? Blasphème ! Créature malsaine C'est dans les flammes qu'aura lieu votre baptême Carpe Diem, je profite de l'instant présent Ceci dit, votre Enfer ressemble au soleil incandescent Comment osez-vous prononcer de telles abjections ? Dois-je en déduire que ma clairvoyance est perçue comme une agression ? Vous êtes possédée ! J'ai le goût du risque Vous êtes obsédé par l'amour du Christ Qu'on la fasse taire, qu'on la torture, qu'on la brûle ensuite ! La lumière ne jaillira jamais de l'obscurantisme Cris de femme et crépitement de feu</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hippocampe Fou, c'est moi, tu peux m'appeler Hippo Sur scène, j'me mets à nu comme un sale exhibo' Tu m'as sûrement déjà vu mijotant sous mes draps Voyageant comme Dorothy, Alice ou Chihiro J'viens pour guérir l'épidémie de rimes débiles qui sévit Et, si j'faiblis, qu'on m'déshérite ou que j'périsse, je le mérite Mais, si j'relève le défi, que je résous quelques énigmes Qu'on érige des menhirs à la mémoire de mes délires Jeune padawan venu mater Tu n'es pas de taille, te débats, tu n'as pas pieds Tu n'as pas l'étoffe, pas le coffre, tu l'as capté Retourne vite à l'école taffer, tu m'as lassé Dans les bals, dès que les catins crient Décalecatan, t'as la gaule, t'es démasqué Wakatépé baboune, j'vais décaper ta bouille Déballer mes tabous puis te balafrer J'aime les métaphores, toutes les gos et les gars forts Dans la foule, oui, je les mets d'accord J'suis pas là pour lever l'épée, décapiter les porcs Et puis laper le sang, alors Pas de faux débat, tu n'as pas de boules Et ta belle équipe, elle est kaput, tu piges ? J'ai volé vos âmes, je les connais toutes J'ai le cannabis et le bagou, tu kiffes ? J'vais tappâter, t'épater, te 'per-ta', vapoter ton pétard Taper ton code PIN, appeler ta copine, la choper dans des bars Deux, trois verres de pinard plus tard, à l'hôtel, en peignoir, peinard Je finis mon scénar' pendant que je me fais pomper l'dard, c'est dare J'te sens pas tout ouïe, ferme ta bouche pourrie Ou mets du désodorisant comme Nana Mouskouri Hippocampe Fou t'nourrit, pique-nique dans le maquis C'est l'unique homme à qui tous les misanthropes sourientYou might also like</t>
+          <t>Hippocampe Fou, c'est moi, tu peux m'appeler Hippo Sur scène, j'me mets à nu comme un sale exhibo' Tu m'as sûrement déjà vu mijotant sous mes draps Voyageant comme Dorothy, Alice ou Chihiro J'viens pour guérir l'épidémie de rimes débiles qui sévit Et, si j'faiblis, qu'on m'déshérite ou que j'périsse, je le mérite Mais, si j'relève le défi, que je résous quelques énigmes Qu'on érige des menhirs à la mémoire de mes délires Jeune padawan venu mater Tu n'es pas de taille, te débats, tu n'as pas pieds Tu n'as pas l'étoffe, pas le coffre, tu l'as capté Retourne vite à l'école taffer, tu m'as lassé Dans les bals, dès que les catins crient Décalecatan, t'as la gaule, t'es démasqué Wakatépé baboune, j'vais décaper ta bouille Déballer mes tabous puis te balafrer J'aime les métaphores, toutes les gos et les gars forts Dans la foule, oui, je les mets d'accord J'suis pas là pour lever l'épée, décapiter les porcs Et puis laper le sang, alors Pas de faux débat, tu n'as pas de boules Et ta belle équipe, elle est kaput, tu piges ? J'ai volé vos âmes, je les connais toutes J'ai le cannabis et le bagou, tu kiffes ? J'vais tappâter, t'épater, te 'per-ta', vapoter ton pétard Taper ton code PIN, appeler ta copine, la choper dans des bars Deux, trois verres de pinard plus tard, à l'hôtel, en peignoir, peinard Je finis mon scénar' pendant que je me fais pomper l'dard, c'est dare J'te sens pas tout ouïe, ferme ta bouche pourrie Ou mets du désodorisant comme Nana Mouskouri Hippocampe Fou t'nourrit, pique-nique dans le maquis C'est l'unique homme à qui tous les misanthropes sourient</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever Dooz au téléphone -Arrêtes qu'est ce que tu racontes.. Putain mais, c'est pas la question c'est pas le moment de parler de ça Hippo à côté de Dooz-Raccroche, allez -Ouais une seconde ! -Raccroche ! -T'as vu c'est plus possible, c'est juste pas bon -Tu la rappelles après, c'est bon ! Tout à l'heure on sera riche mec -Il faut que je te laisse -Allez, allez -Il faut que je te laisse ! -Go Pas de stress c'est pour un retrait ! Ahaha Je rentre dans la banque un après midi de chien Dévasé par les les shooters Pour tout voler Je suis prêt à tout donner Je fais du grand banditisme toulonais Francky Le Belge qui débarque dans la foule caché sous un masque de clown Tire une rafale en l'air et les gens se retournent Juste une fois Et on quitte le froid pour toujours Je me souviens toujours de ce fameux jour où à noël y avait pas de cadeaux Mon père noël est mort alcoolo Perdu on perd nos repères, mets une paire d'espèces dans le sac à dos j' décampe et fous le camp Dans la voiture devant Hippocampe m'attend J'espère que t'as pas tué des gens que t'as ramené le pactole Dans le fond t'es pas méchant mais tu deviens dément quand tu taffoles Depuis tout petit tu fais des bêtises je t'ai pourtant dit d'éviter l'alcool La voiture ne démarre pas, c'est ton mauvais karma On est dans la merde ne te marres pas ! -Vas-y, on fait quoi maintenant ? Restons planqués concentrés appliquons le plan B On va s'en tirer sans flancher sans flamber mais pas sans blé OK Oh Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever On s'écarte du boulevard et les gens passent sur le pare-brise Et claclaclaclaclac a fait la jante sur le trottoir L'agent ne fait que son devoir A grand coups de pieds dans les reins Pose l'argent sans faire d'histoires et mets ta tête devant tes mains ! Hippo t'es loin, le braquage s'est pas bien passé Pourtant c'était parfait sur les pages du calepin de papier Je me souviens de rien, d'où vient cette voiture toute cassée Hippo qui décampe une balle dans la jambe et choisi la course à pied Tu sais que je suis pas pieu Et puis que Dieu m'a pas dit si les bandits qui meurent et qui n'ont pas fait de mal vont au paradis Comme les riches sur Terre vont au paradis fiscal Bien sûr la police est calme quand c'est l'Etat, EDF, les banquiers qui nous rackettent pour eux pas de prison Quand t'es pris en otage à travers ton livret A et qu'on te renvoie sans raison Si il y a plus d'avenir à l'horizon déchire la chemise d'un actionnaire ça fera golri à la maison Cette balle dans le quadriceps Ralentit ma course je souffre et je sens l'ivresse Les crapules tombent dans l'oubli les grands bandits restent Je suis dans la ligne de mire C'est l'interro surprise je n'ai pas d'antisèche Une balle dans le bide c'est indigeste Mon cur tambourine voilà venu l'heure du chant du cygne, j'ai envie de sexe La vie est une fête je vais la quitter frustré comme Cendrillon au réveillon de la St Sylvestre J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils remplissent des verres J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils les vident ces verres Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And everYou might also like</t>
+          <t>Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever Dooz au téléphone -Arrêtes qu'est ce que tu racontes.. Putain mais, c'est pas la question c'est pas le moment de parler de ça Hippo à côté de Dooz-Raccroche, allez -Ouais une seconde ! -Raccroche ! -T'as vu c'est plus possible, c'est juste pas bon -Tu la rappelles après, c'est bon ! Tout à l'heure on sera riche mec -Il faut que je te laisse -Allez, allez -Il faut que je te laisse ! -Go Pas de stress c'est pour un retrait ! Ahaha Je rentre dans la banque un après midi de chien Dévasé par les les shooters Pour tout voler Je suis prêt à tout donner Je fais du grand banditisme toulonais Francky Le Belge qui débarque dans la foule caché sous un masque de clown Tire une rafale en l'air et les gens se retournent Juste une fois Et on quitte le froid pour toujours Je me souviens toujours de ce fameux jour où à noël y avait pas de cadeaux Mon père noël est mort alcoolo Perdu on perd nos repères, mets une paire d'espèces dans le sac à dos j' décampe et fous le camp Dans la voiture devant Hippocampe m'attend J'espère que t'as pas tué des gens que t'as ramené le pactole Dans le fond t'es pas méchant mais tu deviens dément quand tu taffoles Depuis tout petit tu fais des bêtises je t'ai pourtant dit d'éviter l'alcool La voiture ne démarre pas, c'est ton mauvais karma On est dans la merde ne te marres pas ! -Vas-y, on fait quoi maintenant ? Restons planqués concentrés appliquons le plan B On va s'en tirer sans flancher sans flamber mais pas sans blé OK Oh Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever On s'écarte du boulevard et les gens passent sur le pare-brise Et claclaclaclaclac a fait la jante sur le trottoir L'agent ne fait que son devoir A grand coups de pieds dans les reins Pose l'argent sans faire d'histoires et mets ta tête devant tes mains ! Hippo t'es loin, le braquage s'est pas bien passé Pourtant c'était parfait sur les pages du calepin de papier Je me souviens de rien, d'où vient cette voiture toute cassée Hippo qui décampe une balle dans la jambe et choisi la course à pied Tu sais que je suis pas pieu Et puis que Dieu m'a pas dit si les bandits qui meurent et qui n'ont pas fait de mal vont au paradis Comme les riches sur Terre vont au paradis fiscal Bien sûr la police est calme quand c'est l'Etat, EDF, les banquiers qui nous rackettent pour eux pas de prison Quand t'es pris en otage à travers ton livret A et qu'on te renvoie sans raison Si il y a plus d'avenir à l'horizon déchire la chemise d'un actionnaire ça fera golri à la maison Cette balle dans le quadriceps Ralentit ma course je souffre et je sens l'ivresse Les crapules tombent dans l'oubli les grands bandits restent Je suis dans la ligne de mire C'est l'interro surprise je n'ai pas d'antisèche Une balle dans le bide c'est indigeste Mon cur tambourine voilà venu l'heure du chant du cygne, j'ai envie de sexe La vie est une fête je vais la quitter frustré comme Cendrillon au réveillon de la St Sylvestre J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils remplissent des verres J'ignore où se trouve Dooz Pourvu qu'il les double qu'il les sème tous Et qu'il épouse Celle qu'il aime depuis des millénaires Et qu'en bord de mer, ils les vident ces verres Come sit with me, we can wonder what's to come together Come, be with me, we can come together and wonder Come follow me, let me show you we were made for each other And go on like this for ever and ever and ever and ever And ever</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'te scalpe avec un pin's rouillé, que veux-tu... J'dois m'fabriquer un blouson en cuir chevelu Quand j'écris, j'réfléchis jusqu'à c'que je sue J'humidifie des filles nues, toi, t'essuies des refus T'as trouvé refuge dans la résine de cannabis Tu fais mine d'être anarchiste, tu déprimes des dizaines D'érudits psychanalystes. Mes propos cathartiques Créent des cataclysmes recolle tes neurones à l'aide de patafix J't'écartèle en douceur, j'bois à toute heure C'qui fait le bonheur des plus grands soupeurs En bon YouTuber, j'ai de douteuses coutumes File-moi le code WiFi ou tu meurs J'touche la cime avec le bout d'ma pine Pendant que toute ta troupe tapine. J'gagne sur toute la ligne Lâme du Saïan Supa Crew m'anime Mon rap est beaucoup trop frais, coupe la clim' Prends-donc un bon p'tit rail en haut du Mont Sinaï Aociz s'occupe du sound-design Voilà qu'la faim m'tiraille, vite, faisons ripaille Comme Godefroy de Montmirail J'enduis mon corps de graisse d'oie et de venin, lèche-moi J'te remonte le moral et les bretelles, c'est un exploit J'repense à ma mère qui, chaque matin, m'disait Lève-toi Aujourd'hui, c'est ma fille qui me crie Papa, réveille-toi ! J'rêvasse dans une crevasse Ressasse le passé en attendant la fonte des glaces J'bois du sang d'jedi puis fais le grand écart Un pied sur le Pont Neuf, l'autre sur le Pont des Arts Avec les mots, je suis assez soigneux Je les fais tous briller avec mon flow soyeux À une époque, j'étais bien plus joyeux ça y est, j'parle comme un vieux Mais ne m'appelle pas Monsieur... appelle-moi DieuYou might also like4</t>
+          <t>J'te scalpe avec un pin's rouillé, que veux-tu... J'dois m'fabriquer un blouson en cuir chevelu Quand j'écris, j'réfléchis jusqu'à c'que je sue J'humidifie des filles nues, toi, t'essuies des refus T'as trouvé refuge dans la résine de cannabis Tu fais mine d'être anarchiste, tu déprimes des dizaines D'érudits psychanalystes. Mes propos cathartiques Créent des cataclysmes recolle tes neurones à l'aide de patafix J't'écartèle en douceur, j'bois à toute heure C'qui fait le bonheur des plus grands soupeurs En bon YouTuber, j'ai de douteuses coutumes File-moi le code WiFi ou tu meurs J'touche la cime avec le bout d'ma pine Pendant que toute ta troupe tapine. J'gagne sur toute la ligne Lâme du Saïan Supa Crew m'anime Mon rap est beaucoup trop frais, coupe la clim' Prends-donc un bon p'tit rail en haut du Mont Sinaï Aociz s'occupe du sound-design Voilà qu'la faim m'tiraille, vite, faisons ripaille Comme Godefroy de Montmirail J'enduis mon corps de graisse d'oie et de venin, lèche-moi J'te remonte le moral et les bretelles, c'est un exploit J'repense à ma mère qui, chaque matin, m'disait Lève-toi Aujourd'hui, c'est ma fille qui me crie Papa, réveille-toi ! J'rêvasse dans une crevasse Ressasse le passé en attendant la fonte des glaces J'bois du sang d'jedi puis fais le grand écart Un pied sur le Pont Neuf, l'autre sur le Pont des Arts Avec les mots, je suis assez soigneux Je les fais tous briller avec mon flow soyeux À une époque, j'étais bien plus joyeux ça y est, j'parle comme un vieux Mais ne m'appelle pas Monsieur... appelle-moi Dieu4</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>J'dors toute la journée en c'moment Parce que, la nuit, j'veille J'veille parce que ma femme me trompe Ma femme me trompe avec le marchand d'sable Toutes les nuits, ma femme devient vacancière Elle s'évade tout en arpentant un arc-en-ciel Elle gambade dans des prairies fleuries Vit des péripéties au milieu d'une oasis et s'embrase Dans un hamac sur une île vierge Sous une cascade pleine de mystères C'est plutôt salutaire, l'unique souci C'est qu'elle a retiré ma bague de son annulaire et pratique l'adultère Avec un nomade bourré de charme Qui l'encourage à savourer le calme À la fois brave aristocrate sans cravate et Zavatta Cet homme à femmes antisocial, un peu vandale, aime Zapata Ce Dom Juan polymorphe, endurant comme Poulidor La prend dans des corridors, je crois qu'elle songe au divorce En plus, il est mastoc, il assure comme Phileas Fogg Et lui fait vivre des aventures en CinémaScope Lui conte des histoires en latin qu'elle comprend Le matin, tout lui semble dérisoire et plombant C'est pourquoi il la raccompagne, s'endort parfois au pied du lit Il m'arrive de marcher sur lui, à l'aube, les yeux engourdis You might also like x7 Ma femme me trompe avec le marchand d'sable Ce ténébreux filou entouré de brume La couvre de bisous, de bijoux et de plumes Il lui susurre à l'oreille des insanités Elle est la terre, lui, une mauvaise herbe bien enracinée Ses récits l'excitent, elle s'exile Au pays des rêves excessifs Et, dans son sommeil, elle s'exprime Crie merci, j'en suis vert et dépressif Donc, chaque soir, je passe à l'attaque Attrape ma femme par la taille pour faire crac-crac Mais elle me stoppe, baille et me rétorque T'as vu l'heure ? Espèce d'insomniaque ! Quoi qu'je fasse, y'a toujours un couac Je passe le plus clair de mon temps à nager dans un lac de crasse Ma poisse est tenace, ma solitude infâme Il m'arrive de traiter ma femme de prostipute ingrate L'abstinence est une torture Ma main droite et mes cauchemars sont mes compagnons d'infortune J'avoue que je suis jaloux de ce baroudeur nocturne Il me mène à bout, salit mon humeur et m'importune x8 Ma femme me trompe avec le marchand d'sable Avoir des cornes, ça fait vachement mal</t>
+          <t>J'dors toute la journée en c'moment Parce que, la nuit, j'veille J'veille parce que ma femme me trompe Ma femme me trompe avec le marchand d'sable Toutes les nuits, ma femme devient vacancière Elle s'évade tout en arpentant un arc-en-ciel Elle gambade dans des prairies fleuries Vit des péripéties au milieu d'une oasis et s'embrase Dans un hamac sur une île vierge Sous une cascade pleine de mystères C'est plutôt salutaire, l'unique souci C'est qu'elle a retiré ma bague de son annulaire et pratique l'adultère Avec un nomade bourré de charme Qui l'encourage à savourer le calme À la fois brave aristocrate sans cravate et Zavatta Cet homme à femmes antisocial, un peu vandale, aime Zapata Ce Dom Juan polymorphe, endurant comme Poulidor La prend dans des corridors, je crois qu'elle songe au divorce En plus, il est mastoc, il assure comme Phileas Fogg Et lui fait vivre des aventures en CinémaScope Lui conte des histoires en latin qu'elle comprend Le matin, tout lui semble dérisoire et plombant C'est pourquoi il la raccompagne, s'endort parfois au pied du lit Il m'arrive de marcher sur lui, à l'aube, les yeux engourdis x7 Ma femme me trompe avec le marchand d'sable Ce ténébreux filou entouré de brume La couvre de bisous, de bijoux et de plumes Il lui susurre à l'oreille des insanités Elle est la terre, lui, une mauvaise herbe bien enracinée Ses récits l'excitent, elle s'exile Au pays des rêves excessifs Et, dans son sommeil, elle s'exprime Crie merci, j'en suis vert et dépressif Donc, chaque soir, je passe à l'attaque Attrape ma femme par la taille pour faire crac-crac Mais elle me stoppe, baille et me rétorque T'as vu l'heure ? Espèce d'insomniaque ! Quoi qu'je fasse, y'a toujours un couac Je passe le plus clair de mon temps à nager dans un lac de crasse Ma poisse est tenace, ma solitude infâme Il m'arrive de traiter ma femme de prostipute ingrate L'abstinence est une torture Ma main droite et mes cauchemars sont mes compagnons d'infortune J'avoue que je suis jaloux de ce baroudeur nocturne Il me mène à bout, salit mon humeur et m'importune x8 Ma femme me trompe avec le marchand d'sable Avoir des cornes, ça fait vachement mal</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J'crèche loin des rizières, me baigne dans des rivières de graisse, je finirai peut-être Dans des cimetières pour hippopotames ou mammouths car jaccours dans les fast-foods Y'en a partout, à tous les carrefours, j'avale douze casse-croûtes par jour Même au mois d'août, je fais la cour à des sexy burgers anamorphiques que je pourrais engloutir avec une paille à la sortie du taf Morfal amorphe, je mempiffre, m'enquille des litres de lipides, la bouffe est ma morphine J'blague pas, je suis un gros tas, il m'faut mon quota d'pots d'mayo, mon jerrycan de soda J'graille tout c'qui est trop gras, je peins mon portrait funéraire sur les parois de mon estomac Avec des colorants alimentaires, j'ai une carence en fer, des caries dentaires, j'suis malodorant Et on m'traite de boulimique quand j'verse du coulis d'fruits D'mer, sur des grands cakes au surimi J'aime les sucettes à l'huile et le jus d'nuggets Les donuts en guise de chevalières, faisons frire ce texte Bouge ta graisse Ou j't'agresse Bouge ta graisse Remue ta paire de fesses Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, j'ai l'appétit d'Obélix Bonjours monsieur, j'vais vous prendre le triple cheeseburger au sanglier, s'il vous plaît Ouais. Avec le supplément cordon bleu. Et le... la p'tite sauce aux Schtroumpfs, on peut... on paye pas plus ? Je prends. You might also like Je prépare de géantes tartes aux fraises Tagada Brosse mes dents dix fois par jour avec de la barbe à papa J'achète, j'avale, j'évacue Je suis imparfait, plein d'poils et charnu Mon nutritionniste me reçoit chaque mois Dans l'arrière salle de son kebab Là, j'crois qu'entre deux clients, son cuistot va gentiment me Mettre un anneau gastrique en métal Bouge ta graisse Ou j't'agresse Bouge ta graisse Remue ta paire de fesses Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, j'ai l'appétit d'Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Bouge ta graisse Ou j't'agresse Ah, attends, euh... Attends, j'fatigue là T'aurais pas un... un sucre... sans sucre ?</t>
+          <t>J'crèche loin des rizières, me baigne dans des rivières de graisse, je finirai peut-être Dans des cimetières pour hippopotames ou mammouths car jaccours dans les fast-foods Y'en a partout, à tous les carrefours, j'avale douze casse-croûtes par jour Même au mois d'août, je fais la cour à des sexy burgers anamorphiques que je pourrais engloutir avec une paille à la sortie du taf Morfal amorphe, je mempiffre, m'enquille des litres de lipides, la bouffe est ma morphine J'blague pas, je suis un gros tas, il m'faut mon quota d'pots d'mayo, mon jerrycan de soda J'graille tout c'qui est trop gras, je peins mon portrait funéraire sur les parois de mon estomac Avec des colorants alimentaires, j'ai une carence en fer, des caries dentaires, j'suis malodorant Et on m'traite de boulimique quand j'verse du coulis d'fruits D'mer, sur des grands cakes au surimi J'aime les sucettes à l'huile et le jus d'nuggets Les donuts en guise de chevalières, faisons frire ce texte Bouge ta graisse Ou j't'agresse Bouge ta graisse Remue ta paire de fesses Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, j'ai l'appétit d'Obélix Bonjours monsieur, j'vais vous prendre le triple cheeseburger au sanglier, s'il vous plaît Ouais. Avec le supplément cordon bleu. Et le... la p'tite sauce aux Schtroumpfs, on peut... on paye pas plus ? Je prends. Je prépare de géantes tartes aux fraises Tagada Brosse mes dents dix fois par jour avec de la barbe à papa J'achète, j'avale, j'évacue Je suis imparfait, plein d'poils et charnu Mon nutritionniste me reçoit chaque mois Dans l'arrière salle de son kebab Là, j'crois qu'entre deux clients, son cuistot va gentiment me Mettre un anneau gastrique en métal Bouge ta graisse Ou j't'agresse Bouge ta graisse Remue ta paire de fesses Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, j'ai l'appétit d'Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Obélix, O-O-O-Obélix Bouge ta graisse Ou j't'agresse Ah, attends, euh... Attends, j'fatigue là T'aurais pas un... un sucre... sans sucre ?</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nivu Nikonu, Djahyef Hippocampe, hey, La Secte S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes Bon, bin, ok, j'vais essayer Je suis dingue des dames en guêpière, j'ai des blagues de l'âge de pierre J'aime les flingues, le catch et la bière, et jamais je n'appelle ma mère Je n'ai pas d'autres qualités que la plume et le flow que j'aiguise Et il faut ravaler sa vanité quand c'est le haut niveau que l'on vise Une fois décidé à s'y mettre, faut pas simuler Ne pas se prendre pour un maître, même si t'as des facilités Ta volonté sera soumise à rude épreuve La preuve, c'est tous ces MC qu'aujourd'hui le monde a oublié Il faut tout plier, ne pas roupiller, dégoupiller les bouches Sans sourciller, sans soupirer, sans bouclier, faut tout bousiller Car le rap français est fatigué, torpillé, entortillé En manque de prod' de qualité, il ne fait plus que mordiller S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes You might also like S'il vous plaît, je voudrais le couplet qui fout les boules À qui le tour ? T.I.S, L'Enigmatic et La Secte Phonétik, si tu confonds les types C'est qu'de toutes façons le rap sort du fond des tripes, le son est deep La forme et le fond sont crédibles, donc affrontons les critiques, on évite D'habitude, avec l'attitude qu'on reconnaît vite Celle de la victoire, viens vite voir comment se font les hits Sur quoi se fondent l'élite et l'histoire d'un rap sans polémique Donc ressortons les Bic des Eastpak, branchons les mics Et retraçons les mythes des Biz Mark, j'me fais narrateur À la Mary Higgins Clark, génération des Wallabees Clarks Ewing, Starks, et fuck les diss tracks Mes distractions sont d'rester funk à la Ladies' night Ou soul à la Gladys Knight, faire les bonnes choses comme dit Spike Le chien dans un un jeu d'quilles, celui qui réussit l'strike C'est T.I.S, et j'ai fini mon texte, donc j'vous dis Peace, out S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes J'ai pas oublié ce que nos aînés Ont produit comme efforts C'qu'ils ont affronté, c'qu'ils ont surmonté Pour déjouer le sort Cette culture censurée, victime des clichés Et condamnée à tort A fait naître des consciences par milliers N'a de cesse depuis de revendiquer Ses vérités, son mal-être, ses peines et ses joies, sa foi, son identité Ses qualités, ses ambitions, son deuil, son histoire et ce qui l'a fait douter Sa liberté, sa violence, ses défauts, ses galères et ce que ça peut coûter D'être les boucs-émissaires responsables de tous les maux de notre société Faire jouir les tympans, toujours dans les temps J'te tiens au courant d'un tournant dans l'mouvement Car les fans tannent les mans en panne de vanne, aux buzz qui canent Aux flows qui fanent, et réclament au programme du haut de gamme Yo, tu voulais le couplet qui font les boules Excuse, j'me suis gouré, du coup, j'ai que celui qui secoue les foules Mais j'ai mis les bouchées doubles, quand t'écoutes, c'est cool Ça vaut des sous, d'ailleurs, j'accepte les chèques, les euros ou les roubles Et ce mouv' me saoule, c'est flippant à la Hitchcock Partout, ça joue les durs, pire que sur la couverture d'un mag hip-hop J'débarque en baggieshort, j'rappe sur beatbox Ça fait Be-Bop-A-Lula, j'suis plus Pete Rock que Booba Et ne l'ouvre pas, si t'es wack, mythomane ou mégalomane Ou mes punchlines te couchent à la Hulk Hogan J'suis trop jazz comme Coltrane, fly à la Jordan haut d'gamme et, toi, tu bounces comme sur un dos d'âne Boom Biddy Bye Bye, v'là le soundboy de Bestown Aïe, aïe, aïe, donc dis-moi qui c'est qu'a la vibe Un pour La Secte, deux pour T.I.S, trois pour c'texte Et quatre pour qu'tu les bouges, tes petites fesses, bébé S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes - Ouais, mais le truc... - Hippo, c'est à toi - Ouais, bon... J'me suis fait tatouer sur le corps mon texte à l'encre invisible Il faut du jus d'citron pour qu'il apparaisse, je sais, c'est risible Le souci, c'est qu'j'me suis fait d'la citronnade Du citron y'en a plus mon texte j'm'en rappelle plus, c'est pas d'la rigolade Y'avait tout dans c'couplet, tout c'qui plaît Ça m'rend fou d'avoir oublié c'qu'il disait Y'avait un passage éclair dont j'étais fier Où je rappais avec finesse à la vitesse de la lumière et c'était clair Y'avait d'la violence, du silence, de la légèreté De l'éloquence, de la démence, une immense liberté Y'avait d'la poésie, du flow, d'l'humour Pas comme dans c'truc moisi aussi pourri qu'un épisode des Feux d'l'Amour Six années de réflexion, de coups d'points d'interrogations Métaphysiques, sur un iceberg en Antarctique, de glaces à la transpiration Pour un unique instant tragique, une déception Qui intoxique la réunion des text addicts Bon, bin, tant pis, hein S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes</t>
+          <t>Nivu Nikonu, Djahyef Hippocampe, hey, La Secte S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes Bon, bin, ok, j'vais essayer Je suis dingue des dames en guêpière, j'ai des blagues de l'âge de pierre J'aime les flingues, le catch et la bière, et jamais je n'appelle ma mère Je n'ai pas d'autres qualités que la plume et le flow que j'aiguise Et il faut ravaler sa vanité quand c'est le haut niveau que l'on vise Une fois décidé à s'y mettre, faut pas simuler Ne pas se prendre pour un maître, même si t'as des facilités Ta volonté sera soumise à rude épreuve La preuve, c'est tous ces MC qu'aujourd'hui le monde a oublié Il faut tout plier, ne pas roupiller, dégoupiller les bouches Sans sourciller, sans soupirer, sans bouclier, faut tout bousiller Car le rap français est fatigué, torpillé, entortillé En manque de prod' de qualité, il ne fait plus que mordiller S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes S'il vous plaît, je voudrais le couplet qui fout les boules À qui le tour ? T.I.S, L'Enigmatic et La Secte Phonétik, si tu confonds les types C'est qu'de toutes façons le rap sort du fond des tripes, le son est deep La forme et le fond sont crédibles, donc affrontons les critiques, on évite D'habitude, avec l'attitude qu'on reconnaît vite Celle de la victoire, viens vite voir comment se font les hits Sur quoi se fondent l'élite et l'histoire d'un rap sans polémique Donc ressortons les Bic des Eastpak, branchons les mics Et retraçons les mythes des Biz Mark, j'me fais narrateur À la Mary Higgins Clark, génération des Wallabees Clarks Ewing, Starks, et fuck les diss tracks Mes distractions sont d'rester funk à la Ladies' night Ou soul à la Gladys Knight, faire les bonnes choses comme dit Spike Le chien dans un un jeu d'quilles, celui qui réussit l'strike C'est T.I.S, et j'ai fini mon texte, donc j'vous dis Peace, out S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes J'ai pas oublié ce que nos aînés Ont produit comme efforts C'qu'ils ont affronté, c'qu'ils ont surmonté Pour déjouer le sort Cette culture censurée, victime des clichés Et condamnée à tort A fait naître des consciences par milliers N'a de cesse depuis de revendiquer Ses vérités, son mal-être, ses peines et ses joies, sa foi, son identité Ses qualités, ses ambitions, son deuil, son histoire et ce qui l'a fait douter Sa liberté, sa violence, ses défauts, ses galères et ce que ça peut coûter D'être les boucs-émissaires responsables de tous les maux de notre société Faire jouir les tympans, toujours dans les temps J'te tiens au courant d'un tournant dans l'mouvement Car les fans tannent les mans en panne de vanne, aux buzz qui canent Aux flows qui fanent, et réclament au programme du haut de gamme Yo, tu voulais le couplet qui font les boules Excuse, j'me suis gouré, du coup, j'ai que celui qui secoue les foules Mais j'ai mis les bouchées doubles, quand t'écoutes, c'est cool Ça vaut des sous, d'ailleurs, j'accepte les chèques, les euros ou les roubles Et ce mouv' me saoule, c'est flippant à la Hitchcock Partout, ça joue les durs, pire que sur la couverture d'un mag hip-hop J'débarque en baggieshort, j'rappe sur beatbox Ça fait Be-Bop-A-Lula, j'suis plus Pete Rock que Booba Et ne l'ouvre pas, si t'es wack, mythomane ou mégalomane Ou mes punchlines te couchent à la Hulk Hogan J'suis trop jazz comme Coltrane, fly à la Jordan haut d'gamme et, toi, tu bounces comme sur un dos d'âne Boom Biddy Bye Bye, v'là le soundboy de Bestown Aïe, aïe, aïe, donc dis-moi qui c'est qu'a la vibe Un pour La Secte, deux pour T.I.S, trois pour c'texte Et quatre pour qu'tu les bouges, tes petites fesses, bébé S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes - Ouais, mais le truc... - Hippo, c'est à toi - Ouais, bon... J'me suis fait tatouer sur le corps mon texte à l'encre invisible Il faut du jus d'citron pour qu'il apparaisse, je sais, c'est risible Le souci, c'est qu'j'me suis fait d'la citronnade Du citron y'en a plus mon texte j'm'en rappelle plus, c'est pas d'la rigolade Y'avait tout dans c'couplet, tout c'qui plaît Ça m'rend fou d'avoir oublié c'qu'il disait Y'avait un passage éclair dont j'étais fier Où je rappais avec finesse à la vitesse de la lumière et c'était clair Y'avait d'la violence, du silence, de la légèreté De l'éloquence, de la démence, une immense liberté Y'avait d'la poésie, du flow, d'l'humour Pas comme dans c'truc moisi aussi pourri qu'un épisode des Feux d'l'Amour Six années de réflexion, de coups d'points d'interrogations Métaphysiques, sur un iceberg en Antarctique, de glaces à la transpiration Pour un unique instant tragique, une déception Qui intoxique la réunion des text addicts Bon, bin, tant pis, hein S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes S'il vous plaît, je voudrais le couplet qui fout les boules À tous les coups, qui te rend fou quand tu l'écoutes</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>x4 Mes échecs, mes échecs, mes échecs, échecs J'étais noir, elle était blanche Dans cette histoire, j'étais juste un pion, c'est très étrange Mais j'la considérais comme ma reine Tant que j'la voyais au loin, je restais zen J'aurais aimé lui proposer des balades à pieds Même si ce n'était pas très cavalier J'aurais voulu l'emmener au sommet de la tour infernale Passer de la verticale à l'horizontale Cherchant l'extase dans ce monde carré Soixante-quatre cases où nous rencontrer Elle était mariée à un roi de l'arnaque Dans ses poches des pièces, des chèques en bois Protectrice, elle ne voulait pas qu'on le mate Il vivait caché, ne se déplaçait qu'à petits pas Lui était tombé sous le charme d'une drag queen black Et rêvait que celle-ci lui fasse le coup du berger allemand Bref, des trucs hard, mais il gardait ses distances Et n'en parlait pas à sa femme, évidemment You might also like Cherchant l'extase dans ce monde carré Soixante-quatre cases où nous rencontrer On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, ou bien c'est elle qui me mangera On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, ou bien c'est elle qui me mangera Moi, en tant que pion Je passais d'idées noires au blanc dans mes conversations Mais j'avais de grandes ambitions Côtoyer ma reine, pénétrer son royaume et me transformer pour de bon Mais, ce jour-là, elle n'avait pas l'moral Elle lisait le journal en diagonale Elle n'avait pas vu venir ce sombre fou qui l'a capturée Elle a fini couchée dans une boîte pâle Personne n'a entendu son mari se plaindre Ma dulcinée disparue, je n'la verrai plus poindre Mais j'avance tête haute, je n'ai plus rien à craindre Si j'quitte ce plateau, je pourrai la rejoindre Cherchant l'extase dans ce monde carré Soixante-quatre cases où nous rencontrer On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, ou bien c'est elle qui me mangera On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, j'espère qu'elle m'attendra2</t>
+          <t>x4 Mes échecs, mes échecs, mes échecs, échecs J'étais noir, elle était blanche Dans cette histoire, j'étais juste un pion, c'est très étrange Mais j'la considérais comme ma reine Tant que j'la voyais au loin, je restais zen J'aurais aimé lui proposer des balades à pieds Même si ce n'était pas très cavalier J'aurais voulu l'emmener au sommet de la tour infernale Passer de la verticale à l'horizontale Cherchant l'extase dans ce monde carré Soixante-quatre cases où nous rencontrer Elle était mariée à un roi de l'arnaque Dans ses poches des pièces, des chèques en bois Protectrice, elle ne voulait pas qu'on le mate Il vivait caché, ne se déplaçait qu'à petits pas Lui était tombé sous le charme d'une drag queen black Et rêvait que celle-ci lui fasse le coup du berger allemand Bref, des trucs hard, mais il gardait ses distances Et n'en parlait pas à sa femme, évidemment Cherchant l'extase dans ce monde carré Soixante-quatre cases où nous rencontrer On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, ou bien c'est elle qui me mangera On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, ou bien c'est elle qui me mangera Moi, en tant que pion Je passais d'idées noires au blanc dans mes conversations Mais j'avais de grandes ambitions Côtoyer ma reine, pénétrer son royaume et me transformer pour de bon Mais, ce jour-là, elle n'avait pas l'moral Elle lisait le journal en diagonale Elle n'avait pas vu venir ce sombre fou qui l'a capturée Elle a fini couchée dans une boîte pâle Personne n'a entendu son mari se plaindre Ma dulcinée disparue, je n'la verrai plus poindre Mais j'avance tête haute, je n'ai plus rien à craindre Si j'quitte ce plateau, je pourrai la rejoindre Cherchant l'extase dans ce monde carré Soixante-quatre cases où nous rencontrer On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, ou bien c'est elle qui me mangera On dit que les échecs se répètent mais ne se ressemblent pas Je finirai par prendre cette reine, j'espère qu'elle m'attendra2</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Maman, écoute je passe à la télé Mon son fait la B.O de ce reportage sur la cité Entre drogue, alcool, baston d'ivrogne Foye, c'est la seul place qu'on laisse à mon hip-hop Du pe-ra dans les tubes cathodiques Quoi, ils auraient peur qu'on dise des trucs pas très catholiques ? Dans l'immédiat, faut du Hip-Hop dans les médias, sérieux A force de voir des clips de merde j'vais devenir sourd des yeux Du rap à la télé ? Ma foi, mais pas n'importe lequel Faut surtout pas que ça soit les les wacks qui mattent le game J'veux voir du bon son, quand je zappe les chaînes Pas de MCs comédiennes qui s'crêpent le chignon comme des collégiennes J'n'allume plus ma télé car j'suis perdu dans tout ce pêle-mêle Besoin de changement donc parlez-en à monsieur Belmer Certains programmes me stressent autant qu'ma future belle-mère J'me permet d'en parler car j'peux pas cautionner de telles merdes Du rap sur Canal ou D8 ? Ils t'laissent espérer Font passer mes gars pour des types genre pestiférés Dis moi qu'est-ce qu't'y ferais toi ? des flows-syllabes ? La plupart pensent qu'on fait rimer que yo, zy-va Ça serait bien un jour de voir notre vraie culture sur ton écran Rien de crade dans nos écrits alors un cri d'alerte s'impose mon grand Gros, plein d'MCs d'talents attendent une chose c'est d'être choisis Eh oui y'en a marre des sosies nous pondant des morceaux moisis Pour être honnête on en a marre de vos sornettes Mettez-nous du bon Hip-Hop à la télé et non vos soupes Nan, nan du talent dans nos rues en soif de diffusion Mais vos starlettes qui chantent en boucle man à l'unisson J'ai beau croiser les mots, j'ai pas ma place à Mots croisés Tu fais du rap variété ? Y'a Pop Star pour faire jury Petit appel à Yves Calvi, invite-nous je t'en supplie Passe-nous chercher, on est bloqué de Sept à huit chez Harry Télé ma douce tu sais, t'as peur du H.I.P C'est fou c'que t'as choppé à force de debats peu futés Le marchand dans les prés XXX C'est qu'les plumes bien aiguisées doivent deranger Notez mon drop name, les gens d'la télé poto Zem' ? Non, non juste Naulleau, paix à Cyril et tout sa collo... ...nel blague de merde style Thierry Moreau Je sors mais j'compte sur Enora pour faire la promo Y'avait du H.I.P-H.O.P à l'époque sur TF1 Les chaînes ont déserté l'chantier, dans l'R.A.P mec on est pleins MTV, OFIVE, Trace TV j'veux plus de place pour péter l'blocus Plus de culte pour ma zic sur France Télé et Canal On veut du Hip-Hop à la télé, y'a plus d'Hip-Hop à la télé J'ai un tas d'CV, pas d'CB pour t'lâcher un Track TV Hip-Hop à la télé, y'a plus d'Hip-Hop à la télé On attend l'retour d'Maïté pour voir quelques carottes rappées On veut du Hip-Hop à la télé, qu'ça tourne en boucle dans les médias Dans l'immédiat te faire kiffer le rap même si tu l'aimais déjà Et boom, ça s'rait cool qu'ça chamboule tout le petit écran Pour faire kiffer notre culture, pour les petits et les grands On viens pour dominer l'gamin avec mon Armada d'félés On veut du rap à la télé, demande à Olivier Cachin On envahit les ondes, assieds-toi et détends-toi J'ammène des filles qui ont des formes même dans un écran plat Négro, y'a quoi sur l'écran plasma ? Rien de nouveau Pourtant, des trucs de oufs s'passe dans le rap mais on les passent pas Tu veux du Ghetto Blaster, du hip-hop dans les iPod Clique, clique c'est l'tour de passe-passe, tu m'verras dans ton poste Ici on rêve qu'le rideau s'lève, qu'le hip-hop crève l'écran Le rap innove, le PAF ignore, faut bien qu'on prenne les devants Ouais, on nous passe pas à la télé tant qu'on représente sur lasphalte Ils nous traitent comme des araignées donc nous on s'répend sur la toile On veut du hip hop au max, réalisé par Pullicino De vrais magazines, l'époque de Sear ou Texaco Qu'on nous redonne du power, interviews de Fabe et Hour T'imagines Lemdi Moax présentés par Roselmack J'demande un p'tit peu plus de vue , de rap dans les médias Immédiatement j'réclame toutes les images de la rime idéale La France d'en bas comme toi qui trime et bave On veut tous se voir ensemble, arrêtez-les comme crime et balle Trop mat pour France Télé', trop foncé pour M6 Black Malgrès les portes enfoncées et les blagues Or et platine, cherche ma rage dans l'paysage musical français Comme un mic en platine pour defoncer les barrages Sale rap, j'ai gâché ma vie, raté la tienne T'auras jamais eu d'JT J'aurai p't'être mieux fait d'caner aux Etats-Unis Au bout d'un cable ou à la TNT And I've been thinking and i'm done with the thinking of blinking XXX on bitches who rob me, you riches In fact XXX bringing back will never fade into black Hip-hop XXX on your screen Et tu zappes, et tu zappes, affalé dans le canap' Toujours les mêmes blabla que tu mattes, les mêmes salades qu'ils nous jactent Qui a dit qu'l'audimat, lui, ne voulait pas de rap ? C'est à la TNT, les gars, qu'on va faire péter le cable Depuis Zemmour et Naulleau, les chaînes éguisent leurs couteaux Tandis qu'la France aux fachos, attendent le dérapage de trop, oh Rap et télévision Rapport sous pression Il voudrait qu'on reste muet. Véronique Sanson Peu d'MCs sur M6 le canal est étroit, semble t-il Oui je pense qu'il est tant de franchir le détroit, simple type J'excelle, loin des strass et des Seychelles Avant de passer à l'écran, il faut se libérer de ses chaines Faut pas rêver, y'aura jamais d'hip-hop à la télé Ces salopes préfèrent les émissions sur les flics zélés Trop d'talk-show pour bobo, présenté par des homos Cesse ça, on veut des trucs pour les prolos Je garde des bases en vain Je suis partisan d'aucune démarche, tu t'occupes des masses et des débats sans fin Est-ce que la télé les pousse à la réflexion ? Non, elle séduit le vice dont elle est l'épouse Fait nous d'la place, on a la couleur, pas du noir et blanc Mate ma face, ouais non n'aie pas peur que je crève l'écran Ou bien, pas d'brasser du vent mon rap prend les devants On attend pas Vivement dimanche allongé sur le divan Yo, mon hip-hop est là, il n'veut pas bougé Il est pas couché, quand tu le vois tes enfants aiment bouger Mais crois moi il sait faire le taf Il a sa place sur le PAF, ouais il va pas t'faire de farce On mate pas la télé on veut qu'la télé nous matte, man Et trop d'rappeurs puent la merde mais ils sont dans les bacs Et trop d'rappeurs s'appellent chef mais ils font cuir des pâtes Alors diffuse nous sur le cable avant qu'on pète le cable Ca fait longtemps qu'les portes sont fermées Longtemps qu'ils nous on cernés, pour exister en marge faut savoir se démerder Mais pourtant, les miens on b'soin d'lumières et d'rêver Ammenez-les, gars, la télé et montrez-les qu'on peut s'aimer Ils veulent nos benefs comme des fils de vampes on est pas dans les plans On a des places mais passe pas à l'écran malgrès les chiffres de ventes On a la maitrise mais ces types là ils méprisent le genre Et ça m'déprime c'est c'qui m'épuise car ça métisse les gens On veut du rap sale des vrais trucs, pas d'la fiction J'veux qu'mes partitions squattent le générique d'Ardisson Soit, du rap sur les écrans pas leur parti d'con Rien qu'des fouines chanceux, tout ceux qui l'ont admis l'son Encore en bal pas d'bol alertez-les Mon quarties fédéral dans les rudes rues khoya fait qu'trainer Ils s'attelent à chuter pseudo-gang et fashion boy de mes couilles Pas qu'on ne m'écoute en boucle sans passer par la télé Malgré les boycotts, les vengeances on est toujours à jour Il faut qu'on provoque des tendances, allez le dire à Mouloud Achour Spécialiste en langue de bois, on les appelle les ébenistes Oubli Roland Garros, j'crois qu'j'f'rais mieux d'racketter des tennis K-Ly Impitoyable comme maître d'esclave Les médias ont ma sous-culture dans l'viseur et tente de la rendre détestable Plus de hip-hop en télé' ferait bander les jeunes Ferait kiffer la street et rendrait p't-être Morandini moins cheum Y'a plus de vérité, dans une boule magique ou une rette-ba Selon leurs dires j'suis une racaille, même moi j'l'e savait même pas Ça m'fédère car devant la télé j'tappe des barres des rires Moi j'ai l'impact des rimes, et de l'information d'vant l'JT d'Derka Comme tous les amateurs de hip-hop, j'veux plus de rap à la télé Demande à A2' ou Abraham, j'suis un négro fêlé J'suis recherché par Scully et Mulder, appelle moi E.T J'aimerais que MC soit considéré comme B.E.T Un peu de hip-hop de Paris à Memphis On voudrait entendre plus de vrais titres en playlist En bref, pour que tous mes gens relativisent Mettez-nous plus de hip-hop à la TV Du rap à la télé, faudrait s'y atteler Sans forcément avoir à se faire plus de blé qu'on est, ou rentré dans le moule imposé On veut des moyens de diffusion sans participer À l'abrutissement général, aujourd'hui plébiscité Youm Vas dire aux medias d'ici qu'on est les poetes des temps modernes Que la mort de Biggie me touche autant que celle de Jean Jaures On m'parle de sous culture franchement j'trouve ça abusé On s'battra pour qu'cet art prenne sa place, qu'on le grave dans les musées Elle passe ses soirées à les apaiser, ce qu'elle leur sert est pré-mâché Les enfants d'la télé sont maternés Elle pourrait leur offrir subversion, poésie, subtilité Mais n'a qu'un tas de chaînes pour les immobiliser Comme l'impression qu'nos rimes sont nées dans un corbillard Car Michel Druker veut rien lâcher comme Paul Bia Toujours à dénigrer le hip-hop de France Alors qu'on pourrait faire autant d'audience que l'dernier épisode de Friends Faut qu'on fasse quelque chose dans l'immédiat On voit pas assez nos gueules dans les médias Ca tombe bien, j'recherchai du boulot Ca paye combien pour remplacer Jean-Pierre Foucault ? Eh mais oh mais c'est fini la télé ci-gît la clef sur le palier Vos promos d'rats et d'rateliers le temps l'état T'inquiète qu'il s'aime le rap çais-fran bientôt 30 ans qu'il donne le la Donc vous réveillez pas maintenant vous avez déjà raté tout ça Je pense donc je suis, mais je ne suis pas ce qu'il pense J'ai qu'une seule direction, j'écris des phrases à double sens Discours monocorde, les médias ont la langue pendue Certains rappeurs ont craqués parce que percer d'vient tendu Le hip-hop est un art brut trainé dans la boue Avoue, les adjectifs négatifs fleurissent dans les bouches Le PAF taf et cliché au pif mis bout à bout Laissez-nous l'antenne avec qu'les téléspectateurs se couchent Pas de hip-hop à la télé, sont-ils félés ? Qui fait les ventes, fait les modes, les B.O d'leur docu' clichés ? Me parlez pas de sous-culture Ils crachaient sur le jazz, aujourd'hui s'astiquent dessus Bonne nouvelle madame Chazal, je lis Claire dans vos yeux Attention à la marche, nan le rap n'est pas un jeu Hey, on n'est pas couché et c'est pour ça qu'tout l'monde en parle Puis on trouv'ra le sommeil quand y'aura du hip-hop en prime En 84, y'avait des battles sur la une Aujourd'hui je zappe, matte ma gueule pas d'culture du bitume Pourant ont fait les thunes, nos raps les solvables Hip-hop soldat, nos concerts sold-out J'aspire à être un tueur, j'veux crever l'écran Etre sur la une, la deux comme l'ont fait les grands J'veut péter les cartes qu'on m'entende l'été dans les câbles Etre en grand dans l'journal, les jaloux vont péter un câble Chaque jours je constate qu'on nous boycotte, tant qu'on ne fait de la pop Vu l'peura que j'apporte, TF1 m'laisse pas passer près de la porte J'ai tout essayer, entêté comme Antoine, mais Le bon rap en télé est rare comme le soleil en ce mois de MaiYou might also like</t>
+          <t>Maman, écoute je passe à la télé Mon son fait la B.O de ce reportage sur la cité Entre drogue, alcool, baston d'ivrogne Foye, c'est la seul place qu'on laisse à mon hip-hop Du pe-ra dans les tubes cathodiques Quoi, ils auraient peur qu'on dise des trucs pas très catholiques ? Dans l'immédiat, faut du Hip-Hop dans les médias, sérieux A force de voir des clips de merde j'vais devenir sourd des yeux Du rap à la télé ? Ma foi, mais pas n'importe lequel Faut surtout pas que ça soit les les wacks qui mattent le game J'veux voir du bon son, quand je zappe les chaînes Pas de MCs comédiennes qui s'crêpent le chignon comme des collégiennes J'n'allume plus ma télé car j'suis perdu dans tout ce pêle-mêle Besoin de changement donc parlez-en à monsieur Belmer Certains programmes me stressent autant qu'ma future belle-mère J'me permet d'en parler car j'peux pas cautionner de telles merdes Du rap sur Canal ou D8 ? Ils t'laissent espérer Font passer mes gars pour des types genre pestiférés Dis moi qu'est-ce qu't'y ferais toi ? des flows-syllabes ? La plupart pensent qu'on fait rimer que yo, zy-va Ça serait bien un jour de voir notre vraie culture sur ton écran Rien de crade dans nos écrits alors un cri d'alerte s'impose mon grand Gros, plein d'MCs d'talents attendent une chose c'est d'être choisis Eh oui y'en a marre des sosies nous pondant des morceaux moisis Pour être honnête on en a marre de vos sornettes Mettez-nous du bon Hip-Hop à la télé et non vos soupes Nan, nan du talent dans nos rues en soif de diffusion Mais vos starlettes qui chantent en boucle man à l'unisson J'ai beau croiser les mots, j'ai pas ma place à Mots croisés Tu fais du rap variété ? Y'a Pop Star pour faire jury Petit appel à Yves Calvi, invite-nous je t'en supplie Passe-nous chercher, on est bloqué de Sept à huit chez Harry Télé ma douce tu sais, t'as peur du H.I.P C'est fou c'que t'as choppé à force de debats peu futés Le marchand dans les prés XXX C'est qu'les plumes bien aiguisées doivent deranger Notez mon drop name, les gens d'la télé poto Zem' ? Non, non juste Naulleau, paix à Cyril et tout sa collo... ...nel blague de merde style Thierry Moreau Je sors mais j'compte sur Enora pour faire la promo Y'avait du H.I.P-H.O.P à l'époque sur TF1 Les chaînes ont déserté l'chantier, dans l'R.A.P mec on est pleins MTV, OFIVE, Trace TV j'veux plus de place pour péter l'blocus Plus de culte pour ma zic sur France Télé et Canal On veut du Hip-Hop à la télé, y'a plus d'Hip-Hop à la télé J'ai un tas d'CV, pas d'CB pour t'lâcher un Track TV Hip-Hop à la télé, y'a plus d'Hip-Hop à la télé On attend l'retour d'Maïté pour voir quelques carottes rappées On veut du Hip-Hop à la télé, qu'ça tourne en boucle dans les médias Dans l'immédiat te faire kiffer le rap même si tu l'aimais déjà Et boom, ça s'rait cool qu'ça chamboule tout le petit écran Pour faire kiffer notre culture, pour les petits et les grands On viens pour dominer l'gamin avec mon Armada d'félés On veut du rap à la télé, demande à Olivier Cachin On envahit les ondes, assieds-toi et détends-toi J'ammène des filles qui ont des formes même dans un écran plat Négro, y'a quoi sur l'écran plasma ? Rien de nouveau Pourtant, des trucs de oufs s'passe dans le rap mais on les passent pas Tu veux du Ghetto Blaster, du hip-hop dans les iPod Clique, clique c'est l'tour de passe-passe, tu m'verras dans ton poste Ici on rêve qu'le rideau s'lève, qu'le hip-hop crève l'écran Le rap innove, le PAF ignore, faut bien qu'on prenne les devants Ouais, on nous passe pas à la télé tant qu'on représente sur lasphalte Ils nous traitent comme des araignées donc nous on s'répend sur la toile On veut du hip hop au max, réalisé par Pullicino De vrais magazines, l'époque de Sear ou Texaco Qu'on nous redonne du power, interviews de Fabe et Hour T'imagines Lemdi Moax présentés par Roselmack J'demande un p'tit peu plus de vue , de rap dans les médias Immédiatement j'réclame toutes les images de la rime idéale La France d'en bas comme toi qui trime et bave On veut tous se voir ensemble, arrêtez-les comme crime et balle Trop mat pour France Télé', trop foncé pour M6 Black Malgrès les portes enfoncées et les blagues Or et platine, cherche ma rage dans l'paysage musical français Comme un mic en platine pour defoncer les barrages Sale rap, j'ai gâché ma vie, raté la tienne T'auras jamais eu d'JT J'aurai p't'être mieux fait d'caner aux Etats-Unis Au bout d'un cable ou à la TNT And I've been thinking and i'm done with the thinking of blinking XXX on bitches who rob me, you riches In fact XXX bringing back will never fade into black Hip-hop XXX on your screen Et tu zappes, et tu zappes, affalé dans le canap' Toujours les mêmes blabla que tu mattes, les mêmes salades qu'ils nous jactent Qui a dit qu'l'audimat, lui, ne voulait pas de rap ? C'est à la TNT, les gars, qu'on va faire péter le cable Depuis Zemmour et Naulleau, les chaînes éguisent leurs couteaux Tandis qu'la France aux fachos, attendent le dérapage de trop, oh Rap et télévision Rapport sous pression Il voudrait qu'on reste muet. Véronique Sanson Peu d'MCs sur M6 le canal est étroit, semble t-il Oui je pense qu'il est tant de franchir le détroit, simple type J'excelle, loin des strass et des Seychelles Avant de passer à l'écran, il faut se libérer de ses chaines Faut pas rêver, y'aura jamais d'hip-hop à la télé Ces salopes préfèrent les émissions sur les flics zélés Trop d'talk-show pour bobo, présenté par des homos Cesse ça, on veut des trucs pour les prolos Je garde des bases en vain Je suis partisan d'aucune démarche, tu t'occupes des masses et des débats sans fin Est-ce que la télé les pousse à la réflexion ? Non, elle séduit le vice dont elle est l'épouse Fait nous d'la place, on a la couleur, pas du noir et blanc Mate ma face, ouais non n'aie pas peur que je crève l'écran Ou bien, pas d'brasser du vent mon rap prend les devants On attend pas Vivement dimanche allongé sur le divan Yo, mon hip-hop est là, il n'veut pas bougé Il est pas couché, quand tu le vois tes enfants aiment bouger Mais crois moi il sait faire le taf Il a sa place sur le PAF, ouais il va pas t'faire de farce On mate pas la télé on veut qu'la télé nous matte, man Et trop d'rappeurs puent la merde mais ils sont dans les bacs Et trop d'rappeurs s'appellent chef mais ils font cuir des pâtes Alors diffuse nous sur le cable avant qu'on pète le cable Ca fait longtemps qu'les portes sont fermées Longtemps qu'ils nous on cernés, pour exister en marge faut savoir se démerder Mais pourtant, les miens on b'soin d'lumières et d'rêver Ammenez-les, gars, la télé et montrez-les qu'on peut s'aimer Ils veulent nos benefs comme des fils de vampes on est pas dans les plans On a des places mais passe pas à l'écran malgrès les chiffres de ventes On a la maitrise mais ces types là ils méprisent le genre Et ça m'déprime c'est c'qui m'épuise car ça métisse les gens On veut du rap sale des vrais trucs, pas d'la fiction J'veux qu'mes partitions squattent le générique d'Ardisson Soit, du rap sur les écrans pas leur parti d'con Rien qu'des fouines chanceux, tout ceux qui l'ont admis l'son Encore en bal pas d'bol alertez-les Mon quarties fédéral dans les rudes rues khoya fait qu'trainer Ils s'attelent à chuter pseudo-gang et fashion boy de mes couilles Pas qu'on ne m'écoute en boucle sans passer par la télé Malgré les boycotts, les vengeances on est toujours à jour Il faut qu'on provoque des tendances, allez le dire à Mouloud Achour Spécialiste en langue de bois, on les appelle les ébenistes Oubli Roland Garros, j'crois qu'j'f'rais mieux d'racketter des tennis K-Ly Impitoyable comme maître d'esclave Les médias ont ma sous-culture dans l'viseur et tente de la rendre détestable Plus de hip-hop en télé' ferait bander les jeunes Ferait kiffer la street et rendrait p't-être Morandini moins cheum Y'a plus de vérité, dans une boule magique ou une rette-ba Selon leurs dires j'suis une racaille, même moi j'l'e savait même pas Ça m'fédère car devant la télé j'tappe des barres des rires Moi j'ai l'impact des rimes, et de l'information d'vant l'JT d'Derka Comme tous les amateurs de hip-hop, j'veux plus de rap à la télé Demande à A2' ou Abraham, j'suis un négro fêlé J'suis recherché par Scully et Mulder, appelle moi E.T J'aimerais que MC soit considéré comme B.E.T Un peu de hip-hop de Paris à Memphis On voudrait entendre plus de vrais titres en playlist En bref, pour que tous mes gens relativisent Mettez-nous plus de hip-hop à la TV Du rap à la télé, faudrait s'y atteler Sans forcément avoir à se faire plus de blé qu'on est, ou rentré dans le moule imposé On veut des moyens de diffusion sans participer À l'abrutissement général, aujourd'hui plébiscité Youm Vas dire aux medias d'ici qu'on est les poetes des temps modernes Que la mort de Biggie me touche autant que celle de Jean Jaures On m'parle de sous culture franchement j'trouve ça abusé On s'battra pour qu'cet art prenne sa place, qu'on le grave dans les musées Elle passe ses soirées à les apaiser, ce qu'elle leur sert est pré-mâché Les enfants d'la télé sont maternés Elle pourrait leur offrir subversion, poésie, subtilité Mais n'a qu'un tas de chaînes pour les immobiliser Comme l'impression qu'nos rimes sont nées dans un corbillard Car Michel Druker veut rien lâcher comme Paul Bia Toujours à dénigrer le hip-hop de France Alors qu'on pourrait faire autant d'audience que l'dernier épisode de Friends Faut qu'on fasse quelque chose dans l'immédiat On voit pas assez nos gueules dans les médias Ca tombe bien, j'recherchai du boulot Ca paye combien pour remplacer Jean-Pierre Foucault ? Eh mais oh mais c'est fini la télé ci-gît la clef sur le palier Vos promos d'rats et d'rateliers le temps l'état T'inquiète qu'il s'aime le rap çais-fran bientôt 30 ans qu'il donne le la Donc vous réveillez pas maintenant vous avez déjà raté tout ça Je pense donc je suis, mais je ne suis pas ce qu'il pense J'ai qu'une seule direction, j'écris des phrases à double sens Discours monocorde, les médias ont la langue pendue Certains rappeurs ont craqués parce que percer d'vient tendu Le hip-hop est un art brut trainé dans la boue Avoue, les adjectifs négatifs fleurissent dans les bouches Le PAF taf et cliché au pif mis bout à bout Laissez-nous l'antenne avec qu'les téléspectateurs se couchent Pas de hip-hop à la télé, sont-ils félés ? Qui fait les ventes, fait les modes, les B.O d'leur docu' clichés ? Me parlez pas de sous-culture Ils crachaient sur le jazz, aujourd'hui s'astiquent dessus Bonne nouvelle madame Chazal, je lis Claire dans vos yeux Attention à la marche, nan le rap n'est pas un jeu Hey, on n'est pas couché et c'est pour ça qu'tout l'monde en parle Puis on trouv'ra le sommeil quand y'aura du hip-hop en prime En 84, y'avait des battles sur la une Aujourd'hui je zappe, matte ma gueule pas d'culture du bitume Pourant ont fait les thunes, nos raps les solvables Hip-hop soldat, nos concerts sold-out J'aspire à être un tueur, j'veux crever l'écran Etre sur la une, la deux comme l'ont fait les grands J'veut péter les cartes qu'on m'entende l'été dans les câbles Etre en grand dans l'journal, les jaloux vont péter un câble Chaque jours je constate qu'on nous boycotte, tant qu'on ne fait de la pop Vu l'peura que j'apporte, TF1 m'laisse pas passer près de la porte J'ai tout essayer, entêté comme Antoine, mais Le bon rap en télé est rare comme le soleil en ce mois de Mai</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>J'achète des produits psychotropes depuis plus de dix ans Quand j'en fume, j'suis au top ou j'deviens parano et distant Ça me détend dans les soirées, on peut m'entendre m'esclaffer Les gens semblent profonds, même le plafond est étoilé Chez moi, j'ai une rouleuse à côté de l'ordi Mais, ce soir, je suis de sortie, l'envie de spliff est douloureuse J'survole la salle tel un albatros Puis trouve une victime efficace qui ne parle pas trop Qui roule vite, tire une taff puis me passe le cône Que je glisse dans ma bouche, j'tripe dans la foule comme un terroriste sans cagoule qui n'aurait pas d'neurones La 'sique est tropicale, la bouffe, trop piquante J'tape des pas de danse louches sur la piste, la tête dans un bocal J'entends des 'gos' qui chantent Tout est flou, je me défoule et fatigue Puis vient le moment fatidique de recharger les batteries J'aurais besoin d'une pipe, je ne parle pas de gâterie J'suis nul en collage, c'est dommage et irritant Donc j't'ai pris en otage, le décollage est imminent J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'dois l'avouer J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'suis pas doué J'sais pas rouler, j'sais pas rouler, j'sais pas rouler donc sois cool et Roule pour moi, ma poule sois pas saoulée J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'dois l'avouer J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'aime pas m'fouler J'sais pas rouler, j'sais pas rouler, j'sais pas rouler donc sois cool et Roule pour moi, ma poule sois pas saoulée You might also like J'ai les jambes en miettes, le cerveau qui cuit Au-dessus d'ma tête, y'a des oiseaux qui font cui cui Faudrait pas me faire passer un test de QI Il risquerait d'être plus faible que celui d'un blini sans tarama J'sens qu'ma banane attend d's'faire bouffer J'branche deux, trois nanas qui refusent toutes de m'épouser, c'est la 'sère-mi J'veux rentrer chez moi, prendre un bon bain Mais y'a plus d'transports en commun et j'ai pas l'permis Le code de la route, c'est comme l'école sans prof, sans pote J'me fous d'savoir conduire, là, j'suis bourré, faut qu'on m'transporte Heureusement, j'croise un poto, Hey !, j'oublie toujours son prénom Il a une bête de moto mais pas de casque en rab, c'est con J'me rabats sur une fille du-per', elle déprime Avec des clés d'voiture, elle décapsule une bière, j'm'écrie J'ai pas d'sous pour un taxi, raccompagne-moi en caisse Mais dessaoule, j'tiens à ma vie, t'approches pas d'moi, t'empestes Si, toi aussi, tu fais partie du petit cercle des assistés L'amie sans gêne infecte sans cesse blacklistée Quelqu'un roulera pour toi, sans que tu t'mettes topless Si tu mets ce son à fond en guise de S.O.S Hippocampe Mou, yeah C'est pour les paresseux qui n'aiment pas s'fouler Ceux qui paraissent vieux mais qui n'savent pas rouler Le monde sous-marin renferme encore dinnombrables secrets</t>
+          <t>J'achète des produits psychotropes depuis plus de dix ans Quand j'en fume, j'suis au top ou j'deviens parano et distant Ça me détend dans les soirées, on peut m'entendre m'esclaffer Les gens semblent profonds, même le plafond est étoilé Chez moi, j'ai une rouleuse à côté de l'ordi Mais, ce soir, je suis de sortie, l'envie de spliff est douloureuse J'survole la salle tel un albatros Puis trouve une victime efficace qui ne parle pas trop Qui roule vite, tire une taff puis me passe le cône Que je glisse dans ma bouche, j'tripe dans la foule comme un terroriste sans cagoule qui n'aurait pas d'neurones La 'sique est tropicale, la bouffe, trop piquante J'tape des pas de danse louches sur la piste, la tête dans un bocal J'entends des 'gos' qui chantent Tout est flou, je me défoule et fatigue Puis vient le moment fatidique de recharger les batteries J'aurais besoin d'une pipe, je ne parle pas de gâterie J'suis nul en collage, c'est dommage et irritant Donc j't'ai pris en otage, le décollage est imminent J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'dois l'avouer J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'suis pas doué J'sais pas rouler, j'sais pas rouler, j'sais pas rouler donc sois cool et Roule pour moi, ma poule sois pas saoulée J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'dois l'avouer J'sais pas rouler, j'sais pas rouler, j'sais pas rouler, j'aime pas m'fouler J'sais pas rouler, j'sais pas rouler, j'sais pas rouler donc sois cool et Roule pour moi, ma poule sois pas saoulée J'ai les jambes en miettes, le cerveau qui cuit Au-dessus d'ma tête, y'a des oiseaux qui font cui cui Faudrait pas me faire passer un test de QI Il risquerait d'être plus faible que celui d'un blini sans tarama J'sens qu'ma banane attend d's'faire bouffer J'branche deux, trois nanas qui refusent toutes de m'épouser, c'est la 'sère-mi J'veux rentrer chez moi, prendre un bon bain Mais y'a plus d'transports en commun et j'ai pas l'permis Le code de la route, c'est comme l'école sans prof, sans pote J'me fous d'savoir conduire, là, j'suis bourré, faut qu'on m'transporte Heureusement, j'croise un poto, Hey !, j'oublie toujours son prénom Il a une bête de moto mais pas de casque en rab, c'est con J'me rabats sur une fille du-per', elle déprime Avec des clés d'voiture, elle décapsule une bière, j'm'écrie J'ai pas d'sous pour un taxi, raccompagne-moi en caisse Mais dessaoule, j'tiens à ma vie, t'approches pas d'moi, t'empestes Si, toi aussi, tu fais partie du petit cercle des assistés L'amie sans gêne infecte sans cesse blacklistée Quelqu'un roulera pour toi, sans que tu t'mettes topless Si tu mets ce son à fond en guise de S.O.S Hippocampe Mou, yeah C'est pour les paresseux qui n'aiment pas s'fouler Ceux qui paraissent vieux mais qui n'savent pas rouler Le monde sous-marin renferme encore dinnombrables secrets</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Frères et surs, je vous laisse mes plus sincères pensées Un roman manuscrit, deux albums à séquencer Assez dansé je signe et saute dans le dernier wagon Dans la veste, un billet aller simple pour de chauds lagons Jai laissé sous loreiller le liquide dune scène au black Dans larmoire un peu de sable dans une vieille bouteille opaque De quoi bien remplir ce track, tristounet comme Léotard Quelques vidéos en attendant de svoir autre part Des BD de Will Eisner, des CD dHerbie Hancock Un poster de Mickey Rourke, une breloque même pas en toc Quelques sapes même pas en vogue, deux-trois créanciers en rogne Doù je suis je me marre bien, jai du papier dans les pognes Je nsuis plus dans lépoque mais jy laisse de belles images Une machine à écrire, une fausse dent, du lessivage Un diplôme inachevé, un peu de jazz dans le sillage Un joli texte quand lexistence a la gueule dans le cirage Frères et surs, je vous laisse mon peu de possessions Essentiellement des livres on nrefait pas ses obsessions Sauf quà la réflexion, on sait toujours ce quon perd Des photos de moi petit devant le garage de mon père Je refuse les pleurs, fêtons plutôt ça au Sauternes Jéconomise les frais puisque le rap est mon notaire Je punaise ce testament sur le frigo puis vous embrasse Mon encre est une liqueur de minimum 28 ans dâge You might also like Madame le notaire, vous êtes charmante Votre décolleté est effarant Lidée de vous appeler Maîtresse est exaltante Mais veillez à bien prendre note de mon testament Je lègue tous mes organes à mon boucher Sauf mon cerveau, lui je veux quil soit chouchouté Placé dans un tupperware hermétique Enterré au pied de mon arbre généalogique Mon corps momifié, je le lègue au musée Grévin Les nonnes se mordilleront les lèvres à la vue de mes mains Je lègue mes dents de lait à mon gorille en peluche Mon jardin secret sera public, immense, illustre Je lègue à tous mes potes mes vieux films de cul Ceux de la belle époque des pubis velus J'veux bien une tombe à mon nom, quon lui pisse dessus Plus rien nest dégradant quand on n'existe plus Je lègue mes larmes à la mer, mes soucis à la pluie Ma folie à ma fille, ma flamme à sa mère Mes dettes à mon banquier, mes affres à la nuit Mes aphtes à Paris, mes textes au monde entier Mais mes-mes mots d'passe internet, mon haleine de putois Le moulage de mon zgeg, mon dessin dVegeta Ma dernière cigarette non je nles léguerai pas Jai mis ça aux enchères et cest laffaire du mois Jvous léguerai mes textes inachevés sur Word et mon vieux HP Un lien sur l'bureau de toutes mes vidéos en HD Un SM-58 comme pour le rap, jétais en mode Un carnet d'Tickets Restau et quelques pièces sur la commode Jvous laisse aussi cette dernière bancale, car même parti en cendres Jcontinue de vous faire chier, un paquet d'dettes, ces poubelles à descendre Jvoulais écrire cette lettre un peu plus tôt pour le partage Mais cnest pas pour ce trésor que vous crierez à labordage Car mon seul coffre strouve en bas dchez mes yorks D'une R12-ventouse sans essence, garée rue du Dauph' Si les cadeaux sempilent, pensez bien de npas rêver Cassez la vitre et faites les fils car jai égaré les clés Quand jcherche les mots comme un bavard illettré La gorge nouée jai que si peu à vous offrir, nécessiteux Pauvre indigent je létais, plus bsoin dgratter là où je suis Jpossédais pas dcompte, jvous laisse une boîte de chocolats suisses Pendant qujy pense cest pas con, jvous lègue aussi ma chatte Et sa litière sur lbalcon, le lieu de ce sublime suicide Prenez-en soin, ses catons la démangent terriblement Et une portée dchatons, pensez à moi durant les miaulements Ya un tas dcartons, dobjets désuets dans lcagibi Et une chapka du KGB Ici au cas où joublie de le rapper, une copie en manuscrit Évidemment jai tout prévu pour mon testament 4</t>
+          <t>Frères et surs, je vous laisse mes plus sincères pensées Un roman manuscrit, deux albums à séquencer Assez dansé je signe et saute dans le dernier wagon Dans la veste, un billet aller simple pour de chauds lagons Jai laissé sous loreiller le liquide dune scène au black Dans larmoire un peu de sable dans une vieille bouteille opaque De quoi bien remplir ce track, tristounet comme Léotard Quelques vidéos en attendant de svoir autre part Des BD de Will Eisner, des CD dHerbie Hancock Un poster de Mickey Rourke, une breloque même pas en toc Quelques sapes même pas en vogue, deux-trois créanciers en rogne Doù je suis je me marre bien, jai du papier dans les pognes Je nsuis plus dans lépoque mais jy laisse de belles images Une machine à écrire, une fausse dent, du lessivage Un diplôme inachevé, un peu de jazz dans le sillage Un joli texte quand lexistence a la gueule dans le cirage Frères et surs, je vous laisse mon peu de possessions Essentiellement des livres on nrefait pas ses obsessions Sauf quà la réflexion, on sait toujours ce quon perd Des photos de moi petit devant le garage de mon père Je refuse les pleurs, fêtons plutôt ça au Sauternes Jéconomise les frais puisque le rap est mon notaire Je punaise ce testament sur le frigo puis vous embrasse Mon encre est une liqueur de minimum 28 ans dâge Madame le notaire, vous êtes charmante Votre décolleté est effarant Lidée de vous appeler Maîtresse est exaltante Mais veillez à bien prendre note de mon testament Je lègue tous mes organes à mon boucher Sauf mon cerveau, lui je veux quil soit chouchouté Placé dans un tupperware hermétique Enterré au pied de mon arbre généalogique Mon corps momifié, je le lègue au musée Grévin Les nonnes se mordilleront les lèvres à la vue de mes mains Je lègue mes dents de lait à mon gorille en peluche Mon jardin secret sera public, immense, illustre Je lègue à tous mes potes mes vieux films de cul Ceux de la belle époque des pubis velus J'veux bien une tombe à mon nom, quon lui pisse dessus Plus rien nest dégradant quand on n'existe plus Je lègue mes larmes à la mer, mes soucis à la pluie Ma folie à ma fille, ma flamme à sa mère Mes dettes à mon banquier, mes affres à la nuit Mes aphtes à Paris, mes textes au monde entier Mais mes-mes mots d'passe internet, mon haleine de putois Le moulage de mon zgeg, mon dessin dVegeta Ma dernière cigarette non je nles léguerai pas Jai mis ça aux enchères et cest laffaire du mois Jvous léguerai mes textes inachevés sur Word et mon vieux HP Un lien sur l'bureau de toutes mes vidéos en HD Un SM-58 comme pour le rap, jétais en mode Un carnet d'Tickets Restau et quelques pièces sur la commode Jvous laisse aussi cette dernière bancale, car même parti en cendres Jcontinue de vous faire chier, un paquet d'dettes, ces poubelles à descendre Jvoulais écrire cette lettre un peu plus tôt pour le partage Mais cnest pas pour ce trésor que vous crierez à labordage Car mon seul coffre strouve en bas dchez mes yorks D'une R12-ventouse sans essence, garée rue du Dauph' Si les cadeaux sempilent, pensez bien de npas rêver Cassez la vitre et faites les fils car jai égaré les clés Quand jcherche les mots comme un bavard illettré La gorge nouée jai que si peu à vous offrir, nécessiteux Pauvre indigent je létais, plus bsoin dgratter là où je suis Jpossédais pas dcompte, jvous laisse une boîte de chocolats suisses Pendant qujy pense cest pas con, jvous lègue aussi ma chatte Et sa litière sur lbalcon, le lieu de ce sublime suicide Prenez-en soin, ses catons la démangent terriblement Et une portée dchatons, pensez à moi durant les miaulements Ya un tas dcartons, dobjets désuets dans lcagibi Et une chapka du KGB Ici au cas où joublie de le rapper, une copie en manuscrit Évidemment jai tout prévu pour mon testament 4</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Thèmes marquants comme John Williams Prix Nobel comme Bob Dylan Même sans poppers, les fions s'dilatent J'm'en lave les mains comme Ponce Pilate Meneur de jeu, j'vise comme Zidane Moral d'acier inoxydable Bien trop de wacks, de boss minables Y a que Stromae qu'est formidable J'suis le roi des mers, c'est official Les gens se courbent devant mon fish eye J'rêve ni d'jet ni d'grosse villa J'ai le monde à mes pieds comme Godzilla C'est fou mais, passer le cap des cent K, j'm'en fous Quoi qu'avec la YouTube money j'irais bien Écouter la douce voix de Népal dans mon casque Lors d'une bien belle escapade à Katmandou Mais, pour la fame, j'passe mon tour, faut pas m'en vouloir J'ai la flemme d'aller flamber sur les grands boulevards En tout cas, j'me sens pas coupable d'être pantouflard Même pas attiré par la lumière au bout du long couloir Vivre dans l'ombre pour mieux kicker sous les projecteurs Mes couplets font kiffer les néophytes et les connaisseurs J'm'élève dans les airs et mets des smashs comme un volleyeur Payé pour diffuser mon savoir, appelez-moi professeurYou might also like</t>
+          <t>Thèmes marquants comme John Williams Prix Nobel comme Bob Dylan Même sans poppers, les fions s'dilatent J'm'en lave les mains comme Ponce Pilate Meneur de jeu, j'vise comme Zidane Moral d'acier inoxydable Bien trop de wacks, de boss minables Y a que Stromae qu'est formidable J'suis le roi des mers, c'est official Les gens se courbent devant mon fish eye J'rêve ni d'jet ni d'grosse villa J'ai le monde à mes pieds comme Godzilla C'est fou mais, passer le cap des cent K, j'm'en fous Quoi qu'avec la YouTube money j'irais bien Écouter la douce voix de Népal dans mon casque Lors d'une bien belle escapade à Katmandou Mais, pour la fame, j'passe mon tour, faut pas m'en vouloir J'ai la flemme d'aller flamber sur les grands boulevards En tout cas, j'me sens pas coupable d'être pantouflard Même pas attiré par la lumière au bout du long couloir Vivre dans l'ombre pour mieux kicker sous les projecteurs Mes couplets font kiffer les néophytes et les connaisseurs J'm'élève dans les airs et mets des smashs comme un volleyeur Payé pour diffuser mon savoir, appelez-moi professeur</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wesh les zulus 2013 c'était oim, nan ? Ne pleurez pas mademoiselle ou juste du bas ventre Hyacinthe crooner pour biatch perdue Rendez votre flow à Dany Dan, j'rendrai l'mien à Jésus Trop d'cata', de batailles, rien d'désopilant Des attaques, des sales bails, c'est l'heure de faire le bilan Ça va pas, y'a pas d'maille et depuis ça s'corse J'ai grave hâte que ça aille mieux en 2014 Les comptes de Pernaut parlent d'Hollande et d'héro' Moral à double zéro, on fait l'17 pour pé-cho Négro pour mon réseau postiché autour d'un réchaud 2013 nous glacent les os, l'histoire s'répète rubrique Nécro' 2013 is in my review Tracks I made, it tell you what I been trought See-through, I'm alleviate but I change Working on myself like a step for the mouvement Dieudo, Charlie Hebdo, le retour de Sarko La banane à Christiane Taubira dans l'cul des fachos Une année bien rempli pas comme mon frigo, papa T'es un rappeur, t'as pas d'argent, nan mais alloc' quoi You might also like 2013 c'était kiffant mais c'est passé trop vite Et c'était piquant comme le nez de Ibrahimovic C'est l'heure du bilan, poto passe moi une feuille et une trousse Ca s'arrête trop tôt comme un poteau dans Fast and Furious Smile, mammy I leave you again Back a Yard in XXX put Naâman in a airplane XXX to put it down XXX go around J'ai vu l'retour des discours haineux que t'as mâché dans ta barbe T'as mis l'feu à la forêt puis tu t'es caché dans un arbre Han, ces tableaux rasent ouais ça c'est sans hésitation Pour le trente et un, efface bien l'historique de navigation A part boire des bières, gaspiller mes Assedics J'n'ai fait que fuir c'est pour ça qu'l'année est passée vite Penser à l'avenir, nan autant noyer Moby Dick Pour l'heure, restons prolifiques et à l'écart des faux litiges L'intolérance est un fléau L'humanité fait du surplace comme un homme-tronc sur un vélo Toujours moins de ponts que de barrières, pff J'retourne hiberner dans ma tanière J'ai vu l'mariage d'Adam et Dave, Vanina est fille adoptive J'ai la 4G mais j'me méfie d'Hadopi J'ai vu des boches en escouades, des proches dans des squats Honte de dire Allô lorsque j'décroche mon S4 Kikou ! Bientôt la fin de décembre, les bonnes résolutions ne sont plus que des cendres On ne peux pas se défendre, c'est la fin de l'année alors autant se détendre En 2-14, que la crise s'taille, j'invite à ma table Bonheur et Victuailles Histoire de savoir ce que, eux diront en freestyle J'me laisse pas polluer par BFM TV Des tireurs fous y'en a pleins l'quartier On parle plus de Zlatan que d'un typhon avec un bébé singe On a touché l'fond, j't'oublie pas répose en paix Madiba C't'année j'étais dans des cases vides J'ai vu des bonnets rouges, des bonnets F chanter dans des casting Bref c'était casse-pipe L'année prochaine j'viens t'masser la gueule comme sur les photos de vibro' dans les 3 Suisses Pour ma part 2013 c'est plus que positif, hein J'ai fleuri ma vie d'artiste et puis j'ai pris du biff, hein J'ai construit avec ma femme, j'ai augmenté ma foi J'ai su allumer les flammes pour attiser la joie Je veux juste vivre en paix, boy Mais cette année ce monde n'a pas changé donc je préfère faire un bilan égoïste 2013, premier CD j'en suis fier messieurs 2014, finis les perles je créé des pierres précieuses T'entends pas ou quoi ? On fait l'bilan d'une année de jeunes barges on fout la merde Comme sur GTA 5, sur PlayStation 4, trois trains déraillent, et deux hommes peuvent se marier Un symbole nous a quitté grand changement pour l'humanité L'décompte est activé2</t>
+          <t>Wesh les zulus 2013 c'était oim, nan ? Ne pleurez pas mademoiselle ou juste du bas ventre Hyacinthe crooner pour biatch perdue Rendez votre flow à Dany Dan, j'rendrai l'mien à Jésus Trop d'cata', de batailles, rien d'désopilant Des attaques, des sales bails, c'est l'heure de faire le bilan Ça va pas, y'a pas d'maille et depuis ça s'corse J'ai grave hâte que ça aille mieux en 2014 Les comptes de Pernaut parlent d'Hollande et d'héro' Moral à double zéro, on fait l'17 pour pé-cho Négro pour mon réseau postiché autour d'un réchaud 2013 nous glacent les os, l'histoire s'répète rubrique Nécro' 2013 is in my review Tracks I made, it tell you what I been trought See-through, I'm alleviate but I change Working on myself like a step for the mouvement Dieudo, Charlie Hebdo, le retour de Sarko La banane à Christiane Taubira dans l'cul des fachos Une année bien rempli pas comme mon frigo, papa T'es un rappeur, t'as pas d'argent, nan mais alloc' quoi 2013 c'était kiffant mais c'est passé trop vite Et c'était piquant comme le nez de Ibrahimovic C'est l'heure du bilan, poto passe moi une feuille et une trousse Ca s'arrête trop tôt comme un poteau dans Fast and Furious Smile, mammy I leave you again Back a Yard in XXX put Naâman in a airplane XXX to put it down XXX go around J'ai vu l'retour des discours haineux que t'as mâché dans ta barbe T'as mis l'feu à la forêt puis tu t'es caché dans un arbre Han, ces tableaux rasent ouais ça c'est sans hésitation Pour le trente et un, efface bien l'historique de navigation A part boire des bières, gaspiller mes Assedics J'n'ai fait que fuir c'est pour ça qu'l'année est passée vite Penser à l'avenir, nan autant noyer Moby Dick Pour l'heure, restons prolifiques et à l'écart des faux litiges L'intolérance est un fléau L'humanité fait du surplace comme un homme-tronc sur un vélo Toujours moins de ponts que de barrières, pff J'retourne hiberner dans ma tanière J'ai vu l'mariage d'Adam et Dave, Vanina est fille adoptive J'ai la 4G mais j'me méfie d'Hadopi J'ai vu des boches en escouades, des proches dans des squats Honte de dire Allô lorsque j'décroche mon S4 Kikou ! Bientôt la fin de décembre, les bonnes résolutions ne sont plus que des cendres On ne peux pas se défendre, c'est la fin de l'année alors autant se détendre En 2-14, que la crise s'taille, j'invite à ma table Bonheur et Victuailles Histoire de savoir ce que, eux diront en freestyle J'me laisse pas polluer par BFM TV Des tireurs fous y'en a pleins l'quartier On parle plus de Zlatan que d'un typhon avec un bébé singe On a touché l'fond, j't'oublie pas répose en paix Madiba C't'année j'étais dans des cases vides J'ai vu des bonnets rouges, des bonnets F chanter dans des casting Bref c'était casse-pipe L'année prochaine j'viens t'masser la gueule comme sur les photos de vibro' dans les 3 Suisses Pour ma part 2013 c'est plus que positif, hein J'ai fleuri ma vie d'artiste et puis j'ai pris du biff, hein J'ai construit avec ma femme, j'ai augmenté ma foi J'ai su allumer les flammes pour attiser la joie Je veux juste vivre en paix, boy Mais cette année ce monde n'a pas changé donc je préfère faire un bilan égoïste 2013, premier CD j'en suis fier messieurs 2014, finis les perles je créé des pierres précieuses T'entends pas ou quoi ? On fait l'bilan d'une année de jeunes barges on fout la merde Comme sur GTA 5, sur PlayStation 4, trois trains déraillent, et deux hommes peuvent se marier Un symbole nous a quitté grand changement pour l'humanité L'décompte est activé2</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Déjà qu'j'crois plus en l'Homme, alors t'imagines C'que j'pense au quotidien d'être entouré de machines Ouais, sans déconner, vie d'dingue Si les robots me contrôlent SarahConor bang XXX, c'est plus d'la fiction à l'heure de la robotique Sur ma tête, dans deux ans, là, j'me fais greffer un bras bionique Les cyborgs au pouvoir j'efface tous mes aprioris Puis c'est trop tard, demande au gouverneur d'la Californie Si fumer tue, le robot a pris ta place au taf L'humain n'existe plus, alors tire une dernière taffe Un homme égale un smartphone On a croqué dans la pomme, on finira comme Robocop XXX même le ciné s'y met vite XXX Hommes robotiques, les carottes scientifiques évitent L'hérétique s'croit identique à Dieu, j'mène mon enquête Quitte à porter l'étiquette de celui qui reste en quête d'éthique Tu rêves d'un plan d'iPhone 10, ravale ton matraquage J'suis pressé d'voir ta gueule lorsque ton clone sautera ta femme Il sera trop tard pour tourner la page quand on n'saura plus lire Frérot, restreins tes besoins, tu n'en seras qu'plus libre Poussé par l'envie d'être érudit et vénérable J'ai boosté mes capacités physiques et cérébrales On m'a greffé des Google Eyes et un zgeg métallique On me traite de cyborg haha, laissez-moi rireYou might also like1</t>
+          <t>Déjà qu'j'crois plus en l'Homme, alors t'imagines C'que j'pense au quotidien d'être entouré de machines Ouais, sans déconner, vie d'dingue Si les robots me contrôlent SarahConor bang XXX, c'est plus d'la fiction à l'heure de la robotique Sur ma tête, dans deux ans, là, j'me fais greffer un bras bionique Les cyborgs au pouvoir j'efface tous mes aprioris Puis c'est trop tard, demande au gouverneur d'la Californie Si fumer tue, le robot a pris ta place au taf L'humain n'existe plus, alors tire une dernière taffe Un homme égale un smartphone On a croqué dans la pomme, on finira comme Robocop XXX même le ciné s'y met vite XXX Hommes robotiques, les carottes scientifiques évitent L'hérétique s'croit identique à Dieu, j'mène mon enquête Quitte à porter l'étiquette de celui qui reste en quête d'éthique Tu rêves d'un plan d'iPhone 10, ravale ton matraquage J'suis pressé d'voir ta gueule lorsque ton clone sautera ta femme Il sera trop tard pour tourner la page quand on n'saura plus lire Frérot, restreins tes besoins, tu n'en seras qu'plus libre Poussé par l'envie d'être érudit et vénérable J'ai boosté mes capacités physiques et cérébrales On m'a greffé des Google Eyes et un zgeg métallique On me traite de cyborg haha, laissez-moi rire1</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Oublie l'État, il s'désengage, il a coupé les ponts Place aux charités, business, showbiz et Téléthon Au festival du sparadrap sur les jambes de bois C'est toujours les conséquences et pas les causes que l'on combat Dans c'pays en pièces jaunes, David Douillet trouve un prétexte pour faire l'aumône Y'a du business sur le cur des gens et même si Les indigents tirent un peu d'profit Ils quitteront la misère quand la charité n'passera plus par la money XXX ta vocalise et entre doigts Sucez-vous, 'gue-shla', votre skeud tourne toujours sur celui-là J'charrie par charité, non, j'jure de charte de qualité Comme chiffrer sur la précarité, dealer d'la solidarité Moi, pour offrir, j'ai pas besoin d'attendre les fêtes, puis Pour dire merci, j'ai pas besoin d'attendre leur Thanksgiving Fais c'qu'il faut, sinon les enfoirés vont t'la mettre profond Donc, pour ma prochaine Rolex, je lance un appel au dons Il est aisé de s'indigner, l'hiver, autour d'un feu de cheminée Plus difficile d'inviter à dormir et dîner des sans-logis sans rechigner On voudrait venir en aide à ceux qui squattent l'hôtel courant d'air Mais on préfère adopter des sapins que des solutions qui nous emmerdent Maintenant qu'on s'pèle le cul, tu t'es trouvé une conscience Un beau dimanche, en offrant un pull à ceux qui font la manche, mais bon Une seule chose doit être répétée si tu les aides En hiver, mon pote, n'oublie pas de les aider l'étéYou might also like1</t>
+          <t>Oublie l'État, il s'désengage, il a coupé les ponts Place aux charités, business, showbiz et Téléthon Au festival du sparadrap sur les jambes de bois C'est toujours les conséquences et pas les causes que l'on combat Dans c'pays en pièces jaunes, David Douillet trouve un prétexte pour faire l'aumône Y'a du business sur le cur des gens et même si Les indigents tirent un peu d'profit Ils quitteront la misère quand la charité n'passera plus par la money XXX ta vocalise et entre doigts Sucez-vous, 'gue-shla', votre skeud tourne toujours sur celui-là J'charrie par charité, non, j'jure de charte de qualité Comme chiffrer sur la précarité, dealer d'la solidarité Moi, pour offrir, j'ai pas besoin d'attendre les fêtes, puis Pour dire merci, j'ai pas besoin d'attendre leur Thanksgiving Fais c'qu'il faut, sinon les enfoirés vont t'la mettre profond Donc, pour ma prochaine Rolex, je lance un appel au dons Il est aisé de s'indigner, l'hiver, autour d'un feu de cheminée Plus difficile d'inviter à dormir et dîner des sans-logis sans rechigner On voudrait venir en aide à ceux qui squattent l'hôtel courant d'air Mais on préfère adopter des sapins que des solutions qui nous emmerdent Maintenant qu'on s'pèle le cul, tu t'es trouvé une conscience Un beau dimanche, en offrant un pull à ceux qui font la manche, mais bon Une seule chose doit être répétée si tu les aides En hiver, mon pote, n'oublie pas de les aider l'été1</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Le défi est commun et le risque est gros On dé-confine les zones, c'est vrai qu'y a beaucoup d'idées fausses Si le malheur des uns fait le profit des autres Le comble s'rait de faire des masques avec des gilets jaunes Avec le corona', l'écart est net, tu respectes les mètres Mais pas ceux qui t'enseignaient comment nager dans le monde des lettres En banlieue, ça pète parce que ça va jamais jusqu'au parquet Pour menacer l'État, tout l'monde appelle en masqué Cette fois, on l'a pris la main dans le sac Pas assez de lits, pas assez de masques Confinés au max comme si c'était l'Alaska Mais relax, ouais, Macron, c'est le best Gérer la crise, c'est pas son fort, et v'là qu'arrive un autre drame Triste bilan des gens qui crèvent, des gilets jaunes, des Notre-Dame Des masques en plus pour le personnel médical mal équipé Emmanuel comme dans un film, sauf que c'est moi qui s'fait leaker Moi, j'aimerais pas être à sa place, non, mais, lui, il kiffe Il va rentrer dans l'Histoire, comme De Gaulle contre les Allemands Mais, bon, là, c'est une guerre contre un virus, t'sais Encore une astuce de Cortex et Minus You might also like J'suis en boubou à la mais', gratte mes seize en chuchotant Ambiance messe funéraire pour société moderne On s'adapte, se débat, se multiplie comme des blattes La situation les dépasse, rien n'arrête l'inspi' qui s'déplace c'est Kita Wesh, macro économe, sois digne, sois un homme Corona', corrida, j'suis taureau vif à la Viktorovitch Entre nous, tu t'es pas mis dans d'minis draps Dis au virus de traverser la rue pour s'trouver un vail-tra Eh, l'Président, t'es une girouette, on est perdus Donc on décide où être dedans, tous les résidents Font des pirouettes dehors, on marche que sur un kilomètre On est des il ou elle masqués, des silhouettes Le Président dit qu'c'est d'ta faute Tu n'sais pas t'confiner, tu n'fais que t'faufiler Mais c'est celui qu'a bradé l'matos qui est Donc ce s'ra sans filet, harnais et baudrier Verbiage hyper lâche Il aime faire la biatch pour l'image Le pays a pas l'outillage pour visages Le cash est dans les mirages, faut qu'tu l'saches J'vois trop d'étonnements genre L'État nous ment Des mensonges d'État, boy, j'en compte une tonne au moins Bref, rien d'neuf sous l'soleil, si c'n'est qu'la France reste c'qu'elle est Mais pas d'excès d'zèle, j'ai la teinte qu'ils aiment souiller Ça met du gaz dans les lacrymo', du sang sur ceux qui crient et Du Tas' et des G.I. Joe sur les blouses et sur les gilets De l'eau dans ton vin quand t'as eu besoin d'eux Pour c'qui est de t'en laver les mains, Macron, tu joues l'jeu Cache pas la peste dans nos deux maisons, morte saison Les Hommes s'entassent, pas de masque dans nos cargaisons Crémaillère ? Non, crématoire est la pendaison Répétition de l'Histoire, quand les bidons veulent le guidon C'putain d'virus est partout, j'te jure, un vrai truc de ouf J'suis passé d'Dr. Dre au Docteur Raoult Manu, règle ça, histoire qu'j'aille chercher ma paye Fini d'jouer, sérieux, j'en ai marre de perdre à la Play Je n'sais pas vous mais moi Le corona' ne me dérange pas Je n'sais pas vous mais moi Le corona' ne me dérange pas tant qu'ça Un discours équivaut à un cataplasme sur une jambe de bois Face aux mesures, le peuple n'a qu'un choix, c'est de porter sa croix On lève le voile sur l'imposture et la mascarade Comment faire passer la pilule avec des masques en rade ? Ça pue la défaite Mes doigts sentent la schnek, yeah J'suis Rocky, la nuit, je tape Je tape dans le steak J'sors mon bâton doré... Manu, tu nous dis qu'il faut pas qu'on porte de masque et, maintenant, si Tu nous dis qu'il faut pas qu'on sorte du taf, on a franchi Le cap pendant que les flics nous bloquent la chloroquine Tu stockes nos vies, tu les troques le choc, blaw Folie, gestion d'crise digne d'une série comique Et retour des théories conspi' qu'j'vomis, homie Soi-disant, personne n'avait prédit l'COVID Ils savent depuis janvier mais pensent plus à la money qu'aux vies Ça gère d'l'humain comme ça gère une prison On va sortir, ça va gueuler, dites adieu au silence Hun, mon humeur oscille entre ennui et rage Pas d'argent pour des masques mais des drones en patrouille ça en dit long Apparemment, les masques arriveront après les vaccinations ? J'vais reprendre mes études d'ingénieur en procrastination J'peux pas r'lancer l'économie, j'dois profiter d'l'ergonomie D'mon canapé, faire ma lettre de démotivation Du mal à s'décider l'avenir l'améliorer, c'est dead On sait c'qu'on fait mais joue avec le feu comme deux êtres avec le sida C'est clair, y a no future et pas d'place pour l'corona' Quand j'sors d'chez moi, ça pue la merde, j's'rais mieux sans odorat Incompétence à la présidence, se poursuit la série Quand on m'a dit Macron sait la gérer, j't'avoue qu'là j'ai ri Acérés sont mes propos d'vant leurs tristes balivernes J'lâche les rimes en attendant la prochaine crise sanitaire Pour nos ministres, on reste des sales cabots, des rats d'labo' Vu qu'ces imbéciles préfèrent investir dans les chars d'assaut Nous faire la philo' d'Darwin, nous passer l'arme à gauche Plutôt qu'un lasso, tu vois l'tableau ? Non, ça bouge pas un kilomètre, c'est la limite Passe des nuits blanches comme la be-bar d'Édouard Philippe J'regarde Manu qui r'garde l'OMS parler dans l'vide SO les caissières, les éboueurs, les gars qui vendent la weed Doucement, on nous ment souvent Surtout quand on entend qu'en guerre est ma douce France Où s'planquent les masques pendant qu'la vérité tousse, hante ? De décembre à mars frontières ouvertes depuis tout c'temps ? Remplace les gens qui font la queue au McDo' Par des médecins pour les hôpitaux du Grand-Est Hun, regard che-lou de mon voisin, est-ce un collabo' ? Non, juste un mec bien dans la pure tradition française Un pays à l'arrêt, un gouvernement à la rue En guerre contre le corono', on ne l'aura pas à mains nues Ça veut pas dire qu'baisser les bras doit être un geste barrière Ils trouveront d'quoi sauver les banques, pas les CHR Salut voisin, on s'retrouve pour applaudir et se sentir moins seuls Aide-soignants, caissiers ou éboueurs que l'on regarde d'un nouvel il Ce soir discours du Président, j'prétends pas être devin Mais, si tu veux entendre des applaudissements maintenant, faudra attendre demain C'est dur d'envisager autre chose qu'une tragique issue Du matin au soir, j'suis en slip, j'ai pas un look qui tue Les politiques sont dans l'vague avec le boule qui sue Nous vend d'l'espoir avec deux élastiques, un bout d'tissu On sait qui est nécessaire et quels sont les meilleurs boulots Une pensée à celles qui sont enfermées avec leur bourreau Le nez dehors, la bouche sous l'eau Même ceux qui ont fait des réserves sont au bout du rouleau Sortir le onze mai ? Vas-y, parle pas d'malheur Pour moi, tout va bien, j'ai pas besoin d'coiffeur Ré ouvrir les écoles ? En voilà, une drôle d'idée Interdisez les concerts Facebook de confinés 2020, c'est un blague mais, l'COVID, c'est pas marrant J'ai pas mon attestation donc j'f'rai un mot des parents Dis-moi au moins si, en été, on quittera le confinement J'vais pas taffer mes abdo' inutilement Ouais, tu vas servir la grosse douille, l'année blanche Ou l'année noire, surfe une marée noire de grosses couilles Slip sur la tête non, j'sais pas l'mettre J'applaudis leur incompétence, tout nu à la f'nêtre, bravo Applaudissez, bande de La route est longue comme celle d'Homère et son Odyssée Pff, ris la nuit comme se masturber Jouir sa vie sur des juments comme un palefrenier Seul dans mon appart', RPZ tous les autistes de France J'peux être au sein d'un monde COVID de sens Beurk, j'me dois d'avaler la pilule Le canapé m'attribue pour pas attraper le virus J'garde mes six feet de distance, revis chaque jour la veille Maintenant, ils m'font marrer, vos putains d'tatou' Cape diem Hun, un conseil faites en sorte qu'il y ait du Gin quand j'ressors Gardez Sibeth mais rendez-nous Christophe Ils élisent des clowns chouchoutés à l'Élysée Ils s'font la bise, senlacent, nous font des sermons Mais qui nous dirige vraiment, hein ? Macron, apparemment Ça fait un bail qu'tu nous mens, t'auras des comptes à nous rendre C'est plutôt de notre gestion interne dont on doit se préoccuper Au lieu de chercher à savoir si on s'est fait duper À mon échelle, j'fais ma part avec amour En envoyant des impro' bienveillantes sur ma page chaque jour On manque de masques, akhi, ils tombent, révélant tous nos visages Confrontés qu'au vide intime, laissera des traces dans l'héritage Penser à se situer à l'épicentre de la crise J'ai pas les mots pour vous transmettre à quel point j'vous fais la bise1</t>
+          <t>Le défi est commun et le risque est gros On dé-confine les zones, c'est vrai qu'y a beaucoup d'idées fausses Si le malheur des uns fait le profit des autres Le comble s'rait de faire des masques avec des gilets jaunes Avec le corona', l'écart est net, tu respectes les mètres Mais pas ceux qui t'enseignaient comment nager dans le monde des lettres En banlieue, ça pète parce que ça va jamais jusqu'au parquet Pour menacer l'État, tout l'monde appelle en masqué Cette fois, on l'a pris la main dans le sac Pas assez de lits, pas assez de masques Confinés au max comme si c'était l'Alaska Mais relax, ouais, Macron, c'est le best Gérer la crise, c'est pas son fort, et v'là qu'arrive un autre drame Triste bilan des gens qui crèvent, des gilets jaunes, des Notre-Dame Des masques en plus pour le personnel médical mal équipé Emmanuel comme dans un film, sauf que c'est moi qui s'fait leaker Moi, j'aimerais pas être à sa place, non, mais, lui, il kiffe Il va rentrer dans l'Histoire, comme De Gaulle contre les Allemands Mais, bon, là, c'est une guerre contre un virus, t'sais Encore une astuce de Cortex et Minus J'suis en boubou à la mais', gratte mes seize en chuchotant Ambiance messe funéraire pour société moderne On s'adapte, se débat, se multiplie comme des blattes La situation les dépasse, rien n'arrête l'inspi' qui s'déplace c'est Kita Wesh, macro économe, sois digne, sois un homme Corona', corrida, j'suis taureau vif à la Viktorovitch Entre nous, tu t'es pas mis dans d'minis draps Dis au virus de traverser la rue pour s'trouver un vail-tra Eh, l'Président, t'es une girouette, on est perdus Donc on décide où être dedans, tous les résidents Font des pirouettes dehors, on marche que sur un kilomètre On est des il ou elle masqués, des silhouettes Le Président dit qu'c'est d'ta faute Tu n'sais pas t'confiner, tu n'fais que t'faufiler Mais c'est celui qu'a bradé l'matos qui est Donc ce s'ra sans filet, harnais et baudrier Verbiage hyper lâche Il aime faire la biatch pour l'image Le pays a pas l'outillage pour visages Le cash est dans les mirages, faut qu'tu l'saches J'vois trop d'étonnements genre L'État nous ment Des mensonges d'État, boy, j'en compte une tonne au moins Bref, rien d'neuf sous l'soleil, si c'n'est qu'la France reste c'qu'elle est Mais pas d'excès d'zèle, j'ai la teinte qu'ils aiment souiller Ça met du gaz dans les lacrymo', du sang sur ceux qui crient et Du Tas' et des G.I. Joe sur les blouses et sur les gilets De l'eau dans ton vin quand t'as eu besoin d'eux Pour c'qui est de t'en laver les mains, Macron, tu joues l'jeu Cache pas la peste dans nos deux maisons, morte saison Les Hommes s'entassent, pas de masque dans nos cargaisons Crémaillère ? Non, crématoire est la pendaison Répétition de l'Histoire, quand les bidons veulent le guidon C'putain d'virus est partout, j'te jure, un vrai truc de ouf J'suis passé d'Dr. Dre au Docteur Raoult Manu, règle ça, histoire qu'j'aille chercher ma paye Fini d'jouer, sérieux, j'en ai marre de perdre à la Play Je n'sais pas vous mais moi Le corona' ne me dérange pas Je n'sais pas vous mais moi Le corona' ne me dérange pas tant qu'ça Un discours équivaut à un cataplasme sur une jambe de bois Face aux mesures, le peuple n'a qu'un choix, c'est de porter sa croix On lève le voile sur l'imposture et la mascarade Comment faire passer la pilule avec des masques en rade ? Ça pue la défaite Mes doigts sentent la schnek, yeah J'suis Rocky, la nuit, je tape Je tape dans le steak J'sors mon bâton doré... Manu, tu nous dis qu'il faut pas qu'on porte de masque et, maintenant, si Tu nous dis qu'il faut pas qu'on sorte du taf, on a franchi Le cap pendant que les flics nous bloquent la chloroquine Tu stockes nos vies, tu les troques le choc, blaw Folie, gestion d'crise digne d'une série comique Et retour des théories conspi' qu'j'vomis, homie Soi-disant, personne n'avait prédit l'COVID Ils savent depuis janvier mais pensent plus à la money qu'aux vies Ça gère d'l'humain comme ça gère une prison On va sortir, ça va gueuler, dites adieu au silence Hun, mon humeur oscille entre ennui et rage Pas d'argent pour des masques mais des drones en patrouille ça en dit long Apparemment, les masques arriveront après les vaccinations ? J'vais reprendre mes études d'ingénieur en procrastination J'peux pas r'lancer l'économie, j'dois profiter d'l'ergonomie D'mon canapé, faire ma lettre de démotivation Du mal à s'décider l'avenir l'améliorer, c'est dead On sait c'qu'on fait mais joue avec le feu comme deux êtres avec le sida C'est clair, y a no future et pas d'place pour l'corona' Quand j'sors d'chez moi, ça pue la merde, j's'rais mieux sans odorat Incompétence à la présidence, se poursuit la série Quand on m'a dit Macron sait la gérer, j't'avoue qu'là j'ai ri Acérés sont mes propos d'vant leurs tristes balivernes J'lâche les rimes en attendant la prochaine crise sanitaire Pour nos ministres, on reste des sales cabots, des rats d'labo' Vu qu'ces imbéciles préfèrent investir dans les chars d'assaut Nous faire la philo' d'Darwin, nous passer l'arme à gauche Plutôt qu'un lasso, tu vois l'tableau ? Non, ça bouge pas un kilomètre, c'est la limite Passe des nuits blanches comme la be-bar d'Édouard Philippe J'regarde Manu qui r'garde l'OMS parler dans l'vide SO les caissières, les éboueurs, les gars qui vendent la weed Doucement, on nous ment souvent Surtout quand on entend qu'en guerre est ma douce France Où s'planquent les masques pendant qu'la vérité tousse, hante ? De décembre à mars frontières ouvertes depuis tout c'temps ? Remplace les gens qui font la queue au McDo' Par des médecins pour les hôpitaux du Grand-Est Hun, regard che-lou de mon voisin, est-ce un collabo' ? Non, juste un mec bien dans la pure tradition française Un pays à l'arrêt, un gouvernement à la rue En guerre contre le corono', on ne l'aura pas à mains nues Ça veut pas dire qu'baisser les bras doit être un geste barrière Ils trouveront d'quoi sauver les banques, pas les CHR Salut voisin, on s'retrouve pour applaudir et se sentir moins seuls Aide-soignants, caissiers ou éboueurs que l'on regarde d'un nouvel il Ce soir discours du Président, j'prétends pas être devin Mais, si tu veux entendre des applaudissements maintenant, faudra attendre demain C'est dur d'envisager autre chose qu'une tragique issue Du matin au soir, j'suis en slip, j'ai pas un look qui tue Les politiques sont dans l'vague avec le boule qui sue Nous vend d'l'espoir avec deux élastiques, un bout d'tissu On sait qui est nécessaire et quels sont les meilleurs boulots Une pensée à celles qui sont enfermées avec leur bourreau Le nez dehors, la bouche sous l'eau Même ceux qui ont fait des réserves sont au bout du rouleau Sortir le onze mai ? Vas-y, parle pas d'malheur Pour moi, tout va bien, j'ai pas besoin d'coiffeur Ré ouvrir les écoles ? En voilà, une drôle d'idée Interdisez les concerts Facebook de confinés 2020, c'est un blague mais, l'COVID, c'est pas marrant J'ai pas mon attestation donc j'f'rai un mot des parents Dis-moi au moins si, en été, on quittera le confinement J'vais pas taffer mes abdo' inutilement Ouais, tu vas servir la grosse douille, l'année blanche Ou l'année noire, surfe une marée noire de grosses couilles Slip sur la tête non, j'sais pas l'mettre J'applaudis leur incompétence, tout nu à la f'nêtre, bravo Applaudissez, bande de La route est longue comme celle d'Homère et son Odyssée Pff, ris la nuit comme se masturber Jouir sa vie sur des juments comme un palefrenier Seul dans mon appart', RPZ tous les autistes de France J'peux être au sein d'un monde COVID de sens Beurk, j'me dois d'avaler la pilule Le canapé m'attribue pour pas attraper le virus J'garde mes six feet de distance, revis chaque jour la veille Maintenant, ils m'font marrer, vos putains d'tatou' Cape diem Hun, un conseil faites en sorte qu'il y ait du Gin quand j'ressors Gardez Sibeth mais rendez-nous Christophe Ils élisent des clowns chouchoutés à l'Élysée Ils s'font la bise, senlacent, nous font des sermons Mais qui nous dirige vraiment, hein ? Macron, apparemment Ça fait un bail qu'tu nous mens, t'auras des comptes à nous rendre C'est plutôt de notre gestion interne dont on doit se préoccuper Au lieu de chercher à savoir si on s'est fait duper À mon échelle, j'fais ma part avec amour En envoyant des impro' bienveillantes sur ma page chaque jour On manque de masques, akhi, ils tombent, révélant tous nos visages Confrontés qu'au vide intime, laissera des traces dans l'héritage Penser à se situer à l'épicentre de la crise J'ai pas les mots pour vous transmettre à quel point j'vous fais la bise1</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Mariage pour tous, blablabla ça s'égosille Quand à la base la vraie connerie c'est le mariage tout court Tout le monde peut avoir un couffin, une petite vie naze d'hétéro Tant qu'on interdit à Boutin et Civitas de faire des mômes Mieux vaut un mariage gay que des obseques tristes hein ? Ça laissera respirer un peu les obstétricien Je préfère voir l'union de deux anatomie similaires Plutôt qu'une pub pour la lessive ou qu'un défilé militaire Les hétéros parlents de palmarès, n'aiment pas le Marais Veulent pas du mariage gay, c'est un acte sacré, c'est chasse gardée C'est sacrilège que ce ras de marée me fasse marrer Qui se ressemble s'assemble mais ne peut pas se marier Et si les pédés se marients, peut-être qu'ils vont se mettre à divorcer A tromper leurs conjoints ou même pire les frapper A mal traiter leurs gosses, ou mal les éduquer Toutes ces choses atroces que les hétéros ne font jamais... Le mic dans une main, rainbow flag dans l'autre On m'a dit Mo tu ne peux pas rapper car t'es homo Paraît que le hip-hop est coupable d'homophobie Le gangsta rap a plutôt subit la rapophobie Quand faut parler de vrai soucis les micros se baissent Faux débat, bla bla bla, tout le monde veut dire chose-quelque Moi, mon seul problème, c'est que j'ai pas les poches pleines J'en ai rien à battre que deux femmes ou deux hommes s'aimentYou might also like</t>
+          <t>Mariage pour tous, blablabla ça s'égosille Quand à la base la vraie connerie c'est le mariage tout court Tout le monde peut avoir un couffin, une petite vie naze d'hétéro Tant qu'on interdit à Boutin et Civitas de faire des mômes Mieux vaut un mariage gay que des obseques tristes hein ? Ça laissera respirer un peu les obstétricien Je préfère voir l'union de deux anatomie similaires Plutôt qu'une pub pour la lessive ou qu'un défilé militaire Les hétéros parlents de palmarès, n'aiment pas le Marais Veulent pas du mariage gay, c'est un acte sacré, c'est chasse gardée C'est sacrilège que ce ras de marée me fasse marrer Qui se ressemble s'assemble mais ne peut pas se marier Et si les pédés se marients, peut-être qu'ils vont se mettre à divorcer A tromper leurs conjoints ou même pire les frapper A mal traiter leurs gosses, ou mal les éduquer Toutes ces choses atroces que les hétéros ne font jamais... Le mic dans une main, rainbow flag dans l'autre On m'a dit Mo tu ne peux pas rapper car t'es homo Paraît que le hip-hop est coupable d'homophobie Le gangsta rap a plutôt subit la rapophobie Quand faut parler de vrai soucis les micros se baissent Faux débat, bla bla bla, tout le monde veut dire chose-quelque Moi, mon seul problème, c'est que j'ai pas les poches pleines J'en ai rien à battre que deux femmes ou deux hommes s'aiment</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ok J'suis de retour sur le Vieux Continent I'm back Un gars lambda en quête de compliments merci Assourdi par les cris, les vrombissements J'ai débarqué à La Rochelle avant le confinement Dans mes poches, une MetroCard et un Passe Navigo Maintenant, y'a des coquillages et des textes abyssaux J'suis pas pressé, jamais stressé, j'aime les lieux familiaux J'me sens rochelais bien plus que nwyorkais ou parigot Chez moi, je larve, j'attnds de devenir papillon Bah oui, j'm'étale, mes potes me surnomment papichon C'est le kif, j'ai perdu l'habitude d'être speed, je chill, j'me la coule douce Dans la ville, personne ne me bouscule mais tout le monde me file un coup d'pouce À LR, j'suis déter' J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire À LR, j'suis déter' à LR, à LR J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères à LR, à LR J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire You might also like Nouveau moi, nouveau chant, nouvelle voix, nouvelles dents Laissez passer l'artiste Laissez passer l'artiste Nouvelle vie sur les toits, paradis, toi et moi Adieu, les curs tristes adieu, les curs tristes J'étais perdu dans la grande ville, noyé dans l'alcool J'ai touché l'fond d'la piscine J'étais même plus qui je suis, les bras en croix sur le sol Intervention divine Je n'ai plus rien à prouver Je ne peux qu'approuver J'ai plus qu'à profiter Il a plus qu'à profiter J'fais que rêver, pas trop pressé, j'suis trop bien ici J'fais que rêver, pas trop pressé, j'ai le temps d'être en vie À LR, j'suis déter' J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire À LR, j'suis déter' à LR, à LR J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères à LR, à LR J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire Ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle À LR, j'suis déter' J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire À LR, j'suis déter' à LR, à LR J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères à LR, à LR J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire Ici, c'est La Rochelle Ici, c'est La Rochelle Ici, c'est La Rochelle Ici, c'est La Rochelle</t>
+          <t>Ok J'suis de retour sur le Vieux Continent I'm back Un gars lambda en quête de compliments merci Assourdi par les cris, les vrombissements J'ai débarqué à La Rochelle avant le confinement Dans mes poches, une MetroCard et un Passe Navigo Maintenant, y'a des coquillages et des textes abyssaux J'suis pas pressé, jamais stressé, j'aime les lieux familiaux J'me sens rochelais bien plus que nwyorkais ou parigot Chez moi, je larve, j'attnds de devenir papillon Bah oui, j'm'étale, mes potes me surnomment papichon C'est le kif, j'ai perdu l'habitude d'être speed, je chill, j'me la coule douce Dans la ville, personne ne me bouscule mais tout le monde me file un coup d'pouce À LR, j'suis déter' J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire À LR, j'suis déter' à LR, à LR J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères à LR, à LR J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire Nouveau moi, nouveau chant, nouvelle voix, nouvelles dents Laissez passer l'artiste Laissez passer l'artiste Nouvelle vie sur les toits, paradis, toi et moi Adieu, les curs tristes adieu, les curs tristes J'étais perdu dans la grande ville, noyé dans l'alcool J'ai touché l'fond d'la piscine J'étais même plus qui je suis, les bras en croix sur le sol Intervention divine Je n'ai plus rien à prouver Je ne peux qu'approuver J'ai plus qu'à profiter Il a plus qu'à profiter J'fais que rêver, pas trop pressé, j'suis trop bien ici J'fais que rêver, pas trop pressé, j'ai le temps d'être en vie À LR, j'suis déter' J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire À LR, j'suis déter' à LR, à LR J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères à LR, à LR J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire Ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle Ici, ici, c'est La Rochelle, ici, ici, c'est La Rochelle À LR, j'suis déter' J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire À LR, j'suis déter' à LR, à LR J'suis pépère, pas vé-ner' Mes chères surs, mes chers frères à LR, à LR J'me vois pas vivre ailleurs, là, j'ai tout l'nécessaire Ici, c'est La Rochelle Ici, c'est La Rochelle Ici, c'est La Rochelle Ici, c'est La Rochelle</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Ma peine est big quand on m'dit Va pas là, petit con J'm'en bats les couilles d'Benny B, j'rappe à la King Kong ! J'traîne avec Rafiki, ça fait flipper la mama J'm'en fous de ta bonne année, moi, j'veux une banana Houhouhahahaha ! Je marchais sur deux pattes avant toi Houhouhahahaha ! J'étais sur Terre avant toi Houhouhahahaha ! J'ai élevé Tarzan avant toi Houhouhahahaha ! N'oublie pas qu'tu descends de moi En tant que crustacé, moi, j'en ai plus qu'assez De causer à des wacks poissons qui posent et s'font tout l'temps crosser J'dépouille des bulots pas emballés par mon boulot Et balaie les clashs à deux balles de baleines et d'cachalots Les chaloupes étendent leurs filets seulement pour m'attraper Affolé par leur filet, j'me faufile sous les rochers Mes grandes antennes entendent ceux qui parlent dans mon dos Moi, j'me fais pas cuisiner genre crevettes au lait d'coco Le museau toujours humide, je rumine Regard de toutou stupide, parfois, j'm'illumine Le reste du temps, je somnole Comme si, petit, j'étais tombé dans le formol J'pue l'urine Sous mon pelage gris jaunâtre, des petits cafards rodent Je crois qu'on m'idolâtre, même les jaguars miaulent J'ai plein de phrasés, j'ai juste besoin d'un grain de café Pour m'activer, faire la diff', avec mes griffes te décapiter Puis rebailler You might also like Quand j'arrive, man, j'fais pas d'détail J'suis là pour kill tous les sounds systems de la jungle Appelle-moi Big cat samouraï J'sors mes griffes à la Wolverine, chaton, entends bien J'vais répartir toutes tes entrailles Sur l'avenue, ramène tes chats de gouttière, j'les dead un par un Va te faire les dents sur le cadavre à Félix Hérisse tes poils et reviens quand t'auras l'aura d'un supercat Phacochère d'un coté, pas trop cher à couper puisque La bouchère d'à coté m'a déjà découpé les cuisses En viande casher, ligoté, ils m'ont envoyé en Suisse La tête par terre, tout l'été, seul à baigner dans ma pisse J'suis d'la famille du cochon, ça, c'est pas facile à porter J'ai la tête à Jean Paul Huchon, avec sa femme, j'ai une portée On a neuf gosses et, sur la tête, on a neuf bosses Et deux os qui nous donnent une mâchoire à la Bedos En haut d'la chaîne alimentaire, je perds la tête à être seul J'rigole sans cesse, et même quand j'suis sérieux Tu crois que je me fous de ta gueule Et lorsque je viens pour te grailler J't'attaque pas à la régulière Je te raconte une blague, et direct, j'te croque à la jugulaire J'aime le sang, la viande fraîche Comme toute hyène qui se respecte Avant, j'avais des potes, mais ils ont tous fini en steak J'me fais pas de bile, même quand la bouffe se fait la belle En bal, tu peux m'appeler la bête, je me suis jamais farci la belle T'aurais pas du mettre les pieds là, résultat ton sang j'vide Ton cerveau ne sera plus irrigué C'est con, tu n'as plus de briquet et pas de torche J'ai l'âme d'un écorché vif J'te lâcherai lorsque tu m'auras assez servi Y'a des chances pour que tu dégustes Alors qu'j'me saoule abondamment Le but est d'rester insoupçonnable et discret J'te dépouille, c'est pour mon bien, alors n'en fais pas un four S'il vous plait, rasez vous, je ne suis pas fou d'vos oilps' ! Dis-moi qui peut se proclamer roi de la jungle Hormis ton painc l'ornithorynque, le canard à quatre pattes À côté, le lion est un incapable Surcoté face à l'incroyable surdopé animal royal Surnomme-moi Daffy par taillade, j'te ferais succomber par noyade Tu comptais sur une part loyale Tu croyais peut-être assurer le carnaval Parle à ma patte, mon bec, vas-y, attrape ma liane Ça ne va pas finir à l'amiable Tu finiras par admettre à ma niac Que j'suis le patron des bêtes, le maître et pas l'arnaque La banane mangée par le macaque</t>
+          <t>Ma peine est big quand on m'dit Va pas là, petit con J'm'en bats les couilles d'Benny B, j'rappe à la King Kong ! J'traîne avec Rafiki, ça fait flipper la mama J'm'en fous de ta bonne année, moi, j'veux une banana Houhouhahahaha ! Je marchais sur deux pattes avant toi Houhouhahahaha ! J'étais sur Terre avant toi Houhouhahahaha ! J'ai élevé Tarzan avant toi Houhouhahahaha ! N'oublie pas qu'tu descends de moi En tant que crustacé, moi, j'en ai plus qu'assez De causer à des wacks poissons qui posent et s'font tout l'temps crosser J'dépouille des bulots pas emballés par mon boulot Et balaie les clashs à deux balles de baleines et d'cachalots Les chaloupes étendent leurs filets seulement pour m'attraper Affolé par leur filet, j'me faufile sous les rochers Mes grandes antennes entendent ceux qui parlent dans mon dos Moi, j'me fais pas cuisiner genre crevettes au lait d'coco Le museau toujours humide, je rumine Regard de toutou stupide, parfois, j'm'illumine Le reste du temps, je somnole Comme si, petit, j'étais tombé dans le formol J'pue l'urine Sous mon pelage gris jaunâtre, des petits cafards rodent Je crois qu'on m'idolâtre, même les jaguars miaulent J'ai plein de phrasés, j'ai juste besoin d'un grain de café Pour m'activer, faire la diff', avec mes griffes te décapiter Puis rebailler Quand j'arrive, man, j'fais pas d'détail J'suis là pour kill tous les sounds systems de la jungle Appelle-moi Big cat samouraï J'sors mes griffes à la Wolverine, chaton, entends bien J'vais répartir toutes tes entrailles Sur l'avenue, ramène tes chats de gouttière, j'les dead un par un Va te faire les dents sur le cadavre à Félix Hérisse tes poils et reviens quand t'auras l'aura d'un supercat Phacochère d'un coté, pas trop cher à couper puisque La bouchère d'à coté m'a déjà découpé les cuisses En viande casher, ligoté, ils m'ont envoyé en Suisse La tête par terre, tout l'été, seul à baigner dans ma pisse J'suis d'la famille du cochon, ça, c'est pas facile à porter J'ai la tête à Jean Paul Huchon, avec sa femme, j'ai une portée On a neuf gosses et, sur la tête, on a neuf bosses Et deux os qui nous donnent une mâchoire à la Bedos En haut d'la chaîne alimentaire, je perds la tête à être seul J'rigole sans cesse, et même quand j'suis sérieux Tu crois que je me fous de ta gueule Et lorsque je viens pour te grailler J't'attaque pas à la régulière Je te raconte une blague, et direct, j'te croque à la jugulaire J'aime le sang, la viande fraîche Comme toute hyène qui se respecte Avant, j'avais des potes, mais ils ont tous fini en steak J'me fais pas de bile, même quand la bouffe se fait la belle En bal, tu peux m'appeler la bête, je me suis jamais farci la belle T'aurais pas du mettre les pieds là, résultat ton sang j'vide Ton cerveau ne sera plus irrigué C'est con, tu n'as plus de briquet et pas de torche J'ai l'âme d'un écorché vif J'te lâcherai lorsque tu m'auras assez servi Y'a des chances pour que tu dégustes Alors qu'j'me saoule abondamment Le but est d'rester insoupçonnable et discret J'te dépouille, c'est pour mon bien, alors n'en fais pas un four S'il vous plait, rasez vous, je ne suis pas fou d'vos oilps' ! Dis-moi qui peut se proclamer roi de la jungle Hormis ton painc l'ornithorynque, le canard à quatre pattes À côté, le lion est un incapable Surcoté face à l'incroyable surdopé animal royal Surnomme-moi Daffy par taillade, j'te ferais succomber par noyade Tu comptais sur une part loyale Tu croyais peut-être assurer le carnaval Parle à ma patte, mon bec, vas-y, attrape ma liane Ça ne va pas finir à l'amiable Tu finiras par admettre à ma niac Que j'suis le patron des bêtes, le maître et pas l'arnaque La banane mangée par le macaque</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quatre-vingt-seize fois par jour, je passe un sale quart d'heure Un poil SM, je joue tout seul au pouilleux massacreur Mon agenda est à l'hospice, il souffrait d'Alzheimer Je voudrais troquer mon MacBook contre un MacGyver À chaque album vendu, j'ai d'quoi m'payer une photocopie Je traque la beauté intérieure à l'aide de coloscopies Soit j'culbute ma feuille, soit j'm'adonne à la paresse Ta musique pue de la gueule, gars, la mienne est aquafresh Pour te crucifier, j'ai besoin d'un requin marteau et trois clous de girofle À Thoiry, Tarzan donne des cours de pole dance autour d'un cou de girafe Hyperémotif, je pleure même quand j'regarde un burger sans oignon Tu cherches à déchiffrer mes textes, ressuscite Champollion Ouais, j'me masturbe à l'opéra, t'inocule le choléra Tu me demandes Por qué te vas?, yo no quiero contestar J'drague les miss attractives, entre leurs cuisses, tape l'incruste Cocktail explosif type laxatif, anulingus x2 Anulingus, anulingus Cocktail explosif type laxatif, anulingusYou might also like3</t>
+          <t>Quatre-vingt-seize fois par jour, je passe un sale quart d'heure Un poil SM, je joue tout seul au pouilleux massacreur Mon agenda est à l'hospice, il souffrait d'Alzheimer Je voudrais troquer mon MacBook contre un MacGyver À chaque album vendu, j'ai d'quoi m'payer une photocopie Je traque la beauté intérieure à l'aide de coloscopies Soit j'culbute ma feuille, soit j'm'adonne à la paresse Ta musique pue de la gueule, gars, la mienne est aquafresh Pour te crucifier, j'ai besoin d'un requin marteau et trois clous de girofle À Thoiry, Tarzan donne des cours de pole dance autour d'un cou de girafe Hyperémotif, je pleure même quand j'regarde un burger sans oignon Tu cherches à déchiffrer mes textes, ressuscite Champollion Ouais, j'me masturbe à l'opéra, t'inocule le choléra Tu me demandes Por qué te vas?, yo no quiero contestar J'drague les miss attractives, entre leurs cuisses, tape l'incruste Cocktail explosif type laxatif, anulingus x2 Anulingus, anulingus Cocktail explosif type laxatif, anulingus3</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ici, on ne fait pas de vieilles arêtes On est vif ou on perd la tête On montre les dents d'la mer À part les mammifères, on ne manque pas d'air On mène des vies de poisson, épris d'évasion Mais le bruit des hommes en faction Étouffe les cris de passion Attise le mépris et pas assez la contestation Méduses et blobfish font des orgies sales Dans les abysses, y'a des phobies rares Y'a des baudroies et le CD d'Amenophis IV Que j'ai cédé à des coquillages Y'a mon lamantin qui se lamente un peu Depuis qu'il a brouté ma beuh J'attends l'un de mes fournisseurs parti dans un lagon thaï que L'on compare à l'Atlantide, on y nage au ralenti J'aime la weed, n'ai pas tant d'rides Mais bouger, j'n'en ai pas envie J'reste là, oui, j'gamberge Quand j'm'emmerde, c'est bestial J'laisse place aux narvals qui transpercent des squales La petite sirène a l'air toute claquée Des concombres de mer l'ont attaquée Et lui ont cloué le bec avec un bukkake Ton petit slip de bain s'apprête à craquer Si t'as l'âme d'un guerrier, assieds-toi vite par là Sur des bancs de poissons clowns qui cachent des dents de piranhas La vie sous-marine est une lutte qui ne connaît que de brèves trêves Curieux tableau auquel je mets ce texte en exergue La rumeur gronde, ceux qui aimeraient la faire taire Se laissent pêcher et vont s'exiler sur la terre fermeYou might also like2</t>
+          <t>Ici, on ne fait pas de vieilles arêtes On est vif ou on perd la tête On montre les dents d'la mer À part les mammifères, on ne manque pas d'air On mène des vies de poisson, épris d'évasion Mais le bruit des hommes en faction Étouffe les cris de passion Attise le mépris et pas assez la contestation Méduses et blobfish font des orgies sales Dans les abysses, y'a des phobies rares Y'a des baudroies et le CD d'Amenophis IV Que j'ai cédé à des coquillages Y'a mon lamantin qui se lamente un peu Depuis qu'il a brouté ma beuh J'attends l'un de mes fournisseurs parti dans un lagon thaï que L'on compare à l'Atlantide, on y nage au ralenti J'aime la weed, n'ai pas tant d'rides Mais bouger, j'n'en ai pas envie J'reste là, oui, j'gamberge Quand j'm'emmerde, c'est bestial J'laisse place aux narvals qui transpercent des squales La petite sirène a l'air toute claquée Des concombres de mer l'ont attaquée Et lui ont cloué le bec avec un bukkake Ton petit slip de bain s'apprête à craquer Si t'as l'âme d'un guerrier, assieds-toi vite par là Sur des bancs de poissons clowns qui cachent des dents de piranhas La vie sous-marine est une lutte qui ne connaît que de brèves trêves Curieux tableau auquel je mets ce texte en exergue La rumeur gronde, ceux qui aimeraient la faire taire Se laissent pêcher et vont s'exiler sur la terre ferme2</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mon flow sent fort mais est toujours propre et sans chlore Il te berce, du coup, tu progresses encore C'est du rap aquatique, ça n'paralyse pas Ça ravit, hahaha Voilà, la parade à Thalassa Dalaï-lamaesque escapade garantie Sous chacune se cache un hymne à la vie sous-marine Du cannabis water-proof pousse dans nos abysses Et, quand pissent les nuages, on ne les craint pas Car la pluie ne nous atteint pas Ici, y'a pas d'automne, y'a des trésors engloutis Et Jack Dawson, c'est un art en plein essor Je t'en prie, fais un effort, parles-en à tes amis Mais pas trop fort Voici le récit de mon voyage en première classe Dans les abîmes de la mer, muni d'un tuba et d'un masque car Ici aussi, j'ai vu des lascars, tout un tas de mascarades Des gangsters, je n'en voulais pas comme XXX Sur le chemin, bordé de bulles, je croise un hippocampe fou Je lui demande où c'est possible de prendre des cours de kung-fu Il me dit qu'il n'est pas d'ici mais connaît bien un disciple Décide de m'accompagner pour aller à son domicile Très vite, j'm'aperçois que cet hippocampe avait Une fâcheuse tendance à rapper tout c'qu'il pense Je saisi ma chance et commence un beatbox en cadence Genre boum-boum-tchak jusqu'à c'qu'un freestyle se lance En cercle, dans un cadre de corail et d'algues Comme une corrida qu'aurait des reflets bleus et des vagues J'commence à manquer d'oxygène Je fais une dédicace et bois la tasse sur une fable de La FontaineYou might also like</t>
+          <t>Mon flow sent fort mais est toujours propre et sans chlore Il te berce, du coup, tu progresses encore C'est du rap aquatique, ça n'paralyse pas Ça ravit, hahaha Voilà, la parade à Thalassa Dalaï-lamaesque escapade garantie Sous chacune se cache un hymne à la vie sous-marine Du cannabis water-proof pousse dans nos abysses Et, quand pissent les nuages, on ne les craint pas Car la pluie ne nous atteint pas Ici, y'a pas d'automne, y'a des trésors engloutis Et Jack Dawson, c'est un art en plein essor Je t'en prie, fais un effort, parles-en à tes amis Mais pas trop fort Voici le récit de mon voyage en première classe Dans les abîmes de la mer, muni d'un tuba et d'un masque car Ici aussi, j'ai vu des lascars, tout un tas de mascarades Des gangsters, je n'en voulais pas comme XXX Sur le chemin, bordé de bulles, je croise un hippocampe fou Je lui demande où c'est possible de prendre des cours de kung-fu Il me dit qu'il n'est pas d'ici mais connaît bien un disciple Décide de m'accompagner pour aller à son domicile Très vite, j'm'aperçois que cet hippocampe avait Une fâcheuse tendance à rapper tout c'qu'il pense Je saisi ma chance et commence un beatbox en cadence Genre boum-boum-tchak jusqu'à c'qu'un freestyle se lance En cercle, dans un cadre de corail et d'algues Comme une corrida qu'aurait des reflets bleus et des vagues J'commence à manquer d'oxygène Je fais une dédicace et bois la tasse sur une fable de La Fontaine</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Toi Tu m'câlines, ça m'rassure Tu m'pardonnes mes abus et mes ratures Tu m'as regardé grandir et me soutiens Voilà qu'le poids d'mon ossature dépasse le tiens Tu m'as pondu, je m'en contente Le nid est vide, tu le contemples Plutôt fébrile et inconstante T'es ma cabane, t'as ma confiance Lui Il n'est pas souvent là mais, quand il se montre, la joie m'emplit Il m'offre un surplus d'attention puis disparaît sans bruit Il ne joue plus avec moi, il s'assombrit Fuit le conflit et, quand il boit, il se confie En fait, mon pater' m'ennuie J'me dis qu'il s'est juste vidé dans ma mère une nuit Donc je le range dans un vieux tiroir Le redécouvre dix ans plus tard Chacun est face à un curieux miroir Ya yaya yayaaaa Yayayaya yaya yayaaaa Ya yaya yayaaaa Yayayaya yaya yayaaaa You might also like Nous Nous nous sommes connus, nous nous sommes reconnus Puis nous avons trop bu, souri dans la cohue Nous avons baisé, nous avons re-baisé Nous avons fusionné Nous nous sommes dit oui pour la vie Par texto à minuit Et puis nous nous sommes reproduis Pourquoi nous séparer ainsi ? Vous Pas de vous sans nous, mais vous êtes autrui Vous étiez plus fragile quand votre joie f'sait trop d'bruit Vous évitez ces dîners sordides remplis de non-dits Vous êtes assez solides pour encaisser nos vilaines tromperies Vous nous croyez enracinés dans un champ d'orties Ignorez tout de nos angoisses, de nos insomnies Votre chemin n'est plus le nôtre, vous vous êtes construits Vos voix constellent la bande originale de nos vies Ya yaya yayaaaa Yayayaya yaya yayaaaa Ya yaya yayaaaa Yayayaya yaya yayaaaa Eux Ils sont nombreux et se croisent presque tous les jours La plupart d'entre eux foncent en évitant les longs détours Certains sont discrets, d'autres veulent marquer l'Histoire S'entraident, s'entre-tuent ou bien s'emmerdent dans leur tour d'ivoire Ils sont des brins de paille, des grains de sable Se réfugiant dans des croyances pour accepter l'infini Les plus sceptiques colmatent les failles ou plantent des arbres Cherchant des quêtes et des questions pour y abriter l'invisible Et moi... Moi, j'ai vieilli, mais j'ai pas mal de trucs à faire encore Des rêves de gosse à accomplir sur des îles au trésor Mais, la faucheuse, nul ne peut lui échapper, nan J'repense au temps que j'ai gâché Je survole mon passé à la recherche des absents Revisionnant souvent cette scène où j'tiens la main de mes parents Blotti contre mes souvenirs, j'admire le temps courir Je suis trop mûr pour ne pas pourrir x2 Ya yaya yayaaaa Yayayaya yaya yayaaaa Ya yaya yayaaaa Yayayaya yaya yayaaaa</t>
+          <t>Toi Tu m'câlines, ça m'rassure Tu m'pardonnes mes abus et mes ratures Tu m'as regardé grandir et me soutiens Voilà qu'le poids d'mon ossature dépasse le tiens Tu m'as pondu, je m'en contente Le nid est vide, tu le contemples Plutôt fébrile et inconstante T'es ma cabane, t'as ma confiance Lui Il n'est pas souvent là mais, quand il se montre, la joie m'emplit Il m'offre un surplus d'attention puis disparaît sans bruit Il ne joue plus avec moi, il s'assombrit Fuit le conflit et, quand il boit, il se confie En fait, mon pater' m'ennuie J'me dis qu'il s'est juste vidé dans ma mère une nuit Donc je le range dans un vieux tiroir Le redécouvre dix ans plus tard Chacun est face à un curieux miroir Ya yaya yayaaaa Yayayaya yaya yayaaaa Ya yaya yayaaaa Yayayaya yaya yayaaaa Nous Nous nous sommes connus, nous nous sommes reconnus Puis nous avons trop bu, souri dans la cohue Nous avons baisé, nous avons re-baisé Nous avons fusionné Nous nous sommes dit oui pour la vie Par texto à minuit Et puis nous nous sommes reproduis Pourquoi nous séparer ainsi ? Vous Pas de vous sans nous, mais vous êtes autrui Vous étiez plus fragile quand votre joie f'sait trop d'bruit Vous évitez ces dîners sordides remplis de non-dits Vous êtes assez solides pour encaisser nos vilaines tromperies Vous nous croyez enracinés dans un champ d'orties Ignorez tout de nos angoisses, de nos insomnies Votre chemin n'est plus le nôtre, vous vous êtes construits Vos voix constellent la bande originale de nos vies Ya yaya yayaaaa Yayayaya yaya yayaaaa Ya yaya yayaaaa Yayayaya yaya yayaaaa Eux Ils sont nombreux et se croisent presque tous les jours La plupart d'entre eux foncent en évitant les longs détours Certains sont discrets, d'autres veulent marquer l'Histoire S'entraident, s'entre-tuent ou bien s'emmerdent dans leur tour d'ivoire Ils sont des brins de paille, des grains de sable Se réfugiant dans des croyances pour accepter l'infini Les plus sceptiques colmatent les failles ou plantent des arbres Cherchant des quêtes et des questions pour y abriter l'invisible Et moi... Moi, j'ai vieilli, mais j'ai pas mal de trucs à faire encore Des rêves de gosse à accomplir sur des îles au trésor Mais, la faucheuse, nul ne peut lui échapper, nan J'repense au temps que j'ai gâché Je survole mon passé à la recherche des absents Revisionnant souvent cette scène où j'tiens la main de mes parents Blotti contre mes souvenirs, j'admire le temps courir Je suis trop mûr pour ne pas pourrir x2 Ya yaya yayaaaa Yayayaya yaya yayaaaa Ya yaya yayaaaa Yayayaya yaya yayaaaa</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Y'a des gâteaux dans l'église, oui, c'est la funky party ! Tous les cathos se déguisent en muslim ou en fejui On m'appelle le daron, le curé déluré, le DJ Je promène mon tigre en laisse pendant la messe, il rugit Je tape des scratchs sur les cheveux des blondes platine Championnes de catch, nombreuses sont les vieilles coquines Qui sont trop fans de moi le gourou, le roi du kung fu Du slip kangourou, toujours de bon goût sous ma soutane Ma profession une dévotion, bien écouter les confessions M'emplir de récits polissons, les conter lors de processions Mes digressions sont descriptions d'indigestions, d'indiscrétions M'aident à prêcher la restriction, à stimuler la création C'est bon ça, si dansant ce bon son, cet encens Ça ne se partage pas avec des enfants Quand un mioche m'approche, je l'accroche à une cloche Une note dans la poche Adieu la vie, je suis moche Au nom du Père... Noël Au nom du Père... Noël Au nom du Père... Noël Au nom du Père... Noël J'ai passé une jeunesse austère, à prier dans un monastère À mon entrée, mes nouveaux frères m'ont confisqué mon beau hamster J'y ai vécu une vie d'ascète pendant dix-sept ans, mon assiette Ne s'est emplie que de munster, de soupe de poulpe aux légumes verts Unique attraction l'encyclopédie Où il y avait des trous dans les photos de Mata Hari Dans les plans des quartiers chauds du bon vieux Paris Et même dans le canon du magnum de l'inspecteur Harry Tous ces vieillards courbés, rouillés, toute la journée agenouillés Arborant la neutralité, sur leur paume des psaumes tatoués Certains atteints de cécité nécessitaient des soins Regard vitreux face aux vitraux, ces vieux citaient les saints Aujourd'hui, j'écris mes visions sur du papier d'alu' Déflorer Marie pendant qu'elle suce l'orteil de Jésus Silence mon frère, je respecte les croyances J'ai cru au Père Noël jusqu'à quatre ans, alors tu penses... You might also like Mes absences dues à l'absinthe Se comptent sur les doigts des mains des nonnes enceintes Si le pape vient, je l'esquinte Car il a interdit aux siens la capote et l'étreinte Quand je fume dix bédos, je fais un bide au lit Car je vois ma libido carrément démolie Alors je grimpe au rideau, sur la tringle, je lis À mi-voix, la biblio' de ma Bible impolie Ma gourde remplie d'eau de vie de Lourdes Guérit les sourdes et les frappées par la foudre Et si Lucifer veut me crucifier Je sais comment faire pour le purifier Même enterré au Père Lachaise, je resterai chaud comme la braise Ferai un film avec les os de Méliès, aux effets spéciaux Géricault à la lumière, Apollinaire au scénario Acteur principal Molière, Chopin composera la B.O</t>
+          <t>Y'a des gâteaux dans l'église, oui, c'est la funky party ! Tous les cathos se déguisent en muslim ou en fejui On m'appelle le daron, le curé déluré, le DJ Je promène mon tigre en laisse pendant la messe, il rugit Je tape des scratchs sur les cheveux des blondes platine Championnes de catch, nombreuses sont les vieilles coquines Qui sont trop fans de moi le gourou, le roi du kung fu Du slip kangourou, toujours de bon goût sous ma soutane Ma profession une dévotion, bien écouter les confessions M'emplir de récits polissons, les conter lors de processions Mes digressions sont descriptions d'indigestions, d'indiscrétions M'aident à prêcher la restriction, à stimuler la création C'est bon ça, si dansant ce bon son, cet encens Ça ne se partage pas avec des enfants Quand un mioche m'approche, je l'accroche à une cloche Une note dans la poche Adieu la vie, je suis moche Au nom du Père... Noël Au nom du Père... Noël Au nom du Père... Noël Au nom du Père... Noël J'ai passé une jeunesse austère, à prier dans un monastère À mon entrée, mes nouveaux frères m'ont confisqué mon beau hamster J'y ai vécu une vie d'ascète pendant dix-sept ans, mon assiette Ne s'est emplie que de munster, de soupe de poulpe aux légumes verts Unique attraction l'encyclopédie Où il y avait des trous dans les photos de Mata Hari Dans les plans des quartiers chauds du bon vieux Paris Et même dans le canon du magnum de l'inspecteur Harry Tous ces vieillards courbés, rouillés, toute la journée agenouillés Arborant la neutralité, sur leur paume des psaumes tatoués Certains atteints de cécité nécessitaient des soins Regard vitreux face aux vitraux, ces vieux citaient les saints Aujourd'hui, j'écris mes visions sur du papier d'alu' Déflorer Marie pendant qu'elle suce l'orteil de Jésus Silence mon frère, je respecte les croyances J'ai cru au Père Noël jusqu'à quatre ans, alors tu penses... Mes absences dues à l'absinthe Se comptent sur les doigts des mains des nonnes enceintes Si le pape vient, je l'esquinte Car il a interdit aux siens la capote et l'étreinte Quand je fume dix bédos, je fais un bide au lit Car je vois ma libido carrément démolie Alors je grimpe au rideau, sur la tringle, je lis À mi-voix, la biblio' de ma Bible impolie Ma gourde remplie d'eau de vie de Lourdes Guérit les sourdes et les frappées par la foudre Et si Lucifer veut me crucifier Je sais comment faire pour le purifier Même enterré au Père Lachaise, je resterai chaud comme la braise Ferai un film avec les os de Méliès, aux effets spéciaux Géricault à la lumière, Apollinaire au scénario Acteur principal Molière, Chopin composera la B.O</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>À tout d'suite, à ce soir, à très vite, à plus tard À demain, à bientôt, pas d'adieu, au revoir Au revoir au revoir Au revoirYou might also like</t>
+          <t>À tout d'suite, à ce soir, à très vite, à plus tard À demain, à bientôt, pas d'adieu, au revoir Au revoir au revoir Au revoir</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Une sublime aurore boréale Effleure de son voile de mousseline mon regard Nous avançons dans ce désert de glace, sans nourriture hélas L'hiver, les proies se font rares Le froid engourdit mes membres Mes forces ont prit la fuite Des flocons perlent sur mes longs cheveux de cendre Je ne suis que le fossile d'un chef inuit Mes pieds chuchotent aux bottes en peau de phoque, qui les enveloppent Des épopées d'une autre époque Où j'étais vif, souple et imprudent Maintenant, je ralentis mon groupe, je suis trop lent Mon reflet me dévisage Chaque soir, la vieillesse me donne le sein Mes regrets m'apparaissent comme des mirages Mon histoire touche à sa fin J'ai appris à mes enfants à construire des igloos À chasser l'ours blanc, le morse et le caribou Mais leur estomac noué prédit que dans très peu de temps Ils m'abandonneront devant la porte du néant Ma mère a vieilli Sa peau s'est plissée, ses épices ont terni Les pages des livres d'images de son enfance sage Ont jauni You might also like Statue voûtée sans appétit dans une cantine aseptisée Au menu soupe de nostalgie, purée d'ennui, compote ratée Chaque matin, elle fait sa toilette, quand elle oublie on la gronde Elle est entrée dans la ronde de cette garderie pour ancêtres Ma mère est une bougie que je laisse fondre Seule, dans une petite chambre sombre Elle traîne son silence dans ce long couloir, son indolence Rédige sa carte de condoléances dans l'isoloir L'automne dans le jardin, adossé à un mur de brume Elle contemple des arbres centenaires qui se dénudent Mes visites gomment son air maussade pour mieux colorier ses paummettes Elle se parfume, fait la poussière et m'offre, à chaque fois, des gaufrettes Mais elle meffraie, sans faire exprès Lorsqu'elle me parle, elle utilise l'imparfait Ma maman voit, depuis son lit, des avions décoller Le mien part à midi, je fuis, elle a l'air désolée1</t>
+          <t>Une sublime aurore boréale Effleure de son voile de mousseline mon regard Nous avançons dans ce désert de glace, sans nourriture hélas L'hiver, les proies se font rares Le froid engourdit mes membres Mes forces ont prit la fuite Des flocons perlent sur mes longs cheveux de cendre Je ne suis que le fossile d'un chef inuit Mes pieds chuchotent aux bottes en peau de phoque, qui les enveloppent Des épopées d'une autre époque Où j'étais vif, souple et imprudent Maintenant, je ralentis mon groupe, je suis trop lent Mon reflet me dévisage Chaque soir, la vieillesse me donne le sein Mes regrets m'apparaissent comme des mirages Mon histoire touche à sa fin J'ai appris à mes enfants à construire des igloos À chasser l'ours blanc, le morse et le caribou Mais leur estomac noué prédit que dans très peu de temps Ils m'abandonneront devant la porte du néant Ma mère a vieilli Sa peau s'est plissée, ses épices ont terni Les pages des livres d'images de son enfance sage Ont jauni Statue voûtée sans appétit dans une cantine aseptisée Au menu soupe de nostalgie, purée d'ennui, compote ratée Chaque matin, elle fait sa toilette, quand elle oublie on la gronde Elle est entrée dans la ronde de cette garderie pour ancêtres Ma mère est une bougie que je laisse fondre Seule, dans une petite chambre sombre Elle traîne son silence dans ce long couloir, son indolence Rédige sa carte de condoléances dans l'isoloir L'automne dans le jardin, adossé à un mur de brume Elle contemple des arbres centenaires qui se dénudent Mes visites gomment son air maussade pour mieux colorier ses paummettes Elle se parfume, fait la poussière et m'offre, à chaque fois, des gaufrettes Mais elle meffraie, sans faire exprès Lorsqu'elle me parle, elle utilise l'imparfait Ma maman voit, depuis son lit, des avions décoller Le mien part à midi, je fuis, elle a l'air désolée1</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>J'suis l'élément qui perturbe le banquet des rappeurs qui perdurent Tu n'es pas si perdu, capter le message ce n'est pas hyper dur J'ai des mots qui décapent et le fond que t'as pas Ne me nomine pas pour la palme Mon ami mal aimé, j'vais t'épater Faire pousser tes pétales en t'arrosant de napalm Non, je ne me méfie pas de ces cons qui comptent les rimes efficaces Si tu pompes mon style, j'écrirai ton épitaphe J'pique au micro, j'crée des quiproquos rigolos J'picole aussi souvent qu'j'imite Rocco Siffredi fourrant six croco' Libido d'un gros bonobo, flow rare comme un dragon de Komodo Pas de messes basses, je ne baise pas dans les vestiaires J'mets des baffes grâce à mon bestiaire J'ai bon appétit, de l'empathie Oui, je fais kiffer les pupilles et les papilles des petits et des papys Rapper rapidement, c'est ma thérapie démente Ma langue fait des victimes, j'l'aiguise débitant des bêtises depuis dix piges Appelle-moi la pépite ou bali-balo qui badine T'es livide car ces mélis-mélos t'éliminent J'suis un petit gars hilarant, une diva divaguant, t'hydratant Qui t'va comme un gant, qui t'attend, mais dis-moi bonhomme t'y vas quand ?You might also like1</t>
+          <t>J'suis l'élément qui perturbe le banquet des rappeurs qui perdurent Tu n'es pas si perdu, capter le message ce n'est pas hyper dur J'ai des mots qui décapent et le fond que t'as pas Ne me nomine pas pour la palme Mon ami mal aimé, j'vais t'épater Faire pousser tes pétales en t'arrosant de napalm Non, je ne me méfie pas de ces cons qui comptent les rimes efficaces Si tu pompes mon style, j'écrirai ton épitaphe J'pique au micro, j'crée des quiproquos rigolos J'picole aussi souvent qu'j'imite Rocco Siffredi fourrant six croco' Libido d'un gros bonobo, flow rare comme un dragon de Komodo Pas de messes basses, je ne baise pas dans les vestiaires J'mets des baffes grâce à mon bestiaire J'ai bon appétit, de l'empathie Oui, je fais kiffer les pupilles et les papilles des petits et des papys Rapper rapidement, c'est ma thérapie démente Ma langue fait des victimes, j'l'aiguise débitant des bêtises depuis dix piges Appelle-moi la pépite ou bali-balo qui badine T'es livide car ces mélis-mélos t'éliminent J'suis un petit gars hilarant, une diva divaguant, t'hydratant Qui t'va comme un gant, qui t'attend, mais dis-moi bonhomme t'y vas quand ?1</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>- Êtes-vous une sorte de malade mental ? - Non, je-je-je j'crois pas. J'voudrais une grecque salasse, peau mate, beau fion, s'il vous plaît. Tous ces gens à la parfaite plastique ont-ils pour père un godmichet ? Fais gaffe à toi, j'ai fait du judo - range J'pense qu'il faudrait combiner fast-food et peep-show. On m'a répondu d'une manière si sèche que j'ai dû m'enduire de crème hydratante. Les hermaphrodites naissent dans des choux-fleurs. Moi, mon seul défaut, c'est d'mettre des lunettes de lune en boîte de jour Boîte de jour, boîte, boîte de jour... Si t'aimes pas, tu réécoutes et puis c'est tout.You might also like</t>
+          <t>- Êtes-vous une sorte de malade mental ? - Non, je-je-je j'crois pas. J'voudrais une grecque salasse, peau mate, beau fion, s'il vous plaît. Tous ces gens à la parfaite plastique ont-ils pour père un godmichet ? Fais gaffe à toi, j'ai fait du judo - range J'pense qu'il faudrait combiner fast-food et peep-show. On m'a répondu d'une manière si sèche que j'ai dû m'enduire de crème hydratante. Les hermaphrodites naissent dans des choux-fleurs. Moi, mon seul défaut, c'est d'mettre des lunettes de lune en boîte de jour Boîte de jour, boîte, boîte de jour... Si t'aimes pas, tu réécoutes et puis c'est tout.</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>- J'ai faim... - Oh, ça, j'adore ! - C'est long, le voyage... - On arrive quand ? - C'est la berceuse que jouait mon papa quand j'étais p'tit - Ouais, c'est hyper beau - J'ai faim... - Papa, j'ai plus d'batterie dans mes Airpods, là, tu peux changer la musique, s'te plaît ? - Ok - Mais j'ai faim, maman !You might also like</t>
+          <t>- J'ai faim... - Oh, ça, j'adore ! - C'est long, le voyage... - On arrive quand ? - C'est la berceuse que jouait mon papa quand j'étais p'tit - Ouais, c'est hyper beau - J'ai faim... - Papa, j'ai plus d'batterie dans mes Airpods, là, tu peux changer la musique, s'te plaît ? - Ok - Mais j'ai faim, maman !</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sous mon matelas, y'a les ovaires de mes ex et des godemichés cactus J'suis en colère et t'accuse d'avoir critiqué mes textes T'es qu'une potiche et t'assume pas, t'as de mauvais réflexes Berlusconi est ta muse, t'abuses mais La testostérone en toi n'est pas dépistée Tu n'es qu'un légume homophobe et laid, ça, j'l'ai grillé Ton métier testeur de sex toy, là, j't'ai fisté Tu ferais mieux d'aller postuler chez les wack M.C., yeah Moi, j'suis né dans les bas-fonds Parmi les crimes et les crasses, les combats d'espadon L'escrime et les poissons sont mes passions Je crée l'hécatombe, les filles et les gars tombent dans les salles combles Belle révélation, les rimes et les basses grondent, c'est l'ovation Et pour couronner la célébration, des fellations Suivies de longues défécations, c'est l'évasion, l'élévation L'impression d'avoir acquis le savoir de trois millions de générations x2 Ça baigne, ça coule, ça sonne ! Ça roucoule, ça glougloute, ça grogne ! Ça saigne, ça mouille, ça colle ! Ça froufroute, ça courrouce, ça cogne ! Super mutant, je fouille le fond du temps Fidèle aux fondements, je ficelle longuement De fonky pamphlets percutants errants Dans les méandres de mon esprit tendre J'ai mille amis yamakazis, des passionnés d'Origami On a chaussé des souliers de rubis et l'Italie, oui J'aime rapper par à coups, désapé par la foule et palpé par ta poule J'épate les marabouts, j'ai capté la magouille J'suis l'ombrelle dans la brume l'enclume funambule et j'observe Le temps suspendu à mes grosses lèvres De Mars à Mexico, tout le monde applaudit Hippo Pendant qu'tu fais d'la GRS avec le fil de ton micro Orfèvre textuel, hors-pair je sais qu'tu aimes Mes lyrics ectoplasmiques et mes flows élastiques Style maximaliste, j'brise ma chrysalide M'envole et puis crie bien fort Vive la vie d'artiste ! You might also like x2</t>
+          <t>Sous mon matelas, y'a les ovaires de mes ex et des godemichés cactus J'suis en colère et t'accuse d'avoir critiqué mes textes T'es qu'une potiche et t'assume pas, t'as de mauvais réflexes Berlusconi est ta muse, t'abuses mais La testostérone en toi n'est pas dépistée Tu n'es qu'un légume homophobe et laid, ça, j'l'ai grillé Ton métier testeur de sex toy, là, j't'ai fisté Tu ferais mieux d'aller postuler chez les wack M.C., yeah Moi, j'suis né dans les bas-fonds Parmi les crimes et les crasses, les combats d'espadon L'escrime et les poissons sont mes passions Je crée l'hécatombe, les filles et les gars tombent dans les salles combles Belle révélation, les rimes et les basses grondent, c'est l'ovation Et pour couronner la célébration, des fellations Suivies de longues défécations, c'est l'évasion, l'élévation L'impression d'avoir acquis le savoir de trois millions de générations x2 Ça baigne, ça coule, ça sonne ! Ça roucoule, ça glougloute, ça grogne ! Ça saigne, ça mouille, ça colle ! Ça froufroute, ça courrouce, ça cogne ! Super mutant, je fouille le fond du temps Fidèle aux fondements, je ficelle longuement De fonky pamphlets percutants errants Dans les méandres de mon esprit tendre J'ai mille amis yamakazis, des passionnés d'Origami On a chaussé des souliers de rubis et l'Italie, oui J'aime rapper par à coups, désapé par la foule et palpé par ta poule J'épate les marabouts, j'ai capté la magouille J'suis l'ombrelle dans la brume l'enclume funambule et j'observe Le temps suspendu à mes grosses lèvres De Mars à Mexico, tout le monde applaudit Hippo Pendant qu'tu fais d'la GRS avec le fil de ton micro Orfèvre textuel, hors-pair je sais qu'tu aimes Mes lyrics ectoplasmiques et mes flows élastiques Style maximaliste, j'brise ma chrysalide M'envole et puis crie bien fort Vive la vie d'artiste ! x2</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Je te l'ai dit près de cent fois dans l'rap, t'es inutile Comme un toiletteur pour caniche dans un pays en guerre sans roi Quand j'investis l'enfer, j'envoie avec emphase et minutie Les mecs en face qui rugissent, je les étripe de sang froid Pousse-toi d'là ! J'fous l'dawa ! Tous m'acclament ! Chaque jour, j'goûte douze nanas, dont ta femme, honte à toi ! Ouh la la ! Le dindon joue au jeu de l'oie avec des dés à coudre J'suis pas toujours méga cool mais maboul, mea-culpa Bon vivant, je fabrique et vends des culottes affriolantes Pour cougars incontinentes Quand tu me complimentes, je ressens une honte immense J'ai dormi en conduisant un hémophile au don du sang J'démolis en construisant et confidence pour confidence Ma vie est inconsistante, je vous souhaite un bon dimanche Long silence... aller, partagez ce clip Vu l'état de mes finances, je pourrai sabrer le cidreYou might also like</t>
+          <t>Je te l'ai dit près de cent fois dans l'rap, t'es inutile Comme un toiletteur pour caniche dans un pays en guerre sans roi Quand j'investis l'enfer, j'envoie avec emphase et minutie Les mecs en face qui rugissent, je les étripe de sang froid Pousse-toi d'là ! J'fous l'dawa ! Tous m'acclament ! Chaque jour, j'goûte douze nanas, dont ta femme, honte à toi ! Ouh la la ! Le dindon joue au jeu de l'oie avec des dés à coudre J'suis pas toujours méga cool mais maboul, mea-culpa Bon vivant, je fabrique et vends des culottes affriolantes Pour cougars incontinentes Quand tu me complimentes, je ressens une honte immense J'ai dormi en conduisant un hémophile au don du sang J'démolis en construisant et confidence pour confidence Ma vie est inconsistante, je vous souhaite un bon dimanche Long silence... aller, partagez ce clip Vu l'état de mes finances, je pourrai sabrer le cidre</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mets de la vaseline dans ta narine, j'arrive En toute intimité, j'entame en toute impunité Des slams en ouzbek irrités avec la voix de Kirikou grippé La probabilité de tout assimiler Est inférieure à celle de confondre amertume avec acidité C'est mignon, parlons de vertèbres éparpillées De zèbres aux yeux écarquillés, de glaires et Des millions de merveilles que réservent mes ténèbres Si peu ternes, c'est peut-être dû à ton sang d'un si vif vermillon Oui, je sais que t'aimes quand j'asperge les quenelles De béchamel à la gerbe et de sorbets Berthillon Tu caches ta tête sous l'oreiller, pardi t'es moche d'la raie aux pieds Vis donc ce cauchemar éveillé rempli de dérision Tu claques des dents bruyamment, gars, détends-toi Je vais décroiser tes ligaments, le tigre est en moi T'es pantois, prends mon zgeg et pends-toi Ou repens-toi, sache que le monde est plus triste sans toi Tu soulages tout ton village comme la Schtroumpfette Je troue ton visage avec une fourchette T'es déshonoré mais pour colorer ton mausolée T'as plus qu'à faire un featuring avec Hélène et Dorothée Hippocampe Fou en mode fâché Bah ouais, ça m'arrive hein, comme tout l'mondeYou might also like</t>
+          <t>Mets de la vaseline dans ta narine, j'arrive En toute intimité, j'entame en toute impunité Des slams en ouzbek irrités avec la voix de Kirikou grippé La probabilité de tout assimiler Est inférieure à celle de confondre amertume avec acidité C'est mignon, parlons de vertèbres éparpillées De zèbres aux yeux écarquillés, de glaires et Des millions de merveilles que réservent mes ténèbres Si peu ternes, c'est peut-être dû à ton sang d'un si vif vermillon Oui, je sais que t'aimes quand j'asperge les quenelles De béchamel à la gerbe et de sorbets Berthillon Tu caches ta tête sous l'oreiller, pardi t'es moche d'la raie aux pieds Vis donc ce cauchemar éveillé rempli de dérision Tu claques des dents bruyamment, gars, détends-toi Je vais décroiser tes ligaments, le tigre est en moi T'es pantois, prends mon zgeg et pends-toi Ou repens-toi, sache que le monde est plus triste sans toi Tu soulages tout ton village comme la Schtroumpfette Je troue ton visage avec une fourchette T'es déshonoré mais pour colorer ton mausolée T'as plus qu'à faire un featuring avec Hélène et Dorothée Hippocampe Fou en mode fâché Bah ouais, ça m'arrive hein, comme tout l'monde</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED À poils ou à plumes, tu caches ton âme d'animal Assume, ton taf te fâche, t'amasses les crasses D'un tas de rapaces qui brassent des liasses, te crachent À la face, la rage t'enlace, regarde la lune Sois pas docile, profite des possibilités illimitées Qui se profilent si t'es obstiné Tu n'es pas obligé d'être un godemichet pour ton trop p'tit chef Donc peaufine ta rhétorique au piquet vice ou des barbares Évite la bagarre, donne pas la patte ou tu finis vite à labattoir Grand tartare sur de grandes tartines Ne t'enflamme pas, avale l'Antarctique Fraîcheur sauvage, l'orage t'effleure La laideur te fait peur ou t'écure, dommage Écoutez les Puppets et Hippo Loquito C'est meilleur que tes nuggets qui crient Cocorico TO BE RETRANSCRIBEDYou might also like</t>
+          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED À poils ou à plumes, tu caches ton âme d'animal Assume, ton taf te fâche, t'amasses les crasses D'un tas de rapaces qui brassent des liasses, te crachent À la face, la rage t'enlace, regarde la lune Sois pas docile, profite des possibilités illimitées Qui se profilent si t'es obstiné Tu n'es pas obligé d'être un godemichet pour ton trop p'tit chef Donc peaufine ta rhétorique au piquet vice ou des barbares Évite la bagarre, donne pas la patte ou tu finis vite à labattoir Grand tartare sur de grandes tartines Ne t'enflamme pas, avale l'Antarctique Fraîcheur sauvage, l'orage t'effleure La laideur te fait peur ou t'écure, dommage Écoutez les Puppets et Hippo Loquito C'est meilleur que tes nuggets qui crient Cocorico TO BE RETRANSCRIBED</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>- On y va un, deux, trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Non Yahourt - Chorale des Orphelins à la Langue Coupée - Stop ! On ne comprend rien. Vous en êtes conscients quand même ? Allez, on recommence Et un, et deux, et trois, et quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Nan ! Yahourt - Chorale des Orphelins à la Langue Coupée - Nan, nan et nan ! On reprend. On se concentre. On est mignons Et surtout, on ar-ti-cule ! Trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Bon, c'est pas la peine. On va annuler le... le spectacle On va juste vous vendre à la foire et puis c'est tout, voilà. C'est comme ça You might also likeOrphelin à la langue coupé qui se plaint - Quoi !? Orphelin à la langue coupé qui répète - C'est ça, ouais Allez, dégagez Retournez tous dans la crypte On vous apportera un verre d'eau la semaine prochaine</t>
+          <t>- On y va un, deux, trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Non Yahourt - Chorale des Orphelins à la Langue Coupée - Stop ! On ne comprend rien. Vous en êtes conscients quand même ? Allez, on recommence Et un, et deux, et trois, et quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Nan ! Yahourt - Chorale des Orphelins à la Langue Coupée - Nan, nan et nan ! On reprend. On se concentre. On est mignons Et surtout, on ar-ti-cule ! Trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Bon, c'est pas la peine. On va annuler le... le spectacle On va juste vous vendre à la foire et puis c'est tout, voilà. C'est comme ça Orphelin à la langue coupé qui se plaint - Quoi !? Orphelin à la langue coupé qui répète - C'est ça, ouais Allez, dégagez Retournez tous dans la crypte On vous apportera un verre d'eau la semaine prochaine</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tu veux voir c'que fait Hippo sans sa Secte de guignols ? Alors tape sur Google Wack MC plus Gogole Style automatique et blagues où personne rigole Quand j'écoute Vidéo Rap, mes oreilles crient Au viol ! Bon, j'sais pas comment t'le dire, ça risque d'être un peu sec, check Mets pas ça sur l'net, t'aurais même pas du appuyer sur Rec Dès qu'j'ai vu ta vielle tête, j'me suis dit C'est quoi c'tocard? Dans les rayons du Monop' à secouer des 'teilles d'Coca ? Mais c'est du rap gole-ri', du slam novateur Tu comptais finir au vingt heure, mais t'as moins d'le-sty' qu'une carotte vapeur Bref, t'es dans l'zef, donc laisse le mic' en mode veille Dès qu'j'pars au taf, j'te laisse danser l'slow avec la vieille Après le black Jacques Brel et l'MC Jean Gab1 Faites place à Hippocampe, le Jean Roucas urbain L'MC super technique qui débite vite des rimes superflues Deux mesures de trop et ce barbu finit sous perfu' Eh merde, rev'là c'quasi- trentenaire qui s'prend pour un rappeur H-I-2-P-O dopé à l'E.P.O. dans des clips amateurs Ah ouais, tu kiffes ? Pff... Laisse tomber Vidéo Rap j'té-ma' ça que quand j'ai grillé mon dernier plan B You might also like Yo, Hippo, dans ton XXX, qu'est-ce qui s'manigance ? T'aimes bien les petits vieux ? Les vidéos où mamie danse avec l'ermite à l'air miteux ? T'es hypocrite avec ton pote Régis, qu'est-ce qu'il est con c'type là J'suis pas hypocondriaque, mais il me constipe, là Faut qu't'hypothèques, mec, chez toi, y'a un lama, un panda et même un hippopotame Parce que t'as peur des visiteurs et t'as trop d'fans ou qu'tu préfères les animaux aux femmes T'es hypoglycémique, mon gars, c'est pas l'cas d'Nico K Mon flow sale t'éclabousse sans Mentos ni Coca T'as la voix de R2D2 et des gros yeux de dorade T'as pas d'ami, des textes creux, un jeu d'acteur déplorable T'es pas marrant, tu brasses du vent, mais tu crées pas des tornades Te taire à vie serait une thérapie bien plus raisonnable Ta web-série, c'est d'la daube avec des thèmes plutôt com' Ouais c'est du rap pour ado et pour les meufs plutôt connes T'aimes les lamas, les trampolines, j't'avoue qu'j'vois pas l'rapport Ça s'appelle Vidéo Rap, j't'avoue qu'j'vois pas d'rappeur Sur internet, les mythos flambent en s'croyant innovants Flows virevoltants, styles mordants, mais pas d'formation diplômante Qu'des tire-au-flancs qui s'la ramènent fontaine des innocents Normal que l'hip-hop tente ces ignorants sans objectif probant Tu fais dans l'gratuit alors qu'partout les prix augmentent C'est marrant sur les bords mais, moi, j't'avoue, j'vise pile au centre Que faut-il comprendre ? Bin qu'Hippocampe s'est pris trop d'rampes Et qu'du coup il nous invite pour qu'on lui offre son premier pic d'audiences Faire une vidéo rap est une idée au rabais Stupide mais on n'appelle pas ça une surprise si j'dis qu'ça fait d'la peine Hippo, ton flow s'enlise et ta matière grise est à la traîne Tu fais ta crise de la vingtaine, ton rap pue de la première prise à la centième Tu nous les brises à l'instant même, surtout quand tu crois qu'tu maîtrises Et nous méprises en nous demandant est-ce qu'on aime toutes tes bêtises Donc, ladies and gentlemen, j'vous présente Hippo Le bel et tout nouvel artiste de la bêtise humaine La version vilaine de Christophe Willem En plus, il est fan de cyclisme, alors bon... Ah ouais ? Ok, c'est pas grave Moi, les gars, j'réponds, là Oh ! Ecoutez tous ! Oh ? Eh ! Eh, les gars ? Les gars, oh ? S'fout d'ma gueule ou quoi ? Oh ! Vas-y, c'est pas grave, j'la fais, j'la fais, j'la fais J'réponds Tu voulais tester Hippo, mais tu peux pas, garçon, parce que... Oh ! Mais qu'est-ce tu fais ? Rallume la caméra ! Mais j'leur réponds, c'est normal, laisse ! On fait l'plan3</t>
+          <t>Tu veux voir c'que fait Hippo sans sa Secte de guignols ? Alors tape sur Google Wack MC plus Gogole Style automatique et blagues où personne rigole Quand j'écoute Vidéo Rap, mes oreilles crient Au viol ! Bon, j'sais pas comment t'le dire, ça risque d'être un peu sec, check Mets pas ça sur l'net, t'aurais même pas du appuyer sur Rec Dès qu'j'ai vu ta vielle tête, j'me suis dit C'est quoi c'tocard? Dans les rayons du Monop' à secouer des 'teilles d'Coca ? Mais c'est du rap gole-ri', du slam novateur Tu comptais finir au vingt heure, mais t'as moins d'le-sty' qu'une carotte vapeur Bref, t'es dans l'zef, donc laisse le mic' en mode veille Dès qu'j'pars au taf, j'te laisse danser l'slow avec la vieille Après le black Jacques Brel et l'MC Jean Gab1 Faites place à Hippocampe, le Jean Roucas urbain L'MC super technique qui débite vite des rimes superflues Deux mesures de trop et ce barbu finit sous perfu' Eh merde, rev'là c'quasi- trentenaire qui s'prend pour un rappeur H-I-2-P-O dopé à l'E.P.O. dans des clips amateurs Ah ouais, tu kiffes ? Pff... Laisse tomber Vidéo Rap j'té-ma' ça que quand j'ai grillé mon dernier plan B Yo, Hippo, dans ton XXX, qu'est-ce qui s'manigance ? T'aimes bien les petits vieux ? Les vidéos où mamie danse avec l'ermite à l'air miteux ? T'es hypocrite avec ton pote Régis, qu'est-ce qu'il est con c'type là J'suis pas hypocondriaque, mais il me constipe, là Faut qu't'hypothèques, mec, chez toi, y'a un lama, un panda et même un hippopotame Parce que t'as peur des visiteurs et t'as trop d'fans ou qu'tu préfères les animaux aux femmes T'es hypoglycémique, mon gars, c'est pas l'cas d'Nico K Mon flow sale t'éclabousse sans Mentos ni Coca T'as la voix de R2D2 et des gros yeux de dorade T'as pas d'ami, des textes creux, un jeu d'acteur déplorable T'es pas marrant, tu brasses du vent, mais tu crées pas des tornades Te taire à vie serait une thérapie bien plus raisonnable Ta web-série, c'est d'la daube avec des thèmes plutôt com' Ouais c'est du rap pour ado et pour les meufs plutôt connes T'aimes les lamas, les trampolines, j't'avoue qu'j'vois pas l'rapport Ça s'appelle Vidéo Rap, j't'avoue qu'j'vois pas d'rappeur Sur internet, les mythos flambent en s'croyant innovants Flows virevoltants, styles mordants, mais pas d'formation diplômante Qu'des tire-au-flancs qui s'la ramènent fontaine des innocents Normal que l'hip-hop tente ces ignorants sans objectif probant Tu fais dans l'gratuit alors qu'partout les prix augmentent C'est marrant sur les bords mais, moi, j't'avoue, j'vise pile au centre Que faut-il comprendre ? Bin qu'Hippocampe s'est pris trop d'rampes Et qu'du coup il nous invite pour qu'on lui offre son premier pic d'audiences Faire une vidéo rap est une idée au rabais Stupide mais on n'appelle pas ça une surprise si j'dis qu'ça fait d'la peine Hippo, ton flow s'enlise et ta matière grise est à la traîne Tu fais ta crise de la vingtaine, ton rap pue de la première prise à la centième Tu nous les brises à l'instant même, surtout quand tu crois qu'tu maîtrises Et nous méprises en nous demandant est-ce qu'on aime toutes tes bêtises Donc, ladies and gentlemen, j'vous présente Hippo Le bel et tout nouvel artiste de la bêtise humaine La version vilaine de Christophe Willem En plus, il est fan de cyclisme, alors bon... Ah ouais ? Ok, c'est pas grave Moi, les gars, j'réponds, là Oh ! Ecoutez tous ! Oh ? Eh ! Eh, les gars ? Les gars, oh ? S'fout d'ma gueule ou quoi ? Oh ! Vas-y, c'est pas grave, j'la fais, j'la fais, j'la fais J'réponds Tu voulais tester Hippo, mais tu peux pas, garçon, parce que... Oh ! Mais qu'est-ce tu fais ? Rallume la caméra ! Mais j'leur réponds, c'est normal, laisse ! On fait l'plan3</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>- Yo, yo, yo ! Bienvenue à l'aquabattle ! - Ah non, Clash d'attente... - Clash d'attente ! Des MC qui vont s'clasher a cappella ! Moi-même présentateur Goomar, aka Jambon Hygiénique, aka Méchant Cochon, aka Pierre Palmé, aka Jacquie Michel ! Tout de suite présentation des MC ! MC à ma gauche, introduis-toi ! - Hippocampe Fou, rappeur aquatique... - Non, euh, par contre, il faut qu't'enlèves ton bonnet - Bah non, parce que c'est... - Bin, accessoires pas autorisés - Ouais, mais c'est... - Ouais, bin non, bin non, c'est comme ça, désolé - Hippocampe Fou, rappeurs aquatique, Triangle des Bermudes J'suis venu pour réconforter la petite victime en rouge et noir - Wouh ! MC à ma droite, introduis-toi ! - Cocci Killer ! J'suis venu pour bouffer c'puceron Qu'a pas les couilles de faire les RC, dis-leur ! - Ok, faites du bruit ! ... Ok ! Pour savoir quel MC commence, c'est l'moment du coin toast Hippo' confiture ou pain ? - Confiture - Confiture. Hippo' tu commences ? Tu termines ? - Honneur au cafard - Wouh ! Fou battle ! Paw, paw ! You might also like Ton humour a la gangrène faut t'amputer Tu rigoles à tes propres blagues, comme Laurent Ruquier Ton album tout l'monde s'en fout, autant l'brûler Voici une poche d'acide sulfurique pour te transfuser Arrête de t'branler dans tes freestyle, j'aime pas l'égotrip Tu fais des faciales à tes spermatozoïdes Mais, toi et tes acolytes, vous sentez la verveine Et la cyprine de te grand-mère dont j'ai tranché la tête frêle Aïe ! Tu t'ronges les phalanges, prends donc des vacances Ou tu vas mourir sur scène pendant les balances Victime ! Faut qu'tu t'surpasses, gars, tu fais du surplace Ton rap aquatique reste en surface Time ! Hippo' la réponse ! Bon, normalement, j'aime pas faire mal aux animaux, mais... Ferme ta gueule ! Ok... T'as voulu m'défier ? Avoue qu'c'est risqué T'as besoin que ma main te remplisse pour exister T'es très aigri, voire dépressif, je t'ai illé-gri' J'avoue qu'ton texte était exquis, tu criais quand je l'ai écrit T'es ni Kermit, ni guignol, ni un martyr, ni une idole T'es juste une coccinelle ignoble, et, moi, ton proxénète ivrogne Nul ! Dans l'magasin d'jouets, j't'ai pris car tu m'faisais d'la peine Et qu't'étais en promo, alors arrête de faire ta belle Car t'as une forte odeur de pieds d'globe-trotters J'préfère caresser un chat noir sous une échelle plutôt qu'tu m'portes bonheur En ce moment, mon album mijote dans la Grande Ours Pendant qu'tu moisis dans mon petit coffre à pantoufles Time !</t>
+          <t>- Yo, yo, yo ! Bienvenue à l'aquabattle ! - Ah non, Clash d'attente... - Clash d'attente ! Des MC qui vont s'clasher a cappella ! Moi-même présentateur Goomar, aka Jambon Hygiénique, aka Méchant Cochon, aka Pierre Palmé, aka Jacquie Michel ! Tout de suite présentation des MC ! MC à ma gauche, introduis-toi ! - Hippocampe Fou, rappeur aquatique... - Non, euh, par contre, il faut qu't'enlèves ton bonnet - Bah non, parce que c'est... - Bin, accessoires pas autorisés - Ouais, mais c'est... - Ouais, bin non, bin non, c'est comme ça, désolé - Hippocampe Fou, rappeurs aquatique, Triangle des Bermudes J'suis venu pour réconforter la petite victime en rouge et noir - Wouh ! MC à ma droite, introduis-toi ! - Cocci Killer ! J'suis venu pour bouffer c'puceron Qu'a pas les couilles de faire les RC, dis-leur ! - Ok, faites du bruit ! ... Ok ! Pour savoir quel MC commence, c'est l'moment du coin toast Hippo' confiture ou pain ? - Confiture - Confiture. Hippo' tu commences ? Tu termines ? - Honneur au cafard - Wouh ! Fou battle ! Paw, paw ! Ton humour a la gangrène faut t'amputer Tu rigoles à tes propres blagues, comme Laurent Ruquier Ton album tout l'monde s'en fout, autant l'brûler Voici une poche d'acide sulfurique pour te transfuser Arrête de t'branler dans tes freestyle, j'aime pas l'égotrip Tu fais des faciales à tes spermatozoïdes Mais, toi et tes acolytes, vous sentez la verveine Et la cyprine de te grand-mère dont j'ai tranché la tête frêle Aïe ! Tu t'ronges les phalanges, prends donc des vacances Ou tu vas mourir sur scène pendant les balances Victime ! Faut qu'tu t'surpasses, gars, tu fais du surplace Ton rap aquatique reste en surface Time ! Hippo' la réponse ! Bon, normalement, j'aime pas faire mal aux animaux, mais... Ferme ta gueule ! Ok... T'as voulu m'défier ? Avoue qu'c'est risqué T'as besoin que ma main te remplisse pour exister T'es très aigri, voire dépressif, je t'ai illé-gri' J'avoue qu'ton texte était exquis, tu criais quand je l'ai écrit T'es ni Kermit, ni guignol, ni un martyr, ni une idole T'es juste une coccinelle ignoble, et, moi, ton proxénète ivrogne Nul ! Dans l'magasin d'jouets, j't'ai pris car tu m'faisais d'la peine Et qu't'étais en promo, alors arrête de faire ta belle Car t'as une forte odeur de pieds d'globe-trotters J'préfère caresser un chat noir sous une échelle plutôt qu'tu m'portes bonheur En ce moment, mon album mijote dans la Grande Ours Pendant qu'tu moisis dans mon petit coffre à pantoufles Time !</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ce son tue, c'est un tube de dentifrice aux ordures Radioactives, ton troisième pied s'active et bat la mesure C'est une morsure de cobra, une torture Une carcasse aux gros bras dans une carapace en or pur Ce son plutôt lent est purulent Plus collant que le sperme de Spiderman sur son collant Plus affolant qu'un aveugle au volant, qu'un cuistot sans langue Plus éternel que l'Empire Ottoman Plus muet que le cadavre d'une carpe sur la tombe du Mime Marceau Rares sont ceux qui l'écoutent Plus rouge que le nez d'un clown saoul Après avoir bu tout le sang d'une fourmi communiste Ce son arrive de l'au-delà avec une cape, un anorak et une parka Lappe-le comme l'eau d'un lac en Alaska Kiffe ce son comme un coup de gong qui déclenche le combat Entre ta mère le sumo et ton ex Queen Kong Ce son est inclassable, insondable, invendable Diablement vandale, incontestablement indémodable Ce son s'écoute sans cartable, se chante à table Se danse en crabe sur le sable et s'enterre à la cave x2 Si tu apprécies ce son cligne des yeux Jusqu'à c'que cela devienne un tic nerveux Oui, ce son, c'est un signe des dieux Qui fait pousser sur ton visage un ou deux kystes hideux You might also like Ce son polisson, c'est pour Bowser sur son kart en pôle position Pour les maçons qui bâtissent des escaliers en colimaçon Pour les algues, les poissons qui trouvent l'âme sur au bout d'un hameçon Pour les moribonds, les nourrissons, les filles en slip ou caleçon Pour les instit' de CP analphabètes et dissipés Pour les dentistes édentés, pour ma planète au crétacé Pour les types minces, évincés du bal des cétacés Pour ceux qui s'endorment aux WC après avoir régurgité Pour ce fantôme opaque aux omoplates saillantes Qui marche drap dans la patte avec des blattes vaillantes Ce son, c'est comme une blague marrante Ça fait sourire les impatients même dans les salles d'attente C'est pour les pakis portant des kippas qui vendent du poulet tikka Casher, pas cher dans tous les tier-quar de ris-Pa C'est pour les nuls, pour ceux qui portent des gilets par balles En papier bulle ou des protège-tibia en tulle C'est pour les batraciens martiens qui squattent les bars terriens Les pharmaciens qui crèchent dans des nids bactériens Les fantassins, les marcassins dans les bacs à sable Les nains sur des échasses incassables dans le grand bassin C'est pour tous mes fans qui m'envoient des photos de leur crâne C'est pour les chibres d'âne dissimulés dans quelques cheese nan Pour les chips et les légumes et pour les eunuques polygames Et ça se fume, c'est une substances illicite, ce son excite l'âme x4 Squid à la prod Ce son tue, c'est un tube</t>
+          <t>Ce son tue, c'est un tube de dentifrice aux ordures Radioactives, ton troisième pied s'active et bat la mesure C'est une morsure de cobra, une torture Une carcasse aux gros bras dans une carapace en or pur Ce son plutôt lent est purulent Plus collant que le sperme de Spiderman sur son collant Plus affolant qu'un aveugle au volant, qu'un cuistot sans langue Plus éternel que l'Empire Ottoman Plus muet que le cadavre d'une carpe sur la tombe du Mime Marceau Rares sont ceux qui l'écoutent Plus rouge que le nez d'un clown saoul Après avoir bu tout le sang d'une fourmi communiste Ce son arrive de l'au-delà avec une cape, un anorak et une parka Lappe-le comme l'eau d'un lac en Alaska Kiffe ce son comme un coup de gong qui déclenche le combat Entre ta mère le sumo et ton ex Queen Kong Ce son est inclassable, insondable, invendable Diablement vandale, incontestablement indémodable Ce son s'écoute sans cartable, se chante à table Se danse en crabe sur le sable et s'enterre à la cave x2 Si tu apprécies ce son cligne des yeux Jusqu'à c'que cela devienne un tic nerveux Oui, ce son, c'est un signe des dieux Qui fait pousser sur ton visage un ou deux kystes hideux Ce son polisson, c'est pour Bowser sur son kart en pôle position Pour les maçons qui bâtissent des escaliers en colimaçon Pour les algues, les poissons qui trouvent l'âme sur au bout d'un hameçon Pour les moribonds, les nourrissons, les filles en slip ou caleçon Pour les instit' de CP analphabètes et dissipés Pour les dentistes édentés, pour ma planète au crétacé Pour les types minces, évincés du bal des cétacés Pour ceux qui s'endorment aux WC après avoir régurgité Pour ce fantôme opaque aux omoplates saillantes Qui marche drap dans la patte avec des blattes vaillantes Ce son, c'est comme une blague marrante Ça fait sourire les impatients même dans les salles d'attente C'est pour les pakis portant des kippas qui vendent du poulet tikka Casher, pas cher dans tous les tier-quar de ris-Pa C'est pour les nuls, pour ceux qui portent des gilets par balles En papier bulle ou des protège-tibia en tulle C'est pour les batraciens martiens qui squattent les bars terriens Les pharmaciens qui crèchent dans des nids bactériens Les fantassins, les marcassins dans les bacs à sable Les nains sur des échasses incassables dans le grand bassin C'est pour tous mes fans qui m'envoient des photos de leur crâne C'est pour les chibres d'âne dissimulés dans quelques cheese nan Pour les chips et les légumes et pour les eunuques polygames Et ça se fume, c'est une substances illicite, ce son excite l'âme x4 Squid à la prod Ce son tue, c'est un tube</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Ton idole est né enterré sous une île dorée enneigée En été, encerclé, en effet, j'ai tenté d'éventrer Des peoples et des gens fermés, j'ai mis des idylles dans les gènes D'entêtés emmerdeurs, et sans peine, semé des enquêteurs J'ai dribblé Pelé, j'écris des mes-ri' tes-bê' Qui méritent des dix sur dix et des T.B. J'pétille comme du Perrier, maîtrise comme un guerrier Ce texte est une BD qui vexe, oui, t'es gêné Car je sais épeler anti-constitutionnellement Et je vais gueuler cent dictons qui tuent sombre et dément Qui vont déplumer cent pigeons qui puent, si tu continues À m'écouter vraiment, tu vas dégueuler, mon grand Cours acheter mon CD, je le vends au sommet du Mont-Blanc C'est un bon plan, et pour les quelques chanceux comme Gontran J'offre la possibilité d'entrevoir mon gland De boire mon sang tonifiant comme du Guronsan Yo, puisqu'on comptait larguer les bombes et narguer le con d'énarque Inonder le marché d'ondes et marquer le monde, élaguer le tronc de l'arbre On va l'faire de suite en dégoupillant nos grenades Apprécie c'que ma langue relate, entre ici, dans mon engrenage L'encre est précise, nage entre les récifs, en creux de pages Entre le ton agressif, lengueulade et l'discours paisible voici l'excellent breuvage Le dosage des îles, de West Indies à vos plages, avantage à mon langage des signes T.I.S J'rappe avec les mains, mais c'est bien toi que j'désigne Quand j'parle d'MC wacks, t'es rien qu'un produit qu'on dit bactérien Qu'on jetterait bien dans l'bac à lessive pour la plupart des tiens Au quotidien, t'es l'gars qu'on esquive, t'as pas pu garder l'lien Le hip-hop, c'est J'te soutiens, mon pote, mais j'te regarde de loin À part si tu signes, moi, j'hallucine, on n'voit que par les biens Les signes extérieurs de réussite la monnaie part et vient Mon compte est plein d'zéros à la suite, mais juste devant y'a rien You might also like T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Mes trouvailles défouraillent, t'es tout pâle, t'aimes ou pas C'est trouble et ça dégoûte, ça déroute, écoute ça Double penne 3 fromages ou tatouage au henné Pépé kéké à Dubaï, obsédé par un bébé samouraï L'utopiste plus toxique qu'une morille crue, sautille Sans choriste, mes mots brillent et éblouissent les novices J'suis tellement franc qu'on pourrait m'appeler Clovis J'lâche des hectolitres de semences, fais les gros titres Ego-trip méthodique, érotique, très tonique mais logique Mes sottises théoriques démolissent restau' chics et trop lisses Mes low-kick héroïques terrorisent les gothiques nécrophiles Rhétorique, mélodique, j'dégobille des motifs exotiques Des gorilles névrotiques égoïstes, des gauchistes herboristes Les Gaullistes despotiques s'égosillent tel Onyx, M.O.P J'mémorise les codes PIN dÉloïse, Véronique et Moïse Néophyte, j'éradique les otites et ravive les ordi' T.I.S, c'est le Papa Shango d'un rap jazzy comme Django Choisit le cash sans tango, et même la Mai Li sans Tong Po Manie la rime en tant qu'pro, m'aligne, fait gaffe au flow Quand il arrive aux thèmes bateaux, quand il arrive droit sur le tempo J'vais canarder ton rap de caille avec des billes de paintball T'auras ma trace couleur madras en pleine paume, débordante sur ton épaule T'es juste une cible immanquable comme une finale de Superbowl Un MC aussi lamentable qu'hyper-drôle Yo, les MC hibernent et se perdent dans des cyber-rôles De merde pour que six nerds hallucinent sur leur medecine herbal Et des gangsters tall qui sortent les holsters tôt Si tu veux des clichés austères, demande-moi et j't'en sers d'autres En c'qui m'concerne, j'utilise plus souvent mon cerveau Ainsi qu'un flow sans air faux, en un seul mot sincère go Mon hip-hop te fait faire le hoolahoop sans cerceau Le alley oop sans arceau, la boum sans Sophie Marceau - J'ai bien kiffé la petite référence à Sophie Marceau - Ouais ? Bah toujours... Sophie Marceau, c'est quand même l'actrice la plus hip-hop de France, quoi - Bah, moi, au début, j'préférais Adjani, tu vois ? - Ouais - J'trouvais qu'elle était... - Ouais... - Elle avait des trucs et tout quand même ! - En '88, ouais, avec son pull marine, là... elle donnait à mort - Ouais... Non, mais même dans Subway, t'sais, elle avait une coupe un peu punk et tout... - Ouais, j'avoue, elle donnait dur, là, quand même - Et, entre punk et hip-hop, finalement, bin y'a pas... - Ouais, c'est vrai - Y'a pas un si grand fosée, quoi - Ouais, non, c'est pareil - Bon... - Bon, bin voilà ! - Ouais... J'vais aller chier - Ouais.</t>
+          <t>T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Ton idole est né enterré sous une île dorée enneigée En été, encerclé, en effet, j'ai tenté d'éventrer Des peoples et des gens fermés, j'ai mis des idylles dans les gènes D'entêtés emmerdeurs, et sans peine, semé des enquêteurs J'ai dribblé Pelé, j'écris des mes-ri' tes-bê' Qui méritent des dix sur dix et des T.B. J'pétille comme du Perrier, maîtrise comme un guerrier Ce texte est une BD qui vexe, oui, t'es gêné Car je sais épeler anti-constitutionnellement Et je vais gueuler cent dictons qui tuent sombre et dément Qui vont déplumer cent pigeons qui puent, si tu continues À m'écouter vraiment, tu vas dégueuler, mon grand Cours acheter mon CD, je le vends au sommet du Mont-Blanc C'est un bon plan, et pour les quelques chanceux comme Gontran J'offre la possibilité d'entrevoir mon gland De boire mon sang tonifiant comme du Guronsan Yo, puisqu'on comptait larguer les bombes et narguer le con d'énarque Inonder le marché d'ondes et marquer le monde, élaguer le tronc de l'arbre On va l'faire de suite en dégoupillant nos grenades Apprécie c'que ma langue relate, entre ici, dans mon engrenage L'encre est précise, nage entre les récifs, en creux de pages Entre le ton agressif, lengueulade et l'discours paisible voici l'excellent breuvage Le dosage des îles, de West Indies à vos plages, avantage à mon langage des signes T.I.S J'rappe avec les mains, mais c'est bien toi que j'désigne Quand j'parle d'MC wacks, t'es rien qu'un produit qu'on dit bactérien Qu'on jetterait bien dans l'bac à lessive pour la plupart des tiens Au quotidien, t'es l'gars qu'on esquive, t'as pas pu garder l'lien Le hip-hop, c'est J'te soutiens, mon pote, mais j'te regarde de loin À part si tu signes, moi, j'hallucine, on n'voit que par les biens Les signes extérieurs de réussite la monnaie part et vient Mon compte est plein d'zéros à la suite, mais juste devant y'a rien T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Mes trouvailles défouraillent, t'es tout pâle, t'aimes ou pas C'est trouble et ça dégoûte, ça déroute, écoute ça Double penne 3 fromages ou tatouage au henné Pépé kéké à Dubaï, obsédé par un bébé samouraï L'utopiste plus toxique qu'une morille crue, sautille Sans choriste, mes mots brillent et éblouissent les novices J'suis tellement franc qu'on pourrait m'appeler Clovis J'lâche des hectolitres de semences, fais les gros titres Ego-trip méthodique, érotique, très tonique mais logique Mes sottises théoriques démolissent restau' chics et trop lisses Mes low-kick héroïques terrorisent les gothiques nécrophiles Rhétorique, mélodique, j'dégobille des motifs exotiques Des gorilles névrotiques égoïstes, des gauchistes herboristes Les Gaullistes despotiques s'égosillent tel Onyx, M.O.P J'mémorise les codes PIN dÉloïse, Véronique et Moïse Néophyte, j'éradique les otites et ravive les ordi' T.I.S, c'est le Papa Shango d'un rap jazzy comme Django Choisit le cash sans tango, et même la Mai Li sans Tong Po Manie la rime en tant qu'pro, m'aligne, fait gaffe au flow Quand il arrive aux thèmes bateaux, quand il arrive droit sur le tempo J'vais canarder ton rap de caille avec des billes de paintball T'auras ma trace couleur madras en pleine paume, débordante sur ton épaule T'es juste une cible immanquable comme une finale de Superbowl Un MC aussi lamentable qu'hyper-drôle Yo, les MC hibernent et se perdent dans des cyber-rôles De merde pour que six nerds hallucinent sur leur medecine herbal Et des gangsters tall qui sortent les holsters tôt Si tu veux des clichés austères, demande-moi et j't'en sers d'autres En c'qui m'concerne, j'utilise plus souvent mon cerveau Ainsi qu'un flow sans air faux, en un seul mot sincère go Mon hip-hop te fait faire le hoolahoop sans cerceau Le alley oop sans arceau, la boum sans Sophie Marceau - J'ai bien kiffé la petite référence à Sophie Marceau - Ouais ? Bah toujours... Sophie Marceau, c'est quand même l'actrice la plus hip-hop de France, quoi - Bah, moi, au début, j'préférais Adjani, tu vois ? - Ouais - J'trouvais qu'elle était... - Ouais... - Elle avait des trucs et tout quand même ! - En '88, ouais, avec son pull marine, là... elle donnait à mort - Ouais... Non, mais même dans Subway, t'sais, elle avait une coupe un peu punk et tout... - Ouais, j'avoue, elle donnait dur, là, quand même - Et, entre punk et hip-hop, finalement, bin y'a pas... - Ouais, c'est vrai - Y'a pas un si grand fosée, quoi - Ouais, non, c'est pareil - Bon... - Bon, bin voilà ! - Ouais... J'vais aller chier - Ouais.</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Confiné, ça y est, c'est confirmé On est tous confinés Mais, assis au soleil, je survis trop bien Sirotant des gels antimicrobiens Finies les brochettes de pangolins Jai plus le droit de côtoyer mes contemporains Serrons-nous les coudes et lavons-nous les mains Butinons loin des foules au nom de tout l'essaim Chacun sa yourte, chacun son terrain Pas d'accolade à ton voisin Donc nul besoin de changer mes habitudes Jpeux rester cloîtré deux mois sans lassitude J'ai pas attendu le corona virus Pour suçoter des bonbons à l'eucalyptus J'ai plus de Dragibus, c'est la pénurie Mais soyons décents, j'fais pas partie des plus démunis Dans mon journal intime, je me réfugie J'suis pas Anne Frank, moi, j'ai la chance de pouvoir faire du bruit Faut rester digne, civique et solidaire Le temps sest arrêté, cest extraordinaire En cette période où s'attrouper est mortifère Ce sra conversation groupée ou plaisir solitaire J'médite en slip comme un yogi Avant d'sortir chasser des pâtes et des gnocchis J'irais bien faire un jogging sous ma combi Mais j'dois occuper mes mioches qui m'assaillent comme des zombies J'suis un bon papa mais j'ai pas l'BAFA Envoyez-moi deuxtrois tutos de krav-maga Mais j'vais pas les taper, gars, j'suis pas fada J'ai juste envie de weed et de pastaga J'dois rester rationnel et me rationner J'écris comme Jack Torrance, je suis passionné J'préfère me planquer qu'errer dehors le bec enfariné Mieux vaut se planter que voir la pandémie s'enraciner Tu m'trouves pas sympa, j'm'en fiche, j'fais les cent pas en pyj' J'aurais connu la quarantaine avant mes quarante piges Force au personnel hospitalier qui tente de sauver des vies Pendant qu'on remplace le PQ par des feuilles de laitue flétries Bonne nouvelle, l'ennui rend créatif Une pensée pour ceux dont les enfants sont hyperactifs Et tant pis si certains me disent opportuniste J'essaye d'éviter de déprimer avant la mort subite You might also like Restez confinés Restez confinés</t>
+          <t>Confiné, ça y est, c'est confirmé On est tous confinés Mais, assis au soleil, je survis trop bien Sirotant des gels antimicrobiens Finies les brochettes de pangolins Jai plus le droit de côtoyer mes contemporains Serrons-nous les coudes et lavons-nous les mains Butinons loin des foules au nom de tout l'essaim Chacun sa yourte, chacun son terrain Pas d'accolade à ton voisin Donc nul besoin de changer mes habitudes Jpeux rester cloîtré deux mois sans lassitude J'ai pas attendu le corona virus Pour suçoter des bonbons à l'eucalyptus J'ai plus de Dragibus, c'est la pénurie Mais soyons décents, j'fais pas partie des plus démunis Dans mon journal intime, je me réfugie J'suis pas Anne Frank, moi, j'ai la chance de pouvoir faire du bruit Faut rester digne, civique et solidaire Le temps sest arrêté, cest extraordinaire En cette période où s'attrouper est mortifère Ce sra conversation groupée ou plaisir solitaire J'médite en slip comme un yogi Avant d'sortir chasser des pâtes et des gnocchis J'irais bien faire un jogging sous ma combi Mais j'dois occuper mes mioches qui m'assaillent comme des zombies J'suis un bon papa mais j'ai pas l'BAFA Envoyez-moi deuxtrois tutos de krav-maga Mais j'vais pas les taper, gars, j'suis pas fada J'ai juste envie de weed et de pastaga J'dois rester rationnel et me rationner J'écris comme Jack Torrance, je suis passionné J'préfère me planquer qu'errer dehors le bec enfariné Mieux vaut se planter que voir la pandémie s'enraciner Tu m'trouves pas sympa, j'm'en fiche, j'fais les cent pas en pyj' J'aurais connu la quarantaine avant mes quarante piges Force au personnel hospitalier qui tente de sauver des vies Pendant qu'on remplace le PQ par des feuilles de laitue flétries Bonne nouvelle, l'ennui rend créatif Une pensée pour ceux dont les enfants sont hyperactifs Et tant pis si certains me disent opportuniste J'essaye d'éviter de déprimer avant la mort subite Restez confinés Restez confinés</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Je suis un couche-tard car j'évite mon plumard Et mes draps qui, comme un buvard, sont imbibés de cauchemars Routard, je parcours Mars et les remparts de la ville Où j'ai rencard avec l'angoisse Je me méfie d'elle mais elle m'est fidèle et Tisse des kyrielles de ficelles qu'elle tire, elle Hurle à mon inconscient ses secrets de Polichinelle Se purge grâce à de brusques mouvements criminels Somnambule, je gesticule comme un pantin Déambule comme un bambin dans le vestibule de mes voisins Les pilules pullulent, je pue l'huile rance, hulule Lors de ma futile errance sans délivrance Je fuis sans cesse, poursuivi par six cents sangsues Je suis en stress, uf ovipare, rire de bossu La nuit, je crie d'ennui, je nuis à la tranquillité d'autrui Les bruits que je produis sont fruits de ma bestialité enfouie Je dors debout, puis sors d'un coup à pas de loups Et tords le cou des gars trop saouls, leurs corps trop mous Cèdent sans effort, c'est fou Quand je les mords et les dévore, je suis encore moins doux J'adore les morts avec des morceaux de sucre roux Dans mon sépulcre, sous l'emprise de ma hantise, je m'y enlise Me cache chez vous avec des clous, je suis en crise Donc un conseil auscultez toutYou might also like</t>
+          <t>Je suis un couche-tard car j'évite mon plumard Et mes draps qui, comme un buvard, sont imbibés de cauchemars Routard, je parcours Mars et les remparts de la ville Où j'ai rencard avec l'angoisse Je me méfie d'elle mais elle m'est fidèle et Tisse des kyrielles de ficelles qu'elle tire, elle Hurle à mon inconscient ses secrets de Polichinelle Se purge grâce à de brusques mouvements criminels Somnambule, je gesticule comme un pantin Déambule comme un bambin dans le vestibule de mes voisins Les pilules pullulent, je pue l'huile rance, hulule Lors de ma futile errance sans délivrance Je fuis sans cesse, poursuivi par six cents sangsues Je suis en stress, uf ovipare, rire de bossu La nuit, je crie d'ennui, je nuis à la tranquillité d'autrui Les bruits que je produis sont fruits de ma bestialité enfouie Je dors debout, puis sors d'un coup à pas de loups Et tords le cou des gars trop saouls, leurs corps trop mous Cèdent sans effort, c'est fou Quand je les mords et les dévore, je suis encore moins doux J'adore les morts avec des morceaux de sucre roux Dans mon sépulcre, sous l'emprise de ma hantise, je m'y enlise Me cache chez vous avec des clous, je suis en crise Donc un conseil auscultez tout</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Moi qui flippe à la vue d'une plante, jpanique dans la forêt luxuriante Il a surgi comme un coucou suisse, c'est reparti pour une course-poursuite Avec un anaconda, c'était pas dans lcontrat, la verve ne compte pas, je ne peux pas gagner l'combat J'fonce comme un bolide, pourvu que le tronc soit solide ou j'vais finir en bas, cowabunga Cavaler comme un éclopé plein de cloques aux pieds pour ne pas terminer à l'étroit dans son gosier Il va m'stopper, m'choper, m'gober, mstocker puis me digérer comme un coq en pâte sous les cocotiers Je serais bien mieux dans le noir, dans un vieux manoir, en train de me faire léchouiller par un vilain tamanoir Mais ya pas d'échappatoire, si cn'est la mâchoire d'un piranha, d'un caïman, dun jaguar J'suis le fruit de mon époque, avec mes tics et mes tocs, dans ma vie faite de bric et de broc Et de flips et de flops, entouré de types qui s'tirent dans les pattes qui, pour du fric, se frittent ou se défroquent Mais j'suis pas de ces bambins avides, pourris gâtés, j'veux pas spoiler la fin mais on va tous y passer Le savoir m'apeure autant que ça m'rassure, j'me mets au vert, fourré dans les jupons de dame NatureYou might also like</t>
+          <t>Moi qui flippe à la vue d'une plante, jpanique dans la forêt luxuriante Il a surgi comme un coucou suisse, c'est reparti pour une course-poursuite Avec un anaconda, c'était pas dans lcontrat, la verve ne compte pas, je ne peux pas gagner l'combat J'fonce comme un bolide, pourvu que le tronc soit solide ou j'vais finir en bas, cowabunga Cavaler comme un éclopé plein de cloques aux pieds pour ne pas terminer à l'étroit dans son gosier Il va m'stopper, m'choper, m'gober, mstocker puis me digérer comme un coq en pâte sous les cocotiers Je serais bien mieux dans le noir, dans un vieux manoir, en train de me faire léchouiller par un vilain tamanoir Mais ya pas d'échappatoire, si cn'est la mâchoire d'un piranha, d'un caïman, dun jaguar J'suis le fruit de mon époque, avec mes tics et mes tocs, dans ma vie faite de bric et de broc Et de flips et de flops, entouré de types qui s'tirent dans les pattes qui, pour du fric, se frittent ou se défroquent Mais j'suis pas de ces bambins avides, pourris gâtés, j'veux pas spoiler la fin mais on va tous y passer Le savoir m'apeure autant que ça m'rassure, j'me mets au vert, fourré dans les jupons de dame Nature</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Belles de jour grâce à nos crèmes de nuit Belles de jour Belles de jour Belles de jour grâce à nos crèmes de nuit Belles de jour grâce à nos crèmes de nuit Elles sont belles de jour grâce à nos crèmes de nuit Oui, belles de jour Stop la parlotte, là, t'as juste envie d'fuck, ôte La culotte que je le lise sur tes lèvres comme un ventriloque Les manières, on s'en branle, on est entre adultes consentants Et on a l'entrejambe en manque, j'crois qu'on va bien s'entendre Ma galanterie s'arrête où la partie de fesses commence Léni macho t'offense chérie, finie la belle romance Tu gémis puis tu récites tes gammes avec éloquence En dolby, fenêtres ouvertes, toute la rue fait caisse de résonance Yo, sans forcer, j'arrive à mes fins, tu vas et viens Dans un style aérien que j'comprends pas très bien Tes mouv' de bassin rendent dingues même le papier peint Si j'te demande la lune, c'est que ton arrière-train n'est pas terrien Yo, ambiance renversé du lotus Dans chaque pièce, on vérifie si l'mobilier est robuste Et, quand la gourmande en demande encore plus J'me démultiplie, on joue au docteur Octopus On n'est pas à Wall Street mais t'es pas à cours de bourses Pendant que t'es dans le cockpit, j'me désaltère à ta source et ouste Finis l'gentleman maniéré, voila l'homme ours arriéré, le singe en rut, le Cavaliere Oops... à ce que je vois, tu t'étouffes Moi, j'me booste la vue de ton boule me donne un deuxième souffle Donc c'est reparti pour une heure et demie Tu finis le crâne incrusté dans la tête de lit Chérie, t'es prête ? C'est là que j'te passe la crème de nuit You might also like x2 Nous sommes experts en sextapes En plus de notre sensibilité, nous vous offrons un regard d'esthète Ne soyez pas intimidés, détendez-vous Savourez donc cette douce musique raï ou klezmer Nous savons filmer plus de mille positions Mettons des objets en plastique à votre disposition Sortons le grand angle pour les gang bangs dans d'étranges granges Où des anges tendres se font prendre par d'exsangues trans' Si ça vous gêne, nous pouvons couper les projos Un halogène suffit pour tourner un porno Avec une go pro accrochée à notre casque de spéléo Les gouttes sur l'objectif ne sont pas toutes dues à la météo Micro cravate stéréo, gaffé au clito Si ça frotte, c'est pas grave, nous rattraperons ça au studio À la post-synchro, en tapotant nos paumes Entre elles énergiquement, comme des chanteurs de flamenco En un mot, nos pratiques sont inratables Saviez-vous que nos tarifs sont imbattables Et qu'en plus d'un super boîtier, la maison vous offre Une version soft en 3D parfaite pour vos gosses ? Nous stockons nos archives dans un vidéo-club Admirons entre amis votre vie privée au pub En projetant sur l'écran géant ces plans ravissants Les soirs de match pour patienter pendant la mi-temps</t>
+          <t>Belles de jour grâce à nos crèmes de nuit Belles de jour Belles de jour Belles de jour grâce à nos crèmes de nuit Belles de jour grâce à nos crèmes de nuit Elles sont belles de jour grâce à nos crèmes de nuit Oui, belles de jour Stop la parlotte, là, t'as juste envie d'fuck, ôte La culotte que je le lise sur tes lèvres comme un ventriloque Les manières, on s'en branle, on est entre adultes consentants Et on a l'entrejambe en manque, j'crois qu'on va bien s'entendre Ma galanterie s'arrête où la partie de fesses commence Léni macho t'offense chérie, finie la belle romance Tu gémis puis tu récites tes gammes avec éloquence En dolby, fenêtres ouvertes, toute la rue fait caisse de résonance Yo, sans forcer, j'arrive à mes fins, tu vas et viens Dans un style aérien que j'comprends pas très bien Tes mouv' de bassin rendent dingues même le papier peint Si j'te demande la lune, c'est que ton arrière-train n'est pas terrien Yo, ambiance renversé du lotus Dans chaque pièce, on vérifie si l'mobilier est robuste Et, quand la gourmande en demande encore plus J'me démultiplie, on joue au docteur Octopus On n'est pas à Wall Street mais t'es pas à cours de bourses Pendant que t'es dans le cockpit, j'me désaltère à ta source et ouste Finis l'gentleman maniéré, voila l'homme ours arriéré, le singe en rut, le Cavaliere Oops... à ce que je vois, tu t'étouffes Moi, j'me booste la vue de ton boule me donne un deuxième souffle Donc c'est reparti pour une heure et demie Tu finis le crâne incrusté dans la tête de lit Chérie, t'es prête ? C'est là que j'te passe la crème de nuit x2 Nous sommes experts en sextapes En plus de notre sensibilité, nous vous offrons un regard d'esthète Ne soyez pas intimidés, détendez-vous Savourez donc cette douce musique raï ou klezmer Nous savons filmer plus de mille positions Mettons des objets en plastique à votre disposition Sortons le grand angle pour les gang bangs dans d'étranges granges Où des anges tendres se font prendre par d'exsangues trans' Si ça vous gêne, nous pouvons couper les projos Un halogène suffit pour tourner un porno Avec une go pro accrochée à notre casque de spéléo Les gouttes sur l'objectif ne sont pas toutes dues à la météo Micro cravate stéréo, gaffé au clito Si ça frotte, c'est pas grave, nous rattraperons ça au studio À la post-synchro, en tapotant nos paumes Entre elles énergiquement, comme des chanteurs de flamenco En un mot, nos pratiques sont inratables Saviez-vous que nos tarifs sont imbattables Et qu'en plus d'un super boîtier, la maison vous offre Une version soft en 3D parfaite pour vos gosses ? Nous stockons nos archives dans un vidéo-club Admirons entre amis votre vie privée au pub En projetant sur l'écran géant ces plans ravissants Les soirs de match pour patienter pendant la mi-temps</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Voyage abyssal sous mon tapis sale Où résident des acariens aquatiques, de la marie-jeanne Pour asthmatique, et des farines animales Est-ce admirable, fantastique ou simplement minable ? Cannibale était cette femme qui dans la chaleur estivale Dévorait des yeux mes parties génitales Amical était son mari pâle, j'étais en terminale Et citait à voix haute des paragraphes des Misérables et Germinal La mort est un mal inguérissable, bien que périssables Nos corps restent désirables, as-tu kiffé cette kissline ? J'aime les montagnes et les porte-cigarettes russes J'crache des postillons enflammés et pisse à l'arrêt d'bus Mon bateau ivre tangue quand j'parle aux livres tendrement J'ai introduit le Parthénon dans mon appartement Visite mon cabinet de curiosité J'y déride des pruneaux, y cultive l'animosité Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic You might also like Quand j'regarde tous ces photos-portraits Harcourt Mon cerveau crée des partouzes entre Casta, Cotillard, Bardot, Gainsbourg J'accours pour savourer les seins chauds des nymphos Et dans mon estomac, hurlent des gargouilles J'barbouille de cirage des visages de barbouze Parcours des mirages, chatouille des pirates craspouilles Voici le journal d'un fou décapité sans un sou Ça sent le roussi sous ta moumoute 'Che-lou' comme Borat, je bouffe au do'-Mc, me saoule comme Socrate J'étouffe estomaque et troue vos thorax, je couve des cloaques Secoue le zodiaque, les poules à peaux mates, les louves à gros sacs Les moules à peaux grasses, je joue l'automate, le clown, acrobate Me fout des obstacles, écoute des sonates Je groove, c'est so fat, et tous ces mots claquent C'est flou, c'est opaque, fou, démoniaque Rouge et jaunâtre, au goût d'ammoniac, du coup, tes os craquent L'antipop est une passoire qui filtre Mes consonnes aiguisées comme les hachoirs d'un sinistre abattoir J'aime les rimes picturales, c'est addictif, tu râles Tu frises la crise de nerfs optiques, c'est la vie qui m'tuera x2 Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Ferme les yeux quand j'te parle !1</t>
+          <t>Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Voyage abyssal sous mon tapis sale Où résident des acariens aquatiques, de la marie-jeanne Pour asthmatique, et des farines animales Est-ce admirable, fantastique ou simplement minable ? Cannibale était cette femme qui dans la chaleur estivale Dévorait des yeux mes parties génitales Amical était son mari pâle, j'étais en terminale Et citait à voix haute des paragraphes des Misérables et Germinal La mort est un mal inguérissable, bien que périssables Nos corps restent désirables, as-tu kiffé cette kissline ? J'aime les montagnes et les porte-cigarettes russes J'crache des postillons enflammés et pisse à l'arrêt d'bus Mon bateau ivre tangue quand j'parle aux livres tendrement J'ai introduit le Parthénon dans mon appartement Visite mon cabinet de curiosité J'y déride des pruneaux, y cultive l'animosité Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Quand j'regarde tous ces photos-portraits Harcourt Mon cerveau crée des partouzes entre Casta, Cotillard, Bardot, Gainsbourg J'accours pour savourer les seins chauds des nymphos Et dans mon estomac, hurlent des gargouilles J'barbouille de cirage des visages de barbouze Parcours des mirages, chatouille des pirates craspouilles Voici le journal d'un fou décapité sans un sou Ça sent le roussi sous ta moumoute 'Che-lou' comme Borat, je bouffe au do'-Mc, me saoule comme Socrate J'étouffe estomaque et troue vos thorax, je couve des cloaques Secoue le zodiaque, les poules à peaux mates, les louves à gros sacs Les moules à peaux grasses, je joue l'automate, le clown, acrobate Me fout des obstacles, écoute des sonates Je groove, c'est so fat, et tous ces mots claquent C'est flou, c'est opaque, fou, démoniaque Rouge et jaunâtre, au goût d'ammoniac, du coup, tes os craquent L'antipop est une passoire qui filtre Mes consonnes aiguisées comme les hachoirs d'un sinistre abattoir J'aime les rimes picturales, c'est addictif, tu râles Tu frises la crise de nerfs optiques, c'est la vie qui m'tuera x2 Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Ferme les yeux quand j'te parle !1</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>À force de croupir derrière les barreaux du quotidien J'ai appris à m'évader, voyager, sans cesse jetlagué sans même changer de méridien J'suis plus dispersé que les boules de cristal, mon cerveau est au volant d'une DeLorean Dans le coffre, une paire de bottes de sept lieues, pour rejoindre les cieux, c'est plus original Suivr les conversations me donn du fil à retordre J'ai des problèmes de concentration, donc toujours une fusée d'retard Pour capter mon attention, faut faire preuve d'humour, de sensibilité Sinon, je n'entends que des sons, me laisse happer par mon inventivité Faut dire que certains mots sont appétissants, m'invitent à danser sur des terrains glissants Quand je m'ennuie, je m'enfuis dans mes rêveries, m'enfouis sous les bruits pour me sentir vivant J'suis pas vigilant, j'oublie le prénom des enfants de mes amis, c'est avilissant Perdu dans mes pensées, je quitte le plancher des vaches et des bavardages abrutissants J'n'ai toujours pas été payé, huh j'ai zappé d'envoyer mon RIB Car je préfère travailler ma rhétorique, narrer nos vies à travers d'étourdissantes allégories Oui, je paresse au lit, déambule dans ma bulle quitte à paraître autiste J'n'ai pas besoin de cours d'aérobic, moi, je chante sous la pluie d'astéroïdes Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent You might also like C'est un petit pas pour un gars lunaire Un bond de géant pour l'imaginaire Léger comme une plume, je scrute la Terre Je n'suis qu'une fourmi ridicule dans ces obscures cratères J'avance à pas de gnou, le sol me semble mou Comme sur un trampoline, je fais de grands bonds dignes d'un kangourou Je flotte, lévite jusqu'au ravissement, mon histoire est pleine de rebondissements C'est pourquoi mon visage se fige, immobile, je m'épuise et, si souvent, je parais distant Heureusement, j'suis pas l'seul à m'égarer là-bas le plus grand astronaute, c'est mon papa Mais y'a pas qu'les artistes qui font des faux pas, oui, je m'adresse à toi et aux gens qu'tu côtoies Vu qu't'as d'jà mis du sel dans ton café, un jean sur ton pyj' et t'es partie taffer T'as oublié ton tél' et tes clés, t'es blasée, sac poubelle à la main, dans l'métro, t'es toisée Car t'as d'l'imagination, un tas d'illuminations Chevauchant Pégase, en extase, oui, t'as mis les gaz et t'effaces avec jubilation Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent</t>
+          <t>À force de croupir derrière les barreaux du quotidien J'ai appris à m'évader, voyager, sans cesse jetlagué sans même changer de méridien J'suis plus dispersé que les boules de cristal, mon cerveau est au volant d'une DeLorean Dans le coffre, une paire de bottes de sept lieues, pour rejoindre les cieux, c'est plus original Suivr les conversations me donn du fil à retordre J'ai des problèmes de concentration, donc toujours une fusée d'retard Pour capter mon attention, faut faire preuve d'humour, de sensibilité Sinon, je n'entends que des sons, me laisse happer par mon inventivité Faut dire que certains mots sont appétissants, m'invitent à danser sur des terrains glissants Quand je m'ennuie, je m'enfuis dans mes rêveries, m'enfouis sous les bruits pour me sentir vivant J'suis pas vigilant, j'oublie le prénom des enfants de mes amis, c'est avilissant Perdu dans mes pensées, je quitte le plancher des vaches et des bavardages abrutissants J'n'ai toujours pas été payé, huh j'ai zappé d'envoyer mon RIB Car je préfère travailler ma rhétorique, narrer nos vies à travers d'étourdissantes allégories Oui, je paresse au lit, déambule dans ma bulle quitte à paraître autiste J'n'ai pas besoin de cours d'aérobic, moi, je chante sous la pluie d'astéroïdes Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent C'est un petit pas pour un gars lunaire Un bond de géant pour l'imaginaire Léger comme une plume, je scrute la Terre Je n'suis qu'une fourmi ridicule dans ces obscures cratères J'avance à pas de gnou, le sol me semble mou Comme sur un trampoline, je fais de grands bonds dignes d'un kangourou Je flotte, lévite jusqu'au ravissement, mon histoire est pleine de rebondissements C'est pourquoi mon visage se fige, immobile, je m'épuise et, si souvent, je parais distant Heureusement, j'suis pas l'seul à m'égarer là-bas le plus grand astronaute, c'est mon papa Mais y'a pas qu'les artistes qui font des faux pas, oui, je m'adresse à toi et aux gens qu'tu côtoies Vu qu't'as d'jà mis du sel dans ton café, un jean sur ton pyj' et t'es partie taffer T'as oublié ton tél' et tes clés, t'es blasée, sac poubelle à la main, dans l'métro, t'es toisée Car t'as d'l'imagination, un tas d'illuminations Chevauchant Pégase, en extase, oui, t'as mis les gaz et t'effaces avec jubilation Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Depuis la perte de son emploi, le barbier rase les murs Au p'tit déj', le buraliste avale un bol d'air pur Le conducteur de bus décore son habitacle L'opticienne a perdu d'vue sa jumelle astigmate Pour combler sa calvitie, le chirurgien se fait des implants mammaires Quand il s'agit de faire un bridge, le dentiste ramène sa fraise Le charpentier rêve de monter sur les planches Pour embraser la vendeuse de parfum qui pue l'essence Tous les soirs, le rôtisseur mange du poulet froid Le maire fricote avec la blanchisseuse et complote sous les draps Le Père Noël est à découvert, il prépare un coup d'État Le ramoneur les a découverts et le crie sur tous les toits Laissez-moi vous dire, ma p'tite Fernande, qu'on n'peut accorder qu'un mince crédit à une personne couverte de suie ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille You might also like Le serrurier s'est fait voler les clés de sa boutique On soupçonne l'accordeur d'user du lieu pour l'acoustique L'agent secret espionne les ambassades Peintre en bâtiment est son métier de façade Le primeur surfe sur la vague bio Quand il croise une cliente, il lui met la main au panier Le chauffeur de taxi est un peu schizo' Il châtie son langage avant de jurer comme un charretier L'imam-rabbin-curé surveille son planning très chargé Le pâtissier tripote des religieuses au café Le promeneur de chiens cherche la merde dans le quartier L'hôtelier loue des toilettes avec chambre sur le palier Elles sont récurées de fond en comble une fois par mois ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le quincaillier a plus de vis que de vertus Le chercheur est perdu, la voyante a la berlue Le boucher considère sa femme comme un bout d'viande Elle vend son corps dans une chambre froide tandis qu'il flambe L'épouse du pédicure rêve de prendre son pied Elle a besoin des bons tuyaux du clan des sapeurs-plombiers L'osthéo' joue aux osselets, le banquier à La Bonne Paye Le croque-mort fait du bobsleigh dans un cercueil sur du gospel Le fossoyeur roule des pelles au jardinier Ils cultivent le mystère face au vieil artisan glacier Paraît qu'le sommelier est coincé dans les bouchons Y'a pas de sot métier m'a dit le roi des bouffons Des artistes ? Des fainéants, oui ! On a tous un rôle précis dans cette fourmilière Les gens se bousculent et s'ignorent en suivant leur filière Moi j'observe le va-et-vient et les savoirs-faire Chez moi, je n'chôme pas, mais j'écris parfois les fesses à l'air Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Dans l'fond Dans l'fond Dans l'fond On est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Et dans la forme, alors ?</t>
+          <t>Depuis la perte de son emploi, le barbier rase les murs Au p'tit déj', le buraliste avale un bol d'air pur Le conducteur de bus décore son habitacle L'opticienne a perdu d'vue sa jumelle astigmate Pour combler sa calvitie, le chirurgien se fait des implants mammaires Quand il s'agit de faire un bridge, le dentiste ramène sa fraise Le charpentier rêve de monter sur les planches Pour embraser la vendeuse de parfum qui pue l'essence Tous les soirs, le rôtisseur mange du poulet froid Le maire fricote avec la blanchisseuse et complote sous les draps Le Père Noël est à découvert, il prépare un coup d'État Le ramoneur les a découverts et le crie sur tous les toits Laissez-moi vous dire, ma p'tite Fernande, qu'on n'peut accorder qu'un mince crédit à une personne couverte de suie ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le serrurier s'est fait voler les clés de sa boutique On soupçonne l'accordeur d'user du lieu pour l'acoustique L'agent secret espionne les ambassades Peintre en bâtiment est son métier de façade Le primeur surfe sur la vague bio Quand il croise une cliente, il lui met la main au panier Le chauffeur de taxi est un peu schizo' Il châtie son langage avant de jurer comme un charretier L'imam-rabbin-curé surveille son planning très chargé Le pâtissier tripote des religieuses au café Le promeneur de chiens cherche la merde dans le quartier L'hôtelier loue des toilettes avec chambre sur le palier Elles sont récurées de fond en comble une fois par mois ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le quincaillier a plus de vis que de vertus Le chercheur est perdu, la voyante a la berlue Le boucher considère sa femme comme un bout d'viande Elle vend son corps dans une chambre froide tandis qu'il flambe L'épouse du pédicure rêve de prendre son pied Elle a besoin des bons tuyaux du clan des sapeurs-plombiers L'osthéo' joue aux osselets, le banquier à La Bonne Paye Le croque-mort fait du bobsleigh dans un cercueil sur du gospel Le fossoyeur roule des pelles au jardinier Ils cultivent le mystère face au vieil artisan glacier Paraît qu'le sommelier est coincé dans les bouchons Y'a pas de sot métier m'a dit le roi des bouffons Des artistes ? Des fainéants, oui ! On a tous un rôle précis dans cette fourmilière Les gens se bousculent et s'ignorent en suivant leur filière Moi j'observe le va-et-vient et les savoirs-faire Chez moi, je n'chôme pas, mais j'écris parfois les fesses à l'air Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Dans l'fond Dans l'fond Dans l'fond On est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Et dans la forme, alors ?</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>La boule au ventre, la tête en vrac, j'ai plus dun tour du monde dans mon sac J'remonte la pente, craque, mon âme s'ouvre sans Sésame, rentre en contact Avec des astres dâge canonique, à la cime de mon arbre généalogique Et, dans mon corps, c'est la grande pagaille, des micro-organismes sur le champ d'bataille Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Désorienté, l'go vidangé mais jaccepte le changment Étrangement, jai trouvé la lumière dissimulée dans mes retranchements Si notre univers est un quark, y'a des Big Bang en moi ya des Big Bang en moi Comme un grande guimbarde, j'me sens vibrant, j'envoie j'me sens vibrant, jenvoie Des ondes positives, j'ai l'impression que le monde me sollicite Je fais le pont entre l'avenir et les origines, je fais le vide et le remplis de vie, le colorie vite Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose You might also like Trop d'aléas mais, là, c'est l'heure d'aller au lit Je me revois dans l'hôpital, assis, pâle, ébaubi Je sais qu'on m'attend, plus rien ne s'ra comme avant J'ai repoussé mes idées sombres comme un vrai combattant Oui, j'galope dans la pénombre et j'suis pas nyctalope Toutes ces péripéties m'ont mis une p'tite calotte Avec la peur en bandoulière, j'm'évade Balayé par le temps, nous sommes de la poussière d'étoiles</t>
+          <t>La boule au ventre, la tête en vrac, j'ai plus dun tour du monde dans mon sac J'remonte la pente, craque, mon âme s'ouvre sans Sésame, rentre en contact Avec des astres dâge canonique, à la cime de mon arbre généalogique Et, dans mon corps, c'est la grande pagaille, des micro-organismes sur le champ d'bataille Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Désorienté, l'go vidangé mais jaccepte le changment Étrangement, jai trouvé la lumière dissimulée dans mes retranchements Si notre univers est un quark, y'a des Big Bang en moi ya des Big Bang en moi Comme un grande guimbarde, j'me sens vibrant, j'envoie j'me sens vibrant, jenvoie Des ondes positives, j'ai l'impression que le monde me sollicite Je fais le pont entre l'avenir et les origines, je fais le vide et le remplis de vie, le colorie vite Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Trop d'aléas mais, là, c'est l'heure d'aller au lit Je me revois dans l'hôpital, assis, pâle, ébaubi Je sais qu'on m'attend, plus rien ne s'ra comme avant J'ai repoussé mes idées sombres comme un vrai combattant Oui, j'galope dans la pénombre et j'suis pas nyctalope Toutes ces péripéties m'ont mis une p'tite calotte Avec la peur en bandoulière, j'm'évade Balayé par le temps, nous sommes de la poussière d'étoiles</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'suis plus proche du demi que du quart de siècle J'm'assagis, j'ai moins soif de sexe Mes idoles s'éteignent une à une et, moi, je reste Encore un peu avec mon sac de questions Y a-t-il plus d'appart' vides que d'familles qui dorment sur les trottoirs ? Est-ce que mes enfants quitteront la Terre avant qu'il soit trop tard ? On dormira quand on sera mort mais est-ce qu'on fera des cauchemars ? Cinquante degrés à l'ombre, mettront-ils encore des costards ? Eh ouais, c'est ça d'grandir Trop d'questions Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets J'avance à petits pas, m'éteins à petit feu Ma femme est une déesse, mérite-elle un demi-vieux ? On dit qu'tout a un prix, moi, j'dis qu'l'argent est venimeux Vendront-ils du CO2 expiré par des vaniteux ? On naît, on se sent frais, on fane, on sert d'engrais Futurs anciens, on fait c'qu'on peut pour oublier qu'on est De la matière en quête de décomposition Pourquoi cherche-t-on des problèmes avant de trouver des solutions ? You might also like J'ai déjà bien vécu Si ma vie s'arrêtait là, serais-je un peu déçu ? J'ai compris quelques trucs et transmis quelques valeurs Ai-je trouvé l'équilibre entre papa et rappeur ? Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets</t>
+          <t>J'suis plus proche du demi que du quart de siècle J'm'assagis, j'ai moins soif de sexe Mes idoles s'éteignent une à une et, moi, je reste Encore un peu avec mon sac de questions Y a-t-il plus d'appart' vides que d'familles qui dorment sur les trottoirs ? Est-ce que mes enfants quitteront la Terre avant qu'il soit trop tard ? On dormira quand on sera mort mais est-ce qu'on fera des cauchemars ? Cinquante degrés à l'ombre, mettront-ils encore des costards ? Eh ouais, c'est ça d'grandir Trop d'questions Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets J'avance à petits pas, m'éteins à petit feu Ma femme est une déesse, mérite-elle un demi-vieux ? On dit qu'tout a un prix, moi, j'dis qu'l'argent est venimeux Vendront-ils du CO2 expiré par des vaniteux ? On naît, on se sent frais, on fane, on sert d'engrais Futurs anciens, on fait c'qu'on peut pour oublier qu'on est De la matière en quête de décomposition Pourquoi cherche-t-on des problèmes avant de trouver des solutions ? J'ai déjà bien vécu Si ma vie s'arrêtait là, serais-je un peu déçu ? J'ai compris quelques trucs et transmis quelques valeurs Ai-je trouvé l'équilibre entre papa et rappeur ? Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sur la route, au milieu d'une forêt de pins Ma femme conduit, moi, j'connais le ch'min On est cinq à l'étroit, faut r'faire le plein Sur mon jogging, des miettes de pain Il suffit d'un violent coup d'frein Pour finir en tas de défunts Donc j'agis, j'prends les choses en main Et j'choisis du son, j'en lance un DJ, copilote double casquette Pour une famille de dummies qui redoute le crash test J'ai la 'sique et les plans dans mon joujou hightech Et j'dois contenter mes enfants, quel éprouvant casse-tête Pique-nique dans la gova dans la playlist Anna Kova Gershwin, Doja, Nino Rota Rosalía, Tokischa, y Buena Vista Polo Pan, et la guitare de papa Non mais j'comprends rien à la carte, là Vas-y, j'vais lancer l'GPS, voilà Attention, à quatre, on se lâche Un, deux, un, deux, trois, quatre You might also like DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Obstacle sur la route Un jour, je passerai mon permis Un pneu crevé, je sais pas réparer La voiture est garée, c'est mal barré J'vais devoir tailler ma route à pieds Dormir dans un terrier, chasser des sangliers Ambiance Mononoké, j'ai d'jà un point de côté C'est saoulant comme les monologues de mes potos cokés On attend un dépanneur, je sais qu'il va se moquer Un coup de cric et, dans le coffre, il finira menotté Y'a plus de réseau, le GPS m'a lâché J'peux juste écouter les morceaux que j'ai d'jà téléchargés Mes enfants se disputent, je vais devoir me fâcher Quelle intense décadence, début d'vacances gâché DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Ne baisse pas le son Un jour, je passerai mon permis - Reste calme - Ah bah ça remarche, le... - Tais-toi - Hein ? -Tu es nul - Oula, ça bug, là... - Ta playlist n'est pas convaincante - Eh mais comment tu parles ? Elle déchire, ma playlist ! - Ton sens de l'orientation non plus - Mais il s'passe quoi ? Comment on éteint ? - Tes enfants ne te respectent pas - Bon, ça m'énerve, là - Tu ferais mieux de passer ton permis - J'avoue. DJ PS Je sais tout de toi DJ PS Tu consultes des sites pornographiques DJ PS Tu étais encore connecté hier soir DJ PS Tu as regardé la vidéo MILF se tape un autostoppeur DJ PS - C'est vrai, papa ? - Mais non</t>
+          <t>Sur la route, au milieu d'une forêt de pins Ma femme conduit, moi, j'connais le ch'min On est cinq à l'étroit, faut r'faire le plein Sur mon jogging, des miettes de pain Il suffit d'un violent coup d'frein Pour finir en tas de défunts Donc j'agis, j'prends les choses en main Et j'choisis du son, j'en lance un DJ, copilote double casquette Pour une famille de dummies qui redoute le crash test J'ai la 'sique et les plans dans mon joujou hightech Et j'dois contenter mes enfants, quel éprouvant casse-tête Pique-nique dans la gova dans la playlist Anna Kova Gershwin, Doja, Nino Rota Rosalía, Tokischa, y Buena Vista Polo Pan, et la guitare de papa Non mais j'comprends rien à la carte, là Vas-y, j'vais lancer l'GPS, voilà Attention, à quatre, on se lâche Un, deux, un, deux, trois, quatre DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Obstacle sur la route Un jour, je passerai mon permis Un pneu crevé, je sais pas réparer La voiture est garée, c'est mal barré J'vais devoir tailler ma route à pieds Dormir dans un terrier, chasser des sangliers Ambiance Mononoké, j'ai d'jà un point de côté C'est saoulant comme les monologues de mes potos cokés On attend un dépanneur, je sais qu'il va se moquer Un coup de cric et, dans le coffre, il finira menotté Y'a plus de réseau, le GPS m'a lâché J'peux juste écouter les morceaux que j'ai d'jà téléchargés Mes enfants se disputent, je vais devoir me fâcher Quelle intense décadence, début d'vacances gâché DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Ne baisse pas le son Un jour, je passerai mon permis - Reste calme - Ah bah ça remarche, le... - Tais-toi - Hein ? -Tu es nul - Oula, ça bug, là... - Ta playlist n'est pas convaincante - Eh mais comment tu parles ? Elle déchire, ma playlist ! - Ton sens de l'orientation non plus - Mais il s'passe quoi ? Comment on éteint ? - Tes enfants ne te respectent pas - Bon, ça m'énerve, là - Tu ferais mieux de passer ton permis - J'avoue. DJ PS Je sais tout de toi DJ PS Tu consultes des sites pornographiques DJ PS Tu étais encore connecté hier soir DJ PS Tu as regardé la vidéo MILF se tape un autostoppeur DJ PS - C'est vrai, papa ? - Mais non</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ce soir, je souris bêtement, il était temps J'ai retiré tes sous-vêtements avec mes dents J'veux une aventure sans casse-tête et pas d'ceinture de chasteté J'aime bien quand t'écartes tes cuisses, que j'peux t'écarteler Tous nos reproches, s'il te plaît, gardons-les Baiser, c'est cool quand on veut s'faire pardonner C'est plus cochon quand on boit du Chardonnay On a descendu deux bouteilles qui nous ont cartonnés Allez, cambre-toi, tes courbes m'enchantent, la chambre est un sauna Entre toi et moi, c'est la fusion, faisons fondre nos draps J'vais p't-être sortir mon portable même si c'n'est pas raisonnable J'ai déjà commencé l'forage, quand on s'emboîte, c'est sauvage Fais résonner mon hautbois, fais-moi cracher comme un cobra T'imploses, t'es paralysée, fatalité, Mortal Kombat Pleurs de bébé Oh nooon... pfffffff.... Putain, fait chier ! Casse les couilles ! J'veux pas me retirer, j'suis bien au chaud, je voulais me vider avant de faire dodo Le sexe entrecoupé, moi, ça me fait bobo, j'peux pas le câliner, je bande comme un taureau Mais, bon, laisse-moi ralentir, sortir et ramollir C'est horrible, mais faut pas t'endormir, j'reviens vite, promis, ce sera torride Tétine ! Où a-t-il foutu sa tétine ? Dans le noir, je tâtonne Dans l'espoir de pouvoir vite retourner visiter ta grotte Ça y est, j'l'ai trouvée, j'vais chantonner une berceuse Qu'il arrête de chatouiller nos tympans comme une perceuse You might also like Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Me voilà de retour, tu vas rougir des fesses J'adore te monter, pratiquons ce sport équestre Visons les cieux, oublions l'attraction terrestre C'n'est pas un coït, c'est une épopée céleste Bib'on ! Petit morveux, tu vas morfler Si t'arrêtes pas de faire des bras de fer avec Morphée J'en ai marre de devoir border Ce galopin qui quémande un câlin, mais quelle corvée Rendors-toi ou j't'abandonne au bord d'une autoroute Et t'iras bouder dans un grand dortoir Allez, fiston, bois ton biberon Et ne réveille pas ta sur ou je vide ton compte, au revoir Voilà... T'avais soif, mon doudou, hein ? Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Reprenons nos galipettes sous cette lumière tamisée J'veux t'entendre caqueter comme une galipette cendrée Papa, z'ai envie d'faire pipi ! Ils commencent à me les briser menues, ces petits, j'en peux plus Oui, là, j'comprends les familles qui pètent les plombs puis qui sentre-tuent J'ai laissé la porte entrouverte, pourtant, je me sens reclus Je n'peux pas leur faire de bisou, j'ai la gueule qui sent le cul Être parent, ça apaise et ça fortifie Mais, là, j'suis à deux doigts de commettre un infanticide Laissez-nous faire l'amour, c'est notre moment Pour papa et pour maman, copuler, c'est important Eh, baiser, quand on a des enfants, c'est pas toujours facile Faut des nerfs d'acier, être patient, pour pas finir à l'asile Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser</t>
+          <t>Ce soir, je souris bêtement, il était temps J'ai retiré tes sous-vêtements avec mes dents J'veux une aventure sans casse-tête et pas d'ceinture de chasteté J'aime bien quand t'écartes tes cuisses, que j'peux t'écarteler Tous nos reproches, s'il te plaît, gardons-les Baiser, c'est cool quand on veut s'faire pardonner C'est plus cochon quand on boit du Chardonnay On a descendu deux bouteilles qui nous ont cartonnés Allez, cambre-toi, tes courbes m'enchantent, la chambre est un sauna Entre toi et moi, c'est la fusion, faisons fondre nos draps J'vais p't-être sortir mon portable même si c'n'est pas raisonnable J'ai déjà commencé l'forage, quand on s'emboîte, c'est sauvage Fais résonner mon hautbois, fais-moi cracher comme un cobra T'imploses, t'es paralysée, fatalité, Mortal Kombat Pleurs de bébé Oh nooon... pfffffff.... Putain, fait chier ! Casse les couilles ! J'veux pas me retirer, j'suis bien au chaud, je voulais me vider avant de faire dodo Le sexe entrecoupé, moi, ça me fait bobo, j'peux pas le câliner, je bande comme un taureau Mais, bon, laisse-moi ralentir, sortir et ramollir C'est horrible, mais faut pas t'endormir, j'reviens vite, promis, ce sera torride Tétine ! Où a-t-il foutu sa tétine ? Dans le noir, je tâtonne Dans l'espoir de pouvoir vite retourner visiter ta grotte Ça y est, j'l'ai trouvée, j'vais chantonner une berceuse Qu'il arrête de chatouiller nos tympans comme une perceuse Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Me voilà de retour, tu vas rougir des fesses J'adore te monter, pratiquons ce sport équestre Visons les cieux, oublions l'attraction terrestre C'n'est pas un coït, c'est une épopée céleste Bib'on ! Petit morveux, tu vas morfler Si t'arrêtes pas de faire des bras de fer avec Morphée J'en ai marre de devoir border Ce galopin qui quémande un câlin, mais quelle corvée Rendors-toi ou j't'abandonne au bord d'une autoroute Et t'iras bouder dans un grand dortoir Allez, fiston, bois ton biberon Et ne réveille pas ta sur ou je vide ton compte, au revoir Voilà... T'avais soif, mon doudou, hein ? Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Reprenons nos galipettes sous cette lumière tamisée J'veux t'entendre caqueter comme une galipette cendrée Papa, z'ai envie d'faire pipi ! Ils commencent à me les briser menues, ces petits, j'en peux plus Oui, là, j'comprends les familles qui pètent les plombs puis qui sentre-tuent J'ai laissé la porte entrouverte, pourtant, je me sens reclus Je n'peux pas leur faire de bisou, j'ai la gueule qui sent le cul Être parent, ça apaise et ça fortifie Mais, là, j'suis à deux doigts de commettre un infanticide Laissez-nous faire l'amour, c'est notre moment Pour papa et pour maman, copuler, c'est important Eh, baiser, quand on a des enfants, c'est pas toujours facile Faut des nerfs d'acier, être patient, pour pas finir à l'asile Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J'm'endors plus vite le ventre plein et les bourses vides Cette nuit, je vais rêver, je suis à cours de weed Le ciel est dégagé, et La Grande Ourse brille J'me sens comme un niveau à bulle dans la vieille Tour de Pise Donc j'ferme les paupières, fonce à la vitesse de la lumière À bord d'un bateau-mouche tsé-tsé J'y fais la poussière, admire des poissons-lunes, des dodos et des chimères Tandis que j'pourfends des zombies et des sorcières avec mon sexe stressé Puis j'mets de belles fessées à mes fantasmes et mes pulsions Histoire de déstresser, j'gravis des pics de pollution Nocturne, enfile mon costume de Marchand de Sable Chevauche un tigre à dents de sabre et fume avec fierté J'tisse des toiles de maître, fist une étoile de mer Hérisse les poils d'un kiwi très sale évadé d'l'orifice d'un prêtre Ça y est, j'ai la main verte, je drague les insectes J'avale des bolées de lave avant de dévaler des vagues de vingt mètres Fell asleep in a car with a match in my hand Remember Elysee Montmartre? Well it happened again I was laughing with friends filling a flask full of gin Feeling like I was so silly for rapping to them when really my car had no passengers in Blacked out in a Twingo bashed out all its windows Bought a gallon of gas and stepped on it like- how fast does this thing go ? Deranged and could care less, Im just a stranger in Paris Drove to the Zenith clothed in some Kleenex with toiletry rolls arranged in a headdress Sleeping on me said that Im getting too old Now Im sleeping on them making a hit when they step in the road They say that Ive taken the ride but are they so sure Im the driver ? They say I was waiting outside- playing some, Earth, Wind, and You might also like Wondering how I got here I'm in a room much like My own feeling comfortable at first and then it got weird The living room outside of the room is from another house In another country that I used to live in '92 Stuck inside of a loop, and the nights enough time But I must find my ticket to make it across the city before I'm In a rough situation, that I must fear though it's unclear why I'm Suddenly at this station, with a couple of zombies chasing Armies pacing street adjacent to a riot, that's gone silent Fire in the sky Below's a man that's yelling violently I'm Portuguese and Scottish with his hands tied behind Inside his Honda Phillip Bailey wailing ba dee ya now why am in this. Dream, chaque nuit, j'deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel Mon esprit se déchaîne pendant que j'remue les orteils Dream, chaque nuit, je deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel J'bave sur l'oreiller en traquant démons et merveilles</t>
+          <t>J'm'endors plus vite le ventre plein et les bourses vides Cette nuit, je vais rêver, je suis à cours de weed Le ciel est dégagé, et La Grande Ourse brille J'me sens comme un niveau à bulle dans la vieille Tour de Pise Donc j'ferme les paupières, fonce à la vitesse de la lumière À bord d'un bateau-mouche tsé-tsé J'y fais la poussière, admire des poissons-lunes, des dodos et des chimères Tandis que j'pourfends des zombies et des sorcières avec mon sexe stressé Puis j'mets de belles fessées à mes fantasmes et mes pulsions Histoire de déstresser, j'gravis des pics de pollution Nocturne, enfile mon costume de Marchand de Sable Chevauche un tigre à dents de sabre et fume avec fierté J'tisse des toiles de maître, fist une étoile de mer Hérisse les poils d'un kiwi très sale évadé d'l'orifice d'un prêtre Ça y est, j'ai la main verte, je drague les insectes J'avale des bolées de lave avant de dévaler des vagues de vingt mètres Fell asleep in a car with a match in my hand Remember Elysee Montmartre? Well it happened again I was laughing with friends filling a flask full of gin Feeling like I was so silly for rapping to them when really my car had no passengers in Blacked out in a Twingo bashed out all its windows Bought a gallon of gas and stepped on it like- how fast does this thing go ? Deranged and could care less, Im just a stranger in Paris Drove to the Zenith clothed in some Kleenex with toiletry rolls arranged in a headdress Sleeping on me said that Im getting too old Now Im sleeping on them making a hit when they step in the road They say that Ive taken the ride but are they so sure Im the driver ? They say I was waiting outside- playing some, Earth, Wind, and Wondering how I got here I'm in a room much like My own feeling comfortable at first and then it got weird The living room outside of the room is from another house In another country that I used to live in '92 Stuck inside of a loop, and the nights enough time But I must find my ticket to make it across the city before I'm In a rough situation, that I must fear though it's unclear why I'm Suddenly at this station, with a couple of zombies chasing Armies pacing street adjacent to a riot, that's gone silent Fire in the sky Below's a man that's yelling violently I'm Portuguese and Scottish with his hands tied behind Inside his Honda Phillip Bailey wailing ba dee ya now why am in this. Dream, chaque nuit, j'deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel Mon esprit se déchaîne pendant que j'remue les orteils Dream, chaque nuit, je deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel J'bave sur l'oreiller en traquant démons et merveilles</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Figé sur un écran, ton regard a croisé le mien Choisir le lieu du premier rendez-vous voudrais-tu bien m'en laisser le soin ? J'te propose une idylle sans chichi ni bling-bling, en osmose en Sicile, faut qu'j'titille ton pistil Tant pis si j'te brusque, j'veux sculpter ton buste, tatouer ton visage d'ange sur mon prépuce J'ai pas un radis, mais j'connais l'physio' à l'entrée du paradis, non, j'te baratine pas Tu es ma Eve, je suis ton Wall-e t'es la belle Jasmine et moi Prince Ali J'ai pas l'permis mais on peut faire un rallye, on parlera culture en terrasse à Bali J't'invite dans mon terrier, ramène tes valises si l'on s'ennuie, on pourra fonder une famille Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds Je suis un poil immature, mais j'ai pris le bonheur en filature Tu m'as l'air d'une fille nature, vas-y, griffe mes épaules, grave ta signature J't'offrirai des tiques en guise de boucles d'oreilles Pour notre lune de miel, on s'enlacera nus sous un essaim d'abeilles au soleil Si tu préfères les bagues, j'deviendrai orthodontiste Hurlerai mon amour à en faire péter les VU-mètres J'irai cueillir des fleurs dans le jardin des délices Ornerai mon gland d'une rose en l'insérant dans mon urètre You might also like Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds-moi Je t'aime du bout des doigts Je t'en prie, réponds-moi On fera l'amour dans un coffre-fort cadenassé, largué depuis mon jet privé sans place assise Dans un sac de couchage au sommet d'un glacier en gémissant des psaumes sur l'autel d'une église Non, c'que j'dis n'est pas malsain, j't'ai dans la peau, tu vois c'est pas martien T'es ma Cruella, je suis ton dalmatien, réponds si t'es là, je m'appelle Sébastien Toi, toi, toi Je t'aime du bout des doigts Toi Je t'en prie, réponds-moi Je t'aime du bout des doigts Toi, je t'en.... T'es là ? Bah réponds !1</t>
+          <t>Figé sur un écran, ton regard a croisé le mien Choisir le lieu du premier rendez-vous voudrais-tu bien m'en laisser le soin ? J'te propose une idylle sans chichi ni bling-bling, en osmose en Sicile, faut qu'j'titille ton pistil Tant pis si j'te brusque, j'veux sculpter ton buste, tatouer ton visage d'ange sur mon prépuce J'ai pas un radis, mais j'connais l'physio' à l'entrée du paradis, non, j'te baratine pas Tu es ma Eve, je suis ton Wall-e t'es la belle Jasmine et moi Prince Ali J'ai pas l'permis mais on peut faire un rallye, on parlera culture en terrasse à Bali J't'invite dans mon terrier, ramène tes valises si l'on s'ennuie, on pourra fonder une famille Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds Je suis un poil immature, mais j'ai pris le bonheur en filature Tu m'as l'air d'une fille nature, vas-y, griffe mes épaules, grave ta signature J't'offrirai des tiques en guise de boucles d'oreilles Pour notre lune de miel, on s'enlacera nus sous un essaim d'abeilles au soleil Si tu préfères les bagues, j'deviendrai orthodontiste Hurlerai mon amour à en faire péter les VU-mètres J'irai cueillir des fleurs dans le jardin des délices Ornerai mon gland d'une rose en l'insérant dans mon urètre Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds-moi Je t'aime du bout des doigts Je t'en prie, réponds-moi On fera l'amour dans un coffre-fort cadenassé, largué depuis mon jet privé sans place assise Dans un sac de couchage au sommet d'un glacier en gémissant des psaumes sur l'autel d'une église Non, c'que j'dis n'est pas malsain, j't'ai dans la peau, tu vois c'est pas martien T'es ma Cruella, je suis ton dalmatien, réponds si t'es là, je m'appelle Sébastien Toi, toi, toi Je t'aime du bout des doigts Toi Je t'en prie, réponds-moi Je t'aime du bout des doigts Toi, je t'en.... T'es là ? Bah réponds !1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires T'as le sang chaud, t'es comme Popeye mais sans les épinards T'es moins crédible qu'un manchot faisant de l'air guitare Et quand tu tises de l'amer pinard, t'es tendu Finis par renifler les strings de ta mère vicelarde Merde, pourquoi tu parles à ton chien aphasique ? Tu fais d'la peine comme un marathonien asthmatique T'as pas trop d'répartie, t'es qu'un boloss aux pieds d'argile Et si tout ton corps s'éparpille, je t'enverrai au répare-pipe Tu la ramènes pas mal, mais t'es qu'un mec banal Tu rêves de Claire Chazal, préparant ton steak Charal Viens dans ma vieille cabane livrer une belle bataille Contre un austère chamane pratiquant le sexe nasal J'espère que tu percutes, tu passes inaperçu Même quand tu hurles comme une truie dans les rues du Caire nu Tout c'que tu dis est juste superflu Remplace ton stick à lèvres par un tube de super-glue Des images putrides fusent quand je rumine juste De la pure weed surgissant du pubis mûre De ma sublime muse, mes points de vue se multiplient Je deviens cubiste, use de cultissimes Émulsions oratoires à déguster sans bavoir Les bulles, c'est mon dada, moi, je sculpte un monde à part J'épluche les légumes à l'aide de mon vieux rasoir Sous la plante des pieds, j'ai des plumes, tu peux te rasseoir You might also like x3 Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires</t>
+          <t>Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires T'as le sang chaud, t'es comme Popeye mais sans les épinards T'es moins crédible qu'un manchot faisant de l'air guitare Et quand tu tises de l'amer pinard, t'es tendu Finis par renifler les strings de ta mère vicelarde Merde, pourquoi tu parles à ton chien aphasique ? Tu fais d'la peine comme un marathonien asthmatique T'as pas trop d'répartie, t'es qu'un boloss aux pieds d'argile Et si tout ton corps s'éparpille, je t'enverrai au répare-pipe Tu la ramènes pas mal, mais t'es qu'un mec banal Tu rêves de Claire Chazal, préparant ton steak Charal Viens dans ma vieille cabane livrer une belle bataille Contre un austère chamane pratiquant le sexe nasal J'espère que tu percutes, tu passes inaperçu Même quand tu hurles comme une truie dans les rues du Caire nu Tout c'que tu dis est juste superflu Remplace ton stick à lèvres par un tube de super-glue Des images putrides fusent quand je rumine juste De la pure weed surgissant du pubis mûre De ma sublime muse, mes points de vue se multiplient Je deviens cubiste, use de cultissimes Émulsions oratoires à déguster sans bavoir Les bulles, c'est mon dada, moi, je sculpte un monde à part J'épluche les légumes à l'aide de mon vieux rasoir Sous la plante des pieds, j'ai des plumes, tu peux te rasseoir x3 Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fallait pas la féconder, fallait racheter des capotes Mais tu t'es bien fait gronder et, dans deux jours, elle avorte T'es sorti picoler, tu viens de rentrer Elle te demande de la réconforter, là, faut pas rigoler C'est pas facile vu que t'es torché, faut pas rigoler T'as envie d'blaguer sur l'IVG, faut pas rigoler Tu sens l'émotion qui l'assaille, la tête posée sur son bassin Tu dis Tu veux qu'on l'garde dans un bocal ? Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé C'est le rôle de ta vie, le plan le plus cher du film Tu dois t'raser la tête pendant l'explosion d'un building T'as été pistonné mais, l'ciné, c'est ta passion Le réal' vient de crier Action !, faut pas rigoler Tu veux prouver qu't'es bon acteur, faut pas rigoler T'entends l'bruit du détonateur, faut pas rigoler T'as les sinus qui piquent, rien n'pouvait t'arriver de pire T'éternues sur l'objectif avant d'éclater de rire You might also like Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu t'es trompé d'étage à l'hôpital Tu te retrouves dans l'unité de soins palliatifs, c'est abominable T'entends des cris d'agonie que tu peux pas ignorer Tu croises la famille d'un malade, là, faut pas rigoler On dirait des cris de plaisir, faut pas rigoler T'as bédave avant de venir, faut pas rigoler Soudain, t'es pris d'empathie et, pour t'en sortir Tu te lâches et tu dis Moi aussi, j'veux d'la morphine Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu dansais dans la rave party, tu t'réveilles dans un cabanon Séquestré par un type sans répartie dont l'esprit vagabonde T'es isolé, terrorisé Donc t'essayes d'ironiser mais, là, faut pas rigoler Il a une voix ridicule, faut pas rigoler Il est trop petit son pull, faut pas rigoler Tout ça n'est pas si marrant mais, là, tu te rappelles Que, pendant la rave, t'as pris du gaz hilarant Quand t'as l'estomac noué, quand tu bois la tasse Le rire, c'est ta bouée, c'est ta carapace L'humour, faut bien l'avouer, peut sauver la face Mais, parfois, vaut mieux pas glousser, attendre que ça passe Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé</t>
+          <t>Fallait pas la féconder, fallait racheter des capotes Mais tu t'es bien fait gronder et, dans deux jours, elle avorte T'es sorti picoler, tu viens de rentrer Elle te demande de la réconforter, là, faut pas rigoler C'est pas facile vu que t'es torché, faut pas rigoler T'as envie d'blaguer sur l'IVG, faut pas rigoler Tu sens l'émotion qui l'assaille, la tête posée sur son bassin Tu dis Tu veux qu'on l'garde dans un bocal ? Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé C'est le rôle de ta vie, le plan le plus cher du film Tu dois t'raser la tête pendant l'explosion d'un building T'as été pistonné mais, l'ciné, c'est ta passion Le réal' vient de crier Action !, faut pas rigoler Tu veux prouver qu't'es bon acteur, faut pas rigoler T'entends l'bruit du détonateur, faut pas rigoler T'as les sinus qui piquent, rien n'pouvait t'arriver de pire T'éternues sur l'objectif avant d'éclater de rire Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu t'es trompé d'étage à l'hôpital Tu te retrouves dans l'unité de soins palliatifs, c'est abominable T'entends des cris d'agonie que tu peux pas ignorer Tu croises la famille d'un malade, là, faut pas rigoler On dirait des cris de plaisir, faut pas rigoler T'as bédave avant de venir, faut pas rigoler Soudain, t'es pris d'empathie et, pour t'en sortir Tu te lâches et tu dis Moi aussi, j'veux d'la morphine Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu dansais dans la rave party, tu t'réveilles dans un cabanon Séquestré par un type sans répartie dont l'esprit vagabonde T'es isolé, terrorisé Donc t'essayes d'ironiser mais, là, faut pas rigoler Il a une voix ridicule, faut pas rigoler Il est trop petit son pull, faut pas rigoler Tout ça n'est pas si marrant mais, là, tu te rappelles Que, pendant la rave, t'as pris du gaz hilarant Quand t'as l'estomac noué, quand tu bois la tasse Le rire, c'est ta bouée, c'est ta carapace L'humour, faut bien l'avouer, peut sauver la face Mais, parfois, vaut mieux pas glousser, attendre que ça passe Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED Tout schuss à la Schumi, j'veux la soupe, les brochettes et les sushis Elle voulait qu'j'la démonte j'ai ramené la boîte à outils Lame de scie circulaire en guise de frisbee J'ai l'âme d'un mogwai qui n'se nourrit qu'après minuit Doux dingue, j'bourlingue naviguant sur des eaux de boudin Médite, lévite puis disparais comme Robert-Houdin J'ai l'gourdin comme un gladiateur dans un gonzo amateur Autrichien inspiré des meilleurs péplums hollywoodiens Tel un zoukeur atteint d'épilepsie, j'viens me trémousser Tous les vagins sont jaloux d'ma main droite oui, j'me fais mousser J'ai fait des millions de vues, botté des milliers de culs Mais, dans les médias, je passe inaperçu comme un dragon de mer feuillu J'suis pas novice, mais je ne bosse pas comme un stakhanoviste En quête de memes et de gifs, je vide ma tête et les paquets de chips Je n'porte pas de slibard, mec, ça m'horripile Braguette ouverte zgeg en or qui brille You might also like TO BE RETRANSCRIBED</t>
+          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED Tout schuss à la Schumi, j'veux la soupe, les brochettes et les sushis Elle voulait qu'j'la démonte j'ai ramené la boîte à outils Lame de scie circulaire en guise de frisbee J'ai l'âme d'un mogwai qui n'se nourrit qu'après minuit Doux dingue, j'bourlingue naviguant sur des eaux de boudin Médite, lévite puis disparais comme Robert-Houdin J'ai l'gourdin comme un gladiateur dans un gonzo amateur Autrichien inspiré des meilleurs péplums hollywoodiens Tel un zoukeur atteint d'épilepsie, j'viens me trémousser Tous les vagins sont jaloux d'ma main droite oui, j'me fais mousser J'ai fait des millions de vues, botté des milliers de culs Mais, dans les médias, je passe inaperçu comme un dragon de mer feuillu J'suis pas novice, mais je ne bosse pas comme un stakhanoviste En quête de memes et de gifs, je vide ma tête et les paquets de chips Je n'porte pas de slibard, mec, ça m'horripile Braguette ouverte zgeg en or qui brille TO BE RETRANSCRIBED</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>- Hello. Last year, I came to London This year, I came back to London and I met a strange guy, a man with a beard Do you know him ? Do you know you ? - My name is Beardyman, yeah ! - And Beardyman knows how to beatbox ! No ? He told me, he told me he knew. How you do ? Oh, oh, oh, it's cool Wouw, I like it, oh, yo, yo I'm an overachiever like an opera diva And I live in ghost era over the feet of Godzilla You may think that I'm selfish but I bleed on my pages When I'm findin the verses that put light on your faces Meet me after midnight, drinkin' a first six-pack Beginnin' to zigzag, feel bad and freestyle Smile, speak and party, seein' butterflies Over beautiful boobies sweatin' hardly Steamin' in two minutes my self-esteem Swimmin' in a real dream, I laugh and scream ! I'm like a beaver. Where ? In the river Seine A kind of builder and a secret keeper damn ! Mad Seahorse, Beardyman, in LondonYou might also like</t>
+          <t>- Hello. Last year, I came to London This year, I came back to London and I met a strange guy, a man with a beard Do you know him ? Do you know you ? - My name is Beardyman, yeah ! - And Beardyman knows how to beatbox ! No ? He told me, he told me he knew. How you do ? Oh, oh, oh, it's cool Wouw, I like it, oh, yo, yo I'm an overachiever like an opera diva And I live in ghost era over the feet of Godzilla You may think that I'm selfish but I bleed on my pages When I'm findin the verses that put light on your faces Meet me after midnight, drinkin' a first six-pack Beginnin' to zigzag, feel bad and freestyle Smile, speak and party, seein' butterflies Over beautiful boobies sweatin' hardly Steamin' in two minutes my self-esteem Swimmin' in a real dream, I laugh and scream ! I'm like a beaver. Where ? In the river Seine A kind of builder and a secret keeper damn ! Mad Seahorse, Beardyman, in London</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'te scalpe avec un pin's rouillé, que veux-tu... J'dois m'fabriquer un blouson en cuir chevelu Quand j'écris, j'réfléchis jusqu'à c'que je sue J'humidifie des filles nues, toi, t'essuies des refus T'as trouvé refuge dans la résine de cannabis Tu fais mine d'être anarchiste, tu déprimes des dizaines D'érudits psychanalystes. Mes propos cathartiques Créent des cataclysmes recolle tes neurones à l'aide de patafix J't'écartèle en douceur, j'bois à toute heure C'qui fait le bonheur des plus grands soupeurs En bon YouTuber, j'ai de douteuses coutumes File-moi le code WiFi ou tu meurs J'touche la cime avec le bout d'ma pine Pendant que toute ta troupe tapine. J'gagne sur toute la ligne Lâme du Saïan Supa Crew m'anime Mon rap est beaucoup trop frais, coupe la clim' Prends-donc un bon p'tit rail en haut du Mont Sinaï Aociz s'occupe du sound-design Voilà qu'la faim m'tiraille, vite, faisons ripaille Comme Godefroy de Montmirail J'enduis mon corps de graisse d'oie et de venin, lèche-moi J'te remonte le moral et les bretelles, c'est un exploit J'repense à ma mère qui, chaque matin, m'disait Lève-toi Aujourd'hui, c'est ma fille qui me crie Papa, réveille-toi ! J'rêvasse dans une crevasse Ressasse le passé en attendant la fonte des glaces J'bois du sang d'jedi puis fais le grand écart Un pied sur le Pont Neuf, l'autre sur le Pont des Arts Avec les mots, je suis assez soigneux Je les fais tous briller avec mon flow soyeux À une époque, j'étais bien plus joyeux ça y est, j'parle comme un vieux Mais ne m'appelle pas Monsieur... appelle-moi Dieu You might also like Tout d'abord, je lève mon chapeau à tous ceux qui sont venus nous voir Nous, on a beau avoir le micro, c'est le public qui a le pouvoir Grâce à vous, on a le mojo, une bise aux femmes jeunes ou couguars Big up Dobar, tu gères les projos, sans toi, c'est vrai qu'il ferait tout noir Mettez de côté vos crises existentielles On a sacralisé nos voix pour qu'elles se glissent dans l'ciel Un maniement millimétré d'un tas de rimes sensuelles Une attitude inattendu tout comme un jouissement d'vieille Ha, ouais, eh oui, les mélodies fusent Inutile de braquer les satellites, les radios diffusent C'est juste un voyage astral, on n'passe pas par la NASA, non, j'n'ai pas fait d'étude C'est de l'or, c'beat, en orbite, je torpille Des idées morbides d'insomnies, dans un décor vide Je mordille des ovnis venus de Bosnie Têtes de Corky sous des bobs gris Si tu as compris, c'est que je t'expose C'est qu'on a sûrement pris la même dose Ouais, allez Hippo, on passe à autre chose Aociz, on t'les laisse, j'veux qu'ce public explose</t>
+          <t>J'te scalpe avec un pin's rouillé, que veux-tu... J'dois m'fabriquer un blouson en cuir chevelu Quand j'écris, j'réfléchis jusqu'à c'que je sue J'humidifie des filles nues, toi, t'essuies des refus T'as trouvé refuge dans la résine de cannabis Tu fais mine d'être anarchiste, tu déprimes des dizaines D'érudits psychanalystes. Mes propos cathartiques Créent des cataclysmes recolle tes neurones à l'aide de patafix J't'écartèle en douceur, j'bois à toute heure C'qui fait le bonheur des plus grands soupeurs En bon YouTuber, j'ai de douteuses coutumes File-moi le code WiFi ou tu meurs J'touche la cime avec le bout d'ma pine Pendant que toute ta troupe tapine. J'gagne sur toute la ligne Lâme du Saïan Supa Crew m'anime Mon rap est beaucoup trop frais, coupe la clim' Prends-donc un bon p'tit rail en haut du Mont Sinaï Aociz s'occupe du sound-design Voilà qu'la faim m'tiraille, vite, faisons ripaille Comme Godefroy de Montmirail J'enduis mon corps de graisse d'oie et de venin, lèche-moi J'te remonte le moral et les bretelles, c'est un exploit J'repense à ma mère qui, chaque matin, m'disait Lève-toi Aujourd'hui, c'est ma fille qui me crie Papa, réveille-toi ! J'rêvasse dans une crevasse Ressasse le passé en attendant la fonte des glaces J'bois du sang d'jedi puis fais le grand écart Un pied sur le Pont Neuf, l'autre sur le Pont des Arts Avec les mots, je suis assez soigneux Je les fais tous briller avec mon flow soyeux À une époque, j'étais bien plus joyeux ça y est, j'parle comme un vieux Mais ne m'appelle pas Monsieur... appelle-moi Dieu Tout d'abord, je lève mon chapeau à tous ceux qui sont venus nous voir Nous, on a beau avoir le micro, c'est le public qui a le pouvoir Grâce à vous, on a le mojo, une bise aux femmes jeunes ou couguars Big up Dobar, tu gères les projos, sans toi, c'est vrai qu'il ferait tout noir Mettez de côté vos crises existentielles On a sacralisé nos voix pour qu'elles se glissent dans l'ciel Un maniement millimétré d'un tas de rimes sensuelles Une attitude inattendu tout comme un jouissement d'vieille Ha, ouais, eh oui, les mélodies fusent Inutile de braquer les satellites, les radios diffusent C'est juste un voyage astral, on n'passe pas par la NASA, non, j'n'ai pas fait d'étude C'est de l'or, c'beat, en orbite, je torpille Des idées morbides d'insomnies, dans un décor vide Je mordille des ovnis venus de Bosnie Têtes de Corky sous des bobs gris Si tu as compris, c'est que je t'expose C'est qu'on a sûrement pris la même dose Ouais, allez Hippo, on passe à autre chose Aociz, on t'les laisse, j'veux qu'ce public explose</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Je zappe sur Spotify et j'les entends qui stagnent Ils s'prennent pour des lumières, j'les éclipse en freestyle C'est mieux qu'un body ride quand Hippocampe Fou slame Je rappe de folles tirades grandiloquentes où qu'j'aille Si j'étais pas papa, je serais rappeur full time Dans ma poubelle, des culs d'joints côtoient des couches sales Mon pire cauchemar, c'est qu'dans mes concerts la foule bâille Rien de tel que d'la cumbia pour vous dire good bye Ou plutôt hasta luego, del hueco sale fuego Duermo en el ataúd de mi abuelo Bueno huelo féo pero vuelo cuando sueño Si me caigo me despierto Solo me falta el cafecito No quiero cogerte despacito Emborrachate con mi letra, escucharme te da hipo Si tu n'es pas hispanophone, achète un dico' Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma You might also like Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala ... Le succès tarde mais j'ai de la patience, taffez les pas d'danse Nus dans la salle d'attente le rap sans moi, ça n'a pas d'sens Pour ne pas tenter le Diable, j'ken' les archanges blêmes dans les arcs-en-ciel J'fais pas dans la dentelle quand je balance à l'ancienne J'aime le bordel, trouver des concepts, corner les pages de mon carnet de bord Pas d'téléphone dans mes concerts ou j'vais tronquer des corps, faudra border les morts J'ai toujours voulu être le meilleur, le bonheur des autres me motive ou m'écure J'ai provoqué du dégoût, des rires ou des pleurs, envoyez-moi des photos, des piques ou des fleurs Non, je n'ai pas peur d'appuyer sur l'accélérateur, narguilé en bouche Tous les rappeurs pensaient qu'j'allais arriver en douce J'les ai vus tapiner, se faire enfiler sans rouspéter Terminer sur le banc d'touche à la première fausse couche Oui, je fais preuve de sévérité, t'es dépité depuis qu'j'ai débité Avec célérité quelques débilités, vu ta stupidité, faut te stériliser Tu manques d'humilité, de crédibilité, quand je varie le rythme, c'est illimité Ça, tu peux vérifier mais, surtout, mon petit, n'essaye pas d'imiter Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala</t>
+          <t>Je zappe sur Spotify et j'les entends qui stagnent Ils s'prennent pour des lumières, j'les éclipse en freestyle C'est mieux qu'un body ride quand Hippocampe Fou slame Je rappe de folles tirades grandiloquentes où qu'j'aille Si j'étais pas papa, je serais rappeur full time Dans ma poubelle, des culs d'joints côtoient des couches sales Mon pire cauchemar, c'est qu'dans mes concerts la foule bâille Rien de tel que d'la cumbia pour vous dire good bye Ou plutôt hasta luego, del hueco sale fuego Duermo en el ataúd de mi abuelo Bueno huelo féo pero vuelo cuando sueño Si me caigo me despierto Solo me falta el cafecito No quiero cogerte despacito Emborrachate con mi letra, escucharme te da hipo Si tu n'es pas hispanophone, achète un dico' Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala ... Le succès tarde mais j'ai de la patience, taffez les pas d'danse Nus dans la salle d'attente le rap sans moi, ça n'a pas d'sens Pour ne pas tenter le Diable, j'ken' les archanges blêmes dans les arcs-en-ciel J'fais pas dans la dentelle quand je balance à l'ancienne J'aime le bordel, trouver des concepts, corner les pages de mon carnet de bord Pas d'téléphone dans mes concerts ou j'vais tronquer des corps, faudra border les morts J'ai toujours voulu être le meilleur, le bonheur des autres me motive ou m'écure J'ai provoqué du dégoût, des rires ou des pleurs, envoyez-moi des photos, des piques ou des fleurs Non, je n'ai pas peur d'appuyer sur l'accélérateur, narguilé en bouche Tous les rappeurs pensaient qu'j'allais arriver en douce J'les ai vus tapiner, se faire enfiler sans rouspéter Terminer sur le banc d'touche à la première fausse couche Oui, je fais preuve de sévérité, t'es dépité depuis qu'j'ai débité Avec célérité quelques débilités, vu ta stupidité, faut te stériliser Tu manques d'humilité, de crédibilité, quand je varie le rythme, c'est illimité Ça, tu peux vérifier mais, surtout, mon petit, n'essaye pas d'imiter Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Toc-toc, devine qui frappe à la porte, devine qui rappe à n'importe Quelle heure, donne le meilleur d'lui-même à la prod' En mission comme Lara Croft, j'laisse courir les haters à la catastrophe V'là les strophes d'un player à la Kasparov Donc c'est échec et mat, j'ai checké mic et ramasse love N'encaisse pas d'chèque et maille pour je'er mes Nike usées, je sais qu'c'est bof Sans m'accuser de vexer Rohff, mon concept, c'est pas l'T.D.S.I Mon son tournera aussi, même sans customiser d'Golf Aux principes, tu cries Mazel Tov à chaque ligne Car, tel Hasselhoff, je sauve le rap de l'abîme, et j'ai étoffé la rime J'en n'ai pas trop fait pour qu'le trophée arrive Mais la p'tite voiture roule comme une Ferrari Rien à foutre, à mon avis, yo, si toute la ville s'écroule Mon véhicule, tout comme ma vie, est cool et roule vers l'avenir Rien à foutre de ton avis, yo, si t'es d'jà soûlé, fallait pas v'nir Si t'es d'jà sous l'eau, c'est qu't'as coulé à pique, genre Titanic, yo Je vends des hebdo' gratuits, des tubes de Fluocaril Pour brosser les crocs fragiles d'un agile ptérodactyle J'applaudis les otaries, j'horripile et traumatise Je pars quand les autres arrivent, t'es débile et trop naïf Ton rap est décoratif, c'est pas si péjoratif Pourtant, tous tes rots trahissent, une grave aérophagie En plus de ces maux gastriques, tu risques l'hémorragie J'l'ai vu à l'échographie, mais c'est psycho-somatique Mes lettres t'élèvent, dessèchent tes lèvres Déchaînent tes veines, démêlent les rennes, égrainent des rêves Mais qui est cet énergumène qui sème des vers Si vertueux dans la cervelle de ceux qu'il aime ? Tu n'es qu'un homo machiste au flow automatique et basique Pratique la tauromachie au zoo, drolatique et tragique Prend dix barres d'Ovomaltine boloss Zorro arrive et s'agite Comme un bonobo s'astique, photographie Barbie et ça gicleYou might also like</t>
+          <t>Toc-toc, devine qui frappe à la porte, devine qui rappe à n'importe Quelle heure, donne le meilleur d'lui-même à la prod' En mission comme Lara Croft, j'laisse courir les haters à la catastrophe V'là les strophes d'un player à la Kasparov Donc c'est échec et mat, j'ai checké mic et ramasse love N'encaisse pas d'chèque et maille pour je'er mes Nike usées, je sais qu'c'est bof Sans m'accuser de vexer Rohff, mon concept, c'est pas l'T.D.S.I Mon son tournera aussi, même sans customiser d'Golf Aux principes, tu cries Mazel Tov à chaque ligne Car, tel Hasselhoff, je sauve le rap de l'abîme, et j'ai étoffé la rime J'en n'ai pas trop fait pour qu'le trophée arrive Mais la p'tite voiture roule comme une Ferrari Rien à foutre, à mon avis, yo, si toute la ville s'écroule Mon véhicule, tout comme ma vie, est cool et roule vers l'avenir Rien à foutre de ton avis, yo, si t'es d'jà soûlé, fallait pas v'nir Si t'es d'jà sous l'eau, c'est qu't'as coulé à pique, genre Titanic, yo Je vends des hebdo' gratuits, des tubes de Fluocaril Pour brosser les crocs fragiles d'un agile ptérodactyle J'applaudis les otaries, j'horripile et traumatise Je pars quand les autres arrivent, t'es débile et trop naïf Ton rap est décoratif, c'est pas si péjoratif Pourtant, tous tes rots trahissent, une grave aérophagie En plus de ces maux gastriques, tu risques l'hémorragie J'l'ai vu à l'échographie, mais c'est psycho-somatique Mes lettres t'élèvent, dessèchent tes lèvres Déchaînent tes veines, démêlent les rennes, égrainent des rêves Mais qui est cet énergumène qui sème des vers Si vertueux dans la cervelle de ceux qu'il aime ? Tu n'es qu'un homo machiste au flow automatique et basique Pratique la tauromachie au zoo, drolatique et tragique Prend dix barres d'Ovomaltine boloss Zorro arrive et s'agite Comme un bonobo s'astique, photographie Barbie et ça gicle</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hippocampe Fou, c'est moi, tu peux m'appeler Hippo Sur scène, j'me mets à nu comme un sale exhibo' Tu m'as sûrement déjà vu mijotant sous mes draps Voyageant comme Dorothy, Alice ou Chihiro J'bois d'la Grim', fume des bédos Conte des histoires comme les frères Grimm ou Charles Perrault La plupart des backeurs sont des zéros Le mien chauffe les spectateurs et rappe avec brio, il s'appelle céo Allez viens, laisse de côté ton esprit cartésien Et tu verras comme on est bien quand on est plein d'entrain Ne te laisse pas enrôler par le quotidien Habille ta grisaille de pensées bariolées comme un tissu bolivien Petite piqûre de morphine pendant qu'le rap agonise Fantaisie et hip-hop ne sont pas antagonistes T'as l'air assez taré pour t'égarer dans nos accès D'finesse, gare aux excès d'vitesse d'Aociz On va griller les feux rouges sur l'autoroute Prie donc pour que tous tes chakras s'ouvrent quand on shoot Parie sur ma team les yeux fermés au Loto Foot Le bagage musical est trop lourd, faut le mettre en soute Le public est bouillant, il m'faut des gants d'cuisine Admirons le soleil couchant nus dans une grande piscine Le flow est trop rebondissant, j'suis un enfant d'Biggie J'bande limite quand j'les vilipende easy J'viens pour guérir l'épidémie de rimes débiles qui sévit Et, si j'faiblis, qu'on m'déshérite ou que j'périsse, je le mérite Mais, si j'relève le défi, que je résous quelques énigmes Qu'on érige des menhirs à la mémoire de mes délires Trêve de bavardages, oui, parfois, je rabâche Là, j'ai amorcé le démarrage, allez, on s'arrache Viens t'étaler sur des nuages pour y contempler Le ciel étoilé Le Petit Prince est notre allié On lui offrira des BN, on invitera Pégase Zeus et ses frères, et même Icare le téméraire Ouvre tes paupières, on va s'élever Entre ciel et mer, en clair, on va s'envoyer en l'air You might also like Jeune padawan venu mater Tu n'es pas de taille, te débats, tu n'as pas pieds Tu n'as pas l'étoffe, pas le coffre, tu l'as capté Retourne vite à l'école taffer, tu m'as lassé Dans les bals, dès que les catins crient Décalecatan, t'as la gaule, t'es démasqué Wakatépé baboune, j'vais décaper ta bouille Déballer mes tabous puis te balafrer J'aime les métaphores, toutes les gos et les gars forts Dans la foule, oui, je les mets d'accord J'suis pas là pour lever l'épée, décapiter les porcs Et puis laper le sang, alors Pas de faux débat, tu n'as pas de boules Et ta belle équipe, elle est kaput, tu piges ? J'ai volé vos âmes, je les connais toutes J'ai le cannabis et le bagou, tu kiffes ? J'vais tappâter, t'épater, te 'per-ta', vapoter ton pétard Taper ton code PIN, appeler ta copine, la choper dans des bars Deux, trois verres de pinard plus tard, à l'hôtel, en peignoir, peinard Je finis mon scénar' pendant que je me fais pomper l'dard, c'est dare J'te sens pas tout ouïe, ferme ta bouche pourrie Ou mets du désodorisant comme Nana Mouskouri Hippocampe Fou t'nourrit, pique-nique dans le maquis C'est l'unique homme à qui tous les misanthropes sourient</t>
+          <t>Hippocampe Fou, c'est moi, tu peux m'appeler Hippo Sur scène, j'me mets à nu comme un sale exhibo' Tu m'as sûrement déjà vu mijotant sous mes draps Voyageant comme Dorothy, Alice ou Chihiro J'bois d'la Grim', fume des bédos Conte des histoires comme les frères Grimm ou Charles Perrault La plupart des backeurs sont des zéros Le mien chauffe les spectateurs et rappe avec brio, il s'appelle céo Allez viens, laisse de côté ton esprit cartésien Et tu verras comme on est bien quand on est plein d'entrain Ne te laisse pas enrôler par le quotidien Habille ta grisaille de pensées bariolées comme un tissu bolivien Petite piqûre de morphine pendant qu'le rap agonise Fantaisie et hip-hop ne sont pas antagonistes T'as l'air assez taré pour t'égarer dans nos accès D'finesse, gare aux excès d'vitesse d'Aociz On va griller les feux rouges sur l'autoroute Prie donc pour que tous tes chakras s'ouvrent quand on shoot Parie sur ma team les yeux fermés au Loto Foot Le bagage musical est trop lourd, faut le mettre en soute Le public est bouillant, il m'faut des gants d'cuisine Admirons le soleil couchant nus dans une grande piscine Le flow est trop rebondissant, j'suis un enfant d'Biggie J'bande limite quand j'les vilipende easy J'viens pour guérir l'épidémie de rimes débiles qui sévit Et, si j'faiblis, qu'on m'déshérite ou que j'périsse, je le mérite Mais, si j'relève le défi, que je résous quelques énigmes Qu'on érige des menhirs à la mémoire de mes délires Trêve de bavardages, oui, parfois, je rabâche Là, j'ai amorcé le démarrage, allez, on s'arrache Viens t'étaler sur des nuages pour y contempler Le ciel étoilé Le Petit Prince est notre allié On lui offrira des BN, on invitera Pégase Zeus et ses frères, et même Icare le téméraire Ouvre tes paupières, on va s'élever Entre ciel et mer, en clair, on va s'envoyer en l'air Jeune padawan venu mater Tu n'es pas de taille, te débats, tu n'as pas pieds Tu n'as pas l'étoffe, pas le coffre, tu l'as capté Retourne vite à l'école taffer, tu m'as lassé Dans les bals, dès que les catins crient Décalecatan, t'as la gaule, t'es démasqué Wakatépé baboune, j'vais décaper ta bouille Déballer mes tabous puis te balafrer J'aime les métaphores, toutes les gos et les gars forts Dans la foule, oui, je les mets d'accord J'suis pas là pour lever l'épée, décapiter les porcs Et puis laper le sang, alors Pas de faux débat, tu n'as pas de boules Et ta belle équipe, elle est kaput, tu piges ? J'ai volé vos âmes, je les connais toutes J'ai le cannabis et le bagou, tu kiffes ? J'vais tappâter, t'épater, te 'per-ta', vapoter ton pétard Taper ton code PIN, appeler ta copine, la choper dans des bars Deux, trois verres de pinard plus tard, à l'hôtel, en peignoir, peinard Je finis mon scénar' pendant que je me fais pomper l'dard, c'est dare J'te sens pas tout ouïe, ferme ta bouche pourrie Ou mets du désodorisant comme Nana Mouskouri Hippocampe Fou t'nourrit, pique-nique dans le maquis C'est l'unique homme à qui tous les misanthropes sourient</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Je suis un piètre nécrophile sous terre, j'débande L'hiver, je chasse des hobbits en Nouvelle-Zélande C'est moi, le meilleur j'l'avoue volontairement Si j'm'envoie des fleurs, c'est pour ton enterrement Je vais te cribler de rubis, bang Dis à ta mère que j'aime pratiquer le cunni' Toi, t'es puni, te voilà privé de cubi Mon planning est chargé comme un Uzi, je l'étudie Me réveiller, être à la bourre, me dépêcher de faire l'amour Me déplacer à pas d'velours, redémarrer au quart de tour Puis, caché sous ma capuche, cavaler chez Bacchus Boire comme un trou, penser comme un phallus Épiler les cactus, dérider des anus Avant qu'il y ait du grabuge, j'appelle mon Chapus Pas dobédience, j'suis resté bloqué dans l'adolescence Chapeau l'artiste disent ceux qui aiment mon éloquence J'kiffe quand les mots dansent, j'exécute des couplets cultes avec aisance Tel un bourreau qui pleure de joie, un jour de taf sous la potence Qu'est-ce que t'en penses ?You might also like</t>
+          <t>Je suis un piètre nécrophile sous terre, j'débande L'hiver, je chasse des hobbits en Nouvelle-Zélande C'est moi, le meilleur j'l'avoue volontairement Si j'm'envoie des fleurs, c'est pour ton enterrement Je vais te cribler de rubis, bang Dis à ta mère que j'aime pratiquer le cunni' Toi, t'es puni, te voilà privé de cubi Mon planning est chargé comme un Uzi, je l'étudie Me réveiller, être à la bourre, me dépêcher de faire l'amour Me déplacer à pas d'velours, redémarrer au quart de tour Puis, caché sous ma capuche, cavaler chez Bacchus Boire comme un trou, penser comme un phallus Épiler les cactus, dérider des anus Avant qu'il y ait du grabuge, j'appelle mon Chapus Pas dobédience, j'suis resté bloqué dans l'adolescence Chapeau l'artiste disent ceux qui aiment mon éloquence J'kiffe quand les mots dansent, j'exécute des couplets cultes avec aisance Tel un bourreau qui pleure de joie, un jour de taf sous la potence Qu'est-ce que t'en penses ?</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'm'enferme dans ma chambre pour répéter mes chansons Y a comme une forte de gymnase dans mes chaussons J'suis expert en torsions rythmiques et linguistiques Donc ta castration sera pas chimique mais au torchon J'parle avec mon cur de lion, fuck les princes Jean J'réfléchis avant d'agir, j'ai plus vingt ans Gérer le rap et la vie d'famille, c'est éreintant En tout cas, j'attends l'feat AlkpoteFrancky Vincent Tes conseils, s'il te plaît, garde-les Ou j't'achèt un joli string en fil de fer barblé Marre de les voir marteler des phrases volatiles Dropper des blazes, allez leur dire d'arrêter d'remplir vos laterines On veut du fond, du flow, des fresques Ils parlent de four, de flouze, de fesses C'est le déluge, y a plus d'relief Moi, j'arrive en luge depuis l'Everest Ouais, j't'ai pris d'vitesse Wesh, c'est qui c'type Avec ses p'tits biceps qui dit c'qu'il pense Et qui reste si flex malgré la distance Parcourue depuis ses premières nuits blanches ? J'ai des tonnes de textes et de clips qui tranchent Ma chaîne YouTube est un multiplexe Malgré mon atélophobie et ma toute-puissance Ma vie est pleine de ratures et j'ai plus d'Tipp-ExYou might also like</t>
+          <t>J'm'enferme dans ma chambre pour répéter mes chansons Y a comme une forte de gymnase dans mes chaussons J'suis expert en torsions rythmiques et linguistiques Donc ta castration sera pas chimique mais au torchon J'parle avec mon cur de lion, fuck les princes Jean J'réfléchis avant d'agir, j'ai plus vingt ans Gérer le rap et la vie d'famille, c'est éreintant En tout cas, j'attends l'feat AlkpoteFrancky Vincent Tes conseils, s'il te plaît, garde-les Ou j't'achèt un joli string en fil de fer barblé Marre de les voir marteler des phrases volatiles Dropper des blazes, allez leur dire d'arrêter d'remplir vos laterines On veut du fond, du flow, des fresques Ils parlent de four, de flouze, de fesses C'est le déluge, y a plus d'relief Moi, j'arrive en luge depuis l'Everest Ouais, j't'ai pris d'vitesse Wesh, c'est qui c'type Avec ses p'tits biceps qui dit c'qu'il pense Et qui reste si flex malgré la distance Parcourue depuis ses premières nuits blanches ? J'ai des tonnes de textes et de clips qui tranchent Ma chaîne YouTube est un multiplexe Malgré mon atélophobie et ma toute-puissance Ma vie est pleine de ratures et j'ai plus d'Tipp-Ex</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>J'bats d'l'aile et déplace des montagnes comme un papillon Faire vibrer les gens, c'est mon taf bah ouais Un peu trop hardi, j'ai mon Stan Laurel Conseil fais pas grogner mon staff wouf C'est la crue, j'nage dans la crasse, brille dans la brume, droit comme un phare Ils foncent tête baissée dans l'impasse, j'suis sur la voie dix moins un quart Tolérant, je vous sème tous, j'prends mon pied sans qu'ça coûte un bras Recrudescence de nouvelles pousses, y a pas d'quoi en faire tout un plat C'est l'heure des millennials, j'suis grave à la bourre À chaque vidéo, je vide mes balls, oui, j'me fais l'amour Mon succès n'a pas d'échéance, j'peux pas tirer ma révérence J'aime trop kicker avec aisance, j'rappe que de l'osmium, bah ouais, c'est denseYou might also like</t>
+          <t>J'bats d'l'aile et déplace des montagnes comme un papillon Faire vibrer les gens, c'est mon taf bah ouais Un peu trop hardi, j'ai mon Stan Laurel Conseil fais pas grogner mon staff wouf C'est la crue, j'nage dans la crasse, brille dans la brume, droit comme un phare Ils foncent tête baissée dans l'impasse, j'suis sur la voie dix moins un quart Tolérant, je vous sème tous, j'prends mon pied sans qu'ça coûte un bras Recrudescence de nouvelles pousses, y a pas d'quoi en faire tout un plat C'est l'heure des millennials, j'suis grave à la bourre À chaque vidéo, je vide mes balls, oui, j'me fais l'amour Mon succès n'a pas d'échéance, j'peux pas tirer ma révérence J'aime trop kicker avec aisance, j'rappe que de l'osmium, bah ouais, c'est dense</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mon savoir-faire est au max, quoi qu'je fasse, ça va t'plaire N'importe quel beat chaud, je le kick, bro', ouais, je le savate, frère Ils paradent fiers dans leurs baraques chères, j'me balade vers des champs d'salades vertes Y en a d'la fraîche dans ma tabatière même grabataire, j'pourrais t'patater J'peux m'adapter, malaxer mon art brut, éjaculer des voies lactées Escalader à poils des monts abruptes, émasculr des rois sacrés Ils risquent pas de t'nivrer, ils manquent de panache et n'font qu'effriter d'la frappe à chier Moi, je cogite et je concocte des panacées tout en sculptant ma galatée Leurs toplines manquent de punch, leur sottise m'écure, j'écrivais comme eux quand tout l'monde appelait les Twix Raider J'vais marquer les années vingt comme Joséphine Baker en tirant la langue comme Einstein ou Mick Jagger Allez-y, lâchez-vous, arrêtez d'faire comme si On était tous frappés d'amnésie, ça m'dégoûteYou might also like</t>
+          <t>Mon savoir-faire est au max, quoi qu'je fasse, ça va t'plaire N'importe quel beat chaud, je le kick, bro', ouais, je le savate, frère Ils paradent fiers dans leurs baraques chères, j'me balade vers des champs d'salades vertes Y en a d'la fraîche dans ma tabatière même grabataire, j'pourrais t'patater J'peux m'adapter, malaxer mon art brut, éjaculer des voies lactées Escalader à poils des monts abruptes, émasculr des rois sacrés Ils risquent pas de t'nivrer, ils manquent de panache et n'font qu'effriter d'la frappe à chier Moi, je cogite et je concocte des panacées tout en sculptant ma galatée Leurs toplines manquent de punch, leur sottise m'écure, j'écrivais comme eux quand tout l'monde appelait les Twix Raider J'vais marquer les années vingt comme Joséphine Baker en tirant la langue comme Einstein ou Mick Jagger Allez-y, lâchez-vous, arrêtez d'faire comme si On était tous frappés d'amnésie, ça m'dégoûte</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Coquin Y'a d'la terre sur mon clavier, des chaussures sur le canapé D'la purée sur le sol, coquin T'as noyé mon téléphone dans la cuvette des chiottes J'ai les nerfs et tu rigoles, coquin T'as ouvert les tiroirs et déchiré mes papiers T'as vidé la boîté de mouchoirs, en gros, t'as mis le foutoir T'as renversé la poubelle, j'ai senti l'odeur J'vais t'appeler la tornade ou le cambrioleur T'as tout cassé dans la casa comme si des Yamakasi Venaient d'y ves-qui' toute une équipe de yakuzas J'aurais pas dû m'assoupir, mais faut dire que la nuit T'es pas du genre à dormir, coquin T'es le ouistiti qui squatte notre lit Qui nous griffe et nous met des p'tites claques T'es le voleur de sommeil et de temps Le réveil, la bombe à retardement, tic-tac Tu débordes de vie mais t'es grave dans l'abus Tu prends tes couches sales et tu hors de ma vue Pour toutes ces bêtises, tu vas pas tâter mon poing Soit j't'oublie sur un parking, soit j'te vends sur Le Bon Coin You might also like Coquin, coquin Coquin</t>
+          <t>Coquin Y'a d'la terre sur mon clavier, des chaussures sur le canapé D'la purée sur le sol, coquin T'as noyé mon téléphone dans la cuvette des chiottes J'ai les nerfs et tu rigoles, coquin T'as ouvert les tiroirs et déchiré mes papiers T'as vidé la boîté de mouchoirs, en gros, t'as mis le foutoir T'as renversé la poubelle, j'ai senti l'odeur J'vais t'appeler la tornade ou le cambrioleur T'as tout cassé dans la casa comme si des Yamakasi Venaient d'y ves-qui' toute une équipe de yakuzas J'aurais pas dû m'assoupir, mais faut dire que la nuit T'es pas du genre à dormir, coquin T'es le ouistiti qui squatte notre lit Qui nous griffe et nous met des p'tites claques T'es le voleur de sommeil et de temps Le réveil, la bombe à retardement, tic-tac Tu débordes de vie mais t'es grave dans l'abus Tu prends tes couches sales et tu hors de ma vue Pour toutes ces bêtises, tu vas pas tâter mon poing Soit j't'oublie sur un parking, soit j'te vends sur Le Bon Coin Coquin, coquin Coquin</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>J'ai pris le temps d'écouter vos raps, j'me rappelle juste que c'est pas du tout mémorable Rimes téléphonées, dring, flows photocopiés, zzt, onomatopées sur instrus démodables C'est irrévocable, je vous souhaite de finir riches et notables, vous l'serez toujours moins que ceux qui tirent vos câbles Soyez tout feu tout flamme, profitez-en avant que l'industrie vous crame Trop de business, peu de passion, moins de punchlines que de Kbis Vous voulez me mettre la pression, what? Concours d'apnée les abysses J'ai des pattes d'oie et des varices il est trop petit, certes, mais mon blaze est encore sur les affiches J'm'en fiche, je ne veux pas remplacer le calife le savoir est une arme et, dans ton cas, elle est factice J'suis le meilleur artisan de France, oui, j'en ai conscience en moi, j'ai suffisamment confiance Pour ne pas faire que de l'ego trip je suis fertile mais je dois préserver ma semence Faut qu'j'arrose des concepts pour que de bons textes éclosent Que tout l'monde se sente flex et cause de ma dextérité avant qu'ma grosse tête explose J'suis high dans la cabine comme un grutier, j'veux m'envoler, fais tourner la fusée Ça commence par du temps à tuer, ça finit dans Faites entrer l'accusé Gargarisme avec acte de barbarie, mi ratel, mi diable de Tasmanie J'ai pas d'disque d'or, pas d'Grammy, mais mes gosses me kiffent, ça m'ravitYou might also like</t>
+          <t>J'ai pris le temps d'écouter vos raps, j'me rappelle juste que c'est pas du tout mémorable Rimes téléphonées, dring, flows photocopiés, zzt, onomatopées sur instrus démodables C'est irrévocable, je vous souhaite de finir riches et notables, vous l'serez toujours moins que ceux qui tirent vos câbles Soyez tout feu tout flamme, profitez-en avant que l'industrie vous crame Trop de business, peu de passion, moins de punchlines que de Kbis Vous voulez me mettre la pression, what? Concours d'apnée les abysses J'ai des pattes d'oie et des varices il est trop petit, certes, mais mon blaze est encore sur les affiches J'm'en fiche, je ne veux pas remplacer le calife le savoir est une arme et, dans ton cas, elle est factice J'suis le meilleur artisan de France, oui, j'en ai conscience en moi, j'ai suffisamment confiance Pour ne pas faire que de l'ego trip je suis fertile mais je dois préserver ma semence Faut qu'j'arrose des concepts pour que de bons textes éclosent Que tout l'monde se sente flex et cause de ma dextérité avant qu'ma grosse tête explose J'suis high dans la cabine comme un grutier, j'veux m'envoler, fais tourner la fusée Ça commence par du temps à tuer, ça finit dans Faites entrer l'accusé Gargarisme avec acte de barbarie, mi ratel, mi diable de Tasmanie J'ai pas d'disque d'or, pas d'Grammy, mais mes gosses me kiffent, ça m'ravit</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>On m'demande souvent qui sont mes rappeurs préférés Va falloir t'accrocher, petit, les blazes vont déferler Slick Rick, KRS, Kane Busta, ODB, Sticky, Biggie, Redman Lauryn, Missy, Shady, Luda, Pusha, Doom and Wayne Dizzy, , Skepta, Stormzy, Leshurr, Weezy, Dave IAM, Solaar, Kery, Gueko, Youss, Médine, Orelsan Féfé, Leeroy, JJ, Caba, Nemir, Bigo, Nek et Phall Nas, Black Thought, R.A., J.Cole, Dicky, Doja, Mack Dany, Ill, Befa, , Lefa, Gaël, Kacem et Népal Oxmo, Greg Frite, R.wan Fuzati, Grems, Souffrance et Luv Resval Rakim, GZA, Jigga, L, Pun, Tech N9ne Tyler, Jidenna, , Joyner, J'ajoute Q-Tip, B-Real, Kim, Gab X, Nicky, Mac Miller, Staples, .Paak , , Chip Fu, , Kenny, , Token, A-F-R-O, You might also like1</t>
+          <t>On m'demande souvent qui sont mes rappeurs préférés Va falloir t'accrocher, petit, les blazes vont déferler Slick Rick, KRS, Kane Busta, ODB, Sticky, Biggie, Redman Lauryn, Missy, Shady, Luda, Pusha, Doom and Wayne Dizzy, , Skepta, Stormzy, Leshurr, Weezy, Dave IAM, Solaar, Kery, Gueko, Youss, Médine, Orelsan Féfé, Leeroy, JJ, Caba, Nemir, Bigo, Nek et Phall Nas, Black Thought, R.A., J.Cole, Dicky, Doja, Mack Dany, Ill, Befa, , Lefa, Gaël, Kacem et Népal Oxmo, Greg Frite, R.wan Fuzati, Grems, Souffrance et Luv Resval Rakim, GZA, Jigga, L, Pun, Tech N9ne Tyler, Jidenna, , Joyner, J'ajoute Q-Tip, B-Real, Kim, Gab X, Nicky, Mac Miller, Staples, .Paak , , Chip Fu, , Kenny, , Token, A-F-R-O, 1</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M'appelle pas frère, ça va finir comme les Gallagher J'vais t'envoyer valser plus loin que la sonde Voyager Tu parles mal, tu joues les stars, tu joues les bagarreurs Mais y'a personne qui croit en toi, même pas ton manager J'arrive éclaté avec le visage écarlate mais J'touche pas à la C, j'veux pas finir comme Pierre Palmade, ouais Un peu d'ego, de name dropping, ça fait pas d'mal J'manie les mots comme Lubezki mani sa cam' J'essaye d'attiser ls foules sans m'en attirer les foudres Ravir les esgourdes en exorcisant mes jnouns J'suis qu'un fêlé du bocal, un vieil évadé d'Arkham Un pyromane amoureux venu déclarer sa flamme J'n'ai pas que des pratiques sales, mes rimes guérissent grave Par télépathie, j'accepte le cash et les cartes vitales Oui, je débite au calme des répliques sans faille, et l'équipe s'emballe Hippo, le chic type ou le pitre creepy qui t'empaleYou might also like</t>
+          <t>M'appelle pas frère, ça va finir comme les Gallagher J'vais t'envoyer valser plus loin que la sonde Voyager Tu parles mal, tu joues les stars, tu joues les bagarreurs Mais y'a personne qui croit en toi, même pas ton manager J'arrive éclaté avec le visage écarlate mais J'touche pas à la C, j'veux pas finir comme Pierre Palmade, ouais Un peu d'ego, de name dropping, ça fait pas d'mal J'manie les mots comme Lubezki mani sa cam' J'essaye d'attiser ls foules sans m'en attirer les foudres Ravir les esgourdes en exorcisant mes jnouns J'suis qu'un fêlé du bocal, un vieil évadé d'Arkham Un pyromane amoureux venu déclarer sa flamme J'n'ai pas que des pratiques sales, mes rimes guérissent grave Par télépathie, j'accepte le cash et les cartes vitales Oui, je débite au calme des répliques sans faille, et l'équipe s'emballe Hippo, le chic type ou le pitre creepy qui t'empale</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hippocampe et Nas, yeah, yeah Are you ready now? Yeah Are you ready to rap? Yeah Okay, let's go Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Et yo, l'impact de mes balles vocales, lyricales Vous calme et recale vos stars locales de manière radicale J'ai déballé l'arsenal verbal, et m'installe Et les girls official ou les jaloux qui jactent finissent tous par chialer Tu crois t'échapper, mais j'ai déjà préparé Des bars et des carrés pour déclarer qu'la guerre a démarré T'as plus qu'à détaller sans détail ou totalement t'étaler Sur la dalle, on te taille et t'es die, et on crie même Boom, bomayé Pourquoi tu veux parier ? J'ai des balles dans le barillet Des paroles sur le papier, du people pour m'accompagner Où va l'b-boy hip-hop, cow-boy bebop ? Et l'copilote Hippo mérite qu'on l'complimente sans arrêt Toi, t'es ni bon ni top, t'as pas ta place dans mon iPod Nigaud, t'étonne plus qu'on rigole, ton niveau est plus qu'horrible T'es l'idiot dans mon story-board, le plus ancien historiquement Si Hippo a le flow qu'il t'manque, pour le prêter, il faut qu'il d'mande You might also like Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Je ne peux plus le taire, j'ai des photographies de ta grand-mère S'adonnant à une infinie partie de jambes en l'air En Amazonie sous une moustiquaire avec des mousquetaires et un zombie Portant l'armure du Sagittaire Mon colocataire en a fait des posters qu'il a vendu peu chers À la fin d'un concert de métal en plein air, te le dire me libère Le pire, c'est qu'à présent il erre dans des pays en guerre Et distribue aux militaires ces posters dépaysants Desserre les poings, même si cela t'énerve Essaye de faire le point ta mamie est célèbre Ça paye car ses acrobaties méconnues ont fait le tour du globe Des biographies sont parues et, si j'en crois les blogs Une adaptation pour le grand écran est en cours Sa tombe est une sombre attraction, j'y organise des séjours Mais on le trouvera ce vieux scélérat, il avalera trop de larves et des rats On le congèlera, la vengeance est un plat qu'on déguste froid</t>
+          <t>Hippocampe et Nas, yeah, yeah Are you ready now? Yeah Are you ready to rap? Yeah Okay, let's go Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Et yo, l'impact de mes balles vocales, lyricales Vous calme et recale vos stars locales de manière radicale J'ai déballé l'arsenal verbal, et m'installe Et les girls official ou les jaloux qui jactent finissent tous par chialer Tu crois t'échapper, mais j'ai déjà préparé Des bars et des carrés pour déclarer qu'la guerre a démarré T'as plus qu'à détaller sans détail ou totalement t'étaler Sur la dalle, on te taille et t'es die, et on crie même Boom, bomayé Pourquoi tu veux parier ? J'ai des balles dans le barillet Des paroles sur le papier, du people pour m'accompagner Où va l'b-boy hip-hop, cow-boy bebop ? Et l'copilote Hippo mérite qu'on l'complimente sans arrêt Toi, t'es ni bon ni top, t'as pas ta place dans mon iPod Nigaud, t'étonne plus qu'on rigole, ton niveau est plus qu'horrible T'es l'idiot dans mon story-board, le plus ancien historiquement Si Hippo a le flow qu'il t'manque, pour le prêter, il faut qu'il d'mande Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Je ne peux plus le taire, j'ai des photographies de ta grand-mère S'adonnant à une infinie partie de jambes en l'air En Amazonie sous une moustiquaire avec des mousquetaires et un zombie Portant l'armure du Sagittaire Mon colocataire en a fait des posters qu'il a vendu peu chers À la fin d'un concert de métal en plein air, te le dire me libère Le pire, c'est qu'à présent il erre dans des pays en guerre Et distribue aux militaires ces posters dépaysants Desserre les poings, même si cela t'énerve Essaye de faire le point ta mamie est célèbre Ça paye car ses acrobaties méconnues ont fait le tour du globe Des biographies sont parues et, si j'en crois les blogs Une adaptation pour le grand écran est en cours Sa tombe est une sombre attraction, j'y organise des séjours Mais on le trouvera ce vieux scélérat, il avalera trop de larves et des rats On le congèlera, la vengeance est un plat qu'on déguste froid</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tu veux des scoops ? Tu pourras pas m'en soutirer Arrête de fourrer ton nez partout, petit fourmilier Ne m'dis pas ton prénom, dans dix secondes, jl'aurai oublié En vrai, j't'écoute pas et j'te coupe, là, j'ai bsoin droupiller Javoue quen cmoment jmen fous, jme démotive Jveux pas faire des lives devant des foules demojis On mappelle Gonza depuis qujsuis p'tit comme Grégory Mais jfinirai pas comme le bras droit de Dame Eboshi Au chaud dans ma niche, jenvoie la pâtée, tous les jeunes aboient Jsuis sur YouTube depuis lépoque des buzz de Jon Lajoie Papa gaga, jprotège mes chiards du Père Fouettard Et de Baba Yaga, si quelqu'un les touche ratatata Pan, pan, jvise les pieds, là, faut danser le French cancan, tentends ? Jai une vie plan-plan, jfais pas semblant, jradote comme si javais cent ans Jen ai trente-sept, jfais des emplettes en pleine tempête, en fait Jmempâte, jmentête, jmens pas, jmens pt-être ? À toi dmener lenquête Jpeux pas tout dire mais jpeux dire tout, tout, tout, tout, tout Les gens se suivent sur les réseaux comme des gentils toutous À cause du Covid, on peut plus se faire de poutous-poutous Donc jfais lamour au cro-mi', deviens loco tchou-tchou, tchou-tchou Jnavigue dans le brouillard sans boussole ni sextant Je sais qula vie nest pas une droite mais un segment Je n'ferai jamais de sermon, jen fais le serment Ton cur et ton cerveau fonctionnent alors sers-t'en Malgré moi, jsuis devnu responsable Jpeins des tableaux, excelle, pourtant jsuis pas expert comptable Jveux pas qumes enfants crèvent la dalle au cur dune guerre mondiale Obligés de cultiver des champs de pierres tombales Mais jmaventure pas dans la géopolitique Jessaye dêtre singulier en restant prolifique Écoutez à vos risques et périls mes aphorismes très puérils Mes vers viennent des pommes du jardin des HespéridesYou might also like</t>
+          <t>Tu veux des scoops ? Tu pourras pas m'en soutirer Arrête de fourrer ton nez partout, petit fourmilier Ne m'dis pas ton prénom, dans dix secondes, jl'aurai oublié En vrai, j't'écoute pas et j'te coupe, là, j'ai bsoin droupiller Javoue quen cmoment jmen fous, jme démotive Jveux pas faire des lives devant des foules demojis On mappelle Gonza depuis qujsuis p'tit comme Grégory Mais jfinirai pas comme le bras droit de Dame Eboshi Au chaud dans ma niche, jenvoie la pâtée, tous les jeunes aboient Jsuis sur YouTube depuis lépoque des buzz de Jon Lajoie Papa gaga, jprotège mes chiards du Père Fouettard Et de Baba Yaga, si quelqu'un les touche ratatata Pan, pan, jvise les pieds, là, faut danser le French cancan, tentends ? Jai une vie plan-plan, jfais pas semblant, jradote comme si javais cent ans Jen ai trente-sept, jfais des emplettes en pleine tempête, en fait Jmempâte, jmentête, jmens pas, jmens pt-être ? À toi dmener lenquête Jpeux pas tout dire mais jpeux dire tout, tout, tout, tout, tout Les gens se suivent sur les réseaux comme des gentils toutous À cause du Covid, on peut plus se faire de poutous-poutous Donc jfais lamour au cro-mi', deviens loco tchou-tchou, tchou-tchou Jnavigue dans le brouillard sans boussole ni sextant Je sais qula vie nest pas une droite mais un segment Je n'ferai jamais de sermon, jen fais le serment Ton cur et ton cerveau fonctionnent alors sers-t'en Malgré moi, jsuis devnu responsable Jpeins des tableaux, excelle, pourtant jsuis pas expert comptable Jveux pas qumes enfants crèvent la dalle au cur dune guerre mondiale Obligés de cultiver des champs de pierres tombales Mais jmaventure pas dans la géopolitique Jessaye dêtre singulier en restant prolifique Écoutez à vos risques et périls mes aphorismes très puérils Mes vers viennent des pommes du jardin des Hespérides</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J'ai tiré les rideaux, brûlé de lencens Mis du son dansant et des bouteilles au frigo J'ai sorti l'huile de massage, non, je n'suis pas sage Elle n'est que de passage, il ne faut pas que je m'attache En revanche, j'aimerais l'attacher Bien nouer la corde, la coucher, la toucher La brouter, la mordre, la secouer, la fourrer La souiller, la tordre, la labourer, la torturer Sous ses airs de sainte nitouche Elle a déjà glissé un doigt dans sa bouche Elle le suçote, le mordille, puis tripote son beau cul J'me tape le torse comme un gorille tout en chuchotant des mots crus C'est la fournaise, j'ai la bouche sèche Ma verge raidit devant sa souplesse, elle est toute prête Eh, mais pourquoi ça s'arrête là ? Y'a un problème avec le net, j'crois Faut qu'j'me termine pour éviter lobsession Mais, là, ça bug terriblement, y'a plus de connexion Merde, c'est bloqué, j'ai beau double-cliquer Contrôle, alt, supprimer, l'image reste figée J'entends le bruit des talons de ma femme dans l'escalier Mon fils et ma fille sont avec elle en train de sesclaffer J'essaye d'éteindre l'ordi', c'putain d'écran reste allumé La porte d'entrée s'ouvre, là, j'me sens désabusé You might also like x2 Grillé Grillé Grillé Grillé Dans ce genre de moments où l'envie est trop forte Forcément, tu te dis Vais-je agir de la sorte ? Vais-je sortir ma bite ? L'endroit est-il propice ? Et j'dis quoi aux collègues ? Hé, j'reviens, faut qu'je pisse ? Pensais-tu vraiment passer inaperçu ? Dis-moi, pourquoi tu fais ça ? Est-ce ta femme qui t'a déçu ? Quoi ? Hein ? C'est ton moyen d'rester fidèle ? Tu fermes les yeux, tu t'imagines avec Gisèle Mais c'est un prénom d'vieille, ça, mais, bref, c'est pas ça l'propos Là, tu l'as tellement désirée, oui, ça t'rend barge, faut Absolument que t'ailles évacuer ce trop plein d'désir Et, peu importe l'endroit, il faut qu'tu t'fasses plaisir T'as pas pu retenir tes pulsions Résultat là, c'est la répulsion Dans le regard de l'autre en révulsion Hippo, tu t'es fait griller Dans les toilettes grillé sous ton survêt' grillé Sous ta couette, sur la moquette, dans ta chaussette grillé Le magazine grillé par la voisine grillé À cause des femmes, dans les réclam' ou bien les spams grillé Au restau grillé dans le métro grillé À la pêche, à la fraîche, à la crèche grillé Devant les flics grillé dans ta cellule grillé Devant le juge et sur la chaise électrique grillé x2 Grillé Grillé Grillé Grillé</t>
+          <t>J'ai tiré les rideaux, brûlé de lencens Mis du son dansant et des bouteilles au frigo J'ai sorti l'huile de massage, non, je n'suis pas sage Elle n'est que de passage, il ne faut pas que je m'attache En revanche, j'aimerais l'attacher Bien nouer la corde, la coucher, la toucher La brouter, la mordre, la secouer, la fourrer La souiller, la tordre, la labourer, la torturer Sous ses airs de sainte nitouche Elle a déjà glissé un doigt dans sa bouche Elle le suçote, le mordille, puis tripote son beau cul J'me tape le torse comme un gorille tout en chuchotant des mots crus C'est la fournaise, j'ai la bouche sèche Ma verge raidit devant sa souplesse, elle est toute prête Eh, mais pourquoi ça s'arrête là ? Y'a un problème avec le net, j'crois Faut qu'j'me termine pour éviter lobsession Mais, là, ça bug terriblement, y'a plus de connexion Merde, c'est bloqué, j'ai beau double-cliquer Contrôle, alt, supprimer, l'image reste figée J'entends le bruit des talons de ma femme dans l'escalier Mon fils et ma fille sont avec elle en train de sesclaffer J'essaye d'éteindre l'ordi', c'putain d'écran reste allumé La porte d'entrée s'ouvre, là, j'me sens désabusé x2 Grillé Grillé Grillé Grillé Dans ce genre de moments où l'envie est trop forte Forcément, tu te dis Vais-je agir de la sorte ? Vais-je sortir ma bite ? L'endroit est-il propice ? Et j'dis quoi aux collègues ? Hé, j'reviens, faut qu'je pisse ? Pensais-tu vraiment passer inaperçu ? Dis-moi, pourquoi tu fais ça ? Est-ce ta femme qui t'a déçu ? Quoi ? Hein ? C'est ton moyen d'rester fidèle ? Tu fermes les yeux, tu t'imagines avec Gisèle Mais c'est un prénom d'vieille, ça, mais, bref, c'est pas ça l'propos Là, tu l'as tellement désirée, oui, ça t'rend barge, faut Absolument que t'ailles évacuer ce trop plein d'désir Et, peu importe l'endroit, il faut qu'tu t'fasses plaisir T'as pas pu retenir tes pulsions Résultat là, c'est la répulsion Dans le regard de l'autre en révulsion Hippo, tu t'es fait griller Dans les toilettes grillé sous ton survêt' grillé Sous ta couette, sur la moquette, dans ta chaussette grillé Le magazine grillé par la voisine grillé À cause des femmes, dans les réclam' ou bien les spams grillé Au restau grillé dans le métro grillé À la pêche, à la fraîche, à la crèche grillé Devant les flics grillé dans ta cellule grillé Devant le juge et sur la chaise électrique grillé x2 Grillé Grillé Grillé Grillé</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J'compose ton numéro dans le métro d'ma ville En tapotant mon gland sur mon écran tactile L'ami, j'ai trop d'salive, mais les gencives abîmées La nuit, dès qu'je pose trois rimes, je vois les gens sanimer J'fous des coups d'boule aux Terminators Pousse des glouglous quand les foufounes m'appellent bouche-trou Je suis cool, tous mes ennemis m'adorent Cannibale bio, j'aime les sandwichs au végétarien Et j'couds des peluches en peau de bébé, remplies d'acariens MC d'âge canonique, j'atrophie ta logique Mon trophée l'hérésie fait chauffer la résine, résonner ma musique J'préfère avoir un succès d'estime Que faire l'équivalent en rap de Bienvenue chez les ch'tis Je sens le soufre et le safran, me coiffe avec ta brosse à dents Au bord du gouffre, je patiente et dame des tartes aux pommes d'Adam Gars, goûte à la pisse de l'apache, à la page Le DJ booste le beat et la basse, je les bouffe à l'arrache Oups, t'as la rage C'est pour la mise à mal qu'on est là, ici, y'a pas d'condé Tu dis qu'tu vas féconder nos raps, mais fais deux pas d'côté Attends, mon staff viens kicker sale comme un staphylocoque Et nos plumes aiguisées tranchent les flows qui puent le Stabilo boss Les humains, yo, Walter arrive, il est pas comme nous Te sort des phrasés triangulaires, un peu comme au Camp Nou On poste avec T.I.S, pas d'intérimaire Les vétérinaires sont armés jusqu'aux dents de l'Hippocampe Fou C'est pas les wacks qui font palpiter mon cardigan MC, avec le Walt' on va les piquer jusqu'au Vatican J'suis ni croyant ni pratiquant, j'attaque, j'suis un partisan Du Bon mot quand mon équipe est au mic, c'est des artisans C'est haut si on est posés avec ou sans boulaouane Et qu'on oscille en sillonnant, les fantaisies des Padawans J'donne pas d'énergie pour qu'mon phrasé parle aux wacks Et livrer mes rimes en go fast et les voir saisies par la douane You might also like Sur le cours, j'ai trop d'swagg caleçon à la Medvedev Gueule de G-Squad à fond, on dit que mon mécène, c'est Dave J'vous graille en deux-deux, comme les sandwichs SNCF Le corps d'la miss est bleu, ça fait un bail qu'j'essaye ses lèvres Ouais, c'est salement placé Surtout qu'c'était ta soeur, ta fille, qu'j'en sais ? Du coup, patience, n'en fais pas un plat Si j'extrais ses poumons et son placenta Sujet d'expérience, sois sympa, sois cool, laisse-toi aller J'aime le retour aux sources, soudain m'infiltrer dans ton palais Ils ont tous la frousse, surtout la peur de perdre T'as une équipe qui lose, j'ai une équipe qui bousille ta carrière J'préfère placer art devant 'celé' et plutôt qu' 'ensor' Et, si, le soir, j'sors gueuler appelez des renforts Faut qu'les gens cernent que dire les gens est une facilité Une belle façon d'me sentir supérieur en toute agilité J'rappe pour que dalle comme Dany Dan, oui, j'ai la dalle D'un cannibale, garde mon instinct animal comme Hannibal Et j'ai pas d'rimes amicales pour ton rap game à dix balles Juste une envie sévère de kicker comme une mygale c'est clair J'ai l'attirail pour la guerre, raison pour laquelle j'te mitraille Plus attiré par la paix, d'habitude, j'reviens radical J'ai l'attitude qu'il fallait pour ce freestyle, c'est un XXX Tout droit sorti d'Hill Valley et, comme le dirait l'ami Skyle Ecouter mon rap, c'est l'effet couteau pap' qui vise ta tête Voire le coupable disparaître, mec, c'est à coup sûr mémorable Ecouter mon rap, c'est voir l'oracle de la crise parfaite On économise pas d'craie, sans dec', les corps sont innombrables Sans vie probable, il paraît, quand j'apparais relie ton câble A ta grosse machine à rec et j'deviens presque inarrêtable On a tous compris la règle donc remettons les cartes sur table Si, aujourd'hui, c'est la guerre, naguère c'était inacceptable Demande à Walter et d'autres, ou à mon alter-ego Hippo, l'atmosphère est moribonde, c'est bien l'terme Yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Hé yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Dugary1</t>
+          <t>J'compose ton numéro dans le métro d'ma ville En tapotant mon gland sur mon écran tactile L'ami, j'ai trop d'salive, mais les gencives abîmées La nuit, dès qu'je pose trois rimes, je vois les gens sanimer J'fous des coups d'boule aux Terminators Pousse des glouglous quand les foufounes m'appellent bouche-trou Je suis cool, tous mes ennemis m'adorent Cannibale bio, j'aime les sandwichs au végétarien Et j'couds des peluches en peau de bébé, remplies d'acariens MC d'âge canonique, j'atrophie ta logique Mon trophée l'hérésie fait chauffer la résine, résonner ma musique J'préfère avoir un succès d'estime Que faire l'équivalent en rap de Bienvenue chez les ch'tis Je sens le soufre et le safran, me coiffe avec ta brosse à dents Au bord du gouffre, je patiente et dame des tartes aux pommes d'Adam Gars, goûte à la pisse de l'apache, à la page Le DJ booste le beat et la basse, je les bouffe à l'arrache Oups, t'as la rage C'est pour la mise à mal qu'on est là, ici, y'a pas d'condé Tu dis qu'tu vas féconder nos raps, mais fais deux pas d'côté Attends, mon staff viens kicker sale comme un staphylocoque Et nos plumes aiguisées tranchent les flows qui puent le Stabilo boss Les humains, yo, Walter arrive, il est pas comme nous Te sort des phrasés triangulaires, un peu comme au Camp Nou On poste avec T.I.S, pas d'intérimaire Les vétérinaires sont armés jusqu'aux dents de l'Hippocampe Fou C'est pas les wacks qui font palpiter mon cardigan MC, avec le Walt' on va les piquer jusqu'au Vatican J'suis ni croyant ni pratiquant, j'attaque, j'suis un partisan Du Bon mot quand mon équipe est au mic, c'est des artisans C'est haut si on est posés avec ou sans boulaouane Et qu'on oscille en sillonnant, les fantaisies des Padawans J'donne pas d'énergie pour qu'mon phrasé parle aux wacks Et livrer mes rimes en go fast et les voir saisies par la douane Sur le cours, j'ai trop d'swagg caleçon à la Medvedev Gueule de G-Squad à fond, on dit que mon mécène, c'est Dave J'vous graille en deux-deux, comme les sandwichs SNCF Le corps d'la miss est bleu, ça fait un bail qu'j'essaye ses lèvres Ouais, c'est salement placé Surtout qu'c'était ta soeur, ta fille, qu'j'en sais ? Du coup, patience, n'en fais pas un plat Si j'extrais ses poumons et son placenta Sujet d'expérience, sois sympa, sois cool, laisse-toi aller J'aime le retour aux sources, soudain m'infiltrer dans ton palais Ils ont tous la frousse, surtout la peur de perdre T'as une équipe qui lose, j'ai une équipe qui bousille ta carrière J'préfère placer art devant 'celé' et plutôt qu' 'ensor' Et, si, le soir, j'sors gueuler appelez des renforts Faut qu'les gens cernent que dire les gens est une facilité Une belle façon d'me sentir supérieur en toute agilité J'rappe pour que dalle comme Dany Dan, oui, j'ai la dalle D'un cannibale, garde mon instinct animal comme Hannibal Et j'ai pas d'rimes amicales pour ton rap game à dix balles Juste une envie sévère de kicker comme une mygale c'est clair J'ai l'attirail pour la guerre, raison pour laquelle j'te mitraille Plus attiré par la paix, d'habitude, j'reviens radical J'ai l'attitude qu'il fallait pour ce freestyle, c'est un XXX Tout droit sorti d'Hill Valley et, comme le dirait l'ami Skyle Ecouter mon rap, c'est l'effet couteau pap' qui vise ta tête Voire le coupable disparaître, mec, c'est à coup sûr mémorable Ecouter mon rap, c'est voir l'oracle de la crise parfaite On économise pas d'craie, sans dec', les corps sont innombrables Sans vie probable, il paraît, quand j'apparais relie ton câble A ta grosse machine à rec et j'deviens presque inarrêtable On a tous compris la règle donc remettons les cartes sur table Si, aujourd'hui, c'est la guerre, naguère c'était inacceptable Demande à Walter et d'autres, ou à mon alter-ego Hippo, l'atmosphère est moribonde, c'est bien l'terme Yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Hé yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Dugary1</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mesdames et messieurs, les passants, les enfants, même les plus pressés Ce n'est plus le moment de tracer, aussi, veuillez approcher Divertissant et saisissant, ce show vous est adressé Vous pouvez déjà sentir, sur vous, les poils se dresser C'est tout à fait normal si vous vous sentez oppressés Appréciez les spécimens, veillez à ne pas les stresser Si précieux ces phénomènes tout droit sortis du passé Sont du genre de ceux qu'on mets au cirque, on ne peut les classer Ils ne mangent pas, ne dorment pas, ne pensent pas comme vous et moi Analysez les mieux, lisez dans leurs yeux, ils causeront votre émoi Ils ignorent tout de la tendance Et quelques fois même, il se peut qu'ils s'en balancent Ils n'en ont pas l'air, mais ils savent que l'on pense À la potence pour eux sans importance Certains n'ont pas de portable, on dit qu'ils ne sont pas sortables Ne s'abreuvent pas que d'eau potable, d'où leur allure loin d'être impeccable Des créatures inquiétantes, imprudentes, aux murs intrigantes Ils n'ont pas le port d'arme, ils n'ont pas d'âme, pas d'lame Se crament et ne font pas d'rames Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Nous sommes des hip-hop freaks Faites place aux hip-hop freaks You might also like Appelle-moi Hip-Hop freak, j'suis même pas misogyne Oui, j'aime Mary Poppins, j'lâche des phases historiques Qui t'hypnotisent alors que j'parle pas d'flic Pas d'street, pas d'fric, mais de bad trip gastriques À Maastricth, j'articule quand je rappe vite Ultra réactif, j'hurle quand j'ai pas d'spliff T'es pas chiche de m'lâcher du bakchich pour acheter Du haschich, donc astique ma dick, ma 'sique magique rapplique Capiche ? Je pique-nique avec dix beatniks mystiques Qui se disent stricts et fans de Klapisch Éclipse les crispés, fait flipper les grizzlis En slip dans mes clips, je pratique le frisbee J'en ai marre des strings, des filles comme outils marketing Le rap un art festif, pas besoin d'artifice C'est déjà magnifique, juste un poil narcissique Si tout c'que tu kiffes, c'est la technique taffe à Darty, fils Car la forme sans le fond, c'est comme un porno sans le son Un zéro-six sans le nom, MC hors-norme dans ce monde Ma femme à barbe tape le foot avec des hommes troncs Du coup, ma caravane sent le foutre de ces pochtrons J'ai vaincu cent cyclopes, écrit vingt-huit encyclopédies Oui, je sais que Kim Jong Il cache un luisant micro-pénis Je suis un geek, un pitre, me tape un trip, t'invite À me découvrir dans un cirque, je suis un vilain freak Parait qu'je suis une curiosité, un extra-terrestre C'est vrai qu'j'ai du mal à cogiter, je cède à la paresse J'me compromets sans hésiter, mais j'avance plus que j'régresse Pas de rubrique pour moi au JT, c'est les savants qu'j'intéresse Montré du doigt, marqué au fer, touché au foie, cachet offert Tarif au choix, toujours trop cher, tu réponds quoi la gueule mée-fer' ? Donner d'la voix, ça, je sais faire, marcher au pas ? Je suis trop fier Telle est la loi, sache que mes frères partagent ma voix sans trop s'en faire Non, pas besoin d'aileron ni d'être trop grognon Nous faisons le dos rond mais foutons le boxon Viens boire notre potion, là, dans nos gros chaudrons Oui, nous sommes des laiderons mais rien ne nous corrompt x4 Freak out Les freaks, c'est chic</t>
+          <t>Mesdames et messieurs, les passants, les enfants, même les plus pressés Ce n'est plus le moment de tracer, aussi, veuillez approcher Divertissant et saisissant, ce show vous est adressé Vous pouvez déjà sentir, sur vous, les poils se dresser C'est tout à fait normal si vous vous sentez oppressés Appréciez les spécimens, veillez à ne pas les stresser Si précieux ces phénomènes tout droit sortis du passé Sont du genre de ceux qu'on mets au cirque, on ne peut les classer Ils ne mangent pas, ne dorment pas, ne pensent pas comme vous et moi Analysez les mieux, lisez dans leurs yeux, ils causeront votre émoi Ils ignorent tout de la tendance Et quelques fois même, il se peut qu'ils s'en balancent Ils n'en ont pas l'air, mais ils savent que l'on pense À la potence pour eux sans importance Certains n'ont pas de portable, on dit qu'ils ne sont pas sortables Ne s'abreuvent pas que d'eau potable, d'où leur allure loin d'être impeccable Des créatures inquiétantes, imprudentes, aux murs intrigantes Ils n'ont pas le port d'arme, ils n'ont pas d'âme, pas d'lame Se crament et ne font pas d'rames Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Appelle-moi Hip-Hop freak, j'suis même pas misogyne Oui, j'aime Mary Poppins, j'lâche des phases historiques Qui t'hypnotisent alors que j'parle pas d'flic Pas d'street, pas d'fric, mais de bad trip gastriques À Maastricth, j'articule quand je rappe vite Ultra réactif, j'hurle quand j'ai pas d'spliff T'es pas chiche de m'lâcher du bakchich pour acheter Du haschich, donc astique ma dick, ma 'sique magique rapplique Capiche ? Je pique-nique avec dix beatniks mystiques Qui se disent stricts et fans de Klapisch Éclipse les crispés, fait flipper les grizzlis En slip dans mes clips, je pratique le frisbee J'en ai marre des strings, des filles comme outils marketing Le rap un art festif, pas besoin d'artifice C'est déjà magnifique, juste un poil narcissique Si tout c'que tu kiffes, c'est la technique taffe à Darty, fils Car la forme sans le fond, c'est comme un porno sans le son Un zéro-six sans le nom, MC hors-norme dans ce monde Ma femme à barbe tape le foot avec des hommes troncs Du coup, ma caravane sent le foutre de ces pochtrons J'ai vaincu cent cyclopes, écrit vingt-huit encyclopédies Oui, je sais que Kim Jong Il cache un luisant micro-pénis Je suis un geek, un pitre, me tape un trip, t'invite À me découvrir dans un cirque, je suis un vilain freak Parait qu'je suis une curiosité, un extra-terrestre C'est vrai qu'j'ai du mal à cogiter, je cède à la paresse J'me compromets sans hésiter, mais j'avance plus que j'régresse Pas de rubrique pour moi au JT, c'est les savants qu'j'intéresse Montré du doigt, marqué au fer, touché au foie, cachet offert Tarif au choix, toujours trop cher, tu réponds quoi la gueule mée-fer' ? Donner d'la voix, ça, je sais faire, marcher au pas ? Je suis trop fier Telle est la loi, sache que mes frères partagent ma voix sans trop s'en faire Non, pas besoin d'aileron ni d'être trop grognon Nous faisons le dos rond mais foutons le boxon Viens boire notre potion, là, dans nos gros chaudrons Oui, nous sommes des laiderons mais rien ne nous corrompt x4 Freak out Les freaks, c'est chic</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>John Doe, pour les gadjis et les meufs aussi J'plane comme un spoutnik, scat comme un fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille Tu deviens croustillant, appelle-moi Raspoutine Je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils, des onomatopées Quelques mots syncopés, des beats assourdissants Dindon ou papa poule ? Dîne avec des babas cool Parfois, je rappe à Brooklyn, emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean J'me ballade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga Ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars bédav' des tons-car Ecris des haïkus, des cochonneries ou des mangas Des lopes-sa m'accostent, même en jogging coste-La Au Costes, à la Poste, j'suis la fucking re-sta J'ai capté la mode, gars, fais couler la vodka Fabriqué ton gobelet en recyclant ma pote-ca Trinque ou tringle, agrippe-toi, on grimpe Au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent Que, quand on déconne comme ça, ça décolle grave Tu m'as l'air bien palot, viens dans mon bungalow Déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses Et puis des Tsingtoa, c'est vital Je fais kiffer les demoiselles grivoises Tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle Celui qu'il fallait pour marquer l'histoire You might also like L'histoire de John Doe, quoi... 75ème Session Avec John Doe, John Doe AKA...</t>
+          <t>John Doe, pour les gadjis et les meufs aussi J'plane comme un spoutnik, scat comme un fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille Tu deviens croustillant, appelle-moi Raspoutine Je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils, des onomatopées Quelques mots syncopés, des beats assourdissants Dindon ou papa poule ? Dîne avec des babas cool Parfois, je rappe à Brooklyn, emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean J'me ballade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga Ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars bédav' des tons-car Ecris des haïkus, des cochonneries ou des mangas Des lopes-sa m'accostent, même en jogging coste-La Au Costes, à la Poste, j'suis la fucking re-sta J'ai capté la mode, gars, fais couler la vodka Fabriqué ton gobelet en recyclant ma pote-ca Trinque ou tringle, agrippe-toi, on grimpe Au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent Que, quand on déconne comme ça, ça décolle grave Tu m'as l'air bien palot, viens dans mon bungalow Déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses Et puis des Tsingtoa, c'est vital Je fais kiffer les demoiselles grivoises Tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle Celui qu'il fallait pour marquer l'histoire L'histoire de John Doe, quoi... 75ème Session Avec John Doe, John Doe AKA...</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Quand je ne trouve pas l'sommeil, j'écris des tas d'poèmes Dame des pâtes au sel mais malgré mon âme bohème J'ai une vie de gars moderne, chasse les femmes obscènes J'les emmène à l'hôtel dans une tractopelle Après un litre de pastis, j'plane comme Icare J'vais voir des filles courir avec des gros nibards Ou j'me déguise en policier, réquisitionne un corbillard Histoire de rouler vite sur une piste de karting J'l'avoue, j'délire tout seul J'n'ai aucun tabou, comme so crazy MC Freddy Gruesum Pour pitcher ma voix, pas besoin de bouffée d'hélium Relaxe-toi, glisse une boulette d'opium dans ton rectum Trop d'traces d'ADN sur ma doudoune canadienne Dont la poche interne est pleine de choucroute alsacienne Si j'te débecte, alerte les cops Mais sache qu'il n'y a qu'au Québec que j'aime caresser mes gosses Laisse-moi talk mon shit comme un damn fool Un champ d'caca, that's shampoo Mes blagues sur ta mom sont juste trop bad Appelle-moi OD, ma langue sur ta grosse chatte I'm making y'all mad J'suis trop amazing on tracks En plus, j'suis le maître des clashs Parce qu'mes vers sont fly, meteor man J'suis ci puis ça, Diddy puis Nas Nicki Minaj, Rafiki puis Scar Mon kush est trop violet Tous les rappers se font violer Parce que j'suis le troisième membre des intrépides Léo' Di Caprio en pleine chute libre Greatest of all time, appelle-moi Claude le GOAT Sexy chocolat, chevalier d'la TobleroneYou might also like</t>
+          <t>Quand je ne trouve pas l'sommeil, j'écris des tas d'poèmes Dame des pâtes au sel mais malgré mon âme bohème J'ai une vie de gars moderne, chasse les femmes obscènes J'les emmène à l'hôtel dans une tractopelle Après un litre de pastis, j'plane comme Icare J'vais voir des filles courir avec des gros nibards Ou j'me déguise en policier, réquisitionne un corbillard Histoire de rouler vite sur une piste de karting J'l'avoue, j'délire tout seul J'n'ai aucun tabou, comme so crazy MC Freddy Gruesum Pour pitcher ma voix, pas besoin de bouffée d'hélium Relaxe-toi, glisse une boulette d'opium dans ton rectum Trop d'traces d'ADN sur ma doudoune canadienne Dont la poche interne est pleine de choucroute alsacienne Si j'te débecte, alerte les cops Mais sache qu'il n'y a qu'au Québec que j'aime caresser mes gosses Laisse-moi talk mon shit comme un damn fool Un champ d'caca, that's shampoo Mes blagues sur ta mom sont juste trop bad Appelle-moi OD, ma langue sur ta grosse chatte I'm making y'all mad J'suis trop amazing on tracks En plus, j'suis le maître des clashs Parce qu'mes vers sont fly, meteor man J'suis ci puis ça, Diddy puis Nas Nicki Minaj, Rafiki puis Scar Mon kush est trop violet Tous les rappers se font violer Parce que j'suis le troisième membre des intrépides Léo' Di Caprio en pleine chute libre Greatest of all time, appelle-moi Claude le GOAT Sexy chocolat, chevalier d'la Toblerone</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>La baise le plus puissant des somnifères Allège les plus imposants pachydermes Apaise les conquérants, les solitaires Abrège les souffrances des papys tièdes C'est mon grand huit, mon point d'fuite Mon aspirine, les lendemains d'cuite Pour ne plus cogiter, j'ai besoin de ton doux fessier Il faut manger pour vivre et vivre pour baiserYou might also like</t>
+          <t>La baise le plus puissant des somnifères Allège les plus imposants pachydermes Apaise les conquérants, les solitaires Abrège les souffrances des papys tièdes C'est mon grand huit, mon point d'fuite Mon aspirine, les lendemains d'cuite Pour ne plus cogiter, j'ai besoin de ton doux fessier Il faut manger pour vivre et vivre pour baiser</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ce morceau s'adresse à... à celles et ceux qui ont déjà eu des... Des... des problèmes intimes, on va dire... Ça fait comme ça.. HM Laissent des taches de crème Qu'on vive à Megève Ou dans une HLM Tu souffres de saignements Mais t'hésites à aller voir ton pharmacien pour lui demander des renseignements Ça rend moins turbulent, c'est purulent Seuls des scatophiles pourraient trouver ça succulent C'est écurant, ça te rend apeuré À l'idée d'effleurer la zone irrité Trop à cran, en vacances chez tes beaux-parents Pour tuer le temps allongé sur le ventre, tu relis Maupassant Le rectum infecté, tu t'sens comme inspecté Ça gonfle, ça enfle, ça rend fou, c'est un brasier Ton anus est contracté, tu rêves d'une antre ombragée De poser ton arrière-train au point culminant d'un glacier Ça touche ceux qui lisent sur le trône Ceux qui mangent trop épicé Apple ou PC, bref, que tu sois SDF ou PDG Assis toute la journée sur un banc ou dans fauteuil en cuir, t'es gêné You might also like x2 Ça s'attrape dans une douche de camping, à la piscine Dans un sac de couchage contre un coussin, dans une orgie Entre les cuisses d'une créature divine ou dégueulasse Lors d'un conflit armé, dans une tranchée où s'empilent des cadavres Si t'es poissard, t'attraperas ça une semaine avant ton mariage Et pendant ta lune de miel, ça s'aggravera Fallait pas se frotter contre la lunette Des toilettes communes de cet hôtel crasseux Ça tracasse, ça dérange, ça moleste, ça gratte Ça t'agace, ça démange, ça t'obsède, ça gratte Ça t'fait transpirer, ça n'fait qu'empirer Donc autant t'tirer une balle dans la tempe tant qu't'y es Tu grognes, t'es grincheux, aigri ou chagriné Tu pourrais poser tes parties intimes sur un grill mais Y'a rien à faire, dans ta culotte ou ton slip, ça macère Que tu vives dans une roulotte ou dans un palace, fier x2 T'as beau être exhibo, quand tu mets ta crème Au milieu de l'après-m', il vaut mieux tirer les rideaux Comme pour la xénophobie et les psychoses Aucun de nous n'est à l'abri des hémorroïdes et des mycoses Faire l'apologie de ces maux horribles, c'est pas romantique Et limite arrogant envers ces zones endolories De différents coloris qui n'épargnent ni les écologistes Ni les diplômés en économie... x2 Chez les hippocampes, c'est le mâle qui porte les oeufs</t>
+          <t>Ce morceau s'adresse à... à celles et ceux qui ont déjà eu des... Des... des problèmes intimes, on va dire... Ça fait comme ça.. HM Laissent des taches de crème Qu'on vive à Megève Ou dans une HLM Tu souffres de saignements Mais t'hésites à aller voir ton pharmacien pour lui demander des renseignements Ça rend moins turbulent, c'est purulent Seuls des scatophiles pourraient trouver ça succulent C'est écurant, ça te rend apeuré À l'idée d'effleurer la zone irrité Trop à cran, en vacances chez tes beaux-parents Pour tuer le temps allongé sur le ventre, tu relis Maupassant Le rectum infecté, tu t'sens comme inspecté Ça gonfle, ça enfle, ça rend fou, c'est un brasier Ton anus est contracté, tu rêves d'une antre ombragée De poser ton arrière-train au point culminant d'un glacier Ça touche ceux qui lisent sur le trône Ceux qui mangent trop épicé Apple ou PC, bref, que tu sois SDF ou PDG Assis toute la journée sur un banc ou dans fauteuil en cuir, t'es gêné x2 Ça s'attrape dans une douche de camping, à la piscine Dans un sac de couchage contre un coussin, dans une orgie Entre les cuisses d'une créature divine ou dégueulasse Lors d'un conflit armé, dans une tranchée où s'empilent des cadavres Si t'es poissard, t'attraperas ça une semaine avant ton mariage Et pendant ta lune de miel, ça s'aggravera Fallait pas se frotter contre la lunette Des toilettes communes de cet hôtel crasseux Ça tracasse, ça dérange, ça moleste, ça gratte Ça t'agace, ça démange, ça t'obsède, ça gratte Ça t'fait transpirer, ça n'fait qu'empirer Donc autant t'tirer une balle dans la tempe tant qu't'y es Tu grognes, t'es grincheux, aigri ou chagriné Tu pourrais poser tes parties intimes sur un grill mais Y'a rien à faire, dans ta culotte ou ton slip, ça macère Que tu vives dans une roulotte ou dans un palace, fier x2 T'as beau être exhibo, quand tu mets ta crème Au milieu de l'après-m', il vaut mieux tirer les rideaux Comme pour la xénophobie et les psychoses Aucun de nous n'est à l'abri des hémorroïdes et des mycoses Faire l'apologie de ces maux horribles, c'est pas romantique Et limite arrogant envers ces zones endolories De différents coloris qui n'épargnent ni les écologistes Ni les diplômés en économie... x2 Chez les hippocampes, c'est le mâle qui porte les oeufs</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Le cinéma, je m'y sens chez moi Je ne pourrais pas vivre sans me glisser dans ses draps J'aime m'y réfugier quand dehors il fait froid Même dans les salles délabrées où s'abritent des rats Un frisson me parcourt, quand la lumière se baisse Je savoure chaque plan comme une paire de fesses Je peux presque palper notre excitation Quand nous habillons le silence de nos respirations Des géants crèvent l'écran, éveillent les rêves des gens Émerveillent même les grands, énervent, ou déstressent En essayant de ne pas faire semblant De s'amuser sérieusement comme le font les enfants C'est un art cathartique inouï qui Choque, divertit, ébouriffe ou ravit, fait sourire ou souffrir Toutes ces histoires à dormir assis Nous en mettent plein la vue et l'ouïe Des personnages de Jarmush aux images de Bilge Ceylan Du rire d'Amadeus aux punchlines de Blier Les bons films sont rares, s'apprécient comme des cadeaux Il m'est arrivé d'avaler des soupes de navets spatiaux Qui n'ont pas étanché ma soif, ébranlé ma passion L'écran est ma glace donc Mon esprit comme guidé par l'orgasme M'a suggéré d'écrire cet hymne au cinématographe You might also like J'ai fait du parapente en me jetant du Paramount Oublié mes 20 ans sous les projecteurs de la Fox J'ai même invité Totoro à dormir dans un château rose Lui ai fait faire son rototo, on était en parfaite osmose Parfois du D de DreamWorks, je me jette à l'eau Pour mieux grimper au sommet de l'antenne de la RKO Quand sauvagement le lion de la MGM rugit Dans ma tête, des fragments de lives de NTM surgissent On a pendu Laurel et Hardy pour quelques dollars de plus J'ai retrouvé la corde planquée sous une arche russe Les fils de l'homme qui rétrécit ont rejoint le septième continent C'est irréversible Sadako a mis du gloss et accourt Vers son petit amant Nosferatu La sorcière du pays d'Oz est jalouse Fond en larmes et son mari Voldemor fait la roue Saviez-vous que, suite à un raz de marée Des crocodiles zombies dorment Au pied d'un monolithe sur la montagne sacrée Tandis qu'un vieux droïde androgyne parcourt une plage de naturiste ? Quand j'rembobine cet art utile, des pages d'images jaillissent J'vois les gants de Gilda sur le pont de Dogville, piétiné par Godzilla La hache de Jack Torrance dans les mains d'un Joker hostile Pas besoin des joints de Jeff Lebowski Au ciné, y'a trop d'miracles Plaisir familial ou solitaire À la croisée du réel et de l'imaginaire Même le quotidien y paraît extraordinaire Et, quand on choisit bien la salle, l'entrée n'est pas si chère Alors oubliez les forums sur internet Venez faire vibrer les murs de toutes ces salles désertes Savourer les jump cuts, les travellings compensés Les invraisemblances cohérentes, la vie condensée Dévorer du regard des faces de cake Dévaler quatre à quatre les escaliers sales de Rec Croiser Lars von Trier, j'suis trop fan de c'mec J'pourrais lui offrir un manteau en peau d'âne de Shrek 2</t>
+          <t>Le cinéma, je m'y sens chez moi Je ne pourrais pas vivre sans me glisser dans ses draps J'aime m'y réfugier quand dehors il fait froid Même dans les salles délabrées où s'abritent des rats Un frisson me parcourt, quand la lumière se baisse Je savoure chaque plan comme une paire de fesses Je peux presque palper notre excitation Quand nous habillons le silence de nos respirations Des géants crèvent l'écran, éveillent les rêves des gens Émerveillent même les grands, énervent, ou déstressent En essayant de ne pas faire semblant De s'amuser sérieusement comme le font les enfants C'est un art cathartique inouï qui Choque, divertit, ébouriffe ou ravit, fait sourire ou souffrir Toutes ces histoires à dormir assis Nous en mettent plein la vue et l'ouïe Des personnages de Jarmush aux images de Bilge Ceylan Du rire d'Amadeus aux punchlines de Blier Les bons films sont rares, s'apprécient comme des cadeaux Il m'est arrivé d'avaler des soupes de navets spatiaux Qui n'ont pas étanché ma soif, ébranlé ma passion L'écran est ma glace donc Mon esprit comme guidé par l'orgasme M'a suggéré d'écrire cet hymne au cinématographe J'ai fait du parapente en me jetant du Paramount Oublié mes 20 ans sous les projecteurs de la Fox J'ai même invité Totoro à dormir dans un château rose Lui ai fait faire son rototo, on était en parfaite osmose Parfois du D de DreamWorks, je me jette à l'eau Pour mieux grimper au sommet de l'antenne de la RKO Quand sauvagement le lion de la MGM rugit Dans ma tête, des fragments de lives de NTM surgissent On a pendu Laurel et Hardy pour quelques dollars de plus J'ai retrouvé la corde planquée sous une arche russe Les fils de l'homme qui rétrécit ont rejoint le septième continent C'est irréversible Sadako a mis du gloss et accourt Vers son petit amant Nosferatu La sorcière du pays d'Oz est jalouse Fond en larmes et son mari Voldemor fait la roue Saviez-vous que, suite à un raz de marée Des crocodiles zombies dorment Au pied d'un monolithe sur la montagne sacrée Tandis qu'un vieux droïde androgyne parcourt une plage de naturiste ? Quand j'rembobine cet art utile, des pages d'images jaillissent J'vois les gants de Gilda sur le pont de Dogville, piétiné par Godzilla La hache de Jack Torrance dans les mains d'un Joker hostile Pas besoin des joints de Jeff Lebowski Au ciné, y'a trop d'miracles Plaisir familial ou solitaire À la croisée du réel et de l'imaginaire Même le quotidien y paraît extraordinaire Et, quand on choisit bien la salle, l'entrée n'est pas si chère Alors oubliez les forums sur internet Venez faire vibrer les murs de toutes ces salles désertes Savourer les jump cuts, les travellings compensés Les invraisemblances cohérentes, la vie condensée Dévorer du regard des faces de cake Dévaler quatre à quatre les escaliers sales de Rec Croiser Lars von Trier, j'suis trop fan de c'mec J'pourrais lui offrir un manteau en peau d'âne de Shrek 2</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jai fini le taf, que veux-tu quje fasse ? Boire dans les bars avec mes collègues, enchaîner les pintes et les tequilas paf Profiter du coucher d'soleil tout en critiquant tous ceux qui magacent Shooter des zombies dans les salles darcades, faire du footing ou de lescalade Pour sculpter mon body puis chasser les pigeons avec une sarbacane pour finir en prison après une sale garde-à-v' Squatter les catacombes toute la night avec un verre dayahuasca Backer Biggie dans un open mic et le checker genre Hey yo, whassup? Crusher sur des actrices, les DM, recevoir des dick pics de CM Traîner sur le dark net et DL des photos dvacances dXDDL Appeler tous mes BFF, dépenser tous mes billets verts Voler une fusée Space X et terminer fly dans lISS Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Trouver de belles phrases et ne pas les noter, croiser une belle femme et ne pas laccoster Aller mégosiller dans un karaoké, demander pardon à ceux que jai ghostés Maventurer dans des musées, me faire passer pour un guide Pour embrumer les touristes en décortiquant, stick au bec, toutes ces toiles qui mintriguent Inviter ma sur à dîner à deux pas dune salle de ciné Puis digérer mon burger devant un film dhorreur dauteur ou bien le dernier blockbuster et vibrer Tracer voir mon papa, lécouter retracer toute la saga De notre famille, ces gens que jvois pas, jles appelle jamais, jle regrette parfois Rentrer chez moi maintenant, profiter de mes enfants Avant quils aillent vivre leurs vingt ans, que mon cur en ruine regrette louragan Passer faire un coucou à mes grands-parents, ma seconde maman Jeter les fleurs séchées, contempler le sol qui nous attend You might also like Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Que veux-tu quje fasse ? Que veux-tu quje fasse ? Jai fini le taf Que veux-tu quje fasse ?</t>
+          <t>Jai fini le taf, que veux-tu quje fasse ? Boire dans les bars avec mes collègues, enchaîner les pintes et les tequilas paf Profiter du coucher d'soleil tout en critiquant tous ceux qui magacent Shooter des zombies dans les salles darcades, faire du footing ou de lescalade Pour sculpter mon body puis chasser les pigeons avec une sarbacane pour finir en prison après une sale garde-à-v' Squatter les catacombes toute la night avec un verre dayahuasca Backer Biggie dans un open mic et le checker genre Hey yo, whassup? Crusher sur des actrices, les DM, recevoir des dick pics de CM Traîner sur le dark net et DL des photos dvacances dXDDL Appeler tous mes BFF, dépenser tous mes billets verts Voler une fusée Space X et terminer fly dans lISS Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Trouver de belles phrases et ne pas les noter, croiser une belle femme et ne pas laccoster Aller mégosiller dans un karaoké, demander pardon à ceux que jai ghostés Maventurer dans des musées, me faire passer pour un guide Pour embrumer les touristes en décortiquant, stick au bec, toutes ces toiles qui mintriguent Inviter ma sur à dîner à deux pas dune salle de ciné Puis digérer mon burger devant un film dhorreur dauteur ou bien le dernier blockbuster et vibrer Tracer voir mon papa, lécouter retracer toute la saga De notre famille, ces gens que jvois pas, jles appelle jamais, jle regrette parfois Rentrer chez moi maintenant, profiter de mes enfants Avant quils aillent vivre leurs vingt ans, que mon cur en ruine regrette louragan Passer faire un coucou à mes grands-parents, ma seconde maman Jeter les fleurs séchées, contempler le sol qui nous attend Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Que veux-tu quje fasse ? Que veux-tu quje fasse ? Jai fini le taf Que veux-tu quje fasse ?</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Examine mes pas, tu verras qucest pas clean Jme sens comme un gros amas dgélatine Sans amphétamine, jsuis trop flegmatique Jai bsoin de recharger mon sex-appeal Cest humiliant comme un coït quand tes mou du bout Jsuis comme un cul djatte dans un métro plein de gens debout Jsuis dans les temps mais la grâce nest pas au rendez-vous Je saurai danser quand les chauves auront des poux Jaime pas danser Jaime pas danser Sur la piste, trop passif, j patine Jaime pas danser Jaim pas danser Jaime pas mtromper Jaime pas danser Jveux mallonger Jai beau avoir le sens du rythme Mes mouvements sont désordonnés Je ne fais que saccager vos choré' Je naime pas bouger, cest un grand supplice Jai des pas trop bateaux, pas trop dabdos, pas chaud, pataud, jpatauge Alors que les ados démarrent comme des acrobates au galop Allô, allô, mayday, mayday, face aux badauds, jme sens comme un crapaud Crado, barjo, maso, jvais décéder, ciao You might also like Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue Appelle-moi Fred Hamster ou Mister Bean Kelly Le plus mauvais danseur de lhistoire de la bipédie Plus jmove mon body, plus jtombe dans le discrédit Même les chorégraphes bouddhistes frisent lhystérie Je me dépense, je me dépasse, je me déhanche, je me déplace Jaime lécho, jaime les basses, manque de pot, jmanque de classe Jai pas les bases, ça ne me tente pas, me détend pas, ça me lasse Mais dans la masse, je me démarque, quand je me plante, là, ça me les casse Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue1</t>
+          <t>Examine mes pas, tu verras qucest pas clean Jme sens comme un gros amas dgélatine Sans amphétamine, jsuis trop flegmatique Jai bsoin de recharger mon sex-appeal Cest humiliant comme un coït quand tes mou du bout Jsuis comme un cul djatte dans un métro plein de gens debout Jsuis dans les temps mais la grâce nest pas au rendez-vous Je saurai danser quand les chauves auront des poux Jaime pas danser Jaime pas danser Sur la piste, trop passif, j patine Jaime pas danser Jaim pas danser Jaime pas mtromper Jaime pas danser Jveux mallonger Jai beau avoir le sens du rythme Mes mouvements sont désordonnés Je ne fais que saccager vos choré' Je naime pas bouger, cest un grand supplice Jai des pas trop bateaux, pas trop dabdos, pas chaud, pataud, jpatauge Alors que les ados démarrent comme des acrobates au galop Allô, allô, mayday, mayday, face aux badauds, jme sens comme un crapaud Crado, barjo, maso, jvais décéder, ciao Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue Appelle-moi Fred Hamster ou Mister Bean Kelly Le plus mauvais danseur de lhistoire de la bipédie Plus jmove mon body, plus jtombe dans le discrédit Même les chorégraphes bouddhistes frisent lhystérie Je me dépense, je me dépasse, je me déhanche, je me déplace Jaime lécho, jaime les basses, manque de pot, jmanque de classe Jai pas les bases, ça ne me tente pas, me détend pas, ça me lasse Mais dans la masse, je me démarque, quand je me plante, là, ça me les casse Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue1</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J'ai peur, j'ai peur, j'ai peur J'ai peur, j'ai peur J'ai peur, j'ai peur Oui, j'ai peur De mourir à la guerre au mois d'août De marcher dans une crotte de mammouth De dormir sur une aire d'autoroute De cacher dans une grotte tous mes doutes J'ai peur des cours de cathé', d'attaquer pour du saké Des champions de karaté, d'avaler du sable De préparer ma purée de carottes, et d'oublier D'en donner à des gens détestables De la Dame Blanche déguisée en pervenche De passer mes dimanches entre quatre planches De me baigner dans La Manche, l'hiver, que l'on me tranche les veines Qu'une hôtesse de l'air sans hanche se penche sans peine J'ai peur de chatouiller un requin blanc, de me raser avec ses dents D'attendre patiemment devant en rédigeant mon testament D'être coulé dans le ciment, de faire parti d'un bâtiment Qu'on m'y retrouve dans dix milles ans et fasse de moi un monument J'ai peur J'ai peur J'ai peur J'ai peurYou might also like</t>
+          <t>J'ai peur, j'ai peur, j'ai peur J'ai peur, j'ai peur J'ai peur, j'ai peur Oui, j'ai peur De mourir à la guerre au mois d'août De marcher dans une crotte de mammouth De dormir sur une aire d'autoroute De cacher dans une grotte tous mes doutes J'ai peur des cours de cathé', d'attaquer pour du saké Des champions de karaté, d'avaler du sable De préparer ma purée de carottes, et d'oublier D'en donner à des gens détestables De la Dame Blanche déguisée en pervenche De passer mes dimanches entre quatre planches De me baigner dans La Manche, l'hiver, que l'on me tranche les veines Qu'une hôtesse de l'air sans hanche se penche sans peine J'ai peur de chatouiller un requin blanc, de me raser avec ses dents D'attendre patiemment devant en rédigeant mon testament D'être coulé dans le ciment, de faire parti d'un bâtiment Qu'on m'y retrouve dans dix milles ans et fasse de moi un monument J'ai peur J'ai peur J'ai peur J'ai peur</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ça y est, j'ai vu l'Atlantide, inattendu mais splendide J'vais pouvoir mourir tranquille, avec ou sans Valentine Mes mouvements sont ralentis comme si j'étais sous champi' J'vais finir couvert d'écailles avec les doigts palmés plus trois paires de branchies J'suis p't-être au paradis ou p't-être au fond du Styx J'suis moins frais que la poiscaille sur l'étal d'Ordralfabétix Quand j'expire, y'a plein d'eau, c'est vraiment pas pratique Ça m'sort par les naseaux comme si j'vivais en Papouasie oh J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'pux que remonter J'ai touché l fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond J'nage comme un triton, j'ai la face d'un vieux fripon, je n'ai pas pris de biberon et j'ai soif J'ai dû sombrer dans la démence, évidemment, je vais sonder les décombres et compter les poissons qui passent Faire le clown avec Nemo dans le Nautilus pendant que le colosse de Rhodes fait de la muscu' Puis j'irai prendre le thé dans les salons hantés du Titanic, bien que l'idée de croiser des noyés me tétanise J'voudrais me mettre la tête à l'envers, ça me semble être le bon endroit J'pourrais troquer mon âme contre une coupe de champagne, voire un tout p'tit verre de sang-froid Je serais même prêt à bouffer des anchois ou à m'faire téter par des lamproies J'ai des principes insubmersibles et ne suis que peu subversif, mais je n'ai plus la vie devant moi, non You might also like J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'peux que remonter J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai... touché le fond ?</t>
+          <t>Ça y est, j'ai vu l'Atlantide, inattendu mais splendide J'vais pouvoir mourir tranquille, avec ou sans Valentine Mes mouvements sont ralentis comme si j'étais sous champi' J'vais finir couvert d'écailles avec les doigts palmés plus trois paires de branchies J'suis p't-être au paradis ou p't-être au fond du Styx J'suis moins frais que la poiscaille sur l'étal d'Ordralfabétix Quand j'expire, y'a plein d'eau, c'est vraiment pas pratique Ça m'sort par les naseaux comme si j'vivais en Papouasie oh J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'pux que remonter J'ai touché l fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond J'nage comme un triton, j'ai la face d'un vieux fripon, je n'ai pas pris de biberon et j'ai soif J'ai dû sombrer dans la démence, évidemment, je vais sonder les décombres et compter les poissons qui passent Faire le clown avec Nemo dans le Nautilus pendant que le colosse de Rhodes fait de la muscu' Puis j'irai prendre le thé dans les salons hantés du Titanic, bien que l'idée de croiser des noyés me tétanise J'voudrais me mettre la tête à l'envers, ça me semble être le bon endroit J'pourrais troquer mon âme contre une coupe de champagne, voire un tout p'tit verre de sang-froid Je serais même prêt à bouffer des anchois ou à m'faire téter par des lamproies J'ai des principes insubmersibles et ne suis que peu subversif, mais je n'ai plus la vie devant moi, non J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'peux que remonter J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai... touché le fond ?</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Aussi loin que j'me souvienne, j'ai toujours rêvé d'être un gangster Déjà gamin, j'adorais lever les flingues en l'air J'élaborais des plans que je n'aurais jamais l'cran d'faire Donne-moi une arme, j'serai une main d'velours dans un gant d'fer J'voulais qu'on m'graisse la patte, traîner qu'avec la mauvaise graine d'la classe Et l'soir je m'endormais sur du gangsta rap J'ai toujours rêvé d'faire ma place Mais quand on m'a remis à la mienne, j'ai failli perdre la face Ouais, j'ai cru que j'avais l'profil J'ai dû regarder trop d'films, trop d'séries, trop d'clips Dans ma ville, y'a très peu d'gangsters et beaucoup trop d'flics J'ai compris que je n'ferais pas long feu à coup d'brolique Nan, faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas, ils ne rappent pas non plus Faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas... Pourtant, moi, j'aime bien discuter... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster Voilà le gangsta qui s'extasie en voyant Des peluches jaunes hocher la tête en fumant des Knackis Ouais, difficile de taffer dans l'illicite Quand on est un type timide, limite risible, en clair, un mec fragile Le crime paie peut-être mais j'préfère faire du spiritisme En espérant réveiller un spectre richissime Les chapeaux ça m'va pas, les billets j'trouve ça sale Quand y'a une bagarre dans la salle, j'suis planqué sous la table Quand j'bois de l'alcool, j'ai le hoquet Quand j'vois du sang, je m'évanouis J'ai déjà fini en garde à vue pour avoir volé deux kiwis Honte à moi, je n'ai jamais squatté le fond d'la classe Jamais touché d'armes à feu, ni de pic à glace J'suis couard, je n'ai ni bagouse, ni montre à quartz Il m'arrive de twerker quand j'écoute les Worlds Apart N'essaie pas de m'énerver, je n'connais pas la haine J'fais des bisous quand j'traine le soir chez Michou Appelle-moi La Marraine You might also like Tous à terre, c'est un hold-up Le rude boy arrive, met des balles à blanc dans l'glock J'ai toujours rêvé d'être un gangster Mais y'a qu'derrière l'anti-pop que j'mets en état d'choc Mon colt c'est du toc, pisse pas dans ton froc J'ai pas les épaules d'Al Capone, non, j'tiens pas vraiment l'alcool Chapeau haut-de-forme plissé, élaborer les traquenards Neuf milli dans le falzar... Non mais, Volo, tu rigoles ? J'aurais surement pas été un gangster doué Une vie de stress et de mensonge m'aurait vite soûlé D'la monnaie, d'la dope et des filles à souhait L'excès n'est pas mon truc et je n'ai rien à prouvé Même si... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster J'suis venu au monde avec une tête de boloss Mais j'ai toujours rêvé d'être un boss Tu vois mon gun ? Je te braque, je le pose Tu vois mon style ? C'est du crack, prends ta dose Petit, tu rêves encore de quoi ? De thunes encore, de quoi ? De lunettes en or pur, de grand cru encore, de quoi ? Aéroport encore, transport de pure de port en port C'est de pire en pire, réveille-toi, Cheeko, tu t'emportes Faire le casse parfait, qui ne l'a jamais voulu ? Le monde est trop petit pour un appétit goulu Mais j'ai jamais eu les couilles de tenir la crosse, ni la drogue Ni le stress atroce de finir dans une affaire non-résolue Donc j'révois mais rêves de grandeur à la baisse Merde, c'est l'jour du Seigneur... Flingue dans l'bouquet d'fleurs à la messe J'viens d'me réveiller, ferme ta gueule, me parle pas Quand tu m'parles de Soprano, j'pense Tony pas à M'baba3</t>
+          <t>Aussi loin que j'me souvienne, j'ai toujours rêvé d'être un gangster Déjà gamin, j'adorais lever les flingues en l'air J'élaborais des plans que je n'aurais jamais l'cran d'faire Donne-moi une arme, j'serai une main d'velours dans un gant d'fer J'voulais qu'on m'graisse la patte, traîner qu'avec la mauvaise graine d'la classe Et l'soir je m'endormais sur du gangsta rap J'ai toujours rêvé d'faire ma place Mais quand on m'a remis à la mienne, j'ai failli perdre la face Ouais, j'ai cru que j'avais l'profil J'ai dû regarder trop d'films, trop d'séries, trop d'clips Dans ma ville, y'a très peu d'gangsters et beaucoup trop d'flics J'ai compris que je n'ferais pas long feu à coup d'brolique Nan, faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas, ils ne rappent pas non plus Faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas... Pourtant, moi, j'aime bien discuter... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster Voilà le gangsta qui s'extasie en voyant Des peluches jaunes hocher la tête en fumant des Knackis Ouais, difficile de taffer dans l'illicite Quand on est un type timide, limite risible, en clair, un mec fragile Le crime paie peut-être mais j'préfère faire du spiritisme En espérant réveiller un spectre richissime Les chapeaux ça m'va pas, les billets j'trouve ça sale Quand y'a une bagarre dans la salle, j'suis planqué sous la table Quand j'bois de l'alcool, j'ai le hoquet Quand j'vois du sang, je m'évanouis J'ai déjà fini en garde à vue pour avoir volé deux kiwis Honte à moi, je n'ai jamais squatté le fond d'la classe Jamais touché d'armes à feu, ni de pic à glace J'suis couard, je n'ai ni bagouse, ni montre à quartz Il m'arrive de twerker quand j'écoute les Worlds Apart N'essaie pas de m'énerver, je n'connais pas la haine J'fais des bisous quand j'traine le soir chez Michou Appelle-moi La Marraine Tous à terre, c'est un hold-up Le rude boy arrive, met des balles à blanc dans l'glock J'ai toujours rêvé d'être un gangster Mais y'a qu'derrière l'anti-pop que j'mets en état d'choc Mon colt c'est du toc, pisse pas dans ton froc J'ai pas les épaules d'Al Capone, non, j'tiens pas vraiment l'alcool Chapeau haut-de-forme plissé, élaborer les traquenards Neuf milli dans le falzar... Non mais, Volo, tu rigoles ? J'aurais surement pas été un gangster doué Une vie de stress et de mensonge m'aurait vite soûlé D'la monnaie, d'la dope et des filles à souhait L'excès n'est pas mon truc et je n'ai rien à prouvé Même si... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster J'suis venu au monde avec une tête de boloss Mais j'ai toujours rêvé d'être un boss Tu vois mon gun ? Je te braque, je le pose Tu vois mon style ? C'est du crack, prends ta dose Petit, tu rêves encore de quoi ? De thunes encore, de quoi ? De lunettes en or pur, de grand cru encore, de quoi ? Aéroport encore, transport de pure de port en port C'est de pire en pire, réveille-toi, Cheeko, tu t'emportes Faire le casse parfait, qui ne l'a jamais voulu ? Le monde est trop petit pour un appétit goulu Mais j'ai jamais eu les couilles de tenir la crosse, ni la drogue Ni le stress atroce de finir dans une affaire non-résolue Donc j'révois mais rêves de grandeur à la baisse Merde, c'est l'jour du Seigneur... Flingue dans l'bouquet d'fleurs à la messe J'viens d'me réveiller, ferme ta gueule, me parle pas Quand tu m'parles de Soprano, j'pense Tony pas à M'baba3</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bienvenue dans ma chambre où mon lit s'immerge Et mon esprit s'disperse enfile tes palmes et ton scaphandre Je suis comme pris de vitesse, grimace à la Louis de Funès J'vomis du sang sur les murs, crée des peintures rupestres Mon lit, j'y fais des bulles, si t'es féru d'aventures Suis-moi l'ami, tu n'seras pas déçu Tu te débats dans la toile d'une tarentule Tu n'avances plus mais qu'attends-tu pour lui déclarer ta flamme Et lui arracher les pattes d'un coup sec Pendant que ton sexe maltraitera son cul ? Bref, t'as l'air en galère donc je te libère Te voilà coincé dans l'urètre de Gulliver Avec des lilliputiens qui aiment les zizis d'humain Tu sens le va-et-vient d'une main, Gulliver se fait du bien Il t'expulse en Écosse, là t'as trempé ton kilt GooMar t'a montré son beat et t'es plutôt précoceYou might also like</t>
+          <t>Bienvenue dans ma chambre où mon lit s'immerge Et mon esprit s'disperse enfile tes palmes et ton scaphandre Je suis comme pris de vitesse, grimace à la Louis de Funès J'vomis du sang sur les murs, crée des peintures rupestres Mon lit, j'y fais des bulles, si t'es féru d'aventures Suis-moi l'ami, tu n'seras pas déçu Tu te débats dans la toile d'une tarentule Tu n'avances plus mais qu'attends-tu pour lui déclarer ta flamme Et lui arracher les pattes d'un coup sec Pendant que ton sexe maltraitera son cul ? Bref, t'as l'air en galère donc je te libère Te voilà coincé dans l'urètre de Gulliver Avec des lilliputiens qui aiment les zizis d'humain Tu sens le va-et-vient d'une main, Gulliver se fait du bien Il t'expulse en Écosse, là t'as trempé ton kilt GooMar t'a montré son beat et t'es plutôt précoce</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Un an noces de papier Sur lequel s'inscrivent des mots qui défient le destin Je t'aimerai toujours, notre histoire est sans fin Deux ans noces de coton La face démaquillée à l'aide de dissolvant Notre personnage délavé s'oublie délicatement Trois ans noces de cuir Notre sexualité sagement débridée nous pousse à apprécier la fessée La recevoir ou la donner, redécouvrir les plaisirs de l'autorité Cinq ans noces de bois En piètres artisans, nous sculptons nos corps imprudemment Observer nos enfants pousser trop rapidement Dix ans noces d'aluminium Un sandwich pour papa, un sandwich pour maman Pourquoi chacun pique-nique t-il de son côté ? s'interroge l'enfant Treize ans noces de dentelles Nos corps implosent l'espace d'un irréel orgasme Notre cur a failli s'arrêter de battre lors de cette fusion, nous étions en phase Nos lèvres encore tremblantes balbutient cette phrase Et dire que nous avons failli perdre ce désir Le plaisir suffit à nous faire dire Je t'aime You might also likeVingt-cinq ans noces d'argent Il n'y en a plus, plus d'amour non plus Le string, ça n'fonctionne plus, les bas non plus Il n'y a plus de haut, tout est plat Un couple fauché voilà tout c'que j'vois Les enfants sont grands, profitons en Divorçons pendant qu'il est encore temps Que chacun redémarre une vie Détachons-nous de ce fil si fin qui nous relie Quittons-nous cette nuit Cinquante ans noces d'or Sentir la peur de se retrouver seul, envahir notre corps Le veuvage est bien plus angoissant que la mort Réaliser que la personne qui nous connaît le mieux ne connaître jamais tous nos secrets Ce compagnon de fin de vie ne nous a jamais été aussi cher qu'aujourd'hui, c'est vrai La fortune est venue, tant mieux pour la famille Ne vivre qu'à travers sa descendance Voir ses petits-enfants jouer aux billes Se rappeler qu'on été assez bon dans son enfance Fixer du regard la personne qui jouissait parfois au même instant que nous La regarder et se dire Mais qui est cette créature aux cheveux de cendres ? Curieux miroir, loin d'être doux Soixante ans noces de diamant Une couche pour papy, une couche pour mamie, et puis, plus qu'une couche Oubli glacial de la peau d'un corps qu'on touchait, qu'on aimait Nos doigts plein de rhumatismes ont oublié Dans la maison de retraite, pleurer fort En respirant l'odeur acre des détergeant dissimulant celle de la mort Se taper des ancêtres atteints d'Alzheimer Des anciens prêtres ou des bonnes surs Jouer à cache-cache avec les infirmières Croire qu'aujourd'hui c'était hier Et puis oublier, tout oublier Soixante-dix ans noces de grâce Arrêter</t>
+          <t>Un an noces de papier Sur lequel s'inscrivent des mots qui défient le destin Je t'aimerai toujours, notre histoire est sans fin Deux ans noces de coton La face démaquillée à l'aide de dissolvant Notre personnage délavé s'oublie délicatement Trois ans noces de cuir Notre sexualité sagement débridée nous pousse à apprécier la fessée La recevoir ou la donner, redécouvrir les plaisirs de l'autorité Cinq ans noces de bois En piètres artisans, nous sculptons nos corps imprudemment Observer nos enfants pousser trop rapidement Dix ans noces d'aluminium Un sandwich pour papa, un sandwich pour maman Pourquoi chacun pique-nique t-il de son côté ? s'interroge l'enfant Treize ans noces de dentelles Nos corps implosent l'espace d'un irréel orgasme Notre cur a failli s'arrêter de battre lors de cette fusion, nous étions en phase Nos lèvres encore tremblantes balbutient cette phrase Et dire que nous avons failli perdre ce désir Le plaisir suffit à nous faire dire Je t'aime Vingt-cinq ans noces d'argent Il n'y en a plus, plus d'amour non plus Le string, ça n'fonctionne plus, les bas non plus Il n'y a plus de haut, tout est plat Un couple fauché voilà tout c'que j'vois Les enfants sont grands, profitons en Divorçons pendant qu'il est encore temps Que chacun redémarre une vie Détachons-nous de ce fil si fin qui nous relie Quittons-nous cette nuit Cinquante ans noces d'or Sentir la peur de se retrouver seul, envahir notre corps Le veuvage est bien plus angoissant que la mort Réaliser que la personne qui nous connaît le mieux ne connaître jamais tous nos secrets Ce compagnon de fin de vie ne nous a jamais été aussi cher qu'aujourd'hui, c'est vrai La fortune est venue, tant mieux pour la famille Ne vivre qu'à travers sa descendance Voir ses petits-enfants jouer aux billes Se rappeler qu'on été assez bon dans son enfance Fixer du regard la personne qui jouissait parfois au même instant que nous La regarder et se dire Mais qui est cette créature aux cheveux de cendres ? Curieux miroir, loin d'être doux Soixante ans noces de diamant Une couche pour papy, une couche pour mamie, et puis, plus qu'une couche Oubli glacial de la peau d'un corps qu'on touchait, qu'on aimait Nos doigts plein de rhumatismes ont oublié Dans la maison de retraite, pleurer fort En respirant l'odeur acre des détergeant dissimulant celle de la mort Se taper des ancêtres atteints d'Alzheimer Des anciens prêtres ou des bonnes surs Jouer à cache-cache avec les infirmières Croire qu'aujourd'hui c'était hier Et puis oublier, tout oublier Soixante-dix ans noces de grâce Arrêter</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aimé C'est un jour important, il s'est mis sur son 31 Jamais autant de gens ne lui avaient tendu la main Il a déboutonné sa veste, ses tempes sont brûlantes Il voulait écrire un texte mais les mots lui manquent Sur le parvis de l'église, toute sa famille est réunie C'est rare, c'est formidable Celle qui a porté ses enfants et illuminé sa vie Est là aussi, mais dans le corbillard Tout autour de lui, la foule parle d'elle au passé Les plus vieux se disent qu'ils y ont encore échappé En voyant quatre types soulever une petite boîte en bois verni Le couvercle est scellé, son contenu inaccessible Il est trop tard pour un câlin Bientôt, il oubliera sa voix et son parfum Elle a embarqué ses secrets, ses rêves et ses remords Enfermés dans ce coffre que des croque-morts portent Le cortège traverse l'église d'un pas lent Et dans la nef résonnent Les arpèges d'une marche funèbre accablante Jaillissant d'un orgue immense qui l'impressionne You might also like C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aidé C'est presque un jour de fête, un ballet d'adieu Chorégraphié au millimètre par ceux qui s'adressent à Dieu Il devient sourd, se ferme au long discours du prêtre Impersonnel qui minimise notre parcours terrestre La religion calme le désespoir face à de lourdes pertes Le paradis se cache dans la mémoire et dans l'amour, peut-être Il se dit que ce sont les meilleurs qui partent en premier Il sourit mais, au fond de lui, il chiale à en crever Il s'était pourtant promis de rester joyeux Comme auparavant à l'enterrement de ses aïeux Mais, là, c'est différent, car il s'agit de celle avec qui Il a partagé la moitié d'sa vie Sa confidente, sa maîtresse, sa meilleure amie Il ne restera d'elle que des photos, des lettres et des habits Il la revoit sur son lit d'hôpital, la bouche ouverte Ses yeux s'humidifient alors il baisse la tête Il se sent si mal Serait ravi de danser sur les rythmiques endiablées de plus de cents cigales Il se mettrait à fredonner les belles chansons qu'elle aimait Il reprendrait du Bourvil ou du Fernandel En échange d'un rire, un dernier rire, mais un long... un long fou rire Un long fou rire avec elle, avant qu'on la mette dans ce trou privé de lumière Avant que la terre l'engloutisse, avant que l'hiver la digère C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il y a du monde au rendez-vous, il se sent épié C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il sera seul à rêver dans son lit à deux oreillers1</t>
+          <t>C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aimé C'est un jour important, il s'est mis sur son 31 Jamais autant de gens ne lui avaient tendu la main Il a déboutonné sa veste, ses tempes sont brûlantes Il voulait écrire un texte mais les mots lui manquent Sur le parvis de l'église, toute sa famille est réunie C'est rare, c'est formidable Celle qui a porté ses enfants et illuminé sa vie Est là aussi, mais dans le corbillard Tout autour de lui, la foule parle d'elle au passé Les plus vieux se disent qu'ils y ont encore échappé En voyant quatre types soulever une petite boîte en bois verni Le couvercle est scellé, son contenu inaccessible Il est trop tard pour un câlin Bientôt, il oubliera sa voix et son parfum Elle a embarqué ses secrets, ses rêves et ses remords Enfermés dans ce coffre que des croque-morts portent Le cortège traverse l'église d'un pas lent Et dans la nef résonnent Les arpèges d'une marche funèbre accablante Jaillissant d'un orgue immense qui l'impressionne C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aidé C'est presque un jour de fête, un ballet d'adieu Chorégraphié au millimètre par ceux qui s'adressent à Dieu Il devient sourd, se ferme au long discours du prêtre Impersonnel qui minimise notre parcours terrestre La religion calme le désespoir face à de lourdes pertes Le paradis se cache dans la mémoire et dans l'amour, peut-être Il se dit que ce sont les meilleurs qui partent en premier Il sourit mais, au fond de lui, il chiale à en crever Il s'était pourtant promis de rester joyeux Comme auparavant à l'enterrement de ses aïeux Mais, là, c'est différent, car il s'agit de celle avec qui Il a partagé la moitié d'sa vie Sa confidente, sa maîtresse, sa meilleure amie Il ne restera d'elle que des photos, des lettres et des habits Il la revoit sur son lit d'hôpital, la bouche ouverte Ses yeux s'humidifient alors il baisse la tête Il se sent si mal Serait ravi de danser sur les rythmiques endiablées de plus de cents cigales Il se mettrait à fredonner les belles chansons qu'elle aimait Il reprendrait du Bourvil ou du Fernandel En échange d'un rire, un dernier rire, mais un long... un long fou rire Un long fou rire avec elle, avant qu'on la mette dans ce trou privé de lumière Avant que la terre l'engloutisse, avant que l'hiver la digère C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il y a du monde au rendez-vous, il se sent épié C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il sera seul à rêver dans son lit à deux oreillers1</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J'rêve comme je respire J'rêve comme je respire Moi aussi, j'étais un jeune de quinze ans Redoutant la vie d'adulte comme un grand requin blanc Et me voilà délaissant mes fantasmes d'adolescent J'trompe l'ennui en remplissant des trous de mémoire d'éléphant Malgré ce tempérament nostalgique J'essaie d'être un père aimant errant dans un monde magique J'ponds des textes quand j'ai mal, bois des marmites de cognac Passe la journée dans les vapes, comme une chauve-souris insomniaque J'me lève à l'aurore car mes enfants crient trop fort Je sais qu'à leurs yeux j'ai des faux airs de dinosaure J'n'échangerai pas ma place contre des centaines de kilos d'or La vie est un labyrinthe, je cherche le minotaure J'rêve comme je respire J'rêve comme je respire Qu'importe le mépris, l'indifférence ou l'estime Il faut que j'm'exprime tant qu'je rêve Je m'ris des vertiges des perfides, mon esprit S'éclaircit, c'est exquis tant qu'je rêve J'ai vu le Diable dans une piscine d'eau bénite J'ai galopé dans les airs avec mes ailes de phnix J'ai installé des panneaux solaires dans le château de Versailles J'fous le feu en feulant devant les foules comme Sherkan J'bronze à Tahiti avec des donzelles callipyges J'lis dans leurs entrailles, en pleine nuit, grâce au doigt d'E.T J'ai fait mon tout premier concert dans un bar, y'a dix piges Certains d'entre vous étaient là, sans leur calvitie Oui, on prend de l'âge, on perd des amis, on s'éparpille Pendant que nos tafs chronophages se lèchent les babines Ça y est, j'panique, j'ai besoin d'un calmant J'apprendrai à ma fille à n'pas écouter croasser les princes charmants J'rêve comme je... J'rêve comme je... J'rêve comme je... J'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, oui, mesdames et messieurs J'rêve comme je respire en ouvrant grand mes yeuxYou might also like</t>
+          <t>J'rêve comme je respire J'rêve comme je respire Moi aussi, j'étais un jeune de quinze ans Redoutant la vie d'adulte comme un grand requin blanc Et me voilà délaissant mes fantasmes d'adolescent J'trompe l'ennui en remplissant des trous de mémoire d'éléphant Malgré ce tempérament nostalgique J'essaie d'être un père aimant errant dans un monde magique J'ponds des textes quand j'ai mal, bois des marmites de cognac Passe la journée dans les vapes, comme une chauve-souris insomniaque J'me lève à l'aurore car mes enfants crient trop fort Je sais qu'à leurs yeux j'ai des faux airs de dinosaure J'n'échangerai pas ma place contre des centaines de kilos d'or La vie est un labyrinthe, je cherche le minotaure J'rêve comme je respire J'rêve comme je respire Qu'importe le mépris, l'indifférence ou l'estime Il faut que j'm'exprime tant qu'je rêve Je m'ris des vertiges des perfides, mon esprit S'éclaircit, c'est exquis tant qu'je rêve J'ai vu le Diable dans une piscine d'eau bénite J'ai galopé dans les airs avec mes ailes de phnix J'ai installé des panneaux solaires dans le château de Versailles J'fous le feu en feulant devant les foules comme Sherkan J'bronze à Tahiti avec des donzelles callipyges J'lis dans leurs entrailles, en pleine nuit, grâce au doigt d'E.T J'ai fait mon tout premier concert dans un bar, y'a dix piges Certains d'entre vous étaient là, sans leur calvitie Oui, on prend de l'âge, on perd des amis, on s'éparpille Pendant que nos tafs chronophages se lèchent les babines Ça y est, j'panique, j'ai besoin d'un calmant J'apprendrai à ma fille à n'pas écouter croasser les princes charmants J'rêve comme je... J'rêve comme je... J'rêve comme je... J'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, oui, mesdames et messieurs J'rêve comme je respire en ouvrant grand mes yeux</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sonnerie de réveil Ah, ta gueule, ta gueule, ta gueule, ta gueule Pourquoi j'ai mis mon réveil, moi ? Oh non, oh, j'avais zappé ! - Hé, mon amour, tu veux pas y aller, s'te plaît ? - Hmm... - Vas-y, j'ai fait la vaisselle, hier soir ! J'aurais bien fait la grasse mat' vu qu'on est samedi Mais c'est la fête dans l'école de ma fille, ça m'gave J'sens qu'je vais m'empiffrer de quatre-quarts rassis Assis en matant des mioches jouer à cache-cache J'mets mon polo troué, mes claquettes et mon gros jogging J'suis même pas rasé, j'pourrais exciter un zoophile J'entre dans l'école sans insulter les gosses hostiles Et croise la directrice déguisée en crocodile Ma fille fait sa maligne, squatte la pêche à la ligne Des gamines font des selfies, amenez-moi une carabine La prof de musique stresse, je suis fidèle Mais ses fesses d'orque font briller mon zizi d'elfe Voilà l'armée de jeunes flûtistes prêts à gâcher Que dis-je ? À massacrer les arrangements avariés De la prof qui soupire mais se force à garder le sourire En rêvant de les punir, voire de les balafrer J'crois qu'c'est du Schubert, une purée de choux verts S'écoule de mes oreilles, il est clair qu'elles ont souffert Cet orchestre et ce ballet m'endorment, je l'admets La chorée est obscène, les costumes sont mal faits J'plane dans ce cocon cent pour cent coton Gueule de bois pour ma pomme, les enfants, eux, sont trognons Dans cette kermesse matinale, j'dame une merguez Devant de vieilles maîtresses souffrant de sècheresse vaginale You might also like Flou, igloo qui bout, j'suis mou Encore saoul, dissout et sous spliffou J'vois de tout p'tits loups filous qui jouent Chantonnent chou, bijou, genou, joujou, hibou, poupoupidou Je m'en souviens, c'était le meilleur jour de l'année J'pouvais tutoyer l'instit' sans qu'il mette un mot dans mon carnet On faisait des jeux dégueu', nul n'était dédaigneux Les adultes, c'était des vieux, on rêvait sans fermer les yeux J'n'étais qu'un merdeux candide et peu teigneux Y'avait mes amis, mes parents, des vampires et le ciel bleu J'avais pas pris mon cartable, je flambais dans la marmaille J'me prenais pour une racaille, j'me débrouillais plutôt pas mal Au carillon, flûte à bec en guise d'ocarina Ou de sarbacane pour viser les papillons Dans ma poche trouée des billets de tombola gagnants Que je cherchais dans la cour en sifflotant, les bras ballants Pas d'galanterie, même quand c'était pas marrant J'riais, j'criais, j'courais, j'touchais Des poitrines émergentes qui m'émoustillaient J'vivais mes années folles mais j'ai grandi x2 Hahahaha ! Wouh ! En plus, ils font des scoubidous-bidous-bidous-bidous, whou ! Choup-choup-choup-choup-choupidou wah ! Brou sticky brou sticky brou sticky frou ! Poupoupidou wouh ! Hippocampe Fou, pa-pa-papou1</t>
+          <t>Sonnerie de réveil Ah, ta gueule, ta gueule, ta gueule, ta gueule Pourquoi j'ai mis mon réveil, moi ? Oh non, oh, j'avais zappé ! - Hé, mon amour, tu veux pas y aller, s'te plaît ? - Hmm... - Vas-y, j'ai fait la vaisselle, hier soir ! J'aurais bien fait la grasse mat' vu qu'on est samedi Mais c'est la fête dans l'école de ma fille, ça m'gave J'sens qu'je vais m'empiffrer de quatre-quarts rassis Assis en matant des mioches jouer à cache-cache J'mets mon polo troué, mes claquettes et mon gros jogging J'suis même pas rasé, j'pourrais exciter un zoophile J'entre dans l'école sans insulter les gosses hostiles Et croise la directrice déguisée en crocodile Ma fille fait sa maligne, squatte la pêche à la ligne Des gamines font des selfies, amenez-moi une carabine La prof de musique stresse, je suis fidèle Mais ses fesses d'orque font briller mon zizi d'elfe Voilà l'armée de jeunes flûtistes prêts à gâcher Que dis-je ? À massacrer les arrangements avariés De la prof qui soupire mais se force à garder le sourire En rêvant de les punir, voire de les balafrer J'crois qu'c'est du Schubert, une purée de choux verts S'écoule de mes oreilles, il est clair qu'elles ont souffert Cet orchestre et ce ballet m'endorment, je l'admets La chorée est obscène, les costumes sont mal faits J'plane dans ce cocon cent pour cent coton Gueule de bois pour ma pomme, les enfants, eux, sont trognons Dans cette kermesse matinale, j'dame une merguez Devant de vieilles maîtresses souffrant de sècheresse vaginale Flou, igloo qui bout, j'suis mou Encore saoul, dissout et sous spliffou J'vois de tout p'tits loups filous qui jouent Chantonnent chou, bijou, genou, joujou, hibou, poupoupidou Je m'en souviens, c'était le meilleur jour de l'année J'pouvais tutoyer l'instit' sans qu'il mette un mot dans mon carnet On faisait des jeux dégueu', nul n'était dédaigneux Les adultes, c'était des vieux, on rêvait sans fermer les yeux J'n'étais qu'un merdeux candide et peu teigneux Y'avait mes amis, mes parents, des vampires et le ciel bleu J'avais pas pris mon cartable, je flambais dans la marmaille J'me prenais pour une racaille, j'me débrouillais plutôt pas mal Au carillon, flûte à bec en guise d'ocarina Ou de sarbacane pour viser les papillons Dans ma poche trouée des billets de tombola gagnants Que je cherchais dans la cour en sifflotant, les bras ballants Pas d'galanterie, même quand c'était pas marrant J'riais, j'criais, j'courais, j'touchais Des poitrines émergentes qui m'émoustillaient J'vivais mes années folles mais j'ai grandi x2 Hahahaha ! Wouh ! En plus, ils font des scoubidous-bidous-bidous-bidous, whou ! Choup-choup-choup-choup-choupidou wah ! Brou sticky brou sticky brou sticky frou ! Poupoupidou wouh ! Hippocampe Fou, pa-pa-papou1</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Petit déjeuner avalé, il est fin prêt à cavaler En direction du building où il travaille depuis des années Boit café sur café pour mieux taffer, agrafer les pages Des contrats, contraint à répéter Ça va signer Négligeant, il n'a ni femme, ni enfant, ni plante Mais est trop intelligent pour réaliser que sa vie est chiante Exigeant, il blâme les incompétents, se vante de Licencier des gens, coucher avec la méchanceté l'enchante Soudoyer ses employés sans cesser de les vouvoyer Puis sortir ses griffes acérées pour lacérer ces écorchés Nez pincé face aux fumées de ses souffrances étouffées Il se magnifie, s'identifie à un grand chevalier De nouveau-né à écolier rêvant de déployer ses ailes De jeune homme diplômé à bon stagiaire, à employé modèle D'homme riche et puissant à souverain triste et méfiant De retraité épuisant à vieillard bête et méchant Ses stratégies l'entêtent, la calvitie le guette C'est la nuit qu'il s'embête, il apprécie les filles faciles, en fait Laid il voudrait ne pas l'être Mais il reçoit des lettres lui disant qu'il l'est, c'est bête Incité à l'excès par la publicité, excité à l'idée d'amasser Des paquets de billets, de les cacher sous son lit Entre un sécateur et une batte de base-ball Il aurait aimé être acteur ou chanteur de dance-soul Il ne redoute que la banqueroute et la goutte de foutre Qui fera déborder l'athlétique poupée en plastique qu'il nique Comme s'il s'agissait de son joueur de foot préféré Un samedi, en août, enfermé dans son salon, rideaux tirés Réduire sa mère en cendres, se percer la tempe ou se pendre Un matin de septembre, dans sa chambre l'affaire est à prendre Il s'imagine devenant victime ou même héros Mais aucun avion ne se crachera dans son bureau Hébété, il a maté des milliers de DVD S'est répété qu'il était le fils caché d'une star décédée Il voudrait voir la police débarquer pour l'arrêter Il pourrait s'échapper, sauter avec son parachute doré Se réceptionner sur les épaules de piétons étonnés Puis dialoguer avec eux, avant de se faire piétiner You might also like</t>
+          <t>Petit déjeuner avalé, il est fin prêt à cavaler En direction du building où il travaille depuis des années Boit café sur café pour mieux taffer, agrafer les pages Des contrats, contraint à répéter Ça va signer Négligeant, il n'a ni femme, ni enfant, ni plante Mais est trop intelligent pour réaliser que sa vie est chiante Exigeant, il blâme les incompétents, se vante de Licencier des gens, coucher avec la méchanceté l'enchante Soudoyer ses employés sans cesser de les vouvoyer Puis sortir ses griffes acérées pour lacérer ces écorchés Nez pincé face aux fumées de ses souffrances étouffées Il se magnifie, s'identifie à un grand chevalier De nouveau-né à écolier rêvant de déployer ses ailes De jeune homme diplômé à bon stagiaire, à employé modèle D'homme riche et puissant à souverain triste et méfiant De retraité épuisant à vieillard bête et méchant Ses stratégies l'entêtent, la calvitie le guette C'est la nuit qu'il s'embête, il apprécie les filles faciles, en fait Laid il voudrait ne pas l'être Mais il reçoit des lettres lui disant qu'il l'est, c'est bête Incité à l'excès par la publicité, excité à l'idée d'amasser Des paquets de billets, de les cacher sous son lit Entre un sécateur et une batte de base-ball Il aurait aimé être acteur ou chanteur de dance-soul Il ne redoute que la banqueroute et la goutte de foutre Qui fera déborder l'athlétique poupée en plastique qu'il nique Comme s'il s'agissait de son joueur de foot préféré Un samedi, en août, enfermé dans son salon, rideaux tirés Réduire sa mère en cendres, se percer la tempe ou se pendre Un matin de septembre, dans sa chambre l'affaire est à prendre Il s'imagine devenant victime ou même héros Mais aucun avion ne se crachera dans son bureau Hébété, il a maté des milliers de DVD S'est répété qu'il était le fils caché d'une star décédée Il voudrait voir la police débarquer pour l'arrêter Il pourrait s'échapper, sauter avec son parachute doré Se réceptionner sur les épaules de piétons étonnés Puis dialoguer avec eux, avant de se faire piétiner</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tu m'as sûrement déjà vu grave éméché brailler tout seul Ou l'air mal réveillé, chaussettes dépareillées, braguette ouverte D'après Google, j'ai des clips hérétiques, crades et clownesques Assez pour plaire à des types pathétiques, barges et losers J'ai des propos lubriques et corrosifs Dans les salles d'attente des maternités, j'lis des rubriques nécrologiques Guette mon nombril où s'agitent quelques lombrics, à c'que l'on dit J'ai une belle bouche à pipe très peu concis, j'fais de longs speechs Attentif à rien, moins inventif à jeun Je danse les yeux bandés non loin du ravin, j'me dis qu'tout ira bien Casanier nomade, j'aime fracasser vos cranes et Tracasser vos âmes, donc ravalez vos sarcasmes À mes obsèques, y'aura d'la bibine et plein d'putes Quand j'bute contre un objet, j'deviens animiste et l'insulte J'lutte pour finir mes projets, blâme les arrivistes incultes J'suis plutôt peace and love mais, parfois, l'pacifiste s'insurge J'glapis la nuit quand j'manie l'absurde en calbute J'ai six femmes empaillées, en tant que mari, j'assure J'végète à vive allure, papa immature, ouais, j'assume Mes autoportraits ressemblent à des caricatures, à plusYou might also like</t>
+          <t>Tu m'as sûrement déjà vu grave éméché brailler tout seul Ou l'air mal réveillé, chaussettes dépareillées, braguette ouverte D'après Google, j'ai des clips hérétiques, crades et clownesques Assez pour plaire à des types pathétiques, barges et losers J'ai des propos lubriques et corrosifs Dans les salles d'attente des maternités, j'lis des rubriques nécrologiques Guette mon nombril où s'agitent quelques lombrics, à c'que l'on dit J'ai une belle bouche à pipe très peu concis, j'fais de longs speechs Attentif à rien, moins inventif à jeun Je danse les yeux bandés non loin du ravin, j'me dis qu'tout ira bien Casanier nomade, j'aime fracasser vos cranes et Tracasser vos âmes, donc ravalez vos sarcasmes À mes obsèques, y'aura d'la bibine et plein d'putes Quand j'bute contre un objet, j'deviens animiste et l'insulte J'lutte pour finir mes projets, blâme les arrivistes incultes J'suis plutôt peace and love mais, parfois, l'pacifiste s'insurge J'glapis la nuit quand j'manie l'absurde en calbute J'ai six femmes empaillées, en tant que mari, j'assure J'végète à vive allure, papa immature, ouais, j'assume Mes autoportraits ressemblent à des caricatures, à plus</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ça fait des années qu'j'n'ai pas bougé d'ce pays sinistre Pas étonnant car, pour ce faire, il faut une paye de ministre Mais j'n'ai même pas celle d'une dame pipi Comment faire ? C'est l'enfer, il faut que j'trace d'ici Face à moi dans un quatre par trois Un genre de séjour de rêve payable en troisquatre fois Impulsif, j'en suis loin mais, là, j'n'ai pas hésité Ouais, je pars après demain, mon compte est d'jà débité Trois fois plus de passagers que de sièges, c'est relou J'ai un nourrisson dans les bras, un obèse sur les genoux J'dis qu'j'ai mal à la tête, on m'amène un suppo' J'voudrais admirer le ciel mais y'a pas de hublot J'aime pas les zones de turbulence La vieille à ma droite a des flatulences L'hôtesse nous file une ficelle pour nous attacher Elle crie Retenez votre souffle, l'avion va s'crasher J'voulais les dunes du Sahara Par manque de thunes... t'as fait quoi ?... j'ai pris l'prix l'plus bas J'voulais Rio, son carnaval Trois cent euros... tout compris... j'me suis fait la malle normal You might also like Un plateau repas en guise de radeau, je rame Avec les deux mains, slalome entre les ailerons de requin Désolation, loin d'ma société de consommation insolation Ma peau morte, c'est ma seule collation J'aperçois au loin le Christ sauveur M'accueillant à bras ouverts avec ses tifs de rockeur Tout autour de moi, des corps noyés qui flottent Mais ma caméra n'a pas pris l'eau, là, je sifflote L'hôtel avait l'air top sur le fascicule Y'avait pas les odeurs d'clopes et de moisissures Y'a bel et bien la piscine, mais c'est un pédiluve Une chèvre à trois pattes en guise de véhicule Le guide local s'exclame Prêt pour le safari ? Tout le monde a l'air chaud, ouais, sauf mon panaris On voulait voir le désert et on a payé pour ça Donc allons jusqu'au bout vouloir reculer, pourquoi ? J'voulais Rio, son carnaval Trois cent euros... C'est tout ?... j'me suis fait la malle J'voulais les dunes du Sahara Tu m'étonnes Par manque de thunes... j'ai pris l'prix l'plus bas Dans chaque paupière, j'ai dix grammes de sable À coté d'moi, j'entends Quel paysage de barge ! À bout d'force, ma monture fait de grosses grimaces J'aurais été largement plus rapide à dos d'limace J'ai faim, j'ai soif, j'n'arrive même plus à saliver Je demande au guide si l'on est bientôt arrivé En guise de réponse, le type enlève sa montre Ta copine est magnifique, voudrais-tu me l'échanger contre... ? Une demi-douzaine de shemales se frottent à moi Sucent un os à moelle dans la favela J'leur ai filé mon email et ma caméra Dès qu'je bouge le petit doigt, un molosse aboie Pas d'batucada, c'est la cata' Ces trans' ont les dents d'Ronaldinho, le pelage de Chewbacca J'voulais glander, danser la samba, flamber Qui va payer la rançon pour qu'je puisse rentrer ?1</t>
+          <t>Ça fait des années qu'j'n'ai pas bougé d'ce pays sinistre Pas étonnant car, pour ce faire, il faut une paye de ministre Mais j'n'ai même pas celle d'une dame pipi Comment faire ? C'est l'enfer, il faut que j'trace d'ici Face à moi dans un quatre par trois Un genre de séjour de rêve payable en troisquatre fois Impulsif, j'en suis loin mais, là, j'n'ai pas hésité Ouais, je pars après demain, mon compte est d'jà débité Trois fois plus de passagers que de sièges, c'est relou J'ai un nourrisson dans les bras, un obèse sur les genoux J'dis qu'j'ai mal à la tête, on m'amène un suppo' J'voudrais admirer le ciel mais y'a pas de hublot J'aime pas les zones de turbulence La vieille à ma droite a des flatulences L'hôtesse nous file une ficelle pour nous attacher Elle crie Retenez votre souffle, l'avion va s'crasher J'voulais les dunes du Sahara Par manque de thunes... t'as fait quoi ?... j'ai pris l'prix l'plus bas J'voulais Rio, son carnaval Trois cent euros... tout compris... j'me suis fait la malle normal Un plateau repas en guise de radeau, je rame Avec les deux mains, slalome entre les ailerons de requin Désolation, loin d'ma société de consommation insolation Ma peau morte, c'est ma seule collation J'aperçois au loin le Christ sauveur M'accueillant à bras ouverts avec ses tifs de rockeur Tout autour de moi, des corps noyés qui flottent Mais ma caméra n'a pas pris l'eau, là, je sifflote L'hôtel avait l'air top sur le fascicule Y'avait pas les odeurs d'clopes et de moisissures Y'a bel et bien la piscine, mais c'est un pédiluve Une chèvre à trois pattes en guise de véhicule Le guide local s'exclame Prêt pour le safari ? Tout le monde a l'air chaud, ouais, sauf mon panaris On voulait voir le désert et on a payé pour ça Donc allons jusqu'au bout vouloir reculer, pourquoi ? J'voulais Rio, son carnaval Trois cent euros... C'est tout ?... j'me suis fait la malle J'voulais les dunes du Sahara Tu m'étonnes Par manque de thunes... j'ai pris l'prix l'plus bas Dans chaque paupière, j'ai dix grammes de sable À coté d'moi, j'entends Quel paysage de barge ! À bout d'force, ma monture fait de grosses grimaces J'aurais été largement plus rapide à dos d'limace J'ai faim, j'ai soif, j'n'arrive même plus à saliver Je demande au guide si l'on est bientôt arrivé En guise de réponse, le type enlève sa montre Ta copine est magnifique, voudrais-tu me l'échanger contre... ? Une demi-douzaine de shemales se frottent à moi Sucent un os à moelle dans la favela J'leur ai filé mon email et ma caméra Dès qu'je bouge le petit doigt, un molosse aboie Pas d'batucada, c'est la cata' Ces trans' ont les dents d'Ronaldinho, le pelage de Chewbacca J'voulais glander, danser la samba, flamber Qui va payer la rançon pour qu'je puisse rentrer ?1</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chaque goutte est un océan de promesses La flore repousse, la faune se pare de mollesse Ce paysage gorgé d'espoir éveille mes sens Je calligraphie son faire-part de renaissance Mon acrimonie et mon dédain se sont éteints Si je vole ainsi, est-ce par hasard ou mon destin ? Ce qui est sûr, c'est que j'ai pansé mes blessures Et que ma pensée, en pleine tempête, a pris un peu d'envergure Vu d'ici, le monde paraît miniature L'être humain a pris soin d'y apposer sa signature Cet animal à part qui se dit civilisé Semble être apparu sur cette Terre pour la vampiriser Bien qu'il conçoive l'infini, sa durée d'vie est limitée Alors il crée, fait des enfants en rêvant d'immortalité Depuis qu'il joue avec le feu et qu'il écrit sa propre Histoire L'Homme observe tous les autres êtres vivants dont il se sépare Il oublie qu'il fait partie d'un tout dans lequel il s'égare Heureusement, la pluie lui rafraîchit la mémoire Animaux, végétaux, prédateurs et proies Chaque être est unique et se fie à ce qu'il perçoit Pourtant, nous partageons des gènes et cet instinct de survie Et l'eau, cet élément vital qui nous réunitYou might also like</t>
+          <t>Chaque goutte est un océan de promesses La flore repousse, la faune se pare de mollesse Ce paysage gorgé d'espoir éveille mes sens Je calligraphie son faire-part de renaissance Mon acrimonie et mon dédain se sont éteints Si je vole ainsi, est-ce par hasard ou mon destin ? Ce qui est sûr, c'est que j'ai pansé mes blessures Et que ma pensée, en pleine tempête, a pris un peu d'envergure Vu d'ici, le monde paraît miniature L'être humain a pris soin d'y apposer sa signature Cet animal à part qui se dit civilisé Semble être apparu sur cette Terre pour la vampiriser Bien qu'il conçoive l'infini, sa durée d'vie est limitée Alors il crée, fait des enfants en rêvant d'immortalité Depuis qu'il joue avec le feu et qu'il écrit sa propre Histoire L'Homme observe tous les autres êtres vivants dont il se sépare Il oublie qu'il fait partie d'un tout dans lequel il s'égare Heureusement, la pluie lui rafraîchit la mémoire Animaux, végétaux, prédateurs et proies Chaque être est unique et se fie à ce qu'il perçoit Pourtant, nous partageons des gènes et cet instinct de survie Et l'eau, cet élément vital qui nous réunit</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Parti visiter de lointaines contrées T'as changé d'continent Un peu paumé, mais t'as vite rencontré La mère de tes enfants Adieu aventure Bonsoir exil, ta musique compensait Quand ton fils est né Pour t'intégrer, tu lui parlais en français Aujourd'hui, il comprend ta langue Mais ne la parle que très rarement avec un fort accent S'il se bloque, c'est parce qu'il a peur qu'on se moque Qu'on l'rejette en chur, qu'on le traite d'imposteur Il est allé en Colombie trois fois dans sa vie Trois mois en trente-quatre ans Chaque fois qu'il est là-bas, son sang bouillonne vraiment Il s'est juré d'y retourner sans boussole Juste pour s'imprégner de lumière Et laisser chanter son ADN Étreindre ces fantômes qui le hantent sans cesse Ta famille, c'est aussi la sienne Un jour, il osera, un jour, il faudra Qu'il aille là-bas sans toi Quand tu seras plus là, j'te parlerai tout bas En espagnol, papaYou might also like</t>
+          <t>Parti visiter de lointaines contrées T'as changé d'continent Un peu paumé, mais t'as vite rencontré La mère de tes enfants Adieu aventure Bonsoir exil, ta musique compensait Quand ton fils est né Pour t'intégrer, tu lui parlais en français Aujourd'hui, il comprend ta langue Mais ne la parle que très rarement avec un fort accent S'il se bloque, c'est parce qu'il a peur qu'on se moque Qu'on l'rejette en chur, qu'on le traite d'imposteur Il est allé en Colombie trois fois dans sa vie Trois mois en trente-quatre ans Chaque fois qu'il est là-bas, son sang bouillonne vraiment Il s'est juré d'y retourner sans boussole Juste pour s'imprégner de lumière Et laisser chanter son ADN Étreindre ces fantômes qui le hantent sans cesse Ta famille, c'est aussi la sienne Un jour, il osera, un jour, il faudra Qu'il aille là-bas sans toi Quand tu seras plus là, j'te parlerai tout bas En espagnol, papa</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J'étais sous le charme d'une table qui semblait éternelle Elle était vieille mais habillée d'une nappe en dentelle Cette table ronde était instable, c'était une séquelle Des nuits avec ces chevaliers qui lui étaient fidèles Elle avait eu une aventure avec la belle Excalibur Qui, dans les mains du Roi Arthur, s'était nourrie de sang impur J'ai rencontré cette épée dominatrice Dont la lame portait des cicatrices On lui avait appris à trancher, à transpercer Je lui ai murmuré des mots comme Caresser, Chatouiller Par une nuit sans lune, couchée sur son enclume Elle s'est mise à rêver et s'est alors changée en plume x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume Mon pays s'enrichit en vendant ses bombes et ses missiles Au scandale, il s'écrie Avec, on tire sur des civils ! Moi, je suis pacifiste donc affecté par ce qui se passe ici Ces guerres qu'on déguise, ces génocides invisibles Alors, comme Gandhi, je brandis l'étendard de la non-violence Car les menaces grandissent, prenant toutes sortes d'apparences Comme Boris Vian, je pense qu'un soldat, c'est de la viande Sont bons à remplir le ventre immense des vendeurs de propagande Alors, mes amis, mes camarades, cessez donc le combat Ne voyez-vous pas qu'on nous ment ? Qu'on nous brade pour signer des contrats ? Ainsi, l'ennemi d'aujourd'hui nous aidera demain À récupérer les puits de pétrole du voisin Et puis l'ONU s'ennuie, plus personne n'y croit Même les gros États-Unis, eux, ne mangent pas de ce pain-là J'ai choisi, je vous le dis, oui, moi, j'écris contre l'oubli Pour les touts-p'tits, pour les Hindous, pour les Hutus et les Tutsis You might also like x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix La main sur le cur, elles disent uvrer pour la paix Mais, à travers leurs querelles, les grandes puissances ne défendent que leurs intérêts Souviens-toi du Rwanda, du Soudan, d'la Tchétchénie Ils avaient prôné l'tact, la diplomatie, aujourd'hui, ils souffrent d'amnésie Leur justice est aveugle, c'est l'injustice qui régale Trop d'familles en deuil pleurent l'un des leurs qui a succombé au chant des balles Trop ne trouvent plus l'sommeil, ne dorment que d'une oreille Craignant le pillage, le racket, d'une attaque à la roquette Des pluies d'missiles, des attentats à la bombe Putain, quand j'y songe, l'horizon nous plonge en direction d'la guerre des mondes Ils ont semé l'aliénation, on a récolté l'ignominie Trop d'âmes innocentes ont été contraintes de rejoindre leur paradis On est d'plus en plus cerné par le cercle de la violence La haine est attisée par le biais d'nos différences Les peuples manipulés subsistent dans la souffrance L'horreur demeure, ne sentez-vous pas ceux suffoquant parfum d'urgence ? Il n'y a pas un traité qui n'ait pas été bafoué Pas un accord ni une convention qui n'ait été violé La donne est faussée, le fossé, lui, n'a d'cesse de s'creuser Entre ceux qui en voudront toujours plus et ceux qu'on laisse crever x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix J'ai fait mon choix J'ai fait mon choix4</t>
+          <t>J'étais sous le charme d'une table qui semblait éternelle Elle était vieille mais habillée d'une nappe en dentelle Cette table ronde était instable, c'était une séquelle Des nuits avec ces chevaliers qui lui étaient fidèles Elle avait eu une aventure avec la belle Excalibur Qui, dans les mains du Roi Arthur, s'était nourrie de sang impur J'ai rencontré cette épée dominatrice Dont la lame portait des cicatrices On lui avait appris à trancher, à transpercer Je lui ai murmuré des mots comme Caresser, Chatouiller Par une nuit sans lune, couchée sur son enclume Elle s'est mise à rêver et s'est alors changée en plume x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume Mon pays s'enrichit en vendant ses bombes et ses missiles Au scandale, il s'écrie Avec, on tire sur des civils ! Moi, je suis pacifiste donc affecté par ce qui se passe ici Ces guerres qu'on déguise, ces génocides invisibles Alors, comme Gandhi, je brandis l'étendard de la non-violence Car les menaces grandissent, prenant toutes sortes d'apparences Comme Boris Vian, je pense qu'un soldat, c'est de la viande Sont bons à remplir le ventre immense des vendeurs de propagande Alors, mes amis, mes camarades, cessez donc le combat Ne voyez-vous pas qu'on nous ment ? Qu'on nous brade pour signer des contrats ? Ainsi, l'ennemi d'aujourd'hui nous aidera demain À récupérer les puits de pétrole du voisin Et puis l'ONU s'ennuie, plus personne n'y croit Même les gros États-Unis, eux, ne mangent pas de ce pain-là J'ai choisi, je vous le dis, oui, moi, j'écris contre l'oubli Pour les touts-p'tits, pour les Hindous, pour les Hutus et les Tutsis x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix La main sur le cur, elles disent uvrer pour la paix Mais, à travers leurs querelles, les grandes puissances ne défendent que leurs intérêts Souviens-toi du Rwanda, du Soudan, d'la Tchétchénie Ils avaient prôné l'tact, la diplomatie, aujourd'hui, ils souffrent d'amnésie Leur justice est aveugle, c'est l'injustice qui régale Trop d'familles en deuil pleurent l'un des leurs qui a succombé au chant des balles Trop ne trouvent plus l'sommeil, ne dorment que d'une oreille Craignant le pillage, le racket, d'une attaque à la roquette Des pluies d'missiles, des attentats à la bombe Putain, quand j'y songe, l'horizon nous plonge en direction d'la guerre des mondes Ils ont semé l'aliénation, on a récolté l'ignominie Trop d'âmes innocentes ont été contraintes de rejoindre leur paradis On est d'plus en plus cerné par le cercle de la violence La haine est attisée par le biais d'nos différences Les peuples manipulés subsistent dans la souffrance L'horreur demeure, ne sentez-vous pas ceux suffoquant parfum d'urgence ? Il n'y a pas un traité qui n'ait pas été bafoué Pas un accord ni une convention qui n'ait été violé La donne est faussée, le fossé, lui, n'a d'cesse de s'creuser Entre ceux qui en voudront toujours plus et ceux qu'on laisse crever x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix J'ai fait mon choix J'ai fait mon choix4</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Listen to my joint, get high! Hello beauty, call me daddy, it's bedtime I'm on duty getting juicy in Bed-Stuy I could hang you with your pitiful necktie I don't give a fuck, guess why? I found the road to Valhalla, let's drive We'll take a break au château de Versailles Sippin glasses of the best red wines Tu rappes en anglais mais tes français. Well tried Im just picking in my head fresh rhymes Let me open blood bags for my French fries We all got a bright side. Wheres mine? No need for mass shooting to headline 911 is 9 11, weird sign Hi! Comment allez-vous ? Just fine! Do you like this creepy Magic School Bus ride? I'm thirty-six, my flows certified You should wash your face with spermicide Im gonna try to fly and stay divine And, if I dont reach Nirvana, nevermind Youre shakin' like a bartender with Parkinsons disease Youve been waiting for me for thirty years Like Bart Simpsons degrees You can rely on me, I'm a scientist I got the same haircut as the Lion King I can hit you with my iron fist And squeeze you like a giant beast You look mesmerized by my Busta Rhymes' vibes I feel glad when I mess my life up Might be mad but the last to line up Call me badass, I sat on Bibles Im snakin around those Christian apple trees Tastin a lot of crispy bacon strips Rappin' over jazz, funk, trap and afro beats Im an astronaut on a battleship Born in a haunted treehouse I wanna die on a mountain milking sea cows? Hello. Hola. Bonjour. Ni hao Do you have a weed stick for my big mouth? I go green like the Wicked Witch of the West I got twisted lyrics, take your ticket quick I request Im a mess, I married loneliness so please dont step on my long penis My genius shines like Venus, sorry I digress Im living an adventure at recess, adults life I repress I might be the best in the game since Wallace Chris is dead. Am I dissin'? Yes! From JFK to CDG, my lover's name was Billie Jean Beware of me, I'm really mean, I eat embryos like chili beansYou might also like</t>
+          <t>Listen to my joint, get high! Hello beauty, call me daddy, it's bedtime I'm on duty getting juicy in Bed-Stuy I could hang you with your pitiful necktie I don't give a fuck, guess why? I found the road to Valhalla, let's drive We'll take a break au château de Versailles Sippin glasses of the best red wines Tu rappes en anglais mais tes français. Well tried Im just picking in my head fresh rhymes Let me open blood bags for my French fries We all got a bright side. Wheres mine? No need for mass shooting to headline 911 is 9 11, weird sign Hi! Comment allez-vous ? Just fine! Do you like this creepy Magic School Bus ride? I'm thirty-six, my flows certified You should wash your face with spermicide Im gonna try to fly and stay divine And, if I dont reach Nirvana, nevermind Youre shakin' like a bartender with Parkinsons disease Youve been waiting for me for thirty years Like Bart Simpsons degrees You can rely on me, I'm a scientist I got the same haircut as the Lion King I can hit you with my iron fist And squeeze you like a giant beast You look mesmerized by my Busta Rhymes' vibes I feel glad when I mess my life up Might be mad but the last to line up Call me badass, I sat on Bibles Im snakin around those Christian apple trees Tastin a lot of crispy bacon strips Rappin' over jazz, funk, trap and afro beats Im an astronaut on a battleship Born in a haunted treehouse I wanna die on a mountain milking sea cows? Hello. Hola. Bonjour. Ni hao Do you have a weed stick for my big mouth? I go green like the Wicked Witch of the West I got twisted lyrics, take your ticket quick I request Im a mess, I married loneliness so please dont step on my long penis My genius shines like Venus, sorry I digress Im living an adventure at recess, adults life I repress I might be the best in the game since Wallace Chris is dead. Am I dissin'? Yes! From JFK to CDG, my lover's name was Billie Jean Beware of me, I'm really mean, I eat embryos like chili beans</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J'remplis des salles et des auditoriums avec mes enfantillages J'offre des yachts à tous mes majordomes qui pourraient peupler cent villages J'vais m'acheter des grillz en californium pour irradier mon visage Car j'ai des sous, des bitcoins et de l'or, j'ai même pas touché d'héritage Ma vie un régal, un kif indéniable, un striptease intégral dans la suite cinq étoiles L'argent m'accompagne, bien sûr que j'ai des factures à payr mais j'ai des comptables Chalet d montagne, bain d'bouche au champagne, château de campagne, dîner aux chandelles Au sommet de la tour de Shangaï, oui, j'ai d'la maille mais c'est pas moi qui la gagne C'est la thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé En tant que conjoint, je vide le compte joint toujours content, jamais contraint, mais faut qu'j'évite l'embonpoint J'ai des chromosomes colombiens qui me font gonfler du bassin quand j'bois des litres de bon vin J'fais pas le michto ni le parasite non l'hiver, j'fais trempettes aux Caraïbes ou je pars à Tignes Elle n'est pas radine, je n'la baratine pas, c'est le paradis, ça ? Non, c'est le paradigme Entrée, plat, dessert car je n'suis pas précaire dépenses astronomiques qui fascineraient Kepler Une vie d'pacha pépère, pourtant j'ai pas cé-per' ma femme, c'est mon mécène, Bill Gates et l'abbé Pierre J'regarde plus le prix des aliments, ma CB en guise de talisman Mais, si ma femme me quittait, j'irais camper dans une niche ou dans une cave trop humide chez l'habitant You might also like La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé J'l'ai rencontrée au lycée, on a tout d'suite fait des trucs très polissons Elle n'était pas trop friquée, elle a gravi les échelons sans compromission grave Aujourd'hui, elle pèse, elle a quinze ans de travail harassant au compteur Elle élève nos enfants et elle m'aime depuis que j'ai mis mon zizi dans son cur Elle est plutôt magnanime mais parfois d'humeur assassine, elle a les yeux carabine Qui projettent des éclairs comme l'Empereur Palpatine, là, j'panique en respirant fort comme Anakin Je me censure, je crois qu'elle me sent sûr de moi, ressassant Surprends-moi, y'a mon sang sur ses doigts J'ai des brûlures, un tas d'points de suture, le soir, elle me susurre Viens là, tiens le susucre La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme Mon amour ? Poupounette ? Pourquoi tu m'as commandé une nouvelle carte ? C'est une Visa Électron... Ça veut dire quoi, Électron ?</t>
+          <t>J'remplis des salles et des auditoriums avec mes enfantillages J'offre des yachts à tous mes majordomes qui pourraient peupler cent villages J'vais m'acheter des grillz en californium pour irradier mon visage Car j'ai des sous, des bitcoins et de l'or, j'ai même pas touché d'héritage Ma vie un régal, un kif indéniable, un striptease intégral dans la suite cinq étoiles L'argent m'accompagne, bien sûr que j'ai des factures à payr mais j'ai des comptables Chalet d montagne, bain d'bouche au champagne, château de campagne, dîner aux chandelles Au sommet de la tour de Shangaï, oui, j'ai d'la maille mais c'est pas moi qui la gagne C'est la thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé En tant que conjoint, je vide le compte joint toujours content, jamais contraint, mais faut qu'j'évite l'embonpoint J'ai des chromosomes colombiens qui me font gonfler du bassin quand j'bois des litres de bon vin J'fais pas le michto ni le parasite non l'hiver, j'fais trempettes aux Caraïbes ou je pars à Tignes Elle n'est pas radine, je n'la baratine pas, c'est le paradis, ça ? Non, c'est le paradigme Entrée, plat, dessert car je n'suis pas précaire dépenses astronomiques qui fascineraient Kepler Une vie d'pacha pépère, pourtant j'ai pas cé-per' ma femme, c'est mon mécène, Bill Gates et l'abbé Pierre J'regarde plus le prix des aliments, ma CB en guise de talisman Mais, si ma femme me quittait, j'irais camper dans une niche ou dans une cave trop humide chez l'habitant La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé J'l'ai rencontrée au lycée, on a tout d'suite fait des trucs très polissons Elle n'était pas trop friquée, elle a gravi les échelons sans compromission grave Aujourd'hui, elle pèse, elle a quinze ans de travail harassant au compteur Elle élève nos enfants et elle m'aime depuis que j'ai mis mon zizi dans son cur Elle est plutôt magnanime mais parfois d'humeur assassine, elle a les yeux carabine Qui projettent des éclairs comme l'Empereur Palpatine, là, j'panique en respirant fort comme Anakin Je me censure, je crois qu'elle me sent sûr de moi, ressassant Surprends-moi, y'a mon sang sur ses doigts J'ai des brûlures, un tas d'points de suture, le soir, elle me susurre Viens là, tiens le susucre La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme Mon amour ? Poupounette ? Pourquoi tu m'as commandé une nouvelle carte ? C'est une Visa Électron... Ça veut dire quoi, Électron ?</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lalalalalalalala lala Voulez-vous coucher avec moi, ce soir ? Je suis un être asocial, sauf ce soir, c'est la fête nationale J'oublie mes soucis, souris, c'est très anormal J'adore le 14 juillet pour me donner des forces J'avale deux ou trois bols de rillettes Après m'être tapé des barres chocolatées, j'ai Brûlé mon désespoir lors d'un autodafé À vrai dire, j'en ai marre de m'auto-clasher Donc j'enfile une chemise noire sur mon polo tâché Je sors grave défoncé mais ne vais pas m'dégonfler Non, j'suis prêt à foutre le feu au bal des pompiers Il est tard, à l'entrée de la caserne, des fêtards Fument ou jètent des pétards sur des silhouètes, moi J'arrive hilare, dis à dix miss bizarres Que je pratique six arts de Pise à Ibiza Là, je danse la chenille comme un sprinter rouillé Sors la lance d'incendie pour le concours de t-shirts mouillés I say Yes ! kiffe le temps d'un slow Sur un remix techno de La Marseillaise J'me sens trop content, j'attend ça depuis fort longtemps Je me déssape sur l'échelle quand débarque un mutant Galbé comme le Colosse de Rhodes armé d'une mâchoire de molosse Ce pseudo beau-gosse, moche même de dos, menace de me mordre Je quitte les lieux, les yeux baissés, fais vite, évite les grosses fessées J'médite nerveux et trop stressé, j'mérite même mieux mais J'erre en titubant dans les rues agitées J'ai l'air d'un hibou bourré tout blanc tsunamisé Respirant comme six sangliers, je sens mes idées s'engluer Rêve du trésor des templiers dans une atmosphère embrumée Une fille de joie mapparaît tel un mirage M'attire dans les bois où je retire son débardeur Elle est en nage, prête à calmer mes ardeurs Quand arrive des harders amateurs car c'est l'heure du tournage You might also like Alors, tu lui feras deep throat direct... Tu lui demandes pas...</t>
+          <t>Lalalalalalalala lala Voulez-vous coucher avec moi, ce soir ? Je suis un être asocial, sauf ce soir, c'est la fête nationale J'oublie mes soucis, souris, c'est très anormal J'adore le 14 juillet pour me donner des forces J'avale deux ou trois bols de rillettes Après m'être tapé des barres chocolatées, j'ai Brûlé mon désespoir lors d'un autodafé À vrai dire, j'en ai marre de m'auto-clasher Donc j'enfile une chemise noire sur mon polo tâché Je sors grave défoncé mais ne vais pas m'dégonfler Non, j'suis prêt à foutre le feu au bal des pompiers Il est tard, à l'entrée de la caserne, des fêtards Fument ou jètent des pétards sur des silhouètes, moi J'arrive hilare, dis à dix miss bizarres Que je pratique six arts de Pise à Ibiza Là, je danse la chenille comme un sprinter rouillé Sors la lance d'incendie pour le concours de t-shirts mouillés I say Yes ! kiffe le temps d'un slow Sur un remix techno de La Marseillaise J'me sens trop content, j'attend ça depuis fort longtemps Je me déssape sur l'échelle quand débarque un mutant Galbé comme le Colosse de Rhodes armé d'une mâchoire de molosse Ce pseudo beau-gosse, moche même de dos, menace de me mordre Je quitte les lieux, les yeux baissés, fais vite, évite les grosses fessées J'médite nerveux et trop stressé, j'mérite même mieux mais J'erre en titubant dans les rues agitées J'ai l'air d'un hibou bourré tout blanc tsunamisé Respirant comme six sangliers, je sens mes idées s'engluer Rêve du trésor des templiers dans une atmosphère embrumée Une fille de joie mapparaît tel un mirage M'attire dans les bois où je retire son débardeur Elle est en nage, prête à calmer mes ardeurs Quand arrive des harders amateurs car c'est l'heure du tournage Alors, tu lui feras deep throat direct... Tu lui demandes pas...</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>J'en ai vu des gars s'poser, j'aurais pu suivre l'exemple Mais c'était plus fort que moi, un peu comme kicker des samples Je vis, je ressens, imbibé d'essence J'ai incinéré mes limites et puis j'ai vidé les cendres Car, depuis 'tit-pe', je me libère dans le vide Dans la vie, ça me sidère, c'est le mystère qui me guide Comme un trou dans le bide ou le creux d'une ride Yo, ceux qui disent que c'est hideux, moi, je ris d'eux Coincé dans mon pied-à-terre, j'ai des envies célestes Me déleste des aberrations que mon ennui déteste Pendant qu'tu restes obsédé par tes cinq ou six complexes Je me dirige vers le haut comme l'accent circonflexe Et, comme un pigeon voyageur, j'observe les grandeurs Et prends de la hauteur à la manière d'un pilon ravageur Avant qu'une rancur obscure ne m'élimine Je passe au dessus des murs de mes limites x2 Céo est en haut, un drôle d'oiseau Son bec te pique, ses griffes t'agrippent, lacèrent ton dos Hippo est en bas, il gratte sans cesse La terre s'entasse, t'en perds la tête, ton corps s'embrase Écrire, c'est surpasser sa flemme Tailler sa craie, une ébauche d'appel à l'aide Même déchu, amer, abject, faut garder la pêche Allier le verbe à la sève, la merde à la crème Le rêve à la guerre, filtrer l'image d'un corps noyé Pour obtenir la jeune fille à la perle Travail vital, trivial acerbe qui, bien souvent, finit vite à la benne Car faut tordre le fer hors des repères, s'exclure de la horde des pairs Que d'effort et de persévérance et de projets immenses qu'on déterre Élaborant des thèses sommaires, c'est sûr J'assimile le sommeil à la mort et le vide à vos quêtes Salis vite vos têtes sensibles au swing affolant des césures Je joue les durs mais suis timide Je vais jeter mes jumelles, heurter mes prunelles Et creuser des tunnels sous les murs de mes limites Afin de semer la cruelle fatalité naturelle qui m'irrite You might also like x2 On a la tête dans les nuages et les pieds sur terre On regarde la lune, pas nos voûtes plantaires On imagine nos vies loin des envies sédentaires On évite au maximum que le doute nous enterre On travaille dans l'austérité, pour la postérité Pour pouvoir relire nos trouvailles quand on sera gros et ridé Puis enfin profiter d'un repos bien mérité Hippo, c'est cool ! Quoi ? On n'a pas trop dérivé... non Non, j'avoue qu'pour une fois on n'a pas trop dérivé Aventurons-nous plus profondément dans les abysses1</t>
+          <t>J'en ai vu des gars s'poser, j'aurais pu suivre l'exemple Mais c'était plus fort que moi, un peu comme kicker des samples Je vis, je ressens, imbibé d'essence J'ai incinéré mes limites et puis j'ai vidé les cendres Car, depuis 'tit-pe', je me libère dans le vide Dans la vie, ça me sidère, c'est le mystère qui me guide Comme un trou dans le bide ou le creux d'une ride Yo, ceux qui disent que c'est hideux, moi, je ris d'eux Coincé dans mon pied-à-terre, j'ai des envies célestes Me déleste des aberrations que mon ennui déteste Pendant qu'tu restes obsédé par tes cinq ou six complexes Je me dirige vers le haut comme l'accent circonflexe Et, comme un pigeon voyageur, j'observe les grandeurs Et prends de la hauteur à la manière d'un pilon ravageur Avant qu'une rancur obscure ne m'élimine Je passe au dessus des murs de mes limites x2 Céo est en haut, un drôle d'oiseau Son bec te pique, ses griffes t'agrippent, lacèrent ton dos Hippo est en bas, il gratte sans cesse La terre s'entasse, t'en perds la tête, ton corps s'embrase Écrire, c'est surpasser sa flemme Tailler sa craie, une ébauche d'appel à l'aide Même déchu, amer, abject, faut garder la pêche Allier le verbe à la sève, la merde à la crème Le rêve à la guerre, filtrer l'image d'un corps noyé Pour obtenir la jeune fille à la perle Travail vital, trivial acerbe qui, bien souvent, finit vite à la benne Car faut tordre le fer hors des repères, s'exclure de la horde des pairs Que d'effort et de persévérance et de projets immenses qu'on déterre Élaborant des thèses sommaires, c'est sûr J'assimile le sommeil à la mort et le vide à vos quêtes Salis vite vos têtes sensibles au swing affolant des césures Je joue les durs mais suis timide Je vais jeter mes jumelles, heurter mes prunelles Et creuser des tunnels sous les murs de mes limites Afin de semer la cruelle fatalité naturelle qui m'irrite x2 On a la tête dans les nuages et les pieds sur terre On regarde la lune, pas nos voûtes plantaires On imagine nos vies loin des envies sédentaires On évite au maximum que le doute nous enterre On travaille dans l'austérité, pour la postérité Pour pouvoir relire nos trouvailles quand on sera gros et ridé Puis enfin profiter d'un repos bien mérité Hippo, c'est cool ! Quoi ? On n'a pas trop dérivé... non Non, j'avoue qu'pour une fois on n'a pas trop dérivé Aventurons-nous plus profondément dans les abysses1</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sur scène, ils miaulent comme des chatons j'suis la loco', eux les wagons Ils pompent plus qu'un cur de baleine, bref, passons J'viens exciter les grands darons sans retirer mon pantalon J'suis un redoutable lyriciste doublé d'un fanfaron Allons, gardons la tête froide à la Jeffrey Dahmer Quand j't'appelle, use de ton portable comme d'un vibromasseur Désolé pour ceux qui voulaient des rimes prévisibles j'ai besoin De court-circuiter mes limites, de maliter pour pratiquer la pluralité féminine Tu veux caresser ma grande bip, ramène-moi vite le laissez-passer A38, ou bien reste en chien comme Gromit T'es dans la soute, j'suis dans l'cockpit t'es dans la semoule, j'suis en orbite T'es dans la soude, j'suis trop caustique je sens la mouille, tu sens trop l'shit J'envoie la foudre et la tempête, tu prends la poudre d'escampette J't'attrape, j'te fous dans la trempette j'aime pas le foot et je t'emmerde J'deviens vulgaire, faut qu'j'me tempère Patibulaire, ma mine t'enterre J'parie qu'tu blaires pas mon ton, frère, j'perds pas mon temps T'es médusé, baise les yeuz' ou j'te change en pierre Oui, je sais comment faire de ta vie un enfer Mais j'veux qu'on reste en bons termes, j't'offre un verre de mon sperme Ado', j'avais des boutons d'acné et j'étais vicelard J'voulais ken' mais les filles disaient Tu dégoûtes, non merci À présent, comme l'anesthésiste face au corps sur le billard J'peux m'faire plaisir tous les soirs, tous les trous sont permis You might also like Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Quand j'écris sur mon rooftop, j'm'imagine à Woodstock À table avec douze potes ou à poils dans un doux spot Ferme ta gueule de bulldog, va mâcher des gousses d'ail T'aimes jouer les rudeboys, sais-tu qu'on va tous die ? Ne pas négliger la surprise est un de mes points forts J'aime prendre des risques en sortant de ma zone de confort C'est comme ça qu'j'me sens vivant, c'est pour ça qu'c'est enivrant T'as la côte pour le moment mais reparlons-en dans mille ans J'suis le meilleur, tu l'sais, sous-côté, pas surfait Arrête de ruminer, petit, tu vas t'faire un ulcère Tu m'as vu turbiner, la nuit, en rêvant de succès Je manie l'absurde, l'humour, le spleen et le suspense Avant tout, Terrien, en quête d'orgasme souterrains Assieds-toi sur mon stalagmite et durcis jusqu'au bout des seins Laissez-les ramer dans des bateaux à moteurs tout mesquins Enchanté, appelez-moi Gandalf, Harry Potter ou Merlin Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin, ouais Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin1</t>
+          <t>Sur scène, ils miaulent comme des chatons j'suis la loco', eux les wagons Ils pompent plus qu'un cur de baleine, bref, passons J'viens exciter les grands darons sans retirer mon pantalon J'suis un redoutable lyriciste doublé d'un fanfaron Allons, gardons la tête froide à la Jeffrey Dahmer Quand j't'appelle, use de ton portable comme d'un vibromasseur Désolé pour ceux qui voulaient des rimes prévisibles j'ai besoin De court-circuiter mes limites, de maliter pour pratiquer la pluralité féminine Tu veux caresser ma grande bip, ramène-moi vite le laissez-passer A38, ou bien reste en chien comme Gromit T'es dans la soute, j'suis dans l'cockpit t'es dans la semoule, j'suis en orbite T'es dans la soude, j'suis trop caustique je sens la mouille, tu sens trop l'shit J'envoie la foudre et la tempête, tu prends la poudre d'escampette J't'attrape, j'te fous dans la trempette j'aime pas le foot et je t'emmerde J'deviens vulgaire, faut qu'j'me tempère Patibulaire, ma mine t'enterre J'parie qu'tu blaires pas mon ton, frère, j'perds pas mon temps T'es médusé, baise les yeuz' ou j'te change en pierre Oui, je sais comment faire de ta vie un enfer Mais j'veux qu'on reste en bons termes, j't'offre un verre de mon sperme Ado', j'avais des boutons d'acné et j'étais vicelard J'voulais ken' mais les filles disaient Tu dégoûtes, non merci À présent, comme l'anesthésiste face au corps sur le billard J'peux m'faire plaisir tous les soirs, tous les trous sont permis Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Quand j'écris sur mon rooftop, j'm'imagine à Woodstock À table avec douze potes ou à poils dans un doux spot Ferme ta gueule de bulldog, va mâcher des gousses d'ail T'aimes jouer les rudeboys, sais-tu qu'on va tous die ? Ne pas négliger la surprise est un de mes points forts J'aime prendre des risques en sortant de ma zone de confort C'est comme ça qu'j'me sens vivant, c'est pour ça qu'c'est enivrant T'as la côte pour le moment mais reparlons-en dans mille ans J'suis le meilleur, tu l'sais, sous-côté, pas surfait Arrête de ruminer, petit, tu vas t'faire un ulcère Tu m'as vu turbiner, la nuit, en rêvant de succès Je manie l'absurde, l'humour, le spleen et le suspense Avant tout, Terrien, en quête d'orgasme souterrains Assieds-toi sur mon stalagmite et durcis jusqu'au bout des seins Laissez-les ramer dans des bateaux à moteurs tout mesquins Enchanté, appelez-moi Gandalf, Harry Potter ou Merlin Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin, ouais Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin1</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Yo, faites passer le mot, là, c'est le moment de rapper rapidement Que les gens s'enflamment et disent à leurs voisins C'est fou, ils font ça finement Eh oui, mon ami, c'est la fine équipe, Hippocéo, c'est le feat' des feat' Et, quand le beat défile, les MC's s'débinent et les filles stériles deviennent hystériques Allez, lève tes deux mains si c'est bon, je pousse la voix comme Cicéron Avalons le son puis digérons, je te le dis c'est con si tu l'évites, mais bon Ça risque d'être compliqué de passer à côté car, quand la cadence est lancée, la foule se fait ballotter De gauche à droite, on est prêt, ça ne peut pas capoter, je ne suis pas un téléphone mais tu peux me tapoter Je suis actif, assez tactile, quasi drastique mais, la tactique pratique, je l'ai Pas de plastique dans mon fat spliff plutôt magique, quand je m'agite trop, la zic' s'élève Pas d'illusion, pas non plus d'allusion, c'est la forme et le fond que te donne le son Quand je prends le micro, c'est pour manier le temps, je ne suis pas dilettante et le taf est béton Tout le monde Hey ! Non, on avait dit Tout le monde Hey ! Encore une fois, oui, tout le monde Hey ! Plus fort que ça, tout l'monde Hey ! Yo, j'plane comme un Spoutnik, scat comme un Fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille, tu deviens croustillant Appelle-moi Raspoutine, je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils des onomatopées, quelques mots syncopés, des beats assourdissants Dindon ou papa poule dîne avec des babas cool, parfois, il rappe à Brooklyn emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean, j'me balade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga, ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars, bédave des 'tons-car', écris des haïkus, des cochonneries ou des mangas Des 'lopes-sa' m'accostent même en jogging 'coste-La' au poste, à La Poste, j'suis la fucking 're-sta' J'ai capté la mode, gars, fait couler la vodka, fabriquer des gobelets en recyclant ma 'pote-ca' Trinque et tringle, agrippe-toi, on grimpe au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent que, quand on déconne comme ça, ça décolle grave Hé, tu m'as l'air bien pâlot, viens dans mon bungalow déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses, et puis des Tsingtao, c'est vital On fait kiffer les demoiselles grivoises, tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle, celui qu'il fallait pour marquer l'Histoire You might also like Encore une fois, tout le monde Hey ! Une deuxième fois, tout le monde Hey ! Une troisième fois, tout le monde Hey ! Une dernière fois, tout le monde Hey ! Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe partout</t>
+          <t>Yo, faites passer le mot, là, c'est le moment de rapper rapidement Que les gens s'enflamment et disent à leurs voisins C'est fou, ils font ça finement Eh oui, mon ami, c'est la fine équipe, Hippocéo, c'est le feat' des feat' Et, quand le beat défile, les MC's s'débinent et les filles stériles deviennent hystériques Allez, lève tes deux mains si c'est bon, je pousse la voix comme Cicéron Avalons le son puis digérons, je te le dis c'est con si tu l'évites, mais bon Ça risque d'être compliqué de passer à côté car, quand la cadence est lancée, la foule se fait ballotter De gauche à droite, on est prêt, ça ne peut pas capoter, je ne suis pas un téléphone mais tu peux me tapoter Je suis actif, assez tactile, quasi drastique mais, la tactique pratique, je l'ai Pas de plastique dans mon fat spliff plutôt magique, quand je m'agite trop, la zic' s'élève Pas d'illusion, pas non plus d'allusion, c'est la forme et le fond que te donne le son Quand je prends le micro, c'est pour manier le temps, je ne suis pas dilettante et le taf est béton Tout le monde Hey ! Non, on avait dit Tout le monde Hey ! Encore une fois, oui, tout le monde Hey ! Plus fort que ça, tout l'monde Hey ! Yo, j'plane comme un Spoutnik, scat comme un Fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille, tu deviens croustillant Appelle-moi Raspoutine, je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils des onomatopées, quelques mots syncopés, des beats assourdissants Dindon ou papa poule dîne avec des babas cool, parfois, il rappe à Brooklyn emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean, j'me balade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga, ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars, bédave des 'tons-car', écris des haïkus, des cochonneries ou des mangas Des 'lopes-sa' m'accostent même en jogging 'coste-La' au poste, à La Poste, j'suis la fucking 're-sta' J'ai capté la mode, gars, fait couler la vodka, fabriquer des gobelets en recyclant ma 'pote-ca' Trinque et tringle, agrippe-toi, on grimpe au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent que, quand on déconne comme ça, ça décolle grave Hé, tu m'as l'air bien pâlot, viens dans mon bungalow déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses, et puis des Tsingtao, c'est vital On fait kiffer les demoiselles grivoises, tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle, celui qu'il fallait pour marquer l'Histoire Encore une fois, tout le monde Hey ! Une deuxième fois, tout le monde Hey ! Une troisième fois, tout le monde Hey ! Une dernière fois, tout le monde Hey ! Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe partout</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'arpente des rues remplies de grands blocs Y'a des gens partout mais je m'en moque C'est la solitude qui m'escorte Ça fait bizarre d'être un exilé à New York J'ai laissé à Paris quelques notes Mon père, ma mère, ma sur et mes potes J'aimerais qu'ils viennent frapper à ma porte Qu'ils arrivent par surprise, qu'on boive et puis qu'on sorte J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Que des factures dans ma boîte aux lettres Quelqu'un m'écrira, un jour, peut être Depuis qu'j'ai installé internet J'fais croire à tout l'monde que je mène une vie parfaite Je n'suis pas à plaindre, c'est un fait Quand j'ai envie d'aller faire la fête J'm'achète un paquet de cigarettes treize dollars Et, tout en regardant les passants, je végète You might also like J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Outre Atlantique, y'a des femmes très belles Je me rince l'il, mais je suis fidèle J'ai pris du bide et de la bouteille Il n'y a plus que mes enfants qui m'émerveillent Certains diront qu'j'suis en dépression Qu'on oublie tout après deux pressions Ceux qui vivent loin d'chez eux comprendront Tout reconstruire, c'est plus long qu'écrire une chanson J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Ici, j'n'ai pas l'droit de travailler J'suis redevenu papa au foyer J'vais finir obèse ou décharné Ma fille parle anglais mieux que moi, j'suis dépassé J'veux m'balader, la nuit dans Paris Du bon fromage avec mes amis Fuck le blizzard, j'veux qu'on m'rapatrie Je crois bien qu'j'ai c'qu'on appelle le mal du pays</t>
+          <t>J'arpente des rues remplies de grands blocs Y'a des gens partout mais je m'en moque C'est la solitude qui m'escorte Ça fait bizarre d'être un exilé à New York J'ai laissé à Paris quelques notes Mon père, ma mère, ma sur et mes potes J'aimerais qu'ils viennent frapper à ma porte Qu'ils arrivent par surprise, qu'on boive et puis qu'on sorte J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Que des factures dans ma boîte aux lettres Quelqu'un m'écrira, un jour, peut être Depuis qu'j'ai installé internet J'fais croire à tout l'monde que je mène une vie parfaite Je n'suis pas à plaindre, c'est un fait Quand j'ai envie d'aller faire la fête J'm'achète un paquet de cigarettes treize dollars Et, tout en regardant les passants, je végète J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Outre Atlantique, y'a des femmes très belles Je me rince l'il, mais je suis fidèle J'ai pris du bide et de la bouteille Il n'y a plus que mes enfants qui m'émerveillent Certains diront qu'j'suis en dépression Qu'on oublie tout après deux pressions Ceux qui vivent loin d'chez eux comprendront Tout reconstruire, c'est plus long qu'écrire une chanson J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Ici, j'n'ai pas l'droit de travailler J'suis redevenu papa au foyer J'vais finir obèse ou décharné Ma fille parle anglais mieux que moi, j'suis dépassé J'veux m'balader, la nuit dans Paris Du bon fromage avec mes amis Fuck le blizzard, j'veux qu'on m'rapatrie Je crois bien qu'j'ai c'qu'on appelle le mal du pays</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite Le mythe de l'ermite Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Son rêve est éphémère, il en savoure la fulgurance Son réveil a sonné, dehors des voitures ont klaxonné Et l'idée de tout quitter, dans son esprit, a résonné Fini les bruits de la ville, les files d'attente Fini les fils électriques, les briques et l'amiante Loin du vacarme et de l'agitation L'ermite a trouvé le calme nécessaire à sa méditation Quand le soleil se lève, l'euphorie l'envahit Il ouvre ses oreilles et rêve du clapotis de la pluie L'ermite connaît l'ivresse de ceux qui gravissent l'Everest Il a oublié le mot stress et tous ses titres de noblesse Tel un artiste, il tisse son univers céleste Maîtrise ses gestes, n'a pas l'air triste mais preste Son visage brille comme dix milles flammes Mais des milligrammes de regrets apparaissent en filigrane Nos vies s'effritent quand nos envies ne s'expriment pas Mais lui les vit à l'air libre, l'ermite ne déprime pas You might also like Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Ses seules héritières sont ses pensées qu'il écrit sans urgence Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite1</t>
+          <t>Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite Le mythe de l'ermite Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Son rêve est éphémère, il en savoure la fulgurance Son réveil a sonné, dehors des voitures ont klaxonné Et l'idée de tout quitter, dans son esprit, a résonné Fini les bruits de la ville, les files d'attente Fini les fils électriques, les briques et l'amiante Loin du vacarme et de l'agitation L'ermite a trouvé le calme nécessaire à sa méditation Quand le soleil se lève, l'euphorie l'envahit Il ouvre ses oreilles et rêve du clapotis de la pluie L'ermite connaît l'ivresse de ceux qui gravissent l'Everest Il a oublié le mot stress et tous ses titres de noblesse Tel un artiste, il tisse son univers céleste Maîtrise ses gestes, n'a pas l'air triste mais preste Son visage brille comme dix milles flammes Mais des milligrammes de regrets apparaissent en filigrane Nos vies s'effritent quand nos envies ne s'expriment pas Mais lui les vit à l'air libre, l'ermite ne déprime pas Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Ses seules héritières sont ses pensées qu'il écrit sans urgence Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite1</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps J'suis pas vif, plutôt végétatif J'fais d'l'hypotension, comme un vieux loir sous sédatifs J'raconte des histoires avec un débit soporifique Tout mon auditoire s'ennuie ferme, on dirait l'Hémicycle J'ai dû avaler une feuille de laitue mal lavée Sur laquelle un escargot et une tortue avaient bavé Car, toutes les trente secondes, j'ai besoin d'un break J'compte bien faire le tour du Monde en quatre-vingt siècles Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Au lycée, j'ai dû prendre le pli mais J'étais toujours le dernier à rendre ma copie Dans les soirées, j'évite d'aller faire pipi Car, quand je ressors des toilettes, la fête est finie Après dix-sept mois de grossesse, ma mère accoucha d'un zombie Mon nom d'famille, c'est Gonzalez, mais je suis loin d'être Speedy Oui, j'avance au ralenti, faut qu'je rachète un ordi' Mais, le temps que j'le branche, il ne sera plus sous garantie You might also like Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Depuis ma plus tendre enfance, les gens me crient Dépêche-toi En colo, les monos m'ont déjà oublié dans les bois C'est la vitesse qu'on encense, personne ne conte mes exploits Ceux qui m'aiment sont tiraillés entre rage et désespoir J'me dis qu'j'suis perfectionniste, mais est-ce bien la vérité ? Le temps qu'j'prépare le dîner, les aliments sont périmés J'rentre dans ma douche à l'aube, j'en ressors au crépuscule Faut qu'j'me grouille, j'suis à la bourre, j'vais rater ma sépulture Si nous sommes réunis ici aujourd'hui, c'est pour dire adieu à notre cher Hippo qui nous a quittés trop tard</t>
+          <t>Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps J'suis pas vif, plutôt végétatif J'fais d'l'hypotension, comme un vieux loir sous sédatifs J'raconte des histoires avec un débit soporifique Tout mon auditoire s'ennuie ferme, on dirait l'Hémicycle J'ai dû avaler une feuille de laitue mal lavée Sur laquelle un escargot et une tortue avaient bavé Car, toutes les trente secondes, j'ai besoin d'un break J'compte bien faire le tour du Monde en quatre-vingt siècles Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Au lycée, j'ai dû prendre le pli mais J'étais toujours le dernier à rendre ma copie Dans les soirées, j'évite d'aller faire pipi Car, quand je ressors des toilettes, la fête est finie Après dix-sept mois de grossesse, ma mère accoucha d'un zombie Mon nom d'famille, c'est Gonzalez, mais je suis loin d'être Speedy Oui, j'avance au ralenti, faut qu'je rachète un ordi' Mais, le temps que j'le branche, il ne sera plus sous garantie Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Depuis ma plus tendre enfance, les gens me crient Dépêche-toi En colo, les monos m'ont déjà oublié dans les bois C'est la vitesse qu'on encense, personne ne conte mes exploits Ceux qui m'aiment sont tiraillés entre rage et désespoir J'me dis qu'j'suis perfectionniste, mais est-ce bien la vérité ? Le temps qu'j'prépare le dîner, les aliments sont périmés J'rentre dans ma douche à l'aube, j'en ressors au crépuscule Faut qu'j'me grouille, j'suis à la bourre, j'vais rater ma sépulture Si nous sommes réunis ici aujourd'hui, c'est pour dire adieu à notre cher Hippo qui nous a quittés trop tard</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Les cous se découvrent, les cuisses apparaissent La bonne humeur fait la cour à la paresse Les terrasses des cafés se garnissent, les fontaines rejaillissent Tout glisse et les draps se salissent Sur les trottoirs fleurissent deal et corruption Sur la chaussée poussent des pics de pollution Il me faut du son, des spliffs à profusion Il est trop tard pour une petite liposuccion Les stars sans talon enlèvent leurs sandales et leur pantalon Sans ostentation, mais la presse à scandales s'emballe Et embrase les gens qui bavent grave devant tant de tentation Des gars lambdas lancent la bamba sans grâce Des bandes de touristes s'entassent à l'Alhambra Bombardement de refrains stupides et fédérateurs Tandis que les radiateurs envient les ventilateurs Les kebabs deviennent les repères de Vulcain Après déjeuner, la sieste, après la sieste vient l'heure du bain Dans les transports en commun, les gens suent Plus collants qu'une horde de sangsues, quand on en sort, ça fait du bien Allongé à l'ombre, à la cool, je mate les belles poules Qui lèchent des boules de glace Toutes ses courbes m'envoûtent, un peu saoûl, je drague Je suis plus romantique quand mes bourses parlent Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, je paresse avec aisance, tout baigne Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, j'ai redécouvert mes sens, tout baigne You might also like C'matin, en ouvrant la fenêtre, le soleil avait repris ses droits J'ai eu tellement la gaule que j'arrivais plus à pisser droit J'oublierai presque que, la vie, c'est trash, que les destins sont tragiques Que la misère s'acharne sur mes cousins d'Afrique Pendant qu'des machines à fric me sodomisent pour le principe J'm'en fous, il fait beau, j'm'exhibe à la fenêtre, en slip J'me mettrais bien à poil, mais la vieille, en face, s'occupe des plantes T'imagines le choc devant un zizi qui bande ? Il fait chaud et la sève afflue à nouveau dans mes membres J'me sens comme un jeune chêne balançant ses glands auprès du vent Au creux du ventre, une envie d'sorbet citron Aujourd'hui, ne rien branler, XXX petit con Va entamer l'Picon, à quinze heure, en plein soleil Se jeter dans les buissons Bonjour, jeune perce-oreille J'fais des bisous à tout l'monde, aujourd'hui, il fait un temps radieux J'm'en fous qu'il y ait des bombes qui tombent, qu'il y ait des mômes qui crèvent Et qu'on soit vingt pour cents d'cons dans c'pays Qui dis-je ? Vingt pour cents ? Bien plus, mais bon, tant pis J'm'en fous tant qu'il y a d'la bière fraîche dans mon go-Fri' C'est pas la crise, y'a encore d'la Despe' à l'épicerie Aller pisser au bord de l'eau, sentir la bise caresser mes breloques Le plaisir simple d'admirer les belettes Petit freestyle sur un air de gratte, avec les collègues Y'a rien que j'kiffe plus dans la life, pour être honnête Hippo est revenu avec sa macédoine de légumes Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule, toi aussi ?</t>
+          <t>Les cous se découvrent, les cuisses apparaissent La bonne humeur fait la cour à la paresse Les terrasses des cafés se garnissent, les fontaines rejaillissent Tout glisse et les draps se salissent Sur les trottoirs fleurissent deal et corruption Sur la chaussée poussent des pics de pollution Il me faut du son, des spliffs à profusion Il est trop tard pour une petite liposuccion Les stars sans talon enlèvent leurs sandales et leur pantalon Sans ostentation, mais la presse à scandales s'emballe Et embrase les gens qui bavent grave devant tant de tentation Des gars lambdas lancent la bamba sans grâce Des bandes de touristes s'entassent à l'Alhambra Bombardement de refrains stupides et fédérateurs Tandis que les radiateurs envient les ventilateurs Les kebabs deviennent les repères de Vulcain Après déjeuner, la sieste, après la sieste vient l'heure du bain Dans les transports en commun, les gens suent Plus collants qu'une horde de sangsues, quand on en sort, ça fait du bien Allongé à l'ombre, à la cool, je mate les belles poules Qui lèchent des boules de glace Toutes ses courbes m'envoûtent, un peu saoûl, je drague Je suis plus romantique quand mes bourses parlent Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, je paresse avec aisance, tout baigne Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, j'ai redécouvert mes sens, tout baigne C'matin, en ouvrant la fenêtre, le soleil avait repris ses droits J'ai eu tellement la gaule que j'arrivais plus à pisser droit J'oublierai presque que, la vie, c'est trash, que les destins sont tragiques Que la misère s'acharne sur mes cousins d'Afrique Pendant qu'des machines à fric me sodomisent pour le principe J'm'en fous, il fait beau, j'm'exhibe à la fenêtre, en slip J'me mettrais bien à poil, mais la vieille, en face, s'occupe des plantes T'imagines le choc devant un zizi qui bande ? Il fait chaud et la sève afflue à nouveau dans mes membres J'me sens comme un jeune chêne balançant ses glands auprès du vent Au creux du ventre, une envie d'sorbet citron Aujourd'hui, ne rien branler, XXX petit con Va entamer l'Picon, à quinze heure, en plein soleil Se jeter dans les buissons Bonjour, jeune perce-oreille J'fais des bisous à tout l'monde, aujourd'hui, il fait un temps radieux J'm'en fous qu'il y ait des bombes qui tombent, qu'il y ait des mômes qui crèvent Et qu'on soit vingt pour cents d'cons dans c'pays Qui dis-je ? Vingt pour cents ? Bien plus, mais bon, tant pis J'm'en fous tant qu'il y a d'la bière fraîche dans mon go-Fri' C'est pas la crise, y'a encore d'la Despe' à l'épicerie Aller pisser au bord de l'eau, sentir la bise caresser mes breloques Le plaisir simple d'admirer les belettes Petit freestyle sur un air de gratte, avec les collègues Y'a rien que j'kiffe plus dans la life, pour être honnête Hippo est revenu avec sa macédoine de légumes Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule, toi aussi ?</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mesdames, Mesdemoiselles, Messieurs, prosternez-vous devant le roi car, après tout, c'est grâce à vous qu'il est là x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi se pavane, et la foule l'acclame Costume Armani, lunettes Dior pour sa femme Mais le roi sait causer comme le Français moyen Son style est déposé, bossé comme un Américain Toi aussi, citoyen, un jour, tu vivras dans le luxe Tu cacheras ton butin dans une banque au Benelux Mais il faut être malin, ne pas avoir de scrupule Comme le roi, tous les matins, faire du jogging en sous-pull Le roi est aimable, son sourire impeccable Il le retire régulièrement pour mâchouiller quelques syllabes Le roi divertit ses fidèles en montant sur ses grands chevaux Mais il porte, en guise de couronne, un bonnet à grelots Il saute en parachute depuis le toit de son palais Au bord de la mer, il construit des châteaux de sable en galets Et, dans un lac rempli de la sueur du contribuable À l'aide d'un trident doré, le roi pèche des dauphins gonflables You might also like Ce soir, en direct, la douche du roi Vers minuit, son altesse se mouchera Demain, sa maîtresse accouchera Mais cela ne nous regarde pas x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi n'a qu'à claquer des doigts, tous ses bras droits se coupent en quatre Pour l'apaiser quand il guerroie, la reine chante et joue de la harpe Notre bon roi joue au bowling avec une balle de golf Ses convictions font des loopings comme dans les bras de Morphée Oui, il jongle avec les mots mais ne contrôle pas tout On dit qu'il parle trop, moi, je dis qu'il a du bagout Il a l'art et la manière de se donner raison Expert en la matière, quelle que soit la question Le roi nous a convaincu que la France est en danger À cause de ces intrus refusant de travailler Moi, je dis qu'il a raison, mais ce que lui ne vous dit pas C'est que les fainéants en question ne sont pas toujours ceux qu'on croit Donc prosternez-vous devant le roi Car, après tout, c'est grâce à vous qu'il est là Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Venez vous divertir au spectacle permanent Des rampants, des vampires aux sourires étincelants Venez profiter des plus beaux duos comiques Et oubliez deux minutes qu'ils ont la bombe atomique Y'en a marre ! Y'en a marre ! Messire, messire ! Le peuple est colère ! La révolte gronde aux portes du palais ! Regardez cet homme qu'harangue la foule ! Citoyens ! Citoyens ! Écoutez-moi ! Y'en a marre ! Il a flatté lélectorat, du jeune loup au doyen Pour atteindre son but, la fin justifie les moyens Il a avoué ouvertement vouloir sasseoir sur le trône Régner sur le gouvernement tout en jouant les icônes Tous les jours à la une, le roi a promis la lune Mais il a retourné sa veste une fois son nom dans l'urne L'espoir s'est fait la belle, fini la mascarade Il promettait le Septième Ciel mais a laissé la masse en rade Le peuple descend dans la rue pour manifester sa grogne Le roi envoie les gardiens d'la couronne pour qu'ils cognent Les plus démunis en font les frais, frôlent le game over Le roi répond Mais que voulez-vous ? Pour qu'il y ait des riches, il faut des pauvres Aux mics, citoyens, ôtez tous vos baillons ! Braillons, actions, n'attendons pas 2789 pour une nouvelle révolution1</t>
+          <t>Mesdames, Mesdemoiselles, Messieurs, prosternez-vous devant le roi car, après tout, c'est grâce à vous qu'il est là x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi se pavane, et la foule l'acclame Costume Armani, lunettes Dior pour sa femme Mais le roi sait causer comme le Français moyen Son style est déposé, bossé comme un Américain Toi aussi, citoyen, un jour, tu vivras dans le luxe Tu cacheras ton butin dans une banque au Benelux Mais il faut être malin, ne pas avoir de scrupule Comme le roi, tous les matins, faire du jogging en sous-pull Le roi est aimable, son sourire impeccable Il le retire régulièrement pour mâchouiller quelques syllabes Le roi divertit ses fidèles en montant sur ses grands chevaux Mais il porte, en guise de couronne, un bonnet à grelots Il saute en parachute depuis le toit de son palais Au bord de la mer, il construit des châteaux de sable en galets Et, dans un lac rempli de la sueur du contribuable À l'aide d'un trident doré, le roi pèche des dauphins gonflables Ce soir, en direct, la douche du roi Vers minuit, son altesse se mouchera Demain, sa maîtresse accouchera Mais cela ne nous regarde pas x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi n'a qu'à claquer des doigts, tous ses bras droits se coupent en quatre Pour l'apaiser quand il guerroie, la reine chante et joue de la harpe Notre bon roi joue au bowling avec une balle de golf Ses convictions font des loopings comme dans les bras de Morphée Oui, il jongle avec les mots mais ne contrôle pas tout On dit qu'il parle trop, moi, je dis qu'il a du bagout Il a l'art et la manière de se donner raison Expert en la matière, quelle que soit la question Le roi nous a convaincu que la France est en danger À cause de ces intrus refusant de travailler Moi, je dis qu'il a raison, mais ce que lui ne vous dit pas C'est que les fainéants en question ne sont pas toujours ceux qu'on croit Donc prosternez-vous devant le roi Car, après tout, c'est grâce à vous qu'il est là Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Venez vous divertir au spectacle permanent Des rampants, des vampires aux sourires étincelants Venez profiter des plus beaux duos comiques Et oubliez deux minutes qu'ils ont la bombe atomique Y'en a marre ! Y'en a marre ! Messire, messire ! Le peuple est colère ! La révolte gronde aux portes du palais ! Regardez cet homme qu'harangue la foule ! Citoyens ! Citoyens ! Écoutez-moi ! Y'en a marre ! Il a flatté lélectorat, du jeune loup au doyen Pour atteindre son but, la fin justifie les moyens Il a avoué ouvertement vouloir sasseoir sur le trône Régner sur le gouvernement tout en jouant les icônes Tous les jours à la une, le roi a promis la lune Mais il a retourné sa veste une fois son nom dans l'urne L'espoir s'est fait la belle, fini la mascarade Il promettait le Septième Ciel mais a laissé la masse en rade Le peuple descend dans la rue pour manifester sa grogne Le roi envoie les gardiens d'la couronne pour qu'ils cognent Les plus démunis en font les frais, frôlent le game over Le roi répond Mais que voulez-vous ? Pour qu'il y ait des riches, il faut des pauvres Aux mics, citoyens, ôtez tous vos baillons ! Braillons, actions, n'attendons pas 2789 pour une nouvelle révolution1</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Avalé par un cachalot glouton Me voilà dans un saloon envoûtant Je n'suis pas là pour soulever des croupions Mais j'vais sans doute m'y saouler en gloussant C'est assez cocasse, dans le ventre de ce cétacé vorace Cette bande de vieux rescapés coriaces n'est pas très loquace, mais j'crois que leur chemin est pavé d'audace Je voudrais faire plus ample connaissance, moi qui trouvais ma vie sans consistance Qui me comportais comme un tire-au-flanc, j'ai gagné ce concours d circonstances Du coup, ce soir, j'me lâch Oh oui Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Y'a les idoles de mon enfance, les ignorer serait une offense J'aimerais leur faire quelques offrandes mes dents de lait, du jus d'orange Mes biscuits en formes d'animaux, ma liste des plus beaux gros mots Mes Tortues Ninja, mes robots, histoire, câlin et au dodo C'est bien trop beau pour être faux, il est trop tard pour prendre l'eau Dans ce bar rempli de barjots, la folie n'est pas un fardeau J'aurais pas voté pour, mais ça vaut le détour, ça me donne envie de boire, de prolonger mon séjour Le poker, j'y connais rien mais j'ai le sourire du Joker et plus le spleen baudelairien You might also like Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Allez, on s'motive quoi On fait preuve d'un peu d'entrain et, tous ensemble, on Tape, tape, tape des mains, tout le monde tape, tape, tape des mains Encore tape, tape, tape des mains plus fort tape, tape, tape Pinocchio bluffe, ça se voit, mais je ne me moque pas Cléo se noie dans un tout petit bocal de vodka D'habitude, je bulle comme un chewing-gum, là, je rêve d'un beach-volley avec Wilson Et de boire un p'tit cocktail avec la P'tite Sirène qui est aussi borgne que pompette Mais s'apprête à péter un câble car le capitaine Achab lui fait du pied sous la table et sans que cela ne l'accable Poséidon triche en regardant sur son trident le reflet de leurs cartes tout en sifflant, Bob lui doit de l'argent Il éponge ses dettes, la Créature du lac noir surveille ce bordel comme un proxénète Jack Dawson se réchauffe, a commandé des gaufres Quelle affolante débauche, y'a que des alcoolos et des beaufs Qui n'pensent qu'à boire des coups, parler tout bas des outrages des pirates et des coups bas des rats d'égouts Le pianiste regrette son orgue, rien d'étonnant, ici, rien n'est aux normes Je les avais idéalisés, j'suis déstabilisé comme ceux qui découvraient la voix des stars du cinéma muet Faut qu'j'tourne les talons sinon j'vais trouver le temps long, vouloir accrocher du sent-bon à la moustache du baron, ouais Faut qu'j'me casse quoi...</t>
+          <t>Avalé par un cachalot glouton Me voilà dans un saloon envoûtant Je n'suis pas là pour soulever des croupions Mais j'vais sans doute m'y saouler en gloussant C'est assez cocasse, dans le ventre de ce cétacé vorace Cette bande de vieux rescapés coriaces n'est pas très loquace, mais j'crois que leur chemin est pavé d'audace Je voudrais faire plus ample connaissance, moi qui trouvais ma vie sans consistance Qui me comportais comme un tire-au-flanc, j'ai gagné ce concours d circonstances Du coup, ce soir, j'me lâch Oh oui Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Y'a les idoles de mon enfance, les ignorer serait une offense J'aimerais leur faire quelques offrandes mes dents de lait, du jus d'orange Mes biscuits en formes d'animaux, ma liste des plus beaux gros mots Mes Tortues Ninja, mes robots, histoire, câlin et au dodo C'est bien trop beau pour être faux, il est trop tard pour prendre l'eau Dans ce bar rempli de barjots, la folie n'est pas un fardeau J'aurais pas voté pour, mais ça vaut le détour, ça me donne envie de boire, de prolonger mon séjour Le poker, j'y connais rien mais j'ai le sourire du Joker et plus le spleen baudelairien Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Allez, on s'motive quoi On fait preuve d'un peu d'entrain et, tous ensemble, on Tape, tape, tape des mains, tout le monde tape, tape, tape des mains Encore tape, tape, tape des mains plus fort tape, tape, tape Pinocchio bluffe, ça se voit, mais je ne me moque pas Cléo se noie dans un tout petit bocal de vodka D'habitude, je bulle comme un chewing-gum, là, je rêve d'un beach-volley avec Wilson Et de boire un p'tit cocktail avec la P'tite Sirène qui est aussi borgne que pompette Mais s'apprête à péter un câble car le capitaine Achab lui fait du pied sous la table et sans que cela ne l'accable Poséidon triche en regardant sur son trident le reflet de leurs cartes tout en sifflant, Bob lui doit de l'argent Il éponge ses dettes, la Créature du lac noir surveille ce bordel comme un proxénète Jack Dawson se réchauffe, a commandé des gaufres Quelle affolante débauche, y'a que des alcoolos et des beaufs Qui n'pensent qu'à boire des coups, parler tout bas des outrages des pirates et des coups bas des rats d'égouts Le pianiste regrette son orgue, rien d'étonnant, ici, rien n'est aux normes Je les avais idéalisés, j'suis déstabilisé comme ceux qui découvraient la voix des stars du cinéma muet Faut qu'j'tourne les talons sinon j'vais trouver le temps long, vouloir accrocher du sent-bon à la moustache du baron, ouais Faut qu'j'me casse quoi...</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>On la trouve dans les yeux des bouts d'chou Dans ceux des vieux en bout d'course À bout d'souffle Elle t'émeut et t'époustoufle Elle supprime l'impossible, elle est fulgurante Qu'elle résulte du Big-Bang Ou d'un simple coup d'foudre Elle peut générer de longs débats Quand ton esprit devient gazeux Elle peut te faire crier Eurêka ! Pas besoin d'être pyrotechnicien Elle se niche dans ton cortex ou ton cerveau reptilien Elle est essentielle à ton ascension, éveille tes sens Te pousse à faire des choses démentielles sans y faire attention Sans elle, tout semblerait insipide On voudrait qu'elle scintille sans cesse Mais elle s'éteint si vite Comme une perruque dans la soupe Un oiseau dans le mazout Un clandestin dans la soute Un ? J'suis v'nu avec mes macaques C'est le haut du palmier Ti punch coco ça claque Avoue tu peux pas l'nier J'suis multivitamines, des rimes multisyllabiques Savoure ce p'tit mélange façon Michel-Ange Juste une étincelle pour tout exposer Tous les mélomanes voient leurs vux exaucés Pour décrocher la Lune avec des phases mythiques C'est L'Azraël qui r'peint la basilique Au clair de la plume j'me mets pas d'limites Transforme le plomb en or comme un alchimiste You might also like Couplet 3 Enz Gratte une allumette et mate la tête que tu tires J'aime laisser des blancs comme la merde que tu sniffes J'en fais mon affaire Mon son dans ta caisse On brûle tout en passant on replantera après Pas l'genre qu'on arrête même sous une averse Dis-moi que t'entends c'que tu as tenté Ancien jeune tard-pé On a le terroir et le patrimoine Le rap d'ici ne va pas si mal Par le vasistas Tu as une vision déformée Donc ouvre la porte et tu verras mieux par miracle j'marche À la vitesse de la lumière ils peuvent toujours courir J'parle de femmes, de moi, de vie, de fous rires Et si tu vois de la lumière qui vient des coulisses J'suis pas une étincelle Mais une étoile parmi les bougies Couplet 4 Fredo Faya Si tu parles d'incendies Sans savoir ce qui les attise Tu n'verras aucune étincelle dans mes yeux Je te méprise Tu peux pleurer toutes les larmes de ton corps et taper ta crise Si tu veux voir des étincelles mets plutôt tes doigts dans la prise Ou tes dents sur une scie Ta bouche autour d'un fusil Imbibe-toi d'essence Fais-nous un feu d'artifice Brille, vas-y faut qu't'étincelle Illumine-toi, scintille comme une princesse Je pourrais t'dire qu'elles sont dans tout, qu'elles commencent tout Te dire qu'on est rien sans elles mais, qu'est qu'tu t'en fous ? Avec ou sans elles se fera ce qui doit s'faire Tu peux éteindre la lumière j'continuerai d'y voir clair Couplet 5 Udada J'me brûle les oid', les bouts de cils à force de crépiter Ma muse elle est de celles qui brillent faites place à l'invitée J'ai nommé l'étincelle la seule que j'aime créditer De celles qui me mettent en scène quand je dois débiter Le trait d'génie, veni vidi vici L'idée face à l'énigme, la soluce dans les mythes J'suis la pierre de briquet, le pass, le ticket J'suis le claquement d'doigts, L'eurêka de Détective Mickey Un commencement, un prequel La saucisse avant l'teckel L'origine du monde, l'embrasement avant lequel Les murailles tombent en feu comme les ch'veux de Sonia Rykiel Udada comme seule étiquette Couplet 6 Abuz C'est le drame, je prends le mic' et tout crame D'abord une étincelle puis fumé comme un 12 grammes Pousse-toi avant qu'ça devienne tout crade L'espoir entre dans ta rue et dans ta bourgade Si tu te fourvoies, regarde il reste de l'amour Dans l'cur des pauvres et dans celui des bourgeois En cassation, le désespoir se pourvoie Il reste une étincelle pour que le bonheur on l'vouvoie Le monde gronde et je vois la foudre Juste une étincelle pour mettre le feu aux poudres Tout se mélange dans un dé à coudre Poudre aux yeux, voir les choses se résoudre Juste une étincelle Imaginer l'iris, une lueur en jaillit C'est l'instant que j'choisis, la volonté d'agir Comme un tour de magie encore un peu fragile C'est un feu d'artifices géant aux pieds d'argile C'est l'éclair de génie qui scintille l'zénith La lumière qui s'éteint dans l'il du sénile C'est le fracas du choix de l'idée inaudible Qui dans un cur vaillant détruira l'impossible Qu'un souffle anéantit en dispersant les poudres Mais qui s'allume dans l'il des frappés-par-la-foudre C'est le départ du feu en frottant des silex Le fruit des étincelles qui s'écrivent en dix lettres Couplet 8 Neobled Je mets le feu aux poudres Quand j'me consume dans un barillet J'suis prêt à partir dans la foudre Au loin, sans m'faire prier J'suis l'étincelle, celle qui fait la différence Qui fait l'tri, qui tranche entre savoir et ignorance J'l'exposerai, je mets au grand jour toutes mes nuances Autant faire court, l'important est d'tenir la distance S'il n'est pas d'miracle, c'est qu'ici-bas tout n'est que chimie Que tout s'imagine, s'transforme ou se modifie J'donne vie aux idées, aux théories comme celle de Newton Je suis le réflexe qui sauve dans l'arène lorsque ça bastonne J'emboîte le pas au plus profond de tous les désirs La torche dans l'ombre qui éclaire le chemin du martyr</t>
+          <t>On la trouve dans les yeux des bouts d'chou Dans ceux des vieux en bout d'course À bout d'souffle Elle t'émeut et t'époustoufle Elle supprime l'impossible, elle est fulgurante Qu'elle résulte du Big-Bang Ou d'un simple coup d'foudre Elle peut générer de longs débats Quand ton esprit devient gazeux Elle peut te faire crier Eurêka ! Pas besoin d'être pyrotechnicien Elle se niche dans ton cortex ou ton cerveau reptilien Elle est essentielle à ton ascension, éveille tes sens Te pousse à faire des choses démentielles sans y faire attention Sans elle, tout semblerait insipide On voudrait qu'elle scintille sans cesse Mais elle s'éteint si vite Comme une perruque dans la soupe Un oiseau dans le mazout Un clandestin dans la soute Un ? J'suis v'nu avec mes macaques C'est le haut du palmier Ti punch coco ça claque Avoue tu peux pas l'nier J'suis multivitamines, des rimes multisyllabiques Savoure ce p'tit mélange façon Michel-Ange Juste une étincelle pour tout exposer Tous les mélomanes voient leurs vux exaucés Pour décrocher la Lune avec des phases mythiques C'est L'Azraël qui r'peint la basilique Au clair de la plume j'me mets pas d'limites Transforme le plomb en or comme un alchimiste Couplet 3 Enz Gratte une allumette et mate la tête que tu tires J'aime laisser des blancs comme la merde que tu sniffes J'en fais mon affaire Mon son dans ta caisse On brûle tout en passant on replantera après Pas l'genre qu'on arrête même sous une averse Dis-moi que t'entends c'que tu as tenté Ancien jeune tard-pé On a le terroir et le patrimoine Le rap d'ici ne va pas si mal Par le vasistas Tu as une vision déformée Donc ouvre la porte et tu verras mieux par miracle j'marche À la vitesse de la lumière ils peuvent toujours courir J'parle de femmes, de moi, de vie, de fous rires Et si tu vois de la lumière qui vient des coulisses J'suis pas une étincelle Mais une étoile parmi les bougies Couplet 4 Fredo Faya Si tu parles d'incendies Sans savoir ce qui les attise Tu n'verras aucune étincelle dans mes yeux Je te méprise Tu peux pleurer toutes les larmes de ton corps et taper ta crise Si tu veux voir des étincelles mets plutôt tes doigts dans la prise Ou tes dents sur une scie Ta bouche autour d'un fusil Imbibe-toi d'essence Fais-nous un feu d'artifice Brille, vas-y faut qu't'étincelle Illumine-toi, scintille comme une princesse Je pourrais t'dire qu'elles sont dans tout, qu'elles commencent tout Te dire qu'on est rien sans elles mais, qu'est qu'tu t'en fous ? Avec ou sans elles se fera ce qui doit s'faire Tu peux éteindre la lumière j'continuerai d'y voir clair Couplet 5 Udada J'me brûle les oid', les bouts de cils à force de crépiter Ma muse elle est de celles qui brillent faites place à l'invitée J'ai nommé l'étincelle la seule que j'aime créditer De celles qui me mettent en scène quand je dois débiter Le trait d'génie, veni vidi vici L'idée face à l'énigme, la soluce dans les mythes J'suis la pierre de briquet, le pass, le ticket J'suis le claquement d'doigts, L'eurêka de Détective Mickey Un commencement, un prequel La saucisse avant l'teckel L'origine du monde, l'embrasement avant lequel Les murailles tombent en feu comme les ch'veux de Sonia Rykiel Udada comme seule étiquette Couplet 6 Abuz C'est le drame, je prends le mic' et tout crame D'abord une étincelle puis fumé comme un 12 grammes Pousse-toi avant qu'ça devienne tout crade L'espoir entre dans ta rue et dans ta bourgade Si tu te fourvoies, regarde il reste de l'amour Dans l'cur des pauvres et dans celui des bourgeois En cassation, le désespoir se pourvoie Il reste une étincelle pour que le bonheur on l'vouvoie Le monde gronde et je vois la foudre Juste une étincelle pour mettre le feu aux poudres Tout se mélange dans un dé à coudre Poudre aux yeux, voir les choses se résoudre Juste une étincelle Imaginer l'iris, une lueur en jaillit C'est l'instant que j'choisis, la volonté d'agir Comme un tour de magie encore un peu fragile C'est un feu d'artifices géant aux pieds d'argile C'est l'éclair de génie qui scintille l'zénith La lumière qui s'éteint dans l'il du sénile C'est le fracas du choix de l'idée inaudible Qui dans un cur vaillant détruira l'impossible Qu'un souffle anéantit en dispersant les poudres Mais qui s'allume dans l'il des frappés-par-la-foudre C'est le départ du feu en frottant des silex Le fruit des étincelles qui s'écrivent en dix lettres Couplet 8 Neobled Je mets le feu aux poudres Quand j'me consume dans un barillet J'suis prêt à partir dans la foudre Au loin, sans m'faire prier J'suis l'étincelle, celle qui fait la différence Qui fait l'tri, qui tranche entre savoir et ignorance J'l'exposerai, je mets au grand jour toutes mes nuances Autant faire court, l'important est d'tenir la distance S'il n'est pas d'miracle, c'est qu'ici-bas tout n'est que chimie Que tout s'imagine, s'transforme ou se modifie J'donne vie aux idées, aux théories comme celle de Newton Je suis le réflexe qui sauve dans l'arène lorsque ça bastonne J'emboîte le pas au plus profond de tous les désirs La torche dans l'ombre qui éclaire le chemin du martyr</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Il la touche et l'épie sous sa douche, la regarde d'un air louche En mettant son index devant sa bouche Lorsqu'il est en rut, veut jouer les brutes, essayer des trucs Que sa femme refuse que sa vie le frustre, après, il s'excuse Il a construit cette pièce au sous-sol il y a presque vingt ans La nuit, il y descend tout seul, nourrit son enfant Son bijou qu'il cache, son jouet qu'il tache, la chair De sa chair qu'il achève et chevauche sans relâche Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un homme d'un certain âge qui vit dans une maison d'retraite Perdu dans sa campagne, sa famille vit à cinq cents kilomètres Resté fidèle à ses terres, doté d'un fort tempérament Qui lui a valu un avertissement à son arrivée dans l'établissement Et, dernièrement, son état d'santé s'est aggravé Les auxiliaires le disent violent, seules ses pilules peuvent le calmer Maltraité, insulté, drogué, isolé, son destin est scellé C'est muré dans l'silence qu'il s'en est allé You might also like Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Lui n'a jamais su ce qu'elle avait vécu Pourquoi elle ne veut plus, devant lui, se mettre à nu Pourquoi ce regard vide, le soir, dans le lit Pourquoi toutes ces pensées morbides qui ne lui laissent aucun répit Elle a perdu sa joie de vivre, elle ne vit plus que dans les livres Elle se terre dans un abri fait de prises indestructibles Il a beau frapper à sa porte, elle lui a interdit d'entrer Non, elle n'est pas assez forte, elle ne peut rien lui raconter Plus les années passent, plus elle s'enfonce Sans même s'en rendre compte, elle a quitté la surface Pour devenir une ombre hantée par ses démons Elle saccommode de ce monde, ne fait de la figuration Lui a cru qu'elle allait mieux, malgré cette lueur dans ses yeux Comme si, au milieu de son cur, quelqu'un avait planté un pieu Il la trouvera au pied du lit, sans vie Ses secrets l'ont emportée, elle est partie sans bruit Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un gamin de quatorze piges, un peu rêveur et fan de catch Il aime les jeux vidéos, le foot, les soirs de grand match Il vit dans une grande tour près d'Paris avec ses parents Un jeune plein d'vie et souriant, sans problème apparent Mais, un jour de novembre, il a fini par craquer À force d'être racketté, frappé, menacé, il s'est tiré Une balle dans la tête et laisse impuni, ses agresseurs Car personne n'a su et ne saura qu'il était devenu un souffre-douleur Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Son collègue a commis l'adultère en violant Des sans-abri dans des cimetières, il l'a vu faire, il a dû s'taire Il n'en a même pas parlé à son frère, il se ferme Cachés dans sa mémoire, ses souvenirs s'amoncellent Il a peur de s'endormir, d'être emporté dans ses cauchemars Où la matraque de son collègue fracasse une mâchoire Il revoit ses grosses mains fouillant dans les poches des cadavres Il hurle en silence au milieu de mille-et-un tableaux macabres x2 Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Chut...</t>
+          <t>Il la touche et l'épie sous sa douche, la regarde d'un air louche En mettant son index devant sa bouche Lorsqu'il est en rut, veut jouer les brutes, essayer des trucs Que sa femme refuse que sa vie le frustre, après, il s'excuse Il a construit cette pièce au sous-sol il y a presque vingt ans La nuit, il y descend tout seul, nourrit son enfant Son bijou qu'il cache, son jouet qu'il tache, la chair De sa chair qu'il achève et chevauche sans relâche Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un homme d'un certain âge qui vit dans une maison d'retraite Perdu dans sa campagne, sa famille vit à cinq cents kilomètres Resté fidèle à ses terres, doté d'un fort tempérament Qui lui a valu un avertissement à son arrivée dans l'établissement Et, dernièrement, son état d'santé s'est aggravé Les auxiliaires le disent violent, seules ses pilules peuvent le calmer Maltraité, insulté, drogué, isolé, son destin est scellé C'est muré dans l'silence qu'il s'en est allé Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Lui n'a jamais su ce qu'elle avait vécu Pourquoi elle ne veut plus, devant lui, se mettre à nu Pourquoi ce regard vide, le soir, dans le lit Pourquoi toutes ces pensées morbides qui ne lui laissent aucun répit Elle a perdu sa joie de vivre, elle ne vit plus que dans les livres Elle se terre dans un abri fait de prises indestructibles Il a beau frapper à sa porte, elle lui a interdit d'entrer Non, elle n'est pas assez forte, elle ne peut rien lui raconter Plus les années passent, plus elle s'enfonce Sans même s'en rendre compte, elle a quitté la surface Pour devenir une ombre hantée par ses démons Elle saccommode de ce monde, ne fait de la figuration Lui a cru qu'elle allait mieux, malgré cette lueur dans ses yeux Comme si, au milieu de son cur, quelqu'un avait planté un pieu Il la trouvera au pied du lit, sans vie Ses secrets l'ont emportée, elle est partie sans bruit Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un gamin de quatorze piges, un peu rêveur et fan de catch Il aime les jeux vidéos, le foot, les soirs de grand match Il vit dans une grande tour près d'Paris avec ses parents Un jeune plein d'vie et souriant, sans problème apparent Mais, un jour de novembre, il a fini par craquer À force d'être racketté, frappé, menacé, il s'est tiré Une balle dans la tête et laisse impuni, ses agresseurs Car personne n'a su et ne saura qu'il était devenu un souffre-douleur Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Son collègue a commis l'adultère en violant Des sans-abri dans des cimetières, il l'a vu faire, il a dû s'taire Il n'en a même pas parlé à son frère, il se ferme Cachés dans sa mémoire, ses souvenirs s'amoncellent Il a peur de s'endormir, d'être emporté dans ses cauchemars Où la matraque de son collègue fracasse une mâchoire Il revoit ses grosses mains fouillant dans les poches des cadavres Il hurle en silence au milieu de mille-et-un tableaux macabres x2 Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Chut...</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP You might also likeFévrier - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1810 FXLL Tonio 8cho - Omotunde - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Dirlo - 140 kmh - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est </t>
+          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1810 FXLL Tonio 8cho - Omotunde - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Dirlo - 140 kmh - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. O</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tu cries jusqu'à c'que tes pulsions soient assouvies Puis adoucies, tu t'assoupis dans les bras de tes parents Dont les paupières sont alourdies, et qui sourient En écoutant ton gazouillis Perdu dans une forêt de mots, tu babilles Mis bout à bout, ces mots se mettent à danser la chenille Le papillon virevolte enfin, tu t'exprimes Tes émotions sont nues, tes phrases les habillent Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Tu t'enfermes dans les formes, tu t'affirmes Tu gamberges avant de parler, t'es fragile Tu te vantes, tu te vends, tu te défonces, tu t'effondres Ou te défends mais, dans le fond, tu ne fais que brasser du vent T'as rencontré cette princesse lors d'un séminaire Tu voudrais lui dire Je t'aime, mais tu tergiverses Sa voix agit sur toi comme une bouillotte en plein hiver Ton blabla ne traduit pas c'qui s'cache sous ton épiderme You might also like Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Le disque dur est plein, ta mémoire fuit Les mots semmêlent, s'éparpillent et tu t'ennuies Les jeunes gens utilisent un argot qui t'échappe Tu les écoutes remodeler ta langue, assis dans des parcs Tu ressasses le passé, tu t'y agrippes Tu lègues au monde des expressions migratrices Tes descendants pourront en savourer l'écho Tu balbuties, mais choisis bien ton dernier mot</t>
+          <t>Tu cries jusqu'à c'que tes pulsions soient assouvies Puis adoucies, tu t'assoupis dans les bras de tes parents Dont les paupières sont alourdies, et qui sourient En écoutant ton gazouillis Perdu dans une forêt de mots, tu babilles Mis bout à bout, ces mots se mettent à danser la chenille Le papillon virevolte enfin, tu t'exprimes Tes émotions sont nues, tes phrases les habillent Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Tu t'enfermes dans les formes, tu t'affirmes Tu gamberges avant de parler, t'es fragile Tu te vantes, tu te vends, tu te défonces, tu t'effondres Ou te défends mais, dans le fond, tu ne fais que brasser du vent T'as rencontré cette princesse lors d'un séminaire Tu voudrais lui dire Je t'aime, mais tu tergiverses Sa voix agit sur toi comme une bouillotte en plein hiver Ton blabla ne traduit pas c'qui s'cache sous ton épiderme Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Le disque dur est plein, ta mémoire fuit Les mots semmêlent, s'éparpillent et tu t'ennuies Les jeunes gens utilisent un argot qui t'échappe Tu les écoutes remodeler ta langue, assis dans des parcs Tu ressasses le passé, tu t'y agrippes Tu lègues au monde des expressions migratrices Tes descendants pourront en savourer l'écho Tu balbuties, mais choisis bien ton dernier mot</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>La nuit, ma ville s'illumine, je m'exile sur les toits Piétine les tuiles, puis m'assois Les pieds dans le vide, je défie le vertige La brise m'électrise, tout s'éclaircit, et là Je m'adonne au voyeurisme, adossé à des cheminées Pardonnez-moi ce vice La vie des inconnus m'intrigue, s'imprime sous mes paupières Ce qui se trame dans vos chaumières est plus palpitant qu'un film J'admire l'odyssée quotidienne Que les gens s'aiment ou se bastonnent élémentaire mon cher Watson ! J'gravis les échafaudages, m'étale sur les toits Ravi même les soirs d'orages, la pluie me nettoie J'ai une barbe blanche, on me prend pour le Père Noël Ou un ramoneur ventripotent se tripotant l'cornet J'reste sur le qui-vive comme un espion quand il dort La vie est une réponse à une question qu'on ignore Ourlet sur le bas du jean, chaussettes blanches Mèche plaquée sous mon bonnet bleu, peu onéreux Dans les rayons d'un soleil rasant, la rue s'anime Cadence abstraite sur un bitume abîmé Vertige chromatique, psychosomatique Est mon état, je détale, calme, je m'étale Dans les profondeurs de l'horizon J'avance en transe dans un présent moribond Puis, là où le ciel orange se mêle au rose y dépose mes 'yeuz' Dans une pose veilleuse, me met en pause Peu à peu m'expose, dans un soleil fuyant Face au noir bruyant, que des lumières explosent Seul, loin du sol, les étoiles m'habillent Isolé, serein, sur un des toits d'ma ville Accompagné par les mouvements du vent La hauteur m'a séparé doucement du temps You might also like Plus tard, j'étais lancé D'un pas élancé, j'avançais Dans mes pensées, démarche insensée Je dansais</t>
+          <t>La nuit, ma ville s'illumine, je m'exile sur les toits Piétine les tuiles, puis m'assois Les pieds dans le vide, je défie le vertige La brise m'électrise, tout s'éclaircit, et là Je m'adonne au voyeurisme, adossé à des cheminées Pardonnez-moi ce vice La vie des inconnus m'intrigue, s'imprime sous mes paupières Ce qui se trame dans vos chaumières est plus palpitant qu'un film J'admire l'odyssée quotidienne Que les gens s'aiment ou se bastonnent élémentaire mon cher Watson ! J'gravis les échafaudages, m'étale sur les toits Ravi même les soirs d'orages, la pluie me nettoie J'ai une barbe blanche, on me prend pour le Père Noël Ou un ramoneur ventripotent se tripotant l'cornet J'reste sur le qui-vive comme un espion quand il dort La vie est une réponse à une question qu'on ignore Ourlet sur le bas du jean, chaussettes blanches Mèche plaquée sous mon bonnet bleu, peu onéreux Dans les rayons d'un soleil rasant, la rue s'anime Cadence abstraite sur un bitume abîmé Vertige chromatique, psychosomatique Est mon état, je détale, calme, je m'étale Dans les profondeurs de l'horizon J'avance en transe dans un présent moribond Puis, là où le ciel orange se mêle au rose y dépose mes 'yeuz' Dans une pose veilleuse, me met en pause Peu à peu m'expose, dans un soleil fuyant Face au noir bruyant, que des lumières explosent Seul, loin du sol, les étoiles m'habillent Isolé, serein, sur un des toits d'ma ville Accompagné par les mouvements du vent La hauteur m'a séparé doucement du temps Plus tard, j'étais lancé D'un pas élancé, j'avançais Dans mes pensées, démarche insensée Je dansais</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Aujourd'hui, pas de vidéo, pas de rap, je fais grève J'me sens lucide et faible, pleurer me ferait du bien mais mes yeux sont secs Je crée pour oublier que je n'suis qu'un simple mortel Que l'être humain est profondément cruel et le monde un sacré bordel Quand j'me sens menacé, j'me réfugie dans une bulle en acier Me nourris d'images, de rythmes et de mots, l'art et la drogue sont mes alliés Mon univers est féerique J'admire des courses de trottinettes sur le périphérique Joue à cache-cache avec l'homme invisible Dessine des marelles spiraliques au centre de l'ensemble vide J'ai souvent l'impression d'être hermétique ou égoïste En fait, j'ensevelis mes émotions quand la vie est trop triste Elles resurgissent toujours plus tard, dans mon imaginaire D'ailleurs hier soir, j'ai fait un rêve Un enfant grimpait à une échelle et au fur et à mesure qu'il grimpait, il grandissait Et se rendait compte qu'on avait scié les barreaux sur lesquels il venait de poser ses pieds Il ne pouvait plus redescendre Alors, il continuait de grimper, lentement À un moment, en regardant en bas, il apercevait les vestiges de son passé Et ressentait pour la première fois, le vertige de la maturité Il finissait par atteindre un grenier haut-perché Y pénétrait à petits pas, réapprenait à marcher Puis allumait un vieux poste de radio d'où émergeait le son de ses souvenirs Et pour ne pas entendre la mort gratter à la porte, il mettait le volume à fond Esquissait un sourire Putain, ça fait mal de grandir, de voir s'écrouler son empire Hors de ma bulle, mon ventre me brûle, faut croire qu'j'arrive quand même à ressentir Je dédie ces paroles à mon père que je découvre à peine C'est lui qui fait pleurer cette guitare, on a répété ça cet après-m'You might also like</t>
+          <t>Aujourd'hui, pas de vidéo, pas de rap, je fais grève J'me sens lucide et faible, pleurer me ferait du bien mais mes yeux sont secs Je crée pour oublier que je n'suis qu'un simple mortel Que l'être humain est profondément cruel et le monde un sacré bordel Quand j'me sens menacé, j'me réfugie dans une bulle en acier Me nourris d'images, de rythmes et de mots, l'art et la drogue sont mes alliés Mon univers est féerique J'admire des courses de trottinettes sur le périphérique Joue à cache-cache avec l'homme invisible Dessine des marelles spiraliques au centre de l'ensemble vide J'ai souvent l'impression d'être hermétique ou égoïste En fait, j'ensevelis mes émotions quand la vie est trop triste Elles resurgissent toujours plus tard, dans mon imaginaire D'ailleurs hier soir, j'ai fait un rêve Un enfant grimpait à une échelle et au fur et à mesure qu'il grimpait, il grandissait Et se rendait compte qu'on avait scié les barreaux sur lesquels il venait de poser ses pieds Il ne pouvait plus redescendre Alors, il continuait de grimper, lentement À un moment, en regardant en bas, il apercevait les vestiges de son passé Et ressentait pour la première fois, le vertige de la maturité Il finissait par atteindre un grenier haut-perché Y pénétrait à petits pas, réapprenait à marcher Puis allumait un vieux poste de radio d'où émergeait le son de ses souvenirs Et pour ne pas entendre la mort gratter à la porte, il mettait le volume à fond Esquissait un sourire Putain, ça fait mal de grandir, de voir s'écrouler son empire Hors de ma bulle, mon ventre me brûle, faut croire qu'j'arrive quand même à ressentir Je dédie ces paroles à mon père que je découvre à peine C'est lui qui fait pleurer cette guitare, on a répété ça cet après-m'</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ta canette va toucher la mallette, éclabousser la crête et la baguette De ce sale mec dont les baskets vont t'éclater la tête Comme un coup de pastèque, et t'écraser comme une carpette Tu te réveilleras ligoté au beau milieu d'un temple Aztèque Horrifié, courtisé par cent playmates momifiées Qui t'offriront quelques crevettes génétiquement modifiées Frénétiquement, tu t'engraisseras en engrossant quatre d'entre elles Chez les momies, y'a peu d'entraide, surtout quand on n'est qu'un engrais Selon le rituel, tes enfants seront scarifiés Scalpés puis sacrifiés, ce monde est si cruel Qu'on déposera leur carcasse dans une carapace remplie de miel Sur ce pont reliant deux mondes le concret et le virtuel Ces démentielles offrandes aux démons fiers et trop grands Permettront aux momies de quitter leur temps De franchir le pont, d'oublier leurs monts en s'engouffrant sans repère Dans le maudit royaume des géants de fer Tu resteras seul, attaché, avachi, amoché À mâcher tes cheveux alourdis par la poussière Tu profiteras de l'immortalité que t'aura octroyé Ce trop nerveux sorcier, c'est une fatalité, mon frère Mais une navette débarquera, tu embarqueras pour une planète Où, haletant, tu résoudras quelques casse-têtes Mais couvrira, dans une mallette, entre une canette et des bandelettes Quelques vignettes assez bien faites représentant ta grand-mère qui t'allaiteYou might also like1</t>
+          <t>Ta canette va toucher la mallette, éclabousser la crête et la baguette De ce sale mec dont les baskets vont t'éclater la tête Comme un coup de pastèque, et t'écraser comme une carpette Tu te réveilleras ligoté au beau milieu d'un temple Aztèque Horrifié, courtisé par cent playmates momifiées Qui t'offriront quelques crevettes génétiquement modifiées Frénétiquement, tu t'engraisseras en engrossant quatre d'entre elles Chez les momies, y'a peu d'entraide, surtout quand on n'est qu'un engrais Selon le rituel, tes enfants seront scarifiés Scalpés puis sacrifiés, ce monde est si cruel Qu'on déposera leur carcasse dans une carapace remplie de miel Sur ce pont reliant deux mondes le concret et le virtuel Ces démentielles offrandes aux démons fiers et trop grands Permettront aux momies de quitter leur temps De franchir le pont, d'oublier leurs monts en s'engouffrant sans repère Dans le maudit royaume des géants de fer Tu resteras seul, attaché, avachi, amoché À mâcher tes cheveux alourdis par la poussière Tu profiteras de l'immortalité que t'aura octroyé Ce trop nerveux sorcier, c'est une fatalité, mon frère Mais une navette débarquera, tu embarqueras pour une planète Où, haletant, tu résoudras quelques casse-têtes Mais couvrira, dans une mallette, entre une canette et des bandelettes Quelques vignettes assez bien faites représentant ta grand-mère qui t'allaite1</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Las mentiras Las mentiras Las mentiras no son la verdad aunque se oigan cada dia Las mentiras Las mentiras Las mentiras, las mentiras Las mentiras, las mentiras Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Oswald est le seul assassin de Kennedy mentiras On n'peut pas annuler la dette de l'Afrique mentiras La guerre en Irak n'était pas qu'une histoire de fric mentiras La plupart des banlieusards vivent du trafic mentiras Le sida ne fait plus autant d'ravages mentiras Mon livre d'Histoire m'a tout dit sur l'esclavage mentiras Pour vivre vieux, il faut être sain et sportif mentiras La paix est impossible entre Arabes et Juifs mentiras Les bombardements n'ont pas tué de civils mentiras La France ne vit pas contaminée par Tchernobyl mentiras T'es qu'une merde si t'es pas fait pour l'école mentiras Une meuf peut finir par kiffer lorsqu'on la viole mentiras Le rap rend les jeunes de plus en plus violents mentiras On peut pas reconnaître le vote blanc mentiras Dix ans d'placard remettent un Homme sur le droit chemin mentiras Quand les gentils gagnent toujours à la fin You might also like x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ouais, dès l'école élémentaire, on nous dit qu'on est sédentaire Qu'on privatise la Terre entière et que c'est nécessaire Que la loi du marché est préférable à la loi de la jungle Que c'est dangereux, la liberté, car l'Homme descend du singe Tout p'tit, on t'explique que, partout, y'a des pauvres Qu'il faut finir ses spaghettis, comme si ça changeait quelque chose On n'remet jamais en question les causes profondes de nos tourments Car on fait des indigestions de slogans et de règlements La France aux Français Hey, cowboy, ce bout d'terrain nous appartient Ouais, un jour, nos ancêtres l'ont volé à leurs voisins Et puis on n'peut pas accueillir toute la misère du monde Donc il faut la faire déguerpir à la vitesse du son Y'a un tarif pour l'paradis, c'est interdit aux apatrides Notre président n'est pas raciste, c'est les Gitans, les parasites Donc on mettra des caméras partout dans la ville Oui, l'État vous protégera, alors dormez tranquille x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ce n'est ni par cupidité ni pour trouver la gloire Qu'il a quitté son village, il l'a fait par désespoir La guerre a laissé six pieds sous terre Sa femme et sa mère, son fils et son père, l'exil est amer Il a traversé des pays entiers à pieds, troué ses souliers Pris des rafiots en bois pourri, toujours sans bouée Transpiré et risqué sa vie pour avoir le pri- -vilège de mendier sous la pluie, la neige, de respi- Rer l'air pollué d'une ville agitée, de s'aliter Dans des cages d'escalier ou dans des poulaillers sans grimacer Le droit de balayetter aux entrées, galérer, lacérer Tenter d'éviter les contrôles d'identité De finir, un soir, comme donnée chiffrée citée au JT Un étranger, un sans-papier de plus expulsé, l'été Son passé n'est pas retracé, l'info est vite effacée Par le flux des pubs, des films lisses prémâchés L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler J'ai dit L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ça sent bizarre, c'est l'intox permanente Du matin au soir, c'est l'intox permanente Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente1</t>
+          <t>Las mentiras Las mentiras Las mentiras no son la verdad aunque se oigan cada dia Las mentiras Las mentiras Las mentiras, las mentiras Las mentiras, las mentiras Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Oswald est le seul assassin de Kennedy mentiras On n'peut pas annuler la dette de l'Afrique mentiras La guerre en Irak n'était pas qu'une histoire de fric mentiras La plupart des banlieusards vivent du trafic mentiras Le sida ne fait plus autant d'ravages mentiras Mon livre d'Histoire m'a tout dit sur l'esclavage mentiras Pour vivre vieux, il faut être sain et sportif mentiras La paix est impossible entre Arabes et Juifs mentiras Les bombardements n'ont pas tué de civils mentiras La France ne vit pas contaminée par Tchernobyl mentiras T'es qu'une merde si t'es pas fait pour l'école mentiras Une meuf peut finir par kiffer lorsqu'on la viole mentiras Le rap rend les jeunes de plus en plus violents mentiras On peut pas reconnaître le vote blanc mentiras Dix ans d'placard remettent un Homme sur le droit chemin mentiras Quand les gentils gagnent toujours à la fin x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ouais, dès l'école élémentaire, on nous dit qu'on est sédentaire Qu'on privatise la Terre entière et que c'est nécessaire Que la loi du marché est préférable à la loi de la jungle Que c'est dangereux, la liberté, car l'Homme descend du singe Tout p'tit, on t'explique que, partout, y'a des pauvres Qu'il faut finir ses spaghettis, comme si ça changeait quelque chose On n'remet jamais en question les causes profondes de nos tourments Car on fait des indigestions de slogans et de règlements La France aux Français Hey, cowboy, ce bout d'terrain nous appartient Ouais, un jour, nos ancêtres l'ont volé à leurs voisins Et puis on n'peut pas accueillir toute la misère du monde Donc il faut la faire déguerpir à la vitesse du son Y'a un tarif pour l'paradis, c'est interdit aux apatrides Notre président n'est pas raciste, c'est les Gitans, les parasites Donc on mettra des caméras partout dans la ville Oui, l'État vous protégera, alors dormez tranquille x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ce n'est ni par cupidité ni pour trouver la gloire Qu'il a quitté son village, il l'a fait par désespoir La guerre a laissé six pieds sous terre Sa femme et sa mère, son fils et son père, l'exil est amer Il a traversé des pays entiers à pieds, troué ses souliers Pris des rafiots en bois pourri, toujours sans bouée Transpiré et risqué sa vie pour avoir le pri- -vilège de mendier sous la pluie, la neige, de respi- Rer l'air pollué d'une ville agitée, de s'aliter Dans des cages d'escalier ou dans des poulaillers sans grimacer Le droit de balayetter aux entrées, galérer, lacérer Tenter d'éviter les contrôles d'identité De finir, un soir, comme donnée chiffrée citée au JT Un étranger, un sans-papier de plus expulsé, l'été Son passé n'est pas retracé, l'info est vite effacée Par le flux des pubs, des films lisses prémâchés L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler J'ai dit L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ça sent bizarre, c'est l'intox permanente Du matin au soir, c'est l'intox permanente Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente1</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Je viens de loin, comme toi Et, il y a quelques années, avec les miens, je m'y revois C'est comme si j'y étais, et Une sublime aurore boréale effleure de son voile de mousseline mon regard Nous avançons dans ce désert de glace, sans nourriture, hélas, l'hiver, les proies se font rare Le froid engourdit mes membrs, mes forces ont pris la fuite Ds flocons perlent sur mes cheveux de cendres, je ne suis que le fossile d'un chef inuit Mes pieds chuchotent à mes bottes en peau d'phoque Des épopées d'une autre époque Où j'étais vif, souple et imprudent Maintenant, je ralentis mon groupe, je suis trop lent Mon reflet me dévisage, chaque soir, la vieillesse me donne le sein Mes regrets m'apparaissent comme des mirages, mon histoire touche à sa fin J'ai appris à mes enfants à construire des igloos, à chasser le morse et le caribou Mais leur estomac noué prédit que, dans très peu de temps, ils m'abandonneront devant la porte du néant Et ils m'ont abandonné sur un bout d'banquise Le bout d'banquise a fini par fondre et, comme par miracle, j'ai flotté J'ai flotté des mois entiers, voire des années Jusqu'au jour où un pêcheur m'a sauvé Cet homme m'a recueilli, il a partagé ses repas et sa hutte avec moi Un matin, il est parti pêcher, seul son corps est revenu C'est pour cet homme que l'on chante aujourd'hui Pour ce fils qu'une mère ne reverra plus You might also like Tu cherches une réponse ? Tu la trouveras tout en haut Au sommet de l'Everest And action!</t>
+          <t>Je viens de loin, comme toi Et, il y a quelques années, avec les miens, je m'y revois C'est comme si j'y étais, et Une sublime aurore boréale effleure de son voile de mousseline mon regard Nous avançons dans ce désert de glace, sans nourriture, hélas, l'hiver, les proies se font rare Le froid engourdit mes membrs, mes forces ont pris la fuite Ds flocons perlent sur mes cheveux de cendres, je ne suis que le fossile d'un chef inuit Mes pieds chuchotent à mes bottes en peau d'phoque Des épopées d'une autre époque Où j'étais vif, souple et imprudent Maintenant, je ralentis mon groupe, je suis trop lent Mon reflet me dévisage, chaque soir, la vieillesse me donne le sein Mes regrets m'apparaissent comme des mirages, mon histoire touche à sa fin J'ai appris à mes enfants à construire des igloos, à chasser le morse et le caribou Mais leur estomac noué prédit que, dans très peu de temps, ils m'abandonneront devant la porte du néant Et ils m'ont abandonné sur un bout d'banquise Le bout d'banquise a fini par fondre et, comme par miracle, j'ai flotté J'ai flotté des mois entiers, voire des années Jusqu'au jour où un pêcheur m'a sauvé Cet homme m'a recueilli, il a partagé ses repas et sa hutte avec moi Un matin, il est parti pêcher, seul son corps est revenu C'est pour cet homme que l'on chante aujourd'hui Pour ce fils qu'une mère ne reverra plus Tu cherches une réponse ? Tu la trouveras tout en haut Au sommet de l'Everest And action!</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>J'prends conscience de mes extrémités, je mets mes orteils potelés dans la bouche Au-dessus d'moi, deux visages familiers, mais lequel des deux va changer ma couche ? J'connais pas trop d'odeurs mais j'sais que, là, je pue, j'me nourris de bonheur et n'suis jamais repu Je pousse de petits cris, répète Areuh, areuh, j'n'ai pas encore appris à prononcer Heureux Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Les oiseaux font leur solo sans partition, se taisent quand la rosée fait son apparition Je baye aux corneilles tandis que mes parents bâillent sur le canapé mais, quand j'tombe de sommeil, il y a toujours leurs bras pour me rattraper Bercé par le son des cloches, les grillons qui jam, les feuilles qui frémissent, les rythmes infinis de la nature me parlent Mon cur bat la chamade, j'ai des visions dignes d'un chamane, au chaud dans ma cabane, la Haute-Savoie devient ma savane Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Réveillé par la faim, j'pourrais téter sans fin veiller sur moi, c'est presque un travail à temps plein Quand on me tend le doigt, je le serre dans mes mains, j'veux pas laisser filer ceux sans qui je n'suis rien Mes éclats de rire cristallins éveillent en eux l'envie de me faire mille câlins Je suis au paradis, enveloppé de tendresse, ici, rien ne m'agresse, et dire que, d'ici peu, je serai citadin You might also like Des accords de guitare me contaient des histoires, tout était harmonieux L'amour était vital, la mort n'existait pas, j'en ai les larmes aux yeux C'était l'apogée d'un trio dont l'amour était le ciment C'était la Pangée mais on s'est éloigné comme les continents</t>
+          <t>J'prends conscience de mes extrémités, je mets mes orteils potelés dans la bouche Au-dessus d'moi, deux visages familiers, mais lequel des deux va changer ma couche ? J'connais pas trop d'odeurs mais j'sais que, là, je pue, j'me nourris de bonheur et n'suis jamais repu Je pousse de petits cris, répète Areuh, areuh, j'n'ai pas encore appris à prononcer Heureux Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Les oiseaux font leur solo sans partition, se taisent quand la rosée fait son apparition Je baye aux corneilles tandis que mes parents bâillent sur le canapé mais, quand j'tombe de sommeil, il y a toujours leurs bras pour me rattraper Bercé par le son des cloches, les grillons qui jam, les feuilles qui frémissent, les rythmes infinis de la nature me parlent Mon cur bat la chamade, j'ai des visions dignes d'un chamane, au chaud dans ma cabane, la Haute-Savoie devient ma savane Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Réveillé par la faim, j'pourrais téter sans fin veiller sur moi, c'est presque un travail à temps plein Quand on me tend le doigt, je le serre dans mes mains, j'veux pas laisser filer ceux sans qui je n'suis rien Mes éclats de rire cristallins éveillent en eux l'envie de me faire mille câlins Je suis au paradis, enveloppé de tendresse, ici, rien ne m'agresse, et dire que, d'ici peu, je serai citadin Des accords de guitare me contaient des histoires, tout était harmonieux L'amour était vital, la mort n'existait pas, j'en ai les larmes aux yeux C'était l'apogée d'un trio dont l'amour était le ciment C'était la Pangée mais on s'est éloigné comme les continents</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mad Seahorse in London, oh my God I'm a high kicker, let's take a ride deeper in your mind mister I'm your guide and I give dry fever I've seen beetles deepthroatin' Justin Bieber dressin just like Jack the Ripper At the grammys for his grannies and his babysitter Oh ! Oh ! Oh ! My flow's like snow on a sombrero Honestly, you don't deserve me bro cause I'm a Monty Python, a silent lion shinin like a diamond Lord Byron called me his cold iron idol I'm tastin' a pie, lickin' a mic, ridin' a bike at the same time Ready to bite, ready to die, winnin' the fight on the bass line I'm a pilot and a pirate, I hide my rhymes in a bagpipe I'm a kind that's sleepin in a hammack on the top of Big Ben or in Bagdad Each word is a climax, please call me the twilight, historical Mad Max I'm a singer, a stage five ringer, this finger means bye bye Motherfuckers ! Mad Seahorse ! En français, on dit Hippocampe FouYou might also like</t>
+          <t>Mad Seahorse in London, oh my God I'm a high kicker, let's take a ride deeper in your mind mister I'm your guide and I give dry fever I've seen beetles deepthroatin' Justin Bieber dressin just like Jack the Ripper At the grammys for his grannies and his babysitter Oh ! Oh ! Oh ! My flow's like snow on a sombrero Honestly, you don't deserve me bro cause I'm a Monty Python, a silent lion shinin like a diamond Lord Byron called me his cold iron idol I'm tastin' a pie, lickin' a mic, ridin' a bike at the same time Ready to bite, ready to die, winnin' the fight on the bass line I'm a pilot and a pirate, I hide my rhymes in a bagpipe I'm a kind that's sleepin in a hammack on the top of Big Ben or in Bagdad Each word is a climax, please call me the twilight, historical Mad Max I'm a singer, a stage five ringer, this finger means bye bye Motherfuckers ! Mad Seahorse ! En français, on dit Hippocampe Fou</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique et a du sex-apeal Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique surtout quand elle s'applique Elle a cinq ans et voit valser des bourgeois dans ces salons Que sa maman nettoie, mais pourquoi pleure t-elle quand elle s'allonge ? Elle a quinze ans, danse le swing, et Marcel s'étend sur le ring Lui permet d'oublier les crimes de ces pseudo-vikings Qui ont envahi sa ville, pillé, tué des familles Sali et violé des filles, sa vie n'est pas si facile À trente ans, elle gigote sur du rock Trouve des hommes attirants puis les croque Elle se moque du regard des gens Et se frotte sur un air de tango entêtant En deux temps, trois mouvements, voilà le disco Ses enfants fuient doucement pendant ses discours À cinquante-cinq ans, elle découvre la salsa Comprend Le break la fascine, le crunk la calcine Elle repense à l'époque de et Bécassine Mamie danse pour ne pas s'enraciner Se dépense, quitte à paraître ensorceler You might also like</t>
+          <t>Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique et a du sex-apeal Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique surtout quand elle s'applique Elle a cinq ans et voit valser des bourgeois dans ces salons Que sa maman nettoie, mais pourquoi pleure t-elle quand elle s'allonge ? Elle a quinze ans, danse le swing, et Marcel s'étend sur le ring Lui permet d'oublier les crimes de ces pseudo-vikings Qui ont envahi sa ville, pillé, tué des familles Sali et violé des filles, sa vie n'est pas si facile À trente ans, elle gigote sur du rock Trouve des hommes attirants puis les croque Elle se moque du regard des gens Et se frotte sur un air de tango entêtant En deux temps, trois mouvements, voilà le disco Ses enfants fuient doucement pendant ses discours À cinquante-cinq ans, elle découvre la salsa Comprend Le break la fascine, le crunk la calcine Elle repense à l'époque de et Bécassine Mamie danse pour ne pas s'enraciner Se dépense, quitte à paraître ensorceler</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Secouer ta canette comme des maracas à Caracas C'est cocasse mais tu payes les pots cassés et ça t'agace Tu rêves de nouvelles sensations Viens faire un tour dans mon grand parc d'attractions Et regarde avec attention Il pleut du Coca sur des champs de Mentos Je lance des Mentos dans une mer de Coca Ça créé des geysers sucrés Qui rencontrent un sacré succès C'est mieux qu'être camé à Meda', tu peux t'mettre à té-cô' Et crier kamehameha, tu veux goûter mais C'est dur à digérer comme de la nitroglycérine J'érige un paradis pour les gens souffrant d'hypoglycémie Des millions de cainris se fightent, alright Contre des kilocalories en se gavant de Coca Light car Ses bulles ondulent comme les pieds de Zébulon Ils se croient libellule, oublient leur double menton Ça les excite plus que le Pepsi, plus que l'anus d'une mexicaine sexy mais C'est pire qu'un strip en speed, un sprint en string Un horrible screener en streaming, sans ice cream, un spliff sans weed Oui, le Coca remplace l'eau à la cantine On prend des Mentos comme de l'aspirine Tente l'étrange mélange, en cas d'angine Trempe tes manches et dérange ta frangine You might also like x4 Tu vois pour sauver ce monde qui va mal Je dois faire sauter cette bombe artisanale</t>
+          <t>Secouer ta canette comme des maracas à Caracas C'est cocasse mais tu payes les pots cassés et ça t'agace Tu rêves de nouvelles sensations Viens faire un tour dans mon grand parc d'attractions Et regarde avec attention Il pleut du Coca sur des champs de Mentos Je lance des Mentos dans une mer de Coca Ça créé des geysers sucrés Qui rencontrent un sacré succès C'est mieux qu'être camé à Meda', tu peux t'mettre à té-cô' Et crier kamehameha, tu veux goûter mais C'est dur à digérer comme de la nitroglycérine J'érige un paradis pour les gens souffrant d'hypoglycémie Des millions de cainris se fightent, alright Contre des kilocalories en se gavant de Coca Light car Ses bulles ondulent comme les pieds de Zébulon Ils se croient libellule, oublient leur double menton Ça les excite plus que le Pepsi, plus que l'anus d'une mexicaine sexy mais C'est pire qu'un strip en speed, un sprint en string Un horrible screener en streaming, sans ice cream, un spliff sans weed Oui, le Coca remplace l'eau à la cantine On prend des Mentos comme de l'aspirine Tente l'étrange mélange, en cas d'angine Trempe tes manches et dérange ta frangine x4 Tu vois pour sauver ce monde qui va mal Je dois faire sauter cette bombe artisanale</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Yeah En 2010, j'étais déjà sur SoundCloud J'arrive avec un nouveau son d'cloche T'es tombé sur moi par hasard ? Bonne pioche J'ai replongé, j'profite avant le grand splash R.A.F de vos classements j'suis inclassable J'avoue, ça m'vexe quand j'suis pas d'dans Quand je bois, je régresse, je ris grassement Je me lâche, je te lèche efficacement C'est nouveau mais pas neuf, j'fais de l'upcycling Désinvolture, excès de punchlines fins S'adapter, c'est perdurr, demande au Père Darwin Ce soir, shooting tu feras Brandon Lee, moi Alec Baldwin Les autres MC m'encensent, implorent mon pardon J'fais preuve de tolérance et de compassion J'ai d'plus en plus d'adeptes et de compagnons Les mots qu'j'emploie, j'les traite comme un bon patron, mais J'improvise pas devant les enfants, j'suis trop obsédé J'balance des dingueries en rigolant comme un possédé En fait, j'libère mon inconscience, c'est ça, le procédé Aussi vilain qu'omnipotent, j'mérite des grosses fessées You might also like J'voudrais pas vous contrarier M'écouter, c'est risquer la combustion spontanée J'respecte la nature, elle est devenue mon alliée Si des corbeaux t'attaquent, c'est que j'essaye de te contacter J'suis la drogue dure dans ta tête molle À chaque mesure, tu te questionnes À force d'me faire grignoter par des bestioles J'fais faire sonner le français comme personne Ils veulent acheter mon âme avec leurs gueules de vendus Je fuis les marécages et toute cette bande de sangsues Je grimpe sans efforts, pourtant la route est pentue Prêt pour la petite mort, j'arbore une gaule de pendu J'débarque avec une armée d'ectoplasmes Hippo un esprit malsain dans un corps flasque Une tête de poule, des sacrifices, un curieux nectar C'est pas une guerre sainte, c'est une messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire</t>
+          <t>Yeah En 2010, j'étais déjà sur SoundCloud J'arrive avec un nouveau son d'cloche T'es tombé sur moi par hasard ? Bonne pioche J'ai replongé, j'profite avant le grand splash R.A.F de vos classements j'suis inclassable J'avoue, ça m'vexe quand j'suis pas d'dans Quand je bois, je régresse, je ris grassement Je me lâche, je te lèche efficacement C'est nouveau mais pas neuf, j'fais de l'upcycling Désinvolture, excès de punchlines fins S'adapter, c'est perdurr, demande au Père Darwin Ce soir, shooting tu feras Brandon Lee, moi Alec Baldwin Les autres MC m'encensent, implorent mon pardon J'fais preuve de tolérance et de compassion J'ai d'plus en plus d'adeptes et de compagnons Les mots qu'j'emploie, j'les traite comme un bon patron, mais J'improvise pas devant les enfants, j'suis trop obsédé J'balance des dingueries en rigolant comme un possédé En fait, j'libère mon inconscience, c'est ça, le procédé Aussi vilain qu'omnipotent, j'mérite des grosses fessées J'voudrais pas vous contrarier M'écouter, c'est risquer la combustion spontanée J'respecte la nature, elle est devenue mon alliée Si des corbeaux t'attaquent, c'est que j'essaye de te contacter J'suis la drogue dure dans ta tête molle À chaque mesure, tu te questionnes À force d'me faire grignoter par des bestioles J'fais faire sonner le français comme personne Ils veulent acheter mon âme avec leurs gueules de vendus Je fuis les marécages et toute cette bande de sangsues Je grimpe sans efforts, pourtant la route est pentue Prêt pour la petite mort, j'arbore une gaule de pendu J'débarque avec une armée d'ectoplasmes Hippo un esprit malsain dans un corps flasque Une tête de poule, des sacrifices, un curieux nectar C'est pas une guerre sainte, c'est une messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Quand vient la nuit, à l'abri de la pluie Seul, assis, silencieux, je m'instruis Puis je cherche des rimes, les yeux dans l'vide, avec assiduité J'entends des bruits suspects donc suspends mon activité Ça vient de chez mes voisins, il est minuit moins cinq Ça, c'est l'heure du câlin, j'crois qu'c'est bientôt la fin J'colle mon oreille au mur en analysant les gémissements Il la prend frénétiquement, tout ça est très excitant Leur lit grince, j'aimerais m'y téléporter Je voudrais les regarder s'étreindre sans gêne et les border J'aime ces symphonies quotidiennes qui viennent me réconforter Ça passe des blanches aux noires, aux croches, bref, ils remplissent des portées Ça résonne dans tout mon appart', voire dans tout l'immeuble À croire qu'ils veulent que tout l'monde en parle, ils font trembler mes meubles C'n'est plus un coït, c'est une secousse sismique Une orgie de titans torrides, dommage qu'ils jouissent vite Elle voudrait la vie d'château, adopter un p'tit chaton Elle a troqué ses baskets et ses sandales pour des chaussures à talons Il préfère glander en caleçon, s'comporter comme un p'tit garçon Deux capitaines, un bateau, j'aperçois la grisaille qui plane sur leur salon Finie, l'idylle ensoleillée finies, les aspirations épicuriennes J'entends l'tonnerre gronder plusieurs fois par semaine, suivi d'une pluie de reproches diluvienne Embourbés dans la routine, ils dépérissent, la vérité s'est remaquillée Ils aimeraient tant retourner le sablier, recoller les débris de rêves éparpillés Mais l'amour est assis dans un petit wagon dévalant des montagnes russes Aucune barre de sécurité ne peut le retenir, il suit le processus Et finit par s'envoler vers un ciel plus clément sans cumulonimbus Je l'ai vu déserter pas mal de foyers, ceci n'est qu'une rupture de plus You might also like Tous les dimanches, il se réveille seul Il déambule en silence dans le plus simple appareil, seul Dans ce décor, quelques miroirs lui permettent de se sentir moins seul Il brûle encore dans l'étouffoir, on peut dire qu'il s'en tire bien seul Planté devant son frigo, il devient explorateur En quête de restes qu'il engloutira tristement devant son écran d'ordinateur Il fume dans sa cuisine, fenêtres fermées, puis fixe d'un air dépité La petite montagne de vaisselle sale qu'il a lentement érigée Un cur d'occasion dans un corps sans passion Les souvenirs d'une vie bien rangée dans un grand carton Une armoire à moitié vide, des placards à moitié pleins Une pile de guides des villes visitées quand, à deux, ils n'étaient qu'un J'l'ai croisé dans l'escalier tout à l'heure, il m'a souri, soudain, son regard s'est éteint Il était là mais je savais pertinemment que, dans sa tête, il était loin Il refaisait le plein d'ébats de fous rires, de débats, de soupirs dont je fus témoin Revivant ces moments que le temps déteint, rembobinant avec soin le film avant la fin</t>
+          <t>Quand vient la nuit, à l'abri de la pluie Seul, assis, silencieux, je m'instruis Puis je cherche des rimes, les yeux dans l'vide, avec assiduité J'entends des bruits suspects donc suspends mon activité Ça vient de chez mes voisins, il est minuit moins cinq Ça, c'est l'heure du câlin, j'crois qu'c'est bientôt la fin J'colle mon oreille au mur en analysant les gémissements Il la prend frénétiquement, tout ça est très excitant Leur lit grince, j'aimerais m'y téléporter Je voudrais les regarder s'étreindre sans gêne et les border J'aime ces symphonies quotidiennes qui viennent me réconforter Ça passe des blanches aux noires, aux croches, bref, ils remplissent des portées Ça résonne dans tout mon appart', voire dans tout l'immeuble À croire qu'ils veulent que tout l'monde en parle, ils font trembler mes meubles C'n'est plus un coït, c'est une secousse sismique Une orgie de titans torrides, dommage qu'ils jouissent vite Elle voudrait la vie d'château, adopter un p'tit chaton Elle a troqué ses baskets et ses sandales pour des chaussures à talons Il préfère glander en caleçon, s'comporter comme un p'tit garçon Deux capitaines, un bateau, j'aperçois la grisaille qui plane sur leur salon Finie, l'idylle ensoleillée finies, les aspirations épicuriennes J'entends l'tonnerre gronder plusieurs fois par semaine, suivi d'une pluie de reproches diluvienne Embourbés dans la routine, ils dépérissent, la vérité s'est remaquillée Ils aimeraient tant retourner le sablier, recoller les débris de rêves éparpillés Mais l'amour est assis dans un petit wagon dévalant des montagnes russes Aucune barre de sécurité ne peut le retenir, il suit le processus Et finit par s'envoler vers un ciel plus clément sans cumulonimbus Je l'ai vu déserter pas mal de foyers, ceci n'est qu'une rupture de plus Tous les dimanches, il se réveille seul Il déambule en silence dans le plus simple appareil, seul Dans ce décor, quelques miroirs lui permettent de se sentir moins seul Il brûle encore dans l'étouffoir, on peut dire qu'il s'en tire bien seul Planté devant son frigo, il devient explorateur En quête de restes qu'il engloutira tristement devant son écran d'ordinateur Il fume dans sa cuisine, fenêtres fermées, puis fixe d'un air dépité La petite montagne de vaisselle sale qu'il a lentement érigée Un cur d'occasion dans un corps sans passion Les souvenirs d'une vie bien rangée dans un grand carton Une armoire à moitié vide, des placards à moitié pleins Une pile de guides des villes visitées quand, à deux, ils n'étaient qu'un J'l'ai croisé dans l'escalier tout à l'heure, il m'a souri, soudain, son regard s'est éteint Il était là mais je savais pertinemment que, dans sa tête, il était loin Il refaisait le plein d'ébats de fous rires, de débats, de soupirs dont je fus témoin Revivant ces moments que le temps déteint, rembobinant avec soin le film avant la fin</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Je vends des bouts d'shit le lundi devant des boutiques de lingerie Je mets des moule-bites bluffant mes groupies qui sont des rouquines de quinze piges Mes singeries étourdissent, intriguent les fourmis Indignent les touristes cainris sans sous-titres Phrases paranormales, projection d'vitamines J'me pavane au taf, comme les lions, j'vis la nuit J'me barre à dos d'âne, balade au calme J'croise Paranoyan, connexion Lille-Paris ! Blabla sarcastique, bagage aquatique Ma voix assagit les barbares tard la nuit Vis ma vie gars, ça t'irradiera T'iras vite boire, ça t'dynamisera Le rap tourne en rond comme un poisson rouge Coincé dans son bocal depuis mille neuf cent soixante douze T'as téléchargé tous les projets d'Hippo t'as tout bon Si c'est pas le cas, j'te plante avec des ciseaux à bouts ronds Miam, miam, miam, miam, miam, c'est bon ça ! Quand on s'masturbe, on t'engraisse Mama, mama, mama mia ! En cas d'coup dur, on encaisse Miam, miam, miam, miam, miam, c'est bon ça ! A chaque mesure, on progresse Mama, mama, mama mia ! Appuie vite sur Control S You might also like Quand je rappe droit au but, j'atteins le stade vélodrame Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Au point d'voir une kalashnikov sur le drapeau du Mozambique Toujours dans la hood, le cul entre deux chaises Une musicale et une chaise électrique Je suis ce blanc qui fait du rap comme un black ferait du golf En baisant plus de pétasses que Tiger Woods Mon époque Van Damme a fait des Jean-Claude Vandales Et des Jean-Claude vend grammes parlent de douze J'ai toujours pas ma case pendant qu'les adolescents Passent de BB Brunes à ces rappeurs qui parlent de swag Et puis t'as pas réalisé, y a plus de dealers que de Mc Do Donc les petits tapent des rails aussi longs que les Champs Elysées Les grands retournent dans les sous-sols faire des sous sales Car la 'sique, c'est mort d'ouvrir un coffre avec une clé de sol Miam, miam, miam, miam, miam, c'est bon ça ! J'ai la banane pour ta guenon Mama, mama, mama mia ! Ta sirène mouille comme un thon Miam, miam, miam, miam, miam, c'est bon ça ! Pour les boulets, les canons Mama, mama, mama mia ! Tu pleures quand j'te fais l'oignon Des histoires de rappeurs ont commencé sur de la tromperie Donc ils finissent paumés dans la vraie vie quand leur carrière finit Et j'te passe les haineux qui jouent les vrais mais ne font pas d'vues Ils peuvent violer sur YouTube, personne s'en apercevrait Pendant qu'tu critiques entre deux onglets YouPorn Une miss fait gonfler mon épi d'maïs comme du pop-corn Si tu m'adores, je te mords le coeur Car les loups ne se changent pas en labradors J'ai rejoint la Nouvelle Zélande en transilien J'mets des capotes pour éléphants, de grands bonnets phrygiens Ouais, j'l'admets, j'suis l'amant rêvé, mes amis l'savent J'rapperai jusqu'à m'en péter les amygdales J'brise les vitres avec mes rimes épiques et fines Pisse des litres, asperge vite des flics débiles Les filles s'excitent dès que j'exhibe mes griffes Elles décryptent ces lignes extirpées de mes tripes très cleans</t>
+          <t>Je vends des bouts d'shit le lundi devant des boutiques de lingerie Je mets des moule-bites bluffant mes groupies qui sont des rouquines de quinze piges Mes singeries étourdissent, intriguent les fourmis Indignent les touristes cainris sans sous-titres Phrases paranormales, projection d'vitamines J'me pavane au taf, comme les lions, j'vis la nuit J'me barre à dos d'âne, balade au calme J'croise Paranoyan, connexion Lille-Paris ! Blabla sarcastique, bagage aquatique Ma voix assagit les barbares tard la nuit Vis ma vie gars, ça t'irradiera T'iras vite boire, ça t'dynamisera Le rap tourne en rond comme un poisson rouge Coincé dans son bocal depuis mille neuf cent soixante douze T'as téléchargé tous les projets d'Hippo t'as tout bon Si c'est pas le cas, j'te plante avec des ciseaux à bouts ronds Miam, miam, miam, miam, miam, c'est bon ça ! Quand on s'masturbe, on t'engraisse Mama, mama, mama mia ! En cas d'coup dur, on encaisse Miam, miam, miam, miam, miam, c'est bon ça ! A chaque mesure, on progresse Mama, mama, mama mia ! Appuie vite sur Control S Quand je rappe droit au but, j'atteins le stade vélodrame Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Au point d'voir une kalashnikov sur le drapeau du Mozambique Toujours dans la hood, le cul entre deux chaises Une musicale et une chaise électrique Je suis ce blanc qui fait du rap comme un black ferait du golf En baisant plus de pétasses que Tiger Woods Mon époque Van Damme a fait des Jean-Claude Vandales Et des Jean-Claude vend grammes parlent de douze J'ai toujours pas ma case pendant qu'les adolescents Passent de BB Brunes à ces rappeurs qui parlent de swag Et puis t'as pas réalisé, y a plus de dealers que de Mc Do Donc les petits tapent des rails aussi longs que les Champs Elysées Les grands retournent dans les sous-sols faire des sous sales Car la 'sique, c'est mort d'ouvrir un coffre avec une clé de sol Miam, miam, miam, miam, miam, c'est bon ça ! J'ai la banane pour ta guenon Mama, mama, mama mia ! Ta sirène mouille comme un thon Miam, miam, miam, miam, miam, c'est bon ça ! Pour les boulets, les canons Mama, mama, mama mia ! Tu pleures quand j'te fais l'oignon Des histoires de rappeurs ont commencé sur de la tromperie Donc ils finissent paumés dans la vraie vie quand leur carrière finit Et j'te passe les haineux qui jouent les vrais mais ne font pas d'vues Ils peuvent violer sur YouTube, personne s'en apercevrait Pendant qu'tu critiques entre deux onglets YouPorn Une miss fait gonfler mon épi d'maïs comme du pop-corn Si tu m'adores, je te mords le coeur Car les loups ne se changent pas en labradors J'ai rejoint la Nouvelle Zélande en transilien J'mets des capotes pour éléphants, de grands bonnets phrygiens Ouais, j'l'admets, j'suis l'amant rêvé, mes amis l'savent J'rapperai jusqu'à m'en péter les amygdales J'brise les vitres avec mes rimes épiques et fines Pisse des litres, asperge vite des flics débiles Les filles s'excitent dès que j'exhibe mes griffes Elles décryptent ces lignes extirpées de mes tripes très cleans</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sable dans le dos, champagne dans le seau Mon sabre dans le thorax d'un anthropophage J'bois du jus d'coco dans des coquillages Dors dans un sarcophage encerclé par de gros grillages J'ai peur d'être attaqué quand je fais la sieste Mon visage est balafré, j'ai connu la peste On est loin des vacances à la plage J'ai rejoint cette île effarante à la nage Oui, j'ai fui ce monde rempli De zombies, de grands tas d'immondices, y songe Tout s'est effondré, il y a vingt-huit ans Impuissant, j'ai regardé ma mère Se faire manger par des centaines de morts-vivants C'était exorbitant maman ? Isolé, je survis au soleil et j'attends Obligé de me suffire à moi-même, c'est navrant Mon destin changea un vendredi soir entre dix et onze Le moment fut noir triste et sombre, j'deale mes 'ons-s' tranquille Devant c'bar, un premier zombie en pleine rue Le ventre ouvert, les yeux hors des orbites, j'tombe de haut, ému Par la scène, n'aperçois pas l'second derrière moi Lesquive d'un poil de 'ul-c' grâce au barman et à sa vodka Hop là, roulade à la Moax Payne, mon cur s'emballe Attrape un tesson d''teille et t'choppe ça À la gorge, saigne, frappe partout où j'peux Jai pris la fuite ce jour-là, depuis, mes potes se nomment Whisky-Cola J'suis devenu un bouseux armé jusqu'aux dents Pendant un moment, j'étais lié à un groupe de gens Même ma famille fut dévorée dès les premières semaines On a perdu les trois-quarts de l'équipe en une saison Seule, j'traîne, gueule, peine à trouver d'la graille La chair humaine n'est pas si mal, frère, plus d'raison Moi, j'suis seul parmi les monstres, et le seul gars qui dénonce Le linceul où glisse le monde, la noirceur qui risque de plomber Latmosphère d'jà grise et sombre, ouais, j'suis seul contre tous Et, sur le seuil, j'te repousse car, sans vouloir mépriser lautre Je misole, deviens ouf, et fais ma place parmi les ombres Crée une bad combinaison, déraison, manque de souffle Enfermé dans ma p'tite maison, toujours vivant tant qu'je souffre Constamment au bord du gouffre et sous une incessante pression J'parle pas avec dérision, en mission dès qu'la porte souvre Avancer dans c'monde de sourds est ma toute première ambition J'me pose pas dix mille questions, car la seule réponse que j'trouve Est quil faut survivre en eaux troubles, et marcher en toute discrétion Réalité ou fiction ? Jai limpression quon sengouffre Dans un tunnel qui sent l'souffre et, sans y voir de direction Moi, jai lintime conviction, que, tous ensemble, on sétouffe Et quil faut vivre seul et cest tout, ouais, cest mon unique solution face aux monstres J'ai besoin d'cet outil planqué dans l'garage mais comment l'atteindre ? Mon jardin est infesté d'mecs à trois jambes J'en ai dessoudé un, puis deux, puis cinquante-quatre, j'm'en rappelle Au trentième, j'n'avais qu'vingt-trois ans Belle journée mémorable, j'ai dû étouffer mon p'tit frère Avant qu'sa morsure n'atteigne mes artères fémorales Oui, c'est dur, ma mère y tenait, à c'mioche, elle a pas fait long feu Une fois des leurs, j'ai dû la finir à la pioche À présent, j'suis rodé c'est sûr, limite, je trouve ça cool Qu'on n's'accouple plus, qu'on puisse couper des têtes Qu'on s'saoule au sang d'zombie coupé à une flotte virusée Maintenant qu'on n'bouffe plus trop, j'ai arrêté d'mouler des cakes Aussi, j'aime recevoir des invités, oui, j'suis plus cool qu'avant Si tu as froid, je t'en prie, viens te réchauffer J'allume le four chut, ne dis rien, sachant qu'je tiens l'fusil Approche, l'ami, qu'j'puisse te désosser easyYou might also like</t>
+          <t>Sable dans le dos, champagne dans le seau Mon sabre dans le thorax d'un anthropophage J'bois du jus d'coco dans des coquillages Dors dans un sarcophage encerclé par de gros grillages J'ai peur d'être attaqué quand je fais la sieste Mon visage est balafré, j'ai connu la peste On est loin des vacances à la plage J'ai rejoint cette île effarante à la nage Oui, j'ai fui ce monde rempli De zombies, de grands tas d'immondices, y songe Tout s'est effondré, il y a vingt-huit ans Impuissant, j'ai regardé ma mère Se faire manger par des centaines de morts-vivants C'était exorbitant maman ? Isolé, je survis au soleil et j'attends Obligé de me suffire à moi-même, c'est navrant Mon destin changea un vendredi soir entre dix et onze Le moment fut noir triste et sombre, j'deale mes 'ons-s' tranquille Devant c'bar, un premier zombie en pleine rue Le ventre ouvert, les yeux hors des orbites, j'tombe de haut, ému Par la scène, n'aperçois pas l'second derrière moi Lesquive d'un poil de 'ul-c' grâce au barman et à sa vodka Hop là, roulade à la Moax Payne, mon cur s'emballe Attrape un tesson d''teille et t'choppe ça À la gorge, saigne, frappe partout où j'peux Jai pris la fuite ce jour-là, depuis, mes potes se nomment Whisky-Cola J'suis devenu un bouseux armé jusqu'aux dents Pendant un moment, j'étais lié à un groupe de gens Même ma famille fut dévorée dès les premières semaines On a perdu les trois-quarts de l'équipe en une saison Seule, j'traîne, gueule, peine à trouver d'la graille La chair humaine n'est pas si mal, frère, plus d'raison Moi, j'suis seul parmi les monstres, et le seul gars qui dénonce Le linceul où glisse le monde, la noirceur qui risque de plomber Latmosphère d'jà grise et sombre, ouais, j'suis seul contre tous Et, sur le seuil, j'te repousse car, sans vouloir mépriser lautre Je misole, deviens ouf, et fais ma place parmi les ombres Crée une bad combinaison, déraison, manque de souffle Enfermé dans ma p'tite maison, toujours vivant tant qu'je souffre Constamment au bord du gouffre et sous une incessante pression J'parle pas avec dérision, en mission dès qu'la porte souvre Avancer dans c'monde de sourds est ma toute première ambition J'me pose pas dix mille questions, car la seule réponse que j'trouve Est quil faut survivre en eaux troubles, et marcher en toute discrétion Réalité ou fiction ? Jai limpression quon sengouffre Dans un tunnel qui sent l'souffre et, sans y voir de direction Moi, jai lintime conviction, que, tous ensemble, on sétouffe Et quil faut vivre seul et cest tout, ouais, cest mon unique solution face aux monstres J'ai besoin d'cet outil planqué dans l'garage mais comment l'atteindre ? Mon jardin est infesté d'mecs à trois jambes J'en ai dessoudé un, puis deux, puis cinquante-quatre, j'm'en rappelle Au trentième, j'n'avais qu'vingt-trois ans Belle journée mémorable, j'ai dû étouffer mon p'tit frère Avant qu'sa morsure n'atteigne mes artères fémorales Oui, c'est dur, ma mère y tenait, à c'mioche, elle a pas fait long feu Une fois des leurs, j'ai dû la finir à la pioche À présent, j'suis rodé c'est sûr, limite, je trouve ça cool Qu'on n's'accouple plus, qu'on puisse couper des têtes Qu'on s'saoule au sang d'zombie coupé à une flotte virusée Maintenant qu'on n'bouffe plus trop, j'ai arrêté d'mouler des cakes Aussi, j'aime recevoir des invités, oui, j'suis plus cool qu'avant Si tu as froid, je t'en prie, viens te réchauffer J'allume le four chut, ne dis rien, sachant qu'je tiens l'fusil Approche, l'ami, qu'j'puisse te désosser easy</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Moi, j'vis des hauts et des bas, jsuis tout en haut quand j'rappe Mais vite retombe quand j'mate que ça ne me rapporte pas Et, devant mon plateau repas, des vidéos me parlent Des clips très beaux me narguent et ça devient nimporte quoi Mais j'nen fais pas tout un plat, les idéaux comme d'hab' Nous disent égaux, semblables, utilisent la langue de bois On aura encore le droit aux clichés confortables Aux idées qu'on formate, auxquels je naccorde pas De crédit, ni même de poids, en bas d'léchelle à chaque fin du mois J'suis pourtant toujours tout en haut au micro check En bas quand on parle demploi, ni cadre, ni grand chef En haut quand on parlera de cette rime et des dix prochaines Les hauts et les bas vite senchaînent, tout comme les exploits Et les bides semmêlent, les espoirs et les mises en scènes qui déçoivent Et on vit sans être des esclaves, ni même des puissants maîtres Mais cest tout d'même épuisant dêtre dans cette foire qui mentraîne encore cette fois x2 On vit des hauts et des bas, des montagnes russes depuis le départ Mais crois pas que tout l'monde samuse et qu'la vie tépargne Cest à celui qui montera l'plus à labri des regards Pas à celui qui tombera juste entre les étages On trime sur des remontées mécaniques des tréfonds océaniques À la renommée, mais, une fois au sommet, ébahis On n'peut que sombrer, on s'laisse retomber Le temps nous est compté, quelle éprouvante épopée tragique C'est la descente qui nous décoiffe, nous met des baffes Nous broie, nous froisse, l'on grimace, l'on se crispe, l'on se fâche L'insouciance laisse place à la tourmente, l'extase À la souffrance, la jouvence à l'incontinence Notre existence un manège où l'on avance sans frein Il faut apprendre à toucher le fond avec entrain À renaître de ses cendres, à remonter la pente À jongler avec ses émotions, à supporter l'attente Épaulé par ses amis, sa famille, voire par des inconnus C'est beau mais rare et, quand cela arrive, crois-moi, c'est impromptu Quand j'ai la gueule de bois quand j'meurs de froid, quand j'pleure quand j'me sens seul Je dois me dire qu'ça ira mieux vu qu'on vit tous des hauts, des bas You might also like x2 Jai mes hauts et mes bas, mes bons, mes mauvais départs Mes coups de bol, mes coup de blues, mes coups du sort et mes coups dun soir Ma vie une belle garce mythomane, une sorte de pompier pyromane Ça passe du rire aux larmes, de quoi perdre quelques kilogrammes Des fois, je lose total, mais jai le moral Des fois, je gagne mais je déprime plus que Jean-Pierre Coffe au McDonald Jfais du trampoline, dans mon encéphale Ballotté entre connerie sans égale et sagesse ancestrale Pour moi, la perfection est perfectible Donc jme torture lesprit pour des détails imperceptibles Et, si tu mexpliques que cest psychotique, jreste sceptique Car tout va bien tant qu'le public est réceptif Ça va, ça vient comme entre deux jambes écartées Jpasse des abysses aux étoiles, sapé en cosmonaute palmé T'as capté ? Un coup tu vas palper, lautre tu vas raquer Ça passe des palmiers au glacier donc laisse-toi aller La vie cest les montagnes russes x2</t>
+          <t>Moi, j'vis des hauts et des bas, jsuis tout en haut quand j'rappe Mais vite retombe quand j'mate que ça ne me rapporte pas Et, devant mon plateau repas, des vidéos me parlent Des clips très beaux me narguent et ça devient nimporte quoi Mais j'nen fais pas tout un plat, les idéaux comme d'hab' Nous disent égaux, semblables, utilisent la langue de bois On aura encore le droit aux clichés confortables Aux idées qu'on formate, auxquels je naccorde pas De crédit, ni même de poids, en bas d'léchelle à chaque fin du mois J'suis pourtant toujours tout en haut au micro check En bas quand on parle demploi, ni cadre, ni grand chef En haut quand on parlera de cette rime et des dix prochaines Les hauts et les bas vite senchaînent, tout comme les exploits Et les bides semmêlent, les espoirs et les mises en scènes qui déçoivent Et on vit sans être des esclaves, ni même des puissants maîtres Mais cest tout d'même épuisant dêtre dans cette foire qui mentraîne encore cette fois x2 On vit des hauts et des bas, des montagnes russes depuis le départ Mais crois pas que tout l'monde samuse et qu'la vie tépargne Cest à celui qui montera l'plus à labri des regards Pas à celui qui tombera juste entre les étages On trime sur des remontées mécaniques des tréfonds océaniques À la renommée, mais, une fois au sommet, ébahis On n'peut que sombrer, on s'laisse retomber Le temps nous est compté, quelle éprouvante épopée tragique C'est la descente qui nous décoiffe, nous met des baffes Nous broie, nous froisse, l'on grimace, l'on se crispe, l'on se fâche L'insouciance laisse place à la tourmente, l'extase À la souffrance, la jouvence à l'incontinence Notre existence un manège où l'on avance sans frein Il faut apprendre à toucher le fond avec entrain À renaître de ses cendres, à remonter la pente À jongler avec ses émotions, à supporter l'attente Épaulé par ses amis, sa famille, voire par des inconnus C'est beau mais rare et, quand cela arrive, crois-moi, c'est impromptu Quand j'ai la gueule de bois quand j'meurs de froid, quand j'pleure quand j'me sens seul Je dois me dire qu'ça ira mieux vu qu'on vit tous des hauts, des bas x2 Jai mes hauts et mes bas, mes bons, mes mauvais départs Mes coups de bol, mes coup de blues, mes coups du sort et mes coups dun soir Ma vie une belle garce mythomane, une sorte de pompier pyromane Ça passe du rire aux larmes, de quoi perdre quelques kilogrammes Des fois, je lose total, mais jai le moral Des fois, je gagne mais je déprime plus que Jean-Pierre Coffe au McDonald Jfais du trampoline, dans mon encéphale Ballotté entre connerie sans égale et sagesse ancestrale Pour moi, la perfection est perfectible Donc jme torture lesprit pour des détails imperceptibles Et, si tu mexpliques que cest psychotique, jreste sceptique Car tout va bien tant qu'le public est réceptif Ça va, ça vient comme entre deux jambes écartées Jpasse des abysses aux étoiles, sapé en cosmonaute palmé T'as capté ? Un coup tu vas palper, lautre tu vas raquer Ça passe des palmiers au glacier donc laisse-toi aller La vie cest les montagnes russes x2</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Approche, viens Chut, nul besoin d'm'expliquer c'qui t'est arrivé, j'le sais déjà J'imagine très bien l'état dans lequel tu es Laisse-moi te conter mon voyageYou might also like</t>
+          <t>Approche, viens Chut, nul besoin d'm'expliquer c'qui t'est arrivé, j'le sais déjà J'imagine très bien l'état dans lequel tu es Laisse-moi te conter mon voyage</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hier, j'étais encore dans l'hexagone Me voici assis à l'arrière d'un taxi jaune À l'ère du billet vert, on la surnomme La nouvelle Rome La cité mère des surhommes, je lâche mes vers dans la grosse pomme À l'ombre d'un gratte-ciel hautain, je tends l'oreille Et entends soudain le cri de King Kong qui s'éveille au loin Je compte les sosies de Brad Pitt, les braves types En batterie, à Wall Street, les traders qui bad trip New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, des toits aux sous-sols New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, New York J'aperçois Obama puis passe un moment au MoMA À mimer ma maman qui m'a transmis l'amour de l'art et des aplats Hop la, j'bosse l'articulation À poil, dos à l'asphalte bloque la circulation Mate New York, cette ville cosmopolite Où poussent de lisses monolithes Où sortent de grosses motos d'flics, de riches sodomites Des clips d'Alicia Keys et Jay Z, style photos chics You might also like Adoucis, je m'assoupis dans la ville insomniaque Lors d'une promenade en barque sur le lac de Central Park God bless la Statue de la Liberté topless En état avancé d'ébriété, j'entame sans stress Un freestyle à la mémoire d'ODB KRS One applaudit le Madison Square Garden est conquis J'invite sur scène MF, Woody Allen Smoothe da Hustler Nous sommes rejoins par Chip Fu, Tonedeff et Busta</t>
+          <t>Hier, j'étais encore dans l'hexagone Me voici assis à l'arrière d'un taxi jaune À l'ère du billet vert, on la surnomme La nouvelle Rome La cité mère des surhommes, je lâche mes vers dans la grosse pomme À l'ombre d'un gratte-ciel hautain, je tends l'oreille Et entends soudain le cri de King Kong qui s'éveille au loin Je compte les sosies de Brad Pitt, les braves types En batterie, à Wall Street, les traders qui bad trip New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, des toits aux sous-sols New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, New York J'aperçois Obama puis passe un moment au MoMA À mimer ma maman qui m'a transmis l'amour de l'art et des aplats Hop la, j'bosse l'articulation À poil, dos à l'asphalte bloque la circulation Mate New York, cette ville cosmopolite Où poussent de lisses monolithes Où sortent de grosses motos d'flics, de riches sodomites Des clips d'Alicia Keys et Jay Z, style photos chics Adoucis, je m'assoupis dans la ville insomniaque Lors d'une promenade en barque sur le lac de Central Park God bless la Statue de la Liberté topless En état avancé d'ébriété, j'entame sans stress Un freestyle à la mémoire d'ODB KRS One applaudit le Madison Square Garden est conquis J'invite sur scène MF, Woody Allen Smoothe da Hustler Nous sommes rejoins par Chip Fu, Tonedeff et Busta</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Hippo le nigaud, l'amigo du micro, le mythe et le mytho, le métronome A taché de mille mots des kilos de rivaux, de minos débiles et de vrais bonshommes Quand je siffle des mélodies comme M le Maudit Même la Vénus de Milo applaudit Voici le druide et le griot, le bridge et le tricot vieillot Le pépin dans l'abricot, le briquet dans le Frigo Je veux des moments câlins avec des mamans catins Me réveiller un matin dans la cage de mon lapin Je porte un air débonnaire sous mon bonnet de bain Fais peur aux fiers légionnaires en leur donnant du pain J'ai deux tableaux de Gauguin, j'ai déjà lu le bottin Tu sembles hautain, pourtant, tu remues bien ton popotin J'ai souvent faim lorsque je sens le doux parfum d'un défunt Roule sans frein et, quand je mens, j'arrive parfois à mes fins Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Mal rasé, mon corps est matelassé à cause des Mars glacés Des steaks tartares quand je suis carnassier Et je vais t'arnaquer, comme Barnabé À qui j'ai vendu du rat noir au prix d'un bon canard laqué Pourtant, je combats les coups bas des banques Les quotas, les montres, les compas, les tanks Ma langue joue du tam-tam, chauffe tes tempes C'est Hippocampe qui fout le ramdam donc, allez, danse J'écoute les doutes de tous Les résumés des matchs de foot et des courses De la mousse pousse sous mes pieds, souvent grippé, je tousse Comme un ours qui fumerait avec un patch collé aux bourses Dans la brousse, sans ma trousse de toilettes, j'ai la frousse Crie à l'aide quand des mouches se ramènent, puis me couche Près d'une souche, mon haleine me dégoûte mais les hyènes Me veulent toutes, je m'accouple avec toutes celles qui louchent You might also like T'as qu'à barrer mon nom sur la liste des invités Mais je risque d'occuper une piste à l'entrée De m'accaparer tous tes disques rayés Et d'en faire des délices qui puissent captiver Ceux qui s'agitent et ceux qui le méritent Ceux qui méditent transpirent Je fais saliver tous ceux qui m'évitent Ceux qui débitent admirent Ceux qui m'imitent font rire Car mes mimiques sont celles D'un gars limite martyr Psychorigide sans herbe Sincère ami du verbe, c'est irréfutable Timide, acerbe, c'est irrévocable Comme tirées d'une fable, mes syllabes Médicinales de cigale sont irresponsables Hippo, Hippo, Hippo, Hippo, ouais ! Hippo, Hippo, Hippo, Hippo c'est l'meilleur !</t>
+          <t>Hippo le nigaud, l'amigo du micro, le mythe et le mytho, le métronome A taché de mille mots des kilos de rivaux, de minos débiles et de vrais bonshommes Quand je siffle des mélodies comme M le Maudit Même la Vénus de Milo applaudit Voici le druide et le griot, le bridge et le tricot vieillot Le pépin dans l'abricot, le briquet dans le Frigo Je veux des moments câlins avec des mamans catins Me réveiller un matin dans la cage de mon lapin Je porte un air débonnaire sous mon bonnet de bain Fais peur aux fiers légionnaires en leur donnant du pain J'ai deux tableaux de Gauguin, j'ai déjà lu le bottin Tu sembles hautain, pourtant, tu remues bien ton popotin J'ai souvent faim lorsque je sens le doux parfum d'un défunt Roule sans frein et, quand je mens, j'arrive parfois à mes fins Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Mal rasé, mon corps est matelassé à cause des Mars glacés Des steaks tartares quand je suis carnassier Et je vais t'arnaquer, comme Barnabé À qui j'ai vendu du rat noir au prix d'un bon canard laqué Pourtant, je combats les coups bas des banques Les quotas, les montres, les compas, les tanks Ma langue joue du tam-tam, chauffe tes tempes C'est Hippocampe qui fout le ramdam donc, allez, danse J'écoute les doutes de tous Les résumés des matchs de foot et des courses De la mousse pousse sous mes pieds, souvent grippé, je tousse Comme un ours qui fumerait avec un patch collé aux bourses Dans la brousse, sans ma trousse de toilettes, j'ai la frousse Crie à l'aide quand des mouches se ramènent, puis me couche Près d'une souche, mon haleine me dégoûte mais les hyènes Me veulent toutes, je m'accouple avec toutes celles qui louchent T'as qu'à barrer mon nom sur la liste des invités Mais je risque d'occuper une piste à l'entrée De m'accaparer tous tes disques rayés Et d'en faire des délices qui puissent captiver Ceux qui s'agitent et ceux qui le méritent Ceux qui méditent transpirent Je fais saliver tous ceux qui m'évitent Ceux qui débitent admirent Ceux qui m'imitent font rire Car mes mimiques sont celles D'un gars limite martyr Psychorigide sans herbe Sincère ami du verbe, c'est irréfutable Timide, acerbe, c'est irrévocable Comme tirées d'une fable, mes syllabes Médicinales de cigale sont irresponsables Hippo, Hippo, Hippo, Hippo, ouais ! Hippo, Hippo, Hippo, Hippo c'est l'meilleur !</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi, taxi, taxi ! Oh ! Eh ! Taxi ! Ah l'enfoiré, putain ! Oh non, le bus ! Le bus ! Le bus, attendez ! Attendez ! Eh, j'vais... Je vais pas rentrer à pied quand même ? J'ai grossi, j'ai de la cellulite Faut que je ressuscite, mais j'suis pas très motivé J'ai bien trop peur des fractures, j'suis plus vraiment filiforme J'pourrais faire un infarctus en jouant au mini-golf x2 Nul, nul, nul En sport Il est où ton jogging ? J'aurais bien aimé pratiquer la capoeira Le vélo sans les mains mais, le sport et moi, ça fait trois Vu qu'en EPS, j'n'avais pas la moyenne Je n'pourrai jamais surfer de vague hawaïenne Au foot, à la récré, j'étais le déchet de l'équipe J'étais celui qu'on choisissait en dernier, juste après les filles On m'appelait le défonceur, je massacrais les attaquants En les taclant, on m'a sacré meilleur buteur contre son camp J'étais une calamité sur le terrain Et, ce, bien avant de tiser et fumer des joints J'ai toujours eu du mal à courir en serrant les poings Donc, au relais, je faisais souvent tomber le témoin Au ping-pong, j'perdais tous les matchs à la suite J'commençais table une, j'finissais à la huit À l'équitation, j'aimais juste les balades Je n'ai jamais atteint le sommet des murs d'escalade J'ai fait du basket aussi, au bout d'une année J'ai bien failli réussir à mettre un panier À la natation, j'aimais faire de l'apnée Plonger comme un con, aller sous l'eau pour mater Au judo, j'avais pas d'amis, mais j'racontais ma vie Immobilisé sur le tatami Même aux jeux d'sport, sur mon Atari, j'étais tout moisi J'me suis fait un hématome en jouant à la Wii You might also like Elle est pas froide, j'te dis, elle est pas froide ! J'suis trop doux pour la boxe, trop hétéro pour la lutte Trop fragile pour le rugby, et trop frileux pour la luge Trop mou pour la course, trop lent pour l'escrime Debout sur la poutre à la gym, j'avais le vertige Au moindre effort physique, j'ai des courbatures Faudrait qu'j'arrête de rester caché sous ma couverture On m'verra jamais aux JO courir à toute allure À part en live pendant la cérémonie d'ouverture Tu vas taper dans c'ballon ? C'est pas par là ! Mais va t'acheter des pieds ! T'es mauvais !2</t>
+          <t>Taxi, taxi, taxi ! Oh ! Eh ! Taxi ! Ah l'enfoiré, putain ! Oh non, le bus ! Le bus ! Le bus, attendez ! Attendez ! Eh, j'vais... Je vais pas rentrer à pied quand même ? J'ai grossi, j'ai de la cellulite Faut que je ressuscite, mais j'suis pas très motivé J'ai bien trop peur des fractures, j'suis plus vraiment filiforme J'pourrais faire un infarctus en jouant au mini-golf x2 Nul, nul, nul En sport Il est où ton jogging ? J'aurais bien aimé pratiquer la capoeira Le vélo sans les mains mais, le sport et moi, ça fait trois Vu qu'en EPS, j'n'avais pas la moyenne Je n'pourrai jamais surfer de vague hawaïenne Au foot, à la récré, j'étais le déchet de l'équipe J'étais celui qu'on choisissait en dernier, juste après les filles On m'appelait le défonceur, je massacrais les attaquants En les taclant, on m'a sacré meilleur buteur contre son camp J'étais une calamité sur le terrain Et, ce, bien avant de tiser et fumer des joints J'ai toujours eu du mal à courir en serrant les poings Donc, au relais, je faisais souvent tomber le témoin Au ping-pong, j'perdais tous les matchs à la suite J'commençais table une, j'finissais à la huit À l'équitation, j'aimais juste les balades Je n'ai jamais atteint le sommet des murs d'escalade J'ai fait du basket aussi, au bout d'une année J'ai bien failli réussir à mettre un panier À la natation, j'aimais faire de l'apnée Plonger comme un con, aller sous l'eau pour mater Au judo, j'avais pas d'amis, mais j'racontais ma vie Immobilisé sur le tatami Même aux jeux d'sport, sur mon Atari, j'étais tout moisi J'me suis fait un hématome en jouant à la Wii Elle est pas froide, j'te dis, elle est pas froide ! J'suis trop doux pour la boxe, trop hétéro pour la lutte Trop fragile pour le rugby, et trop frileux pour la luge Trop mou pour la course, trop lent pour l'escrime Debout sur la poutre à la gym, j'avais le vertige Au moindre effort physique, j'ai des courbatures Faudrait qu'j'arrête de rester caché sous ma couverture On m'verra jamais aux JO courir à toute allure À part en live pendant la cérémonie d'ouverture Tu vas taper dans c'ballon ? C'est pas par là ! Mais va t'acheter des pieds ! T'es mauvais !2</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs seffritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Petite partie dbelote avec pépé, mémé tricotte J'm'ennuie, comme chaque été, j'suis loin d'mes potes Les yeux dans l'vague, je grimpe aux arbres et je sifflote J'combats ls monstres imaginaires comme Don Quichott Pépé écoute mes anecdotes, j'parle que dcinéma Sur un sentier dmontagne, en short, sous les épicéas Maman vient d'accoucher, papa sachète un camescope Ma sur, c'est sa nouvelle mascotte Chaque mercredi avec Laurent et Kakadi On s'fait des burritos, on loue des films, on s'avachit Papa travaille la nuit avec son groupe de mariachis Souvent, il reste au lit ou compose sur son Atari Bercé par ses mélodies, obsédé par les filles du lycée Premier spliff sur fond de rap et fous rires alcoolisés Ma sur et moi, on parle moins, nos liens sont distendus La nuit, jdors plus, j'regarde des films de Ku...brick J'ai jamais rien vu d'aussi beau, jamais rien senti d'aussi fort La femme que j'aime a fabriqué ce tout p'tit corps Elle m'appelle déjà papa, j'suis son mentor Parfois, elle m'parle et j'écoute pas, j'ai tellement tort Parce que, ces phrases, elle les répètera pas On a beau dire qu'on n'vit qu'une fois pas, au fond, on n'y croit pas Maintenant, j'ai trois enfants qui jouent, des étoiles dans les yeux J'profite de ma famille et savoure ces instants précieux You might also like On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Tempêtes de fin d'siècle, coupure d'électricité Des zombies sous mon lit veulent me grignoter les pieds Mais j'ai pas peur, vu qu't'es dans la chambre à côté Avec tes prises de judo, tu vas tous les démonter Papa nous récupère à la gare, maman rigole Main dans la main en ribambelle, et je décolle J'aimerais qu'on vive ensemble pour l'éternité Mais, parfois, la nuit, j'entends des pleurs étouffés Tu dors chez qui, c'week-end ? Chez ton père ou ta mère ? Bah j'vais plutôt squatter chez mon frère C'est mon cocon, mon nuage de coton Ma nièce et moi, on joue, et j'lui fredonne des chansons J'apprends la gratte, c'est ma seule activité Pour oublier qu'mon premier amour m'a quitté Mémé est morte, pépé radote On joue aux cartes à deux, j'aime bien quand on papote Premier jour de taf la vie me baffe, je cherche en vain ma place Dans le métro, j'angoisse le soir, je déprime dans mon sas Ma famille s'est éparpillée On m'prend déjà pour une adulte, moi, j'ai rien vu arriver Laissez-moi tranquille, par pitié, j'veux juste retourner Sous ma couette pour échapper à la réalité, faut qu'j'arrête J'pousse la porte du studio, un casque sur la tête Mon frère est avec moi et, là, ça rec On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares</t>
+          <t>On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs seffritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Petite partie dbelote avec pépé, mémé tricotte J'm'ennuie, comme chaque été, j'suis loin d'mes potes Les yeux dans l'vague, je grimpe aux arbres et je sifflote J'combats ls monstres imaginaires comme Don Quichott Pépé écoute mes anecdotes, j'parle que dcinéma Sur un sentier dmontagne, en short, sous les épicéas Maman vient d'accoucher, papa sachète un camescope Ma sur, c'est sa nouvelle mascotte Chaque mercredi avec Laurent et Kakadi On s'fait des burritos, on loue des films, on s'avachit Papa travaille la nuit avec son groupe de mariachis Souvent, il reste au lit ou compose sur son Atari Bercé par ses mélodies, obsédé par les filles du lycée Premier spliff sur fond de rap et fous rires alcoolisés Ma sur et moi, on parle moins, nos liens sont distendus La nuit, jdors plus, j'regarde des films de Ku...brick J'ai jamais rien vu d'aussi beau, jamais rien senti d'aussi fort La femme que j'aime a fabriqué ce tout p'tit corps Elle m'appelle déjà papa, j'suis son mentor Parfois, elle m'parle et j'écoute pas, j'ai tellement tort Parce que, ces phrases, elle les répètera pas On a beau dire qu'on n'vit qu'une fois pas, au fond, on n'y croit pas Maintenant, j'ai trois enfants qui jouent, des étoiles dans les yeux J'profite de ma famille et savoure ces instants précieux On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Tempêtes de fin d'siècle, coupure d'électricité Des zombies sous mon lit veulent me grignoter les pieds Mais j'ai pas peur, vu qu't'es dans la chambre à côté Avec tes prises de judo, tu vas tous les démonter Papa nous récupère à la gare, maman rigole Main dans la main en ribambelle, et je décolle J'aimerais qu'on vive ensemble pour l'éternité Mais, parfois, la nuit, j'entends des pleurs étouffés Tu dors chez qui, c'week-end ? Chez ton père ou ta mère ? Bah j'vais plutôt squatter chez mon frère C'est mon cocon, mon nuage de coton Ma nièce et moi, on joue, et j'lui fredonne des chansons J'apprends la gratte, c'est ma seule activité Pour oublier qu'mon premier amour m'a quitté Mémé est morte, pépé radote On joue aux cartes à deux, j'aime bien quand on papote Premier jour de taf la vie me baffe, je cherche en vain ma place Dans le métro, j'angoisse le soir, je déprime dans mon sas Ma famille s'est éparpillée On m'prend déjà pour une adulte, moi, j'ai rien vu arriver Laissez-moi tranquille, par pitié, j'veux juste retourner Sous ma couette pour échapper à la réalité, faut qu'j'arrête J'pousse la porte du studio, un casque sur la tête Mon frère est avec moi et, là, ça rec On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Je suis plus pensif qu'expansif, moins bobo que baba Plus sensible qu'excentrique, moins Rocco que Rocca Moins statique qu'extatique, plus mystérieux qu'ésotérique Moins chaise que guitare électrique, plus sérieux qu'hystérique Plus aqueduc qu'oléoduc Moins avenue que sombre ruelle Plus sandwich que toilettes turques Moins Candide que Pantagruel Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Je suis plus South Park que Simpson, moins Sean Paul que Nina Simone Plus Dragon Ball que Pokemon, moins Outkast que Raekwon Moins éolienne que moulin, plus prix Nobel que mondain Moins thé au miel que bon vin, plus tiep-bou-dien que boudin Moins bases navales que basses nasales Plus Johnny got his gun que L'Arme Fatale Plus sincère que jaloux, moins dispensaire que saloon Plus chaource que Chavroux, moins Mickey Mouse que Baloo You might also like x2</t>
+          <t>Je suis plus pensif qu'expansif, moins bobo que baba Plus sensible qu'excentrique, moins Rocco que Rocca Moins statique qu'extatique, plus mystérieux qu'ésotérique Moins chaise que guitare électrique, plus sérieux qu'hystérique Plus aqueduc qu'oléoduc Moins avenue que sombre ruelle Plus sandwich que toilettes turques Moins Candide que Pantagruel Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Je suis plus South Park que Simpson, moins Sean Paul que Nina Simone Plus Dragon Ball que Pokemon, moins Outkast que Raekwon Moins éolienne que moulin, plus prix Nobel que mondain Moins thé au miel que bon vin, plus tiep-bou-dien que boudin Moins bases navales que basses nasales Plus Johnny got his gun que L'Arme Fatale Plus sincère que jaloux, moins dispensaire que saloon Plus chaource que Chavroux, moins Mickey Mouse que Baloo x2</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Où suis-je ? Serait-ce une chambre funéraire ? Le silence enlace l'obscurité mais j'ai les idées claires Il faut qu'je sorte de là, j'étouffe Je sens un souffle sur mon cou, j'ai p't-être une momie à mes trousses J'voudrais pas qu'elle me touche, qu'elle me tourmente, ça m'épouvante C'est éprouvant, faut qu'j'me calme, je m'essouffle Je respire enfin, extirpé des tripes De cette pyramide enclin à me questionner en vain Est-ce un mirage ou un monument défiant le temps ? Un ermitage où s'abritent les convalescents ? Comment ai-je pu me retrouver dans ce tombeau ? Seul et sans flambeau, perdu comme Peter Pan dans son landau J'erre dans ce paysage lunaire J'entends miauler des chats affamés aux abords du Caire Ce décor beige et or est d'excellente facture Je vois des cigognes rejoindre leurs villégiatures Ont-elles livré des enfants en pâture À ce monde immature dont les parures rassurent ? Moi, sous ce ciel azur Je n'ai pas fière allure Le réel est un mur Le rêve, une embrasure Loin de tout centre-ville Hors de ma chrysalide J'avance le ventre vide J'ignore ce qu'il m'arrive Mais je me sens revivre Mes plaies se cicatrisent Tandis que danse le Nil Roulent les pyramides You might also like Je rêve éveillé, le jour s'évapore Chaque seconde est rayée, le présent déjà mort Un rire énigmatique attire mon attention Est-il défendu d'goûter au fruit d'son imagination ? Au bord du Nil où se courbent des roseaux L'ombre d'un volatile me surplombe, j'ai moins chaud Mais ce n'est pas l'ombre d'un oiseau ordinaire Apeuré par ce monstre, je fais trois pas en arrière</t>
+          <t>Où suis-je ? Serait-ce une chambre funéraire ? Le silence enlace l'obscurité mais j'ai les idées claires Il faut qu'je sorte de là, j'étouffe Je sens un souffle sur mon cou, j'ai p't-être une momie à mes trousses J'voudrais pas qu'elle me touche, qu'elle me tourmente, ça m'épouvante C'est éprouvant, faut qu'j'me calme, je m'essouffle Je respire enfin, extirpé des tripes De cette pyramide enclin à me questionner en vain Est-ce un mirage ou un monument défiant le temps ? Un ermitage où s'abritent les convalescents ? Comment ai-je pu me retrouver dans ce tombeau ? Seul et sans flambeau, perdu comme Peter Pan dans son landau J'erre dans ce paysage lunaire J'entends miauler des chats affamés aux abords du Caire Ce décor beige et or est d'excellente facture Je vois des cigognes rejoindre leurs villégiatures Ont-elles livré des enfants en pâture À ce monde immature dont les parures rassurent ? Moi, sous ce ciel azur Je n'ai pas fière allure Le réel est un mur Le rêve, une embrasure Loin de tout centre-ville Hors de ma chrysalide J'avance le ventre vide J'ignore ce qu'il m'arrive Mais je me sens revivre Mes plaies se cicatrisent Tandis que danse le Nil Roulent les pyramides Je rêve éveillé, le jour s'évapore Chaque seconde est rayée, le présent déjà mort Un rire énigmatique attire mon attention Est-il défendu d'goûter au fruit d'son imagination ? Au bord du Nil où se courbent des roseaux L'ombre d'un volatile me surplombe, j'ai moins chaud Mais ce n'est pas l'ombre d'un oiseau ordinaire Apeuré par ce monstre, je fais trois pas en arrière</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>L'homme a tenté de reproduire le chaos De la nature dans une cage aussi lugubre qu'un caveau Tableau hanté par des sculptures d'animaux Sous l'ossature d'une forêt, un insalubre caniveau Cadeau diplomatique de la Chine, ce panda fantomatique Lézarde à la cime d'un arbre, derrière des grilles ou des barreaux À l'abri de l'orage, plus triste que sage, il a perdu son âme sauvage C'est dommage, il rend hommage à son oesophage lorsqu'il avale du fromage Avant, il se gavait de bambous qui avaient bon goût prenait de longs bains de boue en Faisant du kung fu, beaucoup de femelles qui étaient au courant Lui sautaient au cou puis prenaient son pouls, oui, c'était trop cool quand Il tenait le bon bout, maintenant tout fout l'camp Ce panda glande, bande comme un con Devant des gang bang de ratons laveurs Fait les cent pas, s'efface ou fait des bonds Scandant ses râles face à ces matons rêveurs Il apaise les petits et les grands le dimanche Cependant, ce panda s'est pendu à une branche x2 Ce panda trop tôt vieux, pot au feu au tofu S'ennuie, ça saute aux yeux, il n'est qu'une photo floueYou might also like</t>
+          <t>L'homme a tenté de reproduire le chaos De la nature dans une cage aussi lugubre qu'un caveau Tableau hanté par des sculptures d'animaux Sous l'ossature d'une forêt, un insalubre caniveau Cadeau diplomatique de la Chine, ce panda fantomatique Lézarde à la cime d'un arbre, derrière des grilles ou des barreaux À l'abri de l'orage, plus triste que sage, il a perdu son âme sauvage C'est dommage, il rend hommage à son oesophage lorsqu'il avale du fromage Avant, il se gavait de bambous qui avaient bon goût prenait de longs bains de boue en Faisant du kung fu, beaucoup de femelles qui étaient au courant Lui sautaient au cou puis prenaient son pouls, oui, c'était trop cool quand Il tenait le bon bout, maintenant tout fout l'camp Ce panda glande, bande comme un con Devant des gang bang de ratons laveurs Fait les cent pas, s'efface ou fait des bonds Scandant ses râles face à ces matons rêveurs Il apaise les petits et les grands le dimanche Cependant, ce panda s'est pendu à une branche x2 Ce panda trop tôt vieux, pot au feu au tofu S'ennuie, ça saute aux yeux, il n'est qu'une photo floue</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>- Papa - Qu'est-ce que tu as fais, là, hein ? Pourquoi tu as fait ça ? - Papa - C'est une bêtise ce que tu viens d'faire, une grosse bêtise. On met pas des miettes pare-terre, après, papa, il est obligé de passer le balai ou l'aspirateur, et, papa, il aime pas ça, hein - Papa Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer J'peux plus m'gratter les bourses Faut qu'j'aille au supermarché, acheter des couches Chez moi, y'a plus d'bières mais du lait d'croissance par pack de douze Des purées, des petits suisses, du talc et des mouches Qui volent au dessus d'la poubelle, j'la descends plus souvent que je n'palpe de flouze Je n'suis pas soigné, je n'paye pas le loyer J'espère quand même être un bon papa au foyer Mais j'me sens comme oppressé, guetté par les huissiers J'ai plus l'temps, j'suis pressé, j'lis mes mails aux WC J'dors entre un mur et ma femme, j'fais l'gars mature, incassable J'cache mes fractures à la cave, et mes factures dans un sac J'ai pas d'voiture mais un Mac, j'fais des ratures sur la page Où s'écrit mon court voyage, la dramaturgie est passable J'fuis mes responsabilités six étages à escalader Chargé comme une mule que l'on aurait génétiquement modifiée Un bébé malade harnaché qui s'en bat la race des papiers Qui s'emballe, déchire mes BD, à sept heure moins l'quart, réveillée J'voudrais faire la grasse matinée, qu'elle tartine mes Krisprolls Qu'elle s'entraîne toute seule à rapper plus vite que les Kriss Kross J'n'ai pas la rage car, chaque matin, j'ai l'occas' De sentir sa main froide sur ma joue, c'est un câlin mémorable, je l'avoue Transmettre et recevoir, l'aimer sans la décevoir L'élever, la regarder s'envoler avec espoir Et, quand je l'entends rire, j'oublie mes préoccupations Puisque, sans contrefaçon, je suis un daron You might also like Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa, papa, papa J'ai toujours pas trouvé la touche snooze sur ma fille Papa, papa... J'aimerais siroter des cocktails, posé sous une tonnelle Me bourrer la gueule en Ardèche ou à Marrakech Mais j'dois faire la vaisselle, ranger tout le bordel Et, à dix-sept heure, récupérer ma fille à la crèche Hier encore, y'avait des crocodiles sous mon lit Ma maman me lisait des histoires pour m'endormir D'où viennent mes cheveux blancs ? C'est un mystère Il paraîtrait que, maintenant, je suis un fils-père Papa au foyer Papa au foyer Papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Moi, je veux chanter que L'année prochaine, je serai grand Je ferai tout sans ma maman Je me peignerai tout seul Je me baignerai tout seul Je me moucherai tout seul Je me coucherai tout seul</t>
+          <t>- Papa - Qu'est-ce que tu as fais, là, hein ? Pourquoi tu as fait ça ? - Papa - C'est une bêtise ce que tu viens d'faire, une grosse bêtise. On met pas des miettes pare-terre, après, papa, il est obligé de passer le balai ou l'aspirateur, et, papa, il aime pas ça, hein - Papa Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer J'peux plus m'gratter les bourses Faut qu'j'aille au supermarché, acheter des couches Chez moi, y'a plus d'bières mais du lait d'croissance par pack de douze Des purées, des petits suisses, du talc et des mouches Qui volent au dessus d'la poubelle, j'la descends plus souvent que je n'palpe de flouze Je n'suis pas soigné, je n'paye pas le loyer J'espère quand même être un bon papa au foyer Mais j'me sens comme oppressé, guetté par les huissiers J'ai plus l'temps, j'suis pressé, j'lis mes mails aux WC J'dors entre un mur et ma femme, j'fais l'gars mature, incassable J'cache mes fractures à la cave, et mes factures dans un sac J'ai pas d'voiture mais un Mac, j'fais des ratures sur la page Où s'écrit mon court voyage, la dramaturgie est passable J'fuis mes responsabilités six étages à escalader Chargé comme une mule que l'on aurait génétiquement modifiée Un bébé malade harnaché qui s'en bat la race des papiers Qui s'emballe, déchire mes BD, à sept heure moins l'quart, réveillée J'voudrais faire la grasse matinée, qu'elle tartine mes Krisprolls Qu'elle s'entraîne toute seule à rapper plus vite que les Kriss Kross J'n'ai pas la rage car, chaque matin, j'ai l'occas' De sentir sa main froide sur ma joue, c'est un câlin mémorable, je l'avoue Transmettre et recevoir, l'aimer sans la décevoir L'élever, la regarder s'envoler avec espoir Et, quand je l'entends rire, j'oublie mes préoccupations Puisque, sans contrefaçon, je suis un daron Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa, papa, papa J'ai toujours pas trouvé la touche snooze sur ma fille Papa, papa... J'aimerais siroter des cocktails, posé sous une tonnelle Me bourrer la gueule en Ardèche ou à Marrakech Mais j'dois faire la vaisselle, ranger tout le bordel Et, à dix-sept heure, récupérer ma fille à la crèche Hier encore, y'avait des crocodiles sous mon lit Ma maman me lisait des histoires pour m'endormir D'où viennent mes cheveux blancs ? C'est un mystère Il paraîtrait que, maintenant, je suis un fils-père Papa au foyer Papa au foyer Papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Moi, je veux chanter que L'année prochaine, je serai grand Je ferai tout sans ma maman Je me peignerai tout seul Je me baignerai tout seul Je me moucherai tout seul Je me coucherai tout seul</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pas le temps Pas le temps de se dépayser Pas le temps de se stabiliser Pas le temps de préparer des repas équilibrés Pas le temps de dédramatiser Pas le temps de jouer, pas le temps de répéter Pas le temps d'échouer, pas le temps de progresser Pas le temps de s'ennuyer, pas le temps de soupirer Pas le temps de bronzer, pas le temps de roupiller Pas le temps de prendre un bain, pas le temps d'se laver les dents Pas le temps d'se garer vraiment bien Pas le temps d'attendre, pas le temps d'apprendre Pas le temps d'écouter des morceaux jusqu'à la fin Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps You might also like Pas le temps de fêter nos anniv' Pas le temps d'assister aux manifs Pas le temps d'être indécis, pas le temps d'être précis Pas le temps d'préparer le débrief' Pas le temps d'être un peu solidaire Pas le temps pour des préliminaires Pas le temps de faire la paix, pas le temps d'aimer la Terre Pas le temps de percer des mystères Pas le temps de laisser mijoter nos rêves dans la Grande Ourse Pas le temps de vérifier nos sources, faut gagner la course Pas le temps d'être poli, pas le temps d'être incompétent Pas le temps de réfléchir au fait qu'on n'a pas le temps Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Pas le temps de tomber amoureux Pas le temps pour les mots langoureux Pas le temps d'élever nos enfants, pas le temps d'appeler nos parents Pas le temps d'être moins malheureux Pas le temps d'être malade, pas le temps de réparer Pas le temps d'se balader au calme, pas le temps de buller Pas le temps de lire, pas le temps de rire Pas le temps de jouir, pas le temps de fuir, pas le temps de vivre Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Non, nous n'avons pas le temps Nous n'avons pas le temps Nous n'avons pas... le temps</t>
+          <t>Pas le temps Pas le temps de se dépayser Pas le temps de se stabiliser Pas le temps de préparer des repas équilibrés Pas le temps de dédramatiser Pas le temps de jouer, pas le temps de répéter Pas le temps d'échouer, pas le temps de progresser Pas le temps de s'ennuyer, pas le temps de soupirer Pas le temps de bronzer, pas le temps de roupiller Pas le temps de prendre un bain, pas le temps d'se laver les dents Pas le temps d'se garer vraiment bien Pas le temps d'attendre, pas le temps d'apprendre Pas le temps d'écouter des morceaux jusqu'à la fin Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps Pas le temps de fêter nos anniv' Pas le temps d'assister aux manifs Pas le temps d'être indécis, pas le temps d'être précis Pas le temps d'préparer le débrief' Pas le temps d'être un peu solidaire Pas le temps pour des préliminaires Pas le temps de faire la paix, pas le temps d'aimer la Terre Pas le temps de percer des mystères Pas le temps de laisser mijoter nos rêves dans la Grande Ourse Pas le temps de vérifier nos sources, faut gagner la course Pas le temps d'être poli, pas le temps d'être incompétent Pas le temps de réfléchir au fait qu'on n'a pas le temps Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Pas le temps de tomber amoureux Pas le temps pour les mots langoureux Pas le temps d'élever nos enfants, pas le temps d'appeler nos parents Pas le temps d'être moins malheureux Pas le temps d'être malade, pas le temps de réparer Pas le temps d'se balader au calme, pas le temps de buller Pas le temps de lire, pas le temps de rire Pas le temps de jouir, pas le temps de fuir, pas le temps de vivre Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Non, nous n'avons pas le temps Nous n'avons pas le temps Nous n'avons pas... le temps</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Évoquer des souvenirs du second millénaire Songer qu'à cette époque on trouvait la vie légère Pressentir le programme du soir comme un visionnaire Un p'tit spliff, une série suivis d'un bon missionnaire ça passe Fantasmer sur les puéricultrices et les maîtresses bonjour Entasser à la cave des cartons pleins d'VHS Dorcel Arriver de bonne heure pour pas rater la kermesse Maquiller de bonheur des yeux qui puent la détresse C'est pas pour les jeunes, c'est pas pour les jeunes C'est pas pour les jeunes, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Débroussailler ses narines, tailler la frange sur ses babines Prendre des décisions, seul aux commandes dans la salle des machines Claquer la bise à des patrons trop paternalistes Rentrer du taf aux heures de pointe et libérer de l'adrénaline ça, c'est ma vie Se faire vouvoyer, se dire Cool, ça y est, le respect est en place Puis, comme foudroyé, penser outragé qu'on est bon pour la casse Parler politique en dégustant des viandes en sauce avoir deux rôles l'essentiel et celui qu'on endosse Profiter d'un concert sans mettre un pied dans la fosse, vu qu'on l'a déjà dans la tombe You might also like C'est pas pour les jeunes bah non, c'est pas pour les jeunes hm-hm C'est pas pour les jeunes c'est pour qui alors ?, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Acheter des produits du terroir, bouffer des légumes tous les soirs Hurler dans sa tête J'en ai marre, j'veux voir mes potes, taper des barres Avoir plus de dettes que d'espoir, le cul comme seule échappatoire Faire constamment le grand écart entre la routine et la foire Booker la nounou, aller boire deux ou trois cocktails dans les bars Rentrer chez soi sur un brancard le lendemain réveil en fanfare Sortir ses gosses comme des clébards, jogging, claquettes et lunettes noires Taper la discute dans les squares tout en poussant des balançoires allez PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge t'as compris ou pas ? Haha Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge1</t>
+          <t>Évoquer des souvenirs du second millénaire Songer qu'à cette époque on trouvait la vie légère Pressentir le programme du soir comme un visionnaire Un p'tit spliff, une série suivis d'un bon missionnaire ça passe Fantasmer sur les puéricultrices et les maîtresses bonjour Entasser à la cave des cartons pleins d'VHS Dorcel Arriver de bonne heure pour pas rater la kermesse Maquiller de bonheur des yeux qui puent la détresse C'est pas pour les jeunes, c'est pas pour les jeunes C'est pas pour les jeunes, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Débroussailler ses narines, tailler la frange sur ses babines Prendre des décisions, seul aux commandes dans la salle des machines Claquer la bise à des patrons trop paternalistes Rentrer du taf aux heures de pointe et libérer de l'adrénaline ça, c'est ma vie Se faire vouvoyer, se dire Cool, ça y est, le respect est en place Puis, comme foudroyé, penser outragé qu'on est bon pour la casse Parler politique en dégustant des viandes en sauce avoir deux rôles l'essentiel et celui qu'on endosse Profiter d'un concert sans mettre un pied dans la fosse, vu qu'on l'a déjà dans la tombe C'est pas pour les jeunes bah non, c'est pas pour les jeunes hm-hm C'est pas pour les jeunes c'est pour qui alors ?, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Acheter des produits du terroir, bouffer des légumes tous les soirs Hurler dans sa tête J'en ai marre, j'veux voir mes potes, taper des barres Avoir plus de dettes que d'espoir, le cul comme seule échappatoire Faire constamment le grand écart entre la routine et la foire Booker la nounou, aller boire deux ou trois cocktails dans les bars Rentrer chez soi sur un brancard le lendemain réveil en fanfare Sortir ses gosses comme des clébards, jogging, claquettes et lunettes noires Taper la discute dans les squares tout en poussant des balançoires allez PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge t'as compris ou pas ? Haha Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge1</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'suis l'idole de mes détracteurs qui m'portent dans leur cur Sur leurs épaules de déménageur, mes couplets révélateurs Sont naïfs, oui, dans ma salive, barbotent des bébés nageurs J'faxe les facteurs, taxe les gratteurs, pacse les pasteurs, les p'tits chiens Assez des rappeurs qui n'trouvent pas l'accélérateur, finissent par Cacher leur face d'acteur sous un masque de catcheur mexicain Marre de ces types pseudo-prolifiques au flow trop rigide Aux propos soporifiques qu'on glorifie J'vais butiner leurs pupilles mutilées, les laisser ruminer Dans un champ lexical en plexiglas pendant qu's'empale sur mon grand dard Leurs dulcinées dont j'aime cirer les trompes T'as pigé ? Ces wacks en mal d'idées, j'les gronde Le Graal se cache dans mon dédale, sur scène, je crache, me dévoile Me fâche et c'est légal, la nuit, je bronze en comptant les étoiles Si t'as d'la weed, l'ami, je serais ravi d'la fumer avec toi J'te ferais un gros freestyle rapide et t'iras conter mes exploitsYou might also like</t>
+          <t>J'suis l'idole de mes détracteurs qui m'portent dans leur cur Sur leurs épaules de déménageur, mes couplets révélateurs Sont naïfs, oui, dans ma salive, barbotent des bébés nageurs J'faxe les facteurs, taxe les gratteurs, pacse les pasteurs, les p'tits chiens Assez des rappeurs qui n'trouvent pas l'accélérateur, finissent par Cacher leur face d'acteur sous un masque de catcheur mexicain Marre de ces types pseudo-prolifiques au flow trop rigide Aux propos soporifiques qu'on glorifie J'vais butiner leurs pupilles mutilées, les laisser ruminer Dans un champ lexical en plexiglas pendant qu's'empale sur mon grand dard Leurs dulcinées dont j'aime cirer les trompes T'as pigé ? Ces wacks en mal d'idées, j'les gronde Le Graal se cache dans mon dédale, sur scène, je crache, me dévoile Me fâche et c'est légal, la nuit, je bronze en comptant les étoiles Si t'as d'la weed, l'ami, je serais ravi d'la fumer avec toi J'te ferais un gros freestyle rapide et t'iras conter mes exploits</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Tapi dans le maquis comme un dealer corse, j'épie le game J'ai toujours plus de débit que Peter North, ça, c'est le gang Quand je veux les bolosser, je vise leur torse pour crever leur cur, je n'ai besoin que d'une seule strophe Mes effusions colorées comme Glitter Force auraient sans doute ravi le vampire d Düsseldorf J'fais pas de tubes mais jm plains pas, ça va bien trop de nuls, trop peu d'Alain Chabat Les plus asthmatiques, je les passe à tabac pour les diabétiques, j'ai d'la barbe à papa J'suis plutôt peace voire utopiste, j'rentre dans l'cercle des illusionnistes Je les fais disparaître avec mes p'tites baguettes avant d'aller chez le nutritionniste La nuit, j'hurle comme un loup des steppes, vas-y mollo Quand on m'casse les burnes, j'brûle et j'coupe les têtes, Sleepy Hollow Sous l'apparence pieuse d'un pur esthète maxi bobo J'terrasse la France, demain je tue les States, si si, yo yo Je sais qu'j'suis un grand artiste Sans doute trop avant-gardiste Je danse tout seul sur la piste Rejoignez-moi, c'est la crise Face aux fantômes du passé, je deviens Ghostbuster Là, j'arrive au bal masqué, c'est un un gros cluster Impassible comme Buster Keaton, jvois des tonnes de surs Ces mijaurées kiffent m'ignorer sous leur couronnes de fleurs Quand je m'ennuie, j'rappe dans ma tête, j'me fais des films comme à la Cinémathèque Baskets, jeans et casquette, c'est mon uniforme, là, je m'arrête comme si je venais de voir une licorne Voilà qu'elle me dévisage, elle a retiré son masque et n'a pas l'air si sage C'est un avion d'chasse, j'vais la faire décoller pour l'instant, j'suis collé à son arrière-train d'atterrissage Pas besoin de rails de cocaïne pour libérer de la dopamine, jla regarde lécher ses babines Elle est bonne mais c'est pas Bécassine, elle est plus cochonne que Peppa Pig Elle m'a payé une bière, elle m'a dit Passe à la maison, j'habite à cinq années-lumière Elle est inventive, drôle et super prospère, elle a déjà commandé le Uber Copter Dans son lit, ses yeux brillent comme des rubis, quand jlui fais part de mes lubies Elle gémit, elle pousse des Jésus Christ, elle jouit, elle glousse, je déglutis You might also like Gloups</t>
+          <t>Tapi dans le maquis comme un dealer corse, j'épie le game J'ai toujours plus de débit que Peter North, ça, c'est le gang Quand je veux les bolosser, je vise leur torse pour crever leur cur, je n'ai besoin que d'une seule strophe Mes effusions colorées comme Glitter Force auraient sans doute ravi le vampire d Düsseldorf J'fais pas de tubes mais jm plains pas, ça va bien trop de nuls, trop peu d'Alain Chabat Les plus asthmatiques, je les passe à tabac pour les diabétiques, j'ai d'la barbe à papa J'suis plutôt peace voire utopiste, j'rentre dans l'cercle des illusionnistes Je les fais disparaître avec mes p'tites baguettes avant d'aller chez le nutritionniste La nuit, j'hurle comme un loup des steppes, vas-y mollo Quand on m'casse les burnes, j'brûle et j'coupe les têtes, Sleepy Hollow Sous l'apparence pieuse d'un pur esthète maxi bobo J'terrasse la France, demain je tue les States, si si, yo yo Je sais qu'j'suis un grand artiste Sans doute trop avant-gardiste Je danse tout seul sur la piste Rejoignez-moi, c'est la crise Face aux fantômes du passé, je deviens Ghostbuster Là, j'arrive au bal masqué, c'est un un gros cluster Impassible comme Buster Keaton, jvois des tonnes de surs Ces mijaurées kiffent m'ignorer sous leur couronnes de fleurs Quand je m'ennuie, j'rappe dans ma tête, j'me fais des films comme à la Cinémathèque Baskets, jeans et casquette, c'est mon uniforme, là, je m'arrête comme si je venais de voir une licorne Voilà qu'elle me dévisage, elle a retiré son masque et n'a pas l'air si sage C'est un avion d'chasse, j'vais la faire décoller pour l'instant, j'suis collé à son arrière-train d'atterrissage Pas besoin de rails de cocaïne pour libérer de la dopamine, jla regarde lécher ses babines Elle est bonne mais c'est pas Bécassine, elle est plus cochonne que Peppa Pig Elle m'a payé une bière, elle m'a dit Passe à la maison, j'habite à cinq années-lumière Elle est inventive, drôle et super prospère, elle a déjà commandé le Uber Copter Dans son lit, ses yeux brillent comme des rubis, quand jlui fais part de mes lubies Elle gémit, elle pousse des Jésus Christ, elle jouit, elle glousse, je déglutis Gloups</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool J'ai pris d'assaut le hamac, ma femme, les aires d'jeux la matent J'aimerais qu'on vieillisse ensemble comme Michelle et Barack J'suis à deux doigts d'm'assoupir sous l'parasol, j'veux pas cuire J'kiffe le moment présent, là, y'a pas d'passé, pas d'avenir Héros d'un film d'inaction, couvert de transpiration Le rosé n'est plus frais donc j'remets des glaçons J'ressens de bonnes vibrations, j'laisse venir l'inspiration Je peins mon texte dans ma tête basé sur ces pures sensations Et, là, là, j'me sens bien, là J'me suis rarement senti aussi bien, ouais J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule You might also like Comme un zombie, j'quitte ma tombe, cocktail chargé, j'fais la ronde Y'a pas d'plan Vigipirate, j'laisse mes enfants faire la bombe Maître-nageur en tatanes, j'suis mon propre barman Vu mon taux d'alcoolémie, là, c'est moi qui risque la noyade Eh, arrêtez d'm'éclabousser, hein Non, j'veux pas jouer Non, j'vais pas gonfler ta bouée T'as qu'à souffler J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Bah ouais, j'suis pas marrant La vie, c'est pas toujours fun, hein Moi, j'suis ieux-v' ? Eh, vous faites quoi, là ? T'es sûre ? Eh, si y'en a qui m'poussent, j'vais m'... Eh, c'est pas cool, hein J'fais l'requin dans la pistoche, wo-oh Verre de vin, bol de pistaches, wo-oh Fonce-dé' comme dans un festoche, wo-oh J'profite enfin du spectacle, wo-oh J'suis sous l'eau, au fond d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool</t>
+          <t>J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool J'ai pris d'assaut le hamac, ma femme, les aires d'jeux la matent J'aimerais qu'on vieillisse ensemble comme Michelle et Barack J'suis à deux doigts d'm'assoupir sous l'parasol, j'veux pas cuire J'kiffe le moment présent, là, y'a pas d'passé, pas d'avenir Héros d'un film d'inaction, couvert de transpiration Le rosé n'est plus frais donc j'remets des glaçons J'ressens de bonnes vibrations, j'laisse venir l'inspiration Je peins mon texte dans ma tête basé sur ces pures sensations Et, là, là, j'me sens bien, là J'me suis rarement senti aussi bien, ouais J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Comme un zombie, j'quitte ma tombe, cocktail chargé, j'fais la ronde Y'a pas d'plan Vigipirate, j'laisse mes enfants faire la bombe Maître-nageur en tatanes, j'suis mon propre barman Vu mon taux d'alcoolémie, là, c'est moi qui risque la noyade Eh, arrêtez d'm'éclabousser, hein Non, j'veux pas jouer Non, j'vais pas gonfler ta bouée T'as qu'à souffler J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Bah ouais, j'suis pas marrant La vie, c'est pas toujours fun, hein Moi, j'suis ieux-v' ? Eh, vous faites quoi, là ? T'es sûre ? Eh, si y'en a qui m'poussent, j'vais m'... Eh, c'est pas cool, hein J'fais l'requin dans la pistoche, wo-oh Verre de vin, bol de pistaches, wo-oh Fonce-dé' comme dans un festoche, wo-oh J'profite enfin du spectacle, wo-oh J'suis sous l'eau, au fond d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pleasure off right now When it tickles down there, I go watch a video A couple minutes running through my panties and Im finished though I decode my body, get why it's picky, oh Know how to please it and release it, all that matters, period Images keep flashing, its a myriad Different genitalia, scenes are tailored, some of it is hideous And it be on my mind all day, feel like an idiot I just wanna get my nut and feel like Im the prettiest When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Imagine it as an instant relief I dont need the full meal yet, it's just an aperitif Imma act on my desires, that is my leitmotif Porn is never gonna die, I aint trynna start no beef But I swear a lot of it aint made for us It's hard to look at any of the videos in full consciousness Creamy pie, facial abuse, golden shower, its toys are us Some of these actors dont even know which zones are erogenous You might also like When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Elle a pas peur de parler ddick Tracy Elle est v'nue m'chercher dans un but précis Causer de cul et de porn, ça peut décupler mes forces oui Jadore faire juter le borgne quand j'ai bien scruté mon ordi Chacun ses goûts et ses fantasmes inavoués C'est si facile à trouver pas besoin d'y passer la journée Moi, jmate que du homemade où l'plaisir n'est pas simulé Ho merde! C'est pour ça qu'mon avant-bras est si musclé Quand la colère et le stress monte Je me tâte et les problèmes s'estompent Elles ont des joujous extra-longs Plein de gadgets à la James Bond Y a pas d'mal à s'faire du bien Le constat est unanime Formez des épicuriens Faites du porn éducatif Pas d'body de bimbo Si la MILF est typée, bingo! J'kiffe les plans subjectifs ou fixes Quand le mec fait jouir sa pine-co J'ai trouvé le clit et le point G, suivez le guide Allez vite je les pointe et vous quitte Pour découper des beats on peut dire qu'on est quitte Et que toute l'équipe est décoincée Wow When I watch that porn, porn, when I watch that porn I lock the door When I watch that porn, porn, when I watch that porn Im in the dark When I watch that porn, porn, when I watch that porn I put my headphones When I watch that porn, porn, when I watch that porn My wife and kids are sleeping When I watch that porn, porn, when I watch that porn</t>
+          <t>Pleasure off right now When it tickles down there, I go watch a video A couple minutes running through my panties and Im finished though I decode my body, get why it's picky, oh Know how to please it and release it, all that matters, period Images keep flashing, its a myriad Different genitalia, scenes are tailored, some of it is hideous And it be on my mind all day, feel like an idiot I just wanna get my nut and feel like Im the prettiest When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Imagine it as an instant relief I dont need the full meal yet, it's just an aperitif Imma act on my desires, that is my leitmotif Porn is never gonna die, I aint trynna start no beef But I swear a lot of it aint made for us It's hard to look at any of the videos in full consciousness Creamy pie, facial abuse, golden shower, its toys are us Some of these actors dont even know which zones are erogenous When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Elle a pas peur de parler ddick Tracy Elle est v'nue m'chercher dans un but précis Causer de cul et de porn, ça peut décupler mes forces oui Jadore faire juter le borgne quand j'ai bien scruté mon ordi Chacun ses goûts et ses fantasmes inavoués C'est si facile à trouver pas besoin d'y passer la journée Moi, jmate que du homemade où l'plaisir n'est pas simulé Ho merde! C'est pour ça qu'mon avant-bras est si musclé Quand la colère et le stress monte Je me tâte et les problèmes s'estompent Elles ont des joujous extra-longs Plein de gadgets à la James Bond Y a pas d'mal à s'faire du bien Le constat est unanime Formez des épicuriens Faites du porn éducatif Pas d'body de bimbo Si la MILF est typée, bingo! J'kiffe les plans subjectifs ou fixes Quand le mec fait jouir sa pine-co J'ai trouvé le clit et le point G, suivez le guide Allez vite je les pointe et vous quitte Pour découper des beats on peut dire qu'on est quitte Et que toute l'équipe est décoincée Wow When I watch that porn, porn, when I watch that porn I lock the door When I watch that porn, porn, when I watch that porn Im in the dark When I watch that porn, porn, when I watch that porn I put my headphones When I watch that porn, porn, when I watch that porn My wife and kids are sleeping When I watch that porn, porn, when I watch that porn</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>J'n'ai pas trop d'groupies, j'me baigne Dans des flaques d'eau croupies, entouré de radeaux d'fourmis Mes idées jouent à chat, font des saltos Le chaos règne dans mon sale pot-pourri Traîne pas là-bas, c'est chaud, mec, c'est pas Palavas-les-Flots, ouais C'est pas l'fait d'avoir des gros pecs qui fera de toi le roi des poètes Tu n'mets pas la barre très haut donc je danse le limbo Devant des bimbos Eurêka Bingo ! Entre texte et mélodie, je négocie des speed-dating Les mots sont à leur table et les musiques défilent Certains ne s'accorderont pas, genre décalage de groove D'autres, en revanche, fusionneront, et ce freestyle le prouve Quand je viens chanter, je peux toucher l'aisance de peu J'n'attends pas qu'mes bracelets se brisent pour réaliser mes vux Han, le son m'fait voyager, mais je ne fais pas l'touriste Non, je reste aussi poli que le crâne d'un moine bouddhiste Et j'y arrive depuis qu'je sais qu'j'peux l'faire Depuis que des martiens mélomanes m'ont donné l'feu vert Je suis ce fou terrien, vous ne foutez rien Vous êtes en galère comme quand Hippo roule des joints C'est pas moi, c'est la vie qui poétise Regarde toutes les rimes pauvres que certains monétisent Il serait facile de se dire que céo maîtrise Mais le type est trop carré, en fait, il géométrise Belliqueux, j'ai de délicieuses idées pernicieuses Des visions idylliques et hideuses, illimitées Mirifiques et miteuses, t'essaies de m'imiter Tandis que j'butine en toute humilité des filles humides assez rieuses Toi, tu mutiles leur clito' phallique Elles atteignent le septième ciel avec mon haricot magique Donc range tes cookies rances et ton omelette au jambon Mange mes couilles qui pendent, j'encule ta fossette au menton - C'était p't-être un p'tit peu too much, non ? - Too much, je sais pas, mais c'était... c'était crado, quoi, là...You might also like</t>
+          <t>J'n'ai pas trop d'groupies, j'me baigne Dans des flaques d'eau croupies, entouré de radeaux d'fourmis Mes idées jouent à chat, font des saltos Le chaos règne dans mon sale pot-pourri Traîne pas là-bas, c'est chaud, mec, c'est pas Palavas-les-Flots, ouais C'est pas l'fait d'avoir des gros pecs qui fera de toi le roi des poètes Tu n'mets pas la barre très haut donc je danse le limbo Devant des bimbos Eurêka Bingo ! Entre texte et mélodie, je négocie des speed-dating Les mots sont à leur table et les musiques défilent Certains ne s'accorderont pas, genre décalage de groove D'autres, en revanche, fusionneront, et ce freestyle le prouve Quand je viens chanter, je peux toucher l'aisance de peu J'n'attends pas qu'mes bracelets se brisent pour réaliser mes vux Han, le son m'fait voyager, mais je ne fais pas l'touriste Non, je reste aussi poli que le crâne d'un moine bouddhiste Et j'y arrive depuis qu'je sais qu'j'peux l'faire Depuis que des martiens mélomanes m'ont donné l'feu vert Je suis ce fou terrien, vous ne foutez rien Vous êtes en galère comme quand Hippo roule des joints C'est pas moi, c'est la vie qui poétise Regarde toutes les rimes pauvres que certains monétisent Il serait facile de se dire que céo maîtrise Mais le type est trop carré, en fait, il géométrise Belliqueux, j'ai de délicieuses idées pernicieuses Des visions idylliques et hideuses, illimitées Mirifiques et miteuses, t'essaies de m'imiter Tandis que j'butine en toute humilité des filles humides assez rieuses Toi, tu mutiles leur clito' phallique Elles atteignent le septième ciel avec mon haricot magique Donc range tes cookies rances et ton omelette au jambon Mange mes couilles qui pendent, j'encule ta fossette au menton - C'était p't-être un p'tit peu too much, non ? - Too much, je sais pas, mais c'était... c'était crado, quoi, là...</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2979,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>J'ai rencontré ce morbaque au bord d'un lac Lors d'un coït horrible avec une femme à barbe ingrate Croisée à la sortie d'un squat non loin de ma fac Sous un ciel voilé, j'avais bu deux-trois packs Ce morbaque immortel avait vécu Dans le bas-ventre velu de Cléopâtre et d'Imhotep Avait connu des détraqués sexuels, des filles modèles Les lits du château de Versailles et les p'tits motels Il avait squatté le pubis d'esclaves et de rois Celui d'Ulysse à l'étroit dans le cheval de Troie Il avait goûté à des saisons chaudes À des hivers dans des maisons closes côtoyant des boutons d'rose Il était tolérant, s'excitait facilement S'exprimait brillamment depuis dix mille ans Il avait traversé le temps et les océans Croisé des tyrans et des titans, exploré tous les continents S'agrippant de port en port, de poil en poil Du Radeau de La Méduse au Bateau-Lavoir D'un confessionnal aux toilettes sales d'une gare ou d'un bar Il avait appris à slalomer entre les lames de rasoirs Il m'a conté des histoires excellentes Depuis l'époque où il était lente Mais, j'l'ai refilé à une passante Paraît qu'il traîne dans un cirque avec des puces savantes You might also like x5 Pubis Pubis ennemi</t>
+          <t>J'ai rencontré ce morbaque au bord d'un lac Lors d'un coït horrible avec une femme à barbe ingrate Croisée à la sortie d'un squat non loin de ma fac Sous un ciel voilé, j'avais bu deux-trois packs Ce morbaque immortel avait vécu Dans le bas-ventre velu de Cléopâtre et d'Imhotep Avait connu des détraqués sexuels, des filles modèles Les lits du château de Versailles et les p'tits motels Il avait squatté le pubis d'esclaves et de rois Celui d'Ulysse à l'étroit dans le cheval de Troie Il avait goûté à des saisons chaudes À des hivers dans des maisons closes côtoyant des boutons d'rose Il était tolérant, s'excitait facilement S'exprimait brillamment depuis dix mille ans Il avait traversé le temps et les océans Croisé des tyrans et des titans, exploré tous les continents S'agrippant de port en port, de poil en poil Du Radeau de La Méduse au Bateau-Lavoir D'un confessionnal aux toilettes sales d'une gare ou d'un bar Il avait appris à slalomer entre les lames de rasoirs Il m'a conté des histoires excellentes Depuis l'époque où il était lente Mais, j'l'ai refilé à une passante Paraît qu'il traîne dans un cirque avec des puces savantes x5 Pubis Pubis ennemi</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mouais... super... hun-hun... elle, elle est moche... ouais, c'est ça... lui, il raconte tout le temps les mêmes histoires... gngngngna, vas-y, raconte ta vie... rha, mais lui il pue d'la gueule, c'est chaud... Moi, j'ai pas qu'ça à faire, hein, rien à foutre... en plus, y'a plus rien à boire... j'sais pas danser... pfou, j'm'ennuie, bah ouais... les gens sont vilains... Ah ! Oh, lui, il a une toute petite tête ! Et ça rigole... et ça tchatche... la jeunesse, c'est plus d'mon âge... Bon, moi, j'vais pas tarder à m'barrer, hein... J'n'ai pas la vie d'une rock-star J'me couche de moins en moins tard Trois bières et j'suis dans le coltard J'marmonne et titube à la Gainsbarre J'me bourre de café, de vitamine C Pour mieux affronter ces mondanités Cette soirée m'ennuie, lopacité grandit J'ai vu quelqu'un bâiller, je suis contaminé Écoutez-vous parler si ça vous fait plaisir Mais j'me tire, poussez-vous, s'il vous plaît Laissez-moi glandouiller dans mon grand lit douillet J'veux vite rentrer chez moi comme Le Petit Poucet Voilà... comme ça, demain, j'me lève bien bien tard !.. J'me fais une bonne grosse sieste et... au dodo... J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre parenthèses La prochaine étape, c'est la quarantaine You might also like À mon anniversaire, on m'offre des pyjamas Quand j'entends des bruits suspects, la nuit, j'hurle Qui va là ? J'ai acheté la panoplie du parfait gars ramolli J'fais les cent pas dans ma tête pour cramer des calories Le Pape des papys, le Comte des coups d'barre Le roi de l'apathie, le ponte des pantouflards Oui, j'suis flemmard... Pour faire la sieste J'pourrais m'planquer dans la niche d'un clébard Je suis encore plus casanier qu'un escargot Je rêve de décrocher la lune à l'aide d'un escabeau Alors j'enfile une grenouillère, mon amour propre s'enfuit Je m'en vais dormir comme une pierre jusqu'à c'que mort s'ensuive J'suis né au siècle dernier, mais suis-je à d'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine Scratches Quarante piges, putain, c'est l'âge de mes parents C'est le moment où tes enfants te répètent T'es pas marrant Les familiarités font place au vouvoiement On passe devant le cimetière en se disant qu'il nous attend C'est le trek ou le footing, le stress et la routine Les soucis, les soupirs, les manèges sans looping La calvitie, les cernes et les rides, la famille Et le sacrifice, le début de la fin du feu d'artifice Tu redescends de la montagne, le passé t'accompagne Le futur t'angoisse mais tu te soignes Les potes s'éloignent, les époques se fanent Le temps t'escorte mais il t'escroque car il extorque l'âme J'accepte de vieillir La prise de poids, la perte de désir Mais, avant de finir cloîtré Je voudrais faire le tour de la voie lactée J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine J'ai mis ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine1</t>
+          <t>Mouais... super... hun-hun... elle, elle est moche... ouais, c'est ça... lui, il raconte tout le temps les mêmes histoires... gngngngna, vas-y, raconte ta vie... rha, mais lui il pue d'la gueule, c'est chaud... Moi, j'ai pas qu'ça à faire, hein, rien à foutre... en plus, y'a plus rien à boire... j'sais pas danser... pfou, j'm'ennuie, bah ouais... les gens sont vilains... Ah ! Oh, lui, il a une toute petite tête ! Et ça rigole... et ça tchatche... la jeunesse, c'est plus d'mon âge... Bon, moi, j'vais pas tarder à m'barrer, hein... J'n'ai pas la vie d'une rock-star J'me couche de moins en moins tard Trois bières et j'suis dans le coltard J'marmonne et titube à la Gainsbarre J'me bourre de café, de vitamine C Pour mieux affronter ces mondanités Cette soirée m'ennuie, lopacité grandit J'ai vu quelqu'un bâiller, je suis contaminé Écoutez-vous parler si ça vous fait plaisir Mais j'me tire, poussez-vous, s'il vous plaît Laissez-moi glandouiller dans mon grand lit douillet J'veux vite rentrer chez moi comme Le Petit Poucet Voilà... comme ça, demain, j'me lève bien bien tard !.. J'me fais une bonne grosse sieste et... au dodo... J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre parenthèses La prochaine étape, c'est la quarantaine À mon anniversaire, on m'offre des pyjamas Quand j'entends des bruits suspects, la nuit, j'hurle Qui va là ? J'ai acheté la panoplie du parfait gars ramolli J'fais les cent pas dans ma tête pour cramer des calories Le Pape des papys, le Comte des coups d'barre Le roi de l'apathie, le ponte des pantouflards Oui, j'suis flemmard... Pour faire la sieste J'pourrais m'planquer dans la niche d'un clébard Je suis encore plus casanier qu'un escargot Je rêve de décrocher la lune à l'aide d'un escabeau Alors j'enfile une grenouillère, mon amour propre s'enfuit Je m'en vais dormir comme une pierre jusqu'à c'que mort s'ensuive J'suis né au siècle dernier, mais suis-je à d'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine Scratches Quarante piges, putain, c'est l'âge de mes parents C'est le moment où tes enfants te répètent T'es pas marrant Les familiarités font place au vouvoiement On passe devant le cimetière en se disant qu'il nous attend C'est le trek ou le footing, le stress et la routine Les soucis, les soupirs, les manèges sans looping La calvitie, les cernes et les rides, la famille Et le sacrifice, le début de la fin du feu d'artifice Tu redescends de la montagne, le passé t'accompagne Le futur t'angoisse mais tu te soignes Les potes s'éloignent, les époques se fanent Le temps t'escorte mais il t'escroque car il extorque l'âme J'accepte de vieillir La prise de poids, la perte de désir Mais, avant de finir cloîtré Je voudrais faire le tour de la voie lactée J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine J'ai mis ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine1</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>À la manière d'un tsunami géant Le rap aquatique peut engloutir l'espèce humaine Flow millésimé, j'pose avec générosité Pour les femmes qui s'épilent les zones à forte pilosité Ne sois pas terrorisé par mon tact mérovingien Besoin d'onctuosité je contacte des gros vagins J'ai des textes plus compacts que tes disques Mec, on m'appelle l'Antéchrist angélique Tu convoites, c'que t'es triste Je te bizute, tu dis zut, en deux minutes, t'es laminé La seule émotion que j'ressens en t'écoutant, c'est la pitié J'éclate ta tête à claque, tes rimes plates manquent de saveur comme du slim fast T'as tes vapeurs, faut qu'tu t'hydrates, donc j'écarte tes cuisses flasques Ne prends pas peur, sache que je suis chaste J'monopolise ton boule, cette friandise qu'on souille Dans une cellule exiguë d'une prison d'Istanbul Je vais scier tes testicules, en faire une petite tambouille T'apprécies et ça te stimule, en fait, tu kiffes l'embrouille Là, faut qu't'imagines un minotaure sous-marin dans sa grotte Avec d'la carapace de crevette sur les yeux Et une langue en forme de tentacule de poulpe Et qui t'clash depuis son canapé en corail You might also like T'as moins d'vocabulaire qu'un gamin sourd en primaire Et ton flow caduque sent le sapin, fourbe antiquaire Nul besoin d'être érudit pour percer le mystère Je suis rappeur en CDI et toi, intérimaire Tu tuerais père et mère pour un petit concert T'es orphelin, tu désespères, t'inquiète, je suis ton père J'suis invicible et mon génie n'est pas héréditaire L'infanticide est mon hobby dixit les faits divers Ta mère la fouine s'fait ken' en levrette par Jabba le Hutt sur la planète Tatooine Puis baragouine J'emmerde les mecs ! dans des petits bars à gouines Alors arrête tes foutaises, les gens n'écoutent pas tes longs monologues Ils jactent dans ton dos, tu deviens rouge comme chez ton proctologue Arriviste pathétique comme Barry Lyndon Sors sans tes bas résilles, comme Paris Hilton Croque dans cette pomme mortelle et maléfique car Telle est ma définition d'un couplet magnétique, stop Ça picote, hein ? Oh oui, ça picote Ça fait bobo Mais t'as bien mérité cette fessée Vu qu'en plus... T'es têtu, bruyant, très turbulent Ton regard fuyant n'est pas rassurant La plupart du temps, tu t'masturbes en Face d'une glace hurlant J'fais du rap mutant ! Je t'épouvante souvent, t'éprouve en t'essoufflant Me défoule en t'souillant, t'ébouillante et fous l'camp J'suis médisant et te maîtrise en étant méprisant T'es pas séduisant, non, t'es déprimant x2 Hippocampe Fou est un poète Dissonant, doué, incorrect, oui, c'est un Troubadour troublant et grotesque doublé d'un Loup-garou bouffant des cortex Aïe, aïe, aïe Comme on dit je t'ai mangé Mais qui aime bien, châtie bien J'te dis ça de renard à poussin1</t>
+          <t>À la manière d'un tsunami géant Le rap aquatique peut engloutir l'espèce humaine Flow millésimé, j'pose avec générosité Pour les femmes qui s'épilent les zones à forte pilosité Ne sois pas terrorisé par mon tact mérovingien Besoin d'onctuosité je contacte des gros vagins J'ai des textes plus compacts que tes disques Mec, on m'appelle l'Antéchrist angélique Tu convoites, c'que t'es triste Je te bizute, tu dis zut, en deux minutes, t'es laminé La seule émotion que j'ressens en t'écoutant, c'est la pitié J'éclate ta tête à claque, tes rimes plates manquent de saveur comme du slim fast T'as tes vapeurs, faut qu'tu t'hydrates, donc j'écarte tes cuisses flasques Ne prends pas peur, sache que je suis chaste J'monopolise ton boule, cette friandise qu'on souille Dans une cellule exiguë d'une prison d'Istanbul Je vais scier tes testicules, en faire une petite tambouille T'apprécies et ça te stimule, en fait, tu kiffes l'embrouille Là, faut qu't'imagines un minotaure sous-marin dans sa grotte Avec d'la carapace de crevette sur les yeux Et une langue en forme de tentacule de poulpe Et qui t'clash depuis son canapé en corail T'as moins d'vocabulaire qu'un gamin sourd en primaire Et ton flow caduque sent le sapin, fourbe antiquaire Nul besoin d'être érudit pour percer le mystère Je suis rappeur en CDI et toi, intérimaire Tu tuerais père et mère pour un petit concert T'es orphelin, tu désespères, t'inquiète, je suis ton père J'suis invicible et mon génie n'est pas héréditaire L'infanticide est mon hobby dixit les faits divers Ta mère la fouine s'fait ken' en levrette par Jabba le Hutt sur la planète Tatooine Puis baragouine J'emmerde les mecs ! dans des petits bars à gouines Alors arrête tes foutaises, les gens n'écoutent pas tes longs monologues Ils jactent dans ton dos, tu deviens rouge comme chez ton proctologue Arriviste pathétique comme Barry Lyndon Sors sans tes bas résilles, comme Paris Hilton Croque dans cette pomme mortelle et maléfique car Telle est ma définition d'un couplet magnétique, stop Ça picote, hein ? Oh oui, ça picote Ça fait bobo Mais t'as bien mérité cette fessée Vu qu'en plus... T'es têtu, bruyant, très turbulent Ton regard fuyant n'est pas rassurant La plupart du temps, tu t'masturbes en Face d'une glace hurlant J'fais du rap mutant ! Je t'épouvante souvent, t'éprouve en t'essoufflant Me défoule en t'souillant, t'ébouillante et fous l'camp J'suis médisant et te maîtrise en étant méprisant T'es pas séduisant, non, t'es déprimant x2 Hippocampe Fou est un poète Dissonant, doué, incorrect, oui, c'est un Troubadour troublant et grotesque doublé d'un Loup-garou bouffant des cortex Aïe, aïe, aïe Comme on dit je t'ai mangé Mais qui aime bien, châtie bien J'te dis ça de renard à poussin1</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3030,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez You might also like Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
+          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France You might also like x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
+          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Dur, dur d'être attentif quand j'fume plus de quarante spliffs J'culbute au ralenti puis murmure des saloperies Pas d'calomnie, mate, v'là l'OVNI qui amerrit J'sais pas si t'as saisi quand j'étais p'tit C'était western spaghetti et space cake à la cantine Laisse faire, je t'attendris, j'suis expert en inepties J'crée des crises d'épilepsie, épie les filles, défie les psys De l'audace, de l'inédit pour dix mille esprits loquaces Le succès, ça passe, j'boirai la tasse Puis me voilerai la face, me contenterai d'un ça passe Le sarcasme comme arme pour lutter contre un tas d'crasses J'entends qu'j't'agace, j'suis un enfant d'la basse Il est grand temps qu'j'm'arrache, j'catapulte Des toiles d'art brut, casse ta nuque Sans armada russe et me balade nu Dans un immense champ d'patates d'où j'recrache la lune J'deale de la potion magique, ris d'vos narrations statiques Ecriture aromatique fruit de ma passion à risque J'me sens lubrique voire impudique, j'crois qu'sans musique J'serais un d'ces gars douteux qui s'tripote sur les bancs publics J'ai juste pris le mic histoire de remporter le titre Si ta copine te quitte, c'est que t'es grand en gueule mais petit dans le slip T'as la grippe, une otite, les yeux en trou de bite Arrête le shit, tu fais flipper, pour te kicker, j'ai pas besoin de clique J'suis pas tendre, confonds pas avec Mike Brant J'trouve l'inspiration comme quand Jean-Marie lit Mein Kampf Ton son est crado, pire qu'un pédo' en Thaïlande Tu parles de voiture allemande mais tu prends l'bus avec ta bande Lâche le mic et retourne faire du shopping En ville, avec tes copines L'Eni' is not joking Juste avec deux rimes, j't'embobine Pire que Baudelaire à Brooklyn j'mélange poésie et trash talking J'arrive classique, flow massif à la Shaq' O'neal Si mon son tourne dans ta tire, tu roules en claques-mobile J't'explique ta zik, c'est pas audible Et tu rêves qu'un jour j'te recrute pour un feat ? Yo, t'as pas l'profil Au mic, j'ai la forme, j'rappe comme j'fais mon jogging J'élimine les gros wacks et les toxines P'tit con, j'te mets ippon car t'es bidon Pire qu'un 'leur-dea' sans chichon ou Jean Sarkozy sans piston You might also like Plutôt du genre autonome quand certains gars font l'aumône Le beat, j'taffe, rime grave, freestyle holocauste Pour les p'tits gars flow low cost, ceux qui s'croient trop locos J'ai plus d'images qu'il n'y d'villages ou d'visages au Togo J'arrive grosso modo comme un gosse au zoo Bien déridé, plus excité qu'un d'ces gros bonobos J'suis comme les impôts locaux, je parle aux riches, aux prolos Et j'réunis les opposés comme pour un Bordeaux-Sochaux Si tu raffoles de nos flows, ne t'affole pas trop, molo Je kick, je deviens plus heureux qu'un gars qui gagne au Loto Rangez donc vos autos ainsi qu'vos motos, nos mots Ont plus de couleurs et de vie qu'une vulgaire photos Lomo Si j'fais une faute au mot lot, tu n'pourras pas l'homologuer T'étais nul à l'écrit et pas meilleur aux oraux J'débite du boulot solo pour mettre les boules aux sonos Et reste fort et explore sans mini marque au polo Pendant qu'tes potos causent trop, j'suis dans un duo costaud La zik et moi, c'est comme la lumière pour un gars trop claustro' Comme l'alcool au clodo, le flingue aux vatos locos J'te dis on forme une team énorme, tout comme TornadoZorro Quand j'dis qu'j'serais célèbre, j'suis plus crédible, ça fait bientôt quinze piges J'avance mais j'sais pas vraiment où j'me dirige Quand j'rappe tout seul dans mon coin, c'est la folie, j'me prends pour un prodige Mon seul public, c'est mes potes parce que je les oblige J'm'incruste en te disant que je suis juste de visite Après, j'te pique le titre avant qu'tu réalises que j'suis un parasite J'écris la plupart de mes speechs à la va-vite Mais bon, c'est vraiment pas ma faute si, l'écriture, c'est mon pouvoir magique Une étoile noire, c'est compliqué à repérer dans le ciel J'ai observé le mouv' sous tous les angles, j'ai capté l'essentiel J'te ponds un truc démentiel en moins de dix centièmes J'impose mon son dans ta maison parce que je suis sans gêne Perdu, j'veux vivre mes rêves mais je sais plus lesquels J'ai mis du temps à me lancer parce que j'suis un diesel La vie t'abime des fois, c'est difficile de rester zen Y'a que sur scène que j'me sens vraiment pousser des ailes Quand L'Eni' m'invite, j'réponds Ok David J't'écris un truc en speed parce que, mon rap, c'est d'la restauration rapide Mais d'la trois étoiles, si t'as le ventre vide Viens te nourrir, à la fin, tu seras comme Hagrid3</t>
+          <t>Dur, dur d'être attentif quand j'fume plus de quarante spliffs J'culbute au ralenti puis murmure des saloperies Pas d'calomnie, mate, v'là l'OVNI qui amerrit J'sais pas si t'as saisi quand j'étais p'tit C'était western spaghetti et space cake à la cantine Laisse faire, je t'attendris, j'suis expert en inepties J'crée des crises d'épilepsie, épie les filles, défie les psys De l'audace, de l'inédit pour dix mille esprits loquaces Le succès, ça passe, j'boirai la tasse Puis me voilerai la face, me contenterai d'un ça passe Le sarcasme comme arme pour lutter contre un tas d'crasses J'entends qu'j't'agace, j'suis un enfant d'la basse Il est grand temps qu'j'm'arrache, j'catapulte Des toiles d'art brut, casse ta nuque Sans armada russe et me balade nu Dans un immense champ d'patates d'où j'recrache la lune J'deale de la potion magique, ris d'vos narrations statiques Ecriture aromatique fruit de ma passion à risque J'me sens lubrique voire impudique, j'crois qu'sans musique J'serais un d'ces gars douteux qui s'tripote sur les bancs publics J'ai juste pris le mic histoire de remporter le titre Si ta copine te quitte, c'est que t'es grand en gueule mais petit dans le slip T'as la grippe, une otite, les yeux en trou de bite Arrête le shit, tu fais flipper, pour te kicker, j'ai pas besoin de clique J'suis pas tendre, confonds pas avec Mike Brant J'trouve l'inspiration comme quand Jean-Marie lit Mein Kampf Ton son est crado, pire qu'un pédo' en Thaïlande Tu parles de voiture allemande mais tu prends l'bus avec ta bande Lâche le mic et retourne faire du shopping En ville, avec tes copines L'Eni' is not joking Juste avec deux rimes, j't'embobine Pire que Baudelaire à Brooklyn j'mélange poésie et trash talking J'arrive classique, flow massif à la Shaq' O'neal Si mon son tourne dans ta tire, tu roules en claques-mobile J't'explique ta zik, c'est pas audible Et tu rêves qu'un jour j'te recrute pour un feat ? Yo, t'as pas l'profil Au mic, j'ai la forme, j'rappe comme j'fais mon jogging J'élimine les gros wacks et les toxines P'tit con, j'te mets ippon car t'es bidon Pire qu'un 'leur-dea' sans chichon ou Jean Sarkozy sans piston Plutôt du genre autonome quand certains gars font l'aumône Le beat, j'taffe, rime grave, freestyle holocauste Pour les p'tits gars flow low cost, ceux qui s'croient trop locos J'ai plus d'images qu'il n'y d'villages ou d'visages au Togo J'arrive grosso modo comme un gosse au zoo Bien déridé, plus excité qu'un d'ces gros bonobos J'suis comme les impôts locaux, je parle aux riches, aux prolos Et j'réunis les opposés comme pour un Bordeaux-Sochaux Si tu raffoles de nos flows, ne t'affole pas trop, molo Je kick, je deviens plus heureux qu'un gars qui gagne au Loto Rangez donc vos autos ainsi qu'vos motos, nos mots Ont plus de couleurs et de vie qu'une vulgaire photos Lomo Si j'fais une faute au mot lot, tu n'pourras pas l'homologuer T'étais nul à l'écrit et pas meilleur aux oraux J'débite du boulot solo pour mettre les boules aux sonos Et reste fort et explore sans mini marque au polo Pendant qu'tes potos causent trop, j'suis dans un duo costaud La zik et moi, c'est comme la lumière pour un gars trop claustro' Comme l'alcool au clodo, le flingue aux vatos locos J'te dis on forme une team énorme, tout comme TornadoZorro Quand j'dis qu'j'serais célèbre, j'suis plus crédible, ça fait bientôt quinze piges J'avance mais j'sais pas vraiment où j'me dirige Quand j'rappe tout seul dans mon coin, c'est la folie, j'me prends pour un prodige Mon seul public, c'est mes potes parce que je les oblige J'm'incruste en te disant que je suis juste de visite Après, j'te pique le titre avant qu'tu réalises que j'suis un parasite J'écris la plupart de mes speechs à la va-vite Mais bon, c'est vraiment pas ma faute si, l'écriture, c'est mon pouvoir magique Une étoile noire, c'est compliqué à repérer dans le ciel J'ai observé le mouv' sous tous les angles, j'ai capté l'essentiel J'te ponds un truc démentiel en moins de dix centièmes J'impose mon son dans ta maison parce que je suis sans gêne Perdu, j'veux vivre mes rêves mais je sais plus lesquels J'ai mis du temps à me lancer parce que j'suis un diesel La vie t'abime des fois, c'est difficile de rester zen Y'a que sur scène que j'me sens vraiment pousser des ailes Quand L'Eni' m'invite, j'réponds Ok David J't'écris un truc en speed parce que, mon rap, c'est d'la restauration rapide Mais d'la trois étoiles, si t'as le ventre vide Viens te nourrir, à la fin, tu seras comme Hagrid3</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J'aime la vitesse mais jamais au volant d'un bolide allemand, quand j'suis devant la foule J'suis comme à la maison, ouais, y a pas de bafouille même quand j'cavale en rappant J'avais peur des pétards bien avant le Bataclan boom, mais si Kanye sencanaille Et fait tourner celui de Kimmy Kardashian ok, jfume, affalé comme un flan C'est pt-être pas la Belle au bois dormant, vu qu'elle est maléfique mais, bon, tant pis, le mal est fait, trop tard J'vais pull up le beat et rebooter la fête, le pilon ma défait chut Roulé-boulé, j'mts les bouchées doubles t j'vous laisse tous étouffer Sous des coulées d'boue, j'suis shooté mais mon style est bulletproof Avec Y2, j'casse tout, tel un voyou, j'bafoue Jai du bagout, j'l'avoue, cloue le bec des zazous J'ai des yeux d'enfant, j'vois les choses en grand Par le trou de la serrure, comme un petit passe-partout Y a pas d'acte de bravoure, ni de pacte t't't' Que des flaques d'amour et des blagues grave lourdes J'mets des claques en série, claque, claque, claque J'me déplace sans permis et sans plaque, là, jattaque what? Si t'es cardiaque, je te car-jack et me casse vite dans les Carpates, y a des vampires J'suis la barbaque, mais je m'en fiche, j'ai des contacts, j'ai le contrat pour le comte Drac' Il a les crocs, je le constate, et puis des crampes à l'estomac, je décampe, j'suis pas trauma' Là, je rampe tel un cobra, quelle aubaine, je vais vite à l'hôpital, tu las vu, quand je m'étale, tout le game est dans le coma Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais You might also like Look, pop another pilly I be getting busy, I be gettin litty imma really have the city on a hunnid fifty Nothing pretty bout it, baby, I dont got a doubt about it, had to get it imma flip its another automatic Weapon imma take it to my funeral and not regret it, only thing I let get to my head was all the baddest bitches I dont give a fuck if itll be another homicidal, I just need a mother fucking lighter and a shot of Irish whiskey Bitch, please, no kissing just some Monica Lewinsky Imma die lit like a lamp on, cut it like coupons, I only trust karma like sutra And food trucks serving ya crew with one hand on two nuts, I practice celibacy cuz I dont give two fucks About a bitch, who gotta problem with? Hop up out the whip, gratata tha shit S'il vous plaît, would you give me a break? Im cool off you bitches like air dry showers, Im high as towers that Donald Trump owns My coast is clear like a shot of Svedka Vodka The way I double up my finance they think my ass got cloned I jump in that whip like a kid in a gym wita mask on my face, I am finishing him Do not sub in a zero, placebo affect whatchoo smoking it for if you high off my shit Its a thin line between love and hate, thats a fact that aint cap, you just looked at the dress code too late Im just waving at bitches and skating on niggaz and taking that shit to my grave when Im finished Estamos en un punto moviéndose a velocidades vertiginosas Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais</t>
+          <t>J'aime la vitesse mais jamais au volant d'un bolide allemand, quand j'suis devant la foule J'suis comme à la maison, ouais, y a pas de bafouille même quand j'cavale en rappant J'avais peur des pétards bien avant le Bataclan boom, mais si Kanye sencanaille Et fait tourner celui de Kimmy Kardashian ok, jfume, affalé comme un flan C'est pt-être pas la Belle au bois dormant, vu qu'elle est maléfique mais, bon, tant pis, le mal est fait, trop tard J'vais pull up le beat et rebooter la fête, le pilon ma défait chut Roulé-boulé, j'mts les bouchées doubles t j'vous laisse tous étouffer Sous des coulées d'boue, j'suis shooté mais mon style est bulletproof Avec Y2, j'casse tout, tel un voyou, j'bafoue Jai du bagout, j'l'avoue, cloue le bec des zazous J'ai des yeux d'enfant, j'vois les choses en grand Par le trou de la serrure, comme un petit passe-partout Y a pas d'acte de bravoure, ni de pacte t't't' Que des flaques d'amour et des blagues grave lourdes J'mets des claques en série, claque, claque, claque J'me déplace sans permis et sans plaque, là, jattaque what? Si t'es cardiaque, je te car-jack et me casse vite dans les Carpates, y a des vampires J'suis la barbaque, mais je m'en fiche, j'ai des contacts, j'ai le contrat pour le comte Drac' Il a les crocs, je le constate, et puis des crampes à l'estomac, je décampe, j'suis pas trauma' Là, je rampe tel un cobra, quelle aubaine, je vais vite à l'hôpital, tu las vu, quand je m'étale, tout le game est dans le coma Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Look, pop another pilly I be getting busy, I be gettin litty imma really have the city on a hunnid fifty Nothing pretty bout it, baby, I dont got a doubt about it, had to get it imma flip its another automatic Weapon imma take it to my funeral and not regret it, only thing I let get to my head was all the baddest bitches I dont give a fuck if itll be another homicidal, I just need a mother fucking lighter and a shot of Irish whiskey Bitch, please, no kissing just some Monica Lewinsky Imma die lit like a lamp on, cut it like coupons, I only trust karma like sutra And food trucks serving ya crew with one hand on two nuts, I practice celibacy cuz I dont give two fucks About a bitch, who gotta problem with? Hop up out the whip, gratata tha shit S'il vous plaît, would you give me a break? Im cool off you bitches like air dry showers, Im high as towers that Donald Trump owns My coast is clear like a shot of Svedka Vodka The way I double up my finance they think my ass got cloned I jump in that whip like a kid in a gym wita mask on my face, I am finishing him Do not sub in a zero, placebo affect whatchoo smoking it for if you high off my shit Its a thin line between love and hate, thats a fact that aint cap, you just looked at the dress code too late Im just waving at bitches and skating on niggaz and taking that shit to my grave when Im finished Estamos en un punto moviéndose a velocidades vertiginosas Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>On s'accroche puis on laisse fuir On sconstruit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Le ciel est gris, c'est pas grisant, c'est déprimant Le monde est sourd et trop bruyant, ça, c'est épuisant Les optimistes ont un slogan pas si fascinant Après la pluie vient le beau temps, ouais, c'est évident La joie nous éclair de façon éphémère, ça, cest navrant Mais faut pas slaissr faire, c'est clair, cest la vie qui nous l'apprend Quand t'es sur les rotules, à cran, au fond du gouffre souffle Faut parfois prendre du recul pour aller de l'avant Na-na-na-na-na-na-na-na, na Na-na-na, na-na-na Na-na-na-na-na-na-na-na, na Na-na-na You might also like On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Notre écorce est recouverte de curs gravés Mais, bien souvent, nos larmes arrosent des fleurs fanées Difficile de n'pas plier face à ces grandes bourrasques Mais on essaye de tenir bon, de rester enthousiaste Faut laisser passer l'orage, c'est vital Le temps nous emportera tous, c'est inévitable En attendant, on rit, on pleure, on vit, c'est pas si mal On connaît la fin mais on respire, c'est l'principal On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire</t>
+          <t>On s'accroche puis on laisse fuir On sconstruit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Le ciel est gris, c'est pas grisant, c'est déprimant Le monde est sourd et trop bruyant, ça, c'est épuisant Les optimistes ont un slogan pas si fascinant Après la pluie vient le beau temps, ouais, c'est évident La joie nous éclair de façon éphémère, ça, cest navrant Mais faut pas slaissr faire, c'est clair, cest la vie qui nous l'apprend Quand t'es sur les rotules, à cran, au fond du gouffre souffle Faut parfois prendre du recul pour aller de l'avant Na-na-na-na-na-na-na-na, na Na-na-na, na-na-na Na-na-na-na-na-na-na-na, na Na-na-na On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Notre écorce est recouverte de curs gravés Mais, bien souvent, nos larmes arrosent des fleurs fanées Difficile de n'pas plier face à ces grandes bourrasques Mais on essaye de tenir bon, de rester enthousiaste Faut laisser passer l'orage, c'est vital Le temps nous emportera tous, c'est inévitable En attendant, on rit, on pleure, on vit, c'est pas si mal On connaît la fin mais on respire, c'est l'principal On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire</t>
         </is>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>J'suis tellement nostalgique que les gens qui m'connaissent m'ont trouvé un surnom, c'est... Retroman Retroman Retroman Retroman J'habite un immeuble à colombages Rongé par le temps, ses murs s'effritent comme du parmesan Mes meubles ont au moins dix fois mon âge Je vis calmement et ça rend jaloux la plupart des gens Je mange de l'aigle et du faisan À l'aide d'une fourchette à deux dents Ma ville est grise et glace le sang Ses habitants sont haletants Tous ces gens ternes m'attristent Ils prennent des vessies pour des lanternes magiques Quand je m'emmerde la nuit, je lis des manuscrits en vieux français Ce mois-ci, j'ai déchiffré dix phrases de Montaigne et Racine Je suis un poil taquin, j'aime faire peur aux gamins Et, pour le carnaval, je m'habille en Arlequin Les soirs de gros chagrin, là non, j'fais pas l'malin Et dors en diagonale dans mon lit à baldaquin You might also like Retroman Retroman Retroman Retroman Je trempe ma plume dans un encrier Datant de la seconde moitié du onzième siècle J'voudrais capturer deux, trois grues cendrées Afin de correspondre avec un bonze espiègle Je me douche les jours de pluie, sous les gouttières Me rase avec des bouts d'verre, conserve de l'eau croupie dans des soupières Je suis fier d'être rétro De ne jamais avoir voulu prendre le métro J'y risque la mort car les escalators Sont en fait des dinos féroces enragés J'adore les tricératops alors On m'a offert un rhinocéros empaillé Le souci, c'est qu'je vis dans un minuscule deux pièces Une grotte qui pue le charbon, le crottin d'cheval Mais il m'arrive de porter des costumes trois pièces Culotte, chaperon et cotte de mailles Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie Depuis tout petit, on m'traite de vieux con Dans un océan de nostalgie, j'touche le fond J'épie toutes les filles à tête de guenon Leurs voix sont obsédantes, volcaniques, d'outre-tombe Celles qui me traitent d'élitiste détestable Ignorent qu'en fait j'suis fétichiste des pieds sales Oui, j'admire l'ancien temps sur son piédestal Ponctue mes phrases d'un juron médiéval Je porte des sabots, pratique des danses de salon tribales Égorge des crapauds, m'agite en transe grâce à mon cigare Quand mon coq fait cot-codec, ça m'rappelle que nos vies s'consument J'aime les objets obsolètes, ils ressuscitent ceux qui n'sont plus Plus qu'une passion, c'est un mode de vie Je voyage dans le passé de jour comme de nuit Aux puces, je chine et dépense donc je suis Et tant pis, si je finis sous un pont-levis Retroman Je crois qu'autrefois est mon mot préféré Retroman Chez moi, j'ai un coq pour me réveiller Retroman Je flâne chaque semaine dans les vide-greniers Retroman Et, quand j'ai la migraine, je me fais dix saignées Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie</t>
+          <t>J'suis tellement nostalgique que les gens qui m'connaissent m'ont trouvé un surnom, c'est... Retroman Retroman Retroman Retroman J'habite un immeuble à colombages Rongé par le temps, ses murs s'effritent comme du parmesan Mes meubles ont au moins dix fois mon âge Je vis calmement et ça rend jaloux la plupart des gens Je mange de l'aigle et du faisan À l'aide d'une fourchette à deux dents Ma ville est grise et glace le sang Ses habitants sont haletants Tous ces gens ternes m'attristent Ils prennent des vessies pour des lanternes magiques Quand je m'emmerde la nuit, je lis des manuscrits en vieux français Ce mois-ci, j'ai déchiffré dix phrases de Montaigne et Racine Je suis un poil taquin, j'aime faire peur aux gamins Et, pour le carnaval, je m'habille en Arlequin Les soirs de gros chagrin, là non, j'fais pas l'malin Et dors en diagonale dans mon lit à baldaquin Retroman Retroman Retroman Retroman Je trempe ma plume dans un encrier Datant de la seconde moitié du onzième siècle J'voudrais capturer deux, trois grues cendrées Afin de correspondre avec un bonze espiègle Je me douche les jours de pluie, sous les gouttières Me rase avec des bouts d'verre, conserve de l'eau croupie dans des soupières Je suis fier d'être rétro De ne jamais avoir voulu prendre le métro J'y risque la mort car les escalators Sont en fait des dinos féroces enragés J'adore les tricératops alors On m'a offert un rhinocéros empaillé Le souci, c'est qu'je vis dans un minuscule deux pièces Une grotte qui pue le charbon, le crottin d'cheval Mais il m'arrive de porter des costumes trois pièces Culotte, chaperon et cotte de mailles Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie Depuis tout petit, on m'traite de vieux con Dans un océan de nostalgie, j'touche le fond J'épie toutes les filles à tête de guenon Leurs voix sont obsédantes, volcaniques, d'outre-tombe Celles qui me traitent d'élitiste détestable Ignorent qu'en fait j'suis fétichiste des pieds sales Oui, j'admire l'ancien temps sur son piédestal Ponctue mes phrases d'un juron médiéval Je porte des sabots, pratique des danses de salon tribales Égorge des crapauds, m'agite en transe grâce à mon cigare Quand mon coq fait cot-codec, ça m'rappelle que nos vies s'consument J'aime les objets obsolètes, ils ressuscitent ceux qui n'sont plus Plus qu'une passion, c'est un mode de vie Je voyage dans le passé de jour comme de nuit Aux puces, je chine et dépense donc je suis Et tant pis, si je finis sous un pont-levis Retroman Je crois qu'autrefois est mon mot préféré Retroman Chez moi, j'ai un coq pour me réveiller Retroman Je flâne chaque semaine dans les vide-greniers Retroman Et, quand j'ai la migraine, je me fais dix saignées Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>En live à L.A., me prend l'envie d'hurler Hell Yeah ! Les sens en éveil, je me sens pousser des ailes mais La cité des anges fascine et dérange Abrite d'étranges artistes mélangés Des stars et des culturistes comme à Cannes, en mai J'ai le goût du risque, fume le calumet Y'a des bars assez futuristes, des plages Des sharks et des palmiers, ouais Si t'es tendu, je te conseille d'aller Visiter la ville à pieds dans toute son étendue J'porte un toast sur la West Coast, à ces fat bitches À ces Chinese et ces Chicanos, cheese I'm in 29 Palms at the 666 motel Bordel, I don't have XXX channels I write rhymes in a strange dark thin tunnel Miracles may happen If I drink your soul in an empty wine glass With a golden straw I gain twenty-one grams I'm quite nice, listen to Brahms and Amy Winehouse This bat could wear hats on her skinny white ass I hate calm, injure bees, hell's angels and trees And I laugh when they scream loud But I ain't so nasty, I shave with chainsaws My name's Sebastian, I create brainstorms Mad Seahorse on the road is trippin May the dark side of the force be with him You might also like Je dévore des yeux le Grand Canyon, mes iris en raffolent Ce décor onirique m'émeut et m'impressionne Tout est rougeoyant, magique, avec ou sans alcool Je saute d'une rive à l'autre avec une perche comme Jean Galfione L'Arizona, ça rigole pas, j'admire mon gars Car, à Paris, y'aura jamais d'panorama comme ça Revoici l'as des as qui crache des phrases et brasse les cartes À Las Vegas, village d'ersatz Les péripatéticiennes gagnent au poker Paradis artificiel, carré de joker J'avoue, j'fais tomber des lingots dans les machines à sous Et les gamines accourent, je joue pour payer mes impôts J'vais faire un casse, vider les caisses de tous les casinos Miser mon corps, pisser de l'or au bord du caniveau J'suis dans la Death Valley, bien installé dans la caisse, j'arrête Pas d'me dire que la Terre est une belle planète Le climat est aussi hostile que sur le soleil Dans ce désert, même Lucifer transpire des oreilles Y'a des fantômes de mineurs et de canassons Y'a pas d'ombre, j'te déconseille d'y faire un marathon Pour rigoler, j'pourrais sortir avec une loupe et m'immoler Ou ligoter un bonhomme de neige à une pierre, et l'ignorer Même les peaux mates mettent de la Biafine Rêvent d'un orage, regrettent lac et piscine J'vais débarquer à Bishop, fonce-dé' comme au coffee shop À cause de l'air conditionné, du chaud-froid et du gros hip-hop Hardcore comme un gars qui fait pas d'sport Poursuivi par un guépard et un vélociraptor La vallée d'la mort, j'adore C'est flippant et fascinant comme Dark Vador À Yosemite, y'a des rochers qui piquent, des forêts mythique Des chutes d'eau, des cow-boys sous des tipis J'ai vu Tic et Tac et Woody Woodpecker Les touristes rouspètent contre les moustiques et les ours prennent peur C'est le paradis des bûcherons Face aux séquoias, même les gros tas sont des pucerons En tout cas, si j'croise une indienne, j'lui dirai Reste cool J'vais tellement t'exploser les fesses qu'on finira par t'appeler Red Bull Dans une maison bleue, un junky dort sur son lit d'mort Laissons-le rêver de la saison deux de Twin Peaks, et se tordre De douleur, une horde de chômeurs filiformes Attend patiemment la livraison d'beuh de Green Peace and Love Entends-tu ces phoques fâchés qui suivent à la trace Dans ces rues pentues, les évadés d'Alcatraz ? L'enfant d'Hippo est ici, dans le quartier des hippies San Francisco, j'ai ffé-ki' mais mon road trip est fini Le disque d'Hippo sera bientôt dispo' Sur le pont d'Avignon et de San Francisco</t>
+          <t>En live à L.A., me prend l'envie d'hurler Hell Yeah ! Les sens en éveil, je me sens pousser des ailes mais La cité des anges fascine et dérange Abrite d'étranges artistes mélangés Des stars et des culturistes comme à Cannes, en mai J'ai le goût du risque, fume le calumet Y'a des bars assez futuristes, des plages Des sharks et des palmiers, ouais Si t'es tendu, je te conseille d'aller Visiter la ville à pieds dans toute son étendue J'porte un toast sur la West Coast, à ces fat bitches À ces Chinese et ces Chicanos, cheese I'm in 29 Palms at the 666 motel Bordel, I don't have XXX channels I write rhymes in a strange dark thin tunnel Miracles may happen If I drink your soul in an empty wine glass With a golden straw I gain twenty-one grams I'm quite nice, listen to Brahms and Amy Winehouse This bat could wear hats on her skinny white ass I hate calm, injure bees, hell's angels and trees And I laugh when they scream loud But I ain't so nasty, I shave with chainsaws My name's Sebastian, I create brainstorms Mad Seahorse on the road is trippin May the dark side of the force be with him Je dévore des yeux le Grand Canyon, mes iris en raffolent Ce décor onirique m'émeut et m'impressionne Tout est rougeoyant, magique, avec ou sans alcool Je saute d'une rive à l'autre avec une perche comme Jean Galfione L'Arizona, ça rigole pas, j'admire mon gars Car, à Paris, y'aura jamais d'panorama comme ça Revoici l'as des as qui crache des phrases et brasse les cartes À Las Vegas, village d'ersatz Les péripatéticiennes gagnent au poker Paradis artificiel, carré de joker J'avoue, j'fais tomber des lingots dans les machines à sous Et les gamines accourent, je joue pour payer mes impôts J'vais faire un casse, vider les caisses de tous les casinos Miser mon corps, pisser de l'or au bord du caniveau J'suis dans la Death Valley, bien installé dans la caisse, j'arrête Pas d'me dire que la Terre est une belle planète Le climat est aussi hostile que sur le soleil Dans ce désert, même Lucifer transpire des oreilles Y'a des fantômes de mineurs et de canassons Y'a pas d'ombre, j'te déconseille d'y faire un marathon Pour rigoler, j'pourrais sortir avec une loupe et m'immoler Ou ligoter un bonhomme de neige à une pierre, et l'ignorer Même les peaux mates mettent de la Biafine Rêvent d'un orage, regrettent lac et piscine J'vais débarquer à Bishop, fonce-dé' comme au coffee shop À cause de l'air conditionné, du chaud-froid et du gros hip-hop Hardcore comme un gars qui fait pas d'sport Poursuivi par un guépard et un vélociraptor La vallée d'la mort, j'adore C'est flippant et fascinant comme Dark Vador À Yosemite, y'a des rochers qui piquent, des forêts mythique Des chutes d'eau, des cow-boys sous des tipis J'ai vu Tic et Tac et Woody Woodpecker Les touristes rouspètent contre les moustiques et les ours prennent peur C'est le paradis des bûcherons Face aux séquoias, même les gros tas sont des pucerons En tout cas, si j'croise une indienne, j'lui dirai Reste cool J'vais tellement t'exploser les fesses qu'on finira par t'appeler Red Bull Dans une maison bleue, un junky dort sur son lit d'mort Laissons-le rêver de la saison deux de Twin Peaks, et se tordre De douleur, une horde de chômeurs filiformes Attend patiemment la livraison d'beuh de Green Peace and Love Entends-tu ces phoques fâchés qui suivent à la trace Dans ces rues pentues, les évadés d'Alcatraz ? L'enfant d'Hippo est ici, dans le quartier des hippies San Francisco, j'ai ffé-ki' mais mon road trip est fini Le disque d'Hippo sera bientôt dispo' Sur le pont d'Avignon et de San Francisco</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ma chambre est toujours bien rongée grâce à mes chicots de castor Dans leurs clips, ils sont moins expressifs que sur leur photo de passeport Ils font des bails de 'Cains-ri', stupides, cupides et sont ravis Ils s'prennent pour Victor Hugo, à quand Notre Dab de Paris ? Oh, fuck la culture de masse, moi, j'crée des sculptures de crasse On dit que la nature, en quête du plus pur extase, murmure mes phrases J'inverse la structure et te culbute de face, je voyage en seconde mais j'suis l'premier d'la classe J'suis plutôt bien élevé pour un esthète salace, je te mutile dans un bus et puis j'te cède ma place J'vends du sang d'Alien en spray, parfait pour tes soins dermatologiques J'recherche une nounou sexy pour surveiller mes spermatozoïdes Quand j'suis en manque de meuf, je soupire, je sue, j'achète une langue de buf pour lui jouir dessus Revenons à nos moutons Ils jouent les bêtes de foire, toujours en quête de gloire, faudrait qu'j'arrête de boire, de faire la fête le soir Mais j'profite de la vie sans peur car je sais qu'on passe du trotteur au déambulateur en quelques pas Ma grandeur n'a d'égale que ma sagesse, là, tu acquiesces Ma grandeur est une tare quand je parle de ces gars, je me rabaisse J'digère pas la défaite mais j'accepte les chèques, détecte les fakes et déteste les mecs Dont les textes me débectent, d'où ces déjections qui poussent à la réflexion, j'sais qu'ça t'affecte J'aime le cinéma en plein air en plein hiver, faire l'amour sur la neige sans préliminaire Je vais te faire devenir chèvre et bouc émissaire c'est lui qu'a commencé, monsieur le commissaire J'mens pas, t'as tenté de bouffer ma raie manta Mais, bon, disons qu'on est quitte, j't'invite avec ton équipe dans une maison d'arrêt pour un stage intensif de tantra Ça t'apprendra Bonsoir, les enfantsYou might also like</t>
+          <t>Ma chambre est toujours bien rongée grâce à mes chicots de castor Dans leurs clips, ils sont moins expressifs que sur leur photo de passeport Ils font des bails de 'Cains-ri', stupides, cupides et sont ravis Ils s'prennent pour Victor Hugo, à quand Notre Dab de Paris ? Oh, fuck la culture de masse, moi, j'crée des sculptures de crasse On dit que la nature, en quête du plus pur extase, murmure mes phrases J'inverse la structure et te culbute de face, je voyage en seconde mais j'suis l'premier d'la classe J'suis plutôt bien élevé pour un esthète salace, je te mutile dans un bus et puis j'te cède ma place J'vends du sang d'Alien en spray, parfait pour tes soins dermatologiques J'recherche une nounou sexy pour surveiller mes spermatozoïdes Quand j'suis en manque de meuf, je soupire, je sue, j'achète une langue de buf pour lui jouir dessus Revenons à nos moutons Ils jouent les bêtes de foire, toujours en quête de gloire, faudrait qu'j'arrête de boire, de faire la fête le soir Mais j'profite de la vie sans peur car je sais qu'on passe du trotteur au déambulateur en quelques pas Ma grandeur n'a d'égale que ma sagesse, là, tu acquiesces Ma grandeur est une tare quand je parle de ces gars, je me rabaisse J'digère pas la défaite mais j'accepte les chèques, détecte les fakes et déteste les mecs Dont les textes me débectent, d'où ces déjections qui poussent à la réflexion, j'sais qu'ça t'affecte J'aime le cinéma en plein air en plein hiver, faire l'amour sur la neige sans préliminaire Je vais te faire devenir chèvre et bouc émissaire c'est lui qu'a commencé, monsieur le commissaire J'mens pas, t'as tenté de bouffer ma raie manta Mais, bon, disons qu'on est quitte, j't'invite avec ton équipe dans une maison d'arrêt pour un stage intensif de tantra Ça t'apprendra Bonsoir, les enfants</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres On se défoule, on fait les fous, quand tout s'écroule, on se ressoude La vie, c'est court, faut s'y résoudre, on s'marr en se serrant ls coudes La mort nous vise, nous shoot, au premier rang, y'a mes parents Et, moi, derrière, j'protège ma troupe Mon heure viendra, c'est pas un scoop, on l'verra pas sur grand écran Mais j'partirai rempli de doutes J'ai jamais cru au Paradis mais, quand je m'assoupis, j'y suis Je fuis tout c'qui me rend aigri J'ai peu d'amis, j'ai pas d'ennemis, j'ai mis ma famille à l'abri Est-ce que j'ai réussi ma vie ? On va dire oui Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autresYou might also like</t>
+          <t>Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres On se défoule, on fait les fous, quand tout s'écroule, on se ressoude La vie, c'est court, faut s'y résoudre, on s'marr en se serrant ls coudes La mort nous vise, nous shoot, au premier rang, y'a mes parents Et, moi, derrière, j'protège ma troupe Mon heure viendra, c'est pas un scoop, on l'verra pas sur grand écran Mais j'partirai rempli de doutes J'ai jamais cru au Paradis mais, quand je m'assoupis, j'y suis Je fuis tout c'qui me rend aigri J'ai peu d'amis, j'ai pas d'ennemis, j'ai mis ma famille à l'abri Est-ce que j'ai réussi ma vie ? On va dire oui Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Si j'étais un fruit, je s'rais un citron Si j'étais un pêché, je s'rais mignon Si j'étais une île, je s'rais l'Atlantide Si j'étais un film, je s'rais de Lars Von Trier Si j'étais un cri, je s'rais silencieux Si j'étais un animal, je s'rais paresseux Si j'étais mon reflet, je s'rais le même en mieux Si j'étais vampire ou prêtre, je n'serais pas très pieux Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais une dent, je s'rais une molaire Si j'étais un héros, je s'rais Gulliver Si j'étais une BD, je s'rais Pervers Pépère Si j'étais un pays, je s'rais imaginaire Si j'étais un surhomme, je s'rais Zarathoustra Si j'étais un bouquin, je s'rais le Kâmasûtra Si j'étais une montagne, je s'rais sacrée Si j'étais une arme, je s'rais une colombe enragée You might also like Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais un tableau, je s'rais au Louvre Si j'étais un chevalier, je s'rais au fond des douves Si j'étais une maladie, je s'rais bénigne Si j'étais un signe astrologique, je s'rais Gremlin Si j'étais un refrain, je s'rais jaloux des couplets Si j'étais un meuble, je s'rais un coffre à jouets Si j'étais un arbre, je s'rais un sapin Si j'étais un mot, je s'rais celui d'la fin x2 Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça J'serais... J'serais... quoi ? J'serais ci J'serais ça Ahahaha H.I.2P.O Aociz et Blanka Ahahaha</t>
+          <t>Si j'étais un fruit, je s'rais un citron Si j'étais un pêché, je s'rais mignon Si j'étais une île, je s'rais l'Atlantide Si j'étais un film, je s'rais de Lars Von Trier Si j'étais un cri, je s'rais silencieux Si j'étais un animal, je s'rais paresseux Si j'étais mon reflet, je s'rais le même en mieux Si j'étais vampire ou prêtre, je n'serais pas très pieux Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais une dent, je s'rais une molaire Si j'étais un héros, je s'rais Gulliver Si j'étais une BD, je s'rais Pervers Pépère Si j'étais un pays, je s'rais imaginaire Si j'étais un surhomme, je s'rais Zarathoustra Si j'étais un bouquin, je s'rais le Kâmasûtra Si j'étais une montagne, je s'rais sacrée Si j'étais une arme, je s'rais une colombe enragée Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais un tableau, je s'rais au Louvre Si j'étais un chevalier, je s'rais au fond des douves Si j'étais une maladie, je s'rais bénigne Si j'étais un signe astrologique, je s'rais Gremlin Si j'étais un refrain, je s'rais jaloux des couplets Si j'étais un meuble, je s'rais un coffre à jouets Si j'étais un arbre, je s'rais un sapin Si j'étais un mot, je s'rais celui d'la fin x2 Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça J'serais... J'serais... quoi ? J'serais ci J'serais ça Ahahaha H.I.2P.O Aociz et Blanka Ahahaha</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Soirée de ouf qui s'prépare, putain de bon plan ! Appartement de quatre cents mètres carré, seizième arrondissement Donc on s'y rend avec Fredo et Hippo' Quel mytho, on est encore en train d'attendre le dino' Ouais, bon, j'avoue, j'ai menti, mais, là, j'suis dans le métro qui M'amène au point de rendez-vous convenu dans l'après-midi Dans cinq minutes, j'arrive à destination Escroc, il doit lui rester au moins cinq ou six stations On sonne en bas, on rentre ensembles, du son dansant Une bonne ambiance, bon enfant, c'est stylé c'qu'on entend Excité, j'vais direct vers les pichets, Hippo m'dit J'vais pisser Moi, j'me suis exilé dans la cuisine équipée C'est la caverne d'Ali Baba Champagne et foie gras, Fredo, rate pas ça, viens voir par là Quoi, quoi, quoi, qu'est-ce que j'ai manqué ? T'aurais une fille à m'faire goûter, un petit verre à m'présenter ? Non, j'ai mieux qu'ça, y'a d'quoi s'rincer Viens trinquer, ouvre le Frigo, j'suis sûr qu'il est blindé Waah ! Qu'est-ce que c'est que ça ? Des sexes crades coupées Des restes d'excréments dans des masques de poupées C'est ça qu'je redoutais, dans les soirées huppées Ils ont des trips chelous, on retrouve Hippo et on s'arrache après Donc on retourne vers les toilettes en enjambant quelques galettes Mais, dans l'couloir, un type pas net brandit une belle arbalète La pointe vers nos têtes, donc on entame un demi-tour Le type me course, vite, je cours, emprunte vite cette issue de secours Attends, j'avais dit à Hippo On pars pas sans toi T'inquiète, le connaissant, il nous attend déjà en-bas You might also like Fredo, Yoshi, ho ! Vous êtes où les mecs ? Hé, elle déchire la soirée ? Les copains ? Wouhou ! Bonjour. Bonsoir monsieur Oui, non, j'ai pas, j'ai pas de mot de passe mais... Je rêvais d'une soirée bédo entre amis Mais j'ai perdu ces tarés de Fredo et Yoshi Et me voilà dans une arrière salle remplie de mâles Et de nanas qui aiment faire mal, c'est infernal Dans un sauna Bouli fait jouir Dora Qui s'écrie C'est gagné !, oui, c'est un panier À trois points d'suture, j'bois du lait caillé Susurre Beetlejuice trois fois pour crâner La playlist est éclectique Ça va de Rachmaninov à Mista Boombastic Atmosphère électrique Là-bas, de pâles mamies novas niquent sans bout d'plastique Je tombe sur trois madones Recouvrant la face d'Al Capone d'alcool et de mascarpone Dommage, je n'ai pas d'iPhone Sinon j'aurais filmé, envoyé ça, même à ma daronne Dans un coin, terrorisée Une érotomane hermaphrodite paraît lobotomisée La reine des aliens la suce Pendant qu'Edward aux mains d'argent lui met un doigt dans l'anus Alors j'me mets à danser la Carioca Ce qui semble impressionner la belle Carrie au bar Elle a du sang sur elle, j'me sens pas censuré Elle est très sensuelle, je la prends sans suer Les gars, il est six heure du matin On va manger du poulet ! Ouais ! Ah ! J'vais vomir...</t>
+          <t>Soirée de ouf qui s'prépare, putain de bon plan ! Appartement de quatre cents mètres carré, seizième arrondissement Donc on s'y rend avec Fredo et Hippo' Quel mytho, on est encore en train d'attendre le dino' Ouais, bon, j'avoue, j'ai menti, mais, là, j'suis dans le métro qui M'amène au point de rendez-vous convenu dans l'après-midi Dans cinq minutes, j'arrive à destination Escroc, il doit lui rester au moins cinq ou six stations On sonne en bas, on rentre ensembles, du son dansant Une bonne ambiance, bon enfant, c'est stylé c'qu'on entend Excité, j'vais direct vers les pichets, Hippo m'dit J'vais pisser Moi, j'me suis exilé dans la cuisine équipée C'est la caverne d'Ali Baba Champagne et foie gras, Fredo, rate pas ça, viens voir par là Quoi, quoi, quoi, qu'est-ce que j'ai manqué ? T'aurais une fille à m'faire goûter, un petit verre à m'présenter ? Non, j'ai mieux qu'ça, y'a d'quoi s'rincer Viens trinquer, ouvre le Frigo, j'suis sûr qu'il est blindé Waah ! Qu'est-ce que c'est que ça ? Des sexes crades coupées Des restes d'excréments dans des masques de poupées C'est ça qu'je redoutais, dans les soirées huppées Ils ont des trips chelous, on retrouve Hippo et on s'arrache après Donc on retourne vers les toilettes en enjambant quelques galettes Mais, dans l'couloir, un type pas net brandit une belle arbalète La pointe vers nos têtes, donc on entame un demi-tour Le type me course, vite, je cours, emprunte vite cette issue de secours Attends, j'avais dit à Hippo On pars pas sans toi T'inquiète, le connaissant, il nous attend déjà en-bas Fredo, Yoshi, ho ! Vous êtes où les mecs ? Hé, elle déchire la soirée ? Les copains ? Wouhou ! Bonjour. Bonsoir monsieur Oui, non, j'ai pas, j'ai pas de mot de passe mais... Je rêvais d'une soirée bédo entre amis Mais j'ai perdu ces tarés de Fredo et Yoshi Et me voilà dans une arrière salle remplie de mâles Et de nanas qui aiment faire mal, c'est infernal Dans un sauna Bouli fait jouir Dora Qui s'écrie C'est gagné !, oui, c'est un panier À trois points d'suture, j'bois du lait caillé Susurre Beetlejuice trois fois pour crâner La playlist est éclectique Ça va de Rachmaninov à Mista Boombastic Atmosphère électrique Là-bas, de pâles mamies novas niquent sans bout d'plastique Je tombe sur trois madones Recouvrant la face d'Al Capone d'alcool et de mascarpone Dommage, je n'ai pas d'iPhone Sinon j'aurais filmé, envoyé ça, même à ma daronne Dans un coin, terrorisée Une érotomane hermaphrodite paraît lobotomisée La reine des aliens la suce Pendant qu'Edward aux mains d'argent lui met un doigt dans l'anus Alors j'me mets à danser la Carioca Ce qui semble impressionner la belle Carrie au bar Elle a du sang sur elle, j'me sens pas censuré Elle est très sensuelle, je la prends sans suer Les gars, il est six heure du matin On va manger du poulet ! Ouais ! Ah ! J'vais vomir...</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Han Aïe J'ai froid, j'ai faim, j'ai mal Je suis leur proie, je prie sans fin la bonne étoile mais Ligoté dans un sous-sol aussi sale qu'obscur, j'ai Une sangsue collée à chacun de mes globes oculaires Toute les douze secondes, deux mecs à lunettes rondes Me mettent un violent coup de fourchette rouillée sous les ongles Ils m'ont perforé l'estomac, y ont desserré Un p'tit tuyau pour contrôler un chinchilla beaucoup trop gras La douleur est insoutenable mais, si je crie, je crains Qu'ils remplissent ma bouche de mie de pain puis qu'ils me scient le frein Ces vicelards me torturent depuis hier soir Pourvu que quelqu'un vienne me sauver, je perds espoir La, la la la la la la J'ai des fourmis dans les jambes La, la la la la la la Mais je ne sens plus mes membres La, la la la la la la Ces enfoirés vont me désosser La, la la la la la la Pourvu qu'mon vu soit vite exaucé You might also like Pourquoi ai-je la tête dans l'cul ? Je n'ai pas tellement bu Comment je suis rentré chez moi ? Je me rappelle vraiment plus J'appelle Fredo - Ça va, ma gueule ? T'es bien rentré ?, - Ouais - T'as pas eu d'news d'Hippo ?, - Non, - Vas-y, bah j'vais tester d'l'appeler Répondeur direct, j'vais plutôt passer chez lui On devait s'capter pour taffer vers midi, c'est ce qu'on s'était dit Il est quinze heures quand je sonne à son interphone Un mec sort, j'en profite, mais mon petit doigt me dit qu'y a personne Sa porte est ouverte, j'constate qu'il est pas là J'file à bouffer à son lama puis j'vais retourner dare-dare à la Teuf d'hier, c'est p't-être là-bas qu'il a dormi Je fouille mes SMS, retrouve l'adresse, et c'est parti J'arrive sur place mais je reconnais pas les lieux J'en crois pas mes yeux, y a qu'des vieux, et plus d'grandes cannettes bleues On m'dit Vous vous trompez d'adresse, c'est vrai qu'je r'connais rien J'descends, fouille les poubelles, à l'intérieur, je trouve son bonnet d'bain Putain d'bordel de merde, dites-moi qu'c'est pas vrai Y a un vrai problème, sinon jamais il s'en s'rait séparé J'sors le pass PTT pour aller fouiller la cave J'ouvre la porte et fais une découverte macabre La, la la la la la la Mon gros Hippo, que lui est-il arrivé ? La, la la la la la la J'ai remué ciel et terre pour le retrouver La, la la la la la la Et dire que tout ça s'annonçait comme une bonne soirée La, la la la la la la Tout avait si bien commençait puis tout a foiré Vision d'horreur, j'ai du mal à décrire la scène Pauvre Hippo, il faut que j'l'aide, il m'fait vraiment d'la peine Yosh', aide-moi c'est ça, l'idée, connard Tu f'sais l'malin, on t'a plus vu, t'as disparu sans dire au r'voir Pouf, tu m'as trouvé, c'est cool Cette bande de oufs s'apprêtait à me clouer les boules T'es dans un sale état, mon gars, que s'est-il passé ? Dépêche-toi d'me détacher, promis, j'te raconte après Ok, j'vais desserrer tes liens, ma lame n'est pas assez acérée Ces vauriens ont fait des nuds marins, tu vas galérer Mais, mon ami, ne sous-estime jamais ma dextérité Fais attention, derrière toi, revoilà les deux excités L'un d'eux m'attaque d'un double salto, j'esquive son coup Un quart de seconde après, c'était ses chicots feat mon genou Vas-y, gros, brise tous ses os On va le dépecer avec des ciseaux T'inquiète, j'ai vite réglé son compte à cet imbécile Le deuxième, où est-il ? J'me sens d'humeur assassine Ah, ce fils de pute est caché, j'vais en faire du steak haché Décapite-le, que j'puisse me vider dans sa trachée Non, pas l'temps d's'attarder, barrons-nous d'ce lieu Renverse donc ce bidon d'essence, qu'on y foute le feu La maison crame, servons-nous des flammes Pour allumer ce spliff et oublier ce drame La, la la la la la la On a fini par s'en tirer La, la la la la la la On les a fumés sans pitié La, la la la la la la On s'prend une bière chez l'épicier ? La, la la la la la la Je crois qu'on l'a bien mérité La, la la la la la la ces fadas La, la la la la la la J'ai pas appris à faire des saltos La, la la la la la la Un putain d'bon plan, c'est ça qu'il nous avait dit, c't escroc La, la la la la la la J'aurais bien aimé t'aider si j'étais attaché Yeah We don't give a...</t>
+          <t>Han Aïe J'ai froid, j'ai faim, j'ai mal Je suis leur proie, je prie sans fin la bonne étoile mais Ligoté dans un sous-sol aussi sale qu'obscur, j'ai Une sangsue collée à chacun de mes globes oculaires Toute les douze secondes, deux mecs à lunettes rondes Me mettent un violent coup de fourchette rouillée sous les ongles Ils m'ont perforé l'estomac, y ont desserré Un p'tit tuyau pour contrôler un chinchilla beaucoup trop gras La douleur est insoutenable mais, si je crie, je crains Qu'ils remplissent ma bouche de mie de pain puis qu'ils me scient le frein Ces vicelards me torturent depuis hier soir Pourvu que quelqu'un vienne me sauver, je perds espoir La, la la la la la la J'ai des fourmis dans les jambes La, la la la la la la Mais je ne sens plus mes membres La, la la la la la la Ces enfoirés vont me désosser La, la la la la la la Pourvu qu'mon vu soit vite exaucé Pourquoi ai-je la tête dans l'cul ? Je n'ai pas tellement bu Comment je suis rentré chez moi ? Je me rappelle vraiment plus J'appelle Fredo - Ça va, ma gueule ? T'es bien rentré ?, - Ouais - T'as pas eu d'news d'Hippo ?, - Non, - Vas-y, bah j'vais tester d'l'appeler Répondeur direct, j'vais plutôt passer chez lui On devait s'capter pour taffer vers midi, c'est ce qu'on s'était dit Il est quinze heures quand je sonne à son interphone Un mec sort, j'en profite, mais mon petit doigt me dit qu'y a personne Sa porte est ouverte, j'constate qu'il est pas là J'file à bouffer à son lama puis j'vais retourner dare-dare à la Teuf d'hier, c'est p't-être là-bas qu'il a dormi Je fouille mes SMS, retrouve l'adresse, et c'est parti J'arrive sur place mais je reconnais pas les lieux J'en crois pas mes yeux, y a qu'des vieux, et plus d'grandes cannettes bleues On m'dit Vous vous trompez d'adresse, c'est vrai qu'je r'connais rien J'descends, fouille les poubelles, à l'intérieur, je trouve son bonnet d'bain Putain d'bordel de merde, dites-moi qu'c'est pas vrai Y a un vrai problème, sinon jamais il s'en s'rait séparé J'sors le pass PTT pour aller fouiller la cave J'ouvre la porte et fais une découverte macabre La, la la la la la la Mon gros Hippo, que lui est-il arrivé ? La, la la la la la la J'ai remué ciel et terre pour le retrouver La, la la la la la la Et dire que tout ça s'annonçait comme une bonne soirée La, la la la la la la Tout avait si bien commençait puis tout a foiré Vision d'horreur, j'ai du mal à décrire la scène Pauvre Hippo, il faut que j'l'aide, il m'fait vraiment d'la peine Yosh', aide-moi c'est ça, l'idée, connard Tu f'sais l'malin, on t'a plus vu, t'as disparu sans dire au r'voir Pouf, tu m'as trouvé, c'est cool Cette bande de oufs s'apprêtait à me clouer les boules T'es dans un sale état, mon gars, que s'est-il passé ? Dépêche-toi d'me détacher, promis, j'te raconte après Ok, j'vais desserrer tes liens, ma lame n'est pas assez acérée Ces vauriens ont fait des nuds marins, tu vas galérer Mais, mon ami, ne sous-estime jamais ma dextérité Fais attention, derrière toi, revoilà les deux excités L'un d'eux m'attaque d'un double salto, j'esquive son coup Un quart de seconde après, c'était ses chicots feat mon genou Vas-y, gros, brise tous ses os On va le dépecer avec des ciseaux T'inquiète, j'ai vite réglé son compte à cet imbécile Le deuxième, où est-il ? J'me sens d'humeur assassine Ah, ce fils de pute est caché, j'vais en faire du steak haché Décapite-le, que j'puisse me vider dans sa trachée Non, pas l'temps d's'attarder, barrons-nous d'ce lieu Renverse donc ce bidon d'essence, qu'on y foute le feu La maison crame, servons-nous des flammes Pour allumer ce spliff et oublier ce drame La, la la la la la la On a fini par s'en tirer La, la la la la la la On les a fumés sans pitié La, la la la la la la On s'prend une bière chez l'épicier ? La, la la la la la la Je crois qu'on l'a bien mérité La, la la la la la la ces fadas La, la la la la la la J'ai pas appris à faire des saltos La, la la la la la la Un putain d'bon plan, c'est ça qu'il nous avait dit, c't escroc La, la la la la la la J'aurais bien aimé t'aider si j'étais attaché Yeah We don't give a...</t>
         </is>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>J'suis un gars discret, distrait, facilement satisfait Même si mes émotions sont congelées comme Walt Disney Oui, j'sais qu'dans la vrai vie, Gepetto serait pédophile Le prince charmant nécrophile, et Némo un Filet-o-fish Il est horrible, il est fou cet Hippo ! J'dépéris au bistro, réfléchis quand j'tise trop Restant souple et dispo comme l'épouse de Willow Se faisant prendre en sandwich par E.T. et Guismo Fou rire narquois quand j'entends les gens jaser Le destin m'sourit parfois mais il a les dents cassées Un tantinet avisé Ça fait longtemps que j'ai réalisé que J'finirai incontinent, alité Dans un des cinq continents habités Alors avant d'être dur de la feuille et mou d'la verge D'errer dans les rues perdus en pyjama sous l'averse Avant que mes artères se bouchent et que ma bouche s'assèche Avant qu'ma pierre tombale s'affaisse, j'voudrais qu'ta croupe m'apaiseYou might also like1</t>
+          <t>J'suis un gars discret, distrait, facilement satisfait Même si mes émotions sont congelées comme Walt Disney Oui, j'sais qu'dans la vrai vie, Gepetto serait pédophile Le prince charmant nécrophile, et Némo un Filet-o-fish Il est horrible, il est fou cet Hippo ! J'dépéris au bistro, réfléchis quand j'tise trop Restant souple et dispo comme l'épouse de Willow Se faisant prendre en sandwich par E.T. et Guismo Fou rire narquois quand j'entends les gens jaser Le destin m'sourit parfois mais il a les dents cassées Un tantinet avisé Ça fait longtemps que j'ai réalisé que J'finirai incontinent, alité Dans un des cinq continents habités Alors avant d'être dur de la feuille et mou d'la verge D'errer dans les rues perdus en pyjama sous l'averse Avant que mes artères se bouchent et que ma bouche s'assèche Avant qu'ma pierre tombale s'affaisse, j'voudrais qu'ta croupe m'apaise1</t>
         </is>
       </c>
     </row>
@@ -3251,7 +3251,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tu sais qu'elle gravite où ? autour de ta zone ah Livraison gratuite, bien mieux qu'Amazon bah ouais Tu veux kalachnik', tu swipe dans le tro-m' Quand t'es dans la street ou assis sur le trône voilà Quand t'ouvres l'appli', t'as comme un pouvoir Car ton pouce droit fait l'beau temps et la pluie Y'a beaucoup trop de MILFs et de cougars, tu les pourchasses Tu f'rais mieux de t'exiler en plein cur de la toundra T'as la poisse et pas la gouache Pour combattre cette addiction, y'a pas d'patch Affalé sur l'canapé, t'as ravalé ton ego, c'est beau T'as lavé ton maillot, t'es chaud, t'attends l'match Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... You might also like Insatiable et malicieuse Tu joues la mante-religieuse Tu rêves d'un mâle délicieux Foutu comme un demi-Dieu T'en as marre de ces relations conflictuelles Quelle que soit la proie, tu t'adonnes à ton rituel Dans ce monde virtuel, tu cherches le plus naturel Au milieu de ces milliers de photos non-contractuelles Comment trouver le bon ? Pas le queutard Mais le bouche-trou, le coup d'un soir qui saura couper les ponts Le donneur d'orgasmes à la langue affûtée Qui n'oubliera surtout pas de te gamahucher Qui débarque de nulle part, comme parachuté En bref, un toutou sage qui ne demande qu'à chahuter T'as téléchargé Tinder pour trouver ce beau spécimen Si tu lui dis qui t'es, l'appli' te dira qui t'aimes Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe, swipe, swipe, swipe Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match</t>
+          <t>Tu sais qu'elle gravite où ? autour de ta zone ah Livraison gratuite, bien mieux qu'Amazon bah ouais Tu veux kalachnik', tu swipe dans le tro-m' Quand t'es dans la street ou assis sur le trône voilà Quand t'ouvres l'appli', t'as comme un pouvoir Car ton pouce droit fait l'beau temps et la pluie Y'a beaucoup trop de MILFs et de cougars, tu les pourchasses Tu f'rais mieux de t'exiler en plein cur de la toundra T'as la poisse et pas la gouache Pour combattre cette addiction, y'a pas d'patch Affalé sur l'canapé, t'as ravalé ton ego, c'est beau T'as lavé ton maillot, t'es chaud, t'attends l'match Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Insatiable et malicieuse Tu joues la mante-religieuse Tu rêves d'un mâle délicieux Foutu comme un demi-Dieu T'en as marre de ces relations conflictuelles Quelle que soit la proie, tu t'adonnes à ton rituel Dans ce monde virtuel, tu cherches le plus naturel Au milieu de ces milliers de photos non-contractuelles Comment trouver le bon ? Pas le queutard Mais le bouche-trou, le coup d'un soir qui saura couper les ponts Le donneur d'orgasmes à la langue affûtée Qui n'oubliera surtout pas de te gamahucher Qui débarque de nulle part, comme parachuté En bref, un toutou sage qui ne demande qu'à chahuter T'as téléchargé Tinder pour trouver ce beau spécimen Si tu lui dis qui t'es, l'appli' te dira qui t'aimes Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe, swipe, swipe, swipe Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>J'avais jamais autant appelé mes parents J'm'étais jamais senti aussi proche des gens Tout en restant chez moi Est-ce que t'y crois ? J'avais jamais autant respecté la loi hey ! En m'abrutisant pénard dans mon canap' En laissant calmement s'installer la peur Au départ c'est vrai j'en avais rien à battre Maintenant j'applaudis les médecins à vingt heures J'danse tout seul dans le noir J'ai le blues du dimanche soir Mais tous les jours c'est tous les soirs dimanche J'vois plus le jour c'est tous les soir nuit blanche Pu-pu-putain de pandémie j'suis sensé as' et mad, ami Le bu-but, méga dépistage massif J'peux plus voir mes ne-bru, de-blond, rouquines Dépêche de prescrire la chloroquine Le virus kill, personne est tranquille On se confine, enfermé à la Scofield Ça y est, ça y est, c'est la fin de mon couplet E-K-L-I-P-S poto tu connais You might also like A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Les yeux sont submergés parlez moi Les mots seront soignés parlez moi C'est vrai le beau temps nous paraît loin Est-ce que pour autant faut parler moins ? Quel sera le bilan ? Qu'on ne dira qu'à demi-mot Quand même les dominants tomberont comme des dominos Demi débite oui à deux mille à l'heure J'écoute le doc et Ministère AMER Ce soir je souffre, laissez moi, je souffle L'envie d'être aveugle ou bien de devenir sourd J'ai jamais bougé je suis toujours chez moi Même quand je sors je suis toujours chez moi Compter les jours en criant à l'aide Amour sur vous est l'unique remède Et si j'bois tous les soirs Je vais devenir asocial Si ça dure jusqu'à la sortie Je vais devenir insortable J'envoie des mails des fusées de détresse dans l'espace Échoué dans l'oeil du cyclone j'attends que la tempête passe Faut que je m'implique pour l'instant je m'applique à lire les statistiques épidémiologiques Je regarde l'évolution du Covid dans le monde comme le tableau des médailles aux Jeux Olympiques J'ai compté le nombre de caractères dans le Petit Robert Transformé ma corde à linge en tyrolienne Avec moi mes gosses font l'école buissonnière Mais je maintiens la paix entre eux je mérite un prix Nobel Certains triment, d'autres streament Moi j'ai qu'un p'tit rôle dans le film Mais j'reste optimiste et crie par la fenêtre On va tous mûrir avant de tous renaître Find me dancing on all alone in this crowd Please don't tell me I can't dance and feel the dark A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère On va tous mûrir avant de tous renaître</t>
+          <t>J'avais jamais autant appelé mes parents J'm'étais jamais senti aussi proche des gens Tout en restant chez moi Est-ce que t'y crois ? J'avais jamais autant respecté la loi hey ! En m'abrutisant pénard dans mon canap' En laissant calmement s'installer la peur Au départ c'est vrai j'en avais rien à battre Maintenant j'applaudis les médecins à vingt heures J'danse tout seul dans le noir J'ai le blues du dimanche soir Mais tous les jours c'est tous les soirs dimanche J'vois plus le jour c'est tous les soir nuit blanche Pu-pu-putain de pandémie j'suis sensé as' et mad, ami Le bu-but, méga dépistage massif J'peux plus voir mes ne-bru, de-blond, rouquines Dépêche de prescrire la chloroquine Le virus kill, personne est tranquille On se confine, enfermé à la Scofield Ça y est, ça y est, c'est la fin de mon couplet E-K-L-I-P-S poto tu connais A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Les yeux sont submergés parlez moi Les mots seront soignés parlez moi C'est vrai le beau temps nous paraît loin Est-ce que pour autant faut parler moins ? Quel sera le bilan ? Qu'on ne dira qu'à demi-mot Quand même les dominants tomberont comme des dominos Demi débite oui à deux mille à l'heure J'écoute le doc et Ministère AMER Ce soir je souffre, laissez moi, je souffle L'envie d'être aveugle ou bien de devenir sourd J'ai jamais bougé je suis toujours chez moi Même quand je sors je suis toujours chez moi Compter les jours en criant à l'aide Amour sur vous est l'unique remède Et si j'bois tous les soirs Je vais devenir asocial Si ça dure jusqu'à la sortie Je vais devenir insortable J'envoie des mails des fusées de détresse dans l'espace Échoué dans l'oeil du cyclone j'attends que la tempête passe Faut que je m'implique pour l'instant je m'applique à lire les statistiques épidémiologiques Je regarde l'évolution du Covid dans le monde comme le tableau des médailles aux Jeux Olympiques J'ai compté le nombre de caractères dans le Petit Robert Transformé ma corde à linge en tyrolienne Avec moi mes gosses font l'école buissonnière Mais je maintiens la paix entre eux je mérite un prix Nobel Certains triment, d'autres streament Moi j'ai qu'un p'tit rôle dans le film Mais j'reste optimiste et crie par la fenêtre On va tous mûrir avant de tous renaître Find me dancing on all alone in this crowd Please don't tell me I can't dance and feel the dark A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère On va tous mûrir avant de tous renaître</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>J'sais pas comment tu vis sans Twitch, c'est triste comme tes sandwichs Sur TikTok, t'es cringe, papa, crois-moi, j'te le dis, j'm'en fiche Ta vie, c'est un thread horreur, j'avoue, j'aurais préféré un featuring avec Natsu Haha Ris pas, j'parle du shiba, il est plus suivi qu'toi, bref t'as pas la réf' T'es bon sur scène mais dans les petites salles, on t'voit jamais dans les festivals vlan Tu connais aucune star dans l'game, j'attends toujours mon autographe d'Angèle D'ailleurs, c'est pas toi l'meilleur, t'es qu'un mauvais player, quand tu fumes, t'as les yux rouges Comme Muzan, obligé d'appelr les piliers de Demon Slayer t'as pas la réf' Au collège, personne n'te connaît, à part mon prof d'Histoire fan de poney Bah il est gentil Il a soixante ans, il est malentendant, il habite seul avec sa mère dans leur forêt N'aie pas l'seum, fais pas l'jeune, arrête avec tes mots d'ado boloss T'es grave cheum, eh Fat Gum, dis-moi, où sont passés tes abdos ? Bah ? T'as pas d'bling, t'as pas d'army Hein ?, tes seuls fans, c'est des mamies Non ? Personne n'vient voir tes chorégraphies moisies, même pas tes amis Papa, j'espère que tu m'en veux pas au calme Devant tes clips, j'rigole pas, tais-toi, laisse-moi regarder Joyca t'as pas la réf' Bien vu, le tacle, mais j'l'évite comme Olive Tom, j'arrive broliqué comme Shaft, John McClane, Cobra, Jack Slater ou Nicki Larson J'connais Tu joues les valkyries mais t'es pas d'taille face à mon artillerie Et toutes les phrases qui riment dans mon joli cahier Waikiki, woo-hah, boom biddy bye Tranquille Tu shine, tu t'crois dans l'coup, c'est cela, oui Branchée comme une Tesla, mais que peux-tu contre une Ferrari ? J'crois qu't'as pas compris, j't'oublie dans les marécages de la mélancolie en compagnie d'Artax Hey, petit Tamagotchi, tu veux qu'j'te nourrisse ? Contacte-moi par fax Hein ? Sache qu'un tas de personnages que tu trouves illustres Seront oubliés comme Brandon, Brenda, Cortex, Minus, Hilguegue ou P'tit Gus Chut T'as le même style que tes copines, t'as le baggy, t'as le legging et le patte d'eph' Dose T'as peur de pas trouver ta place, tu te fonds dans la masse, pourquoi tu fais la cheffe ? J'te file une pièce de cinq francs, une chignole, un bout de ruban, c'est pas insultant C'est le kit intégral pour fabriquer ta médaille d'argent Tu forces Tu communiques dans le sque-m', miskine, mais où est le respect, hein ? Wesh... T'as plus la tête sur les épaules, normal, il ne peut en rester qu'un You might also like - T'es éclaté, franchement, comme tes playlists... - Ouais mais, soixante-quinze pourcents d'c'qu'y a dans tes playlists, c'est moi qui t'ai fait découvrir... Tous les Disney déjà, quand t'étais p'tite... Doja Cat, Ice Spice, Central Cee... - Ouais, Hippo, il apparaît pas dans mes playlists, en tout cas... On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' - Mais il est bien, ton prof d'Histoire, moi, il... j'le trouve un peu... voilà, il est un peu rigide, il est... - Il est chauve T'as pas la réf'</t>
+          <t>J'sais pas comment tu vis sans Twitch, c'est triste comme tes sandwichs Sur TikTok, t'es cringe, papa, crois-moi, j'te le dis, j'm'en fiche Ta vie, c'est un thread horreur, j'avoue, j'aurais préféré un featuring avec Natsu Haha Ris pas, j'parle du shiba, il est plus suivi qu'toi, bref t'as pas la réf' T'es bon sur scène mais dans les petites salles, on t'voit jamais dans les festivals vlan Tu connais aucune star dans l'game, j'attends toujours mon autographe d'Angèle D'ailleurs, c'est pas toi l'meilleur, t'es qu'un mauvais player, quand tu fumes, t'as les yux rouges Comme Muzan, obligé d'appelr les piliers de Demon Slayer t'as pas la réf' Au collège, personne n'te connaît, à part mon prof d'Histoire fan de poney Bah il est gentil Il a soixante ans, il est malentendant, il habite seul avec sa mère dans leur forêt N'aie pas l'seum, fais pas l'jeune, arrête avec tes mots d'ado boloss T'es grave cheum, eh Fat Gum, dis-moi, où sont passés tes abdos ? Bah ? T'as pas d'bling, t'as pas d'army Hein ?, tes seuls fans, c'est des mamies Non ? Personne n'vient voir tes chorégraphies moisies, même pas tes amis Papa, j'espère que tu m'en veux pas au calme Devant tes clips, j'rigole pas, tais-toi, laisse-moi regarder Joyca t'as pas la réf' Bien vu, le tacle, mais j'l'évite comme Olive Tom, j'arrive broliqué comme Shaft, John McClane, Cobra, Jack Slater ou Nicki Larson J'connais Tu joues les valkyries mais t'es pas d'taille face à mon artillerie Et toutes les phrases qui riment dans mon joli cahier Waikiki, woo-hah, boom biddy bye Tranquille Tu shine, tu t'crois dans l'coup, c'est cela, oui Branchée comme une Tesla, mais que peux-tu contre une Ferrari ? J'crois qu't'as pas compris, j't'oublie dans les marécages de la mélancolie en compagnie d'Artax Hey, petit Tamagotchi, tu veux qu'j'te nourrisse ? Contacte-moi par fax Hein ? Sache qu'un tas de personnages que tu trouves illustres Seront oubliés comme Brandon, Brenda, Cortex, Minus, Hilguegue ou P'tit Gus Chut T'as le même style que tes copines, t'as le baggy, t'as le legging et le patte d'eph' Dose T'as peur de pas trouver ta place, tu te fonds dans la masse, pourquoi tu fais la cheffe ? J'te file une pièce de cinq francs, une chignole, un bout de ruban, c'est pas insultant C'est le kit intégral pour fabriquer ta médaille d'argent Tu forces Tu communiques dans le sque-m', miskine, mais où est le respect, hein ? Wesh... T'as plus la tête sur les épaules, normal, il ne peut en rester qu'un - T'es éclaté, franchement, comme tes playlists... - Ouais mais, soixante-quinze pourcents d'c'qu'y a dans tes playlists, c'est moi qui t'ai fait découvrir... Tous les Disney déjà, quand t'étais p'tite... Doja Cat, Ice Spice, Central Cee... - Ouais, Hippo, il apparaît pas dans mes playlists, en tout cas... On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' - Mais il est bien, ton prof d'Histoire, moi, il... j'le trouve un peu... voilà, il est un peu rigide, il est... - Il est chauve T'as pas la réf'</t>
         </is>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>J'vois des halos et des auras dans les dédales où j'm'installe Délires vocaux, K.O. total, super combo, coup spatial C'est une expérience paranormale, en pleine décadence, karma trop sale J'écris des galaxies, thème astral mon train d'vie est une navette spatiale C'est du dioxyde de carbone qu'on inhale, des produits toxiques dans mon eau minérale Sur une autre planète intersidérale, le vide qui défile, l'esprit qui dévale Je divague, je divise, je distords les distances des discours dyslexiques qui explorent l'existence Des phases brillantes dans l'espace immense, j'étudie l'sens des étoiles filantes J'vis comme un poète décalé, plans sur la comète, je me laisse aller Je vis comme un poète décalé, comme la comète, je m'laisse aller Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Je n'fume pas de drogue, en tous cas, j'n'en achète pas J'suis sur la pirogue et Kylie Minogue me fait des Lalala Je lévite et médite à longueur de temps, j'écris des récits quand mon cur se pend L'ennemi rétrécit même sans faire le grand quand je ris dehors, c'est que je pleure dedans Ça végète comme des vegans sous perf' j'fais du son, j'en suis super fier T'as tenté, t'as loupé, tu n'es bon qu'à bouder, j'vais sortir le fer chaud, motus et bouche soudée Comme les coiffeurs, vous êtes tous de mèche soit t'as les cheveux longs, soit t'as une coupe de merde Tu veux jouer l'Américain mais, dis-moi, who's the best? Et allez vous faire enfiler comme des housses de couette You might also like Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Quand on m'donne des billets, je les dissimule quand tu touches ta femme, tu lui dis Simule J'travaille chaque couplet comme un discours d'investiture à la sueur de mes testicules Je me sens revivre quand vient l'heure d'été j'fais pas trop d'heures sup', j'suis plus RTT Over the rainbow, y'a des LGBT j'ai kiffé ton clip sur Malaise TV T'aimes les journées bien remplies ? Je te fulguro-fist, j'crois qu'il y a du bon en toi, j'suis un pur utopiste Tu peux suçoter mes doigts d'pied en bord de scène j'dois vider ma besace pour remplir ma bedaine J'viens recoller les morceaux comme après une baston de mecs bourrés Dans un minuscule magasin de porcelaine Elle a un corps de renne, je l'emmène en Laponie j'rappe poliment mes boniments sur des rhapsodies Quand je sors de mon boulot, tout le monde m'applaudit tu payes pour diffuser tes albums, moi, j'les vaporise Ma vie de famille est très palpitante quand tu chantes, mes oreilles sont récalcitrantes Mes propos sont sales, la forme est captivante même du fond de l'abyme, j'vois des étoiles filantes Hippo, j'balance la ricotta, j'crois plus au Père Noël, j'crois en Saint Nico K Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller On n'fait que tourner en rond comme les galaxies, on a la tête éclatée, on est désaxés Le calme, la tempête, l'orage et l'éclaircie, on va leur faire de l'ombre avant de s'éclipser Vitesse, lumière, inertie, loin de la réalité Les détails sont si précis, on oublie la gravité Je suis perdu, j'ai beaucoup cherché mais j'ai pas repéré l'Étoile du Berger L'avenir est flou, le ciel est voilé, j'décolle au-dessus d'tout, horaire décalé Pas d'autotune ni dauto-stop, virée nocturne, des potes au top Les neurones fument, c'est notre pause clope, des rayons d'lune, des stroboscopes Big Bang, poussières d'étoiles yin-yang pour faire des choix Big Bang, poussières d'étoiles yin-yang pour faire des choix Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller</t>
+          <t>J'vois des halos et des auras dans les dédales où j'm'installe Délires vocaux, K.O. total, super combo, coup spatial C'est une expérience paranormale, en pleine décadence, karma trop sale J'écris des galaxies, thème astral mon train d'vie est une navette spatiale C'est du dioxyde de carbone qu'on inhale, des produits toxiques dans mon eau minérale Sur une autre planète intersidérale, le vide qui défile, l'esprit qui dévale Je divague, je divise, je distords les distances des discours dyslexiques qui explorent l'existence Des phases brillantes dans l'espace immense, j'étudie l'sens des étoiles filantes J'vis comme un poète décalé, plans sur la comète, je me laisse aller Je vis comme un poète décalé, comme la comète, je m'laisse aller Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Je n'fume pas de drogue, en tous cas, j'n'en achète pas J'suis sur la pirogue et Kylie Minogue me fait des Lalala Je lévite et médite à longueur de temps, j'écris des récits quand mon cur se pend L'ennemi rétrécit même sans faire le grand quand je ris dehors, c'est que je pleure dedans Ça végète comme des vegans sous perf' j'fais du son, j'en suis super fier T'as tenté, t'as loupé, tu n'es bon qu'à bouder, j'vais sortir le fer chaud, motus et bouche soudée Comme les coiffeurs, vous êtes tous de mèche soit t'as les cheveux longs, soit t'as une coupe de merde Tu veux jouer l'Américain mais, dis-moi, who's the best? Et allez vous faire enfiler comme des housses de couette Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Quand on m'donne des billets, je les dissimule quand tu touches ta femme, tu lui dis Simule J'travaille chaque couplet comme un discours d'investiture à la sueur de mes testicules Je me sens revivre quand vient l'heure d'été j'fais pas trop d'heures sup', j'suis plus RTT Over the rainbow, y'a des LGBT j'ai kiffé ton clip sur Malaise TV T'aimes les journées bien remplies ? Je te fulguro-fist, j'crois qu'il y a du bon en toi, j'suis un pur utopiste Tu peux suçoter mes doigts d'pied en bord de scène j'dois vider ma besace pour remplir ma bedaine J'viens recoller les morceaux comme après une baston de mecs bourrés Dans un minuscule magasin de porcelaine Elle a un corps de renne, je l'emmène en Laponie j'rappe poliment mes boniments sur des rhapsodies Quand je sors de mon boulot, tout le monde m'applaudit tu payes pour diffuser tes albums, moi, j'les vaporise Ma vie de famille est très palpitante quand tu chantes, mes oreilles sont récalcitrantes Mes propos sont sales, la forme est captivante même du fond de l'abyme, j'vois des étoiles filantes Hippo, j'balance la ricotta, j'crois plus au Père Noël, j'crois en Saint Nico K Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller On n'fait que tourner en rond comme les galaxies, on a la tête éclatée, on est désaxés Le calme, la tempête, l'orage et l'éclaircie, on va leur faire de l'ombre avant de s'éclipser Vitesse, lumière, inertie, loin de la réalité Les détails sont si précis, on oublie la gravité Je suis perdu, j'ai beaucoup cherché mais j'ai pas repéré l'Étoile du Berger L'avenir est flou, le ciel est voilé, j'décolle au-dessus d'tout, horaire décalé Pas d'autotune ni dauto-stop, virée nocturne, des potes au top Les neurones fument, c'est notre pause clope, des rayons d'lune, des stroboscopes Big Bang, poussières d'étoiles yin-yang pour faire des choix Big Bang, poussières d'étoiles yin-yang pour faire des choix Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>J'ai parlé à tes doudous hier soir, tu leur manques Ils m'ont dit qu'ils étaient fiers de toi, ils t'attendent J'les ai rassurés, j'leur ai dit qu't'allais bientôt rentrer Je sais qu'ici tu t'ennuies, j'suis venu pour te border Faut pas t'inquiéter, tous ces gens sont là pour te soigner Ces tuyaux dans ton nez, c'est pour chasser les mauvaises pensées Et puis cette machine qui fait bip, c'est pour écouter ton cur chanter Je veille à c'qu'il garde le rythme pour que l'on puisse encore danser Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens On va sourire encore, tiens-moi la main On va laisser le monde s'assoupir, et au milieu de la nuit On empruntera la trappe secrète bien cachée sous ton lit On ira où tu veux, même si y a d'l'eau dans mes yeux J'suis là pour exaucer tous tes vux, pour t'accompagner jusqu'aux cieux Imagine un peu tout c'qui t'attend, faut chausser tes souliers de rubis Tu vas t'émerveiller mais, avant, avant... Profitons de ces derniers moments, ne sois pas effrayée Il faut pas me quitter maintenant, reste éveillée You might also like Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens Tiens-moi la main Tu vas rendre jaloux ces oiseaux qui gazouillent En survolant l'Everest et les chutes d'Iguazu Le Grand Canyon, la banquise, le Vanuatu La vallée des Rois puis le Machu Picchu Tu noirciras des carnets de voyage et des partitions Moi, d'en bas, j'observerai ton ascension Tu feras de la luge sur les nuages Frémiras pendant ton alunissage T'apprivoiseras des comètes qui slaloment entre les planètes Tu feras des guilis aux aliens, là-bas où le temps s'arrête Un jour, on se retrouvera, on se prendra dans les bras On se serrera fort et on s'aimera Alors, tiens-moi la main Tiens-moi la main1</t>
+          <t>J'ai parlé à tes doudous hier soir, tu leur manques Ils m'ont dit qu'ils étaient fiers de toi, ils t'attendent J'les ai rassurés, j'leur ai dit qu't'allais bientôt rentrer Je sais qu'ici tu t'ennuies, j'suis venu pour te border Faut pas t'inquiéter, tous ces gens sont là pour te soigner Ces tuyaux dans ton nez, c'est pour chasser les mauvaises pensées Et puis cette machine qui fait bip, c'est pour écouter ton cur chanter Je veille à c'qu'il garde le rythme pour que l'on puisse encore danser Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens On va sourire encore, tiens-moi la main On va laisser le monde s'assoupir, et au milieu de la nuit On empruntera la trappe secrète bien cachée sous ton lit On ira où tu veux, même si y a d'l'eau dans mes yeux J'suis là pour exaucer tous tes vux, pour t'accompagner jusqu'aux cieux Imagine un peu tout c'qui t'attend, faut chausser tes souliers de rubis Tu vas t'émerveiller mais, avant, avant... Profitons de ces derniers moments, ne sois pas effrayée Il faut pas me quitter maintenant, reste éveillée Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens Tiens-moi la main Tu vas rendre jaloux ces oiseaux qui gazouillent En survolant l'Everest et les chutes d'Iguazu Le Grand Canyon, la banquise, le Vanuatu La vallée des Rois puis le Machu Picchu Tu noirciras des carnets de voyage et des partitions Moi, d'en bas, j'observerai ton ascension Tu feras de la luge sur les nuages Frémiras pendant ton alunissage T'apprivoiseras des comètes qui slaloment entre les planètes Tu feras des guilis aux aliens, là-bas où le temps s'arrête Un jour, on se retrouvera, on se prendra dans les bras On se serrera fort et on s'aimera Alors, tiens-moi la main Tiens-moi la main1</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Tits Cats Mix raps MaDJestyk, Hippo', apparence de fauves, avalanche de mots Athlétique hypnose, poto, t'as saisi l'topo ? Approche, éclate en sanglots, l'alcool bout dans ton sang chaud Pas d'bol, ça part en pogo, là, j'sors l'appareil photo Mad Show pour les barges et les gadjos, pas pour les machos, ni pour les fachos Ça secoue la basse-cour, ça fout la gastro À base de passe-passe, lourde est la basse, gros Guette ce fou dubstep, tel un loup des steppes, pas la peine de s'taire Comme un nunchaku, on t'a vite 'ché-cou' Allez, bouge tes couilles, do you understand ?You might also like</t>
+          <t>Tits Cats Mix raps MaDJestyk, Hippo', apparence de fauves, avalanche de mots Athlétique hypnose, poto, t'as saisi l'topo ? Approche, éclate en sanglots, l'alcool bout dans ton sang chaud Pas d'bol, ça part en pogo, là, j'sors l'appareil photo Mad Show pour les barges et les gadjos, pas pour les machos, ni pour les fachos Ça secoue la basse-cour, ça fout la gastro À base de passe-passe, lourde est la basse, gros Guette ce fou dubstep, tel un loup des steppes, pas la peine de s'taire Comme un nunchaku, on t'a vite 'ché-cou' Allez, bouge tes couilles, do you understand ?</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3353,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>À RETRANSCRIRE ! À RETRANSCRIRE ! À RETRANSCRIRE ! T'as vendu tes mixtapes aux p'tites vieilles, à l'hospice Pour partir célébrer le Spring Break à Auschwitz T'es pas vraiment compatissant non Tu rêves d'organiser des colonies d'vacances au Vatican ouais En fait, t'en fais qu'à ta tête, t'es pas croyant Alors tu crois que ça toctroie le droit de faire du naturisme à La Mecque Certains veulent décrocher la lune, toi, tu prends le soleil J'te catapulte sans parachute vers un champ d'éoliennes Tu vis ton voyage dans ta bulle, y'a pas de partage, t'abuses T'as geeké sur ton téléphone sans kiffer la plage, on t'a vu Taguer des vestiges, des uvres de Banksy Visiter Venise et Saint-Pétersbourg sur un jet-ski T'as bu l'eau du Gange, t'as survécu à la tourista T'as mis tes claquettes et t'as fait trempette à Fukushima Tu sues quand t'as plus d'réseau, t'as dû tomber du berceau Ta bêtise est inscrite au patrimoine mondial de l'UNESCO You might also like Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr À RETRANSCRIRE !</t>
+          <t>À RETRANSCRIRE ! À RETRANSCRIRE ! À RETRANSCRIRE ! T'as vendu tes mixtapes aux p'tites vieilles, à l'hospice Pour partir célébrer le Spring Break à Auschwitz T'es pas vraiment compatissant non Tu rêves d'organiser des colonies d'vacances au Vatican ouais En fait, t'en fais qu'à ta tête, t'es pas croyant Alors tu crois que ça toctroie le droit de faire du naturisme à La Mecque Certains veulent décrocher la lune, toi, tu prends le soleil J'te catapulte sans parachute vers un champ d'éoliennes Tu vis ton voyage dans ta bulle, y'a pas de partage, t'abuses T'as geeké sur ton téléphone sans kiffer la plage, on t'a vu Taguer des vestiges, des uvres de Banksy Visiter Venise et Saint-Pétersbourg sur un jet-ski T'as bu l'eau du Gange, t'as survécu à la tourista T'as mis tes claquettes et t'as fait trempette à Fukushima Tu sues quand t'as plus d'réseau, t'as dû tomber du berceau Ta bêtise est inscrite au patrimoine mondial de l'UNESCO Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr À RETRANSCRIRE !</t>
         </is>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Seul dans mes pensées, seul dans ma tête Seul sur le chantier, seul aux manettes Seul dans les tranchées, seul face au danger Seul désenchanté, seul à la fête Seul, j'écris des vers, j'erre dans l'inconnu Sommes-nous seuls dans l'univers ? Ça, c'est mystère sans doute insoluble Moi, dans l'absolu, j'suis pas solitaire Mais j'aime être seul, contempler le ciel, c'est pas mortifère Hors de ma cage, j'suis comme un sage dans un village désert Nous n'sommes que de passage, faut profiter du voyage éclair J'bâtis des ponts, pas des remparts, j'crois qu'le message est clair La vie est faite pour qu'on la partage avec ceux qu'on aime, pourtant, parfois, j'préfère être Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul You might also like J'avance, ma trajectoire s'efface, parfois j'la retrace Seul sur la terrasse, chevalier d'la table basse Tu peux m'appeler Lancelot même quand je crache le feu J'compte pas devenir l'idole des jeunes avec mon rap de vieux J'écris pour moi tout seul, j'm'en fous d'plaire à tout l'monde J'ai jamais eu les dents longues, j'suis du genre à briller dans l'ombre J'me mets à poil grâce à ma plume, j'essaye de pas m'décevoir J'ai plus besoin d'faire le bon élève, j'ai d'jà fini mes devoirs Moi, j'n'écoute que mon intuition, pas leurs voix fades de GPS On dit qu'on veut conquérir l'espace, on lance des fusées de détresse Avec les miens, j'ai quitté la Grosse Pomme, on sera comme James dans la Grosse Pèche Quand l'humain finira rayé du globe par manque d'amour et d'eau fraîche Oula, mes émotions s'entremêlent J'crois qu'le spliff m'euthanasie J'sais pas si j'ai choisi la vie qu'je mène Ou si c'est elle qui m'a choisi Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Tout seul Tout seul J'suis là, tout seul Tout seul</t>
+          <t>Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Seul dans mes pensées, seul dans ma tête Seul sur le chantier, seul aux manettes Seul dans les tranchées, seul face au danger Seul désenchanté, seul à la fête Seul, j'écris des vers, j'erre dans l'inconnu Sommes-nous seuls dans l'univers ? Ça, c'est mystère sans doute insoluble Moi, dans l'absolu, j'suis pas solitaire Mais j'aime être seul, contempler le ciel, c'est pas mortifère Hors de ma cage, j'suis comme un sage dans un village désert Nous n'sommes que de passage, faut profiter du voyage éclair J'bâtis des ponts, pas des remparts, j'crois qu'le message est clair La vie est faite pour qu'on la partage avec ceux qu'on aime, pourtant, parfois, j'préfère être Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul J'avance, ma trajectoire s'efface, parfois j'la retrace Seul sur la terrasse, chevalier d'la table basse Tu peux m'appeler Lancelot même quand je crache le feu J'compte pas devenir l'idole des jeunes avec mon rap de vieux J'écris pour moi tout seul, j'm'en fous d'plaire à tout l'monde J'ai jamais eu les dents longues, j'suis du genre à briller dans l'ombre J'me mets à poil grâce à ma plume, j'essaye de pas m'décevoir J'ai plus besoin d'faire le bon élève, j'ai d'jà fini mes devoirs Moi, j'n'écoute que mon intuition, pas leurs voix fades de GPS On dit qu'on veut conquérir l'espace, on lance des fusées de détresse Avec les miens, j'ai quitté la Grosse Pomme, on sera comme James dans la Grosse Pèche Quand l'humain finira rayé du globe par manque d'amour et d'eau fraîche Oula, mes émotions s'entremêlent J'crois qu'le spliff m'euthanasie J'sais pas si j'ai choisi la vie qu'je mène Ou si c'est elle qui m'a choisi Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Tout seul Tout seul J'suis là, tout seul Tout seul</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Quand j'vois l'visage de mes parents sur ces vieilles photos qui jaunissent Quand j'pense à mes amours d'antan en recomptant mes cicatrices Quand j'plie les habits d'mes enfants et réalise qu'ils grandissent Quand j'assiste à un enterrement, je suis pieds nus sur la banquise Triste J'me sens triste, esquinté Triste, triste J'me sens triste, égaré Quand j'repasse devant mon école où dort ma conduite exemplaire Quand j'vois mes souvenirs qui s'étiolent à chaque fois qu'j'en fais l'inventaire Quand j'farfouille dans mon téléphone, que j'vois l'numéro d'mon grand-père Quand j'pense à toutes ces herbes folles qui poussent là où reposent nos ancêtres Triste J'me sens triste, esquinté Triste, triste J'me sens triste, dévasté Quand j'vois ces puissants qui se targuent d'envoyer leurs soldats jetables Pacifier des régions instables qu'ils piétinent comme des châteaux d'sable Quand j'pense à c'que la guerre engendre des cris, des larmes, du sang, des cendres Quand j'vois la souffrance se répandre comme un tsunami en décembre You might also like Triste J'me sens triste, esquinté Triste, triste J'me sens triste, révolté Quand j'vois se fissurer l'écorce de cette jeune femme à bout de force Sans ses gosses, seule sous un porche, la honte la ronge, le froid l'écorche Quand j'imagine son quotidien dans une petite pièce sans fenêtre Quand j'pense à son regard éteint pendant qu'la misère la pénètre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, écuré Quand ma tristesse déborde Je pleure des cordes J'éponge tout et j'm'essore Sinon ça fait désordre Triste, triste J'me sens triste Triste J'me sens triste</t>
+          <t>Quand j'vois l'visage de mes parents sur ces vieilles photos qui jaunissent Quand j'pense à mes amours d'antan en recomptant mes cicatrices Quand j'plie les habits d'mes enfants et réalise qu'ils grandissent Quand j'assiste à un enterrement, je suis pieds nus sur la banquise Triste J'me sens triste, esquinté Triste, triste J'me sens triste, égaré Quand j'repasse devant mon école où dort ma conduite exemplaire Quand j'vois mes souvenirs qui s'étiolent à chaque fois qu'j'en fais l'inventaire Quand j'farfouille dans mon téléphone, que j'vois l'numéro d'mon grand-père Quand j'pense à toutes ces herbes folles qui poussent là où reposent nos ancêtres Triste J'me sens triste, esquinté Triste, triste J'me sens triste, dévasté Quand j'vois ces puissants qui se targuent d'envoyer leurs soldats jetables Pacifier des régions instables qu'ils piétinent comme des châteaux d'sable Quand j'pense à c'que la guerre engendre des cris, des larmes, du sang, des cendres Quand j'vois la souffrance se répandre comme un tsunami en décembre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, révolté Quand j'vois se fissurer l'écorce de cette jeune femme à bout de force Sans ses gosses, seule sous un porche, la honte la ronge, le froid l'écorche Quand j'imagine son quotidien dans une petite pièce sans fenêtre Quand j'pense à son regard éteint pendant qu'la misère la pénètre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, écuré Quand ma tristesse déborde Je pleure des cordes J'éponge tout et j'm'essore Sinon ça fait désordre Triste, triste J'me sens triste Triste J'me sens triste</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bienvenue dans mon terrier Quand j'hiberne, tous les jours sont fériés De la weed sèche dans mon herbier Maître Renard me l'a livrée à l'insu des fermiers Quand j'me creuse la tête, j'fourmille d'idées C'est le fourbi dans l'fournil où cuisent de savoureuses maquettes J'ai l'tournis, étourdi, pour ne pas dire fonce-dé J'défie les blaireaux qui me toisent et leurs sourcils froncés Dans l'underground, j'ai fait mon trou Encore debout au troisième round, j'enfonce le clou Le vent en poupe, un hippocampe comme figure de proue Pour gagner ma croûte, je n'travaille pas si dur, je joue À cache-cache avec les créatures de Dante et Kafka J'caresse l'une des trois têtes de cerbère qui ronge des carcasses De chérubins damnés dont planent encore les voix de castrats L'été, Hadès me prête sa belle villa dans le Tartare Cru dans mes propos, je cuis sous les projos J'veux juste amuser la galerie, faire cogiter les bobos Les aristos, les prolos, les libéraux, les cocos Les voir s'agiter ensemble et communier lors d'un pogo L'art nous réunit en temps d'crise J'envoie du bois pour épouser ma vie en dents d'scie Retrouve-moi dans trente piges à poil en Birkenstock Sous une plage du Cap d'Agde, Guttentag Herr Lidenbrock Oui, j'ai des copains sous terre, jamais du-per Car j'ai du flair, j'enfouis ma joie, comme Isabelle Huppert Je fouine sur le net à la recherche d'une belette Quand j'en trouve une, je pousse des cris de suricate alerte et J'décalotte délicatement mon rat-taupe nu il est immortel, on dit qu'un vampire l'a mordu Je vais droit au but en déballant ma vie tordue j'rêve éveillé donc, j'avoue, je n'dors plus Fouisseur, je jouis seul en ficelant de ruisselants Écrits, semant l'épuisement chez ceux qui me suivent depuis si longtemps Autour de moi, y'a des cercueils qui s'effritent Y'a les squelettes d'ex mecs obèses qui ont brisé l'omerta Y'a des fossiles disséminés, mes vers qui s'excitent J'ai l'amertume d'une pelure d'agrume, j'perce des tunnels, comme Bertha Mais y'a toujours une lueur dans mon foyer Laissez-moi vous choyer, concocter des potions pour vous soigner Goûtez ma bonne soupe de magma glacé Mes infusions de racines pour digérer le passé Dans mon esprit, c'est l'anarchie, pas un royaume Des images s'entrechoquent faisant l'effet d'un chaud tord-boyaux J'ai mangé le monde, recraché le noyau J'l'ai planté dans un trou noir, j'm'en vais cueillir quelques joyaux You might also like Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Trou story Dans ma maison sous terre1</t>
+          <t>Bienvenue dans mon terrier Quand j'hiberne, tous les jours sont fériés De la weed sèche dans mon herbier Maître Renard me l'a livrée à l'insu des fermiers Quand j'me creuse la tête, j'fourmille d'idées C'est le fourbi dans l'fournil où cuisent de savoureuses maquettes J'ai l'tournis, étourdi, pour ne pas dire fonce-dé J'défie les blaireaux qui me toisent et leurs sourcils froncés Dans l'underground, j'ai fait mon trou Encore debout au troisième round, j'enfonce le clou Le vent en poupe, un hippocampe comme figure de proue Pour gagner ma croûte, je n'travaille pas si dur, je joue À cache-cache avec les créatures de Dante et Kafka J'caresse l'une des trois têtes de cerbère qui ronge des carcasses De chérubins damnés dont planent encore les voix de castrats L'été, Hadès me prête sa belle villa dans le Tartare Cru dans mes propos, je cuis sous les projos J'veux juste amuser la galerie, faire cogiter les bobos Les aristos, les prolos, les libéraux, les cocos Les voir s'agiter ensemble et communier lors d'un pogo L'art nous réunit en temps d'crise J'envoie du bois pour épouser ma vie en dents d'scie Retrouve-moi dans trente piges à poil en Birkenstock Sous une plage du Cap d'Agde, Guttentag Herr Lidenbrock Oui, j'ai des copains sous terre, jamais du-per Car j'ai du flair, j'enfouis ma joie, comme Isabelle Huppert Je fouine sur le net à la recherche d'une belette Quand j'en trouve une, je pousse des cris de suricate alerte et J'décalotte délicatement mon rat-taupe nu il est immortel, on dit qu'un vampire l'a mordu Je vais droit au but en déballant ma vie tordue j'rêve éveillé donc, j'avoue, je n'dors plus Fouisseur, je jouis seul en ficelant de ruisselants Écrits, semant l'épuisement chez ceux qui me suivent depuis si longtemps Autour de moi, y'a des cercueils qui s'effritent Y'a les squelettes d'ex mecs obèses qui ont brisé l'omerta Y'a des fossiles disséminés, mes vers qui s'excitent J'ai l'amertume d'une pelure d'agrume, j'perce des tunnels, comme Bertha Mais y'a toujours une lueur dans mon foyer Laissez-moi vous choyer, concocter des potions pour vous soigner Goûtez ma bonne soupe de magma glacé Mes infusions de racines pour digérer le passé Dans mon esprit, c'est l'anarchie, pas un royaume Des images s'entrechoquent faisant l'effet d'un chaud tord-boyaux J'ai mangé le monde, recraché le noyau J'l'ai planté dans un trou noir, j'm'en vais cueillir quelques joyaux Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Trou story Dans ma maison sous terre1</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France You might also like x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
+          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Ma femme, c'est ma muse, c'est mon roi Ça fait plus de dix ans qu'on vit sous le même toit Elle m'a avoué, hier soir, qu'elle ne croyait plus en moi Ça m'a laissé sans voix Chez nous, c'est elle qui porte la culotte en dentelle Elle ne court pas après l'argent, elle est certaine de mon talent Mais a l'impression que j'me démène pour ne récolter qu'des applaudissements Quelques j'aime et un succès confidentiel La faute à qui ? À moi, plein d'apathie, qui me repose sur mes acquis ? Observant le monde via un écran comme si j'étais banni ? Moi qui mise petit, qui ai perdu mon appétit ? À ma voix de baryton lambda sorti d'une abbaye ? Aux maisons d'disques trop frileuses, en quête de tubes de l'été ? Au grand public peu curieux qui veut qu'on lui donne la becquée ? Aux médias qui sépient les uns les autres sans s'mouiller ? Désignant les élus à leurs apôtres bien dressés Peu importe, loin de ces chemins balisés J'ai plongé dans des mers agitées En écoutant mon cur palpiter, il s'est arrêté Il a fallu que l'on menterre pour me ranimer J'renais plein de rêves et de rage, j'pourrais arrêter le rap Mais c'est un art honorable, une sorte de drogue Qui crame et crève le crane, fait pleurer les braves Je n'fais qu'explorer mes failles sans trêve, très peu le savent J'gamberge jour et nuit pour trouver des thèmes insolites Des axes inédits, j'ai déjà la chance de n'pas être incompris De plus en plus de gens me trouvent brillant, pourtant, je m'assombris La prospérité ne fera pas d'moi un artiste accompli J'écris pour me rafistoler, pas pour les sous J'suis devenu fou à force denregistrer dans des cellules capitonnées Mais j'suis quand même habilité à piloter une foule Apte à frissonner, c'est cool, j'peux pas l'ignorer Comme un mec bourré dans un musée, je fais tomber des nues Perdu dans mon imaginaire, je me dis qu'j'n'ai rien vécu Quand j'balance un clip, jattends le buzz et j'suis tout l'temps déçu Tandis qu'aveuglés par leur ambition, d'autres achètent des vues Autant dire qu'ils n'ont aucun mérite, aucune éthique Je reste intègre et ce depuis La Secte Phonétik L'écriture a des vertus introspectives L'acte est solitaire mais la réflexion collective Jessaye de me renouveler sans renier mes principes J'refuse de quémander un feat, tout miser sur un beat Ou un clip impudique, copier des gimmicks Des gestuelles ou des mimiques tout en me ventant d'être unique Ouais, y'a tant d'artistes dont jadmire le travail fantastique Ceux qui les imitent sont inodores comme des fleurs en plastique Avec leur voix robotisée, ils se la jouent cantatrice J'préfère écouter chouiner mon fils qui fait de grands caprices Comme un chimiste, j'ai le sens de la formule Si t'as l'esprit étriqué, t'as qu'à augmenter le volume Puisque Mozart a fini dans la fosse commune J'suis quasi convaincu qu'ma renommée sera posthume Je n'vous demande pas d'vous apitoyer sur mon sort Même si ma carrière tangue, j'vous amènerai à bon port Et tant pis si, ce soir, j'touche un cachet dérisoire Merci d'écouter mes p'tites histoires, merci d'y croireYou might also like</t>
+          <t>Ma femme, c'est ma muse, c'est mon roi Ça fait plus de dix ans qu'on vit sous le même toit Elle m'a avoué, hier soir, qu'elle ne croyait plus en moi Ça m'a laissé sans voix Chez nous, c'est elle qui porte la culotte en dentelle Elle ne court pas après l'argent, elle est certaine de mon talent Mais a l'impression que j'me démène pour ne récolter qu'des applaudissements Quelques j'aime et un succès confidentiel La faute à qui ? À moi, plein d'apathie, qui me repose sur mes acquis ? Observant le monde via un écran comme si j'étais banni ? Moi qui mise petit, qui ai perdu mon appétit ? À ma voix de baryton lambda sorti d'une abbaye ? Aux maisons d'disques trop frileuses, en quête de tubes de l'été ? Au grand public peu curieux qui veut qu'on lui donne la becquée ? Aux médias qui sépient les uns les autres sans s'mouiller ? Désignant les élus à leurs apôtres bien dressés Peu importe, loin de ces chemins balisés J'ai plongé dans des mers agitées En écoutant mon cur palpiter, il s'est arrêté Il a fallu que l'on menterre pour me ranimer J'renais plein de rêves et de rage, j'pourrais arrêter le rap Mais c'est un art honorable, une sorte de drogue Qui crame et crève le crane, fait pleurer les braves Je n'fais qu'explorer mes failles sans trêve, très peu le savent J'gamberge jour et nuit pour trouver des thèmes insolites Des axes inédits, j'ai déjà la chance de n'pas être incompris De plus en plus de gens me trouvent brillant, pourtant, je m'assombris La prospérité ne fera pas d'moi un artiste accompli J'écris pour me rafistoler, pas pour les sous J'suis devenu fou à force denregistrer dans des cellules capitonnées Mais j'suis quand même habilité à piloter une foule Apte à frissonner, c'est cool, j'peux pas l'ignorer Comme un mec bourré dans un musée, je fais tomber des nues Perdu dans mon imaginaire, je me dis qu'j'n'ai rien vécu Quand j'balance un clip, jattends le buzz et j'suis tout l'temps déçu Tandis qu'aveuglés par leur ambition, d'autres achètent des vues Autant dire qu'ils n'ont aucun mérite, aucune éthique Je reste intègre et ce depuis La Secte Phonétik L'écriture a des vertus introspectives L'acte est solitaire mais la réflexion collective Jessaye de me renouveler sans renier mes principes J'refuse de quémander un feat, tout miser sur un beat Ou un clip impudique, copier des gimmicks Des gestuelles ou des mimiques tout en me ventant d'être unique Ouais, y'a tant d'artistes dont jadmire le travail fantastique Ceux qui les imitent sont inodores comme des fleurs en plastique Avec leur voix robotisée, ils se la jouent cantatrice J'préfère écouter chouiner mon fils qui fait de grands caprices Comme un chimiste, j'ai le sens de la formule Si t'as l'esprit étriqué, t'as qu'à augmenter le volume Puisque Mozart a fini dans la fosse commune J'suis quasi convaincu qu'ma renommée sera posthume Je n'vous demande pas d'vous apitoyer sur mon sort Même si ma carrière tangue, j'vous amènerai à bon port Et tant pis si, ce soir, j'touche un cachet dérisoire Merci d'écouter mes p'tites histoires, merci d'y croire</t>
         </is>
       </c>
     </row>
@@ -3455,7 +3455,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>J'attends un signe, que la flamme d'une bougie vacille Que les étoiles s'alignent ou bien qu'un satellite scintille En c'moment, c'est pas la joie, j'aimerais y croire, j'ai pas la foi Mais j'sais quoi faire quand ça va pas Quand la vie nous met au défi, quand on rame ici Y'en a qui fuient, y'en a qui voient des psys, y'en a qui prient Moi, j'me balade dans des paysages verdoyants Ou j'hallucine face à l'océan chatoyant qui ondule Et j'frissonne sous mon pull en écoutant du Satie Je pleure un temps et puis j'appelle un ami J'me dis qu'y'a p't-être un peu de magie Chacun sa thérapie, j'imagine Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie You might also like J'ai l'air plus mature, mais sous mon armure Se dresse un vieil enfant assoiffé d'aventures À qui tout semble doux-amer, clair-obscur Toujours en quête d'humains sincères au bal de l'imposture Plus j'en apprends, plus j'me sens ignorant J'suis qu'une virgule dans un subtil roman C'que j'entreprends me semble insignifiant Y'a rien à faire sur les photos, je souris tristement Y'a plus grand-chose qui m'émerveille mais j'sais voler d'mes propres ailes J'irai m'abreuver de soleil avant d'm'enraciner J'peux pas revenir en arrière, revoir ceux qui sont déjà sous terre J'peux plus leur dire en face Je t'aime, mais j'peux l'imaginer Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie</t>
+          <t>J'attends un signe, que la flamme d'une bougie vacille Que les étoiles s'alignent ou bien qu'un satellite scintille En c'moment, c'est pas la joie, j'aimerais y croire, j'ai pas la foi Mais j'sais quoi faire quand ça va pas Quand la vie nous met au défi, quand on rame ici Y'en a qui fuient, y'en a qui voient des psys, y'en a qui prient Moi, j'me balade dans des paysages verdoyants Ou j'hallucine face à l'océan chatoyant qui ondule Et j'frissonne sous mon pull en écoutant du Satie Je pleure un temps et puis j'appelle un ami J'me dis qu'y'a p't-être un peu de magie Chacun sa thérapie, j'imagine Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie J'ai l'air plus mature, mais sous mon armure Se dresse un vieil enfant assoiffé d'aventures À qui tout semble doux-amer, clair-obscur Toujours en quête d'humains sincères au bal de l'imposture Plus j'en apprends, plus j'me sens ignorant J'suis qu'une virgule dans un subtil roman C'que j'entreprends me semble insignifiant Y'a rien à faire sur les photos, je souris tristement Y'a plus grand-chose qui m'émerveille mais j'sais voler d'mes propres ailes J'irai m'abreuver de soleil avant d'm'enraciner J'peux pas revenir en arrière, revoir ceux qui sont déjà sous terre J'peux plus leur dire en face Je t'aime, mais j'peux l'imaginer Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie</t>
         </is>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez You might also like Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
+          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Merci à celui ou celle qui a créé ma page Wikipédia... J'trouve qu'elle pourrait être un peu plus détaillée... Comme j'peux pas vraiment la modifier, bah... Né en mille neuf cent quatre-vingt-quatre à Thonon-les-Bains D'une mère française et d'un papa colombien Il a grandi dans le quinzième arrondissement de Paris Fasciné par les catastrophes et les tueurs en série Fils unique jusqu'à ses neuf ans t demi Aucun problème de santé, à part un légère anémie Avec ses dents d'lapin, ses cernes de raton laveur Il écoute la radio dans son lit jusqu'à pas d'heure Il aime Nirvana, la dance, Queen et Michael Les Disney, les films de Spielberg, les acteurs Stéroïdés, les vidéo-clubs, Dorothée La Game-Boy en noir et blanc comme Psychose qui l'a terrorisé Ravagé par l'acné, il fuit dans les astres IAM et les Fugees vont le marquer Tout comme 2001, l'Odyssée de l'espace Le cinéphile veut devenir cinéaste Il obtient son bac' scientifique tant bien que mal S'inscrit à la fac' de ciné, squatte les petites salles Les parcs, les ruelles, les musées de la capitale Il noircit des carnets, se prend pour un marginal hun Il improvise avec ses potes, c'est un nouveau départ Fait des cyphers avec des tas d'inconnus dans les squares Le rythme et les mots le passionnent Beaucoup d'artistes l'inspirent et l'impressionnent La verve de Brassens, l'interprétation de Barbara Les flows de Biggie, Busta Rhymes et les thèmes de Java Il veut tout mélanger mais se différencier Il publie deux morceaux sur MySpace pour se lancer Il est si content quand on lui propose d'animer Des soirées slam dans un petit bar à Ménilmontant Il y freestyle avec deux rappeurs et, là, gros déclic Ensembles, ils forment un trio La Secte Phonétik S'en suivent quatre années de kif, d'escapades et de splifs De plans de batailles et de travail pas très lucratif Il emménage à Montmartre avec sa dulcinée Sa web-série Vidéo Rap le fait turbiner Il devient papa, quitte La Secte et se rabat vite Sur ses nouveaux clips, c'est le début du rap aquatique La suite tient en si peu de mots Une trilogie d'albums autour du cycle de l'eau yo You might also like Wiki Freestyle, Wiki Freestyle Tu connais</t>
+          <t>Merci à celui ou celle qui a créé ma page Wikipédia... J'trouve qu'elle pourrait être un peu plus détaillée... Comme j'peux pas vraiment la modifier, bah... Né en mille neuf cent quatre-vingt-quatre à Thonon-les-Bains D'une mère française et d'un papa colombien Il a grandi dans le quinzième arrondissement de Paris Fasciné par les catastrophes et les tueurs en série Fils unique jusqu'à ses neuf ans t demi Aucun problème de santé, à part un légère anémie Avec ses dents d'lapin, ses cernes de raton laveur Il écoute la radio dans son lit jusqu'à pas d'heure Il aime Nirvana, la dance, Queen et Michael Les Disney, les films de Spielberg, les acteurs Stéroïdés, les vidéo-clubs, Dorothée La Game-Boy en noir et blanc comme Psychose qui l'a terrorisé Ravagé par l'acné, il fuit dans les astres IAM et les Fugees vont le marquer Tout comme 2001, l'Odyssée de l'espace Le cinéphile veut devenir cinéaste Il obtient son bac' scientifique tant bien que mal S'inscrit à la fac' de ciné, squatte les petites salles Les parcs, les ruelles, les musées de la capitale Il noircit des carnets, se prend pour un marginal hun Il improvise avec ses potes, c'est un nouveau départ Fait des cyphers avec des tas d'inconnus dans les squares Le rythme et les mots le passionnent Beaucoup d'artistes l'inspirent et l'impressionnent La verve de Brassens, l'interprétation de Barbara Les flows de Biggie, Busta Rhymes et les thèmes de Java Il veut tout mélanger mais se différencier Il publie deux morceaux sur MySpace pour se lancer Il est si content quand on lui propose d'animer Des soirées slam dans un petit bar à Ménilmontant Il y freestyle avec deux rappeurs et, là, gros déclic Ensembles, ils forment un trio La Secte Phonétik S'en suivent quatre années de kif, d'escapades et de splifs De plans de batailles et de travail pas très lucratif Il emménage à Montmartre avec sa dulcinée Sa web-série Vidéo Rap le fait turbiner Il devient papa, quitte La Secte et se rabat vite Sur ses nouveaux clips, c'est le début du rap aquatique La suite tient en si peu de mots Une trilogie d'albums autour du cycle de l'eau yo Wiki Freestyle, Wiki Freestyle Tu connais</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Hippocampe_Fou_songs.xlsx
+++ b/data/02_intermediate/cleaned_Hippocampe_Fou_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Blanche</t>
+          <t>Ça colle !!!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Janvier - 0301 Rowjay - Hors catégorie - 0801 Demi Portion - Libertad 0801 I.K. - Phenix 0801 Raaash - 3 1001 HIM - Trapstar, Vol. 1 1201 Harbor Hexpir - Un gramme de chaque - 1201 Hash24 - Wait Tape Vol. 1 - 1201 Hooss - Woodstock - 1201 Joe Lucazz - No Name 2.0 1501 Artistes multiples - Compilation Rec Sessions 1501 Greg X Ali Polva - La fusion - 1501 Ice - Alter ego 1701 Brasco - Sco Punisher 1801 Elinass - Sabah - 1901 Dehmo - Poetic Bendo - 1901 Grems - Sans titre 7 - 1901 Lonepsi - Sans dire adieu 1901 Mala - Ghostfather - 1901 Nelick - Kiwibunnytape - 1901 Stick - Glossolalie - 1901 Swing - Marabout 1901 Artistes multiples - War For Peace - 1901 Vin's - 23h59 - 2601 Sofiane - Affranchis - 2601 Sopico - YË - 2601 Zidi - Vingt cinq - 2801 La Smala - 11h59 2901 Majster - Mister George Février - 0102 T.I.S - Gotham city kids Épisode 5 - 0202 4Keus Gang - Hors série Vol.2 - 0202 Chaman - Feuille morte 0202 Le 77 - Bawlers 0202 Melan - Abandon sauvage - 0202 Vald - XEU 0402 Jorrdee - A selection 0802 JMK - Kingdom hearts - 0902 Tortoz - New Ventura 0902 Zed Yun Pavarotti - Grand zéro - 1602 Andy Luidje - Univers - 1602 DJ Weedim - Boulangerie française Vol. II 1602 Ghost Killer Track - Slimer Alchemists 2 - 1602 Roméo Elvis Le Motel - Morale 2luxe - 1602 Volts Face - Saïtama - 1802 Foulques Nera - Siège 2302 Agrüm - Ürbaine saveür - 2302 Big Budha Cheez - Épicerie coréenne - 2302 Lartiste - Grandestino - 2302 Lorenzo - Rien à branler - 2302 Odor - Jeu de fléchettes 2302 Scylla - Album fantôme - 2302 Slimka - No Bad Vol. 2 - 2302 YL - Confidences 2502 Selas - Haïku - 2602 Brav - Nous sommes - 2802 DojoKlüb - Before 2802 Marty de Lutece - Violence partout Mars - 0203 Assy - Kinto 0203 L'Skadrille - Nos vies Réédition digitale - 0203 Maes - Réelle vie 2.0 0203 Meloman Màni - T.I.M.E. Machine - 0203 Oumar - Training day II - 0203 Suprême NTM - Anthologie - 0203 Swift Guad - Vice Vertu Vol. 3 - 0303 Hotel Paradisio - Magnetic 0303 Nyda - Jeune loup - 0703 Artistes multiples - Compilation Rec Sessions 0803 R.Can - L'erreur est urbaine - 0803 T.I.S - Drama QueensWomen's Day - 0903 Ash Kidd - STEREOTYPE - 0903 Hippocampe Fou - Terminus - 0903 Marwa Loud - Loud - 0903 Naps - À l'instinct - 0903 Zeu - Trash talking - 0903 Zippo - Zippo contre les robots 1103 Brass Malter - Hier 1503 Francis Trah - Francis Tape 1503 Sawyer JeuneJoueur - Saison II - 1603 4Keus - La vie continue 1603 Goune - Grande canette 1603 Le Traitement - R.I.P LT - 1603 OBOY - Southside 1603 Tous Salopards - Olympe 1703 Freddy Gruesum - I dunno what i'm doin' 1903 Kartoon - Microclimat - 2103 Usky - Porte dorée Saison 1 2303 Asphi - La vie en 3D - 2303 Hooss - Woodstock Réédition - 2303 Isha - La Vie Augmente Vol. 2 2303 Juste Cause - Mauvais sens 2303 K.S.A - SWISH - 2303 LaCraps - BoomBap 2.0 - 2303 Lucci - Loading - 2303 Maître Gims - Ceinture noire 2303 MoïseTheDude - Keudar 2303 Pompes Fu - Primavé 2303 Poseï Manifest - Royaume - 2303 Rémy - C'est Rémy 2303 S.A - Je pense donc je suis 2403 A Point Z - XXIème siècle 2903 NxxxxxS - FRIENDZONE - 2903 T.I.S - 003 3003 Cheeko - Le merveilleux voyage de Cheeko au pays des FDP - 3003 Kooseyl - Hybride - 3003 Ninho - M.I.L.S 2.0 3003 Paco - Amuse-gueule - 3003 PLK - Platinum Avril - 0604 13 Block - Triple S - 0604 Alpha Wann - Alph Lauren 3 - 0604 Busta Flex - Busta Flex 20ème anniversaire 0604 Cenza - Menace - 0604 Enima - OPN - 0604 Kore - Taxi 5 La B.O. - 0604 Lefa - 3 du mat - 0604 Leto - TRAPTAR 0804 Balao - Or pur Vol. 1 0804 Jorrdee - ACT1 0804 JMK - OTG 1104 Ades - Le poids d'une plume Volume II - 1304 Biwai - Remontada 1304 Bresom Gang - La Yessayerie Vol. 1 1304 C.Sen - Vertiges 1304 Casus Belli - CB 2.0 - 1304 FouKi - Zay - 1304 Médine - Storyteller - 1304 Nemir - Hors-série - 1304 Tengo John - Multicolore Mixtape 1304 Vicelow - MID - 1404 Junior Alaprod Le Motif - Pompe EP - 1704 Triplego - EnAttendantMachakil - 1804 Kikesa - Dimanche de Hippie - 2004 404Billy - Hostile - 2004 50k Editions - Game Over - 2004 Djadja Dinaz - Le revers de la médaille 2004 La Hyène - Thugz Mixtape - 2004 Luni - Bleu - 2004 Veerus - Iceberg Slim - 2304 Veence Hanao x Le Motel - Bodie - 2604 Moubarak - La gratuité - 2704 Alkpote - Inferno 2704 Doc Gynéco - 1000 - 2704 Dinos - Imany 2704 K-LY - Pourdevray - 2704 Kofs - Kofs EP - 2704 Lpee - Monochrome 2704 MC Odysé - Lasagnes de thons - 2704 Myth Syzer - Bisous - 2704 N'dirty Deh - La street en solitaire - 2704 Niro - Mens Rea - 2704 Oxmo Puccino - Opéra Puccino Édition Collector - 2704 Sirap - Les anges ont des yeux Vol. 1 - 2704 Timal - Trop chaud 2704 Verso - 97Tape - 2704 Zamdane - 20's 2804 Mac Kregor - Alea Jacta Est Mai - 0205 Artistes multiples - Le Règlement Freestyles 0205 Express Bavon - MÉLANGE 0405 4000 Carats - Diamant brut - 0405 Artistes multiples - Nova Grünt Tunes - 0405 D. Ace - Inévitable 0405 Mike Lucazz - Soleil noir - 0405 Naza - C'est la loi 0405 Retro X - Dig3 Heroes - 0405 Roms - Humain - 1005 Di-Meh - Focus Part. 2 - 1105 Booska-P - Booska Pefra Vol. 5 - 1105 Doxx - Point de rupture - 1105 Keblack - Appartement 105 - 1105 Koba LaD - Ténébreux - 1105 Pins Dimeh - Houston - 1105 S.Pri Noir - Masque blanc - 1105 Seyté - La vie est belle 1105 Yaro - À zéro - 1605 Spider ZED - Pas si sûr 1805 2CheeseMilkShake - Neuilly Plaisir - 1805 Demi Portion - Super Héros - 1805 Mehdi Obams - Antespartedos 1805 Ol'Kainry - Poneglyphe 1805 Secteur Ä - Best Of - 2305 Senamo - Poison bleu 2505 Atl4s - Premier quartier - 2505 DJ Weedim - Boulangerie française 2, Les remix - 2505 Jok'Air - JokRambo - 2505 LaCraps - BoomBap 2.0 Réédition - 2505 Lonepsi - Kairos - 2505 Lucio Bukowski Mani Deïz - Chansons - 2505 Moha La Squale - Bendero - 2705 Sheldon - RPG - 2705 Venlo - Sang-froid - 2805 jäde - Cliché 2805 Smeels - Toujours pas rappeur - 3105 T.I.S - 004 Juin - 0106 Caballero JeanJass - Double Hélice 3 0106 Despo Rutti - Artefacts Vol. 4 0106 Joe Lucazz Char - Paris dernière 0106 Leto Z17 - Hood - 0106 Vegedream - Marchand de sable - 0106 Zuukou Mayzie - Best of - 0506 Moka Boka - Pas de pluie, pas de fleurs - 0606 LecHad - Wish 0606 Triple Skull - Off Man - 0806 Biffty DJ Weedim - La potence - 0806 Kemmler - Rose - 0806 Le Club - Fort 2 nous - 0806 Les Alchimistes - Antisocial 0806 Poseï Manifest - Fleur de lotus - 0806 Youri - Tsar Trap Vol.2 - 1406 Bitu - LEMONde - 1506 Damso - Lithopédion - 1706 DojoKlüb - Showcase - 1906 Laylow - .RAW 2006 MV - PCLA 3 2206 Bosh - Dos argenté - 2206 Changerz - Identiques - 2206 Ikaz Boi - Brutal 2206 Flaco - Carte fin d'jeu - 2206 Kekra - Land - 2206 Lord Esperanza - Internet - 2206 MMZ - Trop N'DA 2206 Rekta - Boyz n the Hood - 2406 M le Maudit - 3 - 2606 Juice - Multifruits 2606 Riski - Oh Mon Dieu - 2806 T.I.S Goomar - Inspirations 2906 La Chronik Beni Will - Rien à personne - 2906 Jul - Inspi d'ailleurs 2906 Maska - Préliminaires Vol. 1 - 2906 MRC - Zero code 2906 Sëar Lui-Même - Chasseur de têtes - 2906 Take A Mic - Avant-gardistes - 2906 VSO - Kintsugi Juillet - 0107 Beeby - Deluxe - 0207 Sauveur Eloheem - Le Traqueur de la Nuit 0607 Abssis - Clark Kent - 0607 Blaiz - Dans les yeux - 0607 Dosseh - Vidaloa - 0607 Elams - Ce que l'on vit - 0607 Elh Kmer - Antidote - 0607 Still Fresh - Trapop - 0707 Django - Tue-moi, mon amour, s'il te plait - 0707 L'Ordre Du Périph - Mugiwara - 0807 Walter - T.O.C - 1307 6rano - Mise à feu - 1307 Guizmo - Renard 1707 Majster - Le Roi des juifs est noir et mange chez Al-Haèche - 2007 Djadja Dinaz - Le revers de la médaille Partie 2 - 2607 Izaya Mod - Audacieux - 2707 Dry - De la pure pour les durs 2 Vol. 1 2807 SelaS - L'Occhio Del Corvo Août - 0108 Sheldon Sanka - Bateau bleu - 1208 Jorrde3 - 12 - 1508 Nelick - Qui peut sauver KiwiBunny ? 1708 Jarod - Feinte de frappe Réédition 1708 Raplume - Plume Septembre - 0709 Jazzy Bazz - Nuit - 0709 Kikesa - Dimanche de Hippies, Vol. 2 - 1109 Mazoo - Ah gars la tape, Vol. 2 1109 Norsacce 667 - RAR 1109 Yuri J - Texas Tea Vol. 2 - 1409 Canardo - Métamorphose - 1409 Disiz la Peste - DISIZILLA 1409 G.A.N - Ying yang - 1409 Josman - J.O. - 1409 LuXe - leXington - 1409 Vald - NQNT33 - 1409 Yzla - La Grande Ourse - 1909 MHD - 19 - 2109 Alpha Wann - Une main lave l'autre 2109 GLGV - Escxle - 2109 Hornet La Frappe - Dans les yeux - 2109 Rim'K - Mutant - 2109 RK - Insolent - 2109 PSO Thug - Pause 2109 Harry Fraud - Brooklyn Paris 2209 Le Labo - Laborantins - 2309 Népal - KKSHISENSE8 2509 Baek - Hors forfait 2509 Majster - Les funérailles des tabous 2709 Dino - Black album - 2809 4Keus - À cur ouvert - 2809 Columbine - Adieu bientôt - 2809 Gros Mo - Les étoiles - 2809 John S - Black EP - 2809 Koba LaD - VII 2809 Lucci - 777 - 2809 Sadek - Johnny de Janeiro - 2809 Youssoupha - Polaroïd Experience - 2809 Alaclair Ensemble - Le sens des paroles 3009 Zeu - Butterfly doors Octobre - 0210 VII - X 0410 Green Montana - Orange métallique - 0510 93 Empire - 93 Empire - 0510 Dadju - Gentleman 2.0 Réédition 0510 Multi-interprètes - Bendo 5 - 0510 PLK - Polak - 0510 Zdrid Family - C.P.D.R Vol. 1 0510 Zedkara - Rockstar - 0710 WM - Danslepiège - 1210 47Ter - Petits princes - 1210 La Fouine - Sombre 1210 Lossa - C'est réel - 1210 Odezenne - Au Baccara - 1210 Scylla Sofiane Pamart - Pleine lune - 1210 Slim Lessio - Fruit 2 paix - 1910 7 Jaws - Steam House 1910 Joe Lucazz - Carbone 14 1910 Kuma G - Sous la capuche Vol.1 1910 Oster Lapwass - Pense bête 1910 OZ Mani Deïz - Pour toujours - 1910 Sch - JVLIVS - 1910 Sniper - Personnalité suspecte Vol. 1 - 1910 Walid - Foetus 1910 Stensy - Code Vide - 2010 T.I.S, Öster, Feilong Dysflow - Oktoberfest 2610 2CheeseMilkshake - Neuilly Plaisir, Vol. 2 - 2610 Bohemian Club - Substance M - 2610 Coelho - Vanités - 2610 Flynt - Ça va bien s'passer 2610 Hors Piste Mani Deïz - Deïz Mesures - 2610 Infinit' - Ma version des faits - 2610 Souldia - Survivant 2610 Taïpan - P.A.N 2 Novembre - 0211 Aya Nakamura - Nakamura 0211 Bakr - Grinta 0211 Fally Ipupa - Control - 0211 Gaël Faye - Des fleurs - 0211 Grems - 7 sans le titre - 0211 Gringe - Enfant lune 0211 Just Tise League - La joie de vivre 0211 Key Largo - Sous côté - 0211 Soolking - Fruit du démon - 0711 Gianni - D.D.M - 0911 Bolémvn - Quel vie - 0911 Cinco - Told y'all Vol. 5 - 0911 Doxx - Au final 0911 L'Hexaler - En parallèle - 0911 Sawyer - Temps perdu - 0911 Soprano - Phnix - 1311 Freeze Corleone - Projet Blue beam - 1611 A2H - L'Amour - 1611 Kery James - J'rap encore - 1611 Kofs - V - 1611 La Prune - Alambiqué - 1611 L'Or Du Commun - Sapiens - 1611 OrelSan - La fête est finie - Épilogue - 1611 Q.E Favelas - Bipolaire 2011 Mehdi Obams - El Principe Partie 2 - 2311 Bigflo Oli - La vie de rêve - 2311 Dehmo - Métronome - 2311 Georgio - XX5 - 2311 Kalash Criminel - La fosse aux lions 2311 Ros - Osmium - 2311 Tengo John - Hyakutake 2311 ThaHomey - Avant la vague 2411 Hash24 - Waitape Vol. 2 - 3011 GLK - Un jour ou l'autre - 3011 LTF - Interdit - 3011 Mac Tyer - C'est la street mon pote - 3011 Maes - Pure 2311 Misère Record - Headshot - 3011 Myth Syzer - Bisous mortels - 3011 Nelick - Dieu sauve KiwiBunny 3011 Ol Kainry - Raftel 3011 TonyToxik - 88 - 3011 Vegedream - Marchand de sable 2 3011 L'Antidote Lafamille - B15 - 3011 Yung Tarpei - DIY Décembre 0212 Lucas Oprv - Ortiz Peña Riquelme Vega 0712 AL - PunchLife - 0712 Dinos - Imany Deluxe - 0712 Hayce Lemsi - La haute - 0712 Jul - La zone en personne - 0712 Laylow - .RAW-Z - 0712 Lomepal - Jeannine - 0712 Mafia Spartiate - 7 vie là - 0712 Multi-interprètes - Affaire de famille 0812 Siclone - Ocho - 1212 Zamdane - Affamé 1412 ATK - On fait comme on a dit - 1412 Hicham - Minuit 01 1412 Marty de Lutece - NOOB 1412 Multi-interprètes - Bendo Collector 1412 Multi-interprètes - XVII Teudy Volume 2 1402 P-dro - Lilith - 1412 Rohff - Surnaturel - 1412 Veust - La saison de Veust Automne - 1412 Youri DJ Weedim - Tsar Bomba - 1412 Youv Dee - Gear 3 - 1512 Lucio Bukowski - Aucun potentiel commercial 2 - 1612 Fanny's Station - Un Dimanche à Lutèce 1812 Kurtys Layson - Flowmotion - 2112 Alkpote Luv Resval - Mariah 2112 Joey Larsé - Drugstore - 2112 Pollux - A Mun Klwa 2112 Zuukou - J.M.U.A.Z 2412 Houssaw - Jeune Badman Vol. II - 2812 Hotel Paradisio - Amityville - 3112 T.I.S - Gotham City Kids Épisode 6 Autres - Du 1401 au 0105 Les Alchimistes - Hors Série - Du 2004 au 3004 Lord Esperanza - Dans ta ville7</t>
+          <t>Sous mon matelas, y'a les ovaires de mes ex et des godemichés cactus J'suis en colère et t'accuse d'avoir critiqué mes textes T'es qu'une potiche et t'assume pas, t'as de mauvais réflexes Berlusconi est ta muse, t'abuses mais La testostérone en toi n'est pas dépistée Tu n'es qu'un légume homophobe et laid, ça, j'l'ai grillé Ton métier testeur de sex toy, là, j't'ai fisté Tu ferais mieux d'aller postuler chez les wack M.C., yeah Moi, j'suis né dans les bas-fonds Parmi les crimes et les crasses, les combats d'espadon L'escrime et les poissons sont mes passions Je crée l'hécatombe, les filles et les gars tombent dans les salles combles Belle révélation, les rimes et les basses grondent, c'est l'ovation Et pour couronner la célébration, des fellations Suivies de longues défécations, c'est l'évasion, l'élévation L'impression d'avoir acquis le savoir de trois millions de générations x2 Ça baigne, ça coule, ça sonne ! Ça roucoule, ça glougloute, ça grogne ! Ça saigne, ça mouille, ça colle ! Ça froufroute, ça courrouce, ça cogne ! Super mutant, je fouille le fond du temps Fidèle aux fondements, je ficelle longuement De fonky pamphlets percutants errants Dans les méandres de mon esprit tendre J'ai mille amis yamakazis, des passionnés d'Origami On a chaussé des souliers de rubis et l'Italie, oui J'aime rapper par à coups, désapé par la foule et palpé par ta poule J'épate les marabouts, j'ai capté la magouille J'suis l'ombrelle dans la brume l'enclume funambule et j'observe Le temps suspendu à mes grosses lèvres De Mars à Mexico, tout le monde applaudit Hippo Pendant qu'tu fais d'la GRS avec le fil de ton micro Orfèvre textuel, hors-pair je sais qu'tu aimes Mes lyrics ectoplasmiques et mes flows élastiques Style maximaliste, j'brise ma chrysalide M'envole et puis crie bien fort Vive la vie d'artiste ! x2</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ça colle !!!</t>
+          <t>Caniche royal</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sous mon matelas, y'a les ovaires de mes ex et des godemichés cactus J'suis en colère et t'accuse d'avoir critiqué mes textes T'es qu'une potiche et t'assume pas, t'as de mauvais réflexes Berlusconi est ta muse, t'abuses mais La testostérone en toi n'est pas dépistée Tu n'es qu'un légume homophobe et laid, ça, j'l'ai grillé Ton métier testeur de sex toy, là, j't'ai fisté Tu ferais mieux d'aller postuler chez les wack M.C., yeah Moi, j'suis né dans les bas-fonds Parmi les crimes et les crasses, les combats d'espadon L'escrime et les poissons sont mes passions Je crée l'hécatombe, les filles et les gars tombent dans les salles combles Belle révélation, les rimes et les basses grondent, c'est l'ovation Et pour couronner la célébration, des fellations Suivies de longues défécations, c'est l'évasion, l'élévation L'impression d'avoir acquis le savoir de trois millions de générations x2 Ça baigne, ça coule, ça sonne ! Ça roucoule, ça glougloute, ça grogne ! Ça saigne, ça mouille, ça colle ! Ça froufroute, ça courrouce, ça cogne ! Super mutant, je fouille le fond du temps Fidèle aux fondements, je ficelle longuement De fonky pamphlets percutants errants Dans les méandres de mon esprit tendre J'ai mille amis yamakazis, des passionnés d'Origami On a chaussé des souliers de rubis et l'Italie, oui J'aime rapper par à coups, désapé par la foule et palpé par ta poule J'épate les marabouts, j'ai capté la magouille J'suis l'ombrelle dans la brume l'enclume funambule et j'observe Le temps suspendu à mes grosses lèvres De Mars à Mexico, tout le monde applaudit Hippo Pendant qu'tu fais d'la GRS avec le fil de ton micro Orfèvre textuel, hors-pair je sais qu'tu aimes Mes lyrics ectoplasmiques et mes flows élastiques Style maximaliste, j'brise ma chrysalide M'envole et puis crie bien fort Vive la vie d'artiste ! x2</t>
+          <t>Je te l'ai dit près de cent fois dans l'rap, t'es inutile Comme un toiletteur pour caniche dans un pays en guerre sans roi Quand j'investis l'enfer, j'envoie avec emphase et minutie Les mecs en face qui rugissent, je les étripe de sang froid Pousse-toi d'là ! J'fous l'dawa ! Tous m'acclament ! Chaque jour, j'goûte douze nanas, dont ta femme, honte à toi ! Ouh la la ! Le dindon joue au jeu de l'oie avec des dés à coudre J'suis pas toujours méga cool mais maboul, mea-culpa Bon vivant, je fabrique et vends des culottes affriolantes Pour cougars incontinentes Quand tu me complimentes, je ressens une honte immense J'ai dormi en conduisant un hémophile au don du sang J'démolis en construisant et confidence pour confidence Ma vie est inconsistante, je vous souhaite un bon dimanche Long silence... aller, partagez ce clip Vu l'état de mes finances, je pourrai sabrer le cidre</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Caniche royal</t>
+          <t>Caresse assassine</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Je te l'ai dit près de cent fois dans l'rap, t'es inutile Comme un toiletteur pour caniche dans un pays en guerre sans roi Quand j'investis l'enfer, j'envoie avec emphase et minutie Les mecs en face qui rugissent, je les étripe de sang froid Pousse-toi d'là ! J'fous l'dawa ! Tous m'acclament ! Chaque jour, j'goûte douze nanas, dont ta femme, honte à toi ! Ouh la la ! Le dindon joue au jeu de l'oie avec des dés à coudre J'suis pas toujours méga cool mais maboul, mea-culpa Bon vivant, je fabrique et vends des culottes affriolantes Pour cougars incontinentes Quand tu me complimentes, je ressens une honte immense J'ai dormi en conduisant un hémophile au don du sang J'démolis en construisant et confidence pour confidence Ma vie est inconsistante, je vous souhaite un bon dimanche Long silence... aller, partagez ce clip Vu l'état de mes finances, je pourrai sabrer le cidre</t>
+          <t>Mets de la vaseline dans ta narine, j'arrive En toute intimité, j'entame en toute impunité Des slams en ouzbek irrités avec la voix de Kirikou grippé La probabilité de tout assimiler Est inférieure à celle de confondre amertume avec acidité C'est mignon, parlons de vertèbres éparpillées De zèbres aux yeux écarquillés, de glaires et Des millions de merveilles que réservent mes ténèbres Si peu ternes, c'est peut-être dû à ton sang d'un si vif vermillon Oui, je sais que t'aimes quand j'asperge les quenelles De béchamel à la gerbe et de sorbets Berthillon Tu caches ta tête sous l'oreiller, pardi t'es moche d'la raie aux pieds Vis donc ce cauchemar éveillé rempli de dérision Tu claques des dents bruyamment, gars, détends-toi Je vais décroiser tes ligaments, le tigre est en moi T'es pantois, prends mon zgeg et pends-toi Ou repens-toi, sache que le monde est plus triste sans toi Tu soulages tout ton village comme la Schtroumpfette Je troue ton visage avec une fourchette T'es déshonoré mais pour colorer ton mausolée T'as plus qu'à faire un featuring avec Hélène et Dorothée Hippocampe Fou en mode fâché Bah ouais, ça m'arrive hein, comme tout l'monde</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Caresse assassine</t>
+          <t>Cheeba Garden</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Mets de la vaseline dans ta narine, j'arrive En toute intimité, j'entame en toute impunité Des slams en ouzbek irrités avec la voix de Kirikou grippé La probabilité de tout assimiler Est inférieure à celle de confondre amertume avec acidité C'est mignon, parlons de vertèbres éparpillées De zèbres aux yeux écarquillés, de glaires et Des millions de merveilles que réservent mes ténèbres Si peu ternes, c'est peut-être dû à ton sang d'un si vif vermillon Oui, je sais que t'aimes quand j'asperge les quenelles De béchamel à la gerbe et de sorbets Berthillon Tu caches ta tête sous l'oreiller, pardi t'es moche d'la raie aux pieds Vis donc ce cauchemar éveillé rempli de dérision Tu claques des dents bruyamment, gars, détends-toi Je vais décroiser tes ligaments, le tigre est en moi T'es pantois, prends mon zgeg et pends-toi Ou repens-toi, sache que le monde est plus triste sans toi Tu soulages tout ton village comme la Schtroumpfette Je troue ton visage avec une fourchette T'es déshonoré mais pour colorer ton mausolée T'as plus qu'à faire un featuring avec Hélène et Dorothée Hippocampe Fou en mode fâché Bah ouais, ça m'arrive hein, comme tout l'monde</t>
+          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED À poils ou à plumes, tu caches ton âme d'animal Assume, ton taf te fâche, t'amasses les crasses D'un tas de rapaces qui brassent des liasses, te crachent À la face, la rage t'enlace, regarde la lune Sois pas docile, profite des possibilités illimitées Qui se profilent si t'es obstiné Tu n'es pas obligé d'être un godemichet pour ton trop p'tit chef Donc peaufine ta rhétorique au piquet vice ou des barbares Évite la bagarre, donne pas la patte ou tu finis vite à labattoir Grand tartare sur de grandes tartines Ne t'enflamme pas, avale l'Antarctique Fraîcheur sauvage, l'orage t'effleure La laideur te fait peur ou t'écure, dommage Écoutez les Puppets et Hippo Loquito C'est meilleur que tes nuggets qui crient Cocorico TO BE RETRANSCRIBED</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ça va pas l’faire !</t>
+          <t>Chorale des Orphelins à la Langue Coupée</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Aketo - Larmes de guerre 0101 Houari - La balafre - 0101 Keny Arkana - Viens mon frère Avant lexode 2 - 0101 Max Paro - Étoile filante - 0201 Pakigo - Rien ne va plus - 0201 Kepler - Booska'Batman 0201 2 Bal - MV3 ft. Demi Portion, Sinik, Swift Guad Viez - 0301 Atro 90 - Les 90 manèges - 0301 BR La B - Donner - 0301 JKSN - Freestyle Rapleader - 0301 WZ - J'vais l'faire - 0401 Uzi - Intro - 0501 Bitsu - RÉUSSIR OU MOURRIR - 0501 Salgrimo - Rapkèb - 0601 6rano - Tu connais ft. Capow 0601 BES - L'or noir - 0601 Esteban - Les Loups, Pt. 1 - 0601 Farlot - Booster Bleu - 0601 Gen - Le coin ft. Med - 0601 ICO - BBJTM - 0601 Venlo - Regarde ft. Caballero - 0701 Coelho - Nike - 0701 Georgio - Noir Paradis - 0701 Ichon - La vie - 0801 47Ter - OVGTC STAR WARS ft. Kikesa - 0801 Atro Boi - Le jour où on sera vieux - 0801 Chicaille Argenté - Force 0801 Dadou - 99's Mood - 0801 Doria - Oh Boy 0801 Goldee Money - Gilles de la Tourette - 0801 Gotti Maras - BX Drill 2 - 0801 Jayel - Braquage à la Lyonnaise ft. Sasso, Bambino47, Dener, Derone, Jrr, RD Mecra - 0801 Joysad - Venin - 0801 Mister V - Gas ft. Gazo - 0801 Mister You - La Costa - 0801 R.E.D.K. - SQOSLF 3 Je suis Marseille Remix - 0801 Taïro - Révolution Part. 3 Peuples - 0801 Zikxo - Temps 35 - 0901 FrenchCali - Trame - 1001 Aysko - Silver Haze - 1101 Onze - Oshod - 1201 Mapess - FREESTYLE HASSAL 3 - 1301 Benab - Au clair de la rue - 1301 Big B - Start - 1301 Gips - Briiips, Vol. 2 - 1301 Kekra - Realest HLM - 1301 Menavor - Malade 1301 Raous Gang - Visière teintée - 1301 S.Téban - Paris-Dakar ft. Alonzo - 1301 The S - Booska Square Bleu - 1301 La Ligne Bleue DOR - 34 extended - 1401 Chanje - Keur - 1401 Gazo - Kassav ft. Tiakola - 1401 Kenyon - Laisse-moi faire 1401 K.R.K - Aladin - 1401 Lazer MMZ - Y R R - 1401 Olazermi - Monkey ft. Stavo - 1401 ZKR - Booska Dans Les Mains - 1501 4 Sang - Pure - 1501 A2Z - Claire Chazal ft. Kalash Criminel - 1501 Ashkidd - DANS LA VILLE - 1501 Bilton - Chicha menthe ft. Booba - 1501 David Okit - Igo 1501 Fadah - Chaudar - 1501 Hatik - crashtest - 1501 Hunter - Jamais riche - 1501 Juss - A la base - 1501 Mécra - La rue 6 - 1501 Nanek - Fenêtre - 1501 Niska - Chargé - 1501 Slkrack - F.A.D - 1501 Still Fresh - THANOS - 1501 Thabiti - 13D ft. Solda, Graya, Djiha, Elams, SAF, AM La Scampia, Houari Kamikaz - 1501 Youv Dee - J'rêve - 1801 Frenetik - Odin - 1801 Guy2Bezbar - La Calle 3 Ça flingue - 1801 Nahir - Boosk'Araï - 1901 Pakigo - LA DIFF - 1901 Zuukou Mayzie - Sofie Fatale - 2001 Dinor - Booska Ronaldinor 2001 Esteban - Les Loups, Pt. 2 - 2001 Farlot - Booster Rouge - 2001 Gio Dallas - COMMENT FAIRE - 2001 H.LA DROGUE - SEKLENDLAND 2 - 2001 Kaneki - Freestyle Hall 1 - 2001 Kerchak - 9B - 2001 Klem - HANTE - 2001 Malo - Fake - 2001 Roms - J'avance - 2001 Wallace Cleaver - Hors de ma vue - 2001 winnterzuko - Wannacry - 2001 ZeGuerre - Des tals ft. Sifax - 2101 Chaman Sully - TOXIC - 2101 Dwen - Noir - 2101 Hayce Lemsi - Boson de Higgs - 2101 TLZ Clan - Papel - 2101 TRZ - Réel - 2101 Uzi - Cur abîmé - 2101 Youri - Normal - 2201 Ateyaba - Solitaires - 2201 Black M - César ft. GIMS - 2201 Cinco - Gangsta ft. Key Largo - 2201 Davodka - Fatality - 2201 Deadi - Banzaï - 2201 Golgoth - Ocytocine ft. Lutchelle Jasmine - 2201 HD La Relève - Alpha - 2201 Kore - Balafre ft. Ashe 22 Stavo - 2201 La Kadrilla - VAR - 2201 Liqid - Opération Shawarma - 2201 Malty2BZ - La mort en sachet - 2201 Rocé - Jingle Bells - 2201 Sadek - Labess - 2201 Santa - Boeing ft. La Fève - 2201 Scor Novy - Too Much - 2201 Sokuu - Laisse la partir - 2201 Tsew The Kid - Maladroit ft. Lefa 2201 Yassin - Hood - 2201 Zoyou - 98 - 2301 Gouap - Switch 3 - 2401 JNR - 59 US - 2401 Nara - Guess What ft. Realo - 2401 Tisco - Paire de TN - 2501 Leto - Double Bang 10 - 2501 Marty de Lutece - Sequence - 2601 Booba - RATPI WORLD - 2701 Graya - La Castellane 3 - 2701 Koffi Lossa - Paris c'est tragique 4 - 2701 Kpri - Barceloneta - 2701 L2B Gang - Melvin Williams - 2701 Sasso - Freestyle Kiwi - 2801 Busta Flex - EnTeam - 2801 Coelho - Ne m'en veux pas 2801 Gueule d'Ange - Los Santos - 2801 Josman - Fucked Up 4 2801 Hermano Salvatore - Focus - 2801 L'Allemand - Plus d'amour ft. DA Uzi - 2801 Mayo - Remontada - 2801 Nakk Mendosa - Boîte noire - 2801 Slimka - Headshot - 2801 Vin's - Liberté - 2901 91 All Stars - Gang gang ft. S-Pion Wejdene - 2901 Alonzo - FREESTYLE GALACTIQUE - 2901 Bakari - Panamera ft. Sofiane Pamart - 2901 Brvbus - Transac ft. Dinero - 2901 Dadinho - Sucré Dadi ft. Gazo - 2901 Doria - VRRR - 2901 Hash24 - Tom Jedusor ft. Quesse - 2901 Hebi - CUPID - 2901 Jayden - BIPOLAR - 2901 La F - Non Coupable 4 - 2901 La Peee - Diamant brut 7 - 2901 Michel - Nekete - 2901 Moha K - Zoné - 2901 Nahir - Le bus - 2901 Nakry - Du 13 au 06 ft. Mehdi YZ - 2901 Pirate 182 - Mozart - 2901 Prototype Plvs - Nikita - 2901 Stanis.Las - Popstar - 2901 Todiefor - Palpatine ft. Alkpote - 2901 Venlo - Faut que - 2901 Ya Levis - Pour moi ft. Franglish - 3001 Serane - Money Dance - 3001 Werrason - Mytho ft. Stavo - 3101 Ave Purple - Phéromones - 3101 i300 - SCAM - 3101 Roro la Meute - LA MEUTE 5 - 3101 Zbig - DLG 7 Février - 0102 Keehl - Attentat 0102 R.Keto - 23 ft. Kingzer - 0302 Chicaille Argenté - Boosk'Argenté - 0302 DTF - Bah alors - 0302 eden dillinger - ICARE ft. Wallace Cleaver - 0302 Gips - Nous ça va hamdou ft. Kamikaz Zbig - 0302 Hamza - Réel ft. Zed - 0302 Nixon - OneShot - 0302 Realo - START - 0302 S.Pri Noir - AR ft. Gazo - 0302 We Renoi - Guadalajara - 0302 Zamdane - Affamé 6 Vital - 0402 JNR - Booska Slice - 0402 LVZ - Brisé - 0402 R.E.D.K. - SQOSLF 4 - 0402 SCH - Marché noir - 0402 Swift Guad - Osirus ft. Cenza - 0402 Youssoupha - Astronaute - 0502 2TH - Il reste de l'espoir - 0502 Alonzo - FREESTYLE BRB - 0502 Benab - Confidentes - 0502 Boostee - Jeunes Tristes - 0502 Chanje - WDLT 0502 Denza - Gros lot ft. Captaine Roshi - 0502 Esteban - Les Loups, Pt. 3 - 0502 JSX - RATE-PI - 0502 Kore - Mango ft. Lacrim - 0502 Maska - Voie lactée ft. Lefa Lord Esperanza - 0502 Savage Toddy - Papillon ft. Alkpote - 0502 Kepler - Pefra ft. Gambino LaMG - 0502 Seth Gueko Stos - Trop parler peut tuer - 0502 Sofiane - Nouveaux parrains ft. Soolking - 0602 6rano - Tout et tout de suite - 0602 Doc OVG - La Frappe ft. La F - 0702 Jewel Usain - J'arrive - 0702 Tisco - Doucement ft. Brvmsoo - 0802 Fadah - Nid d'embrouilles - 0902 47Ter - Aline - 0902 Mécra - Johnny Drill - 0902 Vadek - Ambition - 1002 404Billy - 0 Terrain glissant - 1002 Biwaï - Palace ft. Jayel - 1002 DNDX - BALKANY - 1002 Gama Boonta - Grand gabarit - 1002 Kaneki - Freestyle Hall 2 - 1002 Kore - Gucci Versace ft. Heuss L'enfoiré - 1002 Kore - Pas bien ft. PLK - 1002 ICO - Dis pardon - 1002 Realo - Down Bad ft. Khali - 1002 Rim'K - Prototype - 1002 Rvzmo Sans pression 7 - 1102 DJ Quick - Coffre chargé ft. RK DA Uzi - 1102 Max DLG - L'avenue ft. Lilea - 1102 Oumar - Yeezy 1102 Ritchy 31 - Texas 1102 Raous Gang - Gso - 1202 Alonzo - CAPO - 1202 Alrima - C'est comment - 1202 Atro Boi - Hypocrite - 1202 Blaz Pit - QZQ 2 - 1202 Boumso - Danger ft. Timal - 1202 Chanceko - Gova - 1202 Davinhor - Pas de sentiments - 1202 Dika - Youleuh 6 - 1202 Djalito - Nouveau - 1202 GLK - Pas le choix ft. Kelle 1202 Gotti Maras - Freestyle Foot Korner - 1202 Gueule d'Ange - Ma moto ft. Sifax - 1202 Guizmo - Les codes - 1202 Hatik - mer - 1202 Hebi - OXYGEN ft. Myk - 1202 Ikyass Rémy - T'as capté - 1202 Joé Doèt Filé - Bien plus fort ft. Ya Levis - 1202 Kader Diaby 4real - Bon c'est l'heure - 1202 Keny Arkana - On les emmerde Avant l'exode 3 - 1202 Larsé - Canon scié - 1202 Luv Resval - Tout s'en va - 1202 Meryl - BB compte - 1202 Paolo - Parano - 1202 Sadek - Aller-retour - 1202 Seth Sad - Comment faire ? - 1202 Suzuya - Personne ne taimera plus que moi - 1202 Svudvde - Inconditionnel - 1202 Tovaritch - Terrain - 1202 Zidi - Goutte de pluie - 1202 Zikxo - N3 ft. RK - 1202 Zuukou Mayzie - Coach Carter - 1302 Eazy Dew - Humide - 1302 Fresh - La douille 4 - 1402 Bob Marlich - D.L.E.E.D.S ft. Ginger Apollo - 1402 Lalbizness - Kryptonite ft. Osirus Jack - 1402 Marty de Lutece - Souviens toi ft. Bolides - 1402 Mims - Les Nôtres - 1502 Roms - Chat noir - 1502 Ziak - Flocko - 1602 HV Manyy - Billets - 1602 KleoKatana - Spectrum - 1602 Nakry - Lewé - 1702 Jack Many - Ooooh...! - 1702 Mytix Yanké - Trap Drill 2 - 1702 Nyda - Chargé ft. Captaine Roshi - 1702 S.Pri Noir - En vrai ft. DA Uzi - 1702 Uzi - Boosk'Akrapovitch - 1702 Zamdane - Affamé 7 - Histoires de la vraie vie - 1802 Coelho - Cluster - 1802 Swift Guad - Salieri ft. Al'Tarba I.N.C.H - 1802 Tedax Max - Vite fait 4 - 1902 4 Sang - Sonar - 1902 Afro S - Cartouche 7 - 1902 B-NØM - Gang Freestyle - 1902 DTF - Pyromane - 1902 Gazo - BOOSKA POIGNARD - 1902 Hunter - Hélicoptère - 1902 J9ueve - Tous mes états ft. La Fève - 1902 La Peee - Rev Ange - 1902 L'As - Pesos E01 - 1902 Mayo - Impliqué - 1902 menace Santana - Full menace - 1902 Nahir - Comme avant - 1902 Ol'Kainry - Chapeauté - 1902 Santa - BOHÈME ft. KUHI - 1902 SDM - La vie de rêve - 1902 Sizlac - Armé - 1902 Slim Lessio - Wichita - 1902 Sonbest - Sacrifice - 1902 Still Fresh - MÊME SCÉNARIO - 1902 Tsew The Kid - Ailleurs - 1902 Vendredi 13 - Fatality ft. Kyû 999 - 1902 Vladimir Cauchemar - Les Professeurs ft. Seth Gueko Freeze Corleone - 2002 Dmh - Famix - 2002 Wassup Rio - Hellsing - 2102 Asad - Benzo - 2102 Bupropion - Du sang sur les yeux - 2102 Jwles - Juste des barres freestyle - 2102 Malo - Ernest - 2102 Taï Z - Depuis le départ - 2202 Achim - GDS 9 - 2202 Le7ept - Oublie - 2202 Louis Aoda - Je ne m'aime pas - 2202 We Renoi - Fort - 2202 Zikxo - JA Booska Hyène - 2302 eden dillinger - GOETHE OU GUTS ? - 2302 Mapess - Salass - 2302 Norsacce - Intro Marathon - 2402 BR La B - Trahison - 2402 Coelho - Booska Se7en - 2402 Djadja Dinaz - À cur ouvert - 2402 Guy2Bezbar - D.C.B - 2402 Moji x Sboy - R.I.P - 2402 NHSR - Chacun sa chance - 2402 Gips - Anna Kournikova - 2402 Pollux - Merge - 2402 Seven Binks - On arrose - 2402 Tiitof - Avec ou sans toi ft. RK - 2402 winnterzuko - cancel - 2502 Dala - 1V1CIBLE - 2502 Gambino - Cali - 2502 Hermano Salvatore - Polaroïd ft. Soumeya - 2502 ISK - Vérité 3 - 2502 Kalash Criminel - La main - 2502 L'Allemand - Depuis le départ - 2502 Lazzio - Miroir - 2502 Vin's - 2021 - 2502 Youssoupha - SOLAAR PLEURE - 2602 7 Jaws - Jusqu'à la fin ft. Vald - 2602 Caballero - Polaire - 2602 Colonel Reyel - Doggystyle - 2602 DIL - La bouteille - 2602 Dinero - Tout est clair - 2602 Fadah - Flash ft. Rakma - 2602 Fredz - Faits d'hiver - 2602 Hash24 - 34 cuir - 2602 Hebi - INFREQUENTABLES ft. John S - 2602 Hiro - Quatre secondes ft. Koba LaD - 2602 JeanJass - Qu'est ce qui m'arrive - 2602 Kekra - Phénomène - 2602 La F - Bendo ft. Sasso 2602 La Famax - Écharpe au nez - 2602 L'As - Tennessee - 2602 Liim's - Toute la nuit - 2602 Max D. Carter - Film The End - 2602 Nanke - Tout en black - 2602 Naps - La kiffance 2602 Oggy Nilz - JLC - 2602 Onze - 4 saisons - 2602 Peet - Out - 2602 Rocé - Han Solo - 2602 Serge Ibaka - Champion ft. Ninho - 2602 So La Lune - Lune City - 2602 Twenty9 - Sur les nerfs - 2702 1Lyre0 - Arkham - 2702 Cikey - Pars avec moi - 2702 H.LA DROGUE - SEKLENLAND 3 - 2702 Keny Arkana - Violence masquée - 2702 Le Risque - On y va - 2802 Jeune Loup - Shooter - 2802 Roro la Meute - Rétro Mars - 0103 LeBinksPoto - 3.30 - 0103 Niska - Gnonmi avec lait ft. Fior 2 Bior - 0203 Benzizou - Freestylizou 4 - 0203 Dosseh - Cardio - 0203 luXe - Hustlers - 0303 404Billy - 11 - 0303 Baby Neelou - Wake Up - 0303 Charles BDL - Freestyle TLP - 0303 Cop Oslm - Straat Drill - 0303 DJ Kayz - Masterclass ft. Landy RK - 0303 Jazzy Bazz, EDGE Esso Luxueux - Montecristo 0303 Rapi Sati - M3 Yankees - 0303 Kepler - Superman - 0303 S.Pri Noir - 7 vies ft. RK - 0303 Youri - Chute libre - 0303 We Renoi - La League - 0303 Wood - Plus besoin de - 0303 Zamdane - Affamé 8 - Hayati - 0303 Zbig - DLG 8 - 0403 Booba - Mona Lisa ft. JSX - 0403 Mayo - Nouvelle beuh - 0403 Savage Toddy - BooskaWayne Freestyle Booska-P - 0403 Slimka - Rainbow ft. Varnish la Piscine - 0503 47Ter - Avec toi - 0503 Aladin 135 - Sur Paname ft. Lesram Zikxo - 0503 Alonzo - FREESTYLE PELOTA - 0503 B-NØM - Cloche Freestyle - 0503 Brarda - Juste un peu ft. Joey Larsé 0503 Dry - Atlantis 3 0503 Dwen - C bon déjà - 0503 Hatik - waï - 0503 Kore - Gambas ft. Sadek - 0503 L'As - Ça passe - 0503 Loveni - Xxlov - 0503 Max DLG - Pars de là 2 - 0503 Mécra - Faites Percer Mecra - 0503 Mehdi YZ - Il est matrixé - 0503 Rethno - Catégories - 0503 Slkrack - Cru ft. La F - 0503 WZ - Street West 2 - 0503 X-Sphère - Damn - 0603 Chow Chow - Ma copine ft. La Fève - 0603 Kima - Tralala ft. Stos, Tiguere 635 Seth Gueko - 0803 Doria - Leçon - 0803 Falcko - Tu lui diras - 0803 Negrito - Tout va mal - 0803 Retro X - MISFIT - 0803 Rsko - Sal histoire - 0903 Criminils - WW3 - 0903 M7S - RATPI1 - 1003 Ashe 22 - Cro cop - 1003 Deeloc - Rétro ft. Freeze Corleone - 1003 Fresh - GTA 20 - 1003 Hatik - à la mélanie - 1003 H Magnum - Te quiero - 1003 Ichon - Domino - 1003 Kaneki - Freestyle Hall 3 - 1003 Neskoo - Comme Philip - 1003 Realo - LITTLE EYES - 1003 Reta - Gucci Mane - 1003 Seth Gueko Stos - Booska Viking - 1103 Arma Jackson - Distance ft. Tayc - 1103 Clacky - Fausse vie - 1103 Golgoth - Drippin ft. ISHA - 1103 Pirate - Grincheux 6 Atlanta - 1203 Bolémvn - Swipe up - 1203 Bushi - Mistral - 1203 Dadinho - Beretta - 1203 Denzo - La pépite - 1203 Dry - Hollywood - 1203 Elh Kmer - Ennemis - 1203 Gambino - Jalousie - 1203 Gotti Maras - Bx Drill 3 - 1203 Hebi - Un peu plus de love - 1203 Kaaris - Château noir - 1203 Kaza - Certifié Toxic 1203 La Peee - Balle dans la tête - 1203 L'As - Quand il pleut 1203 Lpee - Lumière - 1203 Marty de Lutece - Die Hard - 1203 N3MS - Inédit 2 - 1203 Nass 10 - Danger ft. La F, Bambino47 Jrr - 1203 Rohff - Doux-bail - 1203 Smeels - We Just Vibe 1203 Squadra - Charbon - 1203 Suzuya - Suzuya le vampire - 1203 Thabiti - Baltimore - 1203 TripleGo - Ketama 2 - 1403 Zuukou Mayzie - Pourquoi pas ft. Timothée Joly - 1503 Kenyon - Bossman - 1503 Le Risque - C'est pas pour rien - 1503 Neskoo - Cash Money - 1503 SCH - Loup noir - 1503 TLZ Clan - Skk - 1703 143 - Warning! ft. Nyluu - 1703 7.62 - Mode de vie - 1703 Almas - Toujours plus ft. Fresh LaDouille - 1703 Bekar - Chromé - 1703 Dmh - Quartiers Nord - 1703 Douma - À l'affût - 1703 Gambino - Booska TND - 1703 Gianni - Tout perdre ft. Dadju - 1703 Gims - Pyongyang ft. Inso 1703 Grizzly 942 - Freestyle signature - 1703 Jazzy Bazz, EDGE Esso Luxueux - Non-stop - 1703 MadeInParis - Champagne ft. Captaine Roshi - 1703 Moubarak - On a dit ça ft. Toxic Jah Fullah - 1703 Naps - Sans limites ft. JuL - 1703 So La Lune - Freestyle Theia - 1703 S.Pri Noir - Juicy ft. sean - 1703 Squidji - INSTA - 1703 Zamdane - Affamé 9 - Grrr - 1803 Ashe 22 - X3 ft. Gazo - 1803 DTF - Dans ma fonce - 1803 Kerchak - Demande à biggy 1803 Nyda - VDV - 1803 Sid les 3 éléments - Perquise - 1803 Slkrack - Vittel ft. Junior Bvndo - 1903 4 Sang - TRICERAPTOR - 1903 Atro Boi - Monochrome - 1903 B-NØM - État des lieux - 1903 Dellati - No lie - 1903 Dibson - Différent 1903 Djeiz - Mitch - 1903 Eden Seven - 365 X 0.5 - 1903 Fadah - Autre chose - 1903 Jewel Usain - T'es qu'une merde - 1903 Kalash - Donner - 1903 Kamikaz - Piraterie - 1903 Kurtys - Toi ft. Driks - 1903 La F - En vrai - 1903 L'As - Pull up - 1903 Lascaar - Marabout 2 - 1903 Laws Babyface - Virago - 1903 Liim's - Tokarev - 1903 Lorage - Arcane - 1903 Miklo - Ami Ennemis - 1903 Olazermi - FSR 5 - 1903 SAF - Je t'emmène - 1903 Scylla - Chanson d'amour - 1903 SDM - Van Damme - 1903 Sper-K - Le tour de la zone - 1903 Vendredi 13 - Gang - 1903 Zeu - Lincoln - 2003 LKDM - Golem ft. Lucio Bukowski - 2103 Chinwvr - Imagine un monde - 2103 Lemon Haze - J'encaisse - 2103 Mac Seamus - Halo - 2103 NKP - Ozi 2203 Farsenne - Dans ma tchop - 2303 Kodes - Avoir Être - 2303 Niaks - Gog Magog - 2403 404Billy - 22 Oligarchie - 2403 Gips - L'avocat - 2403 ICO - Señorita ft. Just Riadh - 2403 Madrane - Killer ft. Brulux - 2403 MV - Bass Music ft. Slimka - 2403 Pollux - Paramètres - 2403 S.Téban - Audemars - 2403 Tovaritch - Street Fight ft. Kalash Criminel - 2403 Youssoupha - Booska Prims Carrelage Congolais - 2403 YUNG POOR ALO - Des AR et des rides - 2503 Chanceko - Aquaman - 2503 Deadi - FDP - 2503 Gama Boonta - Mars Madness - 2503 Georgio - Danse 2503 Hache-P - Big billets ft. Chily - 2503 Lucio Bukowski - OUJDAT ft. Nedelko - 2603 1decis - Bitume - 2603 3e Souffle - Shooter - 2603 7.62 - GVNG - 2603 Amar - 3AM - 2603 Amin - Prince de Perse - 2603 Asad - All black ft. 6osy - 2603 Black Jack OBS - Bloots Pt. 1 ft. 2key, Badem, RAS, R.W.O, Shaka Doc OVG - 2603 Boub'z - Rotterdam - 2603 Box - Ma vie - 2603 Caballero - Bethleem - 2603 Davodka - Misanthrope 2603 Hardos - Dans la ville ft. Bakhaw - 2603 Hermano Salvatore - Guérir ft. Vin's - 2603 ISK - Vérité 4 - 2603 Jay Jay - Malewa - 2603 JNR - Les ruelles - 2603 Josué - TMTC - 2603 Jwles - Uzine ft. V900 Mad Rey - 2603 Larry - Booster - 2603 Lpee - Sur la côte ft. Moken - 2603 Maxi Jay - HOLD UP - 2603 Mims - Bingo ft. Todd - 2603 Moha K - Vroum Vroum - 2603 Princesse - Combien de temps 2603 Tissmey - Tripoli - 2603 Unité - Besoin d'aide ft. KaNoé, Shotas, Negrito, Cinco Kazmi - 2703 Carbonne - Ocarina - 2703 Lucio Bukowski - Kiyome No Shio - 2803 Lemon Haze - Quadrillée - 2803 menace Santana - Skiboy - 2803 Nueve Sid - Coffré - 2803 Sid les 3 éléments - Ça débite - 2903 Caballero - Goût du beurre - 2903 La Voix - SAUVE-QUI-PEUT - 2903 M le Maudit - Galliano 3003 Elflaco - À la cité - 3003 Gambino - Wesh wesh - 3003 Guy2Bezbar - Business - 3003 Henri Bleu - Démons et merveilles - 3003 TLZ Clan - Four - 3103 Clacky - Thème - 3103 Goldee Money - Face to Face - 3103 Kaneki - Freestyle Hall 4 - 3103 Kepler - Guedin ft. Leto Cheu-B - 3103 Kodes - Freestyle Stupid 3103 Ritchy 31 - Tu m'as dit non - 3103 Roms - CRS - 3103 Sasso - Napoli - 3103 Soso Maness - Zumba Cafew - 3103 S.Pri Noir - Hacienda - 3103 Thabiti - Booska Comorien-Corse - 3103 Zamdane - Affamé 10 - Athéna Avril - 0104 1PLIKÉ140 - BELEK - 0104 AnNie .Adda - RAZZIA ft. PR - 0104 Balafré - Guernica - 0104 Bando - Wesh gros Remix ft. TK, ZeGuerre, Kepler Gueule d'Ange - 0104 Chanceko - Skrt Skrt - 0104 Dala - Démons - 0104 Jwles - Grand 3 Freestyle ft. Le Lij Bob Marlich - 0104 Malo - Khabib - 0104 RK - Dangerous - 0104 Roro la Meute - J'me barre - 0104 Slim Lessio - La vie - 0104 Vin's - J'rappe - 0204 7 Jaws - Tchilili - 0204 Black M - N.S.E.G - 0204 B-NØM - Paradise Freestyle - 0204 Butter Bullets - Miles Davis - 0204 Dabs - Comme Jeff - 0204 Denzo - On smoke ft. Mig - 0204 Dina - Unfollow - 0204 HV Manyy - Cash - 0204 Jayden - FLAMME - 0204 Keny Arkana - Anomalie Avant lexode 4 - 0204 KT Gorique - Long Time - 0204 La Famax - Faut du yellow - 0204 La Fouine - Sacoche - 0204 La Miellerie - Gimmick ft. ISHA Nixon - 0204 Loveni - Personne - 0204 Lucio Bukowski - CHEH ! - 0204 Marty de Lutece - Mal au cur - 0204 Moha MMZ- Mode - 0204 R.E.D.K. - Simple Constat 7 - 0204 Rousnam - Correction 7 - 0204 SLK - Que du benef ft. Sifax - 0204 Smeels - Bleu ciel - 0204 S-Pion - Bye bye ft. Dinor Rdt - 0204 Ysos - Pas le peine ft. Youv Dee - 0404 JMK - No Kap Freestyle 2 0404 Lemon Haze - Branché - 0404 Mapess - Fleury - 0404 Sadek - Scottie Pippen - 0504 Gims - GJS ft. JuL SCH - 0504 Lesram - Wesh Enfoiré 1 - 0504 Tisco - Dans la sauce 2 ft. Madrane Yoro - 0504 Winterfell - SARKOZY ft. Kepler Leto - 0604 Damso - Javais juste envie décrire. - 0604 Gips - Bichoute - 0604 Guizzi - La fame les sous - 0604 Lucio Bukowski - THE WIRE - 0604 Niska - Bolivienne - 0604 Souffrance - Étoiles filantes - 0704 2zer - ViperGTS - 0704 Alonzo - FREESTYLE MANDAT 0704 Djibz - Kilo - 0704 Elams - Thug life - 0704 Graya - Gang - 0704 Hippocampe Fou - Wiki Freestyle 0704 Laro - Captain - 0704 Leo Roi - Instagram - 0704 menace Santana - Michael Myers 0704 Rousnam - Ma force - 0704 Sadek - Robuste - 0704 Sid les 3 éléments - La vie de rêve - 0704 Tiitof - Bad Boy 0704 VV - Orlinski - 0704 YL - Larlar 5 Yamine - 0704 Yzla - Never - 0804 Ashe 22 - Scellé Part. 3 ft. Freeze Corleone - 0804 Bolémvn - GUCCINIKE SANKHARA 6 - 0804 Cookiesan - Esprit shonen ft. D. Ace - 0804 Di-Meh - 4x4 Diplomatique - 0804 Dosseh - Doaveli 1 - 0804 Dwen - Keta 0804 Grizzly942 - Tayeb Meziani - 0804 Mehdi YZ - Booska FPVS - 0804 Pirate - Street Mood - 0804 SAF - Deal Stream ft. Gambino LaMG - 0804 SDM - Daddy ft. Booba - 0804 Vladimir Cauchemar - BRRR ft. Asdek, Laylow Rim'K 0904 3010 - SYMBOLIQUE - 0904 34murphy - recon1 - 0904 Akhenaton - La faim de leur monde - 0904 Atro Boi - Secrets ft. Timea - 0904 Davinhor - Sugar Daddy - 0904 DJ Flash - Sans limites ft. GLK Mula B - 0904 Dry - Fraté ft. Le A - 0904 Eden Seven - X - 0904 Fababy - Comme les grands ft. Still Fresh - 0904 Gama Boonta - Memphis ft. Dawg Sinatra - 0904 Gen - Blanc des yeux - 0904 Hös Copperfield - Alloco - 0904 ISK - Cités de France ft. Sofiane - 0904 J9ueve - Distanciel 0904 Kader Diaby 4Real - Pish-pish ft. Cinco - 0904 Kamikaze - Abysse 0904 Kozi - Tête brûlée ft. Denzo 0904 K.S.A - Tractions ft. Slimka - 0904 La F - Prix ft. Norsacce - 0904 Liims - Angelo - 0904 JeanJass - Ovni - 0904 Kaza - Bandida - 0904 Le Risque - J'descends - 0904 L'Or du Commun - Négatif 0904 Lpee - Love ft. Chat Noir - 0904 Maj Trafyk - Étoiles filantes - 0904 Mécra - Tom Sawyer - 0904 Miklo - Corleone - 0904 Naza - Ma play ft. Keblack Naps - 0904 OldPee - 123 - 0904 Opinel 21 - Port d'arme - 0904 Pakigo - Seul 0904 Reynz - Bleu Hôtel - 0904 Rocé - Cxpitxlistes - 0904 Shotas - La capuche 7 - 0904 Smily - Amour noir - 0904 Suzuya - Meurs Cupidon, meurs.. - 0904 Taïro - Gamekilla ft. Amø - 0904 thaHomey DirtyIceBoyz - ANOTHER KID - 0904 Verso - Famille ft. 313 - 0904 Yonidas - Instinct - 0904 Zuukou Mayzie - Kevin Mitnick ft. Osirus Jack 1004 LSK - Tonnerre ft. Captaine Roshi CR - 1104 Niaks - Commission rogatoire - 1104 Nyluu - Hellcat ft. Uliss - 1104 S.Pri Noir - Assermenté ft. Mister You - 1104 Zizou - La galère - 1204 JeanJass - GOJJ - 1204 Keehl - Attentat II - 1204 Haristone - Si tu me mens - 1204 H.LA DROGUE - SEKLENLAND 4 1204 Kenem - Views - 1204 Malo - Retrograde - 1204 Seven Binks - Valeurs B - 1204 ZeGuerre - Plus rien à faire en bas - 1304 Jazzy Bazz, EDGE Esso Luxueux - Fascinant - 1304 Kodes - Booska Voyou Freestyle Booska-P - 1404 404Billy - 33 Chargeur vide ft. Frenetik - 1404 Beendo Z - . INSPIRÉ DE FAITS RÉELS 1 - 1404 Doxx - Je sombre - 1404 Gio Dallas - TAPE TAPE - 1404 Hyacinthe - Juice WRLD - 1404 Le Croc - Bleu - 1404 Les Grands Enfants - EMO CITY 1404 Slkrack - Gestion Pt. 2 - 1404 Squidji - OXYGÈNE - 1404 Zamdane - Boosk'Affamé - Photogénique - 1504 47Ter - J'essaie - 1504 Azur - Odyssée - 1504 Chanceko - Bombastic - 1504 Dosseh - La vie d'avant - 1504 Flaco Mundo - 7 - 1504 Ormaz - REFLEXE - 1504 Sto - FEU - 1504 Youena - VISEUR 1604 3010 - PREMIÈRE HEURE - 1604 Baka - Neuf - 1604 Bakari - SoloBinks 1 Détonation - 1604 Don Max - Abysses ft. FullBaz Sheldon - 1604 Fiji God - Boss Final - 1604 Hotel Paradisio - L.A.Z - 1604 Le Sid - Hypnotise - 1604 Med Leska - FRIC - 1604 Moji x Sboy - Medecine - 1604 Negrito - Ou bien ? - 1604 RK - Demain 1604 Roms - Booska Prendre - 1604 Sokuu - Des fois - 1604 Southlove - Air France - 1604 Squadra - Guadalajara - 1604 Svudvde - Corrida - 1604 Tissmey - Petit locksé - 1604 Vadek - Chromée 1604 VVES - Warrior - 1604 Zek - Mystique - 1704 Yanns - Elvira - 1804 Jwles - Pantalon De Ski - 1904 Achim - GDS 10 1904 Ambitiou - Mineur ft. Cinco Dadou - 1904 Rafal - Zone - 2004 Biffty - Démonté comme jamais - 2004 M7S - RATPI2 - 2004 shooda - Tous les soirs - 2104 2zer - Sans demander ft. Framal - 2104 Estaban - Binksky 2 - 2104 Franglish - Caviar Freestyle 2104 H-LO - Viser le mille - 2104 Sirap - Brockboi - 2104 Sirap - Woodstock - 2104 X-Sphère - Fleuve - 2204 Benjamin Epps - Notorious - 2204 Box - Réel - 2204 Deeloc - Murder ft. Cinco - 2204 i300 - Pop Wow - 2204 Gambino - Khamsa - 2204 Georgio - Vers le haut - 2204 Guy2Bezbar - Booska Flingueurs - 2204 Realo - HAZE - 2204 Sally - SHOOT ft. KANIS, Chilla, Joanna, Alicia., Vicky R - 2204 So Clock - Petit nuage - 2204 Swift Guad - Petit monstre - 2304 3010 - PRETTY LADY - 2304 3e Souffle - Mélodie - 2304 Bakari - SoloBinks 2 Pilon - 2304 Butter Bullets - Peu importe 2304 Changerz - Stereo Love - 2304 Dibson - Gasolina - 2304 Frenetik - Ragnarok - 2304 Gen - La vie est belle - 2304 Jewel Usain - Paw Patrol - 2304 Jok'Air - Oh nana ft. Naza - 2304 Kalash - Oula - 2304 Key Largo - Papi - 2304 KT Gorique - Servante Ecarlate - 2304 L'Allemand - À la base - 2304 Projet 1411 - Mon cur dans le tien ft. Yung Dee Lapostroz - 2304 Santa - Face ID ft. J9ueve - 2304 Shien - Bâtiment - 2304 SOPA - Ivresse - 2304 Stanis.Las - Minimum - 2404 Batboy - Buzzy Mama ft. Zther Menavor - 2504 Sreen - Batman - 2604 Klem - LES GENS - 2604 Leith - Lalala - 2604 Sofiane - Zidane - 2704 Bekar - Sécurité - 2704 Klem - Autre monde - 2704 Le7ept - V.V.S - 2804 Balao - Pression - 2804 Giacomo - Fauve - 2804 Klem - Froid - 2804 Koffi Lossa - La coach - 2804 Lesram - Wesh Enfoiré 2 - 2804 Marty de Lutece - Tes yeux - 2804 Mig - Criminel ft. ISK - 2804 M le Maudit - Larmes de diamant - 2804 Realo - BOSS MOOD ft. Khali - 2804 Twenty9 - La suite - 2804 YUNG POOR ALO - NOIR PRADA - 2904 Klem - Avant - 2904 Prime - KELAWIN - 2904 Slimka - Hollywood - 3004 3010 - VOXPOPULI - 3004 Aamar - Paramour - 3004 Atro 90 - Mage enchaîné - 3004 Bakari - SoloBinks 3 Impliqué 3004 Beriz - Cur Pique - 3004 Bramsito - Ciudad - 3004 Daba - Tant de fois - 3004 Eddy Woogy - Écoutons François - 3004 Farlot - Plavon - 3004 Gips - Bourré la gueule 3004 Hös Copperfield - CDQDOP - 3004 i300 - Pop Wow - 3004 Jeune LC - Paris Nord - 3004 Josué - Survis ft. Captaine Roshi - 3004 Joysad - Tous les coups sont permis ft. Sofiane - 3004 JSX - Papel - 3004 Klem - Cauchemar - 3004 La Plaie - Dans la ville - 3004 Lpee - Kanye - 3004 Maka - Noir - 3004 Miklo - Longue vie - 3004 Moona - Validée - 3004 Paco - Petite boule bleue - 3004 Palmae - Blue Velvet - 3004 QCLTUR - QCLTUR ft. Raccoon, Connaisseur Ticaso Barnev - 3004 Shaga - Whisky sans glace - 3004 Soso Maness - DLB 13 - 3004 S.Pri Noir - Savage ft. Goya - 3004 USKY - Satin - 3004 RD 1.9 - Frank Lucas - 3004 Zalmad - Coco Mai - 0105 Klem - Loin - 0105 Souffrance - Racialiste - 0205 Anglade - 3 Filtres - 0205 Klem - Dernière - 0305 Achim - GDS 11 - 0305 Georgio - Booska Sacré - 0305 Mayo - Risques - 0305 Pxrselow - Dis-moi que tu ne m'aimes pas - 0405 Senju - Sabre noir - 0505 404Billy - 44 Oh shit - 0505 BlackTria - Totem - 0505 Georgio - Full moon ft. S.Pri Noir - 0505 Larsé - Flow - 0505 Lazuli - No Me Tocas - 0505 Luv Resval - Boosk'Anakin 0507 Nyda - Lovés ft. KR Malsain - 0605 6rano - C'est chaud Remix ft. Sopico, Limsa, Shut!, Rozoo, Double Zulu, B.e Labeu, Nadji Dinero John Dess - 0605 Captaine Roshi - Momonosuke Freestyle Dragon 1 - 0605 Green Montana - BB part. 3 0605 Junior Bvndo - ZOO 1 Toute la night - 0605 Luni Sacks - Mexique Freestyle - 0605 Sheldon - Monde - 0605 Souffrance - 93ème zone - 0605 Squidji - STRIPPER - 0705 A2H Le Sid - Dreams ft. badchieff - 0705 Arma Jackson - Comme d'habitude - 0705 Black M - À la tienne - 0705 Booba - KAYNA - 0705 Davodka - TVPLM - 0705 Dee Eye - L'italien ft. Caballero JeanJass - 0705 DJ Quick - La recette ft. Leto Bolémvn - 0705 Franglish - Pénélope ft. D-Block Europe Yxng Bane - 0705 Hotel Paradisio - OKKOTO - 0705 Kaeles - Trou Noir - 0705 L'Or du Commun - Sable ft. Lous and the Yakuza - 0705 Lorenzo - Légende vivante - 0705 Luv Resval - MPC, Part II La rivière - 0705 Michel - La sauce - 0705 Ratu - Entretien - 0705 Ratu - Surtaxe - 0705 Roméo Elvis - TPA - 0705 thaHomey DirtyIceBoyz - KARATE KID - 0705 Vadek - No melody - 0805 Gambino - Amnésia - 0905 Atro 90 - Goût des îles - 1005 Di-Meh - Bleu pâle ft. Lefa - 1005 Kounta - Le temps - 1205 Gama Boonta - Colbac - 1205 Hiro - Anéanti - 1205 Hyacinthe - Cur chromé ft. Chanje - 1205 Le Croc - Quartier ft. VillaBanks - 1205 Lujipeka - Putain d'époque ft. S.Pri Noir - 1205 Mac Seamus - COMA - 1205 Yannou JR - J'suis zen - 1205 Zamdane - Affamé 12 - Sentimental - 1305 3010 - BAHOE - 1305 6811 - Mauvais Side ft. Sokuu LAY ZY - 1305 BEN plg - L'eau des mirages - 1305 Chinwvr - C'était mieux après - 1305 Elyon - Le noir du coeur - Flux 4 - 1305 Freeze Corleone - Polémique ft. Central Cee - 1305 Guizzi - Soirée - 1305 menace Santana - Freestyle Covid 19 - 1305 Retro X - XDIG8 - 1305 Tisco - Lakers - 1305 Tovaritch - Vodka - 1405 Bambino47 - 147 - 1405 BGL - Qui - 1405 Butter Bullets - Mercedes rose ft. Limsa d'Aulnay - 1405 Dabs - Belle Audi - 1405 DA Uzi - Fermez-la - 1405 Denzo - Trop dedans ft. Koba LaD - 1405 Doria - Plus personne - 1405 Fiji God - Kkvsh - 1405 Guy2Bezbar - La Calle 4 Favelas de Paname ft. Leto - 1405 HD La Relève - Mamma mia - 1405 H Magnum - ÉcolO.G - 1405 Jamaz - Aisance - 1405 Khali - LA TOILE - 1405 Kingzer - Ouh ft. Lirickal - 1405 KT Gorique - Djessimi Djeka - 1405 L'Algérino - Sapapaya ft. JuL SCH - 1405 Larry - Sirène - 1405 Mécra - Principes et valeurs - 1405 Popey - Freestyle Anonymat - 1405 Prototype - Mundo ft. Cinco - 1405 Sam's - Pour quelques dollars de plus - 1405 Sasso - J'en veux encore - 1405 Sofiane - Attrape-moi si tu peux - 1405 Sten - J'comprends pas - 1405 Still Fresh - POR FAVOR - 1405 Sysa - Cest nous la cité 5 1405 Taïpan - Blue ft. Edsun - 1405 TRZ - Sinister - 1405 Yara - Plan B - 1405 YG Pablo - Ellipse, Pt. 1 - 1605 667 - 669 Part. 2 ft. Lyonzon - 1605 Dribo - Instable - 1605 Henri Bleu - Nuage Rose - 1605 Kima - 17 ft. Kalash - 1605 Malo - 20 1605 Tedax Max - Vite fait 5 ft. Brazzerzaky - 1705 Benzizou - SCAR - 1705 Klem - Souvenirs - 1705 Kounta - Le manque - 1805 Ashe 22 - Bicrav bitch - 1805 Freeze Corleone - Téléphone - 1805 Paco - Corps âme - 1805 USKY - Sextasy 1905 Gips - Henini ft. Thabiti - 1905 Klem - Mortel - 1905 M le Maudit - Khedira - 1905 OBOY - No blata - 1905 Pollux - SHINE - 1905 Sofiane - Windsor 1905 S.Téban - Palénoms - 1905 Wallace Cleaver - 39C - 1905 Ziak - Galerie - 2005 Bekar - 6 Hours - 2005 Bolémvn - DM ft. Dinos - 2005 Gambino - Voyou - 2005 Junior Bvndo - ZOO 2 On a faim - 2005 La F - Que d'la mula - 2005 Nyluu - Home - 2005 Sid les 3 élements - Homicide 1 Tous les jours - 2005 Souffrance - Simba - 2105 7.62 - K-WAY - 2105 Alkpote - Crânes Ossements ft. Diddi Trix, Nahir, Ouss Wayne 88Kvly - 2105 Chuki Beats - Couvre feu ft. Frenetik, Geeeko YG Pablo 2105 Cinco - DD 2105 Earvinho - Sarah Fraisou - 2105 Felipe - PTN - 2105 Franglish - Baby mama - 2105 Gianni - Calmant - 2105 Gotti Maras - Nous - 2105 JMK - MRS ft. Zamdane - 2105 JuL - Irréversible - 2105 Keny Arkana - Parole Vraie Projecteurs Avant lexode 5 - 2105 Kikimoteleba - Tigini - 2105 Le A - La foudre - 2105 Leonis - Banlieue sud-est Sherhood 1 - 2105 Livaï - Soleil transparent - 2105 Loveni - Lipgloss ft. MV - 2105 Lyonzon - Gang Gang 2105 Mac Tyer - Binks ft. Rémy, 2G Ikyass - 2105 Moha MMZ - Pourri dans l'âme - 2105 Moji x Sboy - Chimique ft. Luv Resval - 2105 Noname - MDB - 2105 Sokuu - Une place pour toi - 2105 SOPA - N l'amour - 2105 Soso Maness - Les derniers marioles ft. SCH - 2105 Soumeya - Mon instinct - 2105 Todiefor - Fuck les cops ft. Meryl - 2105 Verso - Amigo Amiga - 2105 Zeu - 1UP - 2305 Hipo - Rupture - 2405 Kounta - L'argent - 2506 Klem - Vide - 2506 Sokuu - Monte dans la gov - 2605 Balafré - Gang 2 - 2605 Deeloc - Deuxième sommation - 2605 DJ Weedim - Lifestyle ft. Swift Guad, Oxmo Puccino, Youthstar, Youri Deadi - 2605 eden dillinger - ALLO - 2605 Hache-P - On va les dja - 2605 Jayel - Easy - 2605 Koffi Lossa - Bobby - 2605 Nemir - Vibes - 2605 Rounhaa - Dubaï - 2605 Sirap - Ah bon - 2605 Zidi - Pleine danse - 2705 Brav - Merci 2705 Doni M - Destinée - 2705 Green Montana - Évidemment ft. SDM - 2705 Les Grands Enfants - PEGASE - 2705 Lost - Dollars canadiens - 2705 Hyacinthe - À demain peut-être - 2705 Luni - Asocial. - 2705 M7S - RATPI3 - 2705 MHD - Afro Trap Part. 11 King Kong - 2705 Nero Dee - Khaleesi - 2705 Pirate - Popo - 2705 RK - Menotté ft. Landy - 2705 Sid les 3 éléments - Homicide 2 Porte 18 - 2705 Tedax Max - J'te jure - 2705 Tiakola - Pousse-toi - 2805 1PLIKÉ140 - COCHI - 2805 Anas - Hania - 2805 Booba - Plaza Athénée - 2805 DIL - Vin Diesel - 2805 Dina - Comme dans les films ft. Uzi - 2805 DJ Kayz - Bled ft. Moha K - 2805 Dr. Yaro La Folie - CDVV ft. Naza - 2805 Eline - Acolyte - 2805 Enfantdepauvres - EDP - 2805 Heuss L'enfoiré - BX Land 6 - 2805 Jewel Usain - Ça va rentrer ft. Ysos - 2805 JS - Pas de love - 2805 KeBlack - Billets mauves - 2805 Kepler - Bad Bitch - 2805 Malty2BZ - Drill 4 - 2805 Mig - La 6T - 2805 R.E.D.K. - S.O.M - 2805 Rvzmo - JB ft. ML270 - 2805 Shotas - La capuche 8 - 2805 S.Pri Noir - Sarah Co</t>
+          <t>- On y va un, deux, trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Non Yahourt - Chorale des Orphelins à la Langue Coupée - Stop ! On ne comprend rien. Vous en êtes conscients quand même ? Allez, on recommence Et un, et deux, et trois, et quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Nan ! Yahourt - Chorale des Orphelins à la Langue Coupée - Nan, nan et nan ! On reprend. On se concentre. On est mignons Et surtout, on ar-ti-cule ! Trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Bon, c'est pas la peine. On va annuler le... le spectacle On va juste vous vendre à la foire et puis c'est tout, voilà. C'est comme ça Orphelin à la langue coupé qui se plaint - Quoi !? Orphelin à la langue coupé qui répète - C'est ça, ouais Allez, dégagez Retournez tous dans la crypte On vous apportera un verre d'eau la semaine prochaine</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cheeba Garden</t>
+          <t>Clash</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED À poils ou à plumes, tu caches ton âme d'animal Assume, ton taf te fâche, t'amasses les crasses D'un tas de rapaces qui brassent des liasses, te crachent À la face, la rage t'enlace, regarde la lune Sois pas docile, profite des possibilités illimitées Qui se profilent si t'es obstiné Tu n'es pas obligé d'être un godemichet pour ton trop p'tit chef Donc peaufine ta rhétorique au piquet vice ou des barbares Évite la bagarre, donne pas la patte ou tu finis vite à labattoir Grand tartare sur de grandes tartines Ne t'enflamme pas, avale l'Antarctique Fraîcheur sauvage, l'orage t'effleure La laideur te fait peur ou t'écure, dommage Écoutez les Puppets et Hippo Loquito C'est meilleur que tes nuggets qui crient Cocorico TO BE RETRANSCRIBED</t>
+          <t>Tu veux voir c'que fait Hippo sans sa Secte de guignols ? Alors tape sur Google Wack MC plus Gogole Style automatique et blagues où personne rigole Quand j'écoute Vidéo Rap, mes oreilles crient Au viol ! Bon, j'sais pas comment t'le dire, ça risque d'être un peu sec, check Mets pas ça sur l'net, t'aurais même pas du appuyer sur Rec Dès qu'j'ai vu ta vielle tête, j'me suis dit C'est quoi c'tocard? Dans les rayons du Monop' à secouer des 'teilles d'Coca ? Mais c'est du rap gole-ri', du slam novateur Tu comptais finir au vingt heure, mais t'as moins d'le-sty' qu'une carotte vapeur Bref, t'es dans l'zef, donc laisse le mic' en mode veille Dès qu'j'pars au taf, j'te laisse danser l'slow avec la vieille Après le black Jacques Brel et l'MC Jean Gab1 Faites place à Hippocampe, le Jean Roucas urbain L'MC super technique qui débite vite des rimes superflues Deux mesures de trop et ce barbu finit sous perfu' Eh merde, rev'là c'quasi- trentenaire qui s'prend pour un rappeur H-I-2-P-O dopé à l'E.P.O. dans des clips amateurs Ah ouais, tu kiffes ? Pff... Laisse tomber Vidéo Rap j'té-ma' ça que quand j'ai grillé mon dernier plan B Yo, Hippo, dans ton XXX, qu'est-ce qui s'manigance ? T'aimes bien les petits vieux ? Les vidéos où mamie danse avec l'ermite à l'air miteux ? T'es hypocrite avec ton pote Régis, qu'est-ce qu'il est con c'type là J'suis pas hypocondriaque, mais il me constipe, là Faut qu't'hypothèques, mec, chez toi, y'a un lama, un panda et même un hippopotame Parce que t'as peur des visiteurs et t'as trop d'fans ou qu'tu préfères les animaux aux femmes T'es hypoglycémique, mon gars, c'est pas l'cas d'Nico K Mon flow sale t'éclabousse sans Mentos ni Coca T'as la voix de R2D2 et des gros yeux de dorade T'as pas d'ami, des textes creux, un jeu d'acteur déplorable T'es pas marrant, tu brasses du vent, mais tu crées pas des tornades Te taire à vie serait une thérapie bien plus raisonnable Ta web-série, c'est d'la daube avec des thèmes plutôt com' Ouais c'est du rap pour ado et pour les meufs plutôt connes T'aimes les lamas, les trampolines, j't'avoue qu'j'vois pas l'rapport Ça s'appelle Vidéo Rap, j't'avoue qu'j'vois pas d'rappeur Sur internet, les mythos flambent en s'croyant innovants Flows virevoltants, styles mordants, mais pas d'formation diplômante Qu'des tire-au-flancs qui s'la ramènent fontaine des innocents Normal que l'hip-hop tente ces ignorants sans objectif probant Tu fais dans l'gratuit alors qu'partout les prix augmentent C'est marrant sur les bords mais, moi, j't'avoue, j'vise pile au centre Que faut-il comprendre ? Bin qu'Hippocampe s'est pris trop d'rampes Et qu'du coup il nous invite pour qu'on lui offre son premier pic d'audiences Faire une vidéo rap est une idée au rabais Stupide mais on n'appelle pas ça une surprise si j'dis qu'ça fait d'la peine Hippo, ton flow s'enlise et ta matière grise est à la traîne Tu fais ta crise de la vingtaine, ton rap pue de la première prise à la centième Tu nous les brises à l'instant même, surtout quand tu crois qu'tu maîtrises Et nous méprises en nous demandant est-ce qu'on aime toutes tes bêtises Donc, ladies and gentlemen, j'vous présente Hippo Le bel et tout nouvel artiste de la bêtise humaine La version vilaine de Christophe Willem En plus, il est fan de cyclisme, alors bon... Ah ouais ? Ok, c'est pas grave Moi, les gars, j'réponds, là Oh ! Ecoutez tous ! Oh ? Eh ! Eh, les gars ? Les gars, oh ? S'fout d'ma gueule ou quoi ? Oh ! Vas-y, c'est pas grave, j'la fais, j'la fais, j'la fais J'réponds Tu voulais tester Hippo, mais tu peux pas, garçon, parce que... Oh ! Mais qu'est-ce tu fais ? Rallume la caméra ! Mais j'leur réponds, c'est normal, laisse ! On fait l'plan3</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chorale des Orphelins à la Langue Coupée</t>
+          <t>Clash d’attente : Hippocampe Fou vs. Cocci Killer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>- On y va un, deux, trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Non Yahourt - Chorale des Orphelins à la Langue Coupée - Stop ! On ne comprend rien. Vous en êtes conscients quand même ? Allez, on recommence Et un, et deux, et trois, et quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Nan ! Yahourt - Chorale des Orphelins à la Langue Coupée - Nan, nan et nan ! On reprend. On se concentre. On est mignons Et surtout, on ar-ti-cule ! Trois, quatre Yahourt - Chorale des Orphelins à la Langue Coupée - Bon, c'est pas la peine. On va annuler le... le spectacle On va juste vous vendre à la foire et puis c'est tout, voilà. C'est comme ça Orphelin à la langue coupé qui se plaint - Quoi !? Orphelin à la langue coupé qui répète - C'est ça, ouais Allez, dégagez Retournez tous dans la crypte On vous apportera un verre d'eau la semaine prochaine</t>
+          <t>- Yo, yo, yo ! Bienvenue à l'aquabattle ! - Ah non, Clash d'attente... - Clash d'attente ! Des MC qui vont s'clasher a cappella ! Moi-même présentateur Goomar, aka Jambon Hygiénique, aka Méchant Cochon, aka Pierre Palmé, aka Jacquie Michel ! Tout de suite présentation des MC ! MC à ma gauche, introduis-toi ! - Hippocampe Fou, rappeur aquatique... - Non, euh, par contre, il faut qu't'enlèves ton bonnet - Bah non, parce que c'est... - Bin, accessoires pas autorisés - Ouais, mais c'est... - Ouais, bin non, bin non, c'est comme ça, désolé - Hippocampe Fou, rappeurs aquatique, Triangle des Bermudes J'suis venu pour réconforter la petite victime en rouge et noir - Wouh ! MC à ma droite, introduis-toi ! - Cocci Killer ! J'suis venu pour bouffer c'puceron Qu'a pas les couilles de faire les RC, dis-leur ! - Ok, faites du bruit ! ... Ok ! Pour savoir quel MC commence, c'est l'moment du coin toast Hippo' confiture ou pain ? - Confiture - Confiture. Hippo' tu commences ? Tu termines ? - Honneur au cafard - Wouh ! Fou battle ! Paw, paw ! Ton humour a la gangrène faut t'amputer Tu rigoles à tes propres blagues, comme Laurent Ruquier Ton album tout l'monde s'en fout, autant l'brûler Voici une poche d'acide sulfurique pour te transfuser Arrête de t'branler dans tes freestyle, j'aime pas l'égotrip Tu fais des faciales à tes spermatozoïdes Mais, toi et tes acolytes, vous sentez la verveine Et la cyprine de te grand-mère dont j'ai tranché la tête frêle Aïe ! Tu t'ronges les phalanges, prends donc des vacances Ou tu vas mourir sur scène pendant les balances Victime ! Faut qu'tu t'surpasses, gars, tu fais du surplace Ton rap aquatique reste en surface Time ! Hippo' la réponse ! Bon, normalement, j'aime pas faire mal aux animaux, mais... Ferme ta gueule ! Ok... T'as voulu m'défier ? Avoue qu'c'est risqué T'as besoin que ma main te remplisse pour exister T'es très aigri, voire dépressif, je t'ai illé-gri' J'avoue qu'ton texte était exquis, tu criais quand je l'ai écrit T'es ni Kermit, ni guignol, ni un martyr, ni une idole T'es juste une coccinelle ignoble, et, moi, ton proxénète ivrogne Nul ! Dans l'magasin d'jouets, j't'ai pris car tu m'faisais d'la peine Et qu't'étais en promo, alors arrête de faire ta belle Car t'as une forte odeur de pieds d'globe-trotters J'préfère caresser un chat noir sous une échelle plutôt qu'tu m'portes bonheur En ce moment, mon album mijote dans la Grande Ours Pendant qu'tu moisis dans mon petit coffre à pantoufles Time !</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Clash</t>
+          <t>Cligne des yeux</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Tu veux voir c'que fait Hippo sans sa Secte de guignols ? Alors tape sur Google Wack MC plus Gogole Style automatique et blagues où personne rigole Quand j'écoute Vidéo Rap, mes oreilles crient Au viol ! Bon, j'sais pas comment t'le dire, ça risque d'être un peu sec, check Mets pas ça sur l'net, t'aurais même pas du appuyer sur Rec Dès qu'j'ai vu ta vielle tête, j'me suis dit C'est quoi c'tocard? Dans les rayons du Monop' à secouer des 'teilles d'Coca ? Mais c'est du rap gole-ri', du slam novateur Tu comptais finir au vingt heure, mais t'as moins d'le-sty' qu'une carotte vapeur Bref, t'es dans l'zef, donc laisse le mic' en mode veille Dès qu'j'pars au taf, j'te laisse danser l'slow avec la vieille Après le black Jacques Brel et l'MC Jean Gab1 Faites place à Hippocampe, le Jean Roucas urbain L'MC super technique qui débite vite des rimes superflues Deux mesures de trop et ce barbu finit sous perfu' Eh merde, rev'là c'quasi- trentenaire qui s'prend pour un rappeur H-I-2-P-O dopé à l'E.P.O. dans des clips amateurs Ah ouais, tu kiffes ? Pff... Laisse tomber Vidéo Rap j'té-ma' ça que quand j'ai grillé mon dernier plan B Yo, Hippo, dans ton XXX, qu'est-ce qui s'manigance ? T'aimes bien les petits vieux ? Les vidéos où mamie danse avec l'ermite à l'air miteux ? T'es hypocrite avec ton pote Régis, qu'est-ce qu'il est con c'type là J'suis pas hypocondriaque, mais il me constipe, là Faut qu't'hypothèques, mec, chez toi, y'a un lama, un panda et même un hippopotame Parce que t'as peur des visiteurs et t'as trop d'fans ou qu'tu préfères les animaux aux femmes T'es hypoglycémique, mon gars, c'est pas l'cas d'Nico K Mon flow sale t'éclabousse sans Mentos ni Coca T'as la voix de R2D2 et des gros yeux de dorade T'as pas d'ami, des textes creux, un jeu d'acteur déplorable T'es pas marrant, tu brasses du vent, mais tu crées pas des tornades Te taire à vie serait une thérapie bien plus raisonnable Ta web-série, c'est d'la daube avec des thèmes plutôt com' Ouais c'est du rap pour ado et pour les meufs plutôt connes T'aimes les lamas, les trampolines, j't'avoue qu'j'vois pas l'rapport Ça s'appelle Vidéo Rap, j't'avoue qu'j'vois pas d'rappeur Sur internet, les mythos flambent en s'croyant innovants Flows virevoltants, styles mordants, mais pas d'formation diplômante Qu'des tire-au-flancs qui s'la ramènent fontaine des innocents Normal que l'hip-hop tente ces ignorants sans objectif probant Tu fais dans l'gratuit alors qu'partout les prix augmentent C'est marrant sur les bords mais, moi, j't'avoue, j'vise pile au centre Que faut-il comprendre ? Bin qu'Hippocampe s'est pris trop d'rampes Et qu'du coup il nous invite pour qu'on lui offre son premier pic d'audiences Faire une vidéo rap est une idée au rabais Stupide mais on n'appelle pas ça une surprise si j'dis qu'ça fait d'la peine Hippo, ton flow s'enlise et ta matière grise est à la traîne Tu fais ta crise de la vingtaine, ton rap pue de la première prise à la centième Tu nous les brises à l'instant même, surtout quand tu crois qu'tu maîtrises Et nous méprises en nous demandant est-ce qu'on aime toutes tes bêtises Donc, ladies and gentlemen, j'vous présente Hippo Le bel et tout nouvel artiste de la bêtise humaine La version vilaine de Christophe Willem En plus, il est fan de cyclisme, alors bon... Ah ouais ? Ok, c'est pas grave Moi, les gars, j'réponds, là Oh ! Ecoutez tous ! Oh ? Eh ! Eh, les gars ? Les gars, oh ? S'fout d'ma gueule ou quoi ? Oh ! Vas-y, c'est pas grave, j'la fais, j'la fais, j'la fais J'réponds Tu voulais tester Hippo, mais tu peux pas, garçon, parce que... Oh ! Mais qu'est-ce tu fais ? Rallume la caméra ! Mais j'leur réponds, c'est normal, laisse ! On fait l'plan3</t>
+          <t>Ce son tue, c'est un tube de dentifrice aux ordures Radioactives, ton troisième pied s'active et bat la mesure C'est une morsure de cobra, une torture Une carcasse aux gros bras dans une carapace en or pur Ce son plutôt lent est purulent Plus collant que le sperme de Spiderman sur son collant Plus affolant qu'un aveugle au volant, qu'un cuistot sans langue Plus éternel que l'Empire Ottoman Plus muet que le cadavre d'une carpe sur la tombe du Mime Marceau Rares sont ceux qui l'écoutent Plus rouge que le nez d'un clown saoul Après avoir bu tout le sang d'une fourmi communiste Ce son arrive de l'au-delà avec une cape, un anorak et une parka Lappe-le comme l'eau d'un lac en Alaska Kiffe ce son comme un coup de gong qui déclenche le combat Entre ta mère le sumo et ton ex Queen Kong Ce son est inclassable, insondable, invendable Diablement vandale, incontestablement indémodable Ce son s'écoute sans cartable, se chante à table Se danse en crabe sur le sable et s'enterre à la cave x2 Si tu apprécies ce son cligne des yeux Jusqu'à c'que cela devienne un tic nerveux Oui, ce son, c'est un signe des dieux Qui fait pousser sur ton visage un ou deux kystes hideux Ce son polisson, c'est pour Bowser sur son kart en pôle position Pour les maçons qui bâtissent des escaliers en colimaçon Pour les algues, les poissons qui trouvent l'âme sur au bout d'un hameçon Pour les moribonds, les nourrissons, les filles en slip ou caleçon Pour les instit' de CP analphabètes et dissipés Pour les dentistes édentés, pour ma planète au crétacé Pour les types minces, évincés du bal des cétacés Pour ceux qui s'endorment aux WC après avoir régurgité Pour ce fantôme opaque aux omoplates saillantes Qui marche drap dans la patte avec des blattes vaillantes Ce son, c'est comme une blague marrante Ça fait sourire les impatients même dans les salles d'attente C'est pour les pakis portant des kippas qui vendent du poulet tikka Casher, pas cher dans tous les tier-quar de ris-Pa C'est pour les nuls, pour ceux qui portent des gilets par balles En papier bulle ou des protège-tibia en tulle C'est pour les batraciens martiens qui squattent les bars terriens Les pharmaciens qui crèchent dans des nids bactériens Les fantassins, les marcassins dans les bacs à sable Les nains sur des échasses incassables dans le grand bassin C'est pour tous mes fans qui m'envoient des photos de leur crâne C'est pour les chibres d'âne dissimulés dans quelques cheese nan Pour les chips et les légumes et pour les eunuques polygames Et ça se fume, c'est une substances illicite, ce son excite l'âme x4 Squid à la prod Ce son tue, c'est un tube</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Clash d’attente : Hippocampe Fou vs. Cocci Killer</t>
+          <t>Confessions intimes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>- Yo, yo, yo ! Bienvenue à l'aquabattle ! - Ah non, Clash d'attente... - Clash d'attente ! Des MC qui vont s'clasher a cappella ! Moi-même présentateur Goomar, aka Jambon Hygiénique, aka Méchant Cochon, aka Pierre Palmé, aka Jacquie Michel ! Tout de suite présentation des MC ! MC à ma gauche, introduis-toi ! - Hippocampe Fou, rappeur aquatique... - Non, euh, par contre, il faut qu't'enlèves ton bonnet - Bah non, parce que c'est... - Bin, accessoires pas autorisés - Ouais, mais c'est... - Ouais, bin non, bin non, c'est comme ça, désolé - Hippocampe Fou, rappeurs aquatique, Triangle des Bermudes J'suis venu pour réconforter la petite victime en rouge et noir - Wouh ! MC à ma droite, introduis-toi ! - Cocci Killer ! J'suis venu pour bouffer c'puceron Qu'a pas les couilles de faire les RC, dis-leur ! - Ok, faites du bruit ! ... Ok ! Pour savoir quel MC commence, c'est l'moment du coin toast Hippo' confiture ou pain ? - Confiture - Confiture. Hippo' tu commences ? Tu termines ? - Honneur au cafard - Wouh ! Fou battle ! Paw, paw ! Ton humour a la gangrène faut t'amputer Tu rigoles à tes propres blagues, comme Laurent Ruquier Ton album tout l'monde s'en fout, autant l'brûler Voici une poche d'acide sulfurique pour te transfuser Arrête de t'branler dans tes freestyle, j'aime pas l'égotrip Tu fais des faciales à tes spermatozoïdes Mais, toi et tes acolytes, vous sentez la verveine Et la cyprine de te grand-mère dont j'ai tranché la tête frêle Aïe ! Tu t'ronges les phalanges, prends donc des vacances Ou tu vas mourir sur scène pendant les balances Victime ! Faut qu'tu t'surpasses, gars, tu fais du surplace Ton rap aquatique reste en surface Time ! Hippo' la réponse ! Bon, normalement, j'aime pas faire mal aux animaux, mais... Ferme ta gueule ! Ok... T'as voulu m'défier ? Avoue qu'c'est risqué T'as besoin que ma main te remplisse pour exister T'es très aigri, voire dépressif, je t'ai illé-gri' J'avoue qu'ton texte était exquis, tu criais quand je l'ai écrit T'es ni Kermit, ni guignol, ni un martyr, ni une idole T'es juste une coccinelle ignoble, et, moi, ton proxénète ivrogne Nul ! Dans l'magasin d'jouets, j't'ai pris car tu m'faisais d'la peine Et qu't'étais en promo, alors arrête de faire ta belle Car t'as une forte odeur de pieds d'globe-trotters J'préfère caresser un chat noir sous une échelle plutôt qu'tu m'portes bonheur En ce moment, mon album mijote dans la Grande Ours Pendant qu'tu moisis dans mon petit coffre à pantoufles Time !</t>
+          <t>T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Ton idole est né enterré sous une île dorée enneigée En été, encerclé, en effet, j'ai tenté d'éventrer Des peoples et des gens fermés, j'ai mis des idylles dans les gènes D'entêtés emmerdeurs, et sans peine, semé des enquêteurs J'ai dribblé Pelé, j'écris des mes-ri' tes-bê' Qui méritent des dix sur dix et des T.B. J'pétille comme du Perrier, maîtrise comme un guerrier Ce texte est une BD qui vexe, oui, t'es gêné Car je sais épeler anti-constitutionnellement Et je vais gueuler cent dictons qui tuent sombre et dément Qui vont déplumer cent pigeons qui puent, si tu continues À m'écouter vraiment, tu vas dégueuler, mon grand Cours acheter mon CD, je le vends au sommet du Mont-Blanc C'est un bon plan, et pour les quelques chanceux comme Gontran J'offre la possibilité d'entrevoir mon gland De boire mon sang tonifiant comme du Guronsan Yo, puisqu'on comptait larguer les bombes et narguer le con d'énarque Inonder le marché d'ondes et marquer le monde, élaguer le tronc de l'arbre On va l'faire de suite en dégoupillant nos grenades Apprécie c'que ma langue relate, entre ici, dans mon engrenage L'encre est précise, nage entre les récifs, en creux de pages Entre le ton agressif, lengueulade et l'discours paisible voici l'excellent breuvage Le dosage des îles, de West Indies à vos plages, avantage à mon langage des signes T.I.S J'rappe avec les mains, mais c'est bien toi que j'désigne Quand j'parle d'MC wacks, t'es rien qu'un produit qu'on dit bactérien Qu'on jetterait bien dans l'bac à lessive pour la plupart des tiens Au quotidien, t'es l'gars qu'on esquive, t'as pas pu garder l'lien Le hip-hop, c'est J'te soutiens, mon pote, mais j'te regarde de loin À part si tu signes, moi, j'hallucine, on n'voit que par les biens Les signes extérieurs de réussite la monnaie part et vient Mon compte est plein d'zéros à la suite, mais juste devant y'a rien T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Mes trouvailles défouraillent, t'es tout pâle, t'aimes ou pas C'est trouble et ça dégoûte, ça déroute, écoute ça Double penne 3 fromages ou tatouage au henné Pépé kéké à Dubaï, obsédé par un bébé samouraï L'utopiste plus toxique qu'une morille crue, sautille Sans choriste, mes mots brillent et éblouissent les novices J'suis tellement franc qu'on pourrait m'appeler Clovis J'lâche des hectolitres de semences, fais les gros titres Ego-trip méthodique, érotique, très tonique mais logique Mes sottises théoriques démolissent restau' chics et trop lisses Mes low-kick héroïques terrorisent les gothiques nécrophiles Rhétorique, mélodique, j'dégobille des motifs exotiques Des gorilles névrotiques égoïstes, des gauchistes herboristes Les Gaullistes despotiques s'égosillent tel Onyx, M.O.P J'mémorise les codes PIN dÉloïse, Véronique et Moïse Néophyte, j'éradique les otites et ravive les ordi' T.I.S, c'est le Papa Shango d'un rap jazzy comme Django Choisit le cash sans tango, et même la Mai Li sans Tong Po Manie la rime en tant qu'pro, m'aligne, fait gaffe au flow Quand il arrive aux thèmes bateaux, quand il arrive droit sur le tempo J'vais canarder ton rap de caille avec des billes de paintball T'auras ma trace couleur madras en pleine paume, débordante sur ton épaule T'es juste une cible immanquable comme une finale de Superbowl Un MC aussi lamentable qu'hyper-drôle Yo, les MC hibernent et se perdent dans des cyber-rôles De merde pour que six nerds hallucinent sur leur medecine herbal Et des gangsters tall qui sortent les holsters tôt Si tu veux des clichés austères, demande-moi et j't'en sers d'autres En c'qui m'concerne, j'utilise plus souvent mon cerveau Ainsi qu'un flow sans air faux, en un seul mot sincère go Mon hip-hop te fait faire le hoolahoop sans cerceau Le alley oop sans arceau, la boum sans Sophie Marceau - J'ai bien kiffé la petite référence à Sophie Marceau - Ouais ? Bah toujours... Sophie Marceau, c'est quand même l'actrice la plus hip-hop de France, quoi - Bah, moi, au début, j'préférais Adjani, tu vois ? - Ouais - J'trouvais qu'elle était... - Ouais... - Elle avait des trucs et tout quand même ! - En '88, ouais, avec son pull marine, là... elle donnait à mort - Ouais... Non, mais même dans Subway, t'sais, elle avait une coupe un peu punk et tout... - Ouais, j'avoue, elle donnait dur, là, quand même - Et, entre punk et hip-hop, finalement, bin y'a pas... - Ouais, c'est vrai - Y'a pas un si grand fosée, quoi - Ouais, non, c'est pareil - Bon... - Bon, bin voilà ! - Ouais... J'vais aller chier - Ouais.</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cligne des yeux</t>
+          <t>Confiné</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ce son tue, c'est un tube de dentifrice aux ordures Radioactives, ton troisième pied s'active et bat la mesure C'est une morsure de cobra, une torture Une carcasse aux gros bras dans une carapace en or pur Ce son plutôt lent est purulent Plus collant que le sperme de Spiderman sur son collant Plus affolant qu'un aveugle au volant, qu'un cuistot sans langue Plus éternel que l'Empire Ottoman Plus muet que le cadavre d'une carpe sur la tombe du Mime Marceau Rares sont ceux qui l'écoutent Plus rouge que le nez d'un clown saoul Après avoir bu tout le sang d'une fourmi communiste Ce son arrive de l'au-delà avec une cape, un anorak et une parka Lappe-le comme l'eau d'un lac en Alaska Kiffe ce son comme un coup de gong qui déclenche le combat Entre ta mère le sumo et ton ex Queen Kong Ce son est inclassable, insondable, invendable Diablement vandale, incontestablement indémodable Ce son s'écoute sans cartable, se chante à table Se danse en crabe sur le sable et s'enterre à la cave x2 Si tu apprécies ce son cligne des yeux Jusqu'à c'que cela devienne un tic nerveux Oui, ce son, c'est un signe des dieux Qui fait pousser sur ton visage un ou deux kystes hideux Ce son polisson, c'est pour Bowser sur son kart en pôle position Pour les maçons qui bâtissent des escaliers en colimaçon Pour les algues, les poissons qui trouvent l'âme sur au bout d'un hameçon Pour les moribonds, les nourrissons, les filles en slip ou caleçon Pour les instit' de CP analphabètes et dissipés Pour les dentistes édentés, pour ma planète au crétacé Pour les types minces, évincés du bal des cétacés Pour ceux qui s'endorment aux WC après avoir régurgité Pour ce fantôme opaque aux omoplates saillantes Qui marche drap dans la patte avec des blattes vaillantes Ce son, c'est comme une blague marrante Ça fait sourire les impatients même dans les salles d'attente C'est pour les pakis portant des kippas qui vendent du poulet tikka Casher, pas cher dans tous les tier-quar de ris-Pa C'est pour les nuls, pour ceux qui portent des gilets par balles En papier bulle ou des protège-tibia en tulle C'est pour les batraciens martiens qui squattent les bars terriens Les pharmaciens qui crèchent dans des nids bactériens Les fantassins, les marcassins dans les bacs à sable Les nains sur des échasses incassables dans le grand bassin C'est pour tous mes fans qui m'envoient des photos de leur crâne C'est pour les chibres d'âne dissimulés dans quelques cheese nan Pour les chips et les légumes et pour les eunuques polygames Et ça se fume, c'est une substances illicite, ce son excite l'âme x4 Squid à la prod Ce son tue, c'est un tube</t>
+          <t>Confiné, ça y est, c'est confirmé On est tous confinés Mais, assis au soleil, je survis trop bien Sirotant des gels antimicrobiens Finies les brochettes de pangolins Jai plus le droit de côtoyer mes contemporains Serrons-nous les coudes et lavons-nous les mains Butinons loin des foules au nom de tout l'essaim Chacun sa yourte, chacun son terrain Pas d'accolade à ton voisin Donc nul besoin de changer mes habitudes Jpeux rester cloîtré deux mois sans lassitude J'ai pas attendu le corona virus Pour suçoter des bonbons à l'eucalyptus J'ai plus de Dragibus, c'est la pénurie Mais soyons décents, j'fais pas partie des plus démunis Dans mon journal intime, je me réfugie J'suis pas Anne Frank, moi, j'ai la chance de pouvoir faire du bruit Faut rester digne, civique et solidaire Le temps sest arrêté, cest extraordinaire En cette période où s'attrouper est mortifère Ce sra conversation groupée ou plaisir solitaire J'médite en slip comme un yogi Avant d'sortir chasser des pâtes et des gnocchis J'irais bien faire un jogging sous ma combi Mais j'dois occuper mes mioches qui m'assaillent comme des zombies J'suis un bon papa mais j'ai pas l'BAFA Envoyez-moi deuxtrois tutos de krav-maga Mais j'vais pas les taper, gars, j'suis pas fada J'ai juste envie de weed et de pastaga J'dois rester rationnel et me rationner J'écris comme Jack Torrance, je suis passionné J'préfère me planquer qu'errer dehors le bec enfariné Mieux vaut se planter que voir la pandémie s'enraciner Tu m'trouves pas sympa, j'm'en fiche, j'fais les cent pas en pyj' J'aurais connu la quarantaine avant mes quarante piges Force au personnel hospitalier qui tente de sauver des vies Pendant qu'on remplace le PQ par des feuilles de laitue flétries Bonne nouvelle, l'ennui rend créatif Une pensée pour ceux dont les enfants sont hyperactifs Et tant pis si certains me disent opportuniste J'essaye d'éviter de déprimer avant la mort subite Restez confinés Restez confinés</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Confessions intimes</t>
+          <t>Couche-tard</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Ton idole est né enterré sous une île dorée enneigée En été, encerclé, en effet, j'ai tenté d'éventrer Des peoples et des gens fermés, j'ai mis des idylles dans les gènes D'entêtés emmerdeurs, et sans peine, semé des enquêteurs J'ai dribblé Pelé, j'écris des mes-ri' tes-bê' Qui méritent des dix sur dix et des T.B. J'pétille comme du Perrier, maîtrise comme un guerrier Ce texte est une BD qui vexe, oui, t'es gêné Car je sais épeler anti-constitutionnellement Et je vais gueuler cent dictons qui tuent sombre et dément Qui vont déplumer cent pigeons qui puent, si tu continues À m'écouter vraiment, tu vas dégueuler, mon grand Cours acheter mon CD, je le vends au sommet du Mont-Blanc C'est un bon plan, et pour les quelques chanceux comme Gontran J'offre la possibilité d'entrevoir mon gland De boire mon sang tonifiant comme du Guronsan Yo, puisqu'on comptait larguer les bombes et narguer le con d'énarque Inonder le marché d'ondes et marquer le monde, élaguer le tronc de l'arbre On va l'faire de suite en dégoupillant nos grenades Apprécie c'que ma langue relate, entre ici, dans mon engrenage L'encre est précise, nage entre les récifs, en creux de pages Entre le ton agressif, lengueulade et l'discours paisible voici l'excellent breuvage Le dosage des îles, de West Indies à vos plages, avantage à mon langage des signes T.I.S J'rappe avec les mains, mais c'est bien toi que j'désigne Quand j'parle d'MC wacks, t'es rien qu'un produit qu'on dit bactérien Qu'on jetterait bien dans l'bac à lessive pour la plupart des tiens Au quotidien, t'es l'gars qu'on esquive, t'as pas pu garder l'lien Le hip-hop, c'est J'te soutiens, mon pote, mais j'te regarde de loin À part si tu signes, moi, j'hallucine, on n'voit que par les biens Les signes extérieurs de réussite la monnaie part et vient Mon compte est plein d'zéros à la suite, mais juste devant y'a rien T.I.S et Hippo', c'est l'ivresse et l'hypnose La Guiness et l'eau d'rose, la finesse et autre chose T.I.S et Hippo', c'est l'ivresse et l'hypnose À dire vrai, ces types causent des dégâts dingues quand ils posent Mes trouvailles défouraillent, t'es tout pâle, t'aimes ou pas C'est trouble et ça dégoûte, ça déroute, écoute ça Double penne 3 fromages ou tatouage au henné Pépé kéké à Dubaï, obsédé par un bébé samouraï L'utopiste plus toxique qu'une morille crue, sautille Sans choriste, mes mots brillent et éblouissent les novices J'suis tellement franc qu'on pourrait m'appeler Clovis J'lâche des hectolitres de semences, fais les gros titres Ego-trip méthodique, érotique, très tonique mais logique Mes sottises théoriques démolissent restau' chics et trop lisses Mes low-kick héroïques terrorisent les gothiques nécrophiles Rhétorique, mélodique, j'dégobille des motifs exotiques Des gorilles névrotiques égoïstes, des gauchistes herboristes Les Gaullistes despotiques s'égosillent tel Onyx, M.O.P J'mémorise les codes PIN dÉloïse, Véronique et Moïse Néophyte, j'éradique les otites et ravive les ordi' T.I.S, c'est le Papa Shango d'un rap jazzy comme Django Choisit le cash sans tango, et même la Mai Li sans Tong Po Manie la rime en tant qu'pro, m'aligne, fait gaffe au flow Quand il arrive aux thèmes bateaux, quand il arrive droit sur le tempo J'vais canarder ton rap de caille avec des billes de paintball T'auras ma trace couleur madras en pleine paume, débordante sur ton épaule T'es juste une cible immanquable comme une finale de Superbowl Un MC aussi lamentable qu'hyper-drôle Yo, les MC hibernent et se perdent dans des cyber-rôles De merde pour que six nerds hallucinent sur leur medecine herbal Et des gangsters tall qui sortent les holsters tôt Si tu veux des clichés austères, demande-moi et j't'en sers d'autres En c'qui m'concerne, j'utilise plus souvent mon cerveau Ainsi qu'un flow sans air faux, en un seul mot sincère go Mon hip-hop te fait faire le hoolahoop sans cerceau Le alley oop sans arceau, la boum sans Sophie Marceau - J'ai bien kiffé la petite référence à Sophie Marceau - Ouais ? Bah toujours... Sophie Marceau, c'est quand même l'actrice la plus hip-hop de France, quoi - Bah, moi, au début, j'préférais Adjani, tu vois ? - Ouais - J'trouvais qu'elle était... - Ouais... - Elle avait des trucs et tout quand même ! - En '88, ouais, avec son pull marine, là... elle donnait à mort - Ouais... Non, mais même dans Subway, t'sais, elle avait une coupe un peu punk et tout... - Ouais, j'avoue, elle donnait dur, là, quand même - Et, entre punk et hip-hop, finalement, bin y'a pas... - Ouais, c'est vrai - Y'a pas un si grand fosée, quoi - Ouais, non, c'est pareil - Bon... - Bon, bin voilà ! - Ouais... J'vais aller chier - Ouais.</t>
+          <t>Je suis un couche-tard car j'évite mon plumard Et mes draps qui, comme un buvard, sont imbibés de cauchemars Routard, je parcours Mars et les remparts de la ville Où j'ai rencard avec l'angoisse Je me méfie d'elle mais elle m'est fidèle et Tisse des kyrielles de ficelles qu'elle tire, elle Hurle à mon inconscient ses secrets de Polichinelle Se purge grâce à de brusques mouvements criminels Somnambule, je gesticule comme un pantin Déambule comme un bambin dans le vestibule de mes voisins Les pilules pullulent, je pue l'huile rance, hulule Lors de ma futile errance sans délivrance Je fuis sans cesse, poursuivi par six cents sangsues Je suis en stress, uf ovipare, rire de bossu La nuit, je crie d'ennui, je nuis à la tranquillité d'autrui Les bruits que je produis sont fruits de ma bestialité enfouie Je dors debout, puis sors d'un coup à pas de loups Et tords le cou des gars trop saouls, leurs corps trop mous Cèdent sans effort, c'est fou Quand je les mords et les dévore, je suis encore moins doux J'adore les morts avec des morceaux de sucre roux Dans mon sépulcre, sous l'emprise de ma hantise, je m'y enlise Me cache chez vous avec des clous, je suis en crise Donc un conseil auscultez tout</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Confiné</t>
+          <t>Cowabunga</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Confiné, ça y est, c'est confirmé On est tous confinés Mais, assis au soleil, je survis trop bien Sirotant des gels antimicrobiens Finies les brochettes de pangolins Jai plus le droit de côtoyer mes contemporains Serrons-nous les coudes et lavons-nous les mains Butinons loin des foules au nom de tout l'essaim Chacun sa yourte, chacun son terrain Pas d'accolade à ton voisin Donc nul besoin de changer mes habitudes Jpeux rester cloîtré deux mois sans lassitude J'ai pas attendu le corona virus Pour suçoter des bonbons à l'eucalyptus J'ai plus de Dragibus, c'est la pénurie Mais soyons décents, j'fais pas partie des plus démunis Dans mon journal intime, je me réfugie J'suis pas Anne Frank, moi, j'ai la chance de pouvoir faire du bruit Faut rester digne, civique et solidaire Le temps sest arrêté, cest extraordinaire En cette période où s'attrouper est mortifère Ce sra conversation groupée ou plaisir solitaire J'médite en slip comme un yogi Avant d'sortir chasser des pâtes et des gnocchis J'irais bien faire un jogging sous ma combi Mais j'dois occuper mes mioches qui m'assaillent comme des zombies J'suis un bon papa mais j'ai pas l'BAFA Envoyez-moi deuxtrois tutos de krav-maga Mais j'vais pas les taper, gars, j'suis pas fada J'ai juste envie de weed et de pastaga J'dois rester rationnel et me rationner J'écris comme Jack Torrance, je suis passionné J'préfère me planquer qu'errer dehors le bec enfariné Mieux vaut se planter que voir la pandémie s'enraciner Tu m'trouves pas sympa, j'm'en fiche, j'fais les cent pas en pyj' J'aurais connu la quarantaine avant mes quarante piges Force au personnel hospitalier qui tente de sauver des vies Pendant qu'on remplace le PQ par des feuilles de laitue flétries Bonne nouvelle, l'ennui rend créatif Une pensée pour ceux dont les enfants sont hyperactifs Et tant pis si certains me disent opportuniste J'essaye d'éviter de déprimer avant la mort subite Restez confinés Restez confinés</t>
+          <t>Moi qui flippe à la vue d'une plante, jpanique dans la forêt luxuriante Il a surgi comme un coucou suisse, c'est reparti pour une course-poursuite Avec un anaconda, c'était pas dans lcontrat, la verve ne compte pas, je ne peux pas gagner l'combat J'fonce comme un bolide, pourvu que le tronc soit solide ou j'vais finir en bas, cowabunga Cavaler comme un éclopé plein de cloques aux pieds pour ne pas terminer à l'étroit dans son gosier Il va m'stopper, m'choper, m'gober, mstocker puis me digérer comme un coq en pâte sous les cocotiers Je serais bien mieux dans le noir, dans un vieux manoir, en train de me faire léchouiller par un vilain tamanoir Mais ya pas d'échappatoire, si cn'est la mâchoire d'un piranha, d'un caïman, dun jaguar J'suis le fruit de mon époque, avec mes tics et mes tocs, dans ma vie faite de bric et de broc Et de flips et de flops, entouré de types qui s'tirent dans les pattes qui, pour du fric, se frittent ou se défroquent Mais j'suis pas de ces bambins avides, pourris gâtés, j'veux pas spoiler la fin mais on va tous y passer Le savoir m'apeure autant que ça m'rassure, j'me mets au vert, fourré dans les jupons de dame Nature</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Couche-tard</t>
+          <t>Crèmes de nuit</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Je suis un couche-tard car j'évite mon plumard Et mes draps qui, comme un buvard, sont imbibés de cauchemars Routard, je parcours Mars et les remparts de la ville Où j'ai rencard avec l'angoisse Je me méfie d'elle mais elle m'est fidèle et Tisse des kyrielles de ficelles qu'elle tire, elle Hurle à mon inconscient ses secrets de Polichinelle Se purge grâce à de brusques mouvements criminels Somnambule, je gesticule comme un pantin Déambule comme un bambin dans le vestibule de mes voisins Les pilules pullulent, je pue l'huile rance, hulule Lors de ma futile errance sans délivrance Je fuis sans cesse, poursuivi par six cents sangsues Je suis en stress, uf ovipare, rire de bossu La nuit, je crie d'ennui, je nuis à la tranquillité d'autrui Les bruits que je produis sont fruits de ma bestialité enfouie Je dors debout, puis sors d'un coup à pas de loups Et tords le cou des gars trop saouls, leurs corps trop mous Cèdent sans effort, c'est fou Quand je les mords et les dévore, je suis encore moins doux J'adore les morts avec des morceaux de sucre roux Dans mon sépulcre, sous l'emprise de ma hantise, je m'y enlise Me cache chez vous avec des clous, je suis en crise Donc un conseil auscultez tout</t>
+          <t>Belles de jour grâce à nos crèmes de nuit Belles de jour Belles de jour Belles de jour grâce à nos crèmes de nuit Belles de jour grâce à nos crèmes de nuit Elles sont belles de jour grâce à nos crèmes de nuit Oui, belles de jour Stop la parlotte, là, t'as juste envie d'fuck, ôte La culotte que je le lise sur tes lèvres comme un ventriloque Les manières, on s'en branle, on est entre adultes consentants Et on a l'entrejambe en manque, j'crois qu'on va bien s'entendre Ma galanterie s'arrête où la partie de fesses commence Léni macho t'offense chérie, finie la belle romance Tu gémis puis tu récites tes gammes avec éloquence En dolby, fenêtres ouvertes, toute la rue fait caisse de résonance Yo, sans forcer, j'arrive à mes fins, tu vas et viens Dans un style aérien que j'comprends pas très bien Tes mouv' de bassin rendent dingues même le papier peint Si j'te demande la lune, c'est que ton arrière-train n'est pas terrien Yo, ambiance renversé du lotus Dans chaque pièce, on vérifie si l'mobilier est robuste Et, quand la gourmande en demande encore plus J'me démultiplie, on joue au docteur Octopus On n'est pas à Wall Street mais t'es pas à cours de bourses Pendant que t'es dans le cockpit, j'me désaltère à ta source et ouste Finis l'gentleman maniéré, voila l'homme ours arriéré, le singe en rut, le Cavaliere Oops... à ce que je vois, tu t'étouffes Moi, j'me booste la vue de ton boule me donne un deuxième souffle Donc c'est reparti pour une heure et demie Tu finis le crâne incrusté dans la tête de lit Chérie, t'es prête ? C'est là que j'te passe la crème de nuit x2 Nous sommes experts en sextapes En plus de notre sensibilité, nous vous offrons un regard d'esthète Ne soyez pas intimidés, détendez-vous Savourez donc cette douce musique raï ou klezmer Nous savons filmer plus de mille positions Mettons des objets en plastique à votre disposition Sortons le grand angle pour les gang bangs dans d'étranges granges Où des anges tendres se font prendre par d'exsangues trans' Si ça vous gêne, nous pouvons couper les projos Un halogène suffit pour tourner un porno Avec une go pro accrochée à notre casque de spéléo Les gouttes sur l'objectif ne sont pas toutes dues à la météo Micro cravate stéréo, gaffé au clito Si ça frotte, c'est pas grave, nous rattraperons ça au studio À la post-synchro, en tapotant nos paumes Entre elles énergiquement, comme des chanteurs de flamenco En un mot, nos pratiques sont inratables Saviez-vous que nos tarifs sont imbattables Et qu'en plus d'un super boîtier, la maison vous offre Une version soft en 3D parfaite pour vos gosses ? Nous stockons nos archives dans un vidéo-club Admirons entre amis votre vie privée au pub En projetant sur l'écran géant ces plans ravissants Les soirs de match pour patienter pendant la mi-temps</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Cowabunga</t>
+          <t>Crise de Nerfs Optiques</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Moi qui flippe à la vue d'une plante, jpanique dans la forêt luxuriante Il a surgi comme un coucou suisse, c'est reparti pour une course-poursuite Avec un anaconda, c'était pas dans lcontrat, la verve ne compte pas, je ne peux pas gagner l'combat J'fonce comme un bolide, pourvu que le tronc soit solide ou j'vais finir en bas, cowabunga Cavaler comme un éclopé plein de cloques aux pieds pour ne pas terminer à l'étroit dans son gosier Il va m'stopper, m'choper, m'gober, mstocker puis me digérer comme un coq en pâte sous les cocotiers Je serais bien mieux dans le noir, dans un vieux manoir, en train de me faire léchouiller par un vilain tamanoir Mais ya pas d'échappatoire, si cn'est la mâchoire d'un piranha, d'un caïman, dun jaguar J'suis le fruit de mon époque, avec mes tics et mes tocs, dans ma vie faite de bric et de broc Et de flips et de flops, entouré de types qui s'tirent dans les pattes qui, pour du fric, se frittent ou se défroquent Mais j'suis pas de ces bambins avides, pourris gâtés, j'veux pas spoiler la fin mais on va tous y passer Le savoir m'apeure autant que ça m'rassure, j'me mets au vert, fourré dans les jupons de dame Nature</t>
+          <t>Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Voyage abyssal sous mon tapis sale Où résident des acariens aquatiques, de la marie-jeanne Pour asthmatique, et des farines animales Est-ce admirable, fantastique ou simplement minable ? Cannibale était cette femme qui dans la chaleur estivale Dévorait des yeux mes parties génitales Amical était son mari pâle, j'étais en terminale Et citait à voix haute des paragraphes des Misérables et Germinal La mort est un mal inguérissable, bien que périssables Nos corps restent désirables, as-tu kiffé cette kissline ? J'aime les montagnes et les porte-cigarettes russes J'crache des postillons enflammés et pisse à l'arrêt d'bus Mon bateau ivre tangue quand j'parle aux livres tendrement J'ai introduit le Parthénon dans mon appartement Visite mon cabinet de curiosité J'y déride des pruneaux, y cultive l'animosité Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Quand j'regarde tous ces photos-portraits Harcourt Mon cerveau crée des partouzes entre Casta, Cotillard, Bardot, Gainsbourg J'accours pour savourer les seins chauds des nymphos Et dans mon estomac, hurlent des gargouilles J'barbouille de cirage des visages de barbouze Parcours des mirages, chatouille des pirates craspouilles Voici le journal d'un fou décapité sans un sou Ça sent le roussi sous ta moumoute 'Che-lou' comme Borat, je bouffe au do'-Mc, me saoule comme Socrate J'étouffe estomaque et troue vos thorax, je couve des cloaques Secoue le zodiaque, les poules à peaux mates, les louves à gros sacs Les moules à peaux grasses, je joue l'automate, le clown, acrobate Me fout des obstacles, écoute des sonates Je groove, c'est so fat, et tous ces mots claquent C'est flou, c'est opaque, fou, démoniaque Rouge et jaunâtre, au goût d'ammoniac, du coup, tes os craquent L'antipop est une passoire qui filtre Mes consonnes aiguisées comme les hachoirs d'un sinistre abattoir J'aime les rimes picturales, c'est addictif, tu râles Tu frises la crise de nerfs optiques, c'est la vie qui m'tuera x2 Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Ferme les yeux quand j'te parle !1</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Crèmes de nuit</t>
+          <t>Dans la lune</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Belles de jour grâce à nos crèmes de nuit Belles de jour Belles de jour Belles de jour grâce à nos crèmes de nuit Belles de jour grâce à nos crèmes de nuit Elles sont belles de jour grâce à nos crèmes de nuit Oui, belles de jour Stop la parlotte, là, t'as juste envie d'fuck, ôte La culotte que je le lise sur tes lèvres comme un ventriloque Les manières, on s'en branle, on est entre adultes consentants Et on a l'entrejambe en manque, j'crois qu'on va bien s'entendre Ma galanterie s'arrête où la partie de fesses commence Léni macho t'offense chérie, finie la belle romance Tu gémis puis tu récites tes gammes avec éloquence En dolby, fenêtres ouvertes, toute la rue fait caisse de résonance Yo, sans forcer, j'arrive à mes fins, tu vas et viens Dans un style aérien que j'comprends pas très bien Tes mouv' de bassin rendent dingues même le papier peint Si j'te demande la lune, c'est que ton arrière-train n'est pas terrien Yo, ambiance renversé du lotus Dans chaque pièce, on vérifie si l'mobilier est robuste Et, quand la gourmande en demande encore plus J'me démultiplie, on joue au docteur Octopus On n'est pas à Wall Street mais t'es pas à cours de bourses Pendant que t'es dans le cockpit, j'me désaltère à ta source et ouste Finis l'gentleman maniéré, voila l'homme ours arriéré, le singe en rut, le Cavaliere Oops... à ce que je vois, tu t'étouffes Moi, j'me booste la vue de ton boule me donne un deuxième souffle Donc c'est reparti pour une heure et demie Tu finis le crâne incrusté dans la tête de lit Chérie, t'es prête ? C'est là que j'te passe la crème de nuit x2 Nous sommes experts en sextapes En plus de notre sensibilité, nous vous offrons un regard d'esthète Ne soyez pas intimidés, détendez-vous Savourez donc cette douce musique raï ou klezmer Nous savons filmer plus de mille positions Mettons des objets en plastique à votre disposition Sortons le grand angle pour les gang bangs dans d'étranges granges Où des anges tendres se font prendre par d'exsangues trans' Si ça vous gêne, nous pouvons couper les projos Un halogène suffit pour tourner un porno Avec une go pro accrochée à notre casque de spéléo Les gouttes sur l'objectif ne sont pas toutes dues à la météo Micro cravate stéréo, gaffé au clito Si ça frotte, c'est pas grave, nous rattraperons ça au studio À la post-synchro, en tapotant nos paumes Entre elles énergiquement, comme des chanteurs de flamenco En un mot, nos pratiques sont inratables Saviez-vous que nos tarifs sont imbattables Et qu'en plus d'un super boîtier, la maison vous offre Une version soft en 3D parfaite pour vos gosses ? Nous stockons nos archives dans un vidéo-club Admirons entre amis votre vie privée au pub En projetant sur l'écran géant ces plans ravissants Les soirs de match pour patienter pendant la mi-temps</t>
+          <t>À force de croupir derrière les barreaux du quotidien J'ai appris à m'évader, voyager, sans cesse jetlagué sans même changer de méridien J'suis plus dispersé que les boules de cristal, mon cerveau est au volant d'une DeLorean Dans le coffre, une paire de bottes de sept lieues, pour rejoindre les cieux, c'est plus original Suivr les conversations me donn du fil à retordre J'ai des problèmes de concentration, donc toujours une fusée d'retard Pour capter mon attention, faut faire preuve d'humour, de sensibilité Sinon, je n'entends que des sons, me laisse happer par mon inventivité Faut dire que certains mots sont appétissants, m'invitent à danser sur des terrains glissants Quand je m'ennuie, je m'enfuis dans mes rêveries, m'enfouis sous les bruits pour me sentir vivant J'suis pas vigilant, j'oublie le prénom des enfants de mes amis, c'est avilissant Perdu dans mes pensées, je quitte le plancher des vaches et des bavardages abrutissants J'n'ai toujours pas été payé, huh j'ai zappé d'envoyer mon RIB Car je préfère travailler ma rhétorique, narrer nos vies à travers d'étourdissantes allégories Oui, je paresse au lit, déambule dans ma bulle quitte à paraître autiste J'n'ai pas besoin de cours d'aérobic, moi, je chante sous la pluie d'astéroïdes Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent C'est un petit pas pour un gars lunaire Un bond de géant pour l'imaginaire Léger comme une plume, je scrute la Terre Je n'suis qu'une fourmi ridicule dans ces obscures cratères J'avance à pas de gnou, le sol me semble mou Comme sur un trampoline, je fais de grands bonds dignes d'un kangourou Je flotte, lévite jusqu'au ravissement, mon histoire est pleine de rebondissements C'est pourquoi mon visage se fige, immobile, je m'épuise et, si souvent, je parais distant Heureusement, j'suis pas l'seul à m'égarer là-bas le plus grand astronaute, c'est mon papa Mais y'a pas qu'les artistes qui font des faux pas, oui, je m'adresse à toi et aux gens qu'tu côtoies Vu qu't'as d'jà mis du sel dans ton café, un jean sur ton pyj' et t'es partie taffer T'as oublié ton tél' et tes clés, t'es blasée, sac poubelle à la main, dans l'métro, t'es toisée Car t'as d'l'imagination, un tas d'illuminations Chevauchant Pégase, en extase, oui, t'as mis les gaz et t'effaces avec jubilation Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Crise de Nerfs Optiques</t>
+          <t>Dans le fond</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Voyage abyssal sous mon tapis sale Où résident des acariens aquatiques, de la marie-jeanne Pour asthmatique, et des farines animales Est-ce admirable, fantastique ou simplement minable ? Cannibale était cette femme qui dans la chaleur estivale Dévorait des yeux mes parties génitales Amical était son mari pâle, j'étais en terminale Et citait à voix haute des paragraphes des Misérables et Germinal La mort est un mal inguérissable, bien que périssables Nos corps restent désirables, as-tu kiffé cette kissline ? J'aime les montagnes et les porte-cigarettes russes J'crache des postillons enflammés et pisse à l'arrêt d'bus Mon bateau ivre tangue quand j'parle aux livres tendrement J'ai introduit le Parthénon dans mon appartement Visite mon cabinet de curiosité J'y déride des pruneaux, y cultive l'animosité Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Quand j'regarde tous ces photos-portraits Harcourt Mon cerveau crée des partouzes entre Casta, Cotillard, Bardot, Gainsbourg J'accours pour savourer les seins chauds des nymphos Et dans mon estomac, hurlent des gargouilles J'barbouille de cirage des visages de barbouze Parcours des mirages, chatouille des pirates craspouilles Voici le journal d'un fou décapité sans un sou Ça sent le roussi sous ta moumoute 'Che-lou' comme Borat, je bouffe au do'-Mc, me saoule comme Socrate J'étouffe estomaque et troue vos thorax, je couve des cloaques Secoue le zodiaque, les poules à peaux mates, les louves à gros sacs Les moules à peaux grasses, je joue l'automate, le clown, acrobate Me fout des obstacles, écoute des sonates Je groove, c'est so fat, et tous ces mots claquent C'est flou, c'est opaque, fou, démoniaque Rouge et jaunâtre, au goût d'ammoniac, du coup, tes os craquent L'antipop est une passoire qui filtre Mes consonnes aiguisées comme les hachoirs d'un sinistre abattoir J'aime les rimes picturales, c'est addictif, tu râles Tu frises la crise de nerfs optiques, c'est la vie qui m'tuera x2 Crise de nerfs optiques, hectolitres d'érotisme Des abysses de ton spleen à la cime de mon spliff Crise de nerfs optiques, vise les mots glisser Des recoins de ton vice à la pointe de mon Bic Ferme les yeux quand j'te parle !1</t>
+          <t>Depuis la perte de son emploi, le barbier rase les murs Au p'tit déj', le buraliste avale un bol d'air pur Le conducteur de bus décore son habitacle L'opticienne a perdu d'vue sa jumelle astigmate Pour combler sa calvitie, le chirurgien se fait des implants mammaires Quand il s'agit de faire un bridge, le dentiste ramène sa fraise Le charpentier rêve de monter sur les planches Pour embraser la vendeuse de parfum qui pue l'essence Tous les soirs, le rôtisseur mange du poulet froid Le maire fricote avec la blanchisseuse et complote sous les draps Le Père Noël est à découvert, il prépare un coup d'État Le ramoneur les a découverts et le crie sur tous les toits Laissez-moi vous dire, ma p'tite Fernande, qu'on n'peut accorder qu'un mince crédit à une personne couverte de suie ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le serrurier s'est fait voler les clés de sa boutique On soupçonne l'accordeur d'user du lieu pour l'acoustique L'agent secret espionne les ambassades Peintre en bâtiment est son métier de façade Le primeur surfe sur la vague bio Quand il croise une cliente, il lui met la main au panier Le chauffeur de taxi est un peu schizo' Il châtie son langage avant de jurer comme un charretier L'imam-rabbin-curé surveille son planning très chargé Le pâtissier tripote des religieuses au café Le promeneur de chiens cherche la merde dans le quartier L'hôtelier loue des toilettes avec chambre sur le palier Elles sont récurées de fond en comble une fois par mois ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le quincaillier a plus de vis que de vertus Le chercheur est perdu, la voyante a la berlue Le boucher considère sa femme comme un bout d'viande Elle vend son corps dans une chambre froide tandis qu'il flambe L'épouse du pédicure rêve de prendre son pied Elle a besoin des bons tuyaux du clan des sapeurs-plombiers L'osthéo' joue aux osselets, le banquier à La Bonne Paye Le croque-mort fait du bobsleigh dans un cercueil sur du gospel Le fossoyeur roule des pelles au jardinier Ils cultivent le mystère face au vieil artisan glacier Paraît qu'le sommelier est coincé dans les bouchons Y'a pas de sot métier m'a dit le roi des bouffons Des artistes ? Des fainéants, oui ! On a tous un rôle précis dans cette fourmilière Les gens se bousculent et s'ignorent en suivant leur filière Moi j'observe le va-et-vient et les savoirs-faire Chez moi, je n'chôme pas, mais j'écris parfois les fesses à l'air Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Dans l'fond Dans l'fond Dans l'fond On est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Et dans la forme, alors ?</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Dans la lune</t>
+          <t>Déboussolé</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>À force de croupir derrière les barreaux du quotidien J'ai appris à m'évader, voyager, sans cesse jetlagué sans même changer de méridien J'suis plus dispersé que les boules de cristal, mon cerveau est au volant d'une DeLorean Dans le coffre, une paire de bottes de sept lieues, pour rejoindre les cieux, c'est plus original Suivr les conversations me donn du fil à retordre J'ai des problèmes de concentration, donc toujours une fusée d'retard Pour capter mon attention, faut faire preuve d'humour, de sensibilité Sinon, je n'entends que des sons, me laisse happer par mon inventivité Faut dire que certains mots sont appétissants, m'invitent à danser sur des terrains glissants Quand je m'ennuie, je m'enfuis dans mes rêveries, m'enfouis sous les bruits pour me sentir vivant J'suis pas vigilant, j'oublie le prénom des enfants de mes amis, c'est avilissant Perdu dans mes pensées, je quitte le plancher des vaches et des bavardages abrutissants J'n'ai toujours pas été payé, huh j'ai zappé d'envoyer mon RIB Car je préfère travailler ma rhétorique, narrer nos vies à travers d'étourdissantes allégories Oui, je paresse au lit, déambule dans ma bulle quitte à paraître autiste J'n'ai pas besoin de cours d'aérobic, moi, je chante sous la pluie d'astéroïdes Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent C'est un petit pas pour un gars lunaire Un bond de géant pour l'imaginaire Léger comme une plume, je scrute la Terre Je n'suis qu'une fourmi ridicule dans ces obscures cratères J'avance à pas de gnou, le sol me semble mou Comme sur un trampoline, je fais de grands bonds dignes d'un kangourou Je flotte, lévite jusqu'au ravissement, mon histoire est pleine de rebondissements C'est pourquoi mon visage se fige, immobile, je m'épuise et, si souvent, je parais distant Heureusement, j'suis pas l'seul à m'égarer là-bas le plus grand astronaute, c'est mon papa Mais y'a pas qu'les artistes qui font des faux pas, oui, je m'adresse à toi et aux gens qu'tu côtoies Vu qu't'as d'jà mis du sel dans ton café, un jean sur ton pyj' et t'es partie taffer T'as oublié ton tél' et tes clés, t'es blasée, sac poubelle à la main, dans l'métro, t'es toisée Car t'as d'l'imagination, un tas d'illuminations Chevauchant Pégase, en extase, oui, t'as mis les gaz et t'effaces avec jubilation Dans la lune j'suis souvent Dans la lune trop souvent Dans la lune j'suis souvent Dans la lune trop souvent</t>
+          <t>La boule au ventre, la tête en vrac, j'ai plus dun tour du monde dans mon sac J'remonte la pente, craque, mon âme s'ouvre sans Sésame, rentre en contact Avec des astres dâge canonique, à la cime de mon arbre généalogique Et, dans mon corps, c'est la grande pagaille, des micro-organismes sur le champ d'bataille Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Désorienté, l'go vidangé mais jaccepte le changment Étrangement, jai trouvé la lumière dissimulée dans mes retranchements Si notre univers est un quark, y'a des Big Bang en moi ya des Big Bang en moi Comme un grande guimbarde, j'me sens vibrant, j'envoie j'me sens vibrant, jenvoie Des ondes positives, j'ai l'impression que le monde me sollicite Je fais le pont entre l'avenir et les origines, je fais le vide et le remplis de vie, le colorie vite Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Trop d'aléas mais, là, c'est l'heure d'aller au lit Je me revois dans l'hôpital, assis, pâle, ébaubi Je sais qu'on m'attend, plus rien ne s'ra comme avant J'ai repoussé mes idées sombres comme un vrai combattant Oui, j'galope dans la pénombre et j'suis pas nyctalope Toutes ces péripéties m'ont mis une p'tite calotte Avec la peur en bandoulière, j'm'évade Balayé par le temps, nous sommes de la poussière d'étoiles</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Dans le fond</t>
+          <t>Demi-Vieux</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Depuis la perte de son emploi, le barbier rase les murs Au p'tit déj', le buraliste avale un bol d'air pur Le conducteur de bus décore son habitacle L'opticienne a perdu d'vue sa jumelle astigmate Pour combler sa calvitie, le chirurgien se fait des implants mammaires Quand il s'agit de faire un bridge, le dentiste ramène sa fraise Le charpentier rêve de monter sur les planches Pour embraser la vendeuse de parfum qui pue l'essence Tous les soirs, le rôtisseur mange du poulet froid Le maire fricote avec la blanchisseuse et complote sous les draps Le Père Noël est à découvert, il prépare un coup d'État Le ramoneur les a découverts et le crie sur tous les toits Laissez-moi vous dire, ma p'tite Fernande, qu'on n'peut accorder qu'un mince crédit à une personne couverte de suie ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le serrurier s'est fait voler les clés de sa boutique On soupçonne l'accordeur d'user du lieu pour l'acoustique L'agent secret espionne les ambassades Peintre en bâtiment est son métier de façade Le primeur surfe sur la vague bio Quand il croise une cliente, il lui met la main au panier Le chauffeur de taxi est un peu schizo' Il châtie son langage avant de jurer comme un charretier L'imam-rabbin-curé surveille son planning très chargé Le pâtissier tripote des religieuses au café Le promeneur de chiens cherche la merde dans le quartier L'hôtelier loue des toilettes avec chambre sur le palier Elles sont récurées de fond en comble une fois par mois ! Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Le quincaillier a plus de vis que de vertus Le chercheur est perdu, la voyante a la berlue Le boucher considère sa femme comme un bout d'viande Elle vend son corps dans une chambre froide tandis qu'il flambe L'épouse du pédicure rêve de prendre son pied Elle a besoin des bons tuyaux du clan des sapeurs-plombiers L'osthéo' joue aux osselets, le banquier à La Bonne Paye Le croque-mort fait du bobsleigh dans un cercueil sur du gospel Le fossoyeur roule des pelles au jardinier Ils cultivent le mystère face au vieil artisan glacier Paraît qu'le sommelier est coincé dans les bouchons Y'a pas de sot métier m'a dit le roi des bouffons Des artistes ? Des fainéants, oui ! On a tous un rôle précis dans cette fourmilière Les gens se bousculent et s'ignorent en suivant leur filière Moi j'observe le va-et-vient et les savoirs-faire Chez moi, je n'chôme pas, mais j'écris parfois les fesses à l'air Dans l'fond, on est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Dans l'fond Dans l'fond Dans l'fond On est tous pareils Dans l'fond, on a tous la flemme Dans l'fond, on a tous sommeil Mais on a tous besoin d'un peu d'oseille Dans l'fond Et dans la forme, alors ?</t>
+          <t>J'suis plus proche du demi que du quart de siècle J'm'assagis, j'ai moins soif de sexe Mes idoles s'éteignent une à une et, moi, je reste Encore un peu avec mon sac de questions Y a-t-il plus d'appart' vides que d'familles qui dorment sur les trottoirs ? Est-ce que mes enfants quitteront la Terre avant qu'il soit trop tard ? On dormira quand on sera mort mais est-ce qu'on fera des cauchemars ? Cinquante degrés à l'ombre, mettront-ils encore des costards ? Eh ouais, c'est ça d'grandir Trop d'questions Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets J'avance à petits pas, m'éteins à petit feu Ma femme est une déesse, mérite-elle un demi-vieux ? On dit qu'tout a un prix, moi, j'dis qu'l'argent est venimeux Vendront-ils du CO2 expiré par des vaniteux ? On naît, on se sent frais, on fane, on sert d'engrais Futurs anciens, on fait c'qu'on peut pour oublier qu'on est De la matière en quête de décomposition Pourquoi cherche-t-on des problèmes avant de trouver des solutions ? J'ai déjà bien vécu Si ma vie s'arrêtait là, serais-je un peu déçu ? J'ai compris quelques trucs et transmis quelques valeurs Ai-je trouvé l'équilibre entre papa et rappeur ? Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Déboussolé</t>
+          <t>DJ PS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>La boule au ventre, la tête en vrac, j'ai plus dun tour du monde dans mon sac J'remonte la pente, craque, mon âme s'ouvre sans Sésame, rentre en contact Avec des astres dâge canonique, à la cime de mon arbre généalogique Et, dans mon corps, c'est la grande pagaille, des micro-organismes sur le champ d'bataille Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Désorienté, l'go vidangé mais jaccepte le changment Étrangement, jai trouvé la lumière dissimulée dans mes retranchements Si notre univers est un quark, y'a des Big Bang en moi ya des Big Bang en moi Comme un grande guimbarde, j'me sens vibrant, j'envoie j'me sens vibrant, jenvoie Des ondes positives, j'ai l'impression que le monde me sollicite Je fais le pont entre l'avenir et les origines, je fais le vide et le remplis de vie, le colorie vite Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Déboussolé déboussolé, bercé par l'écho du cosmos Déboussolé déboussolé, bouleversé par l'osmose Trop d'aléas mais, là, c'est l'heure d'aller au lit Je me revois dans l'hôpital, assis, pâle, ébaubi Je sais qu'on m'attend, plus rien ne s'ra comme avant J'ai repoussé mes idées sombres comme un vrai combattant Oui, j'galope dans la pénombre et j'suis pas nyctalope Toutes ces péripéties m'ont mis une p'tite calotte Avec la peur en bandoulière, j'm'évade Balayé par le temps, nous sommes de la poussière d'étoiles</t>
+          <t>Sur la route, au milieu d'une forêt de pins Ma femme conduit, moi, j'connais le ch'min On est cinq à l'étroit, faut r'faire le plein Sur mon jogging, des miettes de pain Il suffit d'un violent coup d'frein Pour finir en tas de défunts Donc j'agis, j'prends les choses en main Et j'choisis du son, j'en lance un DJ, copilote double casquette Pour une famille de dummies qui redoute le crash test J'ai la 'sique et les plans dans mon joujou hightech Et j'dois contenter mes enfants, quel éprouvant casse-tête Pique-nique dans la gova dans la playlist Anna Kova Gershwin, Doja, Nino Rota Rosalía, Tokischa, y Buena Vista Polo Pan, et la guitare de papa Non mais j'comprends rien à la carte, là Vas-y, j'vais lancer l'GPS, voilà Attention, à quatre, on se lâche Un, deux, un, deux, trois, quatre DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Obstacle sur la route Un jour, je passerai mon permis Un pneu crevé, je sais pas réparer La voiture est garée, c'est mal barré J'vais devoir tailler ma route à pieds Dormir dans un terrier, chasser des sangliers Ambiance Mononoké, j'ai d'jà un point de côté C'est saoulant comme les monologues de mes potos cokés On attend un dépanneur, je sais qu'il va se moquer Un coup de cric et, dans le coffre, il finira menotté Y'a plus de réseau, le GPS m'a lâché J'peux juste écouter les morceaux que j'ai d'jà téléchargés Mes enfants se disputent, je vais devoir me fâcher Quelle intense décadence, début d'vacances gâché DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Ne baisse pas le son Un jour, je passerai mon permis - Reste calme - Ah bah ça remarche, le... - Tais-toi - Hein ? -Tu es nul - Oula, ça bug, là... - Ta playlist n'est pas convaincante - Eh mais comment tu parles ? Elle déchire, ma playlist ! - Ton sens de l'orientation non plus - Mais il s'passe quoi ? Comment on éteint ? - Tes enfants ne te respectent pas - Bon, ça m'énerve, là - Tu ferais mieux de passer ton permis - J'avoue. DJ PS Je sais tout de toi DJ PS Tu consultes des sites pornographiques DJ PS Tu étais encore connecté hier soir DJ PS Tu as regardé la vidéo MILF se tape un autostoppeur DJ PS - C'est vrai, papa ? - Mais non</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Demi-Vieux</t>
+          <t>Dormez-vous</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>J'suis plus proche du demi que du quart de siècle J'm'assagis, j'ai moins soif de sexe Mes idoles s'éteignent une à une et, moi, je reste Encore un peu avec mon sac de questions Y a-t-il plus d'appart' vides que d'familles qui dorment sur les trottoirs ? Est-ce que mes enfants quitteront la Terre avant qu'il soit trop tard ? On dormira quand on sera mort mais est-ce qu'on fera des cauchemars ? Cinquante degrés à l'ombre, mettront-ils encore des costards ? Eh ouais, c'est ça d'grandir Trop d'questions Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets J'avance à petits pas, m'éteins à petit feu Ma femme est une déesse, mérite-elle un demi-vieux ? On dit qu'tout a un prix, moi, j'dis qu'l'argent est venimeux Vendront-ils du CO2 expiré par des vaniteux ? On naît, on se sent frais, on fane, on sert d'engrais Futurs anciens, on fait c'qu'on peut pour oublier qu'on est De la matière en quête de décomposition Pourquoi cherche-t-on des problèmes avant de trouver des solutions ? J'ai déjà bien vécu Si ma vie s'arrêtait là, serais-je un peu déçu ? J'ai compris quelques trucs et transmis quelques valeurs Ai-je trouvé l'équilibre entre papa et rappeur ? Je vieillis sans cesse, sans faire exprès J'reconnais plus vraiment mon reflet Avant, j'pouvais dire J'le ferai après Mais les rêves se changent vite en regrets</t>
+          <t>Ce soir, je souris bêtement, il était temps J'ai retiré tes sous-vêtements avec mes dents J'veux une aventure sans casse-tête et pas d'ceinture de chasteté J'aime bien quand t'écartes tes cuisses, que j'peux t'écarteler Tous nos reproches, s'il te plaît, gardons-les Baiser, c'est cool quand on veut s'faire pardonner C'est plus cochon quand on boit du Chardonnay On a descendu deux bouteilles qui nous ont cartonnés Allez, cambre-toi, tes courbes m'enchantent, la chambre est un sauna Entre toi et moi, c'est la fusion, faisons fondre nos draps J'vais p't-être sortir mon portable même si c'n'est pas raisonnable J'ai déjà commencé l'forage, quand on s'emboîte, c'est sauvage Fais résonner mon hautbois, fais-moi cracher comme un cobra T'imploses, t'es paralysée, fatalité, Mortal Kombat Pleurs de bébé Oh nooon... pfffffff.... Putain, fait chier ! Casse les couilles ! J'veux pas me retirer, j'suis bien au chaud, je voulais me vider avant de faire dodo Le sexe entrecoupé, moi, ça me fait bobo, j'peux pas le câliner, je bande comme un taureau Mais, bon, laisse-moi ralentir, sortir et ramollir C'est horrible, mais faut pas t'endormir, j'reviens vite, promis, ce sera torride Tétine ! Où a-t-il foutu sa tétine ? Dans le noir, je tâtonne Dans l'espoir de pouvoir vite retourner visiter ta grotte Ça y est, j'l'ai trouvée, j'vais chantonner une berceuse Qu'il arrête de chatouiller nos tympans comme une perceuse Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Me voilà de retour, tu vas rougir des fesses J'adore te monter, pratiquons ce sport équestre Visons les cieux, oublions l'attraction terrestre C'n'est pas un coït, c'est une épopée céleste Bib'on ! Petit morveux, tu vas morfler Si t'arrêtes pas de faire des bras de fer avec Morphée J'en ai marre de devoir border Ce galopin qui quémande un câlin, mais quelle corvée Rendors-toi ou j't'abandonne au bord d'une autoroute Et t'iras bouder dans un grand dortoir Allez, fiston, bois ton biberon Et ne réveille pas ta sur ou je vide ton compte, au revoir Voilà... T'avais soif, mon doudou, hein ? Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Reprenons nos galipettes sous cette lumière tamisée J'veux t'entendre caqueter comme une galipette cendrée Papa, z'ai envie d'faire pipi ! Ils commencent à me les briser menues, ces petits, j'en peux plus Oui, là, j'comprends les familles qui pètent les plombs puis qui sentre-tuent J'ai laissé la porte entrouverte, pourtant, je me sens reclus Je n'peux pas leur faire de bisou, j'ai la gueule qui sent le cul Être parent, ça apaise et ça fortifie Mais, là, j'suis à deux doigts de commettre un infanticide Laissez-nous faire l'amour, c'est notre moment Pour papa et pour maman, copuler, c'est important Eh, baiser, quand on a des enfants, c'est pas toujours facile Faut des nerfs d'acier, être patient, pour pas finir à l'asile Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DJ PS</t>
+          <t>Dream</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sur la route, au milieu d'une forêt de pins Ma femme conduit, moi, j'connais le ch'min On est cinq à l'étroit, faut r'faire le plein Sur mon jogging, des miettes de pain Il suffit d'un violent coup d'frein Pour finir en tas de défunts Donc j'agis, j'prends les choses en main Et j'choisis du son, j'en lance un DJ, copilote double casquette Pour une famille de dummies qui redoute le crash test J'ai la 'sique et les plans dans mon joujou hightech Et j'dois contenter mes enfants, quel éprouvant casse-tête Pique-nique dans la gova dans la playlist Anna Kova Gershwin, Doja, Nino Rota Rosalía, Tokischa, y Buena Vista Polo Pan, et la guitare de papa Non mais j'comprends rien à la carte, là Vas-y, j'vais lancer l'GPS, voilà Attention, à quatre, on se lâche Un, deux, un, deux, trois, quatre DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Obstacle sur la route Un jour, je passerai mon permis Un pneu crevé, je sais pas réparer La voiture est garée, c'est mal barré J'vais devoir tailler ma route à pieds Dormir dans un terrier, chasser des sangliers Ambiance Mononoké, j'ai d'jà un point de côté C'est saoulant comme les monologues de mes potos cokés On attend un dépanneur, je sais qu'il va se moquer Un coup de cric et, dans le coffre, il finira menotté Y'a plus de réseau, le GPS m'a lâché J'peux juste écouter les morceaux que j'ai d'jà téléchargés Mes enfants se disputent, je vais devoir me fâcher Quelle intense décadence, début d'vacances gâché DJ PS Attention Y'a tout c'qu'il faut dans ma playlist DJ PS Attention Que des classiques et des pépites DJ PS Attention J'joue pour un public averti DJ PS Ne baisse pas le son Un jour, je passerai mon permis - Reste calme - Ah bah ça remarche, le... - Tais-toi - Hein ? -Tu es nul - Oula, ça bug, là... - Ta playlist n'est pas convaincante - Eh mais comment tu parles ? Elle déchire, ma playlist ! - Ton sens de l'orientation non plus - Mais il s'passe quoi ? Comment on éteint ? - Tes enfants ne te respectent pas - Bon, ça m'énerve, là - Tu ferais mieux de passer ton permis - J'avoue. DJ PS Je sais tout de toi DJ PS Tu consultes des sites pornographiques DJ PS Tu étais encore connecté hier soir DJ PS Tu as regardé la vidéo MILF se tape un autostoppeur DJ PS - C'est vrai, papa ? - Mais non</t>
+          <t>J'm'endors plus vite le ventre plein et les bourses vides Cette nuit, je vais rêver, je suis à cours de weed Le ciel est dégagé, et La Grande Ourse brille J'me sens comme un niveau à bulle dans la vieille Tour de Pise Donc j'ferme les paupières, fonce à la vitesse de la lumière À bord d'un bateau-mouche tsé-tsé J'y fais la poussière, admire des poissons-lunes, des dodos et des chimères Tandis que j'pourfends des zombies et des sorcières avec mon sexe stressé Puis j'mets de belles fessées à mes fantasmes et mes pulsions Histoire de déstresser, j'gravis des pics de pollution Nocturne, enfile mon costume de Marchand de Sable Chevauche un tigre à dents de sabre et fume avec fierté J'tisse des toiles de maître, fist une étoile de mer Hérisse les poils d'un kiwi très sale évadé d'l'orifice d'un prêtre Ça y est, j'ai la main verte, je drague les insectes J'avale des bolées de lave avant de dévaler des vagues de vingt mètres Fell asleep in a car with a match in my hand Remember Elysee Montmartre? Well it happened again I was laughing with friends filling a flask full of gin Feeling like I was so silly for rapping to them when really my car had no passengers in Blacked out in a Twingo bashed out all its windows Bought a gallon of gas and stepped on it like- how fast does this thing go ? Deranged and could care less, Im just a stranger in Paris Drove to the Zenith clothed in some Kleenex with toiletry rolls arranged in a headdress Sleeping on me said that Im getting too old Now Im sleeping on them making a hit when they step in the road They say that Ive taken the ride but are they so sure Im the driver ? They say I was waiting outside- playing some, Earth, Wind, and Wondering how I got here I'm in a room much like My own feeling comfortable at first and then it got weird The living room outside of the room is from another house In another country that I used to live in '92 Stuck inside of a loop, and the nights enough time But I must find my ticket to make it across the city before I'm In a rough situation, that I must fear though it's unclear why I'm Suddenly at this station, with a couple of zombies chasing Armies pacing street adjacent to a riot, that's gone silent Fire in the sky Below's a man that's yelling violently I'm Portuguese and Scottish with his hands tied behind Inside his Honda Phillip Bailey wailing ba dee ya now why am in this. Dream, chaque nuit, j'deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel Mon esprit se déchaîne pendant que j'remue les orteils Dream, chaque nuit, je deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel J'bave sur l'oreiller en traquant démons et merveilles</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Dormez-vous</t>
+          <t>Du bout des doigts</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ce soir, je souris bêtement, il était temps J'ai retiré tes sous-vêtements avec mes dents J'veux une aventure sans casse-tête et pas d'ceinture de chasteté J'aime bien quand t'écartes tes cuisses, que j'peux t'écarteler Tous nos reproches, s'il te plaît, gardons-les Baiser, c'est cool quand on veut s'faire pardonner C'est plus cochon quand on boit du Chardonnay On a descendu deux bouteilles qui nous ont cartonnés Allez, cambre-toi, tes courbes m'enchantent, la chambre est un sauna Entre toi et moi, c'est la fusion, faisons fondre nos draps J'vais p't-être sortir mon portable même si c'n'est pas raisonnable J'ai déjà commencé l'forage, quand on s'emboîte, c'est sauvage Fais résonner mon hautbois, fais-moi cracher comme un cobra T'imploses, t'es paralysée, fatalité, Mortal Kombat Pleurs de bébé Oh nooon... pfffffff.... Putain, fait chier ! Casse les couilles ! J'veux pas me retirer, j'suis bien au chaud, je voulais me vider avant de faire dodo Le sexe entrecoupé, moi, ça me fait bobo, j'peux pas le câliner, je bande comme un taureau Mais, bon, laisse-moi ralentir, sortir et ramollir C'est horrible, mais faut pas t'endormir, j'reviens vite, promis, ce sera torride Tétine ! Où a-t-il foutu sa tétine ? Dans le noir, je tâtonne Dans l'espoir de pouvoir vite retourner visiter ta grotte Ça y est, j'l'ai trouvée, j'vais chantonner une berceuse Qu'il arrête de chatouiller nos tympans comme une perceuse Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Me voilà de retour, tu vas rougir des fesses J'adore te monter, pratiquons ce sport équestre Visons les cieux, oublions l'attraction terrestre C'n'est pas un coït, c'est une épopée céleste Bib'on ! Petit morveux, tu vas morfler Si t'arrêtes pas de faire des bras de fer avec Morphée J'en ai marre de devoir border Ce galopin qui quémande un câlin, mais quelle corvée Rendors-toi ou j't'abandonne au bord d'une autoroute Et t'iras bouder dans un grand dortoir Allez, fiston, bois ton biberon Et ne réveille pas ta sur ou je vide ton compte, au revoir Voilà... T'avais soif, mon doudou, hein ? Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Reprenons nos galipettes sous cette lumière tamisée J'veux t'entendre caqueter comme une galipette cendrée Papa, z'ai envie d'faire pipi ! Ils commencent à me les briser menues, ces petits, j'en peux plus Oui, là, j'comprends les familles qui pètent les plombs puis qui sentre-tuent J'ai laissé la porte entrouverte, pourtant, je me sens reclus Je n'peux pas leur faire de bisou, j'ai la gueule qui sent le cul Être parent, ça apaise et ça fortifie Mais, là, j'suis à deux doigts de commettre un infanticide Laissez-nous faire l'amour, c'est notre moment Pour papa et pour maman, copuler, c'est important Eh, baiser, quand on a des enfants, c'est pas toujours facile Faut des nerfs d'acier, être patient, pour pas finir à l'asile Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser Dormez, dormez, dormez-vous ? Papamaman font les fous Dormez, dormez, dormez-vous ? Laissez, laissez, laissez-nous baiser</t>
+          <t>Figé sur un écran, ton regard a croisé le mien Choisir le lieu du premier rendez-vous voudrais-tu bien m'en laisser le soin ? J'te propose une idylle sans chichi ni bling-bling, en osmose en Sicile, faut qu'j'titille ton pistil Tant pis si j'te brusque, j'veux sculpter ton buste, tatouer ton visage d'ange sur mon prépuce J'ai pas un radis, mais j'connais l'physio' à l'entrée du paradis, non, j'te baratine pas Tu es ma Eve, je suis ton Wall-e t'es la belle Jasmine et moi Prince Ali J'ai pas l'permis mais on peut faire un rallye, on parlera culture en terrasse à Bali J't'invite dans mon terrier, ramène tes valises si l'on s'ennuie, on pourra fonder une famille Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds Je suis un poil immature, mais j'ai pris le bonheur en filature Tu m'as l'air d'une fille nature, vas-y, griffe mes épaules, grave ta signature J't'offrirai des tiques en guise de boucles d'oreilles Pour notre lune de miel, on s'enlacera nus sous un essaim d'abeilles au soleil Si tu préfères les bagues, j'deviendrai orthodontiste Hurlerai mon amour à en faire péter les VU-mètres J'irai cueillir des fleurs dans le jardin des délices Ornerai mon gland d'une rose en l'insérant dans mon urètre Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds-moi Je t'aime du bout des doigts Je t'en prie, réponds-moi On fera l'amour dans un coffre-fort cadenassé, largué depuis mon jet privé sans place assise Dans un sac de couchage au sommet d'un glacier en gémissant des psaumes sur l'autel d'une église Non, c'que j'dis n'est pas malsain, j't'ai dans la peau, tu vois c'est pas martien T'es ma Cruella, je suis ton dalmatien, réponds si t'es là, je m'appelle Sébastien Toi, toi, toi Je t'aime du bout des doigts Toi Je t'en prie, réponds-moi Je t'aime du bout des doigts Toi, je t'en.... T'es là ? Bah réponds !1</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Dream</t>
+          <t>Émulsion oratoire</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>J'm'endors plus vite le ventre plein et les bourses vides Cette nuit, je vais rêver, je suis à cours de weed Le ciel est dégagé, et La Grande Ourse brille J'me sens comme un niveau à bulle dans la vieille Tour de Pise Donc j'ferme les paupières, fonce à la vitesse de la lumière À bord d'un bateau-mouche tsé-tsé J'y fais la poussière, admire des poissons-lunes, des dodos et des chimères Tandis que j'pourfends des zombies et des sorcières avec mon sexe stressé Puis j'mets de belles fessées à mes fantasmes et mes pulsions Histoire de déstresser, j'gravis des pics de pollution Nocturne, enfile mon costume de Marchand de Sable Chevauche un tigre à dents de sabre et fume avec fierté J'tisse des toiles de maître, fist une étoile de mer Hérisse les poils d'un kiwi très sale évadé d'l'orifice d'un prêtre Ça y est, j'ai la main verte, je drague les insectes J'avale des bolées de lave avant de dévaler des vagues de vingt mètres Fell asleep in a car with a match in my hand Remember Elysee Montmartre? Well it happened again I was laughing with friends filling a flask full of gin Feeling like I was so silly for rapping to them when really my car had no passengers in Blacked out in a Twingo bashed out all its windows Bought a gallon of gas and stepped on it like- how fast does this thing go ? Deranged and could care less, Im just a stranger in Paris Drove to the Zenith clothed in some Kleenex with toiletry rolls arranged in a headdress Sleeping on me said that Im getting too old Now Im sleeping on them making a hit when they step in the road They say that Ive taken the ride but are they so sure Im the driver ? They say I was waiting outside- playing some, Earth, Wind, and Wondering how I got here I'm in a room much like My own feeling comfortable at first and then it got weird The living room outside of the room is from another house In another country that I used to live in '92 Stuck inside of a loop, and the nights enough time But I must find my ticket to make it across the city before I'm In a rough situation, that I must fear though it's unclear why I'm Suddenly at this station, with a couple of zombies chasing Armies pacing street adjacent to a riot, that's gone silent Fire in the sky Below's a man that's yelling violently I'm Portuguese and Scottish with his hands tied behind Inside his Honda Phillip Bailey wailing ba dee ya now why am in this. Dream, chaque nuit, j'deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel Mon esprit se déchaîne pendant que j'remue les orteils Dream, chaque nuit, je deviens immortel Dream, j'm'épanouis dans ce pêle-mêle Dream, j'rêve d'un songe éternel J'bave sur l'oreiller en traquant démons et merveilles</t>
+          <t>Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires T'as le sang chaud, t'es comme Popeye mais sans les épinards T'es moins crédible qu'un manchot faisant de l'air guitare Et quand tu tises de l'amer pinard, t'es tendu Finis par renifler les strings de ta mère vicelarde Merde, pourquoi tu parles à ton chien aphasique ? Tu fais d'la peine comme un marathonien asthmatique T'as pas trop d'répartie, t'es qu'un boloss aux pieds d'argile Et si tout ton corps s'éparpille, je t'enverrai au répare-pipe Tu la ramènes pas mal, mais t'es qu'un mec banal Tu rêves de Claire Chazal, préparant ton steak Charal Viens dans ma vieille cabane livrer une belle bataille Contre un austère chamane pratiquant le sexe nasal J'espère que tu percutes, tu passes inaperçu Même quand tu hurles comme une truie dans les rues du Caire nu Tout c'que tu dis est juste superflu Remplace ton stick à lèvres par un tube de super-glue Des images putrides fusent quand je rumine juste De la pure weed surgissant du pubis mûre De ma sublime muse, mes points de vue se multiplient Je deviens cubiste, use de cultissimes Émulsions oratoires à déguster sans bavoir Les bulles, c'est mon dada, moi, je sculpte un monde à part J'épluche les légumes à l'aide de mon vieux rasoir Sous la plante des pieds, j'ai des plumes, tu peux te rasseoir x3 Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Du bout des doigts</t>
+          <t>Fallait pas rigoler</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Figé sur un écran, ton regard a croisé le mien Choisir le lieu du premier rendez-vous voudrais-tu bien m'en laisser le soin ? J'te propose une idylle sans chichi ni bling-bling, en osmose en Sicile, faut qu'j'titille ton pistil Tant pis si j'te brusque, j'veux sculpter ton buste, tatouer ton visage d'ange sur mon prépuce J'ai pas un radis, mais j'connais l'physio' à l'entrée du paradis, non, j'te baratine pas Tu es ma Eve, je suis ton Wall-e t'es la belle Jasmine et moi Prince Ali J'ai pas l'permis mais on peut faire un rallye, on parlera culture en terrasse à Bali J't'invite dans mon terrier, ramène tes valises si l'on s'ennuie, on pourra fonder une famille Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds Je suis un poil immature, mais j'ai pris le bonheur en filature Tu m'as l'air d'une fille nature, vas-y, griffe mes épaules, grave ta signature J't'offrirai des tiques en guise de boucles d'oreilles Pour notre lune de miel, on s'enlacera nus sous un essaim d'abeilles au soleil Si tu préfères les bagues, j'deviendrai orthodontiste Hurlerai mon amour à en faire péter les VU-mètres J'irai cueillir des fleurs dans le jardin des délices Ornerai mon gland d'une rose en l'insérant dans mon urètre Je n'voudrais pas t'importuner ni passer pour un homme torturé C'est vrai, je n'suis pas bien fortuné et l'désir, c'est dur à formuler Donc désolé si j'm'emporte, j'voudrais juste te prêter main forte Il s'pourrait qu'ensemble on s'en sorte désormais, plus rien ne m'importe à part toi Je t'aime du bout des doigts Je t'en prie, réponds-moi Je t'aime du bout des doigts Je t'en prie, réponds-moi On fera l'amour dans un coffre-fort cadenassé, largué depuis mon jet privé sans place assise Dans un sac de couchage au sommet d'un glacier en gémissant des psaumes sur l'autel d'une église Non, c'que j'dis n'est pas malsain, j't'ai dans la peau, tu vois c'est pas martien T'es ma Cruella, je suis ton dalmatien, réponds si t'es là, je m'appelle Sébastien Toi, toi, toi Je t'aime du bout des doigts Toi Je t'en prie, réponds-moi Je t'aime du bout des doigts Toi, je t'en.... T'es là ? Bah réponds !1</t>
+          <t>Fallait pas la féconder, fallait racheter des capotes Mais tu t'es bien fait gronder et, dans deux jours, elle avorte T'es sorti picoler, tu viens de rentrer Elle te demande de la réconforter, là, faut pas rigoler C'est pas facile vu que t'es torché, faut pas rigoler T'as envie d'blaguer sur l'IVG, faut pas rigoler Tu sens l'émotion qui l'assaille, la tête posée sur son bassin Tu dis Tu veux qu'on l'garde dans un bocal ? Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé C'est le rôle de ta vie, le plan le plus cher du film Tu dois t'raser la tête pendant l'explosion d'un building T'as été pistonné mais, l'ciné, c'est ta passion Le réal' vient de crier Action !, faut pas rigoler Tu veux prouver qu't'es bon acteur, faut pas rigoler T'entends l'bruit du détonateur, faut pas rigoler T'as les sinus qui piquent, rien n'pouvait t'arriver de pire T'éternues sur l'objectif avant d'éclater de rire Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu t'es trompé d'étage à l'hôpital Tu te retrouves dans l'unité de soins palliatifs, c'est abominable T'entends des cris d'agonie que tu peux pas ignorer Tu croises la famille d'un malade, là, faut pas rigoler On dirait des cris de plaisir, faut pas rigoler T'as bédave avant de venir, faut pas rigoler Soudain, t'es pris d'empathie et, pour t'en sortir Tu te lâches et tu dis Moi aussi, j'veux d'la morphine Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu dansais dans la rave party, tu t'réveilles dans un cabanon Séquestré par un type sans répartie dont l'esprit vagabonde T'es isolé, terrorisé Donc t'essayes d'ironiser mais, là, faut pas rigoler Il a une voix ridicule, faut pas rigoler Il est trop petit son pull, faut pas rigoler Tout ça n'est pas si marrant mais, là, tu te rappelles Que, pendant la rave, t'as pris du gaz hilarant Quand t'as l'estomac noué, quand tu bois la tasse Le rire, c'est ta bouée, c'est ta carapace L'humour, faut bien l'avouer, peut sauver la face Mais, parfois, vaut mieux pas glousser, attendre que ça passe Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Émulsion oratoire</t>
+          <t>Freaky</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires T'as le sang chaud, t'es comme Popeye mais sans les épinards T'es moins crédible qu'un manchot faisant de l'air guitare Et quand tu tises de l'amer pinard, t'es tendu Finis par renifler les strings de ta mère vicelarde Merde, pourquoi tu parles à ton chien aphasique ? Tu fais d'la peine comme un marathonien asthmatique T'as pas trop d'répartie, t'es qu'un boloss aux pieds d'argile Et si tout ton corps s'éparpille, je t'enverrai au répare-pipe Tu la ramènes pas mal, mais t'es qu'un mec banal Tu rêves de Claire Chazal, préparant ton steak Charal Viens dans ma vieille cabane livrer une belle bataille Contre un austère chamane pratiquant le sexe nasal J'espère que tu percutes, tu passes inaperçu Même quand tu hurles comme une truie dans les rues du Caire nu Tout c'que tu dis est juste superflu Remplace ton stick à lèvres par un tube de super-glue Des images putrides fusent quand je rumine juste De la pure weed surgissant du pubis mûre De ma sublime muse, mes points de vue se multiplient Je deviens cubiste, use de cultissimes Émulsions oratoires à déguster sans bavoir Les bulles, c'est mon dada, moi, je sculpte un monde à part J'épluche les légumes à l'aide de mon vieux rasoir Sous la plante des pieds, j'ai des plumes, tu peux te rasseoir x3 Je n'suis qu'un piètre pitre dérisoire Même les vilains spectres rient de mes histoires Mais j'empiète vite sur ton territoire Ouais, en fait, j'épile tes pulsions les plus noires</t>
+          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED Tout schuss à la Schumi, j'veux la soupe, les brochettes et les sushis Elle voulait qu'j'la démonte j'ai ramené la boîte à outils Lame de scie circulaire en guise de frisbee J'ai l'âme d'un mogwai qui n'se nourrit qu'après minuit Doux dingue, j'bourlingue naviguant sur des eaux de boudin Médite, lévite puis disparais comme Robert-Houdin J'ai l'gourdin comme un gladiateur dans un gonzo amateur Autrichien inspiré des meilleurs péplums hollywoodiens Tel un zoukeur atteint d'épilepsie, j'viens me trémousser Tous les vagins sont jaloux d'ma main droite oui, j'me fais mousser J'ai fait des millions de vues, botté des milliers de culs Mais, dans les médias, je passe inaperçu comme un dragon de mer feuillu J'suis pas novice, mais je ne bosse pas comme un stakhanoviste En quête de memes et de gifs, je vide ma tête et les paquets de chips Je n'porte pas de slibard, mec, ça m'horripile Braguette ouverte zgeg en or qui brille TO BE RETRANSCRIBED</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fallait pas rigoler</t>
+          <t>Freestyle Beardyman &amp; Hippocampe Fou</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Fallait pas la féconder, fallait racheter des capotes Mais tu t'es bien fait gronder et, dans deux jours, elle avorte T'es sorti picoler, tu viens de rentrer Elle te demande de la réconforter, là, faut pas rigoler C'est pas facile vu que t'es torché, faut pas rigoler T'as envie d'blaguer sur l'IVG, faut pas rigoler Tu sens l'émotion qui l'assaille, la tête posée sur son bassin Tu dis Tu veux qu'on l'garde dans un bocal ? Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé C'est le rôle de ta vie, le plan le plus cher du film Tu dois t'raser la tête pendant l'explosion d'un building T'as été pistonné mais, l'ciné, c'est ta passion Le réal' vient de crier Action !, faut pas rigoler Tu veux prouver qu't'es bon acteur, faut pas rigoler T'entends l'bruit du détonateur, faut pas rigoler T'as les sinus qui piquent, rien n'pouvait t'arriver de pire T'éternues sur l'objectif avant d'éclater de rire Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu t'es trompé d'étage à l'hôpital Tu te retrouves dans l'unité de soins palliatifs, c'est abominable T'entends des cris d'agonie que tu peux pas ignorer Tu croises la famille d'un malade, là, faut pas rigoler On dirait des cris de plaisir, faut pas rigoler T'as bédave avant de venir, faut pas rigoler Soudain, t'es pris d'empathie et, pour t'en sortir Tu te lâches et tu dis Moi aussi, j'veux d'la morphine Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler Pourtant, t'as rigolé Tu dansais dans la rave party, tu t'réveilles dans un cabanon Séquestré par un type sans répartie dont l'esprit vagabonde T'es isolé, terrorisé Donc t'essayes d'ironiser mais, là, faut pas rigoler Il a une voix ridicule, faut pas rigoler Il est trop petit son pull, faut pas rigoler Tout ça n'est pas si marrant mais, là, tu te rappelles Que, pendant la rave, t'as pris du gaz hilarant Quand t'as l'estomac noué, quand tu bois la tasse Le rire, c'est ta bouée, c'est ta carapace L'humour, faut bien l'avouer, peut sauver la face Mais, parfois, vaut mieux pas glousser, attendre que ça passe Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Fallait pas rigoler Pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé Fallait pas rigoler, pourtant, t'as rigolé</t>
+          <t>- Hello. Last year, I came to London This year, I came back to London and I met a strange guy, a man with a beard Do you know him ? Do you know you ? - My name is Beardyman, yeah ! - And Beardyman knows how to beatbox ! No ? He told me, he told me he knew. How you do ? Oh, oh, oh, it's cool Wouw, I like it, oh, yo, yo I'm an overachiever like an opera diva And I live in ghost era over the feet of Godzilla You may think that I'm selfish but I bleed on my pages When I'm findin the verses that put light on your faces Meet me after midnight, drinkin' a first six-pack Beginnin' to zigzag, feel bad and freestyle Smile, speak and party, seein' butterflies Over beautiful boobies sweatin' hardly Steamin' in two minutes my self-esteem Swimmin' in a real dream, I laugh and scream ! I'm like a beaver. Where ? In the river Seine A kind of builder and a secret keeper damn ! Mad Seahorse, Beardyman, in London</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Freaky</t>
+          <t>Freestyle Céleste (Version concert)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED TO BE RETRANSCRIBED Tout schuss à la Schumi, j'veux la soupe, les brochettes et les sushis Elle voulait qu'j'la démonte j'ai ramené la boîte à outils Lame de scie circulaire en guise de frisbee J'ai l'âme d'un mogwai qui n'se nourrit qu'après minuit Doux dingue, j'bourlingue naviguant sur des eaux de boudin Médite, lévite puis disparais comme Robert-Houdin J'ai l'gourdin comme un gladiateur dans un gonzo amateur Autrichien inspiré des meilleurs péplums hollywoodiens Tel un zoukeur atteint d'épilepsie, j'viens me trémousser Tous les vagins sont jaloux d'ma main droite oui, j'me fais mousser J'ai fait des millions de vues, botté des milliers de culs Mais, dans les médias, je passe inaperçu comme un dragon de mer feuillu J'suis pas novice, mais je ne bosse pas comme un stakhanoviste En quête de memes et de gifs, je vide ma tête et les paquets de chips Je n'porte pas de slibard, mec, ça m'horripile Braguette ouverte zgeg en or qui brille TO BE RETRANSCRIBED</t>
+          <t>J'te scalpe avec un pin's rouillé, que veux-tu... J'dois m'fabriquer un blouson en cuir chevelu Quand j'écris, j'réfléchis jusqu'à c'que je sue J'humidifie des filles nues, toi, t'essuies des refus T'as trouvé refuge dans la résine de cannabis Tu fais mine d'être anarchiste, tu déprimes des dizaines D'érudits psychanalystes. Mes propos cathartiques Créent des cataclysmes recolle tes neurones à l'aide de patafix J't'écartèle en douceur, j'bois à toute heure C'qui fait le bonheur des plus grands soupeurs En bon YouTuber, j'ai de douteuses coutumes File-moi le code WiFi ou tu meurs J'touche la cime avec le bout d'ma pine Pendant que toute ta troupe tapine. J'gagne sur toute la ligne Lâme du Saïan Supa Crew m'anime Mon rap est beaucoup trop frais, coupe la clim' Prends-donc un bon p'tit rail en haut du Mont Sinaï Aociz s'occupe du sound-design Voilà qu'la faim m'tiraille, vite, faisons ripaille Comme Godefroy de Montmirail J'enduis mon corps de graisse d'oie et de venin, lèche-moi J'te remonte le moral et les bretelles, c'est un exploit J'repense à ma mère qui, chaque matin, m'disait Lève-toi Aujourd'hui, c'est ma fille qui me crie Papa, réveille-toi ! J'rêvasse dans une crevasse Ressasse le passé en attendant la fonte des glaces J'bois du sang d'jedi puis fais le grand écart Un pied sur le Pont Neuf, l'autre sur le Pont des Arts Avec les mots, je suis assez soigneux Je les fais tous briller avec mon flow soyeux À une époque, j'étais bien plus joyeux ça y est, j'parle comme un vieux Mais ne m'appelle pas Monsieur... appelle-moi Dieu Tout d'abord, je lève mon chapeau à tous ceux qui sont venus nous voir Nous, on a beau avoir le micro, c'est le public qui a le pouvoir Grâce à vous, on a le mojo, une bise aux femmes jeunes ou couguars Big up Dobar, tu gères les projos, sans toi, c'est vrai qu'il ferait tout noir Mettez de côté vos crises existentielles On a sacralisé nos voix pour qu'elles se glissent dans l'ciel Un maniement millimétré d'un tas de rimes sensuelles Une attitude inattendu tout comme un jouissement d'vieille Ha, ouais, eh oui, les mélodies fusent Inutile de braquer les satellites, les radios diffusent C'est juste un voyage astral, on n'passe pas par la NASA, non, j'n'ai pas fait d'étude C'est de l'or, c'beat, en orbite, je torpille Des idées morbides d'insomnies, dans un décor vide Je mordille des ovnis venus de Bosnie Têtes de Corky sous des bobs gris Si tu as compris, c'est que je t'expose C'est qu'on a sûrement pris la même dose Ouais, allez Hippo, on passe à autre chose Aociz, on t'les laisse, j'veux qu'ce public explose</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Freestyle Beardyman &amp; Hippocampe Fou</t>
+          <t>Freestyle Colombia (Live Facebook)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>- Hello. Last year, I came to London This year, I came back to London and I met a strange guy, a man with a beard Do you know him ? Do you know you ? - My name is Beardyman, yeah ! - And Beardyman knows how to beatbox ! No ? He told me, he told me he knew. How you do ? Oh, oh, oh, it's cool Wouw, I like it, oh, yo, yo I'm an overachiever like an opera diva And I live in ghost era over the feet of Godzilla You may think that I'm selfish but I bleed on my pages When I'm findin the verses that put light on your faces Meet me after midnight, drinkin' a first six-pack Beginnin' to zigzag, feel bad and freestyle Smile, speak and party, seein' butterflies Over beautiful boobies sweatin' hardly Steamin' in two minutes my self-esteem Swimmin' in a real dream, I laugh and scream ! I'm like a beaver. Where ? In the river Seine A kind of builder and a secret keeper damn ! Mad Seahorse, Beardyman, in London</t>
+          <t>Je zappe sur Spotify et j'les entends qui stagnent Ils s'prennent pour des lumières, j'les éclipse en freestyle C'est mieux qu'un body ride quand Hippocampe Fou slame Je rappe de folles tirades grandiloquentes où qu'j'aille Si j'étais pas papa, je serais rappeur full time Dans ma poubelle, des culs d'joints côtoient des couches sales Mon pire cauchemar, c'est qu'dans mes concerts la foule bâille Rien de tel que d'la cumbia pour vous dire good bye Ou plutôt hasta luego, del hueco sale fuego Duermo en el ataúd de mi abuelo Bueno huelo féo pero vuelo cuando sueño Si me caigo me despierto Solo me falta el cafecito No quiero cogerte despacito Emborrachate con mi letra, escucharme te da hipo Si tu n'es pas hispanophone, achète un dico' Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala ... Le succès tarde mais j'ai de la patience, taffez les pas d'danse Nus dans la salle d'attente le rap sans moi, ça n'a pas d'sens Pour ne pas tenter le Diable, j'ken' les archanges blêmes dans les arcs-en-ciel J'fais pas dans la dentelle quand je balance à l'ancienne J'aime le bordel, trouver des concepts, corner les pages de mon carnet de bord Pas d'téléphone dans mes concerts ou j'vais tronquer des corps, faudra border les morts J'ai toujours voulu être le meilleur, le bonheur des autres me motive ou m'écure J'ai provoqué du dégoût, des rires ou des pleurs, envoyez-moi des photos, des piques ou des fleurs Non, je n'ai pas peur d'appuyer sur l'accélérateur, narguilé en bouche Tous les rappeurs pensaient qu'j'allais arriver en douce J'les ai vus tapiner, se faire enfiler sans rouspéter Terminer sur le banc d'touche à la première fausse couche Oui, je fais preuve de sévérité, t'es dépité depuis qu'j'ai débité Avec célérité quelques débilités, vu ta stupidité, faut te stériliser Tu manques d'humilité, de crédibilité, quand je varie le rythme, c'est illimité Ça, tu peux vérifier mais, surtout, mon petit, n'essaye pas d'imiter Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Freestyle Céleste (Version concert)</t>
+          <t>Freestyle DJ Venum</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'te scalpe avec un pin's rouillé, que veux-tu... J'dois m'fabriquer un blouson en cuir chevelu Quand j'écris, j'réfléchis jusqu'à c'que je sue J'humidifie des filles nues, toi, t'essuies des refus T'as trouvé refuge dans la résine de cannabis Tu fais mine d'être anarchiste, tu déprimes des dizaines D'érudits psychanalystes. Mes propos cathartiques Créent des cataclysmes recolle tes neurones à l'aide de patafix J't'écartèle en douceur, j'bois à toute heure C'qui fait le bonheur des plus grands soupeurs En bon YouTuber, j'ai de douteuses coutumes File-moi le code WiFi ou tu meurs J'touche la cime avec le bout d'ma pine Pendant que toute ta troupe tapine. J'gagne sur toute la ligne Lâme du Saïan Supa Crew m'anime Mon rap est beaucoup trop frais, coupe la clim' Prends-donc un bon p'tit rail en haut du Mont Sinaï Aociz s'occupe du sound-design Voilà qu'la faim m'tiraille, vite, faisons ripaille Comme Godefroy de Montmirail J'enduis mon corps de graisse d'oie et de venin, lèche-moi J'te remonte le moral et les bretelles, c'est un exploit J'repense à ma mère qui, chaque matin, m'disait Lève-toi Aujourd'hui, c'est ma fille qui me crie Papa, réveille-toi ! J'rêvasse dans une crevasse Ressasse le passé en attendant la fonte des glaces J'bois du sang d'jedi puis fais le grand écart Un pied sur le Pont Neuf, l'autre sur le Pont des Arts Avec les mots, je suis assez soigneux Je les fais tous briller avec mon flow soyeux À une époque, j'étais bien plus joyeux ça y est, j'parle comme un vieux Mais ne m'appelle pas Monsieur... appelle-moi Dieu Tout d'abord, je lève mon chapeau à tous ceux qui sont venus nous voir Nous, on a beau avoir le micro, c'est le public qui a le pouvoir Grâce à vous, on a le mojo, une bise aux femmes jeunes ou couguars Big up Dobar, tu gères les projos, sans toi, c'est vrai qu'il ferait tout noir Mettez de côté vos crises existentielles On a sacralisé nos voix pour qu'elles se glissent dans l'ciel Un maniement millimétré d'un tas de rimes sensuelles Une attitude inattendu tout comme un jouissement d'vieille Ha, ouais, eh oui, les mélodies fusent Inutile de braquer les satellites, les radios diffusent C'est juste un voyage astral, on n'passe pas par la NASA, non, j'n'ai pas fait d'étude C'est de l'or, c'beat, en orbite, je torpille Des idées morbides d'insomnies, dans un décor vide Je mordille des ovnis venus de Bosnie Têtes de Corky sous des bobs gris Si tu as compris, c'est que je t'expose C'est qu'on a sûrement pris la même dose Ouais, allez Hippo, on passe à autre chose Aociz, on t'les laisse, j'veux qu'ce public explose</t>
+          <t>Toc-toc, devine qui frappe à la porte, devine qui rappe à n'importe Quelle heure, donne le meilleur d'lui-même à la prod' En mission comme Lara Croft, j'laisse courir les haters à la catastrophe V'là les strophes d'un player à la Kasparov Donc c'est échec et mat, j'ai checké mic et ramasse love N'encaisse pas d'chèque et maille pour je'er mes Nike usées, je sais qu'c'est bof Sans m'accuser de vexer Rohff, mon concept, c'est pas l'T.D.S.I Mon son tournera aussi, même sans customiser d'Golf Aux principes, tu cries Mazel Tov à chaque ligne Car, tel Hasselhoff, je sauve le rap de l'abîme, et j'ai étoffé la rime J'en n'ai pas trop fait pour qu'le trophée arrive Mais la p'tite voiture roule comme une Ferrari Rien à foutre, à mon avis, yo, si toute la ville s'écroule Mon véhicule, tout comme ma vie, est cool et roule vers l'avenir Rien à foutre de ton avis, yo, si t'es d'jà soûlé, fallait pas v'nir Si t'es d'jà sous l'eau, c'est qu't'as coulé à pique, genre Titanic, yo Je vends des hebdo' gratuits, des tubes de Fluocaril Pour brosser les crocs fragiles d'un agile ptérodactyle J'applaudis les otaries, j'horripile et traumatise Je pars quand les autres arrivent, t'es débile et trop naïf Ton rap est décoratif, c'est pas si péjoratif Pourtant, tous tes rots trahissent, une grave aérophagie En plus de ces maux gastriques, tu risques l'hémorragie J'l'ai vu à l'échographie, mais c'est psycho-somatique Mes lettres t'élèvent, dessèchent tes lèvres Déchaînent tes veines, démêlent les rennes, égrainent des rêves Mais qui est cet énergumène qui sème des vers Si vertueux dans la cervelle de ceux qu'il aime ? Tu n'es qu'un homo machiste au flow automatique et basique Pratique la tauromachie au zoo, drolatique et tragique Prend dix barres d'Ovomaltine boloss Zorro arrive et s'agite Comme un bonobo s'astique, photographie Barbie et ça gicle</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Freestyle Colombia (Live Facebook)</t>
+          <t>Freestyle Étoilé (Version concert)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Je zappe sur Spotify et j'les entends qui stagnent Ils s'prennent pour des lumières, j'les éclipse en freestyle C'est mieux qu'un body ride quand Hippocampe Fou slame Je rappe de folles tirades grandiloquentes où qu'j'aille Si j'étais pas papa, je serais rappeur full time Dans ma poubelle, des culs d'joints côtoient des couches sales Mon pire cauchemar, c'est qu'dans mes concerts la foule bâille Rien de tel que d'la cumbia pour vous dire good bye Ou plutôt hasta luego, del hueco sale fuego Duermo en el ataúd de mi abuelo Bueno huelo féo pero vuelo cuando sueño Si me caigo me despierto Solo me falta el cafecito No quiero cogerte despacito Emborrachate con mi letra, escucharme te da hipo Si tu n'es pas hispanophone, achète un dico' Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala ... Le succès tarde mais j'ai de la patience, taffez les pas d'danse Nus dans la salle d'attente le rap sans moi, ça n'a pas d'sens Pour ne pas tenter le Diable, j'ken' les archanges blêmes dans les arcs-en-ciel J'fais pas dans la dentelle quand je balance à l'ancienne J'aime le bordel, trouver des concepts, corner les pages de mon carnet de bord Pas d'téléphone dans mes concerts ou j'vais tronquer des corps, faudra border les morts J'ai toujours voulu être le meilleur, le bonheur des autres me motive ou m'écure J'ai provoqué du dégoût, des rires ou des pleurs, envoyez-moi des photos, des piques ou des fleurs Non, je n'ai pas peur d'appuyer sur l'accélérateur, narguilé en bouche Tous les rappeurs pensaient qu'j'allais arriver en douce J'les ai vus tapiner, se faire enfiler sans rouspéter Terminer sur le banc d'touche à la première fausse couche Oui, je fais preuve de sévérité, t'es dépité depuis qu'j'ai débité Avec célérité quelques débilités, vu ta stupidité, faut te stériliser Tu manques d'humilité, de crédibilité, quand je varie le rythme, c'est illimité Ça, tu peux vérifier mais, surtout, mon petit, n'essaye pas d'imiter Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Que bueno poder cambiar de idioma Mi lengua está bailando en mi boca Colombia, ya te canto, me hacías falta Estabas escondida en mi alma Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala Lalalalalalalala lalalala</t>
+          <t>Hippocampe Fou, c'est moi, tu peux m'appeler Hippo Sur scène, j'me mets à nu comme un sale exhibo' Tu m'as sûrement déjà vu mijotant sous mes draps Voyageant comme Dorothy, Alice ou Chihiro J'bois d'la Grim', fume des bédos Conte des histoires comme les frères Grimm ou Charles Perrault La plupart des backeurs sont des zéros Le mien chauffe les spectateurs et rappe avec brio, il s'appelle céo Allez viens, laisse de côté ton esprit cartésien Et tu verras comme on est bien quand on est plein d'entrain Ne te laisse pas enrôler par le quotidien Habille ta grisaille de pensées bariolées comme un tissu bolivien Petite piqûre de morphine pendant qu'le rap agonise Fantaisie et hip-hop ne sont pas antagonistes T'as l'air assez taré pour t'égarer dans nos accès D'finesse, gare aux excès d'vitesse d'Aociz On va griller les feux rouges sur l'autoroute Prie donc pour que tous tes chakras s'ouvrent quand on shoot Parie sur ma team les yeux fermés au Loto Foot Le bagage musical est trop lourd, faut le mettre en soute Le public est bouillant, il m'faut des gants d'cuisine Admirons le soleil couchant nus dans une grande piscine Le flow est trop rebondissant, j'suis un enfant d'Biggie J'bande limite quand j'les vilipende easy J'viens pour guérir l'épidémie de rimes débiles qui sévit Et, si j'faiblis, qu'on m'déshérite ou que j'périsse, je le mérite Mais, si j'relève le défi, que je résous quelques énigmes Qu'on érige des menhirs à la mémoire de mes délires Trêve de bavardages, oui, parfois, je rabâche Là, j'ai amorcé le démarrage, allez, on s'arrache Viens t'étaler sur des nuages pour y contempler Le ciel étoilé Le Petit Prince est notre allié On lui offrira des BN, on invitera Pégase Zeus et ses frères, et même Icare le téméraire Ouvre tes paupières, on va s'élever Entre ciel et mer, en clair, on va s'envoyer en l'air Jeune padawan venu mater Tu n'es pas de taille, te débats, tu n'as pas pieds Tu n'as pas l'étoffe, pas le coffre, tu l'as capté Retourne vite à l'école taffer, tu m'as lassé Dans les bals, dès que les catins crient Décalecatan, t'as la gaule, t'es démasqué Wakatépé baboune, j'vais décaper ta bouille Déballer mes tabous puis te balafrer J'aime les métaphores, toutes les gos et les gars forts Dans la foule, oui, je les mets d'accord J'suis pas là pour lever l'épée, décapiter les porcs Et puis laper le sang, alors Pas de faux débat, tu n'as pas de boules Et ta belle équipe, elle est kaput, tu piges ? J'ai volé vos âmes, je les connais toutes J'ai le cannabis et le bagou, tu kiffes ? J'vais tappâter, t'épater, te 'per-ta', vapoter ton pétard Taper ton code PIN, appeler ta copine, la choper dans des bars Deux, trois verres de pinard plus tard, à l'hôtel, en peignoir, peinard Je finis mon scénar' pendant que je me fais pomper l'dard, c'est dare J'te sens pas tout ouïe, ferme ta bouche pourrie Ou mets du désodorisant comme Nana Mouskouri Hippocampe Fou t'nourrit, pique-nique dans le maquis C'est l'unique homme à qui tous les misanthropes sourient</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Freestyle DJ Venum</t>
+          <t>Freestyle “Homemade”</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Toc-toc, devine qui frappe à la porte, devine qui rappe à n'importe Quelle heure, donne le meilleur d'lui-même à la prod' En mission comme Lara Croft, j'laisse courir les haters à la catastrophe V'là les strophes d'un player à la Kasparov Donc c'est échec et mat, j'ai checké mic et ramasse love N'encaisse pas d'chèque et maille pour je'er mes Nike usées, je sais qu'c'est bof Sans m'accuser de vexer Rohff, mon concept, c'est pas l'T.D.S.I Mon son tournera aussi, même sans customiser d'Golf Aux principes, tu cries Mazel Tov à chaque ligne Car, tel Hasselhoff, je sauve le rap de l'abîme, et j'ai étoffé la rime J'en n'ai pas trop fait pour qu'le trophée arrive Mais la p'tite voiture roule comme une Ferrari Rien à foutre, à mon avis, yo, si toute la ville s'écroule Mon véhicule, tout comme ma vie, est cool et roule vers l'avenir Rien à foutre de ton avis, yo, si t'es d'jà soûlé, fallait pas v'nir Si t'es d'jà sous l'eau, c'est qu't'as coulé à pique, genre Titanic, yo Je vends des hebdo' gratuits, des tubes de Fluocaril Pour brosser les crocs fragiles d'un agile ptérodactyle J'applaudis les otaries, j'horripile et traumatise Je pars quand les autres arrivent, t'es débile et trop naïf Ton rap est décoratif, c'est pas si péjoratif Pourtant, tous tes rots trahissent, une grave aérophagie En plus de ces maux gastriques, tu risques l'hémorragie J'l'ai vu à l'échographie, mais c'est psycho-somatique Mes lettres t'élèvent, dessèchent tes lèvres Déchaînent tes veines, démêlent les rennes, égrainent des rêves Mais qui est cet énergumène qui sème des vers Si vertueux dans la cervelle de ceux qu'il aime ? Tu n'es qu'un homo machiste au flow automatique et basique Pratique la tauromachie au zoo, drolatique et tragique Prend dix barres d'Ovomaltine boloss Zorro arrive et s'agite Comme un bonobo s'astique, photographie Barbie et ça gicle</t>
+          <t>Je suis un piètre nécrophile sous terre, j'débande L'hiver, je chasse des hobbits en Nouvelle-Zélande C'est moi, le meilleur j'l'avoue volontairement Si j'm'envoie des fleurs, c'est pour ton enterrement Je vais te cribler de rubis, bang Dis à ta mère que j'aime pratiquer le cunni' Toi, t'es puni, te voilà privé de cubi Mon planning est chargé comme un Uzi, je l'étudie Me réveiller, être à la bourre, me dépêcher de faire l'amour Me déplacer à pas d'velours, redémarrer au quart de tour Puis, caché sous ma capuche, cavaler chez Bacchus Boire comme un trou, penser comme un phallus Épiler les cactus, dérider des anus Avant qu'il y ait du grabuge, j'appelle mon Chapus Pas dobédience, j'suis resté bloqué dans l'adolescence Chapeau l'artiste disent ceux qui aiment mon éloquence J'kiffe quand les mots dansent, j'exécute des couplets cultes avec aisance Tel un bourreau qui pleure de joie, un jour de taf sous la potence Qu'est-ce que t'en penses ?</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Freestyle Étoilé (Version concert)</t>
+          <t>Freestyle Instagramerie 2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Hippocampe Fou, c'est moi, tu peux m'appeler Hippo Sur scène, j'me mets à nu comme un sale exhibo' Tu m'as sûrement déjà vu mijotant sous mes draps Voyageant comme Dorothy, Alice ou Chihiro J'bois d'la Grim', fume des bédos Conte des histoires comme les frères Grimm ou Charles Perrault La plupart des backeurs sont des zéros Le mien chauffe les spectateurs et rappe avec brio, il s'appelle céo Allez viens, laisse de côté ton esprit cartésien Et tu verras comme on est bien quand on est plein d'entrain Ne te laisse pas enrôler par le quotidien Habille ta grisaille de pensées bariolées comme un tissu bolivien Petite piqûre de morphine pendant qu'le rap agonise Fantaisie et hip-hop ne sont pas antagonistes T'as l'air assez taré pour t'égarer dans nos accès D'finesse, gare aux excès d'vitesse d'Aociz On va griller les feux rouges sur l'autoroute Prie donc pour que tous tes chakras s'ouvrent quand on shoot Parie sur ma team les yeux fermés au Loto Foot Le bagage musical est trop lourd, faut le mettre en soute Le public est bouillant, il m'faut des gants d'cuisine Admirons le soleil couchant nus dans une grande piscine Le flow est trop rebondissant, j'suis un enfant d'Biggie J'bande limite quand j'les vilipende easy J'viens pour guérir l'épidémie de rimes débiles qui sévit Et, si j'faiblis, qu'on m'déshérite ou que j'périsse, je le mérite Mais, si j'relève le défi, que je résous quelques énigmes Qu'on érige des menhirs à la mémoire de mes délires Trêve de bavardages, oui, parfois, je rabâche Là, j'ai amorcé le démarrage, allez, on s'arrache Viens t'étaler sur des nuages pour y contempler Le ciel étoilé Le Petit Prince est notre allié On lui offrira des BN, on invitera Pégase Zeus et ses frères, et même Icare le téméraire Ouvre tes paupières, on va s'élever Entre ciel et mer, en clair, on va s'envoyer en l'air Jeune padawan venu mater Tu n'es pas de taille, te débats, tu n'as pas pieds Tu n'as pas l'étoffe, pas le coffre, tu l'as capté Retourne vite à l'école taffer, tu m'as lassé Dans les bals, dès que les catins crient Décalecatan, t'as la gaule, t'es démasqué Wakatépé baboune, j'vais décaper ta bouille Déballer mes tabous puis te balafrer J'aime les métaphores, toutes les gos et les gars forts Dans la foule, oui, je les mets d'accord J'suis pas là pour lever l'épée, décapiter les porcs Et puis laper le sang, alors Pas de faux débat, tu n'as pas de boules Et ta belle équipe, elle est kaput, tu piges ? J'ai volé vos âmes, je les connais toutes J'ai le cannabis et le bagou, tu kiffes ? J'vais tappâter, t'épater, te 'per-ta', vapoter ton pétard Taper ton code PIN, appeler ta copine, la choper dans des bars Deux, trois verres de pinard plus tard, à l'hôtel, en peignoir, peinard Je finis mon scénar' pendant que je me fais pomper l'dard, c'est dare J'te sens pas tout ouïe, ferme ta bouche pourrie Ou mets du désodorisant comme Nana Mouskouri Hippocampe Fou t'nourrit, pique-nique dans le maquis C'est l'unique homme à qui tous les misanthropes sourient</t>
+          <t>J'm'enferme dans ma chambre pour répéter mes chansons Y a comme une forte de gymnase dans mes chaussons J'suis expert en torsions rythmiques et linguistiques Donc ta castration sera pas chimique mais au torchon J'parle avec mon cur de lion, fuck les princes Jean J'réfléchis avant d'agir, j'ai plus vingt ans Gérer le rap et la vie d'famille, c'est éreintant En tout cas, j'attends l'feat AlkpoteFrancky Vincent Tes conseils, s'il te plaît, garde-les Ou j't'achèt un joli string en fil de fer barblé Marre de les voir marteler des phrases volatiles Dropper des blazes, allez leur dire d'arrêter d'remplir vos laterines On veut du fond, du flow, des fresques Ils parlent de four, de flouze, de fesses C'est le déluge, y a plus d'relief Moi, j'arrive en luge depuis l'Everest Ouais, j't'ai pris d'vitesse Wesh, c'est qui c'type Avec ses p'tits biceps qui dit c'qu'il pense Et qui reste si flex malgré la distance Parcourue depuis ses premières nuits blanches ? J'ai des tonnes de textes et de clips qui tranchent Ma chaîne YouTube est un multiplexe Malgré mon atélophobie et ma toute-puissance Ma vie est pleine de ratures et j'ai plus d'Tipp-Ex</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Freestyle “Homemade”</t>
+          <t>Freestyle Instagramerie 3</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Je suis un piètre nécrophile sous terre, j'débande L'hiver, je chasse des hobbits en Nouvelle-Zélande C'est moi, le meilleur j'l'avoue volontairement Si j'm'envoie des fleurs, c'est pour ton enterrement Je vais te cribler de rubis, bang Dis à ta mère que j'aime pratiquer le cunni' Toi, t'es puni, te voilà privé de cubi Mon planning est chargé comme un Uzi, je l'étudie Me réveiller, être à la bourre, me dépêcher de faire l'amour Me déplacer à pas d'velours, redémarrer au quart de tour Puis, caché sous ma capuche, cavaler chez Bacchus Boire comme un trou, penser comme un phallus Épiler les cactus, dérider des anus Avant qu'il y ait du grabuge, j'appelle mon Chapus Pas dobédience, j'suis resté bloqué dans l'adolescence Chapeau l'artiste disent ceux qui aiment mon éloquence J'kiffe quand les mots dansent, j'exécute des couplets cultes avec aisance Tel un bourreau qui pleure de joie, un jour de taf sous la potence Qu'est-ce que t'en penses ?</t>
+          <t>J'bats d'l'aile et déplace des montagnes comme un papillon Faire vibrer les gens, c'est mon taf bah ouais Un peu trop hardi, j'ai mon Stan Laurel Conseil fais pas grogner mon staff wouf C'est la crue, j'nage dans la crasse, brille dans la brume, droit comme un phare Ils foncent tête baissée dans l'impasse, j'suis sur la voie dix moins un quart Tolérant, je vous sème tous, j'prends mon pied sans qu'ça coûte un bras Recrudescence de nouvelles pousses, y a pas d'quoi en faire tout un plat C'est l'heure des millennials, j'suis grave à la bourre À chaque vidéo, je vide mes balls, oui, j'me fais l'amour Mon succès n'a pas d'échéance, j'peux pas tirer ma révérence J'aime trop kicker avec aisance, j'rappe que de l'osmium, bah ouais, c'est dense</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 2</t>
+          <t>Freestyle Instagramerie 4</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'm'enferme dans ma chambre pour répéter mes chansons Y a comme une forte de gymnase dans mes chaussons J'suis expert en torsions rythmiques et linguistiques Donc ta castration sera pas chimique mais au torchon J'parle avec mon cur de lion, fuck les princes Jean J'réfléchis avant d'agir, j'ai plus vingt ans Gérer le rap et la vie d'famille, c'est éreintant En tout cas, j'attends l'feat AlkpoteFrancky Vincent Tes conseils, s'il te plaît, garde-les Ou j't'achèt un joli string en fil de fer barblé Marre de les voir marteler des phrases volatiles Dropper des blazes, allez leur dire d'arrêter d'remplir vos laterines On veut du fond, du flow, des fresques Ils parlent de four, de flouze, de fesses C'est le déluge, y a plus d'relief Moi, j'arrive en luge depuis l'Everest Ouais, j't'ai pris d'vitesse Wesh, c'est qui c'type Avec ses p'tits biceps qui dit c'qu'il pense Et qui reste si flex malgré la distance Parcourue depuis ses premières nuits blanches ? J'ai des tonnes de textes et de clips qui tranchent Ma chaîne YouTube est un multiplexe Malgré mon atélophobie et ma toute-puissance Ma vie est pleine de ratures et j'ai plus d'Tipp-Ex</t>
+          <t>Mon savoir-faire est au max, quoi qu'je fasse, ça va t'plaire N'importe quel beat chaud, je le kick, bro', ouais, je le savate, frère Ils paradent fiers dans leurs baraques chères, j'me balade vers des champs d'salades vertes Y en a d'la fraîche dans ma tabatière même grabataire, j'pourrais t'patater J'peux m'adapter, malaxer mon art brut, éjaculer des voies lactées Escalader à poils des monts abruptes, émasculr des rois sacrés Ils risquent pas de t'nivrer, ils manquent de panache et n'font qu'effriter d'la frappe à chier Moi, je cogite et je concocte des panacées tout en sculptant ma galatée Leurs toplines manquent de punch, leur sottise m'écure, j'écrivais comme eux quand tout l'monde appelait les Twix Raider J'vais marquer les années vingt comme Joséphine Baker en tirant la langue comme Einstein ou Mick Jagger Allez-y, lâchez-vous, arrêtez d'faire comme si On était tous frappés d'amnésie, ça m'dégoûte</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 3</t>
+          <t>Freestyle Instagramerie 5 (Coquin)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>J'bats d'l'aile et déplace des montagnes comme un papillon Faire vibrer les gens, c'est mon taf bah ouais Un peu trop hardi, j'ai mon Stan Laurel Conseil fais pas grogner mon staff wouf C'est la crue, j'nage dans la crasse, brille dans la brume, droit comme un phare Ils foncent tête baissée dans l'impasse, j'suis sur la voie dix moins un quart Tolérant, je vous sème tous, j'prends mon pied sans qu'ça coûte un bras Recrudescence de nouvelles pousses, y a pas d'quoi en faire tout un plat C'est l'heure des millennials, j'suis grave à la bourre À chaque vidéo, je vide mes balls, oui, j'me fais l'amour Mon succès n'a pas d'échéance, j'peux pas tirer ma révérence J'aime trop kicker avec aisance, j'rappe que de l'osmium, bah ouais, c'est dense</t>
+          <t>Coquin Y'a d'la terre sur mon clavier, des chaussures sur le canapé D'la purée sur le sol, coquin T'as noyé mon téléphone dans la cuvette des chiottes J'ai les nerfs et tu rigoles, coquin T'as ouvert les tiroirs et déchiré mes papiers T'as vidé la boîté de mouchoirs, en gros, t'as mis le foutoir T'as renversé la poubelle, j'ai senti l'odeur J'vais t'appeler la tornade ou le cambrioleur T'as tout cassé dans la casa comme si des Yamakasi Venaient d'y ves-qui' toute une équipe de yakuzas J'aurais pas dû m'assoupir, mais faut dire que la nuit T'es pas du genre à dormir, coquin T'es le ouistiti qui squatte notre lit Qui nous griffe et nous met des p'tites claques T'es le voleur de sommeil et de temps Le réveil, la bombe à retardement, tic-tac Tu débordes de vie mais t'es grave dans l'abus Tu prends tes couches sales et tu hors de ma vue Pour toutes ces bêtises, tu vas pas tâter mon poing Soit j't'oublie sur un parking, soit j'te vends sur Le Bon Coin Coquin, coquin Coquin</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 4</t>
+          <t>Freestyle Instagramerie 6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Mon savoir-faire est au max, quoi qu'je fasse, ça va t'plaire N'importe quel beat chaud, je le kick, bro', ouais, je le savate, frère Ils paradent fiers dans leurs baraques chères, j'me balade vers des champs d'salades vertes Y en a d'la fraîche dans ma tabatière même grabataire, j'pourrais t'patater J'peux m'adapter, malaxer mon art brut, éjaculer des voies lactées Escalader à poils des monts abruptes, émasculr des rois sacrés Ils risquent pas de t'nivrer, ils manquent de panache et n'font qu'effriter d'la frappe à chier Moi, je cogite et je concocte des panacées tout en sculptant ma galatée Leurs toplines manquent de punch, leur sottise m'écure, j'écrivais comme eux quand tout l'monde appelait les Twix Raider J'vais marquer les années vingt comme Joséphine Baker en tirant la langue comme Einstein ou Mick Jagger Allez-y, lâchez-vous, arrêtez d'faire comme si On était tous frappés d'amnésie, ça m'dégoûte</t>
+          <t>J'ai pris le temps d'écouter vos raps, j'me rappelle juste que c'est pas du tout mémorable Rimes téléphonées, dring, flows photocopiés, zzt, onomatopées sur instrus démodables C'est irrévocable, je vous souhaite de finir riches et notables, vous l'serez toujours moins que ceux qui tirent vos câbles Soyez tout feu tout flamme, profitez-en avant que l'industrie vous crame Trop de business, peu de passion, moins de punchlines que de Kbis Vous voulez me mettre la pression, what? Concours d'apnée les abysses J'ai des pattes d'oie et des varices il est trop petit, certes, mais mon blaze est encore sur les affiches J'm'en fiche, je ne veux pas remplacer le calife le savoir est une arme et, dans ton cas, elle est factice J'suis le meilleur artisan de France, oui, j'en ai conscience en moi, j'ai suffisamment confiance Pour ne pas faire que de l'ego trip je suis fertile mais je dois préserver ma semence Faut qu'j'arrose des concepts pour que de bons textes éclosent Que tout l'monde se sente flex et cause de ma dextérité avant qu'ma grosse tête explose J'suis high dans la cabine comme un grutier, j'veux m'envoler, fais tourner la fusée Ça commence par du temps à tuer, ça finit dans Faites entrer l'accusé Gargarisme avec acte de barbarie, mi ratel, mi diable de Tasmanie J'ai pas d'disque d'or, pas d'Grammy, mais mes gosses me kiffent, ça m'ravit</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 5 (Coquin)</t>
+          <t>Freestyle Instagramerie 7</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Coquin Y'a d'la terre sur mon clavier, des chaussures sur le canapé D'la purée sur le sol, coquin T'as noyé mon téléphone dans la cuvette des chiottes J'ai les nerfs et tu rigoles, coquin T'as ouvert les tiroirs et déchiré mes papiers T'as vidé la boîté de mouchoirs, en gros, t'as mis le foutoir T'as renversé la poubelle, j'ai senti l'odeur J'vais t'appeler la tornade ou le cambrioleur T'as tout cassé dans la casa comme si des Yamakasi Venaient d'y ves-qui' toute une équipe de yakuzas J'aurais pas dû m'assoupir, mais faut dire que la nuit T'es pas du genre à dormir, coquin T'es le ouistiti qui squatte notre lit Qui nous griffe et nous met des p'tites claques T'es le voleur de sommeil et de temps Le réveil, la bombe à retardement, tic-tac Tu débordes de vie mais t'es grave dans l'abus Tu prends tes couches sales et tu hors de ma vue Pour toutes ces bêtises, tu vas pas tâter mon poing Soit j't'oublie sur un parking, soit j'te vends sur Le Bon Coin Coquin, coquin Coquin</t>
+          <t>On m'demande souvent qui sont mes rappeurs préférés Va falloir t'accrocher, petit, les blazes vont déferler Slick Rick, KRS, Kane Busta, ODB, Sticky, Biggie, Redman Lauryn, Missy, Shady, Luda, Pusha, Doom and Wayne Dizzy, , Skepta, Stormzy, Leshurr, Weezy, Dave IAM, Solaar, Kery, Gueko, Youss, Médine, Orelsan Féfé, Leeroy, JJ, Caba, Nemir, Bigo, Nek et Phall Nas, Black Thought, R.A., J.Cole, Dicky, Doja, Mack Dany, Ill, Befa, , Lefa, Gaël, Kacem et Népal Oxmo, Greg Frite, R.wan Fuzati, Grems, Souffrance et Luv Resval Rakim, GZA, Jigga, L, Pun, Tech N9ne Tyler, Jidenna, , Joyner, J'ajoute Q-Tip, B-Real, Kim, Gab X, Nicky, Mac Miller, Staples, .Paak , , Chip Fu, , Kenny, , Token, A-F-R-O, 1</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 6</t>
+          <t>Freestyle Instagramerie 8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>J'ai pris le temps d'écouter vos raps, j'me rappelle juste que c'est pas du tout mémorable Rimes téléphonées, dring, flows photocopiés, zzt, onomatopées sur instrus démodables C'est irrévocable, je vous souhaite de finir riches et notables, vous l'serez toujours moins que ceux qui tirent vos câbles Soyez tout feu tout flamme, profitez-en avant que l'industrie vous crame Trop de business, peu de passion, moins de punchlines que de Kbis Vous voulez me mettre la pression, what? Concours d'apnée les abysses J'ai des pattes d'oie et des varices il est trop petit, certes, mais mon blaze est encore sur les affiches J'm'en fiche, je ne veux pas remplacer le calife le savoir est une arme et, dans ton cas, elle est factice J'suis le meilleur artisan de France, oui, j'en ai conscience en moi, j'ai suffisamment confiance Pour ne pas faire que de l'ego trip je suis fertile mais je dois préserver ma semence Faut qu'j'arrose des concepts pour que de bons textes éclosent Que tout l'monde se sente flex et cause de ma dextérité avant qu'ma grosse tête explose J'suis high dans la cabine comme un grutier, j'veux m'envoler, fais tourner la fusée Ça commence par du temps à tuer, ça finit dans Faites entrer l'accusé Gargarisme avec acte de barbarie, mi ratel, mi diable de Tasmanie J'ai pas d'disque d'or, pas d'Grammy, mais mes gosses me kiffent, ça m'ravit</t>
+          <t>M'appelle pas frère, ça va finir comme les Gallagher J'vais t'envoyer valser plus loin que la sonde Voyager Tu parles mal, tu joues les stars, tu joues les bagarreurs Mais y'a personne qui croit en toi, même pas ton manager J'arrive éclaté avec le visage écarlate mais J'touche pas à la C, j'veux pas finir comme Pierre Palmade, ouais Un peu d'ego, de name dropping, ça fait pas d'mal J'manie les mots comme Lubezki mani sa cam' J'essaye d'attiser ls foules sans m'en attirer les foudres Ravir les esgourdes en exorcisant mes jnouns J'suis qu'un fêlé du bocal, un vieil évadé d'Arkham Un pyromane amoureux venu déclarer sa flamme J'n'ai pas que des pratiques sales, mes rimes guérissent grave Par télépathie, j'accepte le cash et les cartes vitales Oui, je débite au calme des répliques sans faille, et l'équipe s'emballe Hippo, le chic type ou le pitre creepy qui t'empale</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 7</t>
+          <t>Freestyle One Shot</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>On m'demande souvent qui sont mes rappeurs préférés Va falloir t'accrocher, petit, les blazes vont déferler Slick Rick, KRS, Kane Busta, ODB, Sticky, Biggie, Redman Lauryn, Missy, Shady, Luda, Pusha, Doom and Wayne Dizzy, , Skepta, Stormzy, Leshurr, Weezy, Dave IAM, Solaar, Kery, Gueko, Youss, Médine, Orelsan Féfé, Leeroy, JJ, Caba, Nemir, Bigo, Nek et Phall Nas, Black Thought, R.A., J.Cole, Dicky, Doja, Mack Dany, Ill, Befa, , Lefa, Gaël, Kacem et Népal Oxmo, Greg Frite, R.wan Fuzati, Grems, Souffrance et Luv Resval Rakim, GZA, Jigga, L, Pun, Tech N9ne Tyler, Jidenna, , Joyner, J'ajoute Q-Tip, B-Real, Kim, Gab X, Nicky, Mac Miller, Staples, .Paak , , Chip Fu, , Kenny, , Token, A-F-R-O, 1</t>
+          <t>Hippocampe et Nas, yeah, yeah Are you ready now? Yeah Are you ready to rap? Yeah Okay, let's go Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Et yo, l'impact de mes balles vocales, lyricales Vous calme et recale vos stars locales de manière radicale J'ai déballé l'arsenal verbal, et m'installe Et les girls official ou les jaloux qui jactent finissent tous par chialer Tu crois t'échapper, mais j'ai déjà préparé Des bars et des carrés pour déclarer qu'la guerre a démarré T'as plus qu'à détaller sans détail ou totalement t'étaler Sur la dalle, on te taille et t'es die, et on crie même Boom, bomayé Pourquoi tu veux parier ? J'ai des balles dans le barillet Des paroles sur le papier, du people pour m'accompagner Où va l'b-boy hip-hop, cow-boy bebop ? Et l'copilote Hippo mérite qu'on l'complimente sans arrêt Toi, t'es ni bon ni top, t'as pas ta place dans mon iPod Nigaud, t'étonne plus qu'on rigole, ton niveau est plus qu'horrible T'es l'idiot dans mon story-board, le plus ancien historiquement Si Hippo a le flow qu'il t'manque, pour le prêter, il faut qu'il d'mande Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Je ne peux plus le taire, j'ai des photographies de ta grand-mère S'adonnant à une infinie partie de jambes en l'air En Amazonie sous une moustiquaire avec des mousquetaires et un zombie Portant l'armure du Sagittaire Mon colocataire en a fait des posters qu'il a vendu peu chers À la fin d'un concert de métal en plein air, te le dire me libère Le pire, c'est qu'à présent il erre dans des pays en guerre Et distribue aux militaires ces posters dépaysants Desserre les poings, même si cela t'énerve Essaye de faire le point ta mamie est célèbre Ça paye car ses acrobaties méconnues ont fait le tour du globe Des biographies sont parues et, si j'en crois les blogs Une adaptation pour le grand écran est en cours Sa tombe est une sombre attraction, j'y organise des séjours Mais on le trouvera ce vieux scélérat, il avalera trop de larves et des rats On le congèlera, la vengeance est un plat qu'on déguste froid</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Freestyle Instagramerie 8</t>
+          <t>Gonza</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>M'appelle pas frère, ça va finir comme les Gallagher J'vais t'envoyer valser plus loin que la sonde Voyager Tu parles mal, tu joues les stars, tu joues les bagarreurs Mais y'a personne qui croit en toi, même pas ton manager J'arrive éclaté avec le visage écarlate mais J'touche pas à la C, j'veux pas finir comme Pierre Palmade, ouais Un peu d'ego, de name dropping, ça fait pas d'mal J'manie les mots comme Lubezki mani sa cam' J'essaye d'attiser ls foules sans m'en attirer les foudres Ravir les esgourdes en exorcisant mes jnouns J'suis qu'un fêlé du bocal, un vieil évadé d'Arkham Un pyromane amoureux venu déclarer sa flamme J'n'ai pas que des pratiques sales, mes rimes guérissent grave Par télépathie, j'accepte le cash et les cartes vitales Oui, je débite au calme des répliques sans faille, et l'équipe s'emballe Hippo, le chic type ou le pitre creepy qui t'empale</t>
+          <t>Tu veux des scoops ? Tu pourras pas m'en soutirer Arrête de fourrer ton nez partout, petit fourmilier Ne m'dis pas ton prénom, dans dix secondes, jl'aurai oublié En vrai, j't'écoute pas et j'te coupe, là, j'ai bsoin droupiller Javoue quen cmoment jmen fous, jme démotive Jveux pas faire des lives devant des foules demojis On mappelle Gonza depuis qujsuis p'tit comme Grégory Mais jfinirai pas comme le bras droit de Dame Eboshi Au chaud dans ma niche, jenvoie la pâtée, tous les jeunes aboient Jsuis sur YouTube depuis lépoque des buzz de Jon Lajoie Papa gaga, jprotège mes chiards du Père Fouettard Et de Baba Yaga, si quelqu'un les touche ratatata Pan, pan, jvise les pieds, là, faut danser le French cancan, tentends ? Jai une vie plan-plan, jfais pas semblant, jradote comme si javais cent ans Jen ai trente-sept, jfais des emplettes en pleine tempête, en fait Jmempâte, jmentête, jmens pas, jmens pt-être ? À toi dmener lenquête Jpeux pas tout dire mais jpeux dire tout, tout, tout, tout, tout Les gens se suivent sur les réseaux comme des gentils toutous À cause du Covid, on peut plus se faire de poutous-poutous Donc jfais lamour au cro-mi', deviens loco tchou-tchou, tchou-tchou Jnavigue dans le brouillard sans boussole ni sextant Je sais qula vie nest pas une droite mais un segment Je n'ferai jamais de sermon, jen fais le serment Ton cur et ton cerveau fonctionnent alors sers-t'en Malgré moi, jsuis devnu responsable Jpeins des tableaux, excelle, pourtant jsuis pas expert comptable Jveux pas qumes enfants crèvent la dalle au cur dune guerre mondiale Obligés de cultiver des champs de pierres tombales Mais jmaventure pas dans la géopolitique Jessaye dêtre singulier en restant prolifique Écoutez à vos risques et périls mes aphorismes très puérils Mes vers viennent des pommes du jardin des Hespérides</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Freestyle One Shot</t>
+          <t>Grillé</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Hippocampe et Nas, yeah, yeah Are you ready now? Yeah Are you ready to rap? Yeah Okay, let's go Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Et yo, l'impact de mes balles vocales, lyricales Vous calme et recale vos stars locales de manière radicale J'ai déballé l'arsenal verbal, et m'installe Et les girls official ou les jaloux qui jactent finissent tous par chialer Tu crois t'échapper, mais j'ai déjà préparé Des bars et des carrés pour déclarer qu'la guerre a démarré T'as plus qu'à détaller sans détail ou totalement t'étaler Sur la dalle, on te taille et t'es die, et on crie même Boom, bomayé Pourquoi tu veux parier ? J'ai des balles dans le barillet Des paroles sur le papier, du people pour m'accompagner Où va l'b-boy hip-hop, cow-boy bebop ? Et l'copilote Hippo mérite qu'on l'complimente sans arrêt Toi, t'es ni bon ni top, t'as pas ta place dans mon iPod Nigaud, t'étonne plus qu'on rigole, ton niveau est plus qu'horrible T'es l'idiot dans mon story-board, le plus ancien historiquement Si Hippo a le flow qu'il t'manque, pour le prêter, il faut qu'il d'mande Nous connaissons des mots à mille syllabes que nous avons assimilés Avec facilité, alors assis, minable Écoute, apprécie nos fables, elles sont inégalables Danse en crabe en les récitant debout sur une table Je ne peux plus le taire, j'ai des photographies de ta grand-mère S'adonnant à une infinie partie de jambes en l'air En Amazonie sous une moustiquaire avec des mousquetaires et un zombie Portant l'armure du Sagittaire Mon colocataire en a fait des posters qu'il a vendu peu chers À la fin d'un concert de métal en plein air, te le dire me libère Le pire, c'est qu'à présent il erre dans des pays en guerre Et distribue aux militaires ces posters dépaysants Desserre les poings, même si cela t'énerve Essaye de faire le point ta mamie est célèbre Ça paye car ses acrobaties méconnues ont fait le tour du globe Des biographies sont parues et, si j'en crois les blogs Une adaptation pour le grand écran est en cours Sa tombe est une sombre attraction, j'y organise des séjours Mais on le trouvera ce vieux scélérat, il avalera trop de larves et des rats On le congèlera, la vengeance est un plat qu'on déguste froid</t>
+          <t>J'ai tiré les rideaux, brûlé de lencens Mis du son dansant et des bouteilles au frigo J'ai sorti l'huile de massage, non, je n'suis pas sage Elle n'est que de passage, il ne faut pas que je m'attache En revanche, j'aimerais l'attacher Bien nouer la corde, la coucher, la toucher La brouter, la mordre, la secouer, la fourrer La souiller, la tordre, la labourer, la torturer Sous ses airs de sainte nitouche Elle a déjà glissé un doigt dans sa bouche Elle le suçote, le mordille, puis tripote son beau cul J'me tape le torse comme un gorille tout en chuchotant des mots crus C'est la fournaise, j'ai la bouche sèche Ma verge raidit devant sa souplesse, elle est toute prête Eh, mais pourquoi ça s'arrête là ? Y'a un problème avec le net, j'crois Faut qu'j'me termine pour éviter lobsession Mais, là, ça bug terriblement, y'a plus de connexion Merde, c'est bloqué, j'ai beau double-cliquer Contrôle, alt, supprimer, l'image reste figée J'entends le bruit des talons de ma femme dans l'escalier Mon fils et ma fille sont avec elle en train de sesclaffer J'essaye d'éteindre l'ordi', c'putain d'écran reste allumé La porte d'entrée s'ouvre, là, j'me sens désabusé x2 Grillé Grillé Grillé Grillé Dans ce genre de moments où l'envie est trop forte Forcément, tu te dis Vais-je agir de la sorte ? Vais-je sortir ma bite ? L'endroit est-il propice ? Et j'dis quoi aux collègues ? Hé, j'reviens, faut qu'je pisse ? Pensais-tu vraiment passer inaperçu ? Dis-moi, pourquoi tu fais ça ? Est-ce ta femme qui t'a déçu ? Quoi ? Hein ? C'est ton moyen d'rester fidèle ? Tu fermes les yeux, tu t'imagines avec Gisèle Mais c'est un prénom d'vieille, ça, mais, bref, c'est pas ça l'propos Là, tu l'as tellement désirée, oui, ça t'rend barge, faut Absolument que t'ailles évacuer ce trop plein d'désir Et, peu importe l'endroit, il faut qu'tu t'fasses plaisir T'as pas pu retenir tes pulsions Résultat là, c'est la répulsion Dans le regard de l'autre en révulsion Hippo, tu t'es fait griller Dans les toilettes grillé sous ton survêt' grillé Sous ta couette, sur la moquette, dans ta chaussette grillé Le magazine grillé par la voisine grillé À cause des femmes, dans les réclam' ou bien les spams grillé Au restau grillé dans le métro grillé À la pêche, à la fraîche, à la crèche grillé Devant les flics grillé dans ta cellule grillé Devant le juge et sur la chaise électrique grillé x2 Grillé Grillé Grillé Grillé</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Gonza</t>
+          <t>Guerre, haine et individualisme</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Tu veux des scoops ? Tu pourras pas m'en soutirer Arrête de fourrer ton nez partout, petit fourmilier Ne m'dis pas ton prénom, dans dix secondes, jl'aurai oublié En vrai, j't'écoute pas et j'te coupe, là, j'ai bsoin droupiller Javoue quen cmoment jmen fous, jme démotive Jveux pas faire des lives devant des foules demojis On mappelle Gonza depuis qujsuis p'tit comme Grégory Mais jfinirai pas comme le bras droit de Dame Eboshi Au chaud dans ma niche, jenvoie la pâtée, tous les jeunes aboient Jsuis sur YouTube depuis lépoque des buzz de Jon Lajoie Papa gaga, jprotège mes chiards du Père Fouettard Et de Baba Yaga, si quelqu'un les touche ratatata Pan, pan, jvise les pieds, là, faut danser le French cancan, tentends ? Jai une vie plan-plan, jfais pas semblant, jradote comme si javais cent ans Jen ai trente-sept, jfais des emplettes en pleine tempête, en fait Jmempâte, jmentête, jmens pas, jmens pt-être ? À toi dmener lenquête Jpeux pas tout dire mais jpeux dire tout, tout, tout, tout, tout Les gens se suivent sur les réseaux comme des gentils toutous À cause du Covid, on peut plus se faire de poutous-poutous Donc jfais lamour au cro-mi', deviens loco tchou-tchou, tchou-tchou Jnavigue dans le brouillard sans boussole ni sextant Je sais qula vie nest pas une droite mais un segment Je n'ferai jamais de sermon, jen fais le serment Ton cur et ton cerveau fonctionnent alors sers-t'en Malgré moi, jsuis devnu responsable Jpeins des tableaux, excelle, pourtant jsuis pas expert comptable Jveux pas qumes enfants crèvent la dalle au cur dune guerre mondiale Obligés de cultiver des champs de pierres tombales Mais jmaventure pas dans la géopolitique Jessaye dêtre singulier en restant prolifique Écoutez à vos risques et périls mes aphorismes très puérils Mes vers viennent des pommes du jardin des Hespérides</t>
+          <t>J'compose ton numéro dans le métro d'ma ville En tapotant mon gland sur mon écran tactile L'ami, j'ai trop d'salive, mais les gencives abîmées La nuit, dès qu'je pose trois rimes, je vois les gens sanimer J'fous des coups d'boule aux Terminators Pousse des glouglous quand les foufounes m'appellent bouche-trou Je suis cool, tous mes ennemis m'adorent Cannibale bio, j'aime les sandwichs au végétarien Et j'couds des peluches en peau de bébé, remplies d'acariens MC d'âge canonique, j'atrophie ta logique Mon trophée l'hérésie fait chauffer la résine, résonner ma musique J'préfère avoir un succès d'estime Que faire l'équivalent en rap de Bienvenue chez les ch'tis Je sens le soufre et le safran, me coiffe avec ta brosse à dents Au bord du gouffre, je patiente et dame des tartes aux pommes d'Adam Gars, goûte à la pisse de l'apache, à la page Le DJ booste le beat et la basse, je les bouffe à l'arrache Oups, t'as la rage C'est pour la mise à mal qu'on est là, ici, y'a pas d'condé Tu dis qu'tu vas féconder nos raps, mais fais deux pas d'côté Attends, mon staff viens kicker sale comme un staphylocoque Et nos plumes aiguisées tranchent les flows qui puent le Stabilo boss Les humains, yo, Walter arrive, il est pas comme nous Te sort des phrasés triangulaires, un peu comme au Camp Nou On poste avec T.I.S, pas d'intérimaire Les vétérinaires sont armés jusqu'aux dents de l'Hippocampe Fou C'est pas les wacks qui font palpiter mon cardigan MC, avec le Walt' on va les piquer jusqu'au Vatican J'suis ni croyant ni pratiquant, j'attaque, j'suis un partisan Du Bon mot quand mon équipe est au mic, c'est des artisans C'est haut si on est posés avec ou sans boulaouane Et qu'on oscille en sillonnant, les fantaisies des Padawans J'donne pas d'énergie pour qu'mon phrasé parle aux wacks Et livrer mes rimes en go fast et les voir saisies par la douane Sur le cours, j'ai trop d'swagg caleçon à la Medvedev Gueule de G-Squad à fond, on dit que mon mécène, c'est Dave J'vous graille en deux-deux, comme les sandwichs SNCF Le corps d'la miss est bleu, ça fait un bail qu'j'essaye ses lèvres Ouais, c'est salement placé Surtout qu'c'était ta soeur, ta fille, qu'j'en sais ? Du coup, patience, n'en fais pas un plat Si j'extrais ses poumons et son placenta Sujet d'expérience, sois sympa, sois cool, laisse-toi aller J'aime le retour aux sources, soudain m'infiltrer dans ton palais Ils ont tous la frousse, surtout la peur de perdre T'as une équipe qui lose, j'ai une équipe qui bousille ta carrière J'préfère placer art devant 'celé' et plutôt qu' 'ensor' Et, si, le soir, j'sors gueuler appelez des renforts Faut qu'les gens cernent que dire les gens est une facilité Une belle façon d'me sentir supérieur en toute agilité J'rappe pour que dalle comme Dany Dan, oui, j'ai la dalle D'un cannibale, garde mon instinct animal comme Hannibal Et j'ai pas d'rimes amicales pour ton rap game à dix balles Juste une envie sévère de kicker comme une mygale c'est clair J'ai l'attirail pour la guerre, raison pour laquelle j'te mitraille Plus attiré par la paix, d'habitude, j'reviens radical J'ai l'attitude qu'il fallait pour ce freestyle, c'est un XXX Tout droit sorti d'Hill Valley et, comme le dirait l'ami Skyle Ecouter mon rap, c'est l'effet couteau pap' qui vise ta tête Voire le coupable disparaître, mec, c'est à coup sûr mémorable Ecouter mon rap, c'est voir l'oracle de la crise parfaite On économise pas d'craie, sans dec', les corps sont innombrables Sans vie probable, il paraît, quand j'apparais relie ton câble A ta grosse machine à rec et j'deviens presque inarrêtable On a tous compris la règle donc remettons les cartes sur table Si, aujourd'hui, c'est la guerre, naguère c'était inacceptable Demande à Walter et d'autres, ou à mon alter-ego Hippo, l'atmosphère est moribonde, c'est bien l'terme Yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Hé yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Dugary1</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Grillé</t>
+          <t>Hip-Hop Freaks</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>J'ai tiré les rideaux, brûlé de lencens Mis du son dansant et des bouteilles au frigo J'ai sorti l'huile de massage, non, je n'suis pas sage Elle n'est que de passage, il ne faut pas que je m'attache En revanche, j'aimerais l'attacher Bien nouer la corde, la coucher, la toucher La brouter, la mordre, la secouer, la fourrer La souiller, la tordre, la labourer, la torturer Sous ses airs de sainte nitouche Elle a déjà glissé un doigt dans sa bouche Elle le suçote, le mordille, puis tripote son beau cul J'me tape le torse comme un gorille tout en chuchotant des mots crus C'est la fournaise, j'ai la bouche sèche Ma verge raidit devant sa souplesse, elle est toute prête Eh, mais pourquoi ça s'arrête là ? Y'a un problème avec le net, j'crois Faut qu'j'me termine pour éviter lobsession Mais, là, ça bug terriblement, y'a plus de connexion Merde, c'est bloqué, j'ai beau double-cliquer Contrôle, alt, supprimer, l'image reste figée J'entends le bruit des talons de ma femme dans l'escalier Mon fils et ma fille sont avec elle en train de sesclaffer J'essaye d'éteindre l'ordi', c'putain d'écran reste allumé La porte d'entrée s'ouvre, là, j'me sens désabusé x2 Grillé Grillé Grillé Grillé Dans ce genre de moments où l'envie est trop forte Forcément, tu te dis Vais-je agir de la sorte ? Vais-je sortir ma bite ? L'endroit est-il propice ? Et j'dis quoi aux collègues ? Hé, j'reviens, faut qu'je pisse ? Pensais-tu vraiment passer inaperçu ? Dis-moi, pourquoi tu fais ça ? Est-ce ta femme qui t'a déçu ? Quoi ? Hein ? C'est ton moyen d'rester fidèle ? Tu fermes les yeux, tu t'imagines avec Gisèle Mais c'est un prénom d'vieille, ça, mais, bref, c'est pas ça l'propos Là, tu l'as tellement désirée, oui, ça t'rend barge, faut Absolument que t'ailles évacuer ce trop plein d'désir Et, peu importe l'endroit, il faut qu'tu t'fasses plaisir T'as pas pu retenir tes pulsions Résultat là, c'est la répulsion Dans le regard de l'autre en révulsion Hippo, tu t'es fait griller Dans les toilettes grillé sous ton survêt' grillé Sous ta couette, sur la moquette, dans ta chaussette grillé Le magazine grillé par la voisine grillé À cause des femmes, dans les réclam' ou bien les spams grillé Au restau grillé dans le métro grillé À la pêche, à la fraîche, à la crèche grillé Devant les flics grillé dans ta cellule grillé Devant le juge et sur la chaise électrique grillé x2 Grillé Grillé Grillé Grillé</t>
+          <t>Mesdames et messieurs, les passants, les enfants, même les plus pressés Ce n'est plus le moment de tracer, aussi, veuillez approcher Divertissant et saisissant, ce show vous est adressé Vous pouvez déjà sentir, sur vous, les poils se dresser C'est tout à fait normal si vous vous sentez oppressés Appréciez les spécimens, veillez à ne pas les stresser Si précieux ces phénomènes tout droit sortis du passé Sont du genre de ceux qu'on mets au cirque, on ne peut les classer Ils ne mangent pas, ne dorment pas, ne pensent pas comme vous et moi Analysez les mieux, lisez dans leurs yeux, ils causeront votre émoi Ils ignorent tout de la tendance Et quelques fois même, il se peut qu'ils s'en balancent Ils n'en ont pas l'air, mais ils savent que l'on pense À la potence pour eux sans importance Certains n'ont pas de portable, on dit qu'ils ne sont pas sortables Ne s'abreuvent pas que d'eau potable, d'où leur allure loin d'être impeccable Des créatures inquiétantes, imprudentes, aux murs intrigantes Ils n'ont pas le port d'arme, ils n'ont pas d'âme, pas d'lame Se crament et ne font pas d'rames Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Appelle-moi Hip-Hop freak, j'suis même pas misogyne Oui, j'aime Mary Poppins, j'lâche des phases historiques Qui t'hypnotisent alors que j'parle pas d'flic Pas d'street, pas d'fric, mais de bad trip gastriques À Maastricth, j'articule quand je rappe vite Ultra réactif, j'hurle quand j'ai pas d'spliff T'es pas chiche de m'lâcher du bakchich pour acheter Du haschich, donc astique ma dick, ma 'sique magique rapplique Capiche ? Je pique-nique avec dix beatniks mystiques Qui se disent stricts et fans de Klapisch Éclipse les crispés, fait flipper les grizzlis En slip dans mes clips, je pratique le frisbee J'en ai marre des strings, des filles comme outils marketing Le rap un art festif, pas besoin d'artifice C'est déjà magnifique, juste un poil narcissique Si tout c'que tu kiffes, c'est la technique taffe à Darty, fils Car la forme sans le fond, c'est comme un porno sans le son Un zéro-six sans le nom, MC hors-norme dans ce monde Ma femme à barbe tape le foot avec des hommes troncs Du coup, ma caravane sent le foutre de ces pochtrons J'ai vaincu cent cyclopes, écrit vingt-huit encyclopédies Oui, je sais que Kim Jong Il cache un luisant micro-pénis Je suis un geek, un pitre, me tape un trip, t'invite À me découvrir dans un cirque, je suis un vilain freak Parait qu'je suis une curiosité, un extra-terrestre C'est vrai qu'j'ai du mal à cogiter, je cède à la paresse J'me compromets sans hésiter, mais j'avance plus que j'régresse Pas de rubrique pour moi au JT, c'est les savants qu'j'intéresse Montré du doigt, marqué au fer, touché au foie, cachet offert Tarif au choix, toujours trop cher, tu réponds quoi la gueule mée-fer' ? Donner d'la voix, ça, je sais faire, marcher au pas ? Je suis trop fier Telle est la loi, sache que mes frères partagent ma voix sans trop s'en faire Non, pas besoin d'aileron ni d'être trop grognon Nous faisons le dos rond mais foutons le boxon Viens boire notre potion, là, dans nos gros chaudrons Oui, nous sommes des laiderons mais rien ne nous corrompt x4 Freak out Les freaks, c'est chic</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Guerre, haine et individualisme</t>
+          <t>Hippocampe Fou - John Doe ∅ 46</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>J'compose ton numéro dans le métro d'ma ville En tapotant mon gland sur mon écran tactile L'ami, j'ai trop d'salive, mais les gencives abîmées La nuit, dès qu'je pose trois rimes, je vois les gens sanimer J'fous des coups d'boule aux Terminators Pousse des glouglous quand les foufounes m'appellent bouche-trou Je suis cool, tous mes ennemis m'adorent Cannibale bio, j'aime les sandwichs au végétarien Et j'couds des peluches en peau de bébé, remplies d'acariens MC d'âge canonique, j'atrophie ta logique Mon trophée l'hérésie fait chauffer la résine, résonner ma musique J'préfère avoir un succès d'estime Que faire l'équivalent en rap de Bienvenue chez les ch'tis Je sens le soufre et le safran, me coiffe avec ta brosse à dents Au bord du gouffre, je patiente et dame des tartes aux pommes d'Adam Gars, goûte à la pisse de l'apache, à la page Le DJ booste le beat et la basse, je les bouffe à l'arrache Oups, t'as la rage C'est pour la mise à mal qu'on est là, ici, y'a pas d'condé Tu dis qu'tu vas féconder nos raps, mais fais deux pas d'côté Attends, mon staff viens kicker sale comme un staphylocoque Et nos plumes aiguisées tranchent les flows qui puent le Stabilo boss Les humains, yo, Walter arrive, il est pas comme nous Te sort des phrasés triangulaires, un peu comme au Camp Nou On poste avec T.I.S, pas d'intérimaire Les vétérinaires sont armés jusqu'aux dents de l'Hippocampe Fou C'est pas les wacks qui font palpiter mon cardigan MC, avec le Walt' on va les piquer jusqu'au Vatican J'suis ni croyant ni pratiquant, j'attaque, j'suis un partisan Du Bon mot quand mon équipe est au mic, c'est des artisans C'est haut si on est posés avec ou sans boulaouane Et qu'on oscille en sillonnant, les fantaisies des Padawans J'donne pas d'énergie pour qu'mon phrasé parle aux wacks Et livrer mes rimes en go fast et les voir saisies par la douane Sur le cours, j'ai trop d'swagg caleçon à la Medvedev Gueule de G-Squad à fond, on dit que mon mécène, c'est Dave J'vous graille en deux-deux, comme les sandwichs SNCF Le corps d'la miss est bleu, ça fait un bail qu'j'essaye ses lèvres Ouais, c'est salement placé Surtout qu'c'était ta soeur, ta fille, qu'j'en sais ? Du coup, patience, n'en fais pas un plat Si j'extrais ses poumons et son placenta Sujet d'expérience, sois sympa, sois cool, laisse-toi aller J'aime le retour aux sources, soudain m'infiltrer dans ton palais Ils ont tous la frousse, surtout la peur de perdre T'as une équipe qui lose, j'ai une équipe qui bousille ta carrière J'préfère placer art devant 'celé' et plutôt qu' 'ensor' Et, si, le soir, j'sors gueuler appelez des renforts Faut qu'les gens cernent que dire les gens est une facilité Une belle façon d'me sentir supérieur en toute agilité J'rappe pour que dalle comme Dany Dan, oui, j'ai la dalle D'un cannibale, garde mon instinct animal comme Hannibal Et j'ai pas d'rimes amicales pour ton rap game à dix balles Juste une envie sévère de kicker comme une mygale c'est clair J'ai l'attirail pour la guerre, raison pour laquelle j'te mitraille Plus attiré par la paix, d'habitude, j'reviens radical J'ai l'attitude qu'il fallait pour ce freestyle, c'est un XXX Tout droit sorti d'Hill Valley et, comme le dirait l'ami Skyle Ecouter mon rap, c'est l'effet couteau pap' qui vise ta tête Voire le coupable disparaître, mec, c'est à coup sûr mémorable Ecouter mon rap, c'est voir l'oracle de la crise parfaite On économise pas d'craie, sans dec', les corps sont innombrables Sans vie probable, il paraît, quand j'apparais relie ton câble A ta grosse machine à rec et j'deviens presque inarrêtable On a tous compris la règle donc remettons les cartes sur table Si, aujourd'hui, c'est la guerre, naguère c'était inacceptable Demande à Walter et d'autres, ou à mon alter-ego Hippo, l'atmosphère est moribonde, c'est bien l'terme Yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Hé yo, peace, love, unity oublie, c'est presque off Inutile, un best-of, inédit qui reste enfouie Peace, love, unity oublie, c'est presque off Comme l'esprit de France '98, demande à Christophe Dugary1</t>
+          <t>John Doe, pour les gadjis et les meufs aussi J'plane comme un spoutnik, scat comme un fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille Tu deviens croustillant, appelle-moi Raspoutine Je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils, des onomatopées Quelques mots syncopés, des beats assourdissants Dindon ou papa poule ? Dîne avec des babas cool Parfois, je rappe à Brooklyn, emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean J'me ballade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga Ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars bédav' des tons-car Ecris des haïkus, des cochonneries ou des mangas Des lopes-sa m'accostent, même en jogging coste-La Au Costes, à la Poste, j'suis la fucking re-sta J'ai capté la mode, gars, fais couler la vodka Fabriqué ton gobelet en recyclant ma pote-ca Trinque ou tringle, agrippe-toi, on grimpe Au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent Que, quand on déconne comme ça, ça décolle grave Tu m'as l'air bien palot, viens dans mon bungalow Déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses Et puis des Tsingtoa, c'est vital Je fais kiffer les demoiselles grivoises Tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle Celui qu'il fallait pour marquer l'histoire L'histoire de John Doe, quoi... 75ème Session Avec John Doe, John Doe AKA...</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hip-Hop Freaks</t>
+          <t>Hippo @ Montréal : avec Freddy Gruesum</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Mesdames et messieurs, les passants, les enfants, même les plus pressés Ce n'est plus le moment de tracer, aussi, veuillez approcher Divertissant et saisissant, ce show vous est adressé Vous pouvez déjà sentir, sur vous, les poils se dresser C'est tout à fait normal si vous vous sentez oppressés Appréciez les spécimens, veillez à ne pas les stresser Si précieux ces phénomènes tout droit sortis du passé Sont du genre de ceux qu'on mets au cirque, on ne peut les classer Ils ne mangent pas, ne dorment pas, ne pensent pas comme vous et moi Analysez les mieux, lisez dans leurs yeux, ils causeront votre émoi Ils ignorent tout de la tendance Et quelques fois même, il se peut qu'ils s'en balancent Ils n'en ont pas l'air, mais ils savent que l'on pense À la potence pour eux sans importance Certains n'ont pas de portable, on dit qu'ils ne sont pas sortables Ne s'abreuvent pas que d'eau potable, d'où leur allure loin d'être impeccable Des créatures inquiétantes, imprudentes, aux murs intrigantes Ils n'ont pas le port d'arme, ils n'ont pas d'âme, pas d'lame Se crament et ne font pas d'rames Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Nous sommes des hip-hop freaks Faites place aux hip-hop freaks Appelle-moi Hip-Hop freak, j'suis même pas misogyne Oui, j'aime Mary Poppins, j'lâche des phases historiques Qui t'hypnotisent alors que j'parle pas d'flic Pas d'street, pas d'fric, mais de bad trip gastriques À Maastricth, j'articule quand je rappe vite Ultra réactif, j'hurle quand j'ai pas d'spliff T'es pas chiche de m'lâcher du bakchich pour acheter Du haschich, donc astique ma dick, ma 'sique magique rapplique Capiche ? Je pique-nique avec dix beatniks mystiques Qui se disent stricts et fans de Klapisch Éclipse les crispés, fait flipper les grizzlis En slip dans mes clips, je pratique le frisbee J'en ai marre des strings, des filles comme outils marketing Le rap un art festif, pas besoin d'artifice C'est déjà magnifique, juste un poil narcissique Si tout c'que tu kiffes, c'est la technique taffe à Darty, fils Car la forme sans le fond, c'est comme un porno sans le son Un zéro-six sans le nom, MC hors-norme dans ce monde Ma femme à barbe tape le foot avec des hommes troncs Du coup, ma caravane sent le foutre de ces pochtrons J'ai vaincu cent cyclopes, écrit vingt-huit encyclopédies Oui, je sais que Kim Jong Il cache un luisant micro-pénis Je suis un geek, un pitre, me tape un trip, t'invite À me découvrir dans un cirque, je suis un vilain freak Parait qu'je suis une curiosité, un extra-terrestre C'est vrai qu'j'ai du mal à cogiter, je cède à la paresse J'me compromets sans hésiter, mais j'avance plus que j'régresse Pas de rubrique pour moi au JT, c'est les savants qu'j'intéresse Montré du doigt, marqué au fer, touché au foie, cachet offert Tarif au choix, toujours trop cher, tu réponds quoi la gueule mée-fer' ? Donner d'la voix, ça, je sais faire, marcher au pas ? Je suis trop fier Telle est la loi, sache que mes frères partagent ma voix sans trop s'en faire Non, pas besoin d'aileron ni d'être trop grognon Nous faisons le dos rond mais foutons le boxon Viens boire notre potion, là, dans nos gros chaudrons Oui, nous sommes des laiderons mais rien ne nous corrompt x4 Freak out Les freaks, c'est chic</t>
+          <t>Quand je ne trouve pas l'sommeil, j'écris des tas d'poèmes Dame des pâtes au sel mais malgré mon âme bohème J'ai une vie de gars moderne, chasse les femmes obscènes J'les emmène à l'hôtel dans une tractopelle Après un litre de pastis, j'plane comme Icare J'vais voir des filles courir avec des gros nibards Ou j'me déguise en policier, réquisitionne un corbillard Histoire de rouler vite sur une piste de karting J'l'avoue, j'délire tout seul J'n'ai aucun tabou, comme so crazy MC Freddy Gruesum Pour pitcher ma voix, pas besoin de bouffée d'hélium Relaxe-toi, glisse une boulette d'opium dans ton rectum Trop d'traces d'ADN sur ma doudoune canadienne Dont la poche interne est pleine de choucroute alsacienne Si j'te débecte, alerte les cops Mais sache qu'il n'y a qu'au Québec que j'aime caresser mes gosses Laisse-moi talk mon shit comme un damn fool Un champ d'caca, that's shampoo Mes blagues sur ta mom sont juste trop bad Appelle-moi OD, ma langue sur ta grosse chatte I'm making y'all mad J'suis trop amazing on tracks En plus, j'suis le maître des clashs Parce qu'mes vers sont fly, meteor man J'suis ci puis ça, Diddy puis Nas Nicki Minaj, Rafiki puis Scar Mon kush est trop violet Tous les rappers se font violer Parce que j'suis le troisième membre des intrépides Léo' Di Caprio en pleine chute libre Greatest of all time, appelle-moi Claude le GOAT Sexy chocolat, chevalier d'la Toblerone</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Hippocampe Fou - John Doe ∅ 46</t>
+          <t>Hippo @ Montréal : chez Socalled</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>John Doe, pour les gadjis et les meufs aussi J'plane comme un spoutnik, scat comme un fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille Tu deviens croustillant, appelle-moi Raspoutine Je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils, des onomatopées Quelques mots syncopés, des beats assourdissants Dindon ou papa poule ? Dîne avec des babas cool Parfois, je rappe à Brooklyn, emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean J'me ballade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga Ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars bédav' des tons-car Ecris des haïkus, des cochonneries ou des mangas Des lopes-sa m'accostent, même en jogging coste-La Au Costes, à la Poste, j'suis la fucking re-sta J'ai capté la mode, gars, fais couler la vodka Fabriqué ton gobelet en recyclant ma pote-ca Trinque ou tringle, agrippe-toi, on grimpe Au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent Que, quand on déconne comme ça, ça décolle grave Tu m'as l'air bien palot, viens dans mon bungalow Déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses Et puis des Tsingtoa, c'est vital Je fais kiffer les demoiselles grivoises Tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle Celui qu'il fallait pour marquer l'histoire L'histoire de John Doe, quoi... 75ème Session Avec John Doe, John Doe AKA...</t>
+          <t>La baise le plus puissant des somnifères Allège les plus imposants pachydermes Apaise les conquérants, les solitaires Abrège les souffrances des papys tièdes C'est mon grand huit, mon point d'fuite Mon aspirine, les lendemains d'cuite Pour ne plus cogiter, j'ai besoin de ton doux fessier Il faut manger pour vivre et vivre pour baiser</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Hippo @ Montréal : avec Freddy Gruesum</t>
+          <t>H&amp;M</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Quand je ne trouve pas l'sommeil, j'écris des tas d'poèmes Dame des pâtes au sel mais malgré mon âme bohème J'ai une vie de gars moderne, chasse les femmes obscènes J'les emmène à l'hôtel dans une tractopelle Après un litre de pastis, j'plane comme Icare J'vais voir des filles courir avec des gros nibards Ou j'me déguise en policier, réquisitionne un corbillard Histoire de rouler vite sur une piste de karting J'l'avoue, j'délire tout seul J'n'ai aucun tabou, comme so crazy MC Freddy Gruesum Pour pitcher ma voix, pas besoin de bouffée d'hélium Relaxe-toi, glisse une boulette d'opium dans ton rectum Trop d'traces d'ADN sur ma doudoune canadienne Dont la poche interne est pleine de choucroute alsacienne Si j'te débecte, alerte les cops Mais sache qu'il n'y a qu'au Québec que j'aime caresser mes gosses Laisse-moi talk mon shit comme un damn fool Un champ d'caca, that's shampoo Mes blagues sur ta mom sont juste trop bad Appelle-moi OD, ma langue sur ta grosse chatte I'm making y'all mad J'suis trop amazing on tracks En plus, j'suis le maître des clashs Parce qu'mes vers sont fly, meteor man J'suis ci puis ça, Diddy puis Nas Nicki Minaj, Rafiki puis Scar Mon kush est trop violet Tous les rappers se font violer Parce que j'suis le troisième membre des intrépides Léo' Di Caprio en pleine chute libre Greatest of all time, appelle-moi Claude le GOAT Sexy chocolat, chevalier d'la Toblerone</t>
+          <t>Ce morceau s'adresse à... à celles et ceux qui ont déjà eu des... Des... des problèmes intimes, on va dire... Ça fait comme ça.. HM Laissent des taches de crème Qu'on vive à Megève Ou dans une HLM Tu souffres de saignements Mais t'hésites à aller voir ton pharmacien pour lui demander des renseignements Ça rend moins turbulent, c'est purulent Seuls des scatophiles pourraient trouver ça succulent C'est écurant, ça te rend apeuré À l'idée d'effleurer la zone irrité Trop à cran, en vacances chez tes beaux-parents Pour tuer le temps allongé sur le ventre, tu relis Maupassant Le rectum infecté, tu t'sens comme inspecté Ça gonfle, ça enfle, ça rend fou, c'est un brasier Ton anus est contracté, tu rêves d'une antre ombragée De poser ton arrière-train au point culminant d'un glacier Ça touche ceux qui lisent sur le trône Ceux qui mangent trop épicé Apple ou PC, bref, que tu sois SDF ou PDG Assis toute la journée sur un banc ou dans fauteuil en cuir, t'es gêné x2 Ça s'attrape dans une douche de camping, à la piscine Dans un sac de couchage contre un coussin, dans une orgie Entre les cuisses d'une créature divine ou dégueulasse Lors d'un conflit armé, dans une tranchée où s'empilent des cadavres Si t'es poissard, t'attraperas ça une semaine avant ton mariage Et pendant ta lune de miel, ça s'aggravera Fallait pas se frotter contre la lunette Des toilettes communes de cet hôtel crasseux Ça tracasse, ça dérange, ça moleste, ça gratte Ça t'agace, ça démange, ça t'obsède, ça gratte Ça t'fait transpirer, ça n'fait qu'empirer Donc autant t'tirer une balle dans la tempe tant qu't'y es Tu grognes, t'es grincheux, aigri ou chagriné Tu pourrais poser tes parties intimes sur un grill mais Y'a rien à faire, dans ta culotte ou ton slip, ça macère Que tu vives dans une roulotte ou dans un palace, fier x2 T'as beau être exhibo, quand tu mets ta crème Au milieu de l'après-m', il vaut mieux tirer les rideaux Comme pour la xénophobie et les psychoses Aucun de nous n'est à l'abri des hémorroïdes et des mycoses Faire l'apologie de ces maux horribles, c'est pas romantique Et limite arrogant envers ces zones endolories De différents coloris qui n'épargnent ni les écologistes Ni les diplômés en économie... x2 Chez les hippocampes, c'est le mâle qui porte les oeufs</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hippo @ Montréal : chez Socalled</t>
+          <t>Hymne au Cinéma</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>La baise le plus puissant des somnifères Allège les plus imposants pachydermes Apaise les conquérants, les solitaires Abrège les souffrances des papys tièdes C'est mon grand huit, mon point d'fuite Mon aspirine, les lendemains d'cuite Pour ne plus cogiter, j'ai besoin de ton doux fessier Il faut manger pour vivre et vivre pour baiser</t>
+          <t>Le cinéma, je m'y sens chez moi Je ne pourrais pas vivre sans me glisser dans ses draps J'aime m'y réfugier quand dehors il fait froid Même dans les salles délabrées où s'abritent des rats Un frisson me parcourt, quand la lumière se baisse Je savoure chaque plan comme une paire de fesses Je peux presque palper notre excitation Quand nous habillons le silence de nos respirations Des géants crèvent l'écran, éveillent les rêves des gens Émerveillent même les grands, énervent, ou déstressent En essayant de ne pas faire semblant De s'amuser sérieusement comme le font les enfants C'est un art cathartique inouï qui Choque, divertit, ébouriffe ou ravit, fait sourire ou souffrir Toutes ces histoires à dormir assis Nous en mettent plein la vue et l'ouïe Des personnages de Jarmush aux images de Bilge Ceylan Du rire d'Amadeus aux punchlines de Blier Les bons films sont rares, s'apprécient comme des cadeaux Il m'est arrivé d'avaler des soupes de navets spatiaux Qui n'ont pas étanché ma soif, ébranlé ma passion L'écran est ma glace donc Mon esprit comme guidé par l'orgasme M'a suggéré d'écrire cet hymne au cinématographe J'ai fait du parapente en me jetant du Paramount Oublié mes 20 ans sous les projecteurs de la Fox J'ai même invité Totoro à dormir dans un château rose Lui ai fait faire son rototo, on était en parfaite osmose Parfois du D de DreamWorks, je me jette à l'eau Pour mieux grimper au sommet de l'antenne de la RKO Quand sauvagement le lion de la MGM rugit Dans ma tête, des fragments de lives de NTM surgissent On a pendu Laurel et Hardy pour quelques dollars de plus J'ai retrouvé la corde planquée sous une arche russe Les fils de l'homme qui rétrécit ont rejoint le septième continent C'est irréversible Sadako a mis du gloss et accourt Vers son petit amant Nosferatu La sorcière du pays d'Oz est jalouse Fond en larmes et son mari Voldemor fait la roue Saviez-vous que, suite à un raz de marée Des crocodiles zombies dorment Au pied d'un monolithe sur la montagne sacrée Tandis qu'un vieux droïde androgyne parcourt une plage de naturiste ? Quand j'rembobine cet art utile, des pages d'images jaillissent J'vois les gants de Gilda sur le pont de Dogville, piétiné par Godzilla La hache de Jack Torrance dans les mains d'un Joker hostile Pas besoin des joints de Jeff Lebowski Au ciné, y'a trop d'miracles Plaisir familial ou solitaire À la croisée du réel et de l'imaginaire Même le quotidien y paraît extraordinaire Et, quand on choisit bien la salle, l'entrée n'est pas si chère Alors oubliez les forums sur internet Venez faire vibrer les murs de toutes ces salles désertes Savourer les jump cuts, les travellings compensés Les invraisemblances cohérentes, la vie condensée Dévorer du regard des faces de cake Dévaler quatre à quatre les escaliers sales de Rec Croiser Lars von Trier, j'suis trop fan de c'mec J'pourrais lui offrir un manteau en peau d'âne de Shrek 2</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>H&amp;M</t>
+          <t>J’ai fini le taf</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ce morceau s'adresse à... à celles et ceux qui ont déjà eu des... Des... des problèmes intimes, on va dire... Ça fait comme ça.. HM Laissent des taches de crème Qu'on vive à Megève Ou dans une HLM Tu souffres de saignements Mais t'hésites à aller voir ton pharmacien pour lui demander des renseignements Ça rend moins turbulent, c'est purulent Seuls des scatophiles pourraient trouver ça succulent C'est écurant, ça te rend apeuré À l'idée d'effleurer la zone irrité Trop à cran, en vacances chez tes beaux-parents Pour tuer le temps allongé sur le ventre, tu relis Maupassant Le rectum infecté, tu t'sens comme inspecté Ça gonfle, ça enfle, ça rend fou, c'est un brasier Ton anus est contracté, tu rêves d'une antre ombragée De poser ton arrière-train au point culminant d'un glacier Ça touche ceux qui lisent sur le trône Ceux qui mangent trop épicé Apple ou PC, bref, que tu sois SDF ou PDG Assis toute la journée sur un banc ou dans fauteuil en cuir, t'es gêné x2 Ça s'attrape dans une douche de camping, à la piscine Dans un sac de couchage contre un coussin, dans une orgie Entre les cuisses d'une créature divine ou dégueulasse Lors d'un conflit armé, dans une tranchée où s'empilent des cadavres Si t'es poissard, t'attraperas ça une semaine avant ton mariage Et pendant ta lune de miel, ça s'aggravera Fallait pas se frotter contre la lunette Des toilettes communes de cet hôtel crasseux Ça tracasse, ça dérange, ça moleste, ça gratte Ça t'agace, ça démange, ça t'obsède, ça gratte Ça t'fait transpirer, ça n'fait qu'empirer Donc autant t'tirer une balle dans la tempe tant qu't'y es Tu grognes, t'es grincheux, aigri ou chagriné Tu pourrais poser tes parties intimes sur un grill mais Y'a rien à faire, dans ta culotte ou ton slip, ça macère Que tu vives dans une roulotte ou dans un palace, fier x2 T'as beau être exhibo, quand tu mets ta crème Au milieu de l'après-m', il vaut mieux tirer les rideaux Comme pour la xénophobie et les psychoses Aucun de nous n'est à l'abri des hémorroïdes et des mycoses Faire l'apologie de ces maux horribles, c'est pas romantique Et limite arrogant envers ces zones endolories De différents coloris qui n'épargnent ni les écologistes Ni les diplômés en économie... x2 Chez les hippocampes, c'est le mâle qui porte les oeufs</t>
+          <t>Jai fini le taf, que veux-tu quje fasse ? Boire dans les bars avec mes collègues, enchaîner les pintes et les tequilas paf Profiter du coucher d'soleil tout en critiquant tous ceux qui magacent Shooter des zombies dans les salles darcades, faire du footing ou de lescalade Pour sculpter mon body puis chasser les pigeons avec une sarbacane pour finir en prison après une sale garde-à-v' Squatter les catacombes toute la night avec un verre dayahuasca Backer Biggie dans un open mic et le checker genre Hey yo, whassup? Crusher sur des actrices, les DM, recevoir des dick pics de CM Traîner sur le dark net et DL des photos dvacances dXDDL Appeler tous mes BFF, dépenser tous mes billets verts Voler une fusée Space X et terminer fly dans lISS Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Trouver de belles phrases et ne pas les noter, croiser une belle femme et ne pas laccoster Aller mégosiller dans un karaoké, demander pardon à ceux que jai ghostés Maventurer dans des musées, me faire passer pour un guide Pour embrumer les touristes en décortiquant, stick au bec, toutes ces toiles qui mintriguent Inviter ma sur à dîner à deux pas dune salle de ciné Puis digérer mon burger devant un film dhorreur dauteur ou bien le dernier blockbuster et vibrer Tracer voir mon papa, lécouter retracer toute la saga De notre famille, ces gens que jvois pas, jles appelle jamais, jle regrette parfois Rentrer chez moi maintenant, profiter de mes enfants Avant quils aillent vivre leurs vingt ans, que mon cur en ruine regrette louragan Passer faire un coucou à mes grands-parents, ma seconde maman Jeter les fleurs séchées, contempler le sol qui nous attend Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Que veux-tu quje fasse ? Que veux-tu quje fasse ? Jai fini le taf Que veux-tu quje fasse ?</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hymne au Cinéma</t>
+          <t>J’aime pas danser</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Le cinéma, je m'y sens chez moi Je ne pourrais pas vivre sans me glisser dans ses draps J'aime m'y réfugier quand dehors il fait froid Même dans les salles délabrées où s'abritent des rats Un frisson me parcourt, quand la lumière se baisse Je savoure chaque plan comme une paire de fesses Je peux presque palper notre excitation Quand nous habillons le silence de nos respirations Des géants crèvent l'écran, éveillent les rêves des gens Émerveillent même les grands, énervent, ou déstressent En essayant de ne pas faire semblant De s'amuser sérieusement comme le font les enfants C'est un art cathartique inouï qui Choque, divertit, ébouriffe ou ravit, fait sourire ou souffrir Toutes ces histoires à dormir assis Nous en mettent plein la vue et l'ouïe Des personnages de Jarmush aux images de Bilge Ceylan Du rire d'Amadeus aux punchlines de Blier Les bons films sont rares, s'apprécient comme des cadeaux Il m'est arrivé d'avaler des soupes de navets spatiaux Qui n'ont pas étanché ma soif, ébranlé ma passion L'écran est ma glace donc Mon esprit comme guidé par l'orgasme M'a suggéré d'écrire cet hymne au cinématographe J'ai fait du parapente en me jetant du Paramount Oublié mes 20 ans sous les projecteurs de la Fox J'ai même invité Totoro à dormir dans un château rose Lui ai fait faire son rototo, on était en parfaite osmose Parfois du D de DreamWorks, je me jette à l'eau Pour mieux grimper au sommet de l'antenne de la RKO Quand sauvagement le lion de la MGM rugit Dans ma tête, des fragments de lives de NTM surgissent On a pendu Laurel et Hardy pour quelques dollars de plus J'ai retrouvé la corde planquée sous une arche russe Les fils de l'homme qui rétrécit ont rejoint le septième continent C'est irréversible Sadako a mis du gloss et accourt Vers son petit amant Nosferatu La sorcière du pays d'Oz est jalouse Fond en larmes et son mari Voldemor fait la roue Saviez-vous que, suite à un raz de marée Des crocodiles zombies dorment Au pied d'un monolithe sur la montagne sacrée Tandis qu'un vieux droïde androgyne parcourt une plage de naturiste ? Quand j'rembobine cet art utile, des pages d'images jaillissent J'vois les gants de Gilda sur le pont de Dogville, piétiné par Godzilla La hache de Jack Torrance dans les mains d'un Joker hostile Pas besoin des joints de Jeff Lebowski Au ciné, y'a trop d'miracles Plaisir familial ou solitaire À la croisée du réel et de l'imaginaire Même le quotidien y paraît extraordinaire Et, quand on choisit bien la salle, l'entrée n'est pas si chère Alors oubliez les forums sur internet Venez faire vibrer les murs de toutes ces salles désertes Savourer les jump cuts, les travellings compensés Les invraisemblances cohérentes, la vie condensée Dévorer du regard des faces de cake Dévaler quatre à quatre les escaliers sales de Rec Croiser Lars von Trier, j'suis trop fan de c'mec J'pourrais lui offrir un manteau en peau d'âne de Shrek 2</t>
+          <t>Examine mes pas, tu verras qucest pas clean Jme sens comme un gros amas dgélatine Sans amphétamine, jsuis trop flegmatique Jai bsoin de recharger mon sex-appeal Cest humiliant comme un coït quand tes mou du bout Jsuis comme un cul djatte dans un métro plein de gens debout Jsuis dans les temps mais la grâce nest pas au rendez-vous Je saurai danser quand les chauves auront des poux Jaime pas danser Jaime pas danser Sur la piste, trop passif, j patine Jaime pas danser Jaim pas danser Jaime pas mtromper Jaime pas danser Jveux mallonger Jai beau avoir le sens du rythme Mes mouvements sont désordonnés Je ne fais que saccager vos choré' Je naime pas bouger, cest un grand supplice Jai des pas trop bateaux, pas trop dabdos, pas chaud, pataud, jpatauge Alors que les ados démarrent comme des acrobates au galop Allô, allô, mayday, mayday, face aux badauds, jme sens comme un crapaud Crado, barjo, maso, jvais décéder, ciao Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue Appelle-moi Fred Hamster ou Mister Bean Kelly Le plus mauvais danseur de lhistoire de la bipédie Plus jmove mon body, plus jtombe dans le discrédit Même les chorégraphes bouddhistes frisent lhystérie Je me dépense, je me dépasse, je me déhanche, je me déplace Jaime lécho, jaime les basses, manque de pot, jmanque de classe Jai pas les bases, ça ne me tente pas, me détend pas, ça me lasse Mais dans la masse, je me démarque, quand je me plante, là, ça me les casse Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue1</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>J’ai fini le taf</t>
+          <t>J’ai peur</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Jai fini le taf, que veux-tu quje fasse ? Boire dans les bars avec mes collègues, enchaîner les pintes et les tequilas paf Profiter du coucher d'soleil tout en critiquant tous ceux qui magacent Shooter des zombies dans les salles darcades, faire du footing ou de lescalade Pour sculpter mon body puis chasser les pigeons avec une sarbacane pour finir en prison après une sale garde-à-v' Squatter les catacombes toute la night avec un verre dayahuasca Backer Biggie dans un open mic et le checker genre Hey yo, whassup? Crusher sur des actrices, les DM, recevoir des dick pics de CM Traîner sur le dark net et DL des photos dvacances dXDDL Appeler tous mes BFF, dépenser tous mes billets verts Voler une fusée Space X et terminer fly dans lISS Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Trouver de belles phrases et ne pas les noter, croiser une belle femme et ne pas laccoster Aller mégosiller dans un karaoké, demander pardon à ceux que jai ghostés Maventurer dans des musées, me faire passer pour un guide Pour embrumer les touristes en décortiquant, stick au bec, toutes ces toiles qui mintriguent Inviter ma sur à dîner à deux pas dune salle de ciné Puis digérer mon burger devant un film dhorreur dauteur ou bien le dernier blockbuster et vibrer Tracer voir mon papa, lécouter retracer toute la saga De notre famille, ces gens que jvois pas, jles appelle jamais, jle regrette parfois Rentrer chez moi maintenant, profiter de mes enfants Avant quils aillent vivre leurs vingt ans, que mon cur en ruine regrette louragan Passer faire un coucou à mes grands-parents, ma seconde maman Jeter les fleurs séchées, contempler le sol qui nous attend Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Jai fini le taf, jai fini le taf Jai fini le taf, que veux-tu quje fasse ? Que veux-tu quje fasse ? Que veux-tu quje fasse ? Jai fini le taf Que veux-tu quje fasse ?</t>
+          <t>J'ai peur, j'ai peur, j'ai peur J'ai peur, j'ai peur J'ai peur, j'ai peur Oui, j'ai peur De mourir à la guerre au mois d'août De marcher dans une crotte de mammouth De dormir sur une aire d'autoroute De cacher dans une grotte tous mes doutes J'ai peur des cours de cathé', d'attaquer pour du saké Des champions de karaté, d'avaler du sable De préparer ma purée de carottes, et d'oublier D'en donner à des gens détestables De la Dame Blanche déguisée en pervenche De passer mes dimanches entre quatre planches De me baigner dans La Manche, l'hiver, que l'on me tranche les veines Qu'une hôtesse de l'air sans hanche se penche sans peine J'ai peur de chatouiller un requin blanc, de me raser avec ses dents D'attendre patiemment devant en rédigeant mon testament D'être coulé dans le ciment, de faire parti d'un bâtiment Qu'on m'y retrouve dans dix milles ans et fasse de moi un monument J'ai peur J'ai peur J'ai peur J'ai peur</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J’aime pas danser</t>
+          <t>J’ai touché le fond</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Examine mes pas, tu verras qucest pas clean Jme sens comme un gros amas dgélatine Sans amphétamine, jsuis trop flegmatique Jai bsoin de recharger mon sex-appeal Cest humiliant comme un coït quand tes mou du bout Jsuis comme un cul djatte dans un métro plein de gens debout Jsuis dans les temps mais la grâce nest pas au rendez-vous Je saurai danser quand les chauves auront des poux Jaime pas danser Jaime pas danser Sur la piste, trop passif, j patine Jaime pas danser Jaim pas danser Jaime pas mtromper Jaime pas danser Jveux mallonger Jai beau avoir le sens du rythme Mes mouvements sont désordonnés Je ne fais que saccager vos choré' Je naime pas bouger, cest un grand supplice Jai des pas trop bateaux, pas trop dabdos, pas chaud, pataud, jpatauge Alors que les ados démarrent comme des acrobates au galop Allô, allô, mayday, mayday, face aux badauds, jme sens comme un crapaud Crado, barjo, maso, jvais décéder, ciao Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas danser Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue Appelle-moi Fred Hamster ou Mister Bean Kelly Le plus mauvais danseur de lhistoire de la bipédie Plus jmove mon body, plus jtombe dans le discrédit Même les chorégraphes bouddhistes frisent lhystérie Je me dépense, je me dépasse, je me déhanche, je me déplace Jaime lécho, jaime les basses, manque de pot, jmanque de classe Jai pas les bases, ça ne me tente pas, me détend pas, ça me lasse Mais dans la masse, je me démarque, quand je me plante, là, ça me les casse Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Sur la piste, trop passif, je patine Bolly-Bolly-Bolly-Bolly-Bolly-Bollywood Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jaime pas mtromper Cest la crise, jsuis pas vif, je fatigue Jaime pas danser Sur la piste, trop passif, je patine Jveux mallonger Cest la crise, jsuis pas vif, je fatigue1</t>
+          <t>Ça y est, j'ai vu l'Atlantide, inattendu mais splendide J'vais pouvoir mourir tranquille, avec ou sans Valentine Mes mouvements sont ralentis comme si j'étais sous champi' J'vais finir couvert d'écailles avec les doigts palmés plus trois paires de branchies J'suis p't-être au paradis ou p't-être au fond du Styx J'suis moins frais que la poiscaille sur l'étal d'Ordralfabétix Quand j'expire, y'a plein d'eau, c'est vraiment pas pratique Ça m'sort par les naseaux comme si j'vivais en Papouasie oh J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'pux que remonter J'ai touché l fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond J'nage comme un triton, j'ai la face d'un vieux fripon, je n'ai pas pris de biberon et j'ai soif J'ai dû sombrer dans la démence, évidemment, je vais sonder les décombres et compter les poissons qui passent Faire le clown avec Nemo dans le Nautilus pendant que le colosse de Rhodes fait de la muscu' Puis j'irai prendre le thé dans les salons hantés du Titanic, bien que l'idée de croiser des noyés me tétanise J'voudrais me mettre la tête à l'envers, ça me semble être le bon endroit J'pourrais troquer mon âme contre une coupe de champagne, voire un tout p'tit verre de sang-froid Je serais même prêt à bouffer des anchois ou à m'faire téter par des lamproies J'ai des principes insubmersibles et ne suis que peu subversif, mais je n'ai plus la vie devant moi, non J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'peux que remonter J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai... touché le fond ?</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J’ai peur</t>
+          <t>J’ai toujours rêvé d’être un gangster</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J'ai peur, j'ai peur, j'ai peur J'ai peur, j'ai peur J'ai peur, j'ai peur Oui, j'ai peur De mourir à la guerre au mois d'août De marcher dans une crotte de mammouth De dormir sur une aire d'autoroute De cacher dans une grotte tous mes doutes J'ai peur des cours de cathé', d'attaquer pour du saké Des champions de karaté, d'avaler du sable De préparer ma purée de carottes, et d'oublier D'en donner à des gens détestables De la Dame Blanche déguisée en pervenche De passer mes dimanches entre quatre planches De me baigner dans La Manche, l'hiver, que l'on me tranche les veines Qu'une hôtesse de l'air sans hanche se penche sans peine J'ai peur de chatouiller un requin blanc, de me raser avec ses dents D'attendre patiemment devant en rédigeant mon testament D'être coulé dans le ciment, de faire parti d'un bâtiment Qu'on m'y retrouve dans dix milles ans et fasse de moi un monument J'ai peur J'ai peur J'ai peur J'ai peur</t>
+          <t>Aussi loin que j'me souvienne, j'ai toujours rêvé d'être un gangster Déjà gamin, j'adorais lever les flingues en l'air J'élaborais des plans que je n'aurais jamais l'cran d'faire Donne-moi une arme, j'serai une main d'velours dans un gant d'fer J'voulais qu'on m'graisse la patte, traîner qu'avec la mauvaise graine d'la classe Et l'soir je m'endormais sur du gangsta rap J'ai toujours rêvé d'faire ma place Mais quand on m'a remis à la mienne, j'ai failli perdre la face Ouais, j'ai cru que j'avais l'profil J'ai dû regarder trop d'films, trop d'séries, trop d'clips Dans ma ville, y'a très peu d'gangsters et beaucoup trop d'flics J'ai compris que je n'ferais pas long feu à coup d'brolique Nan, faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas, ils ne rappent pas non plus Faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas... Pourtant, moi, j'aime bien discuter... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster Voilà le gangsta qui s'extasie en voyant Des peluches jaunes hocher la tête en fumant des Knackis Ouais, difficile de taffer dans l'illicite Quand on est un type timide, limite risible, en clair, un mec fragile Le crime paie peut-être mais j'préfère faire du spiritisme En espérant réveiller un spectre richissime Les chapeaux ça m'va pas, les billets j'trouve ça sale Quand y'a une bagarre dans la salle, j'suis planqué sous la table Quand j'bois de l'alcool, j'ai le hoquet Quand j'vois du sang, je m'évanouis J'ai déjà fini en garde à vue pour avoir volé deux kiwis Honte à moi, je n'ai jamais squatté le fond d'la classe Jamais touché d'armes à feu, ni de pic à glace J'suis couard, je n'ai ni bagouse, ni montre à quartz Il m'arrive de twerker quand j'écoute les Worlds Apart N'essaie pas de m'énerver, je n'connais pas la haine J'fais des bisous quand j'traine le soir chez Michou Appelle-moi La Marraine Tous à terre, c'est un hold-up Le rude boy arrive, met des balles à blanc dans l'glock J'ai toujours rêvé d'être un gangster Mais y'a qu'derrière l'anti-pop que j'mets en état d'choc Mon colt c'est du toc, pisse pas dans ton froc J'ai pas les épaules d'Al Capone, non, j'tiens pas vraiment l'alcool Chapeau haut-de-forme plissé, élaborer les traquenards Neuf milli dans le falzar... Non mais, Volo, tu rigoles ? J'aurais surement pas été un gangster doué Une vie de stress et de mensonge m'aurait vite soûlé D'la monnaie, d'la dope et des filles à souhait L'excès n'est pas mon truc et je n'ai rien à prouvé Même si... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster J'suis venu au monde avec une tête de boloss Mais j'ai toujours rêvé d'être un boss Tu vois mon gun ? Je te braque, je le pose Tu vois mon style ? C'est du crack, prends ta dose Petit, tu rêves encore de quoi ? De thunes encore, de quoi ? De lunettes en or pur, de grand cru encore, de quoi ? Aéroport encore, transport de pure de port en port C'est de pire en pire, réveille-toi, Cheeko, tu t'emportes Faire le casse parfait, qui ne l'a jamais voulu ? Le monde est trop petit pour un appétit goulu Mais j'ai jamais eu les couilles de tenir la crosse, ni la drogue Ni le stress atroce de finir dans une affaire non-résolue Donc j'révois mais rêves de grandeur à la baisse Merde, c'est l'jour du Seigneur... Flingue dans l'bouquet d'fleurs à la messe J'viens d'me réveiller, ferme ta gueule, me parle pas Quand tu m'parles de Soprano, j'pense Tony pas à M'baba3</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J’ai roulé ma bosse</t>
+          <t>J’ai un permis pour ça #1 [Hippocampe Fou]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Janvier - 0301 Maes - Booska C - 0601 Kekra - Booska Césarienne - 0601 Max Paro - Critical 0801 Elams - Elams et les 40 voleurs - Épisode 2 - Lyon ft. ISKA, Pouya ALZ, Big Ben, Sasso Miro Starf - 0801 Hornet La Frappe - C'est mort ft. Leto RK - 0901 Leonis - Apollo - 0901 Les Alchimistes - Personne - 1001 Luv Resval - Side - 1001 Scridge - Ghetto ft. Landy - 1501 Doni M - Zig Zag - 1701 AM La Scampia - Fais-le - 1701 Gambi - Dans l'espace ft. Heuss L'enfoiré - 2201 La Fouine - Première fois - 2201 S.Pri Noir - Dystopia - 2301 Captaine Roshi - Opération CDL ft. Black D - 2301 Chily - Tout est calé ft. Koba LaD - 2301 D.Ace - La vérité - 2301 ISK - Garantie - 2301 Josman - Petite Bulle - 2301 Le Club - La maille - 2401 Benab - J'ai demandé à la rue - 2401 Damso - veillé - 2401 DTF - Baida - 2401 DTF - Maria - 2401 Laylow - TRINITYVILLE - 2401 LMB - Ça dit quoi poto - 2401 Timal - Routine - 2701 Naza - Souris verte 2901 Hache-P - Arès - 2901 Dika - Cur glacé ft. Sadek - 2901 Shotas - Compton - 2901 7 Jaws Seezy - Turbo S - 3001 Bolemvn - Frappe atomique - 3101 Bosh - Cur noir - 3101 Chily - Booska KushCoffee - 3101 Driks - Couleur ébène - 3101 Dry - Atlantis 1 - 3101 Graya - Dans la Cristaline ft. Naps - 3101 Hugo Nogam - Histoire sans fin ft. Dadju - 3101 Jok'Air - Jok'Chirac - 3101 Jok'Air - Sa mère aux mères ft. Diddi Trix, Sadek, Luv Resval Alkpote 3101 Kader Diaby 4real - Venez voir - 3101 Kekra - Comment on fait là ? - 3101 Kofs - Santé Bonheur - 3101 Marwa Loud - Allez les gros ft. Naza - 3101 Paolo - Comme un glaçon - 3101 Seizur - Ma gow - 3101 Vin's - Égalité - 3101 2zer - Balle perdue 5 - Blood Diamonds Février - 0202 Kikesa - Elle sait - 0302 Liim's - Favelas - 0502 USKY - Douce folie ft. Doxx - 0602 CG6 - Bizness - 0602 Sofiane - Training Day - 0702 Brvmsoo - Sale boulot ft. 4Keus - 0702 David Okit - Belek 0702 Gato da Bato - Ma vie - 0702 GLK - Maudit - 0702 Kaza - 3.5.7 - 0702 Meryl - TCQDOF - 0702 Soolking - Meleim ft. Dadju - 0702 YL - Larlar 2 Tennessee - 1002 Landy - Brave III Freestyle - 1202 ZKR - On se comprend ft. DA Uzi - 1402 Eden Seven - Dîner ft. Zed - 1402 Kofs - Embourgeoisé ft. Kaaris - 1402 Lujipeka - Palapalaba - 1402 TK - Benalla - 1402 T2R Minissia - Mariage 1 - 1402 Popey - Tchop ft. Sadek - 1402 Savage Toddy - AHAH ! - 1402 Zoupouti - Lolipop - 1602 Balao - Or brut - 1702 Sneazzy - Feu régulier - 1902 Barack Adama - Sirène - 2002 Naps - 6.3 ft. Ninho - 2002 Sofiane - Des malades - 2102 Abou Debeing - Meilleurs ft. Tayc - 2102 DA Uzi - Le dire ft. Maes - 2102 Dosseh - L'odeur du charbon Remix ft. Maes Dinos - 2102 Jok'Air - Ne pleure pas 2102 K.R.K - La maille - 2102 Sifax - Reste un bandit - 2102 Soolking - Marilyne ft. SCH - 2102 Timal - Week-end ft. Leto - 2102 ZeGuerre - Freestyle SixNueve 2102 2zé - Zézon - 2602 Soso Maness - DDD ft. Hornet La Frappe - 2702 Bekar - Aléas - 2702 Ninho - M.I.L.S 3 - 2702 Senyss - Bad Mama Jama - 2702 - Sneazzy - À quoi tu joues ? - 2802 Alonzo - Freestyle GG - 2802 ALP - Dernier vol ft. Niro - 2802 DJ Erise - TECO ft. Franglish 2802 Dry - Atlantis 2 - 2802 Green Montana - 6AM - 2802 Gros Mo - Rouler GZSC - 2802 Hatik - Encore - 2802 Sam's - Validé ft. Lacrim - 2802 SDM - La zone ft. Booba - 2802 Yanslo - Oublier Mars - 0103 Balao - 9 carats 37,5 ft. Salek - 0403 Shotas - GF - 0403 ZeGuerre - Corsé 7 - 0503 Dika - Enfant du block ft. Naps AM La Scampia - 0603 Rim'K - Valise ft. SCH Koba La D - 0603 GLK - Mauve - 0602 Haristone - Overdose 0603 K.R.K - Saint-Honoré - 0603 Kekra - Putain de salaire - 0603 LMB - La bringue 1 Plan B - 0603 Nseven7 - OTT2 - 0603 Onze - 11.2 - 0603 R.E.D.K. - Le Block - 0603 Soso Maness - So Maness - 0603 YL - Larlar 3 Copenhague - 0603 Zoupouti - Lollipop Remix ft. Diddi Trixx, NoName Laskiiz - 0903 Booba - CAVALIERO - 0903 Hös Copperfield - La route est longue - 1103 PSO Thug - Ça parle mal - 1103 4Keus - Wakztoubi 3 - 1203 Abou Tall - Bosser 1203 Elams - Elams et les 40 voleurs - Épisode 3 - Paris ft. The S, Mamso, Mous-K, OR, ALP, Bosh Dabs - 1303 Brvmsoo - Bénéf ft. Dinor Rdt - 1303 Denzo - La sacoche ft. Koba La D - 1303 La Malfrappe - Dans ma folie ft. Timal 1303 Le R - Moon ft. Brvmsoo - 1303 Shro - Tout va bien - 1303 Tuerie - Low - 1403 L'Allemand - Hors série C - Bizarre - 1503 Balao - 14 carats 58,4 - 1603 Big Ben - Petit bateau - 1703 Dinor Rdt - Minimum ft. Naza - 1803 Barack Adama - Vu - 1803 Guette l'ascension - Porte tes Couilles 3 ft. Tisco, Kenedy, Tvmo Nesko - 1903 Bosh - Business ft. SCH - 1903 Kalash Criminel - Pronostic - 2003 DA Uzi - Booska New York - 2003 Key Largo - Comme un ouf - 2003 Liims - Dans la tess - 2003 L'As - Distances ft. Lacrim - 2003 Max D. Carter - Yvng Læn - 2003 Rohff - T'as capté TCT - 2003 Twinsmatic - GROSLOT ft. 13 Block Koba LaD - 2303 Big Ben - Palerme - 2403 Benab - Kif Kif - 2503 Hugo TSR - Périmètre - 2503 Leto - Double Bang 9 - 2603 Bosh - Défilé - 2603 Keblack - De quoi tu parles - 2603 JuL - Sousou - 2603 Savage Toddy - Règlement Gang Freestyle - 2603 26 Keuss - Levi Strauss - 2703 DA Uzi - Autre part - 2703 Diddi Trix - Quoi d'neuf - 2703 Green Montana - Séquelles - 2703 Gros Mo - Résistance GZSC - 2703 Les Frères Lumières - Adal 2 - 2703 Koba La D - Ça ira mieux demain - 2703 Rohff - Solo - 2703 Yanslo - Ntiya ma vie - 2803 Hös Copperfield - Libanda - 3003 Doria - Calcul - 3103 Zoupouti - Oulalala Avril 0104 Dr Yaro La Folie - Je deviens fou Freestyle - 0104 Fetiche - Freezer - 0304 A2H - Angoisse - 0304 Luv Resval - 696 - 0304 Rohff - Tous à labri - 0304 Shro - Yankée Öko - 0304 Vin's - Sur mon trottoir - 0304 13 Block - BOÎTE 6 40 KIL - 0504 Young Tomy - L'hiver arrive - 0804 Zesau - Dans le noir - 0604 DA Uzi - Flashback - 0904 DJ Erise - Monte en lair ft. Naza - 1004 Bolemvn - Comment ça va ? - 1004 Gros Mo - Maria GZSC - 1004 Moha La Squale - On roule - 1004 Mister You - Casanostra ft. 3robi - 1004 S.Pri Noir - T'as capté ft. Sneazzy Alpha Wann - 1104 Naps - KNK ft. Kalif Hardcore Kikou - 1604 Didi B - Assinie Remix ft. H Magnum Lefa - 1604 Hoos - Allô - 1604 Médine - EXOMÉDINE - 1704 Alrima - Tcha tcha tcha - 1704 Elams - Bandida - 1704 Guizmo - Lamine - 1704 Kalash Criminel - Dans tous les sens - 1704 KPoint - Boule magique - 1704 L'Algérino - La vida ft. Soprano 1704 NoName - Bah oui Anoname 5 - 1704 Onze - Tout va bien - 1704 RK - F.A.C - 2204 Sifax - Charlemagne ft. TK - 2204 Skaodi - Que des mots 2204 The S - Old Up 3 ft. Popey, Key Largo, Dika, ISK, COR, Cheu-B, Moha K, Kazmi, Decimo, SLK, NKD, BKL, RBK - 2204 2zer - Balle perdue 6 - NMI - 2304 Tayc - Léwé - 2404 Bramsito - Medusa - 2404 Oboy - Rémus - 2604 Big Ben - Comprends-moi - 2804 Marty de Lutece - Brûler ft. Brö - 2804 Naps - Il rôde - 2904 Bekar - Soleil s'allume - 2904 Lossa2squa - Hinata - 2904 OM La Compo - cOMbat quotidien ft. Kemmler, Hatik, Zamdame, Relo, Saïd, DRIME, AM La Scampia R.E.D.K. 3004 ALP feat. Yaro Graya - Ganté - 3004 Klub des Loosers - Battre - 3004 La Cour de Récré - Règlement Fitness Freestyle Mai - 0105 Big Dada - Tout va bien ft. Noxious - 0105 Bolémvn - Prends ta monnaie ft. RK - 0105 LMB - Ice Vision - 0105 Michel - Tejla 0305 Beeby - Répondeur - 0305 Narkonic - Malabar - 0505 Soso Maness - Mistral - 0605 Kodes - William Thomas Freestyle - 0605 The Hop - Berline noire ft. Jazzy Bazz Krisy - 0705 Ashkidd - HOLÀ - 0705 Chanje - Casper - 0705 Naps - Fais le bisou - 0705 Naps - Poropop Remix ft. Soolking, Sofiane Kliff - 0705 PLK - Hot16Challenge2 - 0705 San-Nom - Barbapapa - 0705 SDM - À l'affût - 0705 Youri - Règlement Gosse Freestyle - 0805 Chilly - Dans mon barrio - 0805 Larry - Routine - 0805 Luv Resval - Thor ft. Diddi Trix - 0805 Lyonzon - Confinato - 0805 Max Paro - Ma belle - 0805 OldPee - FER - 0805 Yuzmv - L'exil - 0805 Zola - Bro Bro - 0905 JuL - Fait d'or - 1205 Booba - Jauné ft. Zed - 1405 Abou Tall - Mona Moore 1405 B-NØM - Règlement Bêta Nu Freestyle - 1505 Artik - Netflix - 1505 Beny - Antipop - 1505 Bolémvn - Sentiments 1505 Hamza - 140 BPM - 1505 Hooss - Vie de rue - 1505 Kalash - Toujou la - 1505 Matou - Grosses sommes ft. PLK - 1505 OBOY - Kenzo ft. Harley Moko - 1505 Scylla - Sales mômes ft. Furax - 1505 ZeGuerre - Shoot 1505 Zidi - PASSÉ - 2105 Huntrill - Fk La Drill - 2205 Amin - Elle 2205 Bolémvn - Booskateuf Freestyle - 2205 Bramsito - Criminel ft. Niska - 2205 Diddi Trix - Toujours - 2205 Gros Mo - Minuit pile - 2205 Guti Gutss - Gutti World Non - 2205 Marty de Lutece - Nudes - 2205 Zed Yun Pavarotti - Lalaland 2305 Guy2Bezbar - La callé - 2405 Abdxxl - Planète - 2405 Kikesa - Je danse comme ça 2405 Moha La Squale - Paris 2705 Badjer - CestCarre Dans laxe - 2705 EDGE - Obsolète 2705 H Magnum - Gatement - 2705 JuL - Folie 2705 Petit Voyou - C'est l'été - 2805 Dajak - Phonecall 2805 Richi - Règlement TLJ Freestyle 2905 ALP - Police - 2905 Denza - Audemars Piguet - 2905 Franglish - Biberon ft. Leto Tiakola 2905 Goulag - OPOP - 2905 Green Montana - Les ennuis - 2905 Hatik - Ali - 2905 Krisy - Je t'aime encore - 2905 L2B Gang - Trahison - 2905 Moubarak - En Clio - 2905 RK - SOS - 2905 Soso Maness - BOOSK'AAARAH - 2905 Vin's - PCGPCP 3105 Moha La Squale - Basta - 3105 Sese Kepler - Gang Shit 7 Guantanamo ft. Leto Juin 0106 Worbhé - Dowpe 0306 Djalito - Virage - 0306 Luv Resval - Molly - 0406 La Cour de Récré - Speed 0506 A2H - Aime-moi encore - 0506 B-NØM - Ce soir - 0506 Chily - Bendo - 0506 DJ Weedim - Je vous aime ft. Reta - 0506 Lacrim - Booska R4 - 0506 Le Juiice - MATIN 0506 Nino B - Millions - 0506 RK - Freestyle Neverland 1 - 0506 TK - Salam - 0506 Zikxo - Tout ou rien 0506 K.R.K - Tous les jours - 0606 Ziak - Quatre 0806 Juicy P - NLBLB - 0806 Moha La Squale - Chez Babou - 0906 Yannou JR - OG - 1006 Guette l'ascension - Porte tes Couilles 4 ft. Poulaxe, Skodri, Biscuit Tisco 1006 Joysad - Booska Périgueux - 1006 Sifax - Mecs de cités - 1106 Lujipeka - Booska Ozone - 1106 Norsacce - 4 saisons ft. Freeze Corleone - 1206 Benab - Sourire ft. Maes - 1206 Coyote Jo Bastard - Hoodboy - 1206 Doria - Tempo - 1206 F430 - California - 1206 ISK - Fazer ft. YL 1206 Juicy P - Piloter ft. KPoint - 1206 Kalash Criminel - Écrasement de tête - 1206 Klem Schen - Vision différente - 1206 Lacrim - Allez nique ta mère ft. Soso Maness - 1206 Landy - Aucune limite - 1206 Le Sid - Bouré.e ft. Nelick - 1206 Lpee - London - 1206 Mister You - Pénurie - 1206 Nahir - Fin de partie - 1206 RK - Freestyle Neverland 2 - 1206 Slim Lessio - Ah fou - 1206 Tovaritch - Booska Poutine - 1506 Moha La Squale - Amsterdam - 1506 Vendredi 13 - Second psaume - 1706 Biwaï - Awe - 1706 Gazo - Drill FR 4 ft. Freeze Corleone 1706 Jo Le Phéno - Bavure 3.0 - 1706 Sotof - BST 1806 Fiji God - Règlement PLM Freestyle - 1806 Gambi - MACINTOSH - 1906 DIL - Vengeance - 1906 HZY - Jack Sparrow - 1906 Jewel Usain - CTRL - 1906 Klem Schen - Vision claire - 1906 LauCarré - Dans le game - 1906 Le Juiice - MIDI - 1906 LMB - La bringue 2 LVDLF - 1906 San-Nom - Saucisse - 1906 Savage Toddy - Décisions - 1906 thaHomey - Lundi Mardi 1906 Tisco - Mascarade ft. Biscuit - 1906 Toma - Parcours 1906 YKM - Pochtar 2006 Almeida - Iceberg - 2106 Ibrak - GAVA 2106 Rouhnaa - Twitter 2106 TiiwTiiw - FOLLE DE LUI ft. Lacrim - 2106 TripleGo - BRRR 2206 KLN 93 - À 200 - 2206 Senamo - 7Up 2206 Shro - Inshro - 2306 TK - Premier pas - 2406 DJ Weedim - Rends l'argent ft. Stxck Mv, A2H, Youri San-Nom 2406 Jaekers - Vaisseau 2406 Popey - Besoin d'elle ft. Dabs 2506 ALP - Boosk'ALP 2506 Tonio le Vakeso - Pirogue - 2606 Dabs - STOP - 2606 Dante Sito - Johnny Interlude - 2606 Doxx - Ailleurs - 2606 Eden Seven - Trashboy - 2606 Elh Kmer - Cours - 2606 Franglish - Mauvais garçon Remix ft. Kaaris - 2606 HMZ - Choupetta ft. Sofiane Heuss L'enfoiré - 2606 Hös Copperfield - Léwé - 2606 Joysad - Californie - 2606 Key Largo - M'en sortir ft. 4Keus - 2606 Kikesa - Mort de rire 2606 Lasco - Funk petit - 2606 Les Frères Lumières - Si si si ft. Bosh - 2606 Leto - Paris c'est magique - 2606 Lord Esperanza - Couronné - 2606 Paolo - AQB - 2606 RK - Euros ft. Maes 2606 Swift Guad - Habité par le Diable - 2606 Zefor - L'Homme Mystère - 2606 ZKR - Freestyle 5min 8 - 2806 Django - À l'envers - 2806 Moha La Squale - Bébé de Bogota - 2806 Swift Guad - Épicurien 2906 KRK - Ohoh 3006 Bayssou - Coup de girafe - 3006 Bekar - En principe 3006 Niaks - Drilluminati, Pt.1 Juillet 0107 2CheeseMilkShake - Croix rouge ft. Biffty, Julius On The Wave 21Souyard 0107 S.Téban - Le Code ft. JMKS 0107 Souri B - Quedlabonne 4 0107 TK - Dans la gova 2.0 0107 ZeGuerre - Zé ft. Sofiane 0207 Kalash - Plus de love 0207 Lartiste - La chanson 0307 2TH - Solo - 0307 AM La Scampia - Bingo ft. Hatik 0307 B2L - PTD 0307 C.O.R - Pas net ft. Sofiane - 0307 Kaaris - Goulag - 0307 Kalash Criminel - Peur de personne - 0307 Koba LaD - Laisse tomber - 0307 Lyonzon - Flamengo - 0307 SDM - Yakalélo 0307 Souli - L.S.O.L.A ft. Diddi Trix - 0307 Yanso - Everyday - 0307 YL - J'me casse ft. Naps - 0607 Alkpote - Booska'Pétrole 0607 Worbhé - Dans le bat' - 0807 MS13 - Fait monter la bête - 0807 SEB - Flemme 0907 L'Allemand - C'est chaud - 1007 A2H - Hors de ma vue - 1007 Jolly - KATANA ft. Kpri - 1007 Kanoé - Mouv' du boug - 1007 Krilino - Habibi - 1007 Michel - Ouais c'est grave ft. Hatik - 1007 Niska - Bandit chef ft. Madrane - 1007 Noname - Ice - 1007 PLK - C'est mort - 1207 Deeloc - JACKIE ft. Key Largo - 1207 Moha MMZ - Paranoïack 1407 BFG - Makossa - 1407 Booba - Dolce Vita 1507 2CheeseMilkShake - Pourquoi ? 1507 Djadja Dinaz - Freestyle Pays-Bas 1507 Djalito - En règle 5 1507 TK - La night ft. JuL - 1507 Naza - La musique est bonne ft. Heuss L'enfoiré - 1607 Denzo - Booska Atroce - 1607 Leonis - Freestyle Blue 1 - 1707 Alonzo - OOP - 1707 Benab - RS3 ft. Timal 1707 Chily - Complètement rebanav 4 - 1707 Dabs Fashion ft. Kaza 1707 D4R - Teudger 3 1707 Guti - Gutti world 2 - 1707 Jolly - Zone 51 ft. Freeze Corleone - 1707 Mac Tyer - Moto ft. Ninho - 1707 Norsacce - Headshot 1707 Popey - Loin - 1707 Vendredi 13 - Kaiju 1707 Youboy - Mal luné 1 - 1907 LVZ - Meda - 2007 eden dillinger - FREESTYLE 2Ø2Ø 2007 Hermano Salvatore - Abuela 2207 Koba LaD - Freestyle Quartier - 2207 Squidji - Feeling 2407 100 Blaze - Dans le club 2407 Amar Makaveli - Sky ft. Chilla 2407 Arma Jackson - La boussole - 2407 Cheu-B - B.S.E Le Sky 5 2407 Dinero - Faut consommer ft. 4Keus - 2407 Doria - Pas le choix - 2407 GLK - Maracanã 2407 King Doudou - Sous les balles ft. Marty de Lutece 2407 Lacraps - Tah les bombes - 2407 L'As - Hôtel 2407 Lord Gasmique - 1 000 000 2407 Momsii - Tard la night ft. Timal 2407 Nahir - Danilo 2407 Rim'K - Warning - 2407 Sam's - Mec de mon bâtiment ft. Aboudou - 2407 Savage Toddy - Hood ft. Luv Resval 2407 Slimka - Slide 2407 Vegedream - Marchand de sable Part.6 Gestuelle 2407 Zidi - Toxic ft. Assy - 2407 Zoupouti - Tempête - 2607 Kikesa - Toujours en retard 2707 Freeze Corleone - Desiigner 2707 Key Largo - Miam miam 2707 RK - Booska 1H - 2807 Makala - M30 2907 2CheeseMilkshake - J'ouvre une cagnotte 2907 Black D - GESTU - 2907 Djadja Dinaz - Féfé lambo 2907 Djalito - En règle 6 2907 Frigun - Voyoucratie 2 2907 Kekra - Twisted 2907 D2T - Le sang 2907 Lazer MMZ - Jungle 2907 Sese Kepler - Gang Shit 8 - 2907 Shotas - Jaloux - 2907 Siriki - Présentation 2907 - Vin's - PCGPCP Remix ft. Demi Portion, Melan Les Frères Scotch - 3007 Deen Burbigo - Tout dedans - 3007 La F - Appel Masqué 6 - 3007 YL - Larlar 4 Air Bel Gang - 3107 Alonzo - Toi, t'es chelou ft. Landy 3107 Costa Lumni - Vérité 3107 Jaekers - Vert sachet - 3107 Kaaris - NRV - 3107 Larsé - Couronne - 3107 Lasco - Dis-le moi 3107 Leto - Nouveaux riches ft. Niska - 3107 Lorenzo - Fonsdé toute la night - 3107 Luv Resval - Smith Wesson - 3107 Michel - Je m'en ballek 3107 Nyda - Ghetto Août - 0108 Lucio Bukowski - Road Runner - 0308 Hatik - West Indies - 0308 Kanoé - Freestyle Orochimaru 0508 Kader Diaby 4real - Go 0508 Rowjay - ASTRAL DRILL - 0508 The S - Pupetta 0508 YZLA - Orage d'été I - 0608 13 Block - Tieks ft. Niska - 0608 Le Nine - FTB 7 ft. Abou Tall - 0708 C.O.R - La cité 0708 Josué - La jambe - 0708 Richi - Chorale ft. Youri - 0708 Sadek - Y en a - 0708 VSO - Dans le cur - 0708 Zesau - Anarchie ft. Freeze Corleone Stavo - 0908 Afro S - Cartouche 6 - 1108 F430 - Guap Summer - 1208 LuXe - Du Seigneur - 1208 Still Fresh - Tête-à-tête 1308 Jarod - Plus qu'avant - 1408 A2H - OG - 1408 Kaaris - Freestyle 2.7.0 1408 Lyms - Teaser 1408 Primero - Promenades 1408 Yanso Tawsen - La vida - 1508 JuL - Bande organisée ft. Elams, Ghetto Phénomène, Kofs, Naps, SCH Soso Maness - 1608 Shotas - La famille 1708 Leto - Booska 100 visages 1808 Kalash Criminel - A.D.N 1808 Kekra - Rolex HLM 2108 Sizlac - 45 ft. Dosseh - 2608 Petit Voyou - Immortel - 2708 Gazo - Inceste - 2808 Elh Kmer - Béni ft. Captaine Roshi - 2808 Heuss L'enfoiré - BX Land 5 - 2808 Jarod - 80's - 2808 Klem Schen - Mano 2 2808 Lacraps - Guerrier ft. Polva - 2808 VSO - Midi Mode - 2808 YL - Tout laisser 3008 Tonio le Vakeso - Orageux ft. Cenza - 3108 LuXe - La vie que t'aimes Septembre - 0209 Dosseh - Propagande 1 A 45 - 0209 Guizmo - Maman m'a dit ft. Nekfeu - 0309 Afro S - Woo ft. Kaki Santana - 0309 Frenetik - Infrarouge - 0409 Green Montana - Sale tchoin - 0409 Koba LaD - Beldia - 0409 Lyms - ISS - 0409 ZKR - Romance criminelle - 0409 Zuukou Mayzie - Survet Bayern Doc ft. Di-Meh - 0809 eden dillinger - OUIJA - 0909 Gringe - On aboie en silence - 0909 Ormaz - NOIR Freestyle 2 - 1009 Guirri Mafia - Comme un dream ft. SCH - 1009 Soolking - Rockstar 2 - 1109 2CheeseMilkshake - J'envoie des cheese - 1109 C.O.R - Clio - 1109 Harley - S.O.U.S - 1109 Maka - Etoile Makavelax 1 1109 Max Paro - Douane volante - 1109 Naza - Joli bébé ft. Niska - 1109 Ninho - Carbozo 2.0 - 1109 SDM - Titulaires ft. Koba LaD - 1109 SONBEST - Sad Love 1509 Graya - C'est la guerre ft. ZeGuerre - 1509 Niaks - Drilluminati Pt. 2 - 1609 7 Binks - Booska Bât 7 - 1609 A2H - Le cur des filles - 1609 Djalito - En règle 7 ft. Cheu-B - 1609 Makala - Hitman Go 1709 2G - Ma vérité ft. Mac Tyer 1709 Geeeko - Drunk ft. Coyote Jo Bastard - 1709 Jewel Usain - Bruce Lee - 1709 Spider ZED - C'est pas bien ft. Bigflo Oli - 1709 YG Pablo - Pandore ft. Tsew The Kid - 1809 Bosh - Trixma 1809 Elh Kmer - Rescapé Punition3 - 1809 GLK Pas sommeil - 1809 Hayce Lemsi Volts Face - Comme dit maman - 1809 Heuss L'enfoiré - L'ancien - 1809 La F - La violence ft. Freeze Corleone - 1809 Le A - Pas là ft. OldPee - 1809 Médine - Grand dla tess ft. Hatik 1809 Samy Ceezy - Cup ft. Tortoz - 1809 Samy Ceezy - S.A.M.Y - 1809 Sifax - Affranchis 1809 Sultan - L'amour n'est pas un jeu - 1809 Vendredi 13 - Majora 1809 Venlo - Là - 1909 Les Anticipateurs - SAPOUD 2020 - 2109 Hotel Paradisio - Cobra - 2109 LuXe - Circuit ft. Raptor X - 2209 1PLIKÉ140 - BATARD 4 - 2309 4keus - Tu nous connais - 2309 Bekar - Destinée - 2309 Hooss - Paid In Full 7 - 2309 Lacrim - Jacques Chirac - 2309 Rounhaa - Chromatyk 2309 ZeGuerre - Bolide - 2409 BKL - Gâchette R8 ft. Cheu-B - 2409 Dosseh - Place de l'étoile ft. Gazo - 2409 Hunter - Dessine - 2409 Koba LaD - 7 sur 7 ft. Freeze Corleone - 2409 Petit Voyou - En terrasse - 2409 Swift Guad - Anti-social ft. Cenza, Souffrance, Deadi, Davodka, Original Tonio Daddy Mory - 2509 DA Uzi - Boys Band - 2509 Gims - Immortel - 2509 Grems - HOSTEL PLAZA - 2509 Illustre - Type chelou - 2509 JNR - Une vie - 2509 Kobo - Barry White - 2509 Landy - Filon 2509 LauCarré - T'as compris l'truc ? - 2509 Lestin - Sunday Afternoon ft. Zed Yun Pavarotti - 2509 Matou - Neptune ft. Kikesa - 2509 Nahir - Fin de couplet 8 - 2509 Nusky - Naïf ft. Poupie - 2509 Rémy - Booska Sale - 2509 Roms - Roule - 2509 TLZ Clan - Monde onirique - 2509 Vegedream - Pour nous ft. Tayc - 2509 Zuukou Mayzie - Spike - 2709 Kikesa - Rêve encore - 2809 Criminls - War ft. Mezgo, Slim C, Freeze Corleone, RAS Power Genius - 2809 Hös Copperfield - Après la pluie ft. Leto - 2809 Népal - Dans le fond - 2909 Népal - Cheddar - 3009 Kekra - Manu milli HLM - 3009 Le Club - Coloré ft. Key Largo 3009 Max Paro - OMG - 3009 Népal - Coach K Octobre - 0110 Le Juiice - O NONO ft. Meryl - 0110 Népal - Même vie - 0210 Benab - Dounia - 0210 Chanceko - Malaboy 0210 Chicaille Argentée - Freestyle Signature 0210 Denzo - Bad Woo 0210 Dinaro - Fumette - 0210 DJ Kayz - Monte le son ft. Niska - 0210 Gazo - Drill FR 5 ft. Hamza - 0210 Guizmo - Enfumé ft. Soso Maness - 0210 Kaza - Pare-balles - 0210 Lycos - Dimension - 0210 Mous-K - Fais ta money - 0210 Népal - Benji - 0210 Ninho - La zone - 0210 Ninho - Problèmes du matin - 0210 Noname - SLT - 0210 Sid les 3 éléments - Shit - 0210 Soolking - Booboo - 0410 Luni - Sous ma veste - 0410 Rifa Samb - Danse avec les loups - 0510 Guy2Bezbar - La callé Part. 2 Remontada 0510 Hash24 - En plein cur - 0510 Popey - Imbécile ft. Dosseh - 0710 eden dillinger - BLESS - 0710 RK - Billie Jean Remix ft. Alonzo Timal 0710 Younès - Bientôt à la mode - 0810 Alkpote - Freestyle Règlement Baltimore - 0810 Deen Burbigo - Cerle vertueux - 0810 Médine - FC Grand Médine - 0910 Bigflo Oli - Au revoir 0910 Black-D - Fortnite - 0910 Chily - Téléphone 0910 Elh Kmer - Mélodie glorieuse - 0910 ISHA - Une maman qui pleure ft. Key Largo Jok'Air - 0910 ISK - Dans le réseau 0910 Lacraps - Ma noirceur 2 0910 Leonis - Méga - 0910 Max D. Carter - Hikikomori 0910 N'Seven7 - Skoll - 0910 Senyss - Spirit of Ecstasy 0910 Shotas - J'marche - 0910 Sper-K - Cash - 0910 ZKR - Poursuite ft. Koba LaD - 1110 Kanoé - BIZNESS - 1110 Lazer MMZ - Amore - 1310 RTT Clan - Travail d'ekip ft. Freeze Corleone, Norsacce, Doc OVG, Shaka, Kpri Black Jack - 1410 Captaine Roshi - BooskAttaque - 1410 Sofiane - American Airlines ft. SCH 1510 Geeeko - Rodéo - 1510 InnossB - Best ft. Damso 1510 Kenzy - Numéro 10 - 1510 Spider ZED - Overdose - 1510 Zuukou Mayzie - Règlement L.O.T.R. Freestyle - 1610 100Blaze - Ganja ft. 4Keus - 1610 4Keus - Sportback ft. Hornet La Frappe - 1610 AM La Scampia - Je m'isole - 1610 Doxx - Comme avant - 1610 Green Montana - TOUT GÂCHER ft. Booba - 1610 Guizmo - J'fais du rap - 1610 Kalash Criminel - But en or ft. Damso - 1610 Kemmler - Je veux tout - 1610 Klem Schen - Triste - 1610 K.S.A - CDN Freestyle ft. Alpha Wann - 1610 Lorage - Quelque part - 1610 Makala - Sergueï Diop - 1610 Noname - Train de vie ft. Key Largo - 1610 Rohff - G.O.A.T - 1610 Tayc - Ride ft. Leto - 1810 Kozi - Unstoppable ft. Freeze Corleone - 1910 A2H - Booska Rédemption - 1910 Alonzo L'Algérino - Faim d'Europe - 1910 Ziak - Fixette - 2110 Bolémvn - Couler - 2110 Chicaille Argentée - Bails noirs - 2110 Poupie - Feux ft. JuL - 2110 Simony - Boucle - 2110 Shotas - Code S7 - 2210 1PLIKÉ140 - Tranquillement - 2210 Captaine Roshi - Molotov 2210 - Julius - Quoi d'neuf docteur ? - 2210 Lujipeka - Putain d'époque - 2210 Meryl - Règlement Toutdedans Freestyle - 2210 Youri - Cur - 2310 Bosh - Slide - 2310 C.O.R - Jamais vu ft. 13 Block - 2310 DA Uzi - WeLaRue 5 - 2310 Dr. Yaro La Folie - Papa fait du sale ft. Hornet La Frappe - 2310 Enfantdepauvres - DIX - 2310 Gims - ORIGAMI - 2310 Jok'Air - Clic Clac Bang Bang ft. Laylow - 2310 Kaaris - IRM ft. Freeze Corleone - 2310 LMB - Innocent - 2310 Moha - CZ 75 2310 Theorem de Gama - Rêverie - 2310 Toma - La dalle ft. Hatik 2510 Tonio Le Vakeso - Monnaie ft. Davodka - 2710 Frenetik - Booska'Peinture - 2810 La Fouine - Millions - 2810 YZLA - PASSWORD ft. 2zer - 2910 47Ter - Vivre 2910 L'Allemand - MINGUETTES - 2910 Youv Dee - Règlement Spaceship Freestyle 3010 La F - 691 Part.2 - 3010 PRIME - Canon long - 3010 Taïro - Révolution Part. 2 Oublié - 3010 Uzi - Violet ft. RK - 3110 T.I.S - Folie humaine Novembre - 0111 Ashe 22 - Booska PDP - 0311 Koba LaD - Booska 1H - 0411 AM La Scampia - ZIP - 0411 AnNie.Adda - Si je quitte les Enfers - 0411 Coyote Jo Bastard - Fusil - 0411 Nahir - Moneygram ft. Freeze Corleone - 0511 Spider ZED - Règlement Politique Freestyle - 0511 Zola - Booska'Sten 0611 4Keus - Bosse comme un boss - 0611 Booba - 5G 0611 Dika - Descente - 0611 Django - Pyramide ft. Osirus Jack 0611 Leonis - Charbonner - 0611 Mous-K - On part à la guerre ft. Bosh - 0611 OBOY - Cruel - 0611 Norsacce - GOSPEL BROLIK ft. Ashe 22 - 0611 S-Pion - 100 G - 0611 sean - Le bon, la brute et le truand - 0611 Zikxo - 32 temps - 0711 Hugo TSR - Senseï - 0811 DJ Titaï - 5 étoiles ft. Lefa - 0811 Kekra - Swish HLM - 1111 Kodes - Code La B du 7 - 1111 Onze - Minerai 1111 Rounhaa - R sans R - 1211 Captaine Roshi - Champions - 1211 EDGE - Kylie Jenner ft. Esso Luxueux - 1211 Georgio - Les anges dans des robes rouges - 1211 H-Tône - Incendie 1211 Simony - J'rentre défoncé - 1211 Tawsen - La météo - 1211 TLZ Clan - C'est nous ft. Dosseh - 1211 Zuukou Mayzie - Le Mayz - 1311 Cinco - Four ft. Leto - 1311 Frenetik - Chaos 1311 Joysad - PLDM 1 - 1311 Mister You - Ça se fait pas ft. JuL - 1311 Niaks - Dame blanche - 1311 Prototype - Triste drame - 1311 Senyss - Tyana - 1511 Kalash Criminel - Booska Sauvage 3 1611 C.O.R - Booska RDM - 1711 Naza - Booska Bébé - 1711 Elams - La vida ft. Hatik - 1811 Doria - Booska Do - 1811 eden dillinger - 3-6 RHAPSODIE - 1811 Guy2Bezbar - TPM ft. Freeze Corleone - 1811 Kekra - Business HLM - 1911 13 Block - Babi 1911 Guirri Mafia - Booska Guirri - 2011 Ajar - Pire que la mort - 2011 Denzo - Cramé ft. Bramsito 2011 Mous-K - Booska Bogota 2011 SDM - Prince de la Calle - 2011 TripleGo - Maladresse - 2011 Unité - Unité ft. Dadju, Hatik, Imen Es Soolking - 2011 Youv Dee - De toi - 2311 1PLIKÉ140 - Booska Bâtard 2411 TK - Booska Sang-Froid - 2511 Keusty - Code PAL 7 - 2511 Landy - Millions d'euros ft. Niska 2511 Zikxo - Temps 33 - 2511 ZKR - Freestyle 5min 10 - 2611 Captaine Roshi - Pigalle - 2611 Coelho - ACTION - 2611 DJ Roc-J - Pas Patek ft. YL - 2711 Achile - Ça veut rien dire ft. Oxmo Puccino - 2711 Ashkidd - NOVEMBRE - 2711 Benab - En bas - 2711 Joysad - PLDM 2 - 2711 Nahir - Paris-BX ft. Frenetik - 2711 Negrito - Purge 5 ft. Freeze Corleone 2711 Saamou Skuu - French Drill 4 - 2711 Tedax Max - Drillotière - 2911 Krilino - Patate 4 - 3011 M Le Maudit - Sex focus Décembre - 0212 Hayce Lemsi - Medley 2020 - 0212 Hippocampe Fou - La thune de ma femme - 0212 Seth Gueko - Kratos - 0312 Elengi Ya Trafic - Dangereux - 0312 Heuss L'enfoiré Vald - Guccisima - 0312 Heuss L'enfoiré Vald - Matrixé - 0412 47Ter - Sommeil noir 0412 Blam's - La sape - 0412 Chiloo - Vilain - 0412 JSX - Pompéi ft. Booba - 0412 Keny Arkana - Avant l'exode 1 J'sais pas faire autrement - 0412 Koba LaD - Code La D du 7 - 0412 La F - Appel Masqué 9 - 0412 L'As - Nadine - 0412 Liim's - Mood ft. Tiakola - 0412 Luv Resval - Kurt ft. Zefor - 0412 Madrane - El Patron - 0412 R.E.D.K. - SQOSLF 2 - 0412 The S - Ça pue la rue ft. Leto - 0412 Tovaritch - Révolution - 0412 Zamdane - La fête ft. Hatik 0812 Souffrance - Opération Dragon - 0912 Twinsmatic - VILLE ft. Box Frenetik - 1012 Djadja Dinaz - Perdu - 1012 eden dillinger - TRAUMA - 1012 ISK - Où je suis 1012 Jarod - Kaioken 3 - 1012 La Cour de Récré - XPLIQUE - 1012 Zuukou Mayzie - Victorinox ft. Black Jack - 1112 Ateyaba - Moonwalk - 1112 Hornet La Frappe - 69.93 ft. Ashe 22 1112 Joysad - PLDM 3 - 1112 JuL - Mother Fk ft. SCH 1112 Les Frères Scotch - Zone - 1112 Lucio Bukowski - 4-2-4 Freestyle ft. Nedelko - 1112 Michel - Appel manqué - 1112 Pakigo - Mutation 1112 Pirate 182 - Grincheux 5 Purge - 1112 Rémy - Sur la côte - 1112 Sheldon - AGRABAH 1112 Youri - Comment - 1112 Zikxo - 34 Temps - 1412 Klem Schen - Solitaire 1512 D4R - Booska Quattro - 1512 Dinero - Zipette ft. Leto 1612 Biwaï - Kakashi - 1612 Dosseh - Famiglia è grande 1612 H-LO - Tu piges 1612 Lemon Haze - A2L - 1612 Nahir - Ça va bien se passer - 1612 rad cartier - VT ZOOM V - 1612 Wallace Cleaver - 45Camo 1612 Zeguerre - GTA 4 - 1612 ZKR - J'ai fait le tour 1712 Petit Voyou - Prosecco - 1712 RILESUNDAYZ - Clique 1712 Squidji - Melancholia 1812 Abdxxl - BILLET 1812 Chaman Sully - GG BOY - 1812 Deadi - Le voisin du 4ème - 1812 Doria - Paris - 1812 Frenetik - Blanche Neige - 1812 Joysad - 2020 - 1812 Kaaris - Five-0 ft. Gazo - 1812 M Le Maudit - Crack Poésie - 1812 Savage Toddy - Mc Gregor - 1812 SOPA - TLMR - 1812 Todd - Travaux 1912 Gambino - Quartier Nord 1912 Gutti - Gutti world 3 - 2012 Black Jack - Sournois ft. La F - 2112 Kekra - Dréel HLM - 2212 Booba - AZERTY - 2412 Dinos - Juste un clou, - 2512 Bekar - 98 2512 Shro - Pump it up - 2612 Kims La Rafale - LAMBO - 2712 Black M - Black Shady 4 - 2712 L'As - Mercedes 2812 Lasco - SO - 3112 Alonzo - Freestyle Divo Massacre de la Saint-Sylvestre 3112 Jarod - Termine 2020</t>
+          <t>Bienvenue dans ma chambre où mon lit s'immerge Et mon esprit s'disperse enfile tes palmes et ton scaphandre Je suis comme pris de vitesse, grimace à la Louis de Funès J'vomis du sang sur les murs, crée des peintures rupestres Mon lit, j'y fais des bulles, si t'es féru d'aventures Suis-moi l'ami, tu n'seras pas déçu Tu te débats dans la toile d'une tarentule Tu n'avances plus mais qu'attends-tu pour lui déclarer ta flamme Et lui arracher les pattes d'un coup sec Pendant que ton sexe maltraitera son cul ? Bref, t'as l'air en galère donc je te libère Te voilà coincé dans l'urètre de Gulliver Avec des lilliputiens qui aiment les zizis d'humain Tu sens le va-et-vient d'une main, Gulliver se fait du bien Il t'expulse en Écosse, là t'as trempé ton kilt GooMar t'a montré son beat et t'es plutôt précoce</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J’ai touché le fond</t>
+          <t>Jeunes mariés</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Ça y est, j'ai vu l'Atlantide, inattendu mais splendide J'vais pouvoir mourir tranquille, avec ou sans Valentine Mes mouvements sont ralentis comme si j'étais sous champi' J'vais finir couvert d'écailles avec les doigts palmés plus trois paires de branchies J'suis p't-être au paradis ou p't-être au fond du Styx J'suis moins frais que la poiscaille sur l'étal d'Ordralfabétix Quand j'expire, y'a plein d'eau, c'est vraiment pas pratique Ça m'sort par les naseaux comme si j'vivais en Papouasie oh J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'pux que remonter J'ai touché l fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond J'nage comme un triton, j'ai la face d'un vieux fripon, je n'ai pas pris de biberon et j'ai soif J'ai dû sombrer dans la démence, évidemment, je vais sonder les décombres et compter les poissons qui passent Faire le clown avec Nemo dans le Nautilus pendant que le colosse de Rhodes fait de la muscu' Puis j'irai prendre le thé dans les salons hantés du Titanic, bien que l'idée de croiser des noyés me tétanise J'voudrais me mettre la tête à l'envers, ça me semble être le bon endroit J'pourrais troquer mon âme contre une coupe de champagne, voire un tout p'tit verre de sang-froid Je serais même prêt à bouffer des anchois ou à m'faire téter par des lamproies J'ai des principes insubmersibles et ne suis que peu subversif, mais je n'ai plus la vie devant moi, non J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai touché le fond, je n'peux que remonter J'ai touché le fond, j'ai touché le fond J'ai touché le fond, j'ai... touché le fond ?</t>
+          <t>Un an noces de papier Sur lequel s'inscrivent des mots qui défient le destin Je t'aimerai toujours, notre histoire est sans fin Deux ans noces de coton La face démaquillée à l'aide de dissolvant Notre personnage délavé s'oublie délicatement Trois ans noces de cuir Notre sexualité sagement débridée nous pousse à apprécier la fessée La recevoir ou la donner, redécouvrir les plaisirs de l'autorité Cinq ans noces de bois En piètres artisans, nous sculptons nos corps imprudemment Observer nos enfants pousser trop rapidement Dix ans noces d'aluminium Un sandwich pour papa, un sandwich pour maman Pourquoi chacun pique-nique t-il de son côté ? s'interroge l'enfant Treize ans noces de dentelles Nos corps implosent l'espace d'un irréel orgasme Notre cur a failli s'arrêter de battre lors de cette fusion, nous étions en phase Nos lèvres encore tremblantes balbutient cette phrase Et dire que nous avons failli perdre ce désir Le plaisir suffit à nous faire dire Je t'aime Vingt-cinq ans noces d'argent Il n'y en a plus, plus d'amour non plus Le string, ça n'fonctionne plus, les bas non plus Il n'y a plus de haut, tout est plat Un couple fauché voilà tout c'que j'vois Les enfants sont grands, profitons en Divorçons pendant qu'il est encore temps Que chacun redémarre une vie Détachons-nous de ce fil si fin qui nous relie Quittons-nous cette nuit Cinquante ans noces d'or Sentir la peur de se retrouver seul, envahir notre corps Le veuvage est bien plus angoissant que la mort Réaliser que la personne qui nous connaît le mieux ne connaître jamais tous nos secrets Ce compagnon de fin de vie ne nous a jamais été aussi cher qu'aujourd'hui, c'est vrai La fortune est venue, tant mieux pour la famille Ne vivre qu'à travers sa descendance Voir ses petits-enfants jouer aux billes Se rappeler qu'on été assez bon dans son enfance Fixer du regard la personne qui jouissait parfois au même instant que nous La regarder et se dire Mais qui est cette créature aux cheveux de cendres ? Curieux miroir, loin d'être doux Soixante ans noces de diamant Une couche pour papy, une couche pour mamie, et puis, plus qu'une couche Oubli glacial de la peau d'un corps qu'on touchait, qu'on aimait Nos doigts plein de rhumatismes ont oublié Dans la maison de retraite, pleurer fort En respirant l'odeur acre des détergeant dissimulant celle de la mort Se taper des ancêtres atteints d'Alzheimer Des anciens prêtres ou des bonnes surs Jouer à cache-cache avec les infirmières Croire qu'aujourd'hui c'était hier Et puis oublier, tout oublier Soixante-dix ans noces de grâce Arrêter</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J’ai toujours rêvé d’être un gangster</t>
+          <t>Jour de Fête</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Aussi loin que j'me souvienne, j'ai toujours rêvé d'être un gangster Déjà gamin, j'adorais lever les flingues en l'air J'élaborais des plans que je n'aurais jamais l'cran d'faire Donne-moi une arme, j'serai une main d'velours dans un gant d'fer J'voulais qu'on m'graisse la patte, traîner qu'avec la mauvaise graine d'la classe Et l'soir je m'endormais sur du gangsta rap J'ai toujours rêvé d'faire ma place Mais quand on m'a remis à la mienne, j'ai failli perdre la face Ouais, j'ai cru que j'avais l'profil J'ai dû regarder trop d'films, trop d'séries, trop d'clips Dans ma ville, y'a très peu d'gangsters et beaucoup trop d'flics J'ai compris que je n'ferais pas long feu à coup d'brolique Nan, faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas, ils ne rappent pas non plus Faut croire que c'est pas mon truc, tant pis, n'en parlons plus Les vrais gangsters ne parlent pas... Pourtant, moi, j'aime bien discuter... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster Voilà le gangsta qui s'extasie en voyant Des peluches jaunes hocher la tête en fumant des Knackis Ouais, difficile de taffer dans l'illicite Quand on est un type timide, limite risible, en clair, un mec fragile Le crime paie peut-être mais j'préfère faire du spiritisme En espérant réveiller un spectre richissime Les chapeaux ça m'va pas, les billets j'trouve ça sale Quand y'a une bagarre dans la salle, j'suis planqué sous la table Quand j'bois de l'alcool, j'ai le hoquet Quand j'vois du sang, je m'évanouis J'ai déjà fini en garde à vue pour avoir volé deux kiwis Honte à moi, je n'ai jamais squatté le fond d'la classe Jamais touché d'armes à feu, ni de pic à glace J'suis couard, je n'ai ni bagouse, ni montre à quartz Il m'arrive de twerker quand j'écoute les Worlds Apart N'essaie pas de m'énerver, je n'connais pas la haine J'fais des bisous quand j'traine le soir chez Michou Appelle-moi La Marraine Tous à terre, c'est un hold-up Le rude boy arrive, met des balles à blanc dans l'glock J'ai toujours rêvé d'être un gangster Mais y'a qu'derrière l'anti-pop que j'mets en état d'choc Mon colt c'est du toc, pisse pas dans ton froc J'ai pas les épaules d'Al Capone, non, j'tiens pas vraiment l'alcool Chapeau haut-de-forme plissé, élaborer les traquenards Neuf milli dans le falzar... Non mais, Volo, tu rigoles ? J'aurais surement pas été un gangster doué Une vie de stress et de mensonge m'aurait vite soûlé D'la monnaie, d'la dope et des filles à souhait L'excès n'est pas mon truc et je n'ai rien à prouvé Même si... J'ai toujours rêvé d'être un gangster Depuis l'école élémentaire Les flingues en l'air, les flingues en l'air Ouais, j'ai toujours rêvé d'être un gangster J'suis venu au monde avec une tête de boloss Mais j'ai toujours rêvé d'être un boss Tu vois mon gun ? Je te braque, je le pose Tu vois mon style ? C'est du crack, prends ta dose Petit, tu rêves encore de quoi ? De thunes encore, de quoi ? De lunettes en or pur, de grand cru encore, de quoi ? Aéroport encore, transport de pure de port en port C'est de pire en pire, réveille-toi, Cheeko, tu t'emportes Faire le casse parfait, qui ne l'a jamais voulu ? Le monde est trop petit pour un appétit goulu Mais j'ai jamais eu les couilles de tenir la crosse, ni la drogue Ni le stress atroce de finir dans une affaire non-résolue Donc j'révois mais rêves de grandeur à la baisse Merde, c'est l'jour du Seigneur... Flingue dans l'bouquet d'fleurs à la messe J'viens d'me réveiller, ferme ta gueule, me parle pas Quand tu m'parles de Soprano, j'pense Tony pas à M'baba3</t>
+          <t>C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aimé C'est un jour important, il s'est mis sur son 31 Jamais autant de gens ne lui avaient tendu la main Il a déboutonné sa veste, ses tempes sont brûlantes Il voulait écrire un texte mais les mots lui manquent Sur le parvis de l'église, toute sa famille est réunie C'est rare, c'est formidable Celle qui a porté ses enfants et illuminé sa vie Est là aussi, mais dans le corbillard Tout autour de lui, la foule parle d'elle au passé Les plus vieux se disent qu'ils y ont encore échappé En voyant quatre types soulever une petite boîte en bois verni Le couvercle est scellé, son contenu inaccessible Il est trop tard pour un câlin Bientôt, il oubliera sa voix et son parfum Elle a embarqué ses secrets, ses rêves et ses remords Enfermés dans ce coffre que des croque-morts portent Le cortège traverse l'église d'un pas lent Et dans la nef résonnent Les arpèges d'une marche funèbre accablante Jaillissant d'un orgue immense qui l'impressionne C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aidé C'est presque un jour de fête, un ballet d'adieu Chorégraphié au millimètre par ceux qui s'adressent à Dieu Il devient sourd, se ferme au long discours du prêtre Impersonnel qui minimise notre parcours terrestre La religion calme le désespoir face à de lourdes pertes Le paradis se cache dans la mémoire et dans l'amour, peut-être Il se dit que ce sont les meilleurs qui partent en premier Il sourit mais, au fond de lui, il chiale à en crever Il s'était pourtant promis de rester joyeux Comme auparavant à l'enterrement de ses aïeux Mais, là, c'est différent, car il s'agit de celle avec qui Il a partagé la moitié d'sa vie Sa confidente, sa maîtresse, sa meilleure amie Il ne restera d'elle que des photos, des lettres et des habits Il la revoit sur son lit d'hôpital, la bouche ouverte Ses yeux s'humidifient alors il baisse la tête Il se sent si mal Serait ravi de danser sur les rythmiques endiablées de plus de cents cigales Il se mettrait à fredonner les belles chansons qu'elle aimait Il reprendrait du Bourvil ou du Fernandel En échange d'un rire, un dernier rire, mais un long... un long fou rire Un long fou rire avec elle, avant qu'on la mette dans ce trou privé de lumière Avant que la terre l'engloutisse, avant que l'hiver la digère C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il y a du monde au rendez-vous, il se sent épié C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il sera seul à rêver dans son lit à deux oreillers1</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J’ai un permis pour ça #1 [Hippocampe Fou]</t>
+          <t>J’rêve comme je respire</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bienvenue dans ma chambre où mon lit s'immerge Et mon esprit s'disperse enfile tes palmes et ton scaphandre Je suis comme pris de vitesse, grimace à la Louis de Funès J'vomis du sang sur les murs, crée des peintures rupestres Mon lit, j'y fais des bulles, si t'es féru d'aventures Suis-moi l'ami, tu n'seras pas déçu Tu te débats dans la toile d'une tarentule Tu n'avances plus mais qu'attends-tu pour lui déclarer ta flamme Et lui arracher les pattes d'un coup sec Pendant que ton sexe maltraitera son cul ? Bref, t'as l'air en galère donc je te libère Te voilà coincé dans l'urètre de Gulliver Avec des lilliputiens qui aiment les zizis d'humain Tu sens le va-et-vient d'une main, Gulliver se fait du bien Il t'expulse en Écosse, là t'as trempé ton kilt GooMar t'a montré son beat et t'es plutôt précoce</t>
+          <t>J'rêve comme je respire J'rêve comme je respire Moi aussi, j'étais un jeune de quinze ans Redoutant la vie d'adulte comme un grand requin blanc Et me voilà délaissant mes fantasmes d'adolescent J'trompe l'ennui en remplissant des trous de mémoire d'éléphant Malgré ce tempérament nostalgique J'essaie d'être un père aimant errant dans un monde magique J'ponds des textes quand j'ai mal, bois des marmites de cognac Passe la journée dans les vapes, comme une chauve-souris insomniaque J'me lève à l'aurore car mes enfants crient trop fort Je sais qu'à leurs yeux j'ai des faux airs de dinosaure J'n'échangerai pas ma place contre des centaines de kilos d'or La vie est un labyrinthe, je cherche le minotaure J'rêve comme je respire J'rêve comme je respire Qu'importe le mépris, l'indifférence ou l'estime Il faut que j'm'exprime tant qu'je rêve Je m'ris des vertiges des perfides, mon esprit S'éclaircit, c'est exquis tant qu'je rêve J'ai vu le Diable dans une piscine d'eau bénite J'ai galopé dans les airs avec mes ailes de phnix J'ai installé des panneaux solaires dans le château de Versailles J'fous le feu en feulant devant les foules comme Sherkan J'bronze à Tahiti avec des donzelles callipyges J'lis dans leurs entrailles, en pleine nuit, grâce au doigt d'E.T J'ai fait mon tout premier concert dans un bar, y'a dix piges Certains d'entre vous étaient là, sans leur calvitie Oui, on prend de l'âge, on perd des amis, on s'éparpille Pendant que nos tafs chronophages se lèchent les babines Ça y est, j'panique, j'ai besoin d'un calmant J'apprendrai à ma fille à n'pas écouter croasser les princes charmants J'rêve comme je... J'rêve comme je... J'rêve comme je... J'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, oui, mesdames et messieurs J'rêve comme je respire en ouvrant grand mes yeux</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Jeunes mariés</t>
+          <t>Kermesse</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Un an noces de papier Sur lequel s'inscrivent des mots qui défient le destin Je t'aimerai toujours, notre histoire est sans fin Deux ans noces de coton La face démaquillée à l'aide de dissolvant Notre personnage délavé s'oublie délicatement Trois ans noces de cuir Notre sexualité sagement débridée nous pousse à apprécier la fessée La recevoir ou la donner, redécouvrir les plaisirs de l'autorité Cinq ans noces de bois En piètres artisans, nous sculptons nos corps imprudemment Observer nos enfants pousser trop rapidement Dix ans noces d'aluminium Un sandwich pour papa, un sandwich pour maman Pourquoi chacun pique-nique t-il de son côté ? s'interroge l'enfant Treize ans noces de dentelles Nos corps implosent l'espace d'un irréel orgasme Notre cur a failli s'arrêter de battre lors de cette fusion, nous étions en phase Nos lèvres encore tremblantes balbutient cette phrase Et dire que nous avons failli perdre ce désir Le plaisir suffit à nous faire dire Je t'aime Vingt-cinq ans noces d'argent Il n'y en a plus, plus d'amour non plus Le string, ça n'fonctionne plus, les bas non plus Il n'y a plus de haut, tout est plat Un couple fauché voilà tout c'que j'vois Les enfants sont grands, profitons en Divorçons pendant qu'il est encore temps Que chacun redémarre une vie Détachons-nous de ce fil si fin qui nous relie Quittons-nous cette nuit Cinquante ans noces d'or Sentir la peur de se retrouver seul, envahir notre corps Le veuvage est bien plus angoissant que la mort Réaliser que la personne qui nous connaît le mieux ne connaître jamais tous nos secrets Ce compagnon de fin de vie ne nous a jamais été aussi cher qu'aujourd'hui, c'est vrai La fortune est venue, tant mieux pour la famille Ne vivre qu'à travers sa descendance Voir ses petits-enfants jouer aux billes Se rappeler qu'on été assez bon dans son enfance Fixer du regard la personne qui jouissait parfois au même instant que nous La regarder et se dire Mais qui est cette créature aux cheveux de cendres ? Curieux miroir, loin d'être doux Soixante ans noces de diamant Une couche pour papy, une couche pour mamie, et puis, plus qu'une couche Oubli glacial de la peau d'un corps qu'on touchait, qu'on aimait Nos doigts plein de rhumatismes ont oublié Dans la maison de retraite, pleurer fort En respirant l'odeur acre des détergeant dissimulant celle de la mort Se taper des ancêtres atteints d'Alzheimer Des anciens prêtres ou des bonnes surs Jouer à cache-cache avec les infirmières Croire qu'aujourd'hui c'était hier Et puis oublier, tout oublier Soixante-dix ans noces de grâce Arrêter</t>
+          <t>Sonnerie de réveil Ah, ta gueule, ta gueule, ta gueule, ta gueule Pourquoi j'ai mis mon réveil, moi ? Oh non, oh, j'avais zappé ! - Hé, mon amour, tu veux pas y aller, s'te plaît ? - Hmm... - Vas-y, j'ai fait la vaisselle, hier soir ! J'aurais bien fait la grasse mat' vu qu'on est samedi Mais c'est la fête dans l'école de ma fille, ça m'gave J'sens qu'je vais m'empiffrer de quatre-quarts rassis Assis en matant des mioches jouer à cache-cache J'mets mon polo troué, mes claquettes et mon gros jogging J'suis même pas rasé, j'pourrais exciter un zoophile J'entre dans l'école sans insulter les gosses hostiles Et croise la directrice déguisée en crocodile Ma fille fait sa maligne, squatte la pêche à la ligne Des gamines font des selfies, amenez-moi une carabine La prof de musique stresse, je suis fidèle Mais ses fesses d'orque font briller mon zizi d'elfe Voilà l'armée de jeunes flûtistes prêts à gâcher Que dis-je ? À massacrer les arrangements avariés De la prof qui soupire mais se force à garder le sourire En rêvant de les punir, voire de les balafrer J'crois qu'c'est du Schubert, une purée de choux verts S'écoule de mes oreilles, il est clair qu'elles ont souffert Cet orchestre et ce ballet m'endorment, je l'admets La chorée est obscène, les costumes sont mal faits J'plane dans ce cocon cent pour cent coton Gueule de bois pour ma pomme, les enfants, eux, sont trognons Dans cette kermesse matinale, j'dame une merguez Devant de vieilles maîtresses souffrant de sècheresse vaginale Flou, igloo qui bout, j'suis mou Encore saoul, dissout et sous spliffou J'vois de tout p'tits loups filous qui jouent Chantonnent chou, bijou, genou, joujou, hibou, poupoupidou Je m'en souviens, c'était le meilleur jour de l'année J'pouvais tutoyer l'instit' sans qu'il mette un mot dans mon carnet On faisait des jeux dégueu', nul n'était dédaigneux Les adultes, c'était des vieux, on rêvait sans fermer les yeux J'n'étais qu'un merdeux candide et peu teigneux Y'avait mes amis, mes parents, des vampires et le ciel bleu J'avais pas pris mon cartable, je flambais dans la marmaille J'me prenais pour une racaille, j'me débrouillais plutôt pas mal Au carillon, flûte à bec en guise d'ocarina Ou de sarbacane pour viser les papillons Dans ma poche trouée des billets de tombola gagnants Que je cherchais dans la cour en sifflotant, les bras ballants Pas d'galanterie, même quand c'était pas marrant J'riais, j'criais, j'courais, j'touchais Des poitrines émergentes qui m'émoustillaient J'vivais mes années folles mais j'ai grandi x2 Hahahaha ! Wouh ! En plus, ils font des scoubidous-bidous-bidous-bidous, whou ! Choup-choup-choup-choup-choupidou wah ! Brou sticky brou sticky brou sticky frou ! Poupoupidou wouh ! Hippocampe Fou, pa-pa-papou1</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jour de Fête</t>
+          <t>La Calvitie</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aimé C'est un jour important, il s'est mis sur son 31 Jamais autant de gens ne lui avaient tendu la main Il a déboutonné sa veste, ses tempes sont brûlantes Il voulait écrire un texte mais les mots lui manquent Sur le parvis de l'église, toute sa famille est réunie C'est rare, c'est formidable Celle qui a porté ses enfants et illuminé sa vie Est là aussi, mais dans le corbillard Tout autour de lui, la foule parle d'elle au passé Les plus vieux se disent qu'ils y ont encore échappé En voyant quatre types soulever une petite boîte en bois verni Le couvercle est scellé, son contenu inaccessible Il est trop tard pour un câlin Bientôt, il oubliera sa voix et son parfum Elle a embarqué ses secrets, ses rêves et ses remords Enfermés dans ce coffre que des croque-morts portent Le cortège traverse l'église d'un pas lent Et dans la nef résonnent Les arpèges d'une marche funèbre accablante Jaillissant d'un orgue immense qui l'impressionne C'est une belle journée ensoleillée Ses souvenirs sont emmêlés Ses émotions ensommeillées Il y a du monde au rendez-vous, il se sent aidé C'est presque un jour de fête, un ballet d'adieu Chorégraphié au millimètre par ceux qui s'adressent à Dieu Il devient sourd, se ferme au long discours du prêtre Impersonnel qui minimise notre parcours terrestre La religion calme le désespoir face à de lourdes pertes Le paradis se cache dans la mémoire et dans l'amour, peut-être Il se dit que ce sont les meilleurs qui partent en premier Il sourit mais, au fond de lui, il chiale à en crever Il s'était pourtant promis de rester joyeux Comme auparavant à l'enterrement de ses aïeux Mais, là, c'est différent, car il s'agit de celle avec qui Il a partagé la moitié d'sa vie Sa confidente, sa maîtresse, sa meilleure amie Il ne restera d'elle que des photos, des lettres et des habits Il la revoit sur son lit d'hôpital, la bouche ouverte Ses yeux s'humidifient alors il baisse la tête Il se sent si mal Serait ravi de danser sur les rythmiques endiablées de plus de cents cigales Il se mettrait à fredonner les belles chansons qu'elle aimait Il reprendrait du Bourvil ou du Fernandel En échange d'un rire, un dernier rire, mais un long... un long fou rire Un long fou rire avec elle, avant qu'on la mette dans ce trou privé de lumière Avant que la terre l'engloutisse, avant que l'hiver la digère C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il y a du monde au rendez-vous, il se sent épié C'est une belle journée ensoleillée La chorale chante faux, sa gorge est nouée Ses émotions se sont réveillées Il sera seul à rêver dans son lit à deux oreillers1</t>
+          <t>Petit déjeuner avalé, il est fin prêt à cavaler En direction du building où il travaille depuis des années Boit café sur café pour mieux taffer, agrafer les pages Des contrats, contraint à répéter Ça va signer Négligeant, il n'a ni femme, ni enfant, ni plante Mais est trop intelligent pour réaliser que sa vie est chiante Exigeant, il blâme les incompétents, se vante de Licencier des gens, coucher avec la méchanceté l'enchante Soudoyer ses employés sans cesser de les vouvoyer Puis sortir ses griffes acérées pour lacérer ces écorchés Nez pincé face aux fumées de ses souffrances étouffées Il se magnifie, s'identifie à un grand chevalier De nouveau-né à écolier rêvant de déployer ses ailes De jeune homme diplômé à bon stagiaire, à employé modèle D'homme riche et puissant à souverain triste et méfiant De retraité épuisant à vieillard bête et méchant Ses stratégies l'entêtent, la calvitie le guette C'est la nuit qu'il s'embête, il apprécie les filles faciles, en fait Laid il voudrait ne pas l'être Mais il reçoit des lettres lui disant qu'il l'est, c'est bête Incité à l'excès par la publicité, excité à l'idée d'amasser Des paquets de billets, de les cacher sous son lit Entre un sécateur et une batte de base-ball Il aurait aimé être acteur ou chanteur de dance-soul Il ne redoute que la banqueroute et la goutte de foutre Qui fera déborder l'athlétique poupée en plastique qu'il nique Comme s'il s'agissait de son joueur de foot préféré Un samedi, en août, enfermé dans son salon, rideaux tirés Réduire sa mère en cendres, se percer la tempe ou se pendre Un matin de septembre, dans sa chambre l'affaire est à prendre Il s'imagine devenant victime ou même héros Mais aucun avion ne se crachera dans son bureau Hébété, il a maté des milliers de DVD S'est répété qu'il était le fils caché d'une star décédée Il voudrait voir la police débarquer pour l'arrêter Il pourrait s'échapper, sauter avec son parachute doré Se réceptionner sur les épaules de piétons étonnés Puis dialoguer avec eux, avant de se faire piétiner</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J’rêve comme je respire</t>
+          <t>La Connexion #2</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>J'rêve comme je respire J'rêve comme je respire Moi aussi, j'étais un jeune de quinze ans Redoutant la vie d'adulte comme un grand requin blanc Et me voilà délaissant mes fantasmes d'adolescent J'trompe l'ennui en remplissant des trous de mémoire d'éléphant Malgré ce tempérament nostalgique J'essaie d'être un père aimant errant dans un monde magique J'ponds des textes quand j'ai mal, bois des marmites de cognac Passe la journée dans les vapes, comme une chauve-souris insomniaque J'me lève à l'aurore car mes enfants crient trop fort Je sais qu'à leurs yeux j'ai des faux airs de dinosaure J'n'échangerai pas ma place contre des centaines de kilos d'or La vie est un labyrinthe, je cherche le minotaure J'rêve comme je respire J'rêve comme je respire Qu'importe le mépris, l'indifférence ou l'estime Il faut que j'm'exprime tant qu'je rêve Je m'ris des vertiges des perfides, mon esprit S'éclaircit, c'est exquis tant qu'je rêve J'ai vu le Diable dans une piscine d'eau bénite J'ai galopé dans les airs avec mes ailes de phnix J'ai installé des panneaux solaires dans le château de Versailles J'fous le feu en feulant devant les foules comme Sherkan J'bronze à Tahiti avec des donzelles callipyges J'lis dans leurs entrailles, en pleine nuit, grâce au doigt d'E.T J'ai fait mon tout premier concert dans un bar, y'a dix piges Certains d'entre vous étaient là, sans leur calvitie Oui, on prend de l'âge, on perd des amis, on s'éparpille Pendant que nos tafs chronophages se lèchent les babines Ça y est, j'panique, j'ai besoin d'un calmant J'apprendrai à ma fille à n'pas écouter croasser les princes charmants J'rêve comme je... J'rêve comme je... J'rêve comme je... J'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, j'rêve comme je respire J'rêve comme je respire, j'rêve J'rêve comme je respire, oui, mesdames et messieurs J'rêve comme je respire en ouvrant grand mes yeux</t>
+          <t>Tu m'as sûrement déjà vu grave éméché brailler tout seul Ou l'air mal réveillé, chaussettes dépareillées, braguette ouverte D'après Google, j'ai des clips hérétiques, crades et clownesques Assez pour plaire à des types pathétiques, barges et losers J'ai des propos lubriques et corrosifs Dans les salles d'attente des maternités, j'lis des rubriques nécrologiques Guette mon nombril où s'agitent quelques lombrics, à c'que l'on dit J'ai une belle bouche à pipe très peu concis, j'fais de longs speechs Attentif à rien, moins inventif à jeun Je danse les yeux bandés non loin du ravin, j'me dis qu'tout ira bien Casanier nomade, j'aime fracasser vos cranes et Tracasser vos âmes, donc ravalez vos sarcasmes À mes obsèques, y'aura d'la bibine et plein d'putes Quand j'bute contre un objet, j'deviens animiste et l'insulte J'lutte pour finir mes projets, blâme les arrivistes incultes J'suis plutôt peace and love mais, parfois, l'pacifiste s'insurge J'glapis la nuit quand j'manie l'absurde en calbute J'ai six femmes empaillées, en tant que mari, j'assure J'végète à vive allure, papa immature, ouais, j'assume Mes autoportraits ressemblent à des caricatures, à plus</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kermesse</t>
+          <t>La Grande Évasion</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sonnerie de réveil Ah, ta gueule, ta gueule, ta gueule, ta gueule Pourquoi j'ai mis mon réveil, moi ? Oh non, oh, j'avais zappé ! - Hé, mon amour, tu veux pas y aller, s'te plaît ? - Hmm... - Vas-y, j'ai fait la vaisselle, hier soir ! J'aurais bien fait la grasse mat' vu qu'on est samedi Mais c'est la fête dans l'école de ma fille, ça m'gave J'sens qu'je vais m'empiffrer de quatre-quarts rassis Assis en matant des mioches jouer à cache-cache J'mets mon polo troué, mes claquettes et mon gros jogging J'suis même pas rasé, j'pourrais exciter un zoophile J'entre dans l'école sans insulter les gosses hostiles Et croise la directrice déguisée en crocodile Ma fille fait sa maligne, squatte la pêche à la ligne Des gamines font des selfies, amenez-moi une carabine La prof de musique stresse, je suis fidèle Mais ses fesses d'orque font briller mon zizi d'elfe Voilà l'armée de jeunes flûtistes prêts à gâcher Que dis-je ? À massacrer les arrangements avariés De la prof qui soupire mais se force à garder le sourire En rêvant de les punir, voire de les balafrer J'crois qu'c'est du Schubert, une purée de choux verts S'écoule de mes oreilles, il est clair qu'elles ont souffert Cet orchestre et ce ballet m'endorment, je l'admets La chorée est obscène, les costumes sont mal faits J'plane dans ce cocon cent pour cent coton Gueule de bois pour ma pomme, les enfants, eux, sont trognons Dans cette kermesse matinale, j'dame une merguez Devant de vieilles maîtresses souffrant de sècheresse vaginale Flou, igloo qui bout, j'suis mou Encore saoul, dissout et sous spliffou J'vois de tout p'tits loups filous qui jouent Chantonnent chou, bijou, genou, joujou, hibou, poupoupidou Je m'en souviens, c'était le meilleur jour de l'année J'pouvais tutoyer l'instit' sans qu'il mette un mot dans mon carnet On faisait des jeux dégueu', nul n'était dédaigneux Les adultes, c'était des vieux, on rêvait sans fermer les yeux J'n'étais qu'un merdeux candide et peu teigneux Y'avait mes amis, mes parents, des vampires et le ciel bleu J'avais pas pris mon cartable, je flambais dans la marmaille J'me prenais pour une racaille, j'me débrouillais plutôt pas mal Au carillon, flûte à bec en guise d'ocarina Ou de sarbacane pour viser les papillons Dans ma poche trouée des billets de tombola gagnants Que je cherchais dans la cour en sifflotant, les bras ballants Pas d'galanterie, même quand c'était pas marrant J'riais, j'criais, j'courais, j'touchais Des poitrines émergentes qui m'émoustillaient J'vivais mes années folles mais j'ai grandi x2 Hahahaha ! Wouh ! En plus, ils font des scoubidous-bidous-bidous-bidous, whou ! Choup-choup-choup-choup-choupidou wah ! Brou sticky brou sticky brou sticky frou ! Poupoupidou wouh ! Hippocampe Fou, pa-pa-papou1</t>
+          <t>Ça fait des années qu'j'n'ai pas bougé d'ce pays sinistre Pas étonnant car, pour ce faire, il faut une paye de ministre Mais j'n'ai même pas celle d'une dame pipi Comment faire ? C'est l'enfer, il faut que j'trace d'ici Face à moi dans un quatre par trois Un genre de séjour de rêve payable en troisquatre fois Impulsif, j'en suis loin mais, là, j'n'ai pas hésité Ouais, je pars après demain, mon compte est d'jà débité Trois fois plus de passagers que de sièges, c'est relou J'ai un nourrisson dans les bras, un obèse sur les genoux J'dis qu'j'ai mal à la tête, on m'amène un suppo' J'voudrais admirer le ciel mais y'a pas de hublot J'aime pas les zones de turbulence La vieille à ma droite a des flatulences L'hôtesse nous file une ficelle pour nous attacher Elle crie Retenez votre souffle, l'avion va s'crasher J'voulais les dunes du Sahara Par manque de thunes... t'as fait quoi ?... j'ai pris l'prix l'plus bas J'voulais Rio, son carnaval Trois cent euros... tout compris... j'me suis fait la malle normal Un plateau repas en guise de radeau, je rame Avec les deux mains, slalome entre les ailerons de requin Désolation, loin d'ma société de consommation insolation Ma peau morte, c'est ma seule collation J'aperçois au loin le Christ sauveur M'accueillant à bras ouverts avec ses tifs de rockeur Tout autour de moi, des corps noyés qui flottent Mais ma caméra n'a pas pris l'eau, là, je sifflote L'hôtel avait l'air top sur le fascicule Y'avait pas les odeurs d'clopes et de moisissures Y'a bel et bien la piscine, mais c'est un pédiluve Une chèvre à trois pattes en guise de véhicule Le guide local s'exclame Prêt pour le safari ? Tout le monde a l'air chaud, ouais, sauf mon panaris On voulait voir le désert et on a payé pour ça Donc allons jusqu'au bout vouloir reculer, pourquoi ? J'voulais Rio, son carnaval Trois cent euros... C'est tout ?... j'me suis fait la malle J'voulais les dunes du Sahara Tu m'étonnes Par manque de thunes... j'ai pris l'prix l'plus bas Dans chaque paupière, j'ai dix grammes de sable À coté d'moi, j'entends Quel paysage de barge ! À bout d'force, ma monture fait de grosses grimaces J'aurais été largement plus rapide à dos d'limace J'ai faim, j'ai soif, j'n'arrive même plus à saliver Je demande au guide si l'on est bientôt arrivé En guise de réponse, le type enlève sa montre Ta copine est magnifique, voudrais-tu me l'échanger contre... ? Une demi-douzaine de shemales se frottent à moi Sucent un os à moelle dans la favela J'leur ai filé mon email et ma caméra Dès qu'je bouge le petit doigt, un molosse aboie Pas d'batucada, c'est la cata' Ces trans' ont les dents d'Ronaldinho, le pelage de Chewbacca J'voulais glander, danser la samba, flamber Qui va payer la rançon pour qu'je puisse rentrer ?1</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>La Calvitie</t>
+          <t>La montgolfière</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Petit déjeuner avalé, il est fin prêt à cavaler En direction du building où il travaille depuis des années Boit café sur café pour mieux taffer, agrafer les pages Des contrats, contraint à répéter Ça va signer Négligeant, il n'a ni femme, ni enfant, ni plante Mais est trop intelligent pour réaliser que sa vie est chiante Exigeant, il blâme les incompétents, se vante de Licencier des gens, coucher avec la méchanceté l'enchante Soudoyer ses employés sans cesser de les vouvoyer Puis sortir ses griffes acérées pour lacérer ces écorchés Nez pincé face aux fumées de ses souffrances étouffées Il se magnifie, s'identifie à un grand chevalier De nouveau-né à écolier rêvant de déployer ses ailes De jeune homme diplômé à bon stagiaire, à employé modèle D'homme riche et puissant à souverain triste et méfiant De retraité épuisant à vieillard bête et méchant Ses stratégies l'entêtent, la calvitie le guette C'est la nuit qu'il s'embête, il apprécie les filles faciles, en fait Laid il voudrait ne pas l'être Mais il reçoit des lettres lui disant qu'il l'est, c'est bête Incité à l'excès par la publicité, excité à l'idée d'amasser Des paquets de billets, de les cacher sous son lit Entre un sécateur et une batte de base-ball Il aurait aimé être acteur ou chanteur de dance-soul Il ne redoute que la banqueroute et la goutte de foutre Qui fera déborder l'athlétique poupée en plastique qu'il nique Comme s'il s'agissait de son joueur de foot préféré Un samedi, en août, enfermé dans son salon, rideaux tirés Réduire sa mère en cendres, se percer la tempe ou se pendre Un matin de septembre, dans sa chambre l'affaire est à prendre Il s'imagine devenant victime ou même héros Mais aucun avion ne se crachera dans son bureau Hébété, il a maté des milliers de DVD S'est répété qu'il était le fils caché d'une star décédée Il voudrait voir la police débarquer pour l'arrêter Il pourrait s'échapper, sauter avec son parachute doré Se réceptionner sur les épaules de piétons étonnés Puis dialoguer avec eux, avant de se faire piétiner</t>
+          <t>Chaque goutte est un océan de promesses La flore repousse, la faune se pare de mollesse Ce paysage gorgé d'espoir éveille mes sens Je calligraphie son faire-part de renaissance Mon acrimonie et mon dédain se sont éteints Si je vole ainsi, est-ce par hasard ou mon destin ? Ce qui est sûr, c'est que j'ai pansé mes blessures Et que ma pensée, en pleine tempête, a pris un peu d'envergure Vu d'ici, le monde paraît miniature L'être humain a pris soin d'y apposer sa signature Cet animal à part qui se dit civilisé Semble être apparu sur cette Terre pour la vampiriser Bien qu'il conçoive l'infini, sa durée d'vie est limitée Alors il crée, fait des enfants en rêvant d'immortalité Depuis qu'il joue avec le feu et qu'il écrit sa propre Histoire L'Homme observe tous les autres êtres vivants dont il se sépare Il oublie qu'il fait partie d'un tout dans lequel il s'égare Heureusement, la pluie lui rafraîchit la mémoire Animaux, végétaux, prédateurs et proies Chaque être est unique et se fie à ce qu'il perçoit Pourtant, nous partageons des gènes et cet instinct de survie Et l'eau, cet élément vital qui nous réunit</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>La Connexion #2</t>
+          <t>Langue paternelle</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Tu m'as sûrement déjà vu grave éméché brailler tout seul Ou l'air mal réveillé, chaussettes dépareillées, braguette ouverte D'après Google, j'ai des clips hérétiques, crades et clownesques Assez pour plaire à des types pathétiques, barges et losers J'ai des propos lubriques et corrosifs Dans les salles d'attente des maternités, j'lis des rubriques nécrologiques Guette mon nombril où s'agitent quelques lombrics, à c'que l'on dit J'ai une belle bouche à pipe très peu concis, j'fais de longs speechs Attentif à rien, moins inventif à jeun Je danse les yeux bandés non loin du ravin, j'me dis qu'tout ira bien Casanier nomade, j'aime fracasser vos cranes et Tracasser vos âmes, donc ravalez vos sarcasmes À mes obsèques, y'aura d'la bibine et plein d'putes Quand j'bute contre un objet, j'deviens animiste et l'insulte J'lutte pour finir mes projets, blâme les arrivistes incultes J'suis plutôt peace and love mais, parfois, l'pacifiste s'insurge J'glapis la nuit quand j'manie l'absurde en calbute J'ai six femmes empaillées, en tant que mari, j'assure J'végète à vive allure, papa immature, ouais, j'assume Mes autoportraits ressemblent à des caricatures, à plus</t>
+          <t>Parti visiter de lointaines contrées T'as changé d'continent Un peu paumé, mais t'as vite rencontré La mère de tes enfants Adieu aventure Bonsoir exil, ta musique compensait Quand ton fils est né Pour t'intégrer, tu lui parlais en français Aujourd'hui, il comprend ta langue Mais ne la parle que très rarement avec un fort accent S'il se bloque, c'est parce qu'il a peur qu'on se moque Qu'on l'rejette en chur, qu'on le traite d'imposteur Il est allé en Colombie trois fois dans sa vie Trois mois en trente-quatre ans Chaque fois qu'il est là-bas, son sang bouillonne vraiment Il s'est juré d'y retourner sans boussole Juste pour s'imprégner de lumière Et laisser chanter son ADN Étreindre ces fantômes qui le hantent sans cesse Ta famille, c'est aussi la sienne Un jour, il osera, un jour, il faudra Qu'il aille là-bas sans toi Quand tu seras plus là, j'te parlerai tout bas En espagnol, papa</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>La Grande Évasion</t>
+          <t>La Plume et l’épée</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ça fait des années qu'j'n'ai pas bougé d'ce pays sinistre Pas étonnant car, pour ce faire, il faut une paye de ministre Mais j'n'ai même pas celle d'une dame pipi Comment faire ? C'est l'enfer, il faut que j'trace d'ici Face à moi dans un quatre par trois Un genre de séjour de rêve payable en troisquatre fois Impulsif, j'en suis loin mais, là, j'n'ai pas hésité Ouais, je pars après demain, mon compte est d'jà débité Trois fois plus de passagers que de sièges, c'est relou J'ai un nourrisson dans les bras, un obèse sur les genoux J'dis qu'j'ai mal à la tête, on m'amène un suppo' J'voudrais admirer le ciel mais y'a pas de hublot J'aime pas les zones de turbulence La vieille à ma droite a des flatulences L'hôtesse nous file une ficelle pour nous attacher Elle crie Retenez votre souffle, l'avion va s'crasher J'voulais les dunes du Sahara Par manque de thunes... t'as fait quoi ?... j'ai pris l'prix l'plus bas J'voulais Rio, son carnaval Trois cent euros... tout compris... j'me suis fait la malle normal Un plateau repas en guise de radeau, je rame Avec les deux mains, slalome entre les ailerons de requin Désolation, loin d'ma société de consommation insolation Ma peau morte, c'est ma seule collation J'aperçois au loin le Christ sauveur M'accueillant à bras ouverts avec ses tifs de rockeur Tout autour de moi, des corps noyés qui flottent Mais ma caméra n'a pas pris l'eau, là, je sifflote L'hôtel avait l'air top sur le fascicule Y'avait pas les odeurs d'clopes et de moisissures Y'a bel et bien la piscine, mais c'est un pédiluve Une chèvre à trois pattes en guise de véhicule Le guide local s'exclame Prêt pour le safari ? Tout le monde a l'air chaud, ouais, sauf mon panaris On voulait voir le désert et on a payé pour ça Donc allons jusqu'au bout vouloir reculer, pourquoi ? J'voulais Rio, son carnaval Trois cent euros... C'est tout ?... j'me suis fait la malle J'voulais les dunes du Sahara Tu m'étonnes Par manque de thunes... j'ai pris l'prix l'plus bas Dans chaque paupière, j'ai dix grammes de sable À coté d'moi, j'entends Quel paysage de barge ! À bout d'force, ma monture fait de grosses grimaces J'aurais été largement plus rapide à dos d'limace J'ai faim, j'ai soif, j'n'arrive même plus à saliver Je demande au guide si l'on est bientôt arrivé En guise de réponse, le type enlève sa montre Ta copine est magnifique, voudrais-tu me l'échanger contre... ? Une demi-douzaine de shemales se frottent à moi Sucent un os à moelle dans la favela J'leur ai filé mon email et ma caméra Dès qu'je bouge le petit doigt, un molosse aboie Pas d'batucada, c'est la cata' Ces trans' ont les dents d'Ronaldinho, le pelage de Chewbacca J'voulais glander, danser la samba, flamber Qui va payer la rançon pour qu'je puisse rentrer ?1</t>
+          <t>J'étais sous le charme d'une table qui semblait éternelle Elle était vieille mais habillée d'une nappe en dentelle Cette table ronde était instable, c'était une séquelle Des nuits avec ces chevaliers qui lui étaient fidèles Elle avait eu une aventure avec la belle Excalibur Qui, dans les mains du Roi Arthur, s'était nourrie de sang impur J'ai rencontré cette épée dominatrice Dont la lame portait des cicatrices On lui avait appris à trancher, à transpercer Je lui ai murmuré des mots comme Caresser, Chatouiller Par une nuit sans lune, couchée sur son enclume Elle s'est mise à rêver et s'est alors changée en plume x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume Mon pays s'enrichit en vendant ses bombes et ses missiles Au scandale, il s'écrie Avec, on tire sur des civils ! Moi, je suis pacifiste donc affecté par ce qui se passe ici Ces guerres qu'on déguise, ces génocides invisibles Alors, comme Gandhi, je brandis l'étendard de la non-violence Car les menaces grandissent, prenant toutes sortes d'apparences Comme Boris Vian, je pense qu'un soldat, c'est de la viande Sont bons à remplir le ventre immense des vendeurs de propagande Alors, mes amis, mes camarades, cessez donc le combat Ne voyez-vous pas qu'on nous ment ? Qu'on nous brade pour signer des contrats ? Ainsi, l'ennemi d'aujourd'hui nous aidera demain À récupérer les puits de pétrole du voisin Et puis l'ONU s'ennuie, plus personne n'y croit Même les gros États-Unis, eux, ne mangent pas de ce pain-là J'ai choisi, je vous le dis, oui, moi, j'écris contre l'oubli Pour les touts-p'tits, pour les Hindous, pour les Hutus et les Tutsis x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix La main sur le cur, elles disent uvrer pour la paix Mais, à travers leurs querelles, les grandes puissances ne défendent que leurs intérêts Souviens-toi du Rwanda, du Soudan, d'la Tchétchénie Ils avaient prôné l'tact, la diplomatie, aujourd'hui, ils souffrent d'amnésie Leur justice est aveugle, c'est l'injustice qui régale Trop d'familles en deuil pleurent l'un des leurs qui a succombé au chant des balles Trop ne trouvent plus l'sommeil, ne dorment que d'une oreille Craignant le pillage, le racket, d'une attaque à la roquette Des pluies d'missiles, des attentats à la bombe Putain, quand j'y songe, l'horizon nous plonge en direction d'la guerre des mondes Ils ont semé l'aliénation, on a récolté l'ignominie Trop d'âmes innocentes ont été contraintes de rejoindre leur paradis On est d'plus en plus cerné par le cercle de la violence La haine est attisée par le biais d'nos différences Les peuples manipulés subsistent dans la souffrance L'horreur demeure, ne sentez-vous pas ceux suffoquant parfum d'urgence ? Il n'y a pas un traité qui n'ait pas été bafoué Pas un accord ni une convention qui n'ait été violé La donne est faussée, le fossé, lui, n'a d'cesse de s'creuser Entre ceux qui en voudront toujours plus et ceux qu'on laisse crever x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix J'ai fait mon choix J'ai fait mon choix4</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>La montgolfière</t>
+          <t>Last Day In Brooklyn</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chaque goutte est un océan de promesses La flore repousse, la faune se pare de mollesse Ce paysage gorgé d'espoir éveille mes sens Je calligraphie son faire-part de renaissance Mon acrimonie et mon dédain se sont éteints Si je vole ainsi, est-ce par hasard ou mon destin ? Ce qui est sûr, c'est que j'ai pansé mes blessures Et que ma pensée, en pleine tempête, a pris un peu d'envergure Vu d'ici, le monde paraît miniature L'être humain a pris soin d'y apposer sa signature Cet animal à part qui se dit civilisé Semble être apparu sur cette Terre pour la vampiriser Bien qu'il conçoive l'infini, sa durée d'vie est limitée Alors il crée, fait des enfants en rêvant d'immortalité Depuis qu'il joue avec le feu et qu'il écrit sa propre Histoire L'Homme observe tous les autres êtres vivants dont il se sépare Il oublie qu'il fait partie d'un tout dans lequel il s'égare Heureusement, la pluie lui rafraîchit la mémoire Animaux, végétaux, prédateurs et proies Chaque être est unique et se fie à ce qu'il perçoit Pourtant, nous partageons des gènes et cet instinct de survie Et l'eau, cet élément vital qui nous réunit</t>
+          <t>Listen to my joint, get high! Hello beauty, call me daddy, it's bedtime I'm on duty getting juicy in Bed-Stuy I could hang you with your pitiful necktie I don't give a fuck, guess why? I found the road to Valhalla, let's drive We'll take a break au château de Versailles Sippin glasses of the best red wines Tu rappes en anglais mais tes français. Well tried Im just picking in my head fresh rhymes Let me open blood bags for my French fries We all got a bright side. Wheres mine? No need for mass shooting to headline 911 is 9 11, weird sign Hi! Comment allez-vous ? Just fine! Do you like this creepy Magic School Bus ride? I'm thirty-six, my flows certified You should wash your face with spermicide Im gonna try to fly and stay divine And, if I dont reach Nirvana, nevermind Youre shakin' like a bartender with Parkinsons disease Youve been waiting for me for thirty years Like Bart Simpsons degrees You can rely on me, I'm a scientist I got the same haircut as the Lion King I can hit you with my iron fist And squeeze you like a giant beast You look mesmerized by my Busta Rhymes' vibes I feel glad when I mess my life up Might be mad but the last to line up Call me badass, I sat on Bibles Im snakin around those Christian apple trees Tastin a lot of crispy bacon strips Rappin' over jazz, funk, trap and afro beats Im an astronaut on a battleship Born in a haunted treehouse I wanna die on a mountain milking sea cows? Hello. Hola. Bonjour. Ni hao Do you have a weed stick for my big mouth? I go green like the Wicked Witch of the West I got twisted lyrics, take your ticket quick I request Im a mess, I married loneliness so please dont step on my long penis My genius shines like Venus, sorry I digress Im living an adventure at recess, adults life I repress I might be the best in the game since Wallace Chris is dead. Am I dissin'? Yes! From JFK to CDG, my lover's name was Billie Jean Beware of me, I'm really mean, I eat embryos like chili beans</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Langue paternelle</t>
+          <t>La thune de ma femme</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Parti visiter de lointaines contrées T'as changé d'continent Un peu paumé, mais t'as vite rencontré La mère de tes enfants Adieu aventure Bonsoir exil, ta musique compensait Quand ton fils est né Pour t'intégrer, tu lui parlais en français Aujourd'hui, il comprend ta langue Mais ne la parle que très rarement avec un fort accent S'il se bloque, c'est parce qu'il a peur qu'on se moque Qu'on l'rejette en chur, qu'on le traite d'imposteur Il est allé en Colombie trois fois dans sa vie Trois mois en trente-quatre ans Chaque fois qu'il est là-bas, son sang bouillonne vraiment Il s'est juré d'y retourner sans boussole Juste pour s'imprégner de lumière Et laisser chanter son ADN Étreindre ces fantômes qui le hantent sans cesse Ta famille, c'est aussi la sienne Un jour, il osera, un jour, il faudra Qu'il aille là-bas sans toi Quand tu seras plus là, j'te parlerai tout bas En espagnol, papa</t>
+          <t>J'remplis des salles et des auditoriums avec mes enfantillages J'offre des yachts à tous mes majordomes qui pourraient peupler cent villages J'vais m'acheter des grillz en californium pour irradier mon visage Car j'ai des sous, des bitcoins et de l'or, j'ai même pas touché d'héritage Ma vie un régal, un kif indéniable, un striptease intégral dans la suite cinq étoiles L'argent m'accompagne, bien sûr que j'ai des factures à payr mais j'ai des comptables Chalet d montagne, bain d'bouche au champagne, château de campagne, dîner aux chandelles Au sommet de la tour de Shangaï, oui, j'ai d'la maille mais c'est pas moi qui la gagne C'est la thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé En tant que conjoint, je vide le compte joint toujours content, jamais contraint, mais faut qu'j'évite l'embonpoint J'ai des chromosomes colombiens qui me font gonfler du bassin quand j'bois des litres de bon vin J'fais pas le michto ni le parasite non l'hiver, j'fais trempettes aux Caraïbes ou je pars à Tignes Elle n'est pas radine, je n'la baratine pas, c'est le paradis, ça ? Non, c'est le paradigme Entrée, plat, dessert car je n'suis pas précaire dépenses astronomiques qui fascineraient Kepler Une vie d'pacha pépère, pourtant j'ai pas cé-per' ma femme, c'est mon mécène, Bill Gates et l'abbé Pierre J'regarde plus le prix des aliments, ma CB en guise de talisman Mais, si ma femme me quittait, j'irais camper dans une niche ou dans une cave trop humide chez l'habitant La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé J'l'ai rencontrée au lycée, on a tout d'suite fait des trucs très polissons Elle n'était pas trop friquée, elle a gravi les échelons sans compromission grave Aujourd'hui, elle pèse, elle a quinze ans de travail harassant au compteur Elle élève nos enfants et elle m'aime depuis que j'ai mis mon zizi dans son cur Elle est plutôt magnanime mais parfois d'humeur assassine, elle a les yeux carabine Qui projettent des éclairs comme l'Empereur Palpatine, là, j'panique en respirant fort comme Anakin Je me censure, je crois qu'elle me sent sûr de moi, ressassant Surprends-moi, y'a mon sang sur ses doigts J'ai des brûlures, un tas d'points de suture, le soir, elle me susurre Viens là, tiens le susucre La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme Mon amour ? Poupounette ? Pourquoi tu m'as commandé une nouvelle carte ? C'est une Visa Électron... Ça veut dire quoi, Électron ?</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>La Plume et l’épée</t>
+          <t>Le Bal des pompiers</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J'étais sous le charme d'une table qui semblait éternelle Elle était vieille mais habillée d'une nappe en dentelle Cette table ronde était instable, c'était une séquelle Des nuits avec ces chevaliers qui lui étaient fidèles Elle avait eu une aventure avec la belle Excalibur Qui, dans les mains du Roi Arthur, s'était nourrie de sang impur J'ai rencontré cette épée dominatrice Dont la lame portait des cicatrices On lui avait appris à trancher, à transpercer Je lui ai murmuré des mots comme Caresser, Chatouiller Par une nuit sans lune, couchée sur son enclume Elle s'est mise à rêver et s'est alors changée en plume x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume Mon pays s'enrichit en vendant ses bombes et ses missiles Au scandale, il s'écrie Avec, on tire sur des civils ! Moi, je suis pacifiste donc affecté par ce qui se passe ici Ces guerres qu'on déguise, ces génocides invisibles Alors, comme Gandhi, je brandis l'étendard de la non-violence Car les menaces grandissent, prenant toutes sortes d'apparences Comme Boris Vian, je pense qu'un soldat, c'est de la viande Sont bons à remplir le ventre immense des vendeurs de propagande Alors, mes amis, mes camarades, cessez donc le combat Ne voyez-vous pas qu'on nous ment ? Qu'on nous brade pour signer des contrats ? Ainsi, l'ennemi d'aujourd'hui nous aidera demain À récupérer les puits de pétrole du voisin Et puis l'ONU s'ennuie, plus personne n'y croit Même les gros États-Unis, eux, ne mangent pas de ce pain-là J'ai choisi, je vous le dis, oui, moi, j'écris contre l'oubli Pour les touts-p'tits, pour les Hindous, pour les Hutus et les Tutsis x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix La main sur le cur, elles disent uvrer pour la paix Mais, à travers leurs querelles, les grandes puissances ne défendent que leurs intérêts Souviens-toi du Rwanda, du Soudan, d'la Tchétchénie Ils avaient prôné l'tact, la diplomatie, aujourd'hui, ils souffrent d'amnésie Leur justice est aveugle, c'est l'injustice qui régale Trop d'familles en deuil pleurent l'un des leurs qui a succombé au chant des balles Trop ne trouvent plus l'sommeil, ne dorment que d'une oreille Craignant le pillage, le racket, d'une attaque à la roquette Des pluies d'missiles, des attentats à la bombe Putain, quand j'y songe, l'horizon nous plonge en direction d'la guerre des mondes Ils ont semé l'aliénation, on a récolté l'ignominie Trop d'âmes innocentes ont été contraintes de rejoindre leur paradis On est d'plus en plus cerné par le cercle de la violence La haine est attisée par le biais d'nos différences Les peuples manipulés subsistent dans la souffrance L'horreur demeure, ne sentez-vous pas ceux suffoquant parfum d'urgence ? Il n'y a pas un traité qui n'ait pas été bafoué Pas un accord ni une convention qui n'ait été violé La donne est faussée, le fossé, lui, n'a d'cesse de s'creuser Entre ceux qui en voudront toujours plus et ceux qu'on laisse crever x2 J'ai fait mon choix entre la plume et l'épée Les pavés jetés dans la rue et les pamphlets enflammés J'ai choisi de me méfier des thunes, des idées préconçues Des avantages en nature et de la haine qui consume J'ai fait mon choix J'ai fait mon choix J'ai fait mon choix4</t>
+          <t>Lalalalalalalala lala Voulez-vous coucher avec moi, ce soir ? Je suis un être asocial, sauf ce soir, c'est la fête nationale J'oublie mes soucis, souris, c'est très anormal J'adore le 14 juillet pour me donner des forces J'avale deux ou trois bols de rillettes Après m'être tapé des barres chocolatées, j'ai Brûlé mon désespoir lors d'un autodafé À vrai dire, j'en ai marre de m'auto-clasher Donc j'enfile une chemise noire sur mon polo tâché Je sors grave défoncé mais ne vais pas m'dégonfler Non, j'suis prêt à foutre le feu au bal des pompiers Il est tard, à l'entrée de la caserne, des fêtards Fument ou jètent des pétards sur des silhouètes, moi J'arrive hilare, dis à dix miss bizarres Que je pratique six arts de Pise à Ibiza Là, je danse la chenille comme un sprinter rouillé Sors la lance d'incendie pour le concours de t-shirts mouillés I say Yes ! kiffe le temps d'un slow Sur un remix techno de La Marseillaise J'me sens trop content, j'attend ça depuis fort longtemps Je me déssape sur l'échelle quand débarque un mutant Galbé comme le Colosse de Rhodes armé d'une mâchoire de molosse Ce pseudo beau-gosse, moche même de dos, menace de me mordre Je quitte les lieux, les yeux baissés, fais vite, évite les grosses fessées J'médite nerveux et trop stressé, j'mérite même mieux mais J'erre en titubant dans les rues agitées J'ai l'air d'un hibou bourré tout blanc tsunamisé Respirant comme six sangliers, je sens mes idées s'engluer Rêve du trésor des templiers dans une atmosphère embrumée Une fille de joie mapparaît tel un mirage M'attire dans les bois où je retire son débardeur Elle est en nage, prête à calmer mes ardeurs Quand arrive des harders amateurs car c'est l'heure du tournage Alors, tu lui feras deep throat direct... Tu lui demandes pas...</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Last Day In Brooklyn</t>
+          <t>Le Condor et la Taupe</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Listen to my joint, get high! Hello beauty, call me daddy, it's bedtime I'm on duty getting juicy in Bed-Stuy I could hang you with your pitiful necktie I don't give a fuck, guess why? I found the road to Valhalla, let's drive We'll take a break au château de Versailles Sippin glasses of the best red wines Tu rappes en anglais mais tes français. Well tried Im just picking in my head fresh rhymes Let me open blood bags for my French fries We all got a bright side. Wheres mine? No need for mass shooting to headline 911 is 9 11, weird sign Hi! Comment allez-vous ? Just fine! Do you like this creepy Magic School Bus ride? I'm thirty-six, my flows certified You should wash your face with spermicide Im gonna try to fly and stay divine And, if I dont reach Nirvana, nevermind Youre shakin' like a bartender with Parkinsons disease Youve been waiting for me for thirty years Like Bart Simpsons degrees You can rely on me, I'm a scientist I got the same haircut as the Lion King I can hit you with my iron fist And squeeze you like a giant beast You look mesmerized by my Busta Rhymes' vibes I feel glad when I mess my life up Might be mad but the last to line up Call me badass, I sat on Bibles Im snakin around those Christian apple trees Tastin a lot of crispy bacon strips Rappin' over jazz, funk, trap and afro beats Im an astronaut on a battleship Born in a haunted treehouse I wanna die on a mountain milking sea cows? Hello. Hola. Bonjour. Ni hao Do you have a weed stick for my big mouth? I go green like the Wicked Witch of the West I got twisted lyrics, take your ticket quick I request Im a mess, I married loneliness so please dont step on my long penis My genius shines like Venus, sorry I digress Im living an adventure at recess, adults life I repress I might be the best in the game since Wallace Chris is dead. Am I dissin'? Yes! From JFK to CDG, my lover's name was Billie Jean Beware of me, I'm really mean, I eat embryos like chili beans</t>
+          <t>J'en ai vu des gars s'poser, j'aurais pu suivre l'exemple Mais c'était plus fort que moi, un peu comme kicker des samples Je vis, je ressens, imbibé d'essence J'ai incinéré mes limites et puis j'ai vidé les cendres Car, depuis 'tit-pe', je me libère dans le vide Dans la vie, ça me sidère, c'est le mystère qui me guide Comme un trou dans le bide ou le creux d'une ride Yo, ceux qui disent que c'est hideux, moi, je ris d'eux Coincé dans mon pied-à-terre, j'ai des envies célestes Me déleste des aberrations que mon ennui déteste Pendant qu'tu restes obsédé par tes cinq ou six complexes Je me dirige vers le haut comme l'accent circonflexe Et, comme un pigeon voyageur, j'observe les grandeurs Et prends de la hauteur à la manière d'un pilon ravageur Avant qu'une rancur obscure ne m'élimine Je passe au dessus des murs de mes limites x2 Céo est en haut, un drôle d'oiseau Son bec te pique, ses griffes t'agrippent, lacèrent ton dos Hippo est en bas, il gratte sans cesse La terre s'entasse, t'en perds la tête, ton corps s'embrase Écrire, c'est surpasser sa flemme Tailler sa craie, une ébauche d'appel à l'aide Même déchu, amer, abject, faut garder la pêche Allier le verbe à la sève, la merde à la crème Le rêve à la guerre, filtrer l'image d'un corps noyé Pour obtenir la jeune fille à la perle Travail vital, trivial acerbe qui, bien souvent, finit vite à la benne Car faut tordre le fer hors des repères, s'exclure de la horde des pairs Que d'effort et de persévérance et de projets immenses qu'on déterre Élaborant des thèses sommaires, c'est sûr J'assimile le sommeil à la mort et le vide à vos quêtes Salis vite vos têtes sensibles au swing affolant des césures Je joue les durs mais suis timide Je vais jeter mes jumelles, heurter mes prunelles Et creuser des tunnels sous les murs de mes limites Afin de semer la cruelle fatalité naturelle qui m'irrite x2 On a la tête dans les nuages et les pieds sur terre On regarde la lune, pas nos voûtes plantaires On imagine nos vies loin des envies sédentaires On évite au maximum que le doute nous enterre On travaille dans l'austérité, pour la postérité Pour pouvoir relire nos trouvailles quand on sera gros et ridé Puis enfin profiter d'un repos bien mérité Hippo, c'est cool ! Quoi ? On n'a pas trop dérivé... non Non, j'avoue qu'pour une fois on n'a pas trop dérivé Aventurons-nous plus profondément dans les abysses1</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>La thune de ma femme</t>
+          <t>Le Coup du Lapin</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>J'remplis des salles et des auditoriums avec mes enfantillages J'offre des yachts à tous mes majordomes qui pourraient peupler cent villages J'vais m'acheter des grillz en californium pour irradier mon visage Car j'ai des sous, des bitcoins et de l'or, j'ai même pas touché d'héritage Ma vie un régal, un kif indéniable, un striptease intégral dans la suite cinq étoiles L'argent m'accompagne, bien sûr que j'ai des factures à payr mais j'ai des comptables Chalet d montagne, bain d'bouche au champagne, château de campagne, dîner aux chandelles Au sommet de la tour de Shangaï, oui, j'ai d'la maille mais c'est pas moi qui la gagne C'est la thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé En tant que conjoint, je vide le compte joint toujours content, jamais contraint, mais faut qu'j'évite l'embonpoint J'ai des chromosomes colombiens qui me font gonfler du bassin quand j'bois des litres de bon vin J'fais pas le michto ni le parasite non l'hiver, j'fais trempettes aux Caraïbes ou je pars à Tignes Elle n'est pas radine, je n'la baratine pas, c'est le paradis, ça ? Non, c'est le paradigme Entrée, plat, dessert car je n'suis pas précaire dépenses astronomiques qui fascineraient Kepler Une vie d'pacha pépère, pourtant j'ai pas cé-per' ma femme, c'est mon mécène, Bill Gates et l'abbé Pierre J'regarde plus le prix des aliments, ma CB en guise de talisman Mais, si ma femme me quittait, j'irais camper dans une niche ou dans une cave trop humide chez l'habitant La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme donne J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme bébé J'l'ai rencontrée au lycée, on a tout d'suite fait des trucs très polissons Elle n'était pas trop friquée, elle a gravi les échelons sans compromission grave Aujourd'hui, elle pèse, elle a quinze ans de travail harassant au compteur Elle élève nos enfants et elle m'aime depuis que j'ai mis mon zizi dans son cur Elle est plutôt magnanime mais parfois d'humeur assassine, elle a les yeux carabine Qui projettent des éclairs comme l'Empereur Palpatine, là, j'panique en respirant fort comme Anakin Je me censure, je crois qu'elle me sent sûr de moi, ressassant Surprends-moi, y'a mon sang sur ses doigts J'ai des brûlures, un tas d'points de suture, le soir, elle me susurre Viens là, tiens le susucre La thune de ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette vie-là sans la thune de ma femme la thune de ma femme J'aime la thune de ma femme et ma femme, ouais, la thune de ma femme J'dépense la thune de ma femme, j'n'aurais pas cette villa sans la thune de ma femme Mon amour ? Poupounette ? Pourquoi tu m'as commandé une nouvelle carte ? C'est une Visa Électron... Ça veut dire quoi, Électron ?</t>
+          <t>Sur scène, ils miaulent comme des chatons j'suis la loco', eux les wagons Ils pompent plus qu'un cur de baleine, bref, passons J'viens exciter les grands darons sans retirer mon pantalon J'suis un redoutable lyriciste doublé d'un fanfaron Allons, gardons la tête froide à la Jeffrey Dahmer Quand j't'appelle, use de ton portable comme d'un vibromasseur Désolé pour ceux qui voulaient des rimes prévisibles j'ai besoin De court-circuiter mes limites, de maliter pour pratiquer la pluralité féminine Tu veux caresser ma grande bip, ramène-moi vite le laissez-passer A38, ou bien reste en chien comme Gromit T'es dans la soute, j'suis dans l'cockpit t'es dans la semoule, j'suis en orbite T'es dans la soude, j'suis trop caustique je sens la mouille, tu sens trop l'shit J'envoie la foudre et la tempête, tu prends la poudre d'escampette J't'attrape, j'te fous dans la trempette j'aime pas le foot et je t'emmerde J'deviens vulgaire, faut qu'j'me tempère Patibulaire, ma mine t'enterre J'parie qu'tu blaires pas mon ton, frère, j'perds pas mon temps T'es médusé, baise les yeuz' ou j'te change en pierre Oui, je sais comment faire de ta vie un enfer Mais j'veux qu'on reste en bons termes, j't'offre un verre de mon sperme Ado', j'avais des boutons d'acné et j'étais vicelard J'voulais ken' mais les filles disaient Tu dégoûtes, non merci À présent, comme l'anesthésiste face au corps sur le billard J'peux m'faire plaisir tous les soirs, tous les trous sont permis Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Quand j'écris sur mon rooftop, j'm'imagine à Woodstock À table avec douze potes ou à poils dans un doux spot Ferme ta gueule de bulldog, va mâcher des gousses d'ail T'aimes jouer les rudeboys, sais-tu qu'on va tous die ? Ne pas négliger la surprise est un de mes points forts J'aime prendre des risques en sortant de ma zone de confort C'est comme ça qu'j'me sens vivant, c'est pour ça qu'c'est enivrant T'as la côte pour le moment mais reparlons-en dans mille ans J'suis le meilleur, tu l'sais, sous-côté, pas surfait Arrête de ruminer, petit, tu vas t'faire un ulcère Tu m'as vu turbiner, la nuit, en rêvant de succès Je manie l'absurde, l'humour, le spleen et le suspense Avant tout, Terrien, en quête d'orgasme souterrains Assieds-toi sur mon stalagmite et durcis jusqu'au bout des seins Laissez-les ramer dans des bateaux à moteurs tout mesquins Enchanté, appelez-moi Gandalf, Harry Potter ou Merlin Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin, ouais Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin1</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Le Bal des pompiers</t>
+          <t>Le Jeu du son</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Lalalalalalalala lala Voulez-vous coucher avec moi, ce soir ? Je suis un être asocial, sauf ce soir, c'est la fête nationale J'oublie mes soucis, souris, c'est très anormal J'adore le 14 juillet pour me donner des forces J'avale deux ou trois bols de rillettes Après m'être tapé des barres chocolatées, j'ai Brûlé mon désespoir lors d'un autodafé À vrai dire, j'en ai marre de m'auto-clasher Donc j'enfile une chemise noire sur mon polo tâché Je sors grave défoncé mais ne vais pas m'dégonfler Non, j'suis prêt à foutre le feu au bal des pompiers Il est tard, à l'entrée de la caserne, des fêtards Fument ou jètent des pétards sur des silhouètes, moi J'arrive hilare, dis à dix miss bizarres Que je pratique six arts de Pise à Ibiza Là, je danse la chenille comme un sprinter rouillé Sors la lance d'incendie pour le concours de t-shirts mouillés I say Yes ! kiffe le temps d'un slow Sur un remix techno de La Marseillaise J'me sens trop content, j'attend ça depuis fort longtemps Je me déssape sur l'échelle quand débarque un mutant Galbé comme le Colosse de Rhodes armé d'une mâchoire de molosse Ce pseudo beau-gosse, moche même de dos, menace de me mordre Je quitte les lieux, les yeux baissés, fais vite, évite les grosses fessées J'médite nerveux et trop stressé, j'mérite même mieux mais J'erre en titubant dans les rues agitées J'ai l'air d'un hibou bourré tout blanc tsunamisé Respirant comme six sangliers, je sens mes idées s'engluer Rêve du trésor des templiers dans une atmosphère embrumée Une fille de joie mapparaît tel un mirage M'attire dans les bois où je retire son débardeur Elle est en nage, prête à calmer mes ardeurs Quand arrive des harders amateurs car c'est l'heure du tournage Alors, tu lui feras deep throat direct... Tu lui demandes pas...</t>
+          <t>Yo, faites passer le mot, là, c'est le moment de rapper rapidement Que les gens s'enflamment et disent à leurs voisins C'est fou, ils font ça finement Eh oui, mon ami, c'est la fine équipe, Hippocéo, c'est le feat' des feat' Et, quand le beat défile, les MC's s'débinent et les filles stériles deviennent hystériques Allez, lève tes deux mains si c'est bon, je pousse la voix comme Cicéron Avalons le son puis digérons, je te le dis c'est con si tu l'évites, mais bon Ça risque d'être compliqué de passer à côté car, quand la cadence est lancée, la foule se fait ballotter De gauche à droite, on est prêt, ça ne peut pas capoter, je ne suis pas un téléphone mais tu peux me tapoter Je suis actif, assez tactile, quasi drastique mais, la tactique pratique, je l'ai Pas de plastique dans mon fat spliff plutôt magique, quand je m'agite trop, la zic' s'élève Pas d'illusion, pas non plus d'allusion, c'est la forme et le fond que te donne le son Quand je prends le micro, c'est pour manier le temps, je ne suis pas dilettante et le taf est béton Tout le monde Hey ! Non, on avait dit Tout le monde Hey ! Encore une fois, oui, tout le monde Hey ! Plus fort que ça, tout l'monde Hey ! Yo, j'plane comme un Spoutnik, scat comme un Fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille, tu deviens croustillant Appelle-moi Raspoutine, je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils des onomatopées, quelques mots syncopés, des beats assourdissants Dindon ou papa poule dîne avec des babas cool, parfois, il rappe à Brooklyn emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean, j'me balade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga, ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars, bédave des 'tons-car', écris des haïkus, des cochonneries ou des mangas Des 'lopes-sa' m'accostent même en jogging 'coste-La' au poste, à La Poste, j'suis la fucking 're-sta' J'ai capté la mode, gars, fait couler la vodka, fabriquer des gobelets en recyclant ma 'pote-ca' Trinque et tringle, agrippe-toi, on grimpe au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent que, quand on déconne comme ça, ça décolle grave Hé, tu m'as l'air bien pâlot, viens dans mon bungalow déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses, et puis des Tsingtao, c'est vital On fait kiffer les demoiselles grivoises, tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle, celui qu'il fallait pour marquer l'Histoire Encore une fois, tout le monde Hey ! Une deuxième fois, tout le monde Hey ! Une troisième fois, tout le monde Hey ! Une dernière fois, tout le monde Hey ! Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe partout</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Le Condor et la Taupe</t>
+          <t>Le mal du pays</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>J'en ai vu des gars s'poser, j'aurais pu suivre l'exemple Mais c'était plus fort que moi, un peu comme kicker des samples Je vis, je ressens, imbibé d'essence J'ai incinéré mes limites et puis j'ai vidé les cendres Car, depuis 'tit-pe', je me libère dans le vide Dans la vie, ça me sidère, c'est le mystère qui me guide Comme un trou dans le bide ou le creux d'une ride Yo, ceux qui disent que c'est hideux, moi, je ris d'eux Coincé dans mon pied-à-terre, j'ai des envies célestes Me déleste des aberrations que mon ennui déteste Pendant qu'tu restes obsédé par tes cinq ou six complexes Je me dirige vers le haut comme l'accent circonflexe Et, comme un pigeon voyageur, j'observe les grandeurs Et prends de la hauteur à la manière d'un pilon ravageur Avant qu'une rancur obscure ne m'élimine Je passe au dessus des murs de mes limites x2 Céo est en haut, un drôle d'oiseau Son bec te pique, ses griffes t'agrippent, lacèrent ton dos Hippo est en bas, il gratte sans cesse La terre s'entasse, t'en perds la tête, ton corps s'embrase Écrire, c'est surpasser sa flemme Tailler sa craie, une ébauche d'appel à l'aide Même déchu, amer, abject, faut garder la pêche Allier le verbe à la sève, la merde à la crème Le rêve à la guerre, filtrer l'image d'un corps noyé Pour obtenir la jeune fille à la perle Travail vital, trivial acerbe qui, bien souvent, finit vite à la benne Car faut tordre le fer hors des repères, s'exclure de la horde des pairs Que d'effort et de persévérance et de projets immenses qu'on déterre Élaborant des thèses sommaires, c'est sûr J'assimile le sommeil à la mort et le vide à vos quêtes Salis vite vos têtes sensibles au swing affolant des césures Je joue les durs mais suis timide Je vais jeter mes jumelles, heurter mes prunelles Et creuser des tunnels sous les murs de mes limites Afin de semer la cruelle fatalité naturelle qui m'irrite x2 On a la tête dans les nuages et les pieds sur terre On regarde la lune, pas nos voûtes plantaires On imagine nos vies loin des envies sédentaires On évite au maximum que le doute nous enterre On travaille dans l'austérité, pour la postérité Pour pouvoir relire nos trouvailles quand on sera gros et ridé Puis enfin profiter d'un repos bien mérité Hippo, c'est cool ! Quoi ? On n'a pas trop dérivé... non Non, j'avoue qu'pour une fois on n'a pas trop dérivé Aventurons-nous plus profondément dans les abysses1</t>
+          <t>J'arpente des rues remplies de grands blocs Y'a des gens partout mais je m'en moque C'est la solitude qui m'escorte Ça fait bizarre d'être un exilé à New York J'ai laissé à Paris quelques notes Mon père, ma mère, ma sur et mes potes J'aimerais qu'ils viennent frapper à ma porte Qu'ils arrivent par surprise, qu'on boive et puis qu'on sorte J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Que des factures dans ma boîte aux lettres Quelqu'un m'écrira, un jour, peut être Depuis qu'j'ai installé internet J'fais croire à tout l'monde que je mène une vie parfaite Je n'suis pas à plaindre, c'est un fait Quand j'ai envie d'aller faire la fête J'm'achète un paquet de cigarettes treize dollars Et, tout en regardant les passants, je végète J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Outre Atlantique, y'a des femmes très belles Je me rince l'il, mais je suis fidèle J'ai pris du bide et de la bouteille Il n'y a plus que mes enfants qui m'émerveillent Certains diront qu'j'suis en dépression Qu'on oublie tout après deux pressions Ceux qui vivent loin d'chez eux comprendront Tout reconstruire, c'est plus long qu'écrire une chanson J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Ici, j'n'ai pas l'droit de travailler J'suis redevenu papa au foyer J'vais finir obèse ou décharné Ma fille parle anglais mieux que moi, j'suis dépassé J'veux m'balader, la nuit dans Paris Du bon fromage avec mes amis Fuck le blizzard, j'veux qu'on m'rapatrie Je crois bien qu'j'ai c'qu'on appelle le mal du pays</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Le Coup du Lapin</t>
+          <t>Le Mythe de l’ermite</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sur scène, ils miaulent comme des chatons j'suis la loco', eux les wagons Ils pompent plus qu'un cur de baleine, bref, passons J'viens exciter les grands darons sans retirer mon pantalon J'suis un redoutable lyriciste doublé d'un fanfaron Allons, gardons la tête froide à la Jeffrey Dahmer Quand j't'appelle, use de ton portable comme d'un vibromasseur Désolé pour ceux qui voulaient des rimes prévisibles j'ai besoin De court-circuiter mes limites, de maliter pour pratiquer la pluralité féminine Tu veux caresser ma grande bip, ramène-moi vite le laissez-passer A38, ou bien reste en chien comme Gromit T'es dans la soute, j'suis dans l'cockpit t'es dans la semoule, j'suis en orbite T'es dans la soude, j'suis trop caustique je sens la mouille, tu sens trop l'shit J'envoie la foudre et la tempête, tu prends la poudre d'escampette J't'attrape, j'te fous dans la trempette j'aime pas le foot et je t'emmerde J'deviens vulgaire, faut qu'j'me tempère Patibulaire, ma mine t'enterre J'parie qu'tu blaires pas mon ton, frère, j'perds pas mon temps T'es médusé, baise les yeuz' ou j'te change en pierre Oui, je sais comment faire de ta vie un enfer Mais j'veux qu'on reste en bons termes, j't'offre un verre de mon sperme Ado', j'avais des boutons d'acné et j'étais vicelard J'voulais ken' mais les filles disaient Tu dégoûtes, non merci À présent, comme l'anesthésiste face au corps sur le billard J'peux m'faire plaisir tous les soirs, tous les trous sont permis Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Quand j'écris sur mon rooftop, j'm'imagine à Woodstock À table avec douze potes ou à poils dans un doux spot Ferme ta gueule de bulldog, va mâcher des gousses d'ail T'aimes jouer les rudeboys, sais-tu qu'on va tous die ? Ne pas négliger la surprise est un de mes points forts J'aime prendre des risques en sortant de ma zone de confort C'est comme ça qu'j'me sens vivant, c'est pour ça qu'c'est enivrant T'as la côte pour le moment mais reparlons-en dans mille ans J'suis le meilleur, tu l'sais, sous-côté, pas surfait Arrête de ruminer, petit, tu vas t'faire un ulcère Tu m'as vu turbiner, la nuit, en rêvant de succès Je manie l'absurde, l'humour, le spleen et le suspense Avant tout, Terrien, en quête d'orgasme souterrains Assieds-toi sur mon stalagmite et durcis jusqu'au bout des seins Laissez-les ramer dans des bateaux à moteurs tout mesquins Enchanté, appelez-moi Gandalf, Harry Potter ou Merlin Je sors de ma tanière pour vous mettre au parfum Rien ne m'arrête, leurs carrières sentent le sapin J'suis d'humeur printanière, j'vais lancer des parpaings Hochez la tête mais gare au coup du lapin, ouais Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin Gare au coup du lapin1</t>
+          <t>Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite Le mythe de l'ermite Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Son rêve est éphémère, il en savoure la fulgurance Son réveil a sonné, dehors des voitures ont klaxonné Et l'idée de tout quitter, dans son esprit, a résonné Fini les bruits de la ville, les files d'attente Fini les fils électriques, les briques et l'amiante Loin du vacarme et de l'agitation L'ermite a trouvé le calme nécessaire à sa méditation Quand le soleil se lève, l'euphorie l'envahit Il ouvre ses oreilles et rêve du clapotis de la pluie L'ermite connaît l'ivresse de ceux qui gravissent l'Everest Il a oublié le mot stress et tous ses titres de noblesse Tel un artiste, il tisse son univers céleste Maîtrise ses gestes, n'a pas l'air triste mais preste Son visage brille comme dix milles flammes Mais des milligrammes de regrets apparaissent en filigrane Nos vies s'effritent quand nos envies ne s'expriment pas Mais lui les vit à l'air libre, l'ermite ne déprime pas Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Ses seules héritières sont ses pensées qu'il écrit sans urgence Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite1</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Le Jeu du son</t>
+          <t>Lent</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Yo, faites passer le mot, là, c'est le moment de rapper rapidement Que les gens s'enflamment et disent à leurs voisins C'est fou, ils font ça finement Eh oui, mon ami, c'est la fine équipe, Hippocéo, c'est le feat' des feat' Et, quand le beat défile, les MC's s'débinent et les filles stériles deviennent hystériques Allez, lève tes deux mains si c'est bon, je pousse la voix comme Cicéron Avalons le son puis digérons, je te le dis c'est con si tu l'évites, mais bon Ça risque d'être compliqué de passer à côté car, quand la cadence est lancée, la foule se fait ballotter De gauche à droite, on est prêt, ça ne peut pas capoter, je ne suis pas un téléphone mais tu peux me tapoter Je suis actif, assez tactile, quasi drastique mais, la tactique pratique, je l'ai Pas de plastique dans mon fat spliff plutôt magique, quand je m'agite trop, la zic' s'élève Pas d'illusion, pas non plus d'allusion, c'est la forme et le fond que te donne le son Quand je prends le micro, c'est pour manier le temps, je ne suis pas dilettante et le taf est béton Tout le monde Hey ! Non, on avait dit Tout le monde Hey ! Encore une fois, oui, tout le monde Hey ! Plus fort que ça, tout l'monde Hey ! Yo, j'plane comme un Spoutnik, scat comme un Fuschnick Toi, t'es qu'un moustique, j'te sens tout p'tit quand j't'émoustille, tu deviens croustillant Appelle-moi Raspoutine, je ne connais pas la routine du haut de ma toupie Dans ma caisse à outils des onomatopées, quelques mots syncopés, des beats assourdissants Dindon ou papa poule dîne avec des babas cool, parfois, il rappe à Brooklyn emporté par la foule Chez moi, des lamas roupillent, je parle à mon blue jean, j'me balade à Boulbi, évitant la patrouille Je suis content car t'as mis ton tanga, ta chocolaterie est mieux qu'celle de Willy Wonka J'me la raconte, gars, bédave des 'tons-car', écris des haïkus, des cochonneries ou des mangas Des 'lopes-sa' m'accostent même en jogging 'coste-La' au poste, à La Poste, j'suis la fucking 're-sta' J'ai capté la mode, gars, fait couler la vodka, fabriquer des gobelets en recyclant ma 'pote-ca' Trinque et tringle, agrippe-toi, on grimpe au sommet du mont Olympe pour danser la polka T'étonne pas, tous tes potes savent que, quand on déconne comme ça, ça décolle grave Hé, tu m'as l'air bien pâlot, viens dans mon bungalow déballer plein d'cadeaux, y'aura des glaces à l'eau Du poulet vindaloo, des tapas andalouses, et puis des Tsingtao, c'est vital On fait kiffer les demoiselles grivoises, tu vas briser tes cervicales Sur ce beat parfait pour taper l'freestyle, celui qu'il fallait pour marquer l'Histoire Encore une fois, tout le monde Hey ! Une deuxième fois, tout le monde Hey ! Une troisième fois, tout le monde Hey ! Une dernière fois, tout le monde Hey ! Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe Viens t'amuser sur la musique car elle est faite pour 'à-ç' Et pas pour te prendre la tête comme ce vieux Père Fourras Vas-y, fais donc des galipettes à la Djamel Bouras Quand c'est la fête, tout passe, quand c'est la fête, tout passe partout</t>
+          <t>Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps J'suis pas vif, plutôt végétatif J'fais d'l'hypotension, comme un vieux loir sous sédatifs J'raconte des histoires avec un débit soporifique Tout mon auditoire s'ennuie ferme, on dirait l'Hémicycle J'ai dû avaler une feuille de laitue mal lavée Sur laquelle un escargot et une tortue avaient bavé Car, toutes les trente secondes, j'ai besoin d'un break J'compte bien faire le tour du Monde en quatre-vingt siècles Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Au lycée, j'ai dû prendre le pli mais J'étais toujours le dernier à rendre ma copie Dans les soirées, j'évite d'aller faire pipi Car, quand je ressors des toilettes, la fête est finie Après dix-sept mois de grossesse, ma mère accoucha d'un zombie Mon nom d'famille, c'est Gonzalez, mais je suis loin d'être Speedy Oui, j'avance au ralenti, faut qu'je rachète un ordi' Mais, le temps que j'le branche, il ne sera plus sous garantie Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Depuis ma plus tendre enfance, les gens me crient Dépêche-toi En colo, les monos m'ont déjà oublié dans les bois C'est la vitesse qu'on encense, personne ne conte mes exploits Ceux qui m'aiment sont tiraillés entre rage et désespoir J'me dis qu'j'suis perfectionniste, mais est-ce bien la vérité ? Le temps qu'j'prépare le dîner, les aliments sont périmés J'rentre dans ma douche à l'aube, j'en ressors au crépuscule Faut qu'j'me grouille, j'suis à la bourre, j'vais rater ma sépulture Si nous sommes réunis ici aujourd'hui, c'est pour dire adieu à notre cher Hippo qui nous a quittés trop tard</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Le mal du pays</t>
+          <t>Le Retour d’Hélios</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>J'arpente des rues remplies de grands blocs Y'a des gens partout mais je m'en moque C'est la solitude qui m'escorte Ça fait bizarre d'être un exilé à New York J'ai laissé à Paris quelques notes Mon père, ma mère, ma sur et mes potes J'aimerais qu'ils viennent frapper à ma porte Qu'ils arrivent par surprise, qu'on boive et puis qu'on sorte J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Que des factures dans ma boîte aux lettres Quelqu'un m'écrira, un jour, peut être Depuis qu'j'ai installé internet J'fais croire à tout l'monde que je mène une vie parfaite Je n'suis pas à plaindre, c'est un fait Quand j'ai envie d'aller faire la fête J'm'achète un paquet de cigarettes treize dollars Et, tout en regardant les passants, je végète J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Outre Atlantique, y'a des femmes très belles Je me rince l'il, mais je suis fidèle J'ai pris du bide et de la bouteille Il n'y a plus que mes enfants qui m'émerveillent Certains diront qu'j'suis en dépression Qu'on oublie tout après deux pressions Ceux qui vivent loin d'chez eux comprendront Tout reconstruire, c'est plus long qu'écrire une chanson J'ai changé de terrier Pris un vol long courrier J'suis parti sans pleurer Sans réaliser qu'j'me sentirai isolé Ici, j'n'ai pas l'droit de travailler J'suis redevenu papa au foyer J'vais finir obèse ou décharné Ma fille parle anglais mieux que moi, j'suis dépassé J'veux m'balader, la nuit dans Paris Du bon fromage avec mes amis Fuck le blizzard, j'veux qu'on m'rapatrie Je crois bien qu'j'ai c'qu'on appelle le mal du pays</t>
+          <t>Les cous se découvrent, les cuisses apparaissent La bonne humeur fait la cour à la paresse Les terrasses des cafés se garnissent, les fontaines rejaillissent Tout glisse et les draps se salissent Sur les trottoirs fleurissent deal et corruption Sur la chaussée poussent des pics de pollution Il me faut du son, des spliffs à profusion Il est trop tard pour une petite liposuccion Les stars sans talon enlèvent leurs sandales et leur pantalon Sans ostentation, mais la presse à scandales s'emballe Et embrase les gens qui bavent grave devant tant de tentation Des gars lambdas lancent la bamba sans grâce Des bandes de touristes s'entassent à l'Alhambra Bombardement de refrains stupides et fédérateurs Tandis que les radiateurs envient les ventilateurs Les kebabs deviennent les repères de Vulcain Après déjeuner, la sieste, après la sieste vient l'heure du bain Dans les transports en commun, les gens suent Plus collants qu'une horde de sangsues, quand on en sort, ça fait du bien Allongé à l'ombre, à la cool, je mate les belles poules Qui lèchent des boules de glace Toutes ses courbes m'envoûtent, un peu saoûl, je drague Je suis plus romantique quand mes bourses parlent Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, je paresse avec aisance, tout baigne Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, j'ai redécouvert mes sens, tout baigne C'matin, en ouvrant la fenêtre, le soleil avait repris ses droits J'ai eu tellement la gaule que j'arrivais plus à pisser droit J'oublierai presque que, la vie, c'est trash, que les destins sont tragiques Que la misère s'acharne sur mes cousins d'Afrique Pendant qu'des machines à fric me sodomisent pour le principe J'm'en fous, il fait beau, j'm'exhibe à la fenêtre, en slip J'me mettrais bien à poil, mais la vieille, en face, s'occupe des plantes T'imagines le choc devant un zizi qui bande ? Il fait chaud et la sève afflue à nouveau dans mes membres J'me sens comme un jeune chêne balançant ses glands auprès du vent Au creux du ventre, une envie d'sorbet citron Aujourd'hui, ne rien branler, XXX petit con Va entamer l'Picon, à quinze heure, en plein soleil Se jeter dans les buissons Bonjour, jeune perce-oreille J'fais des bisous à tout l'monde, aujourd'hui, il fait un temps radieux J'm'en fous qu'il y ait des bombes qui tombent, qu'il y ait des mômes qui crèvent Et qu'on soit vingt pour cents d'cons dans c'pays Qui dis-je ? Vingt pour cents ? Bien plus, mais bon, tant pis J'm'en fous tant qu'il y a d'la bière fraîche dans mon go-Fri' C'est pas la crise, y'a encore d'la Despe' à l'épicerie Aller pisser au bord de l'eau, sentir la bise caresser mes breloques Le plaisir simple d'admirer les belettes Petit freestyle sur un air de gratte, avec les collègues Y'a rien que j'kiffe plus dans la life, pour être honnête Hippo est revenu avec sa macédoine de légumes Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule, toi aussi ?</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Le Mythe de l’ermite</t>
+          <t>Le Roi de France</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite Le mythe de l'ermite Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Son rêve est éphémère, il en savoure la fulgurance Son réveil a sonné, dehors des voitures ont klaxonné Et l'idée de tout quitter, dans son esprit, a résonné Fini les bruits de la ville, les files d'attente Fini les fils électriques, les briques et l'amiante Loin du vacarme et de l'agitation L'ermite a trouvé le calme nécessaire à sa méditation Quand le soleil se lève, l'euphorie l'envahit Il ouvre ses oreilles et rêve du clapotis de la pluie L'ermite connaît l'ivresse de ceux qui gravissent l'Everest Il a oublié le mot stress et tous ses titres de noblesse Tel un artiste, il tisse son univers céleste Maîtrise ses gestes, n'a pas l'air triste mais preste Son visage brille comme dix milles flammes Mais des milligrammes de regrets apparaissent en filigrane Nos vies s'effritent quand nos envies ne s'expriment pas Mais lui les vit à l'air libre, l'ermite ne déprime pas Il est enveloppé de mystère, habité par l'errance Le désert est sa terre, il y cultive du silence L'ermite a fui la termitière, attiré par l'immense Ses seules héritières sont ses pensées qu'il écrit sans urgence Le mythe de l'ermite Le mythe de l'ermite C'est le mythe de l'ermite1</t>
+          <t>Mesdames, Mesdemoiselles, Messieurs, prosternez-vous devant le roi car, après tout, c'est grâce à vous qu'il est là x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi se pavane, et la foule l'acclame Costume Armani, lunettes Dior pour sa femme Mais le roi sait causer comme le Français moyen Son style est déposé, bossé comme un Américain Toi aussi, citoyen, un jour, tu vivras dans le luxe Tu cacheras ton butin dans une banque au Benelux Mais il faut être malin, ne pas avoir de scrupule Comme le roi, tous les matins, faire du jogging en sous-pull Le roi est aimable, son sourire impeccable Il le retire régulièrement pour mâchouiller quelques syllabes Le roi divertit ses fidèles en montant sur ses grands chevaux Mais il porte, en guise de couronne, un bonnet à grelots Il saute en parachute depuis le toit de son palais Au bord de la mer, il construit des châteaux de sable en galets Et, dans un lac rempli de la sueur du contribuable À l'aide d'un trident doré, le roi pèche des dauphins gonflables Ce soir, en direct, la douche du roi Vers minuit, son altesse se mouchera Demain, sa maîtresse accouchera Mais cela ne nous regarde pas x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi n'a qu'à claquer des doigts, tous ses bras droits se coupent en quatre Pour l'apaiser quand il guerroie, la reine chante et joue de la harpe Notre bon roi joue au bowling avec une balle de golf Ses convictions font des loopings comme dans les bras de Morphée Oui, il jongle avec les mots mais ne contrôle pas tout On dit qu'il parle trop, moi, je dis qu'il a du bagout Il a l'art et la manière de se donner raison Expert en la matière, quelle que soit la question Le roi nous a convaincu que la France est en danger À cause de ces intrus refusant de travailler Moi, je dis qu'il a raison, mais ce que lui ne vous dit pas C'est que les fainéants en question ne sont pas toujours ceux qu'on croit Donc prosternez-vous devant le roi Car, après tout, c'est grâce à vous qu'il est là Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Venez vous divertir au spectacle permanent Des rampants, des vampires aux sourires étincelants Venez profiter des plus beaux duos comiques Et oubliez deux minutes qu'ils ont la bombe atomique Y'en a marre ! Y'en a marre ! Messire, messire ! Le peuple est colère ! La révolte gronde aux portes du palais ! Regardez cet homme qu'harangue la foule ! Citoyens ! Citoyens ! Écoutez-moi ! Y'en a marre ! Il a flatté lélectorat, du jeune loup au doyen Pour atteindre son but, la fin justifie les moyens Il a avoué ouvertement vouloir sasseoir sur le trône Régner sur le gouvernement tout en jouant les icônes Tous les jours à la une, le roi a promis la lune Mais il a retourné sa veste une fois son nom dans l'urne L'espoir s'est fait la belle, fini la mascarade Il promettait le Septième Ciel mais a laissé la masse en rade Le peuple descend dans la rue pour manifester sa grogne Le roi envoie les gardiens d'la couronne pour qu'ils cognent Les plus démunis en font les frais, frôlent le game over Le roi répond Mais que voulez-vous ? Pour qu'il y ait des riches, il faut des pauvres Aux mics, citoyens, ôtez tous vos baillons ! Braillons, actions, n'attendons pas 2789 pour une nouvelle révolution1</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Lent</t>
+          <t>Le saloon</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps J'suis pas vif, plutôt végétatif J'fais d'l'hypotension, comme un vieux loir sous sédatifs J'raconte des histoires avec un débit soporifique Tout mon auditoire s'ennuie ferme, on dirait l'Hémicycle J'ai dû avaler une feuille de laitue mal lavée Sur laquelle un escargot et une tortue avaient bavé Car, toutes les trente secondes, j'ai besoin d'un break J'compte bien faire le tour du Monde en quatre-vingt siècles Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Au lycée, j'ai dû prendre le pli mais J'étais toujours le dernier à rendre ma copie Dans les soirées, j'évite d'aller faire pipi Car, quand je ressors des toilettes, la fête est finie Après dix-sept mois de grossesse, ma mère accoucha d'un zombie Mon nom d'famille, c'est Gonzalez, mais je suis loin d'être Speedy Oui, j'avance au ralenti, faut qu'je rachète un ordi' Mais, le temps que j'le branche, il ne sera plus sous garantie Les années filent, qu'on soit rat des villes ou rat des champs La plupart des gens courent, moi, j'déambule les bras ballants On bat des cils et pouf ! des rides, des touffes de cheveux blancs Ils se dépêchent de vivre, moi, j'existe et j'prends mon temps Depuis ma plus tendre enfance, les gens me crient Dépêche-toi En colo, les monos m'ont déjà oublié dans les bois C'est la vitesse qu'on encense, personne ne conte mes exploits Ceux qui m'aiment sont tiraillés entre rage et désespoir J'me dis qu'j'suis perfectionniste, mais est-ce bien la vérité ? Le temps qu'j'prépare le dîner, les aliments sont périmés J'rentre dans ma douche à l'aube, j'en ressors au crépuscule Faut qu'j'me grouille, j'suis à la bourre, j'vais rater ma sépulture Si nous sommes réunis ici aujourd'hui, c'est pour dire adieu à notre cher Hippo qui nous a quittés trop tard</t>
+          <t>Avalé par un cachalot glouton Me voilà dans un saloon envoûtant Je n'suis pas là pour soulever des croupions Mais j'vais sans doute m'y saouler en gloussant C'est assez cocasse, dans le ventre de ce cétacé vorace Cette bande de vieux rescapés coriaces n'est pas très loquace, mais j'crois que leur chemin est pavé d'audace Je voudrais faire plus ample connaissance, moi qui trouvais ma vie sans consistance Qui me comportais comme un tire-au-flanc, j'ai gagné ce concours d circonstances Du coup, ce soir, j'me lâch Oh oui Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Y'a les idoles de mon enfance, les ignorer serait une offense J'aimerais leur faire quelques offrandes mes dents de lait, du jus d'orange Mes biscuits en formes d'animaux, ma liste des plus beaux gros mots Mes Tortues Ninja, mes robots, histoire, câlin et au dodo C'est bien trop beau pour être faux, il est trop tard pour prendre l'eau Dans ce bar rempli de barjots, la folie n'est pas un fardeau J'aurais pas voté pour, mais ça vaut le détour, ça me donne envie de boire, de prolonger mon séjour Le poker, j'y connais rien mais j'ai le sourire du Joker et plus le spleen baudelairien Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Allez, on s'motive quoi On fait preuve d'un peu d'entrain et, tous ensemble, on Tape, tape, tape des mains, tout le monde tape, tape, tape des mains Encore tape, tape, tape des mains plus fort tape, tape, tape Pinocchio bluffe, ça se voit, mais je ne me moque pas Cléo se noie dans un tout petit bocal de vodka D'habitude, je bulle comme un chewing-gum, là, je rêve d'un beach-volley avec Wilson Et de boire un p'tit cocktail avec la P'tite Sirène qui est aussi borgne que pompette Mais s'apprête à péter un câble car le capitaine Achab lui fait du pied sous la table et sans que cela ne l'accable Poséidon triche en regardant sur son trident le reflet de leurs cartes tout en sifflant, Bob lui doit de l'argent Il éponge ses dettes, la Créature du lac noir surveille ce bordel comme un proxénète Jack Dawson se réchauffe, a commandé des gaufres Quelle affolante débauche, y'a que des alcoolos et des beaufs Qui n'pensent qu'à boire des coups, parler tout bas des outrages des pirates et des coups bas des rats d'égouts Le pianiste regrette son orgue, rien d'étonnant, ici, rien n'est aux normes Je les avais idéalisés, j'suis déstabilisé comme ceux qui découvraient la voix des stars du cinéma muet Faut qu'j'tourne les talons sinon j'vais trouver le temps long, vouloir accrocher du sent-bon à la moustache du baron, ouais Faut qu'j'me casse quoi...</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Le Retour d’Hélios</t>
+          <t>Les Étincelles</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Les cous se découvrent, les cuisses apparaissent La bonne humeur fait la cour à la paresse Les terrasses des cafés se garnissent, les fontaines rejaillissent Tout glisse et les draps se salissent Sur les trottoirs fleurissent deal et corruption Sur la chaussée poussent des pics de pollution Il me faut du son, des spliffs à profusion Il est trop tard pour une petite liposuccion Les stars sans talon enlèvent leurs sandales et leur pantalon Sans ostentation, mais la presse à scandales s'emballe Et embrase les gens qui bavent grave devant tant de tentation Des gars lambdas lancent la bamba sans grâce Des bandes de touristes s'entassent à l'Alhambra Bombardement de refrains stupides et fédérateurs Tandis que les radiateurs envient les ventilateurs Les kebabs deviennent les repères de Vulcain Après déjeuner, la sieste, après la sieste vient l'heure du bain Dans les transports en commun, les gens suent Plus collants qu'une horde de sangsues, quand on en sort, ça fait du bien Allongé à l'ombre, à la cool, je mate les belles poules Qui lèchent des boules de glace Toutes ses courbes m'envoûtent, un peu saoûl, je drague Je suis plus romantique quand mes bourses parlent Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, je paresse avec aisance, tout baigne Mon hémisphère se rapproche du soleil J'ai bu six bières, dans ma poche du pollen J'assiste à la renaissance soudaine de mon insolente adolescence Ouais, j'ai redécouvert mes sens, tout baigne C'matin, en ouvrant la fenêtre, le soleil avait repris ses droits J'ai eu tellement la gaule que j'arrivais plus à pisser droit J'oublierai presque que, la vie, c'est trash, que les destins sont tragiques Que la misère s'acharne sur mes cousins d'Afrique Pendant qu'des machines à fric me sodomisent pour le principe J'm'en fous, il fait beau, j'm'exhibe à la fenêtre, en slip J'me mettrais bien à poil, mais la vieille, en face, s'occupe des plantes T'imagines le choc devant un zizi qui bande ? Il fait chaud et la sève afflue à nouveau dans mes membres J'me sens comme un jeune chêne balançant ses glands auprès du vent Au creux du ventre, une envie d'sorbet citron Aujourd'hui, ne rien branler, XXX petit con Va entamer l'Picon, à quinze heure, en plein soleil Se jeter dans les buissons Bonjour, jeune perce-oreille J'fais des bisous à tout l'monde, aujourd'hui, il fait un temps radieux J'm'en fous qu'il y ait des bombes qui tombent, qu'il y ait des mômes qui crèvent Et qu'on soit vingt pour cents d'cons dans c'pays Qui dis-je ? Vingt pour cents ? Bien plus, mais bon, tant pis J'm'en fous tant qu'il y a d'la bière fraîche dans mon go-Fri' C'est pas la crise, y'a encore d'la Despe' à l'épicerie Aller pisser au bord de l'eau, sentir la bise caresser mes breloques Le plaisir simple d'admirer les belettes Petit freestyle sur un air de gratte, avec les collègues Y'a rien que j'kiffe plus dans la life, pour être honnête Hippo est revenu avec sa macédoine de légumes Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule Exit la lassitude, je souris J'avais plus l'habitude, sans souci J'ai sorti les glaçons et jeté mes cachetons Pour me dorer la pilule, toi aussi ?</t>
+          <t>On la trouve dans les yeux des bouts d'chou Dans ceux des vieux en bout d'course À bout d'souffle Elle t'émeut et t'époustoufle Elle supprime l'impossible, elle est fulgurante Qu'elle résulte du Big-Bang Ou d'un simple coup d'foudre Elle peut générer de longs débats Quand ton esprit devient gazeux Elle peut te faire crier Eurêka ! Pas besoin d'être pyrotechnicien Elle se niche dans ton cortex ou ton cerveau reptilien Elle est essentielle à ton ascension, éveille tes sens Te pousse à faire des choses démentielles sans y faire attention Sans elle, tout semblerait insipide On voudrait qu'elle scintille sans cesse Mais elle s'éteint si vite Comme une perruque dans la soupe Un oiseau dans le mazout Un clandestin dans la soute Un ? J'suis v'nu avec mes macaques C'est le haut du palmier Ti punch coco ça claque Avoue tu peux pas l'nier J'suis multivitamines, des rimes multisyllabiques Savoure ce p'tit mélange façon Michel-Ange Juste une étincelle pour tout exposer Tous les mélomanes voient leurs vux exaucés Pour décrocher la Lune avec des phases mythiques C'est L'Azraël qui r'peint la basilique Au clair de la plume j'me mets pas d'limites Transforme le plomb en or comme un alchimiste Couplet 3 Enz Gratte une allumette et mate la tête que tu tires J'aime laisser des blancs comme la merde que tu sniffes J'en fais mon affaire Mon son dans ta caisse On brûle tout en passant on replantera après Pas l'genre qu'on arrête même sous une averse Dis-moi que t'entends c'que tu as tenté Ancien jeune tard-pé On a le terroir et le patrimoine Le rap d'ici ne va pas si mal Par le vasistas Tu as une vision déformée Donc ouvre la porte et tu verras mieux par miracle j'marche À la vitesse de la lumière ils peuvent toujours courir J'parle de femmes, de moi, de vie, de fous rires Et si tu vois de la lumière qui vient des coulisses J'suis pas une étincelle Mais une étoile parmi les bougies Couplet 4 Fredo Faya Si tu parles d'incendies Sans savoir ce qui les attise Tu n'verras aucune étincelle dans mes yeux Je te méprise Tu peux pleurer toutes les larmes de ton corps et taper ta crise Si tu veux voir des étincelles mets plutôt tes doigts dans la prise Ou tes dents sur une scie Ta bouche autour d'un fusil Imbibe-toi d'essence Fais-nous un feu d'artifice Brille, vas-y faut qu't'étincelle Illumine-toi, scintille comme une princesse Je pourrais t'dire qu'elles sont dans tout, qu'elles commencent tout Te dire qu'on est rien sans elles mais, qu'est qu'tu t'en fous ? Avec ou sans elles se fera ce qui doit s'faire Tu peux éteindre la lumière j'continuerai d'y voir clair Couplet 5 Udada J'me brûle les oid', les bouts de cils à force de crépiter Ma muse elle est de celles qui brillent faites place à l'invitée J'ai nommé l'étincelle la seule que j'aime créditer De celles qui me mettent en scène quand je dois débiter Le trait d'génie, veni vidi vici L'idée face à l'énigme, la soluce dans les mythes J'suis la pierre de briquet, le pass, le ticket J'suis le claquement d'doigts, L'eurêka de Détective Mickey Un commencement, un prequel La saucisse avant l'teckel L'origine du monde, l'embrasement avant lequel Les murailles tombent en feu comme les ch'veux de Sonia Rykiel Udada comme seule étiquette Couplet 6 Abuz C'est le drame, je prends le mic' et tout crame D'abord une étincelle puis fumé comme un 12 grammes Pousse-toi avant qu'ça devienne tout crade L'espoir entre dans ta rue et dans ta bourgade Si tu te fourvoies, regarde il reste de l'amour Dans l'cur des pauvres et dans celui des bourgeois En cassation, le désespoir se pourvoie Il reste une étincelle pour que le bonheur on l'vouvoie Le monde gronde et je vois la foudre Juste une étincelle pour mettre le feu aux poudres Tout se mélange dans un dé à coudre Poudre aux yeux, voir les choses se résoudre Juste une étincelle Imaginer l'iris, une lueur en jaillit C'est l'instant que j'choisis, la volonté d'agir Comme un tour de magie encore un peu fragile C'est un feu d'artifices géant aux pieds d'argile C'est l'éclair de génie qui scintille l'zénith La lumière qui s'éteint dans l'il du sénile C'est le fracas du choix de l'idée inaudible Qui dans un cur vaillant détruira l'impossible Qu'un souffle anéantit en dispersant les poudres Mais qui s'allume dans l'il des frappés-par-la-foudre C'est le départ du feu en frottant des silex Le fruit des étincelles qui s'écrivent en dix lettres Couplet 8 Neobled Je mets le feu aux poudres Quand j'me consume dans un barillet J'suis prêt à partir dans la foudre Au loin, sans m'faire prier J'suis l'étincelle, celle qui fait la différence Qui fait l'tri, qui tranche entre savoir et ignorance J'l'exposerai, je mets au grand jour toutes mes nuances Autant faire court, l'important est d'tenir la distance S'il n'est pas d'miracle, c'est qu'ici-bas tout n'est que chimie Que tout s'imagine, s'transforme ou se modifie J'donne vie aux idées, aux théories comme celle de Newton Je suis le réflexe qui sauve dans l'arène lorsque ça bastonne J'emboîte le pas au plus profond de tous les désirs La torche dans l'ombre qui éclaire le chemin du martyr</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Le Roi de France</t>
+          <t>Le silence tue...</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Mesdames, Mesdemoiselles, Messieurs, prosternez-vous devant le roi car, après tout, c'est grâce à vous qu'il est là x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi se pavane, et la foule l'acclame Costume Armani, lunettes Dior pour sa femme Mais le roi sait causer comme le Français moyen Son style est déposé, bossé comme un Américain Toi aussi, citoyen, un jour, tu vivras dans le luxe Tu cacheras ton butin dans une banque au Benelux Mais il faut être malin, ne pas avoir de scrupule Comme le roi, tous les matins, faire du jogging en sous-pull Le roi est aimable, son sourire impeccable Il le retire régulièrement pour mâchouiller quelques syllabes Le roi divertit ses fidèles en montant sur ses grands chevaux Mais il porte, en guise de couronne, un bonnet à grelots Il saute en parachute depuis le toit de son palais Au bord de la mer, il construit des châteaux de sable en galets Et, dans un lac rempli de la sueur du contribuable À l'aide d'un trident doré, le roi pèche des dauphins gonflables Ce soir, en direct, la douche du roi Vers minuit, son altesse se mouchera Demain, sa maîtresse accouchera Mais cela ne nous regarde pas x2 Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Le roi n'a qu'à claquer des doigts, tous ses bras droits se coupent en quatre Pour l'apaiser quand il guerroie, la reine chante et joue de la harpe Notre bon roi joue au bowling avec une balle de golf Ses convictions font des loopings comme dans les bras de Morphée Oui, il jongle avec les mots mais ne contrôle pas tout On dit qu'il parle trop, moi, je dis qu'il a du bagout Il a l'art et la manière de se donner raison Expert en la matière, quelle que soit la question Le roi nous a convaincu que la France est en danger À cause de ces intrus refusant de travailler Moi, je dis qu'il a raison, mais ce que lui ne vous dit pas C'est que les fainéants en question ne sont pas toujours ceux qu'on croit Donc prosternez-vous devant le roi Car, après tout, c'est grâce à vous qu'il est là Entrez dans l'arène médiatique Matez la plastique de la reine Pas de cri, pas de haine, pas d'esprit satirique Ceux qui nous gouvernent sont des êtres sympathiques Venez vous divertir au spectacle permanent Des rampants, des vampires aux sourires étincelants Venez profiter des plus beaux duos comiques Et oubliez deux minutes qu'ils ont la bombe atomique Y'en a marre ! Y'en a marre ! Messire, messire ! Le peuple est colère ! La révolte gronde aux portes du palais ! Regardez cet homme qu'harangue la foule ! Citoyens ! Citoyens ! Écoutez-moi ! Y'en a marre ! Il a flatté lélectorat, du jeune loup au doyen Pour atteindre son but, la fin justifie les moyens Il a avoué ouvertement vouloir sasseoir sur le trône Régner sur le gouvernement tout en jouant les icônes Tous les jours à la une, le roi a promis la lune Mais il a retourné sa veste une fois son nom dans l'urne L'espoir s'est fait la belle, fini la mascarade Il promettait le Septième Ciel mais a laissé la masse en rade Le peuple descend dans la rue pour manifester sa grogne Le roi envoie les gardiens d'la couronne pour qu'ils cognent Les plus démunis en font les frais, frôlent le game over Le roi répond Mais que voulez-vous ? Pour qu'il y ait des riches, il faut des pauvres Aux mics, citoyens, ôtez tous vos baillons ! Braillons, actions, n'attendons pas 2789 pour une nouvelle révolution1</t>
+          <t>Il la touche et l'épie sous sa douche, la regarde d'un air louche En mettant son index devant sa bouche Lorsqu'il est en rut, veut jouer les brutes, essayer des trucs Que sa femme refuse que sa vie le frustre, après, il s'excuse Il a construit cette pièce au sous-sol il y a presque vingt ans La nuit, il y descend tout seul, nourrit son enfant Son bijou qu'il cache, son jouet qu'il tache, la chair De sa chair qu'il achève et chevauche sans relâche Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un homme d'un certain âge qui vit dans une maison d'retraite Perdu dans sa campagne, sa famille vit à cinq cents kilomètres Resté fidèle à ses terres, doté d'un fort tempérament Qui lui a valu un avertissement à son arrivée dans l'établissement Et, dernièrement, son état d'santé s'est aggravé Les auxiliaires le disent violent, seules ses pilules peuvent le calmer Maltraité, insulté, drogué, isolé, son destin est scellé C'est muré dans l'silence qu'il s'en est allé Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Lui n'a jamais su ce qu'elle avait vécu Pourquoi elle ne veut plus, devant lui, se mettre à nu Pourquoi ce regard vide, le soir, dans le lit Pourquoi toutes ces pensées morbides qui ne lui laissent aucun répit Elle a perdu sa joie de vivre, elle ne vit plus que dans les livres Elle se terre dans un abri fait de prises indestructibles Il a beau frapper à sa porte, elle lui a interdit d'entrer Non, elle n'est pas assez forte, elle ne peut rien lui raconter Plus les années passent, plus elle s'enfonce Sans même s'en rendre compte, elle a quitté la surface Pour devenir une ombre hantée par ses démons Elle saccommode de ce monde, ne fait de la figuration Lui a cru qu'elle allait mieux, malgré cette lueur dans ses yeux Comme si, au milieu de son cur, quelqu'un avait planté un pieu Il la trouvera au pied du lit, sans vie Ses secrets l'ont emportée, elle est partie sans bruit Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un gamin de quatorze piges, un peu rêveur et fan de catch Il aime les jeux vidéos, le foot, les soirs de grand match Il vit dans une grande tour près d'Paris avec ses parents Un jeune plein d'vie et souriant, sans problème apparent Mais, un jour de novembre, il a fini par craquer À force d'être racketté, frappé, menacé, il s'est tiré Une balle dans la tête et laisse impuni, ses agresseurs Car personne n'a su et ne saura qu'il était devenu un souffre-douleur Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Son collègue a commis l'adultère en violant Des sans-abri dans des cimetières, il l'a vu faire, il a dû s'taire Il n'en a même pas parlé à son frère, il se ferme Cachés dans sa mémoire, ses souvenirs s'amoncellent Il a peur de s'endormir, d'être emporté dans ses cauchemars Où la matraque de son collègue fracasse une mâchoire Il revoit ses grosses mains fouillant dans les poches des cadavres Il hurle en silence au milieu de mille-et-un tableaux macabres x2 Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Chut...</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Le saloon</t>
+          <t>Les Mots</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Avalé par un cachalot glouton Me voilà dans un saloon envoûtant Je n'suis pas là pour soulever des croupions Mais j'vais sans doute m'y saouler en gloussant C'est assez cocasse, dans le ventre de ce cétacé vorace Cette bande de vieux rescapés coriaces n'est pas très loquace, mais j'crois que leur chemin est pavé d'audace Je voudrais faire plus ample connaissance, moi qui trouvais ma vie sans consistance Qui me comportais comme un tire-au-flanc, j'ai gagné ce concours d circonstances Du coup, ce soir, j'me lâch Oh oui Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Y'a les idoles de mon enfance, les ignorer serait une offense J'aimerais leur faire quelques offrandes mes dents de lait, du jus d'orange Mes biscuits en formes d'animaux, ma liste des plus beaux gros mots Mes Tortues Ninja, mes robots, histoire, câlin et au dodo C'est bien trop beau pour être faux, il est trop tard pour prendre l'eau Dans ce bar rempli de barjots, la folie n'est pas un fardeau J'aurais pas voté pour, mais ça vaut le détour, ça me donne envie de boire, de prolonger mon séjour Le poker, j'y connais rien mais j'ai le sourire du Joker et plus le spleen baudelairien Au chaud, chez moi, sous mon plaid, sans complexe Pour me faire sortir, faut des forceps Mais, coincé dans ce bar, je décompresse yi-hah J'vais m'dévergonder, dompter mon stress Allez, on s'motive quoi On fait preuve d'un peu d'entrain et, tous ensemble, on Tape, tape, tape des mains, tout le monde tape, tape, tape des mains Encore tape, tape, tape des mains plus fort tape, tape, tape Pinocchio bluffe, ça se voit, mais je ne me moque pas Cléo se noie dans un tout petit bocal de vodka D'habitude, je bulle comme un chewing-gum, là, je rêve d'un beach-volley avec Wilson Et de boire un p'tit cocktail avec la P'tite Sirène qui est aussi borgne que pompette Mais s'apprête à péter un câble car le capitaine Achab lui fait du pied sous la table et sans que cela ne l'accable Poséidon triche en regardant sur son trident le reflet de leurs cartes tout en sifflant, Bob lui doit de l'argent Il éponge ses dettes, la Créature du lac noir surveille ce bordel comme un proxénète Jack Dawson se réchauffe, a commandé des gaufres Quelle affolante débauche, y'a que des alcoolos et des beaufs Qui n'pensent qu'à boire des coups, parler tout bas des outrages des pirates et des coups bas des rats d'égouts Le pianiste regrette son orgue, rien d'étonnant, ici, rien n'est aux normes Je les avais idéalisés, j'suis déstabilisé comme ceux qui découvraient la voix des stars du cinéma muet Faut qu'j'tourne les talons sinon j'vais trouver le temps long, vouloir accrocher du sent-bon à la moustache du baron, ouais Faut qu'j'me casse quoi...</t>
+          <t>Tu cries jusqu'à c'que tes pulsions soient assouvies Puis adoucies, tu t'assoupis dans les bras de tes parents Dont les paupières sont alourdies, et qui sourient En écoutant ton gazouillis Perdu dans une forêt de mots, tu babilles Mis bout à bout, ces mots se mettent à danser la chenille Le papillon virevolte enfin, tu t'exprimes Tes émotions sont nues, tes phrases les habillent Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Tu t'enfermes dans les formes, tu t'affirmes Tu gamberges avant de parler, t'es fragile Tu te vantes, tu te vends, tu te défonces, tu t'effondres Ou te défends mais, dans le fond, tu ne fais que brasser du vent T'as rencontré cette princesse lors d'un séminaire Tu voudrais lui dire Je t'aime, mais tu tergiverses Sa voix agit sur toi comme une bouillotte en plein hiver Ton blabla ne traduit pas c'qui s'cache sous ton épiderme Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Le disque dur est plein, ta mémoire fuit Les mots semmêlent, s'éparpillent et tu t'ennuies Les jeunes gens utilisent un argot qui t'échappe Tu les écoutes remodeler ta langue, assis dans des parcs Tu ressasses le passé, tu t'y agrippes Tu lègues au monde des expressions migratrices Tes descendants pourront en savourer l'écho Tu balbuties, mais choisis bien ton dernier mot</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Les Étincelles</t>
+          <t>Les toits de ma ville</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>On la trouve dans les yeux des bouts d'chou Dans ceux des vieux en bout d'course À bout d'souffle Elle t'émeut et t'époustoufle Elle supprime l'impossible, elle est fulgurante Qu'elle résulte du Big-Bang Ou d'un simple coup d'foudre Elle peut générer de longs débats Quand ton esprit devient gazeux Elle peut te faire crier Eurêka ! Pas besoin d'être pyrotechnicien Elle se niche dans ton cortex ou ton cerveau reptilien Elle est essentielle à ton ascension, éveille tes sens Te pousse à faire des choses démentielles sans y faire attention Sans elle, tout semblerait insipide On voudrait qu'elle scintille sans cesse Mais elle s'éteint si vite Comme une perruque dans la soupe Un oiseau dans le mazout Un clandestin dans la soute Un ? J'suis v'nu avec mes macaques C'est le haut du palmier Ti punch coco ça claque Avoue tu peux pas l'nier J'suis multivitamines, des rimes multisyllabiques Savoure ce p'tit mélange façon Michel-Ange Juste une étincelle pour tout exposer Tous les mélomanes voient leurs vux exaucés Pour décrocher la Lune avec des phases mythiques C'est L'Azraël qui r'peint la basilique Au clair de la plume j'me mets pas d'limites Transforme le plomb en or comme un alchimiste Couplet 3 Enz Gratte une allumette et mate la tête que tu tires J'aime laisser des blancs comme la merde que tu sniffes J'en fais mon affaire Mon son dans ta caisse On brûle tout en passant on replantera après Pas l'genre qu'on arrête même sous une averse Dis-moi que t'entends c'que tu as tenté Ancien jeune tard-pé On a le terroir et le patrimoine Le rap d'ici ne va pas si mal Par le vasistas Tu as une vision déformée Donc ouvre la porte et tu verras mieux par miracle j'marche À la vitesse de la lumière ils peuvent toujours courir J'parle de femmes, de moi, de vie, de fous rires Et si tu vois de la lumière qui vient des coulisses J'suis pas une étincelle Mais une étoile parmi les bougies Couplet 4 Fredo Faya Si tu parles d'incendies Sans savoir ce qui les attise Tu n'verras aucune étincelle dans mes yeux Je te méprise Tu peux pleurer toutes les larmes de ton corps et taper ta crise Si tu veux voir des étincelles mets plutôt tes doigts dans la prise Ou tes dents sur une scie Ta bouche autour d'un fusil Imbibe-toi d'essence Fais-nous un feu d'artifice Brille, vas-y faut qu't'étincelle Illumine-toi, scintille comme une princesse Je pourrais t'dire qu'elles sont dans tout, qu'elles commencent tout Te dire qu'on est rien sans elles mais, qu'est qu'tu t'en fous ? Avec ou sans elles se fera ce qui doit s'faire Tu peux éteindre la lumière j'continuerai d'y voir clair Couplet 5 Udada J'me brûle les oid', les bouts de cils à force de crépiter Ma muse elle est de celles qui brillent faites place à l'invitée J'ai nommé l'étincelle la seule que j'aime créditer De celles qui me mettent en scène quand je dois débiter Le trait d'génie, veni vidi vici L'idée face à l'énigme, la soluce dans les mythes J'suis la pierre de briquet, le pass, le ticket J'suis le claquement d'doigts, L'eurêka de Détective Mickey Un commencement, un prequel La saucisse avant l'teckel L'origine du monde, l'embrasement avant lequel Les murailles tombent en feu comme les ch'veux de Sonia Rykiel Udada comme seule étiquette Couplet 6 Abuz C'est le drame, je prends le mic' et tout crame D'abord une étincelle puis fumé comme un 12 grammes Pousse-toi avant qu'ça devienne tout crade L'espoir entre dans ta rue et dans ta bourgade Si tu te fourvoies, regarde il reste de l'amour Dans l'cur des pauvres et dans celui des bourgeois En cassation, le désespoir se pourvoie Il reste une étincelle pour que le bonheur on l'vouvoie Le monde gronde et je vois la foudre Juste une étincelle pour mettre le feu aux poudres Tout se mélange dans un dé à coudre Poudre aux yeux, voir les choses se résoudre Juste une étincelle Imaginer l'iris, une lueur en jaillit C'est l'instant que j'choisis, la volonté d'agir Comme un tour de magie encore un peu fragile C'est un feu d'artifices géant aux pieds d'argile C'est l'éclair de génie qui scintille l'zénith La lumière qui s'éteint dans l'il du sénile C'est le fracas du choix de l'idée inaudible Qui dans un cur vaillant détruira l'impossible Qu'un souffle anéantit en dispersant les poudres Mais qui s'allume dans l'il des frappés-par-la-foudre C'est le départ du feu en frottant des silex Le fruit des étincelles qui s'écrivent en dix lettres Couplet 8 Neobled Je mets le feu aux poudres Quand j'me consume dans un barillet J'suis prêt à partir dans la foudre Au loin, sans m'faire prier J'suis l'étincelle, celle qui fait la différence Qui fait l'tri, qui tranche entre savoir et ignorance J'l'exposerai, je mets au grand jour toutes mes nuances Autant faire court, l'important est d'tenir la distance S'il n'est pas d'miracle, c'est qu'ici-bas tout n'est que chimie Que tout s'imagine, s'transforme ou se modifie J'donne vie aux idées, aux théories comme celle de Newton Je suis le réflexe qui sauve dans l'arène lorsque ça bastonne J'emboîte le pas au plus profond de tous les désirs La torche dans l'ombre qui éclaire le chemin du martyr</t>
+          <t>La nuit, ma ville s'illumine, je m'exile sur les toits Piétine les tuiles, puis m'assois Les pieds dans le vide, je défie le vertige La brise m'électrise, tout s'éclaircit, et là Je m'adonne au voyeurisme, adossé à des cheminées Pardonnez-moi ce vice La vie des inconnus m'intrigue, s'imprime sous mes paupières Ce qui se trame dans vos chaumières est plus palpitant qu'un film J'admire l'odyssée quotidienne Que les gens s'aiment ou se bastonnent élémentaire mon cher Watson ! J'gravis les échafaudages, m'étale sur les toits Ravi même les soirs d'orages, la pluie me nettoie J'ai une barbe blanche, on me prend pour le Père Noël Ou un ramoneur ventripotent se tripotant l'cornet J'reste sur le qui-vive comme un espion quand il dort La vie est une réponse à une question qu'on ignore Ourlet sur le bas du jean, chaussettes blanches Mèche plaquée sous mon bonnet bleu, peu onéreux Dans les rayons d'un soleil rasant, la rue s'anime Cadence abstraite sur un bitume abîmé Vertige chromatique, psychosomatique Est mon état, je détale, calme, je m'étale Dans les profondeurs de l'horizon J'avance en transe dans un présent moribond Puis, là où le ciel orange se mêle au rose y dépose mes 'yeuz' Dans une pose veilleuse, me met en pause Peu à peu m'expose, dans un soleil fuyant Face au noir bruyant, que des lumières explosent Seul, loin du sol, les étoiles m'habillent Isolé, serein, sur un des toits d'ma ville Accompagné par les mouvements du vent La hauteur m'a séparé doucement du temps Plus tard, j'étais lancé D'un pas élancé, j'avançais Dans mes pensées, démarche insensée Je dansais</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Le silence tue...</t>
+          <t>Le Vertige de la maturité</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Il la touche et l'épie sous sa douche, la regarde d'un air louche En mettant son index devant sa bouche Lorsqu'il est en rut, veut jouer les brutes, essayer des trucs Que sa femme refuse que sa vie le frustre, après, il s'excuse Il a construit cette pièce au sous-sol il y a presque vingt ans La nuit, il y descend tout seul, nourrit son enfant Son bijou qu'il cache, son jouet qu'il tache, la chair De sa chair qu'il achève et chevauche sans relâche Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un homme d'un certain âge qui vit dans une maison d'retraite Perdu dans sa campagne, sa famille vit à cinq cents kilomètres Resté fidèle à ses terres, doté d'un fort tempérament Qui lui a valu un avertissement à son arrivée dans l'établissement Et, dernièrement, son état d'santé s'est aggravé Les auxiliaires le disent violent, seules ses pilules peuvent le calmer Maltraité, insulté, drogué, isolé, son destin est scellé C'est muré dans l'silence qu'il s'en est allé Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Lui n'a jamais su ce qu'elle avait vécu Pourquoi elle ne veut plus, devant lui, se mettre à nu Pourquoi ce regard vide, le soir, dans le lit Pourquoi toutes ces pensées morbides qui ne lui laissent aucun répit Elle a perdu sa joie de vivre, elle ne vit plus que dans les livres Elle se terre dans un abri fait de prises indestructibles Il a beau frapper à sa porte, elle lui a interdit d'entrer Non, elle n'est pas assez forte, elle ne peut rien lui raconter Plus les années passent, plus elle s'enfonce Sans même s'en rendre compte, elle a quitté la surface Pour devenir une ombre hantée par ses démons Elle saccommode de ce monde, ne fait de la figuration Lui a cru qu'elle allait mieux, malgré cette lueur dans ses yeux Comme si, au milieu de son cur, quelqu'un avait planté un pieu Il la trouvera au pied du lit, sans vie Ses secrets l'ont emportée, elle est partie sans bruit Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? C'est un gamin de quatorze piges, un peu rêveur et fan de catch Il aime les jeux vidéos, le foot, les soirs de grand match Il vit dans une grande tour près d'Paris avec ses parents Un jeune plein d'vie et souriant, sans problème apparent Mais, un jour de novembre, il a fini par craquer À force d'être racketté, frappé, menacé, il s'est tiré Une balle dans la tête et laisse impuni, ses agresseurs Car personne n'a su et ne saura qu'il était devenu un souffre-douleur Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Son collègue a commis l'adultère en violant Des sans-abri dans des cimetières, il l'a vu faire, il a dû s'taire Il n'en a même pas parlé à son frère, il se ferme Cachés dans sa mémoire, ses souvenirs s'amoncellent Il a peur de s'endormir, d'être emporté dans ses cauchemars Où la matraque de son collègue fracasse une mâchoire Il revoit ses grosses mains fouillant dans les poches des cadavres Il hurle en silence au milieu de mille-et-un tableaux macabres x2 Le silence tue Le silence tue, qu'en penses-tu ? Le silence tue Le silence tue, qu'en penses-tu ? Chut...</t>
+          <t>Aujourd'hui, pas de vidéo, pas de rap, je fais grève J'me sens lucide et faible, pleurer me ferait du bien mais mes yeux sont secs Je crée pour oublier que je n'suis qu'un simple mortel Que l'être humain est profondément cruel et le monde un sacré bordel Quand j'me sens menacé, j'me réfugie dans une bulle en acier Me nourris d'images, de rythmes et de mots, l'art et la drogue sont mes alliés Mon univers est féerique J'admire des courses de trottinettes sur le périphérique Joue à cache-cache avec l'homme invisible Dessine des marelles spiraliques au centre de l'ensemble vide J'ai souvent l'impression d'être hermétique ou égoïste En fait, j'ensevelis mes émotions quand la vie est trop triste Elles resurgissent toujours plus tard, dans mon imaginaire D'ailleurs hier soir, j'ai fait un rêve Un enfant grimpait à une échelle et au fur et à mesure qu'il grimpait, il grandissait Et se rendait compte qu'on avait scié les barreaux sur lesquels il venait de poser ses pieds Il ne pouvait plus redescendre Alors, il continuait de grimper, lentement À un moment, en regardant en bas, il apercevait les vestiges de son passé Et ressentait pour la première fois, le vertige de la maturité Il finissait par atteindre un grenier haut-perché Y pénétrait à petits pas, réapprenait à marcher Puis allumait un vieux poste de radio d'où émergeait le son de ses souvenirs Et pour ne pas entendre la mort gratter à la porte, il mettait le volume à fond Esquissait un sourire Putain, ça fait mal de grandir, de voir s'écrouler son empire Hors de ma bulle, mon ventre me brûle, faut croire qu'j'arrive quand même à ressentir Je dédie ces paroles à mon père que je découvre à peine C'est lui qui fait pleurer cette guitare, on a répété ça cet après-m'</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Les Miss et les maçons...</t>
+          <t>Le Visiteur</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Jwles - Ticket Gagnant Freestyle - 0101 San-Nom - Les plus beaux - 0201 BEN plg - Freestyle Bateau dans le ciel - 0301 Kalash Criminel - Une bonne santé et grave des lards - 0401 Dany Dan Kyo Itachi - Mon territoire - 0401 thaHomey - Grove - 0401 T.I.S - Action Man - 0501 ADVM - .olala. - 0501 Bavaz - Jeunes Beaux - 0501 Bob Marlich - Apaise ton cur - 0501 D. Ace - Nostalgique - 0501 Dexter HMC - Vendeur de stup IGTV 8 - 0501 Kaza - CONNEXION - 0501 Kerchak - 2006 Opps qui court - 0501 Larry - BATMAN - 0501 Liim's - Gobelet ft. Ibrak - 0501 Roméo Elvis - Tadumal ft. dreamcastmoe - 0501 Sheu - Pascal OP - 0501 V2 Almz - 10G - 0501 VVES - Fin de vie - 1001 2C Tali - Bank Acc - 1001 8ruki - OK LETs go!! - 1001 Kepler - T'es fou ou quoi ? ft. Frsh laDouille - 1001 Saïf - Instanonymat 5 - 1001 Sokuu - MORTELLE - 1001 YL - Larlar 10 Pardon - 1001 Yvnnis - LE PIÈGE - 1101 Benjamin Epps - RESTE DANS TA MERDE - 1101 BEN plg - Colorier ds HLM ft .Georgio - 1101 DosPunto - POISON ft. SCH - 1101 Ry's - Téléphérique - 1101 Spider ZED - En légende - 1101 Uzibinski - Hoodtsar - 1101 Yassine Stein - taj mahal - 1101 Zamdane - Mélancolie criminelle ft. Sofiane Pamart - 1101 Zkr - Freestyle 5min 13 - 1201 ADÉS THE PLANET - BI - 1201 Benab - Motaz Azaiza - 1201 Cheval Blanc - JERSEY NOIRE - 1201 Demi Portion - Gangstarr ft. Souffrance - 1201 Féfé - Baladeur ft. Akhenaton - 1201 Gama Boonta - AFRICAN HUULIGAN - 1201 Kima - BBL - 1201 KLM - ADN - 1201 Kofs - XADV - 1201 KPoint - Solide - 1201 La Crapule - Sa passe en i ft. Zitoune 1201 Lamatrix - MODE RACE - 1201 Meryl - Ton ami ft. Josman - 1201 MC Solaar - Pierre-feuille - 1201 Misa - Facettes - 1201 Obia le Chef - Oseille des françs-maçons ft. Rowjay - 1201 Skefre - TRAPULEUX 2 - 1201 Slimka - Mystico - 1201 Uzi - CITÉS DE FRANCE - 1201 Zola Koba LaD - Temps en temps - 1501 Teklam - Roadtrip - 1601 S-Tee - THERAPY - 1701 404Billy - PINOCCHIO EPEMBIA - 1701 Amine D1 - Dans le vide ft. Many Santana - 1701 Jaymee - 3K - 1701 Le Juiice - Gospel - 1701 Papi Teddy Bear Pense - Qishui - 1701 sean - FEUILLE SHIT CLOPE - 1701 Yovo DIOGENES - Clara M. - 1801 Badrito - Nether - 1801 Dau - MOSHPIT - 1801 Jäde - Tranquille - 1801 Lesram - Question 1801 Nyda - C'est pas comme ça ! ft. Cinco 1901 Andos - Ensemble - 1901 Doria - Déter ft. Soolking - 1901 Emkal - Pépita - 1901 Espiiem - ROI DU SILENCE 1901 Fresh - PROBLEM - 1901 Fresh laDouille - Ganté - 1901 Gambino La MG - 91 - 1901 Gips - Prototype - 1901 Hayce Lemsi - Quinte Flush 1901 KR Malsain - Cómo te llamas - 1901 Lala ce - Jalouse - 1901 Lazzio - BIRKIN - 1901 Le Juiice - Gospel - 1901 Loud - Prime ft. EDGE - 1901 Mac Tyer - Dope Boyz - 1901 Naza - Lamborghini 1901 N'seven7 - Racaille - 1901 Reda - En interne ft. Sadek - 1901 Roshi Shaz - Black Pearl - 1901 Ruff - AIGRI DOUX - 1901 CO - DE L'AUTRE COTÉ ft. AAMO Moe DAmour - 1901 Sokra - GTA - 1901 S.Pri Noir - Kawasaki ft. Laylow - 1901 TH - OVNI - 1901 Zaky - ELEMENT - 2001 Saïf - Instanonymat 6 Hors-Série - 2101 Drosan - ZIN1 XAVIER - 2101 Vîrus - Mouton Cadet - 2201 Sherifflazone - AMIRI - 2301 L2B - Hors la loi ft. La Mano 1.9 - 2301 Lucio Bukowski Mani Deïz - Grande Vie - 2301 Pato - LFP 3 Brigade Fantôme ft. Saïf - 2401 Batbat - Dopé - 2401 Celestino, Damlif Toboë - g perdu - 2401 Farloski - NORMAL - 2401 Good Bana - Encore - 2401 LEVELSANTANA - 0 flash - 2401 menace Santana - Adrenalean - 2401 Pato - LFP 4 Tentations - 2401 Rounhaa - LOVE DEATH ROBOTS - 2401 slump. - P.I.L.M. - 2501 Cheval Blanc - CARTE POSTALE 2501 F.L.O - SPACE CAKE - 2501 Hotel Paradisio - CULEBRA PEAK - 2501 J2LASTEU - Grenata - 2501 Le Règlement - Stadium ft. Kerchak 2601 2 Mètres - Hwasong 17 - 2601 Cellulaire - BELLE BRUNE - 2601 Gambino - Picoler - 2601 GIMS - LOCO ft. LOSSA - 2601 Heuss L'enfoiré - Souvenir ft. DYSTINCT Unleaded - 2601 Jeune Morty - Souljah - 2601 JKSN - Seine-Saint-Denis - 2601 KESPAR - Massai ft. L'apprenti - 2601 Keuchei - Position d'attente - 2601 Lamatrix - VDM ft. Leto - 2601 Lester - messes basses - 2601 Livaï Cosmo - la torche - 2601 Luciano Niska - Blue Porsche - 2601 Nusky - Ciment - 2601 PURP - Minimat - 2601 Roshi Shaz - CODE 9 - 2601 Sirap - Princess - 2601 Stavo - ETC - 2601 Steban - Hazi Life - 2701 Livaï Cosmo - La torche - 2801 Beeby - HIVER 2020 4 - 2801 Lp2.0 - Mentale 2 Batard 4 - 2901 Yovo DIOGENES - CODE BRZ - 3101 Folie's - Nymphomaniac - 3101 GEMEN - GoneSouth 1 - BIENVENUE À LYON - 3101 Henri Bleu - 2 Corbeaux ft. M le Maudit - 3101 JYEUHAIR - ÇA VA ALLER - 3101 Ninho - 3 MAI 2025 - 3101 Rim'K - Jour de pluie - 3101 S-TEE - JEEP Février - 0102 AnNie .Adaa - SATURÉ - 0102 Liim's - Shatta 0102 Triplego - Huracán - 0102 Vin's - Météores - 0102 Zamdane - Printemps - 0202 Booba - 6G - 0202 CHAM rapper - Scénario ft. Tedax Max Akhenaton - 0202 Doria - Porte Maillot - 0202 Fresh laDouille - Indigent - 0202 Genesys MOB - Dernière fois - 0202 GLK - OK - 0202 Hatik - JUNGLE - 0202 Jungeli - T'étais où ? ft. Vegendream, Alonzo Zaho - 0202 Lapostroz - GRAVVITE - 0202 Misa - ZOOM X4 - 0202 Rafal - ROMEO - 0202 Soleil Noir - La Moisson - 0202 Soolking - Tiki Taka ft. SCH - 0202 Venom Cz - ETHER - 0202 SOPA - TOUT SEUL DANS LE NEANT - 0302 La Hasba22 - Freestyle COPS - 0302 Sheng - DIS-MOI PK ?! - 0502 Luther - ROUGE GORON - 0702 GEMEN - GoneSouth 2 - UBER FUME - 0702 Nobodylikesbirdie - RX Birdie - 0702 sean - LÈVE TON DOIGT - 0702 Theodora - FNG - 0702 Werenoi - 16.02.2024 - 0702 YL - Dommage ft. Anas 0802 AM La Scampia - Comme en 2007 - 0802 BKRBABYBOY - DREAM - 0802 Elyon - Ouverture 0802 GR OMEGA - CYCLOPE 0802 J2LASTEU - King - 0802 Sto - BERLIN DriftMusic2 - 0902 34murphy - 2424 - 0902 arøne - en - 0902 Benab - Potentiel 0902 Brav - Reste au lit - 0902 Chany Z - FAM - 0902 Cheval Blanc - PAS D'ACCORD - 0902 Deadi - Courave ft. L'uZine 0902 Dofla - A RISQUE ft. Lyre - 0902 Elh Kmer - Police Tue - 0902 Fresh - FUMAR MATA ft. Gotti Maras - 0902 H.LA DROGUE - Seklenland - Pt.9 - 0902 Infinit' - 888 FREESTYLE - 0902 Kalash Criminel - VIENS QUE J'TE FRAPPE 0902 Kima - SALACE - 0902 kobzx2z - dans tes bras ft. mikeeysmind 0902 KPoint - PLT 0902 KR Malsain - Remontada - 0902 La F - Appel masqué 11 - 0902 La Mano 1.9 - GRAAH ! - 0902 La Plaie - En Méchant - 0902 Sasso - Livraisons ft. Mig - 0902 WarEnd - Froid - 1002 Furlax - .Libre. vide ft. Advm - 1302 Chanceko - ILY - 1302 Eline - Si demain je t'aime - 1302 FEDALL - SPIRIT OF - 1302 Sameer Ahmad - Vivarium - 1402 Amine D1 - Temps que je perds ft. Abou Tall - 1402 Daej Phantom - Joel Gwadada - 1402 Gemen - GoneSouth 3 - FEEL GOOD - 1402 Grems - Vie Compte - 1402 Infinit' - Mc Gregor ft. Alpha Wann Rim'K 1402 Ymer - Porte-bonheur - 1502 Elyon - Ne m'aimez pas - 1502 Heykel - Participer - 1502 KLM - À fond - 1502 RK - 38 Freestyle - 1602 Big Ben - Changement - 1602 Davodka - S au S - 1602 FXLL - OHx3 ft. Cashmire - 1602 Gen - Polaire - 1602 Jaïa Rose - Poster - 1602 Kamas Skuh - J'disparais dans l'noir ft. Lamatrix - 1602 Kofs - Désolé ft. Miami Yacine Stef Becker - 1602 Leys - Jeudi FTC - 1602 Mac Tyer - DERRIÈRE TOUT ÇA - 1602 Misa - 2 Épaules 1 Tête 1602 Mortalla - Can-Am ft. Mougli - 1602 MVSHY - Si il fallait faire ft. Arso911 - 1602 Sazamyzy - Boss Life ft. Enima - 1602 Skefre - TRAPULEUX 3 1602 Skima - MVP - 1602 Soala - Premier - 1802 NDO Runway - Rocky - 2002 nelick - POLAIRE - 2102 3arbi - La Zip La Zik ft. Diddi Trix - 2102 Gemen - GoneSouth 4 - LES YEUX QUI BRILLENT - 2102 Keuchei - Crapuleux ft. Fresh laDouille - 2102 Malo - PAS DE SEMBLANT - 2102 Sherifflazone - TRAPMONEYBIGGIE - 2102 Squall P - LYN TO SOHO - 2202 ADÉS THE PLANET - PIRATE 2202 AM la Scampia - Vatos - 2202 Buhi - What We Doing!? Qu'est-ce qu'on fait!? ft. Quavo - 2202 Enima - Noise ft. ASHE 22 - 2202 Luther - MOSSY COBBLESTONE - 2202 Malty 2BZ - Boombap - 2202 Prime - Fame 2202 PURP - BAG - 2202 Rsko - BOOM BOOM ft. IDS - 2202 Toam - Les Vitres et Les Plafonds - 2202 Vin's - Little Boy - 2302 Absolem - hors de moi ft. JeanJass - 2302 Bekar - Plus fort - 2302 Cheval Blanc - RAT RACE - 2302 Farloski - LA MÈCHE 2302 FAYV - YAMAHA ft. Kofs - 2302 Gambino - Street - 2302 GIMS - MA DOUCE ft. Baby Gang - 2302 Gros Mo - Prédatrice - 2302 H Magnum - Afro binks - 2302 Kery James - JE NE PLAISANTE PAS - 2302 Lamatrix - MAUVAIS PROFIL ft. Ninho - 2302 Légendes Industries - Boussa ft. Nayra - 2302 MC Solaar - Ils dansent - 2302 Mitch - STAYA - 2302 Sokra - Roska - 2302 Steban - Skimask - 2302 Suzuya - Mort-vivant - 2302 Tyranik - La Cause - 2402 Black Jack - Stratagème ft. Madrane - 2402 Josman - My love ft. Tayc - 2502 Mandyspie - COOL KID 2602 HoussBad - Gas ft. Take A Mic - 2602 Teklam - Ost ft. AAMO - 2702 Jeune Lion - Molly Dolly - 2702 Zamdane - Monstres - 2802 AAMO - DANS L'TRAP - 2802 Batbat - Voyou 2802 Fresh laDouille - ADN - 2802 Gemen - GoneSouth 5 - PAS UN MOT D'ANGLAIS - 2802 Jayel - Habiba - 2802 Many Santana - Paname c'est tragique - 2802 Sabuu - toxique - 2802 TVMO - Tiger Woods - 2902 Daej Phantom - Baby Boy 2902 Elso - Nerveux - 2902 Josué - Fils de 2902 JRK 19 - SUBMVRINER - 2902 Leys - Je suis - 2902 Maes - 4MOTION ft. PLK 2902 Nessbeal - Ecchymose - 2902 Shien - Obsession - 2902 Smeels - GOLDIE Mars - 0103 34murphy - gunz 0103 Andos - Mal luné 7 - 0103 AYMCE - PROBLEMS 0103 Dima - pas présentable - 0103 Hatik - LE FOND ft. Zokush - 0103 Leys - Je suis - 0103 Liim's - P.A.M.P ft. La Mano 1.9 - 0103 Lyele - ft. La Fève - 0103 OSO - L.A - 0103 Pex - ASTRONAUTE - 0103 Rafal - ONE ONE - 0103 Raplume - Bois-Colombes ft. Kerchak, Jolagreen23, Mitch, Kabbsky, Buû Ydasevic - 0103 Rim'K - Tant pis ft. TIF Sofiane Pamart 0103 Rouge Carmin - ROUGE TAGADA - 0103 Sameer Ahmad - LVBF ft. okis 0103 The Free - 3-4 sa mère - 0403 Peet - Aquemini - 0503 Drosan - ZIN2 CAGE - 0603 Falcko - Yeux rouges - 0603 Gemen - GoneSouth 6 - SCHOOL SHOOTER ft. okis - 0603 Henri Bleu - Vagues - 0603 Iss - Salvatore - 0603 Lacrim - CORLEONE II - 0603 Yassine Stein - bouskoura - 0603 Zitoune - La mentale ft. Mecra - 0603 zonmai - Boom Boom - 0703 AnNie .Adaa - GLACÉ 0703 Dadinho - Coeur Nwar - 0703 gapman - Step ft. ASHE 22 - 0703 Josas - Insuline - 0703 La Hasba22 - IMPACT ft. KLS - 0703 Nobodylikesbirdie - Ariel Helwani - 0703 Ratu - LARMÉE DES RATS - 0703 Stavo - Mallette - 0703 Venti - makila - 0803 CAPUH - J'VOULAIS DES NIKES - 0803 DA Uzi - Michael Jordan - 0803 DIL - DEATH ROW ft. Chakir - 0803 Dr. Yaro La Folie - Bizari 0803 Ekloz - 7Shit 0803 Gambino La MG - Nord-Kivu - 0803 Kaaris - Clique - 0803 KPoint - Stone ft. L2B - 0803 Kpri - L.C.E - 0803 La F - Plata ft. Jozii - 0803 MadeInParis - No cap ft. Draco Dans Ta Face - 0803 Mola - Ice Spice - 0803 Naza - J'ai mal - 0803 Nono La Grinta - 6AM 0803 Skefre - TRAPULEUX 4 ft. Oldpee 0803 Slkrack - Rentrée d'argent - 0803 Tedax Max - BBL - 0803 Vacra - Yoga ft. Josman 1003 Andos - Malsain - 1003 Sheu - BTC - 1003 Yorssy - Pop mok - 1303 Jäde - Get out ft. Zamdane - 1303 Keroué JeanJass - Okocha - 1303 Meryl - Dernière Escale - 1303 Rowjay - ROWZIN 2 ft. Jwles - 1403 Ibepds - deadline ft. BUHI Mussy - 1403 Keeqaid - Pics - 1403 Sadandsolo - KODAK - 1403 Soprano - C24 - 1503 Absolem - abso skit part 2 - 1503 Cheval Blanc - TÉLÉPHONE PIÉGÉ - 1503 Davodka - Arc en ciel - 1503 Deadi - Repeat - 1503 Djibso - Zombie - 1503 Hotel Paradisio - ALCHIMISTE ft. Ashh - 1503 Jok'Air - Cramer - 1503 La Famax - Autour de moi - 1503 LEVELSANTANA - MI AMOR ft. Bianca Costa - 1503 Saiba - JET ! - 1503 Spider ZED - Prends le bien - 1503 Strano - YTP FLOW - 1703 La Mano 1.9 - La Mano dans la mallette ft. DVGZ 1803 Kima - Survivre - 2003 Coton Blanc - Selfmade - 2003 Farloski - MODE SPORT - 2003 Jeune Observateur - G LA N - 2003 Jey Brownie - Mélodie céleste - 2003 Sherifflazone - WHITE - 2003 Theodora - Blues d'hiver - 2103 AAMO - CHARBONNER OU PRIER - 2103 BEN plg - Guerres de pissenlits - 2103 Dau - JE N'SAIS PAS - 2103 Green Montana - phileas fogg - 2103 Loud - C'est pas ce que tu penses ft. Lary Kidd Ajust - 2103 Peet - Toucher du bois - 2103 Shien - Flou - 2203 Cellulaire - VISION CLAIRE - 2203 Malty 2BZ - Détail - 2203 Nakry - Dans le Réseau - 2203 Prinzly - OBSCENE - 2203 RESELL - BIG JOUJOU - 2203 Rouge Carmin - NOUVEAU HENDRIX - 2603 Bob Marlich - Kiwi 2703 Coyote Jo Bastard - FIER - 2803 AYMCE - P!NK - 2803 Green Montana - ishtar - 2803 Gros Mo - L.A - 2803 V3RTIGO - 21 21 - 2803 Vîrus - La Cour - 2903 GRËJ - Pas mal pour un immigré - 2903 HD La Relève - Mauve - 2903 Hugo TSR - La Pluie 2903 Jwles - J'ai ça - 2903 LUMJR - BAG - 2903 Michel - Jeudi minuit - 2903 Surprise - Pas différente - 2903 Tedax Max - Dernier prêche - 2903 Vegedream - Matata ft. Kaaris Kerchak Avril - 0204 Elyon - L'autre toi - 0304 Henri Bleu - Si il caille - 0304 HIBA Lyes Kaci - plantes grasses - 0304 Zoomy - BRIGANTÉ - 0404 AnNie .Adaa - DOGMAN - 0404 Sadandsolo - SI JE PARS - 0504 Bolémvn - C'est toi ft. Wareen Saada - 0504 Linton - 2019 - 0504 Max D. Carter - Si Sexy - 0504 Momsii - YSL Polo - 0504 paulvitesse! - anyway - 0504 Rafal - ELLES M'AIMENT - 0704 Beeby - Le Cycle Eternel - 1004 Kahra - NAPOLÉON III - 1004 Realo - BORDERLINE ft. Deelee S - 1104 Enima - Go Mode - 1104 gapman - B.A.B - 1104 Guy2Bezbar - TAPIE - 1104 Jaywill - OCARINA FOREST - 1104 Kima - En Balade ft. Kalash 1104 Le Lij - 9 sur 10 ft. Jwles - 1104 Ratu - DEMAIN - 1104 Zequin - Bora Bora - 1204 Akkai - LVNFPDC - 1204 Big Ben - Besoin - 1204 Chily - Radio au tarmi - 1204 GAZY MP - Money Fast - 1204 Hooss - L'épreuve du feu - 1204 Keeqaid - Chose 1204 K.S.A - Intercite - 1204 LATATPA1.3 - DFB - 1204 LY - Eden - 1204 Misa - Go! 1204 Rouge Carmin - APPEL MANQUÉ - 1204 SOPA - J'CONNAIS PAS LE SOLEIL - 1404 Stavo - Bipolarité - 1504 Deadi - 78 - 1504 Drosan - ZIN3 TRAP2ZIN - 1504 Zitoune - Ce jeune part. 3 ft. Iyad - 1604 Myth Syzer - 19 FÉVRIER NYC - 1704 8ruki - JEFF BEZOS!! - 1704 Baby Neelou - Copernic - 1704 Batbat - Les vitesses ft. La Honda 19 - 1704 Jaymee - Bright - 1704 Jey Brownie - J'en ai pas - 1704 La F - Colère ft. Shelby 1704 SIMONY - Silex - 1704 your.nash - demain - 1704 Zed - ZEDEUDÉ 60 - 1704 Zuukou Mayzie - Sanni McCandless vers 19h19 1804 Cacahouete - Banlieue Parisienne 4 - 1804 Iss - Favori - 1804 Many Santana - Méchant - 1804 Teklam - Par où on passe - 1804 Zinée - MEZZEL - 1904 Baksooz - 10k FREESTYLE - 1904 Djibso - SMOG 1904 JaySoCold - COLDEST IN THE WORLD - 1904 Jok'air - Dans la Benz - 1904 Lacrim - 7 VIES ft. Sofiane Pamart - 1904 Légendes Industries - Mauvais Garçons ft. Tuerie - 1904 Naps - RSQ3 - 1904 Naza - Kulule - 1904 Osirus Jack - Kyrie Irving - 1904 RK - COFFIO - 1904 Saïf - Le taf du loup - 1904 Vacra - Agent Secret - 2104 Wit. - OBSESSION - 2404 Advm - .DEMAIN C'EST MIEUX. - 2404 Chanceko - Le déhanché assassin - 2404 J9ueve - SHE LIT ft. Green Montana - 2404 La F - Life - 2404 Le Juiice - Money Dance - 2404 Lord Esperanza - Différent 2404 Raous Gang - Terrain miné 12 ft. Mola - 2404 Sherifflazone - FUTURAMA - 2504 A2H - Honey - 2504 Deemax - JPARS DE LÀ - 2504 KeBlack - Boucan - 2504 Lesram - Rebellion - 2504 Niro - Polémique 2504 PURP - Actif ft. Savage Toddy - 2604 AMOON - LUDACRIS - 2604 Davodka - Libre comme l'art - 2604 GIMS - JOE PESCI ft. Inso Le Véritable - 2604 Harley - Ça va pour nous ft. MadeInParis - 2604 KLM - Parapluie - 2604 L2B - Touché Coulé - 2604 La Hasba22 - Extinction 3 - 2604 La Mano 1.9 - J'coupe tout ft. Musto 2604 Leith - FOCUS ft. Smeels - 2604 Loko Martin Gal - À la carte ft. Alkpote Deadi - 2604 Magnim - Blanc et Bleu - 2604 Mig - La ligne - 2604 Mola - Freestyle 2 mi-temps - 2604 Mosty - En tas ft. Lala ce - 2604 Prinzly - NIGHT HIFT ft. YG Pablo - 2604 Rohff - Fraude ft. Intouchable AP du 113 - 2604 SAF - JE QUITTE LA ZONE - 2604 Slim C - ADN - 2604 Stony Stone - Himalaya - 2604 Surprise - Méchant dans les films - 2604 Timal - RR Phantom - 2704 Black Jack - La Mentale ft. Evil P - 2804 Yaya D - 0.xo - 2904 JohnFckingNada - Winning - 2904 T.I.S - Dans la ville - 2904 Zeu - ALEX KID Mai - 0105 Genezio - ROYAL PALACE - 0105 LUMJR - NEW CHOPPA - 0105 Saturn Citizen - EXPORT 1 - 0105 Zokush - Lebara - 0205 Mapess - Zéro Battle - 0205 Rsko - 12 coups - 0305 63OG Skuna - ZUSHI REMIX ft. Jolagreen23, thaHomey, Sherifflazone 8ruki - 0305 Benab - Sakina - 0305 Carbonne - Imagine - 0305 Douze Déluge - MAUVAIS SANG - 0305 F430 - Comme tout le monde - 0305 Heuss L'enfoiré - Mélanine ft. Werenoi - 0305 iTo - Émotif5 - Coupé Cabriolet - 0305 La Kadrilla - Tomar ft. Osirus Jack - 0305 Laskiiz - VACARME - 0305 Rim'K - Demain - 0305 Rim'K - Trap house ft. Alpha Wann - 0305 Rsko - PCC ft. Franglish - 0305 Soolking - Otra - 0305 Soprano - Facile à danser - 0305 Take A Mic - Le film - 0305 Yuzmv - Illusion - 0305 Zed - Celle ci - 0305 zonmai - Birthday Zouh - 0705 JRK 19 - BOOYAKASHA - 0705 RK - MOUSSA PART.1 - 0705 Vilk - Soleil - 0705 Yzu - NOEUD - 0805 Deemax - SHOW - 0805 Folie's - Nosleeve - 0805 Genezio - NIA - 0805 JuL - J'ai pris le mic - 0805 Keeqaid - OffWhite 0805 K.S.A - Motion ft. thaHomey - 0805 Mandyspie - Shadow - 0905 Le Risque - Go 2 - 0905 Leto - Enlève tes pes-sa ft. Kaaris, La Mano 1.9 JKSN - 0905 Slkrack - Maman pleure pas - 0905 TIF - Nothing Personal - 0905 Voleur2Voleur - POUR CEUX ft. Mola Keuchei - 1005 Benjamin Epps - JOHN Q - 1005 Di-Meh - Ténébreux - 1005 GIMS - SPIDER ft. DYSTINCT - 1005 Huntrill Hologram Lo' - Le biff et moi - 1005 La F - Vie d'artiste - 1005 Loveni - MOODSWING - 1005 Malty 2BZ - Giltos - 1005 Mitch - C'EST PAS MES POTES ft. Mougli - 1005 Naza - Quillé ft. Ninho - 1005 Rafal - LA FEMME EN ROUGE - 1005 Soso Maness - DLB13014 - 1005 Vacra - Confidences ft. PLK - 1005 Zakaria Springer - Caméléon - 1105 MVSHY - Feel lucky - 1205 Kerchak - HOODTRAP 1 CAM 1305 Ben.C - CAH BENNY - 1305 TK - Hakim ft. YL 1405 Seth Gueko - Barrio ft. Kanoé Kyzi - 1505 Batbat - Chromer ft. Saamou - 1505 Genezio - DOULEURS - 1505 Good Bana - Habitué - 1505 Izar - Kasparov - 1505 Pbl - À la Hauteur ft. Jewel Usain - 1505 Rowjay - ORIGINAL FINESSEUR - 1605 Myth Syzer - PLAZA - 1605 DMS - BELLES CHOSES - 1605 RK - TACHE DE SANG - 1605 SCH - Cannelloni - 1605 Sheng - KIT-KAT - 1605 VEN1 - Bougie - 1705 arone - garder le sourire - 1705 Elias B4C - Attireur De Foudre - 1705 Gaulois - Sens interdit ft. Ninho - 1705 Gemen - MAISON DE CAMPAGNE - 1705 Gemen - SMS - 1705 HMZ - Pas fiable - 1705 Hornet La Frappe - Malaga ft. Dwen La Plaie - 1705 JKSN - Drogba - 1705 Kaneki - Mentalité - 1705 Lacrim - Colisée ft. SDM - 1705 Landy - G8 - 1705 Maydo - Noubti - 1705 Moha MMZ - Agoraphobe - 1705 Teklam - Questionnement - 1705 thaHomey - HORS JEU - 1705 Zequin - FLEX - 1705 Spider ZED - Cinq du mat - 2005 Advm - .QLQCHOSE. - 2005 Bluume Triple Nine - CUSTOMS DETECTOR DOG - 2005 Ibé - Regrets ft. Koba LaD Sno - 2005 Jwles - ahhhh 2005 TK - à l'écart - 2105 8ruki - Methadone - 2105 Toam - LINER 2205 Chily - Calculer x2 - 2205 Dexter HMC - Freestyle GramTélé 1 - 2205 Genezio - GÉ SAIT PAS - 2205 JEUNESAINT - Amy Berry ft. Pacho Diño - 2205 Norsacce - No Diddy - 2205 Papi Teddy Bear Pense - BOOBA EN 99 - 2305 Famille Nombreuse Slime Castro- Intéressant - 2305 Folie's - BAD! - 2305 Maes - SURVIE ft. Ninho - 2305 S-Pion - SOUROUGUAP - 2305 TH - ABKA 2305 TiBab - Hot ft. gapman 2305 Wood - GUTEN TAG - 2405 6rano - la BM La Bohème - Street Parody - 2405 Anas - Napoli - 2405 GS - À quoi ça sert - 2405 H Magnum - Mauvais djo 2405 Houari - Dis khamsa ft. Morad - 2405 Josas - Vanille - 2405 Kerchak - HOODTRAP 2 TOUCHÉ - 2405 Kore - Lalla ft. Hamza 2405 KR Malsain - Akkari City ft. W - 2405 La Famax - Jenny - 2405 Le Juiice - PAPILLON 2405 LEVELSANTANA - DAEMON5 - 2405 Nusky - Soké - 2405 OSO - Heart Beat - 2405 Princesse - Fifty Fifty - 2405 Raplume - 2 Cartouches ft. 410 - 2405 Soalo - Bubble up - 2405 Sokra - Ghetto Youth - 2405 Soprano - Freedom - 2405 Warren Saada - Déjà - 2605 MVSHY - STEP 2705 Doulkha - Météo - 2705 La Mano 1.9 - 51 Block - 2805 La Fouine - Chalgoumi - 2805 Toam - VIE PRECIEUSE - 2905 Genezio - DANS MON MONDE - 2905 Hippocampe Fou - Demi-Vieux - 2905 Jeune Morty - HORSE BLACK YOUNG NIGGA - 2905 Izar - 10 000 PORTES - 2905 Jaymee - TOUT LE MONDE AUTOUR - 2905 JRK 19 - BALADE - 2905 La Kadrilla - Machine A Production - 2905 Selug - X100 - SOS FREESTYLE - 3005 BRKBABYBOY - 529 - 3005 Gris Anthracite - Après l'hiver II ft. Ekloz - 3005 Saamou - Terrain d'herbe 1 - 3005 wasting shit - les fourmis - 3105 33mello - les livres que j'ai lus ft. Lester - 3105 abel31 - Impala - 3105 Diddi Trix - BAH OUAIS FREESTYLE - 3105 DIL - POUR EUX - 3105 HVmanyy - Ephémère - 3105 iTo - La fabuleuse histoire d'un rêve décadent - 3105 Kerchak - Sentiments - 3105 KLM - Sang - 3105 La Plaie - Je m'isole - 3105 Légendes Industries - Tribal King ft. Di-Meh - 3105 Leto - Tout gâché - 3105 Meryl - Mauvaise Élève - 3105 Poupy - Goyard - 3105 Zeu - WAGNER Juin - 0306 NDO Runway - Parler Pour Rien Dire - 0506 Alonzo - HASTA LA VISTA - 0506 Genezio - CHANGER LES IDÉES - 0506 Malo - PORSCHE 0506 Many Santana - Petit frère - 0506 Osmoz - Bonnes manières - 0506 Wallace Cleaver - plus rien n'est grave - 0606 A2H - Message pour son ex - 0606 Heuss L'enfoiré - La Raclure - 0606 MAPESS - Plans - 0606 Myth Syzer - SHAGGY - 0606 paulvitesse! - spaceship - 0606 SCH - Booska Prequel - 0606 Slkrack - Cristaline - 0606 TH - ISUZU ft. Alpha Wann - 0606 TripleGo - Ocean - 0606 winnterzuko - NORTH2 0706 Andos - Mannschaft ft. Mous-K - 0706 Caballero - Rose orangé - 0706 Davodka - Avec des mots ft. Sinik 0706 Elh Kmer - OKOCHA - 0706 ISK - Vérité 7 - 0706 Koba LaD - Freestyle BMF 1 - 0706 Krody - Frozen Jacquemus ft. Leto Kepler - 0706 Malko - Aaliyah - 0706 Malty 2BZ - Scammers ft. KLM - 0706 Mecra - Cendrillon - 0706 Niaks - Cagoulé ft. Maes - 0706 Nosnow - Dolo Introduction - 0706 Rohff - Fitna - 0706 Take A Mic - DRIVE 0806 Guizmo - Attention quand tu causes ! - 0906 Jeune Morty - MOTO - 0906 Neskoo - UHQ - 1006 808NOCHE - Gala - 1006 Strano - TRAMADOL - 1106 DOC OVG - Vendre - 1106 Mougli - Freestyle Hors-série 4 - 1206 Genezio - OFÉLÉ PÉLÉLÉ - 1206 HD La Relève - C'est un délire - 1206 Kebe Hyma - Wazz 3 1206 KR Malsain - Gueliz 1206 LUMJR - WALK - 1206 Selug - CERCLE FERMÉ - SOS FREESTYLE - 1206 Sherifflazone - JUGGIN 1206 Youssef Swatt's - Ancienne Belgique 1206 Zokush - Dès l'matin - 1306 Chanje - MERRICK - 1306 La Mano 1.9 - Canon ft. Niska 1306 Tovaritch - Fedor - 1306 TVMO - Abel Cain - 1306 Wallace Cleaver - le bus 1406 2R - 2ème Dose - 1406 404Billy - NAZI IS REAL! 1406 Bruni - SHOPPING - 1406 Danyl - Ti amo ft. Stony Stone 1406 FAYV - AMULETTE - 1406 Futur Bandit - Donjons 1406 Gambino la MG - Pass Secur' - 1406 Gradur - TI TI TI ft. SDM Rsko - 1406 HALO - Tour du Monde - 1406 Hornet la Frappe - Samira - 1406 Jeune Austin - SANS RETOUR - 1406 K2S - Dougie - 1406 La Famax - La vie de généraux - 1406 Laylow - DOGZ In the Studio - 1406 Liim's - Business Man - 1406 Lyonzon - Arah 4 - 1406 Maydo - 925 1406 MC Solaar - Okay ft. Marie-Flore - 1406 Moji x Sboy - 1, 2, 3 - 1406 Nahir - OTOMOTO - 1406 Naps - CUR DE ICE ft. Gazo - 1406 Rohff - Cardio - 1406 Rowjay - YOUNG JEEZY EN 2005 - 1406 Sasso - Ça traine la night - 1406 Spider ZED - Pansement 1406 Timal - Près du binks - 1406 Todiefor - kiss ft. Luv Resval 1506 Beeby - BITCH A - 1706 Yovo - ZIGOUILLE RACISME - 1906 7ETH - Bulletproof - 1906 7ETH - München - 1906 BKRBABYBOY - NONEWFRIEND - 1906 Connaisseur Ticaso - Rap Life 1906 Dadi - 4X Filtré - 1906 Genezio - NO LIMIT - 1906 Jwles - Redescend - 1906 Maes - MAGIE - 1906 Prototype - ENVIE - 1906 Souffrance - Death Metal 1906 Zequin - BANDO - 2006 Jeebs - 747 2006 Hache-P - Vanessa - 2006 La Hasba22 - MAYBACH - 2006 Nono La Grinta - Kelly freestyle - 2006 Sadandsolo - W - 2106 Beendo Z - BEENDO Z FREESTYLE SPONGE - 2106 Djadja Dinaz - Miss France 2106 Doums - Makaveli - 2106 GLK - Xavi Simons - 2106 Gotti Maras - La Vérité - 2106 Kaaris - QUÉ LO QUE ft. ElGrandeToto - 2106 La Famax - Sombrero ft. Biwaï - 2106 LauCarré - Merci la vie pour les douleurs 2106 Leto - Remontada ft. Mister You - 2106 Ponko - Mes Lovés ft. Hamza - 2106 RK - LIAES ft. La Fouine 2106 So' - EN BAS - 2106 The Strangers - Radiant Future ft. KT-Gorique - 2106 Zeg P - Juste une minute ft. SCH, Alonzo Josman 2206 Koorama Kamö - Compter ft. thaHomey - 2406 1D1R - Mona Lisa - 2406 Dexter HMC - Brandão - 2506 Max D. Carter - Pantoufles aux pommes - 2606 Deelee S - J'aurais dû naître à LA - 2606 Giuseppe - DOPEMAN - 2606 Good Bana - Ma Gang - 2606 ISK - BRAV-M ft. KLM Mola - 2606 Koba LaD - Freestyle BMF 2 - 2606 LUMJR - OFFICIAL - 2606 Sherifflazone - Abeille - 2706 HOUDI - RAP CONSCIENT - 2706 Theodora - JTM 1 PEU - 2706 Theodora - MON CASQUE - 2806 34murphy - la tour - 2806 Asdek - J'te Kiffe ft. Mara Sto - 2806 Beendo Z - INSPIRÉ DE FAITS RÉELS 7 2806 Bramsito - I Love You - 2806 Djadja Dinaz - Continents 2806 Elh Kmer - MILLA 2806 Fresh laDouille - La calle - 2806 Gambino - GTA 6 2806 Gemen - CERTIFIED HOOD CLASSIC - 2806 GRËJ - Les adlibs de Gunn Interlude - 2806 Hornet La Frappe - Ballon d'or - 2806 Jolagreen23 - 4BULLDOG - 2806 Kerchak - Play - 2806 KLM - NICKI - 2806 Landy - Changer ft. Guy2Bezbar - 2806 Lester - pierre lune - 2806 Moha MMZ - Ivre - 2806 MVSHY - MAGIE - 2806 Saïf - L'avalanche - 2806 Souldia - Fausse note ft. A2H - 2906 63OG - cé pour les ft. 63KLUF - 2906 Gazo Tiakola - NOTRE DAME ft. Angèle - 2906 Zitoune - Pour les sous Juillet - 0107 Artistes divers - NO PASARÁN - 0107 Zola - CSL EP. 1 - 0307 Hippocampe Fou - J'ai fini le taf - 0307 H Magnum - Knysna - 0307 Sheu - Petit ou grand - 0307 YUNG POOR ALO - La paume - 0407 Hotel Blue - Collé à lAmour - 0407 Draviss - Leroy Sané - 0407 LEVELSANTANA - ENCORE - 0407 Swing - Mérite - 0507 Brav - Un jour de plus au paradis - 0507 Gambi - HÉHÉ HÉ - 0507 GIMS - MAMACITA ft. Sfera Ebbasta - 0507 GRËJ - J'le mets pas sur lalbum gl0rilla - 0507 IDS - 3 X 1 - 0507 ihatemed Dofla - NPMV - 0507 Jayel - 3h du mat - 0507 Koba LaD - Un peu d'amour - 0507 L'Algérino - Roméo ft. Soolking - 0507 Le Dé - Cervôlan ft. Rhum One - 0507 Loko Martin Gal - Emoji - 0507 Mandyspie - Pretty Betty ft. Jaymee - 0507 Nakry - Premier pas - 0507 Rémy - Galérer - 0507 Savage Toddy - Vision floutée - 0507 Sheng - FCK SCHOOL - 0507 Sokra - Santa Monica - 0607 Allebou - TRANQUILO DE QUOI - 0907 Deelee S - Restaurant chic ft. Realo - 1007 Dalí - Détestable - 1007 Donkey - DOJA ft. Yona - 1007 Giuseppe - TOUT MISER 1007 Liim's - PROBLÈMES 1007 Owen - FREESTYLE LA PIECE - 1007 Serane - Dis moi - 1107 1PLIKÉ140 - CALMEZ-VOUS - 1107 Deelay - Chirurgie quantique ft. Adjectif - 1107 Guy2Bezbar - Monaco - 1207 A2H - La nuit où 1207 Amsi - Sans toi - 1207 Dadi - Dvm Freestyle - 1207 Hatik - Choré - 1207 La Hasba22 - CROSS - 1207 Loki Gonzales - WEEZY - 1207 Ninho Niska - Coco - 1207 OBOY - Tout y est ft. Jozii La Mano 1.9 - 1207 Rafal - L'ENFER C'EST MOI - 1207 Soso Maness - Allez ft. PLK Naps - 1207 Steban - Motown 1 - 1407 Anton Serra, Lucio Bukowski Oster Lapwass - Écriture automatique - 1407 LUMJR - NO HOOK 1 - 1507 Cheu-B - Gava - 1507 James Loup - 3 DÉFAUTS - 1707 Booska-P - Nouvelle École - Booska Freestyle - 1707 Jeune Morty - We Alive - 1707 Kai du M - Black On Black - 1707 Seth Gueko - Le marginal - 1810 FXLL Tonio 8cho - Omotunde - 1807 GLK - CARTEL DZ - 1807 Leto - J'ai l'impression - 1807 Lovarran - Morning Routine - 1907 Djadja Dinaz - La même histoire - 1907 GIMS - SOIS PAS TIMIDE - 1907 Jayel - Tatiana - 1907 Malty 2BZ - Nanas - 1907 Mécra - NO LOVE - 1907 OldPee - ANAKIN - 1907 SDM - MERCI - 1907 VEN1 - SD Night - 2107 LUMJR - NO HOOK 2 - 2207 DADI - Bah Ouais - 2207 JYEUHAIR - Misaotra - 2207 Youssef Swatt's - Générique de fin - 2307 HOUDI - TOTALLY SPIES - 2407 Lucci - Ten - 2407 Rounhaa - killa ft. Stormy - 2407 Sto - LAPTOP - 2507 Niaks - Darement - 2507 Tiakola - T.I.A - 2607 Didi B - 2025 - 2607 Gros Mo - Napoli ft. Alkpote - 2607 MadeInParis - las vegas 2607 Madrane - La valise ft. Stavo - 2807 1D1R - Caroline - 2807 H.E.M - Zinzin - 2907 TK - La trace - 3107 Afro S - LM - 3107 Genezio - EL GEMANO ft. La Mano 1.9 - 3107 Serane - Petit à petit Août - 0108 AMK - Règle No. 1 - 0108 Damys - Accélère - 0108 slump. - def jam. - 0108 TIF - Maylin - 0208 Dajak - Rayons ft. Swing 0208 Elh Kmer - WEAH 0208 Franglish - SHAKE - 0208 Maureen - TOC ft. JYEUHAIR - 0208 MHD - Full - 0208 Misa - Liens Cubains - 0208 Saamou - Jr Vini - 0408 daklaoma - petit navire - 0808 A2H - Jamais - 0808 Jwles - Bollywood ft. Slimesito - 0908 Baby Neelou - Rapporteur Vert - 0908 BLOODYSANJI - L.R. DEFENDER - 0908 Elias B4C - Cole Palmer - 0908 Lester - Faille Mystique ft. 33mello 0908 Malty 2BZ - En attendant Solitaire - 0908 Yonidas - Donne - 0908 ZKR - X-ADV 1008 Mahdi Ba - BDP ft. Norsacce Criminls - 1108 Futur Bandit - La Planète Sauvage - 1208 Chavi - BYN - 1208 Cheu-B - Block 67 - 1208 Norsacce - Trapistan - 1408 Godson Anybxdy - C'EST MZI - 1508 Lovarran - I Wanna See The Beach - 1608 13 Organisé - Bande organisée 2 ft. SCH, Kofs, JuL, Alonzo, Naps, Soso Maness, Elams, Solda Houari - 1608 D2 - Salaire de Zidane - 1608 GIMS - Terminal 2F ft. Dadju - 1608 GRËJ - Cage - 1708 Teklam - Face ID - 2008 Jeune Morty - King Troup - 2208 Deemax - UNIVERS SONS - 2208 Deemax - VILLAGE NATAL ft. Lyre - 2208 Lost - 20 Benz ft. Kekra - 2308 410 - Barbie ft. Mitch Ladrogua - 2308 Furlax - Maybach - 2308 Gambi - Tentation ft. Hamza - 2308 JYEUHAIR - VAULT - 2308 Moha MMZ - Only you - 2308 Saïf - Le bonheur est triste - 2308 T.I.S Lando - City Hope - 2308 XXXXMLZ - La ashe - 2608 Norsacce - Mirmillon - 2808 Folie's - Instinct Animal - 2808 Giuseppe - EYES ft. Twinsmatic - 2908 Advm - .SNEP. - 2908 Hotel Blue - KAIDO - 2908 Ratu - Décathlon - 3008 Ajna - MYTIME! - 3008 Brav - Liverpool ft. Youssef Swatt's - 3008 Coyote Jo Bastard - Website - 3008 Django - t'appelles ça vivre ? - 3008 Jester SHF - Centre du ring - 3008 Kaki Santana - Money Boy II - 3008 PRIME - Pourquoi - 3008 RD - Plaie ft. Mécra - 3008 Says'z - CALAPA - 3008 Tiakola - MANON B ft. Ryflo Oskoow - 3008 Trankil Trankil - Comment on surf ft. thaHomey Skuna - 3008 your.nash - leurs yeux ternis - 3008 VEN1 - Vanilla - 3108 ANTHA Jeune Ras - Pataugeoire Septembre - 0209 Diddi Trix - Les affaires - 0209 Jwles - Mon Bol - 0309 Dirlo - 140 kmh - 0309 Lucio Bukowski Tcheep - Des Siècles Des Poussières - 0309 The Strangers - Rise Together - 0409 8ruki - SWAG - 0409 Good Bana - Chez toi - 0409 Lucio Bukowski Tcheep - Les Songes que nous pouvons - 0409 Mécra - Moovie - 0409 Savage Toddy - Wife - 0509 joysad - Enfers - 0609 13 Organisé - Sous le soleil ft. JuL, LAlgérino, Alonzo, Fahar, Menzo, Le Rat Luciano, Don Choa, A.S., Vincenzo, Soprano Sat - 0609 AKISSI - PQ TU QUÉMANDES?? - 0609 babyxi - MAISON BLANCHE - 0609 B.B. Jacques - BITCHES RYADS - 0609 GIMS - Vent du Nord - 0609 James Loup - ROCKSTAROUIGO - 0609 JYEUHAIR - QUOIPOURQUOI - 0609 N3MS - LE BRUIT DES VAGUES - 0609 Ninho Niska - 911 ft. Koba LaD - 0609 Saïf - La bohème. - 0609 Spider ZED - 30 secondes - 0609 Trankil Trankil - Philosophe ft. Nicholas Craven - 0609 Zbig - Zanekkk - 0809 Farloski - Trading - 0809 Nobodylikesbirdie - Missed In Action - 0909 Triple Nine - Le Béton Le Ciel - 0909 Yovo - TROUBADOUR EN DURAG ROUGE - 1009 Khali - FREE - 1009 LEDOUBLE - MTP ANTHEM ft. OgLounis - 1109 2C - MENTALE ft. Lucci - 1109 Heloïm - ROMANCE - 1109 HOUDI - CONTRE LA GALERE - 1209 Chanje - SANG DE GREC - 1209 EDGE - Pas pour rien - 1209 Giuseppe - NCAA - 1209 Jolagreen23 - 360TrickShot - 1209 Lovarran - M. Yamamoto - 1309 Davodka - Héritage ft. Deadi Cenza 1309 Didi B - Aladji toutouya - 1309 Dosseh - Yezzir - 1309 FEDALL - CE RISQUE - 1309 Gemen - LA MAIN SUR LE COEUR - 1309 Gringe - Confession d'un hypersensible - 1309 Jeune Lion - Rozin - 1309 Josué - Raison 1309 La Famax - Ma poupée - 1309 Légendes Industries - Primo Piatto ft. JeanJass - 1309 Le Lij - Monkey 47 1309 MHD - Kata - 1309 OBOY - Un peu - 1309 Rowjay - GENERAL FINESSE FREESTYLE - 1309 Scylla - Répondez-moi 2024 Humains - 1309 SDM - TOKA ft. Hamza - 1309 Slkrack - Putain de mood ft. IDS - 1309 Tedax Max Ismayyyel - POUR LA VIE 1309 thaHomey - ALL NIGHT ft. Sonny Rave - 1309 Tri Minh - Dernier Domino - 1309 USKY - Hades - 1309 Youv Dee - 2017 - 1309 Zkr - Cur lourd ft. Massine - 1509 Khali - KHALI IL SAIT - 1609 Tiakola - FORMIDABLE - 1809 Dexter HMC - Wilder 1809 Tisma - MONOPODIUM - 1909 Dooz Kawa - Sisyphe 1909 Mola - 80 zedou - 1909 Niaks - 'Ndrangheta ft. Maes 1909 Zek - Localisable 2009 Bramsito - My Baby - 2009 Chily - Je la connais Na Yébi Yo - 2009 Gambino - Dans ta fête - 2009 Itsyaboykp - Sans Moi ft. Ashh - 2009 La F - ROCKET LEAGUE - 2009 Timal - La 17 - 2309 Khali - FOREVER 2509 77 Degrés - 77 degrés ft. RK, ISK, Negrito, Timal, UZI SenSey' - 2509 Ajna - 20 - 2509 err walou - FROZEN - 2509 gapman - B.A.B Remix ft. Enima VT - 2509 Hippocampe Fou - Respire - 2509 Implaccable - BOSS l'argent n'est rien pour moi ft. O</t>
+          <t>Ta canette va toucher la mallette, éclabousser la crête et la baguette De ce sale mec dont les baskets vont t'éclater la tête Comme un coup de pastèque, et t'écraser comme une carpette Tu te réveilleras ligoté au beau milieu d'un temple Aztèque Horrifié, courtisé par cent playmates momifiées Qui t'offriront quelques crevettes génétiquement modifiées Frénétiquement, tu t'engraisseras en engrossant quatre d'entre elles Chez les momies, y'a peu d'entraide, surtout quand on n'est qu'un engrais Selon le rituel, tes enfants seront scarifiés Scalpés puis sacrifiés, ce monde est si cruel Qu'on déposera leur carcasse dans une carapace remplie de miel Sur ce pont reliant deux mondes le concret et le virtuel Ces démentielles offrandes aux démons fiers et trop grands Permettront aux momies de quitter leur temps De franchir le pont, d'oublier leurs monts en s'engouffrant sans repère Dans le maudit royaume des géants de fer Tu resteras seul, attaché, avachi, amoché À mâcher tes cheveux alourdis par la poussière Tu profiteras de l'immortalité que t'aura octroyé Ce trop nerveux sorcier, c'est une fatalité, mon frère Mais une navette débarquera, tu embarqueras pour une planète Où, haletant, tu résoudras quelques casse-têtes Mais couvrira, dans une mallette, entre une canette et des bandelettes Quelques vignettes assez bien faites représentant ta grand-mère qui t'allaite1</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Les Mots</t>
+          <t>L’intox permanente</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Tu cries jusqu'à c'que tes pulsions soient assouvies Puis adoucies, tu t'assoupis dans les bras de tes parents Dont les paupières sont alourdies, et qui sourient En écoutant ton gazouillis Perdu dans une forêt de mots, tu babilles Mis bout à bout, ces mots se mettent à danser la chenille Le papillon virevolte enfin, tu t'exprimes Tes émotions sont nues, tes phrases les habillent Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Tu t'enfermes dans les formes, tu t'affirmes Tu gamberges avant de parler, t'es fragile Tu te vantes, tu te vends, tu te défonces, tu t'effondres Ou te défends mais, dans le fond, tu ne fais que brasser du vent T'as rencontré cette princesse lors d'un séminaire Tu voudrais lui dire Je t'aime, mais tu tergiverses Sa voix agit sur toi comme une bouillotte en plein hiver Ton blabla ne traduit pas c'qui s'cache sous ton épiderme Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Tes sentiments résonnent à tue-tête Tu ne sais pas comment les dévoiler Les mots cognent et sonnent dans ta tête Tu voudrais les laisser s'envoler Pensées rebelles, émotions secrètes Tu ne sais pas comment les dévoiler Le disque dur est plein, ta mémoire fuit Les mots semmêlent, s'éparpillent et tu t'ennuies Les jeunes gens utilisent un argot qui t'échappe Tu les écoutes remodeler ta langue, assis dans des parcs Tu ressasses le passé, tu t'y agrippes Tu lègues au monde des expressions migratrices Tes descendants pourront en savourer l'écho Tu balbuties, mais choisis bien ton dernier mot</t>
+          <t>Las mentiras Las mentiras Las mentiras no son la verdad aunque se oigan cada dia Las mentiras Las mentiras Las mentiras, las mentiras Las mentiras, las mentiras Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Oswald est le seul assassin de Kennedy mentiras On n'peut pas annuler la dette de l'Afrique mentiras La guerre en Irak n'était pas qu'une histoire de fric mentiras La plupart des banlieusards vivent du trafic mentiras Le sida ne fait plus autant d'ravages mentiras Mon livre d'Histoire m'a tout dit sur l'esclavage mentiras Pour vivre vieux, il faut être sain et sportif mentiras La paix est impossible entre Arabes et Juifs mentiras Les bombardements n'ont pas tué de civils mentiras La France ne vit pas contaminée par Tchernobyl mentiras T'es qu'une merde si t'es pas fait pour l'école mentiras Une meuf peut finir par kiffer lorsqu'on la viole mentiras Le rap rend les jeunes de plus en plus violents mentiras On peut pas reconnaître le vote blanc mentiras Dix ans d'placard remettent un Homme sur le droit chemin mentiras Quand les gentils gagnent toujours à la fin x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ouais, dès l'école élémentaire, on nous dit qu'on est sédentaire Qu'on privatise la Terre entière et que c'est nécessaire Que la loi du marché est préférable à la loi de la jungle Que c'est dangereux, la liberté, car l'Homme descend du singe Tout p'tit, on t'explique que, partout, y'a des pauvres Qu'il faut finir ses spaghettis, comme si ça changeait quelque chose On n'remet jamais en question les causes profondes de nos tourments Car on fait des indigestions de slogans et de règlements La France aux Français Hey, cowboy, ce bout d'terrain nous appartient Ouais, un jour, nos ancêtres l'ont volé à leurs voisins Et puis on n'peut pas accueillir toute la misère du monde Donc il faut la faire déguerpir à la vitesse du son Y'a un tarif pour l'paradis, c'est interdit aux apatrides Notre président n'est pas raciste, c'est les Gitans, les parasites Donc on mettra des caméras partout dans la ville Oui, l'État vous protégera, alors dormez tranquille x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ce n'est ni par cupidité ni pour trouver la gloire Qu'il a quitté son village, il l'a fait par désespoir La guerre a laissé six pieds sous terre Sa femme et sa mère, son fils et son père, l'exil est amer Il a traversé des pays entiers à pieds, troué ses souliers Pris des rafiots en bois pourri, toujours sans bouée Transpiré et risqué sa vie pour avoir le pri- -vilège de mendier sous la pluie, la neige, de respi- Rer l'air pollué d'une ville agitée, de s'aliter Dans des cages d'escalier ou dans des poulaillers sans grimacer Le droit de balayetter aux entrées, galérer, lacérer Tenter d'éviter les contrôles d'identité De finir, un soir, comme donnée chiffrée citée au JT Un étranger, un sans-papier de plus expulsé, l'été Son passé n'est pas retracé, l'info est vite effacée Par le flux des pubs, des films lisses prémâchés L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler J'ai dit L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ça sent bizarre, c'est l'intox permanente Du matin au soir, c'est l'intox permanente Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente1</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Les toits de ma ville</t>
+          <t>L’inuit</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>La nuit, ma ville s'illumine, je m'exile sur les toits Piétine les tuiles, puis m'assois Les pieds dans le vide, je défie le vertige La brise m'électrise, tout s'éclaircit, et là Je m'adonne au voyeurisme, adossé à des cheminées Pardonnez-moi ce vice La vie des inconnus m'intrigue, s'imprime sous mes paupières Ce qui se trame dans vos chaumières est plus palpitant qu'un film J'admire l'odyssée quotidienne Que les gens s'aiment ou se bastonnent élémentaire mon cher Watson ! J'gravis les échafaudages, m'étale sur les toits Ravi même les soirs d'orages, la pluie me nettoie J'ai une barbe blanche, on me prend pour le Père Noël Ou un ramoneur ventripotent se tripotant l'cornet J'reste sur le qui-vive comme un espion quand il dort La vie est une réponse à une question qu'on ignore Ourlet sur le bas du jean, chaussettes blanches Mèche plaquée sous mon bonnet bleu, peu onéreux Dans les rayons d'un soleil rasant, la rue s'anime Cadence abstraite sur un bitume abîmé Vertige chromatique, psychosomatique Est mon état, je détale, calme, je m'étale Dans les profondeurs de l'horizon J'avance en transe dans un présent moribond Puis, là où le ciel orange se mêle au rose y dépose mes 'yeuz' Dans une pose veilleuse, me met en pause Peu à peu m'expose, dans un soleil fuyant Face au noir bruyant, que des lumières explosent Seul, loin du sol, les étoiles m'habillent Isolé, serein, sur un des toits d'ma ville Accompagné par les mouvements du vent La hauteur m'a séparé doucement du temps Plus tard, j'étais lancé D'un pas élancé, j'avançais Dans mes pensées, démarche insensée Je dansais</t>
+          <t>Je viens de loin, comme toi Et, il y a quelques années, avec les miens, je m'y revois C'est comme si j'y étais, et Une sublime aurore boréale effleure de son voile de mousseline mon regard Nous avançons dans ce désert de glace, sans nourriture, hélas, l'hiver, les proies se font rare Le froid engourdit mes membrs, mes forces ont pris la fuite Ds flocons perlent sur mes cheveux de cendres, je ne suis que le fossile d'un chef inuit Mes pieds chuchotent à mes bottes en peau d'phoque Des épopées d'une autre époque Où j'étais vif, souple et imprudent Maintenant, je ralentis mon groupe, je suis trop lent Mon reflet me dévisage, chaque soir, la vieillesse me donne le sein Mes regrets m'apparaissent comme des mirages, mon histoire touche à sa fin J'ai appris à mes enfants à construire des igloos, à chasser le morse et le caribou Mais leur estomac noué prédit que, dans très peu de temps, ils m'abandonneront devant la porte du néant Et ils m'ont abandonné sur un bout d'banquise Le bout d'banquise a fini par fondre et, comme par miracle, j'ai flotté J'ai flotté des mois entiers, voire des années Jusqu'au jour où un pêcheur m'a sauvé Cet homme m'a recueilli, il a partagé ses repas et sa hutte avec moi Un matin, il est parti pêcher, seul son corps est revenu C'est pour cet homme que l'on chante aujourd'hui Pour ce fils qu'une mère ne reverra plus Tu cherches une réponse ? Tu la trouveras tout en haut Au sommet de l'Everest And action!</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Le Vertige de la maturité</t>
+          <t>Ma cabane</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Aujourd'hui, pas de vidéo, pas de rap, je fais grève J'me sens lucide et faible, pleurer me ferait du bien mais mes yeux sont secs Je crée pour oublier que je n'suis qu'un simple mortel Que l'être humain est profondément cruel et le monde un sacré bordel Quand j'me sens menacé, j'me réfugie dans une bulle en acier Me nourris d'images, de rythmes et de mots, l'art et la drogue sont mes alliés Mon univers est féerique J'admire des courses de trottinettes sur le périphérique Joue à cache-cache avec l'homme invisible Dessine des marelles spiraliques au centre de l'ensemble vide J'ai souvent l'impression d'être hermétique ou égoïste En fait, j'ensevelis mes émotions quand la vie est trop triste Elles resurgissent toujours plus tard, dans mon imaginaire D'ailleurs hier soir, j'ai fait un rêve Un enfant grimpait à une échelle et au fur et à mesure qu'il grimpait, il grandissait Et se rendait compte qu'on avait scié les barreaux sur lesquels il venait de poser ses pieds Il ne pouvait plus redescendre Alors, il continuait de grimper, lentement À un moment, en regardant en bas, il apercevait les vestiges de son passé Et ressentait pour la première fois, le vertige de la maturité Il finissait par atteindre un grenier haut-perché Y pénétrait à petits pas, réapprenait à marcher Puis allumait un vieux poste de radio d'où émergeait le son de ses souvenirs Et pour ne pas entendre la mort gratter à la porte, il mettait le volume à fond Esquissait un sourire Putain, ça fait mal de grandir, de voir s'écrouler son empire Hors de ma bulle, mon ventre me brûle, faut croire qu'j'arrive quand même à ressentir Je dédie ces paroles à mon père que je découvre à peine C'est lui qui fait pleurer cette guitare, on a répété ça cet après-m'</t>
+          <t>J'prends conscience de mes extrémités, je mets mes orteils potelés dans la bouche Au-dessus d'moi, deux visages familiers, mais lequel des deux va changer ma couche ? J'connais pas trop d'odeurs mais j'sais que, là, je pue, j'me nourris de bonheur et n'suis jamais repu Je pousse de petits cris, répète Areuh, areuh, j'n'ai pas encore appris à prononcer Heureux Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Les oiseaux font leur solo sans partition, se taisent quand la rosée fait son apparition Je baye aux corneilles tandis que mes parents bâillent sur le canapé mais, quand j'tombe de sommeil, il y a toujours leurs bras pour me rattraper Bercé par le son des cloches, les grillons qui jam, les feuilles qui frémissent, les rythmes infinis de la nature me parlent Mon cur bat la chamade, j'ai des visions dignes d'un chamane, au chaud dans ma cabane, la Haute-Savoie devient ma savane Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Réveillé par la faim, j'pourrais téter sans fin veiller sur moi, c'est presque un travail à temps plein Quand on me tend le doigt, je le serre dans mes mains, j'veux pas laisser filer ceux sans qui je n'suis rien Mes éclats de rire cristallins éveillent en eux l'envie de me faire mille câlins Je suis au paradis, enveloppé de tendresse, ici, rien ne m'agresse, et dire que, d'ici peu, je serai citadin Des accords de guitare me contaient des histoires, tout était harmonieux L'amour était vital, la mort n'existait pas, j'en ai les larmes aux yeux C'était l'apogée d'un trio dont l'amour était le ciment C'était la Pangée mais on s'est éloigné comme les continents</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Le Visiteur</t>
+          <t>Mad Seahorse in London</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Ta canette va toucher la mallette, éclabousser la crête et la baguette De ce sale mec dont les baskets vont t'éclater la tête Comme un coup de pastèque, et t'écraser comme une carpette Tu te réveilleras ligoté au beau milieu d'un temple Aztèque Horrifié, courtisé par cent playmates momifiées Qui t'offriront quelques crevettes génétiquement modifiées Frénétiquement, tu t'engraisseras en engrossant quatre d'entre elles Chez les momies, y'a peu d'entraide, surtout quand on n'est qu'un engrais Selon le rituel, tes enfants seront scarifiés Scalpés puis sacrifiés, ce monde est si cruel Qu'on déposera leur carcasse dans une carapace remplie de miel Sur ce pont reliant deux mondes le concret et le virtuel Ces démentielles offrandes aux démons fiers et trop grands Permettront aux momies de quitter leur temps De franchir le pont, d'oublier leurs monts en s'engouffrant sans repère Dans le maudit royaume des géants de fer Tu resteras seul, attaché, avachi, amoché À mâcher tes cheveux alourdis par la poussière Tu profiteras de l'immortalité que t'aura octroyé Ce trop nerveux sorcier, c'est une fatalité, mon frère Mais une navette débarquera, tu embarqueras pour une planète Où, haletant, tu résoudras quelques casse-têtes Mais couvrira, dans une mallette, entre une canette et des bandelettes Quelques vignettes assez bien faites représentant ta grand-mère qui t'allaite1</t>
+          <t>Mad Seahorse in London, oh my God I'm a high kicker, let's take a ride deeper in your mind mister I'm your guide and I give dry fever I've seen beetles deepthroatin' Justin Bieber dressin just like Jack the Ripper At the grammys for his grannies and his babysitter Oh ! Oh ! Oh ! My flow's like snow on a sombrero Honestly, you don't deserve me bro cause I'm a Monty Python, a silent lion shinin like a diamond Lord Byron called me his cold iron idol I'm tastin' a pie, lickin' a mic, ridin' a bike at the same time Ready to bite, ready to die, winnin' the fight on the bass line I'm a pilot and a pirate, I hide my rhymes in a bagpipe I'm a kind that's sleepin in a hammack on the top of Big Ben or in Bagdad Each word is a climax, please call me the twilight, historical Mad Max I'm a singer, a stage five ringer, this finger means bye bye Motherfuckers ! Mad Seahorse ! En français, on dit Hippocampe Fou</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>L’intox permanente</t>
+          <t>Mamie danse</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Las mentiras Las mentiras Las mentiras no son la verdad aunque se oigan cada dia Las mentiras Las mentiras Las mentiras, las mentiras Las mentiras, las mentiras Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Oswald est le seul assassin de Kennedy mentiras On n'peut pas annuler la dette de l'Afrique mentiras La guerre en Irak n'était pas qu'une histoire de fric mentiras La plupart des banlieusards vivent du trafic mentiras Le sida ne fait plus autant d'ravages mentiras Mon livre d'Histoire m'a tout dit sur l'esclavage mentiras Pour vivre vieux, il faut être sain et sportif mentiras La paix est impossible entre Arabes et Juifs mentiras Les bombardements n'ont pas tué de civils mentiras La France ne vit pas contaminée par Tchernobyl mentiras T'es qu'une merde si t'es pas fait pour l'école mentiras Une meuf peut finir par kiffer lorsqu'on la viole mentiras Le rap rend les jeunes de plus en plus violents mentiras On peut pas reconnaître le vote blanc mentiras Dix ans d'placard remettent un Homme sur le droit chemin mentiras Quand les gentils gagnent toujours à la fin x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ouais, dès l'école élémentaire, on nous dit qu'on est sédentaire Qu'on privatise la Terre entière et que c'est nécessaire Que la loi du marché est préférable à la loi de la jungle Que c'est dangereux, la liberté, car l'Homme descend du singe Tout p'tit, on t'explique que, partout, y'a des pauvres Qu'il faut finir ses spaghettis, comme si ça changeait quelque chose On n'remet jamais en question les causes profondes de nos tourments Car on fait des indigestions de slogans et de règlements La France aux Français Hey, cowboy, ce bout d'terrain nous appartient Ouais, un jour, nos ancêtres l'ont volé à leurs voisins Et puis on n'peut pas accueillir toute la misère du monde Donc il faut la faire déguerpir à la vitesse du son Y'a un tarif pour l'paradis, c'est interdit aux apatrides Notre président n'est pas raciste, c'est les Gitans, les parasites Donc on mettra des caméras partout dans la ville Oui, l'État vous protégera, alors dormez tranquille x2 Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ce n'est ni par cupidité ni pour trouver la gloire Qu'il a quitté son village, il l'a fait par désespoir La guerre a laissé six pieds sous terre Sa femme et sa mère, son fils et son père, l'exil est amer Il a traversé des pays entiers à pieds, troué ses souliers Pris des rafiots en bois pourri, toujours sans bouée Transpiré et risqué sa vie pour avoir le pri- -vilège de mendier sous la pluie, la neige, de respi- Rer l'air pollué d'une ville agitée, de s'aliter Dans des cages d'escalier ou dans des poulaillers sans grimacer Le droit de balayetter aux entrées, galérer, lacérer Tenter d'éviter les contrôles d'identité De finir, un soir, comme donnée chiffrée citée au JT Un étranger, un sans-papier de plus expulsé, l'été Son passé n'est pas retracé, l'info est vite effacée Par le flux des pubs, des films lisses prémâchés L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler J'ai dit L'eldorado existe, c'est un club privé Un paquebot entouré de radeaux qu'on regarde couler Ça sent bizarre, c'est l'intox permanente Du matin au soir, y'a que comme ça qu'ça rentre Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente Ça sent bizarre, c'est l'intox permanente Du matin au soir, c'est l'intox permanente Ça sent bizarre, c'est l'intox permanente On s'demande qui croire, comment éviter qu'on nous mente1</t>
+          <t>Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique et a du sex-apeal Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique surtout quand elle s'applique Elle a cinq ans et voit valser des bourgeois dans ces salons Que sa maman nettoie, mais pourquoi pleure t-elle quand elle s'allonge ? Elle a quinze ans, danse le swing, et Marcel s'étend sur le ring Lui permet d'oublier les crimes de ces pseudo-vikings Qui ont envahi sa ville, pillé, tué des familles Sali et violé des filles, sa vie n'est pas si facile À trente ans, elle gigote sur du rock Trouve des hommes attirants puis les croque Elle se moque du regard des gens Et se frotte sur un air de tango entêtant En deux temps, trois mouvements, voilà le disco Ses enfants fuient doucement pendant ses discours À cinquante-cinq ans, elle découvre la salsa Comprend Le break la fascine, le crunk la calcine Elle repense à l'époque de et Bécassine Mamie danse pour ne pas s'enraciner Se dépense, quitte à paraître ensorceler</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>L’inuit</t>
+          <t>Mentos + Coca = Bombe artisanale</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Je viens de loin, comme toi Et, il y a quelques années, avec les miens, je m'y revois C'est comme si j'y étais, et Une sublime aurore boréale effleure de son voile de mousseline mon regard Nous avançons dans ce désert de glace, sans nourriture, hélas, l'hiver, les proies se font rare Le froid engourdit mes membrs, mes forces ont pris la fuite Ds flocons perlent sur mes cheveux de cendres, je ne suis que le fossile d'un chef inuit Mes pieds chuchotent à mes bottes en peau d'phoque Des épopées d'une autre époque Où j'étais vif, souple et imprudent Maintenant, je ralentis mon groupe, je suis trop lent Mon reflet me dévisage, chaque soir, la vieillesse me donne le sein Mes regrets m'apparaissent comme des mirages, mon histoire touche à sa fin J'ai appris à mes enfants à construire des igloos, à chasser le morse et le caribou Mais leur estomac noué prédit que, dans très peu de temps, ils m'abandonneront devant la porte du néant Et ils m'ont abandonné sur un bout d'banquise Le bout d'banquise a fini par fondre et, comme par miracle, j'ai flotté J'ai flotté des mois entiers, voire des années Jusqu'au jour où un pêcheur m'a sauvé Cet homme m'a recueilli, il a partagé ses repas et sa hutte avec moi Un matin, il est parti pêcher, seul son corps est revenu C'est pour cet homme que l'on chante aujourd'hui Pour ce fils qu'une mère ne reverra plus Tu cherches une réponse ? Tu la trouveras tout en haut Au sommet de l'Everest And action!</t>
+          <t>Secouer ta canette comme des maracas à Caracas C'est cocasse mais tu payes les pots cassés et ça t'agace Tu rêves de nouvelles sensations Viens faire un tour dans mon grand parc d'attractions Et regarde avec attention Il pleut du Coca sur des champs de Mentos Je lance des Mentos dans une mer de Coca Ça créé des geysers sucrés Qui rencontrent un sacré succès C'est mieux qu'être camé à Meda', tu peux t'mettre à té-cô' Et crier kamehameha, tu veux goûter mais C'est dur à digérer comme de la nitroglycérine J'érige un paradis pour les gens souffrant d'hypoglycémie Des millions de cainris se fightent, alright Contre des kilocalories en se gavant de Coca Light car Ses bulles ondulent comme les pieds de Zébulon Ils se croient libellule, oublient leur double menton Ça les excite plus que le Pepsi, plus que l'anus d'une mexicaine sexy mais C'est pire qu'un strip en speed, un sprint en string Un horrible screener en streaming, sans ice cream, un spliff sans weed Oui, le Coca remplace l'eau à la cantine On prend des Mentos comme de l'aspirine Tente l'étrange mélange, en cas d'angine Trempe tes manches et dérange ta frangine x4 Tu vois pour sauver ce monde qui va mal Je dois faire sauter cette bombe artisanale</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ma cabane</t>
+          <t>Messe noire</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>J'prends conscience de mes extrémités, je mets mes orteils potelés dans la bouche Au-dessus d'moi, deux visages familiers, mais lequel des deux va changer ma couche ? J'connais pas trop d'odeurs mais j'sais que, là, je pue, j'me nourris de bonheur et n'suis jamais repu Je pousse de petits cris, répète Areuh, areuh, j'n'ai pas encore appris à prononcer Heureux Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Les oiseaux font leur solo sans partition, se taisent quand la rosée fait son apparition Je baye aux corneilles tandis que mes parents bâillent sur le canapé mais, quand j'tombe de sommeil, il y a toujours leurs bras pour me rattraper Bercé par le son des cloches, les grillons qui jam, les feuilles qui frémissent, les rythmes infinis de la nature me parlent Mon cur bat la chamade, j'ai des visions dignes d'un chamane, au chaud dans ma cabane, la Haute-Savoie devient ma savane Ce monde recèle de merveilles, je n'parle pas encore mais j'essaye Je babille en admirant le ciel puis m'assoupis sur mon tapis d'éveil Réveillé par la faim, j'pourrais téter sans fin veiller sur moi, c'est presque un travail à temps plein Quand on me tend le doigt, je le serre dans mes mains, j'veux pas laisser filer ceux sans qui je n'suis rien Mes éclats de rire cristallins éveillent en eux l'envie de me faire mille câlins Je suis au paradis, enveloppé de tendresse, ici, rien ne m'agresse, et dire que, d'ici peu, je serai citadin Des accords de guitare me contaient des histoires, tout était harmonieux L'amour était vital, la mort n'existait pas, j'en ai les larmes aux yeux C'était l'apogée d'un trio dont l'amour était le ciment C'était la Pangée mais on s'est éloigné comme les continents</t>
+          <t>Yeah En 2010, j'étais déjà sur SoundCloud J'arrive avec un nouveau son d'cloche T'es tombé sur moi par hasard ? Bonne pioche J'ai replongé, j'profite avant le grand splash R.A.F de vos classements j'suis inclassable J'avoue, ça m'vexe quand j'suis pas d'dans Quand je bois, je régresse, je ris grassement Je me lâche, je te lèche efficacement C'est nouveau mais pas neuf, j'fais de l'upcycling Désinvolture, excès de punchlines fins S'adapter, c'est perdurr, demande au Père Darwin Ce soir, shooting tu feras Brandon Lee, moi Alec Baldwin Les autres MC m'encensent, implorent mon pardon J'fais preuve de tolérance et de compassion J'ai d'plus en plus d'adeptes et de compagnons Les mots qu'j'emploie, j'les traite comme un bon patron, mais J'improvise pas devant les enfants, j'suis trop obsédé J'balance des dingueries en rigolant comme un possédé En fait, j'libère mon inconscience, c'est ça, le procédé Aussi vilain qu'omnipotent, j'mérite des grosses fessées J'voudrais pas vous contrarier M'écouter, c'est risquer la combustion spontanée J'respecte la nature, elle est devenue mon alliée Si des corbeaux t'attaquent, c'est que j'essaye de te contacter J'suis la drogue dure dans ta tête molle À chaque mesure, tu te questionnes À force d'me faire grignoter par des bestioles J'fais faire sonner le français comme personne Ils veulent acheter mon âme avec leurs gueules de vendus Je fuis les marécages et toute cette bande de sangsues Je grimpe sans efforts, pourtant la route est pentue Prêt pour la petite mort, j'arbore une gaule de pendu J'débarque avec une armée d'ectoplasmes Hippo un esprit malsain dans un corps flasque Une tête de poule, des sacrifices, un curieux nectar C'est pas une guerre sainte, c'est une messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mad Seahorse in London</t>
+          <t>Mes voisins</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mad Seahorse in London, oh my God I'm a high kicker, let's take a ride deeper in your mind mister I'm your guide and I give dry fever I've seen beetles deepthroatin' Justin Bieber dressin just like Jack the Ripper At the grammys for his grannies and his babysitter Oh ! Oh ! Oh ! My flow's like snow on a sombrero Honestly, you don't deserve me bro cause I'm a Monty Python, a silent lion shinin like a diamond Lord Byron called me his cold iron idol I'm tastin' a pie, lickin' a mic, ridin' a bike at the same time Ready to bite, ready to die, winnin' the fight on the bass line I'm a pilot and a pirate, I hide my rhymes in a bagpipe I'm a kind that's sleepin in a hammack on the top of Big Ben or in Bagdad Each word is a climax, please call me the twilight, historical Mad Max I'm a singer, a stage five ringer, this finger means bye bye Motherfuckers ! Mad Seahorse ! En français, on dit Hippocampe Fou</t>
+          <t>Quand vient la nuit, à l'abri de la pluie Seul, assis, silencieux, je m'instruis Puis je cherche des rimes, les yeux dans l'vide, avec assiduité J'entends des bruits suspects donc suspends mon activité Ça vient de chez mes voisins, il est minuit moins cinq Ça, c'est l'heure du câlin, j'crois qu'c'est bientôt la fin J'colle mon oreille au mur en analysant les gémissements Il la prend frénétiquement, tout ça est très excitant Leur lit grince, j'aimerais m'y téléporter Je voudrais les regarder s'étreindre sans gêne et les border J'aime ces symphonies quotidiennes qui viennent me réconforter Ça passe des blanches aux noires, aux croches, bref, ils remplissent des portées Ça résonne dans tout mon appart', voire dans tout l'immeuble À croire qu'ils veulent que tout l'monde en parle, ils font trembler mes meubles C'n'est plus un coït, c'est une secousse sismique Une orgie de titans torrides, dommage qu'ils jouissent vite Elle voudrait la vie d'château, adopter un p'tit chaton Elle a troqué ses baskets et ses sandales pour des chaussures à talons Il préfère glander en caleçon, s'comporter comme un p'tit garçon Deux capitaines, un bateau, j'aperçois la grisaille qui plane sur leur salon Finie, l'idylle ensoleillée finies, les aspirations épicuriennes J'entends l'tonnerre gronder plusieurs fois par semaine, suivi d'une pluie de reproches diluvienne Embourbés dans la routine, ils dépérissent, la vérité s'est remaquillée Ils aimeraient tant retourner le sablier, recoller les débris de rêves éparpillés Mais l'amour est assis dans un petit wagon dévalant des montagnes russes Aucune barre de sécurité ne peut le retenir, il suit le processus Et finit par s'envoler vers un ciel plus clément sans cumulonimbus Je l'ai vu déserter pas mal de foyers, ceci n'est qu'une rupture de plus Tous les dimanches, il se réveille seul Il déambule en silence dans le plus simple appareil, seul Dans ce décor, quelques miroirs lui permettent de se sentir moins seul Il brûle encore dans l'étouffoir, on peut dire qu'il s'en tire bien seul Planté devant son frigo, il devient explorateur En quête de restes qu'il engloutira tristement devant son écran d'ordinateur Il fume dans sa cuisine, fenêtres fermées, puis fixe d'un air dépité La petite montagne de vaisselle sale qu'il a lentement érigée Un cur d'occasion dans un corps sans passion Les souvenirs d'une vie bien rangée dans un grand carton Une armoire à moitié vide, des placards à moitié pleins Une pile de guides des villes visitées quand, à deux, ils n'étaient qu'un J'l'ai croisé dans l'escalier tout à l'heure, il m'a souri, soudain, son regard s'est éteint Il était là mais je savais pertinemment que, dans sa tête, il était loin Il refaisait le plein d'ébats de fous rires, de débats, de soupirs dont je fus témoin Revivant ces moments que le temps déteint, rembobinant avec soin le film avant la fin</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mamie danse</t>
+          <t>MiAm MiAm</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique et a du sex-apeal Danse classique ou folklorique Rock acrobatique ou tecktonik Oui, mamie déteste rester statique Elle extatique surtout quand elle s'applique Elle a cinq ans et voit valser des bourgeois dans ces salons Que sa maman nettoie, mais pourquoi pleure t-elle quand elle s'allonge ? Elle a quinze ans, danse le swing, et Marcel s'étend sur le ring Lui permet d'oublier les crimes de ces pseudo-vikings Qui ont envahi sa ville, pillé, tué des familles Sali et violé des filles, sa vie n'est pas si facile À trente ans, elle gigote sur du rock Trouve des hommes attirants puis les croque Elle se moque du regard des gens Et se frotte sur un air de tango entêtant En deux temps, trois mouvements, voilà le disco Ses enfants fuient doucement pendant ses discours À cinquante-cinq ans, elle découvre la salsa Comprend Le break la fascine, le crunk la calcine Elle repense à l'époque de et Bécassine Mamie danse pour ne pas s'enraciner Se dépense, quitte à paraître ensorceler</t>
+          <t>Je vends des bouts d'shit le lundi devant des boutiques de lingerie Je mets des moule-bites bluffant mes groupies qui sont des rouquines de quinze piges Mes singeries étourdissent, intriguent les fourmis Indignent les touristes cainris sans sous-titres Phrases paranormales, projection d'vitamines J'me pavane au taf, comme les lions, j'vis la nuit J'me barre à dos d'âne, balade au calme J'croise Paranoyan, connexion Lille-Paris ! Blabla sarcastique, bagage aquatique Ma voix assagit les barbares tard la nuit Vis ma vie gars, ça t'irradiera T'iras vite boire, ça t'dynamisera Le rap tourne en rond comme un poisson rouge Coincé dans son bocal depuis mille neuf cent soixante douze T'as téléchargé tous les projets d'Hippo t'as tout bon Si c'est pas le cas, j'te plante avec des ciseaux à bouts ronds Miam, miam, miam, miam, miam, c'est bon ça ! Quand on s'masturbe, on t'engraisse Mama, mama, mama mia ! En cas d'coup dur, on encaisse Miam, miam, miam, miam, miam, c'est bon ça ! A chaque mesure, on progresse Mama, mama, mama mia ! Appuie vite sur Control S Quand je rappe droit au but, j'atteins le stade vélodrame Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Au point d'voir une kalashnikov sur le drapeau du Mozambique Toujours dans la hood, le cul entre deux chaises Une musicale et une chaise électrique Je suis ce blanc qui fait du rap comme un black ferait du golf En baisant plus de pétasses que Tiger Woods Mon époque Van Damme a fait des Jean-Claude Vandales Et des Jean-Claude vend grammes parlent de douze J'ai toujours pas ma case pendant qu'les adolescents Passent de BB Brunes à ces rappeurs qui parlent de swag Et puis t'as pas réalisé, y a plus de dealers que de Mc Do Donc les petits tapent des rails aussi longs que les Champs Elysées Les grands retournent dans les sous-sols faire des sous sales Car la 'sique, c'est mort d'ouvrir un coffre avec une clé de sol Miam, miam, miam, miam, miam, c'est bon ça ! J'ai la banane pour ta guenon Mama, mama, mama mia ! Ta sirène mouille comme un thon Miam, miam, miam, miam, miam, c'est bon ça ! Pour les boulets, les canons Mama, mama, mama mia ! Tu pleures quand j'te fais l'oignon Des histoires de rappeurs ont commencé sur de la tromperie Donc ils finissent paumés dans la vraie vie quand leur carrière finit Et j'te passe les haineux qui jouent les vrais mais ne font pas d'vues Ils peuvent violer sur YouTube, personne s'en apercevrait Pendant qu'tu critiques entre deux onglets YouPorn Une miss fait gonfler mon épi d'maïs comme du pop-corn Si tu m'adores, je te mords le coeur Car les loups ne se changent pas en labradors J'ai rejoint la Nouvelle Zélande en transilien J'mets des capotes pour éléphants, de grands bonnets phrygiens Ouais, j'l'admets, j'suis l'amant rêvé, mes amis l'savent J'rapperai jusqu'à m'en péter les amygdales J'brise les vitres avec mes rimes épiques et fines Pisse des litres, asperge vite des flics débiles Les filles s'excitent dès que j'exhibe mes griffes Elles décryptent ces lignes extirpées de mes tripes très cleans</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mentos + Coca = Bombe artisanale</t>
+          <t>Monstre et Cie</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Secouer ta canette comme des maracas à Caracas C'est cocasse mais tu payes les pots cassés et ça t'agace Tu rêves de nouvelles sensations Viens faire un tour dans mon grand parc d'attractions Et regarde avec attention Il pleut du Coca sur des champs de Mentos Je lance des Mentos dans une mer de Coca Ça créé des geysers sucrés Qui rencontrent un sacré succès C'est mieux qu'être camé à Meda', tu peux t'mettre à té-cô' Et crier kamehameha, tu veux goûter mais C'est dur à digérer comme de la nitroglycérine J'érige un paradis pour les gens souffrant d'hypoglycémie Des millions de cainris se fightent, alright Contre des kilocalories en se gavant de Coca Light car Ses bulles ondulent comme les pieds de Zébulon Ils se croient libellule, oublient leur double menton Ça les excite plus que le Pepsi, plus que l'anus d'une mexicaine sexy mais C'est pire qu'un strip en speed, un sprint en string Un horrible screener en streaming, sans ice cream, un spliff sans weed Oui, le Coca remplace l'eau à la cantine On prend des Mentos comme de l'aspirine Tente l'étrange mélange, en cas d'angine Trempe tes manches et dérange ta frangine x4 Tu vois pour sauver ce monde qui va mal Je dois faire sauter cette bombe artisanale</t>
+          <t>Sable dans le dos, champagne dans le seau Mon sabre dans le thorax d'un anthropophage J'bois du jus d'coco dans des coquillages Dors dans un sarcophage encerclé par de gros grillages J'ai peur d'être attaqué quand je fais la sieste Mon visage est balafré, j'ai connu la peste On est loin des vacances à la plage J'ai rejoint cette île effarante à la nage Oui, j'ai fui ce monde rempli De zombies, de grands tas d'immondices, y songe Tout s'est effondré, il y a vingt-huit ans Impuissant, j'ai regardé ma mère Se faire manger par des centaines de morts-vivants C'était exorbitant maman ? Isolé, je survis au soleil et j'attends Obligé de me suffire à moi-même, c'est navrant Mon destin changea un vendredi soir entre dix et onze Le moment fut noir triste et sombre, j'deale mes 'ons-s' tranquille Devant c'bar, un premier zombie en pleine rue Le ventre ouvert, les yeux hors des orbites, j'tombe de haut, ému Par la scène, n'aperçois pas l'second derrière moi Lesquive d'un poil de 'ul-c' grâce au barman et à sa vodka Hop là, roulade à la Moax Payne, mon cur s'emballe Attrape un tesson d''teille et t'choppe ça À la gorge, saigne, frappe partout où j'peux Jai pris la fuite ce jour-là, depuis, mes potes se nomment Whisky-Cola J'suis devenu un bouseux armé jusqu'aux dents Pendant un moment, j'étais lié à un groupe de gens Même ma famille fut dévorée dès les premières semaines On a perdu les trois-quarts de l'équipe en une saison Seule, j'traîne, gueule, peine à trouver d'la graille La chair humaine n'est pas si mal, frère, plus d'raison Moi, j'suis seul parmi les monstres, et le seul gars qui dénonce Le linceul où glisse le monde, la noirceur qui risque de plomber Latmosphère d'jà grise et sombre, ouais, j'suis seul contre tous Et, sur le seuil, j'te repousse car, sans vouloir mépriser lautre Je misole, deviens ouf, et fais ma place parmi les ombres Crée une bad combinaison, déraison, manque de souffle Enfermé dans ma p'tite maison, toujours vivant tant qu'je souffre Constamment au bord du gouffre et sous une incessante pression J'parle pas avec dérision, en mission dès qu'la porte souvre Avancer dans c'monde de sourds est ma toute première ambition J'me pose pas dix mille questions, car la seule réponse que j'trouve Est quil faut survivre en eaux troubles, et marcher en toute discrétion Réalité ou fiction ? Jai limpression quon sengouffre Dans un tunnel qui sent l'souffre et, sans y voir de direction Moi, jai lintime conviction, que, tous ensemble, on sétouffe Et quil faut vivre seul et cest tout, ouais, cest mon unique solution face aux monstres J'ai besoin d'cet outil planqué dans l'garage mais comment l'atteindre ? Mon jardin est infesté d'mecs à trois jambes J'en ai dessoudé un, puis deux, puis cinquante-quatre, j'm'en rappelle Au trentième, j'n'avais qu'vingt-trois ans Belle journée mémorable, j'ai dû étouffer mon p'tit frère Avant qu'sa morsure n'atteigne mes artères fémorales Oui, c'est dur, ma mère y tenait, à c'mioche, elle a pas fait long feu Une fois des leurs, j'ai dû la finir à la pioche À présent, j'suis rodé c'est sûr, limite, je trouve ça cool Qu'on n's'accouple plus, qu'on puisse couper des têtes Qu'on s'saoule au sang d'zombie coupé à une flotte virusée Maintenant qu'on n'bouffe plus trop, j'ai arrêté d'mouler des cakes Aussi, j'aime recevoir des invités, oui, j'suis plus cool qu'avant Si tu as froid, je t'en prie, viens te réchauffer J'allume le four chut, ne dis rien, sachant qu'je tiens l'fusil Approche, l'ami, qu'j'puisse te désosser easy</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Messe noire</t>
+          <t>Montagnes Russes</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Yeah En 2010, j'étais déjà sur SoundCloud J'arrive avec un nouveau son d'cloche T'es tombé sur moi par hasard ? Bonne pioche J'ai replongé, j'profite avant le grand splash R.A.F de vos classements j'suis inclassable J'avoue, ça m'vexe quand j'suis pas d'dans Quand je bois, je régresse, je ris grassement Je me lâche, je te lèche efficacement C'est nouveau mais pas neuf, j'fais de l'upcycling Désinvolture, excès de punchlines fins S'adapter, c'est perdurr, demande au Père Darwin Ce soir, shooting tu feras Brandon Lee, moi Alec Baldwin Les autres MC m'encensent, implorent mon pardon J'fais preuve de tolérance et de compassion J'ai d'plus en plus d'adeptes et de compagnons Les mots qu'j'emploie, j'les traite comme un bon patron, mais J'improvise pas devant les enfants, j'suis trop obsédé J'balance des dingueries en rigolant comme un possédé En fait, j'libère mon inconscience, c'est ça, le procédé Aussi vilain qu'omnipotent, j'mérite des grosses fessées J'voudrais pas vous contrarier M'écouter, c'est risquer la combustion spontanée J'respecte la nature, elle est devenue mon alliée Si des corbeaux t'attaquent, c'est que j'essaye de te contacter J'suis la drogue dure dans ta tête molle À chaque mesure, tu te questionnes À force d'me faire grignoter par des bestioles J'fais faire sonner le français comme personne Ils veulent acheter mon âme avec leurs gueules de vendus Je fuis les marécages et toute cette bande de sangsues Je grimpe sans efforts, pourtant la route est pentue Prêt pour la petite mort, j'arbore une gaule de pendu J'débarque avec une armée d'ectoplasmes Hippo un esprit malsain dans un corps flasque Une tête de poule, des sacrifices, un curieux nectar C'est pas une guerre sainte, c'est une messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire Messe noire, messe noire, messe Messe noire, messe, messe noire</t>
+          <t>Moi, j'vis des hauts et des bas, jsuis tout en haut quand j'rappe Mais vite retombe quand j'mate que ça ne me rapporte pas Et, devant mon plateau repas, des vidéos me parlent Des clips très beaux me narguent et ça devient nimporte quoi Mais j'nen fais pas tout un plat, les idéaux comme d'hab' Nous disent égaux, semblables, utilisent la langue de bois On aura encore le droit aux clichés confortables Aux idées qu'on formate, auxquels je naccorde pas De crédit, ni même de poids, en bas d'léchelle à chaque fin du mois J'suis pourtant toujours tout en haut au micro check En bas quand on parle demploi, ni cadre, ni grand chef En haut quand on parlera de cette rime et des dix prochaines Les hauts et les bas vite senchaînent, tout comme les exploits Et les bides semmêlent, les espoirs et les mises en scènes qui déçoivent Et on vit sans être des esclaves, ni même des puissants maîtres Mais cest tout d'même épuisant dêtre dans cette foire qui mentraîne encore cette fois x2 On vit des hauts et des bas, des montagnes russes depuis le départ Mais crois pas que tout l'monde samuse et qu'la vie tépargne Cest à celui qui montera l'plus à labri des regards Pas à celui qui tombera juste entre les étages On trime sur des remontées mécaniques des tréfonds océaniques À la renommée, mais, une fois au sommet, ébahis On n'peut que sombrer, on s'laisse retomber Le temps nous est compté, quelle éprouvante épopée tragique C'est la descente qui nous décoiffe, nous met des baffes Nous broie, nous froisse, l'on grimace, l'on se crispe, l'on se fâche L'insouciance laisse place à la tourmente, l'extase À la souffrance, la jouvence à l'incontinence Notre existence un manège où l'on avance sans frein Il faut apprendre à toucher le fond avec entrain À renaître de ses cendres, à remonter la pente À jongler avec ses émotions, à supporter l'attente Épaulé par ses amis, sa famille, voire par des inconnus C'est beau mais rare et, quand cela arrive, crois-moi, c'est impromptu Quand j'ai la gueule de bois quand j'meurs de froid, quand j'pleure quand j'me sens seul Je dois me dire qu'ça ira mieux vu qu'on vit tous des hauts, des bas x2 Jai mes hauts et mes bas, mes bons, mes mauvais départs Mes coups de bol, mes coup de blues, mes coups du sort et mes coups dun soir Ma vie une belle garce mythomane, une sorte de pompier pyromane Ça passe du rire aux larmes, de quoi perdre quelques kilogrammes Des fois, je lose total, mais jai le moral Des fois, je gagne mais je déprime plus que Jean-Pierre Coffe au McDonald Jfais du trampoline, dans mon encéphale Ballotté entre connerie sans égale et sagesse ancestrale Pour moi, la perfection est perfectible Donc jme torture lesprit pour des détails imperceptibles Et, si tu mexpliques que cest psychotique, jreste sceptique Car tout va bien tant qu'le public est réceptif Ça va, ça vient comme entre deux jambes écartées Jpasse des abysses aux étoiles, sapé en cosmonaute palmé T'as capté ? Un coup tu vas palper, lautre tu vas raquer Ça passe des palmiers au glacier donc laisse-toi aller La vie cest les montagnes russes x2</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Mes voisins</t>
+          <t>Naufrage</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Quand vient la nuit, à l'abri de la pluie Seul, assis, silencieux, je m'instruis Puis je cherche des rimes, les yeux dans l'vide, avec assiduité J'entends des bruits suspects donc suspends mon activité Ça vient de chez mes voisins, il est minuit moins cinq Ça, c'est l'heure du câlin, j'crois qu'c'est bientôt la fin J'colle mon oreille au mur en analysant les gémissements Il la prend frénétiquement, tout ça est très excitant Leur lit grince, j'aimerais m'y téléporter Je voudrais les regarder s'étreindre sans gêne et les border J'aime ces symphonies quotidiennes qui viennent me réconforter Ça passe des blanches aux noires, aux croches, bref, ils remplissent des portées Ça résonne dans tout mon appart', voire dans tout l'immeuble À croire qu'ils veulent que tout l'monde en parle, ils font trembler mes meubles C'n'est plus un coït, c'est une secousse sismique Une orgie de titans torrides, dommage qu'ils jouissent vite Elle voudrait la vie d'château, adopter un p'tit chaton Elle a troqué ses baskets et ses sandales pour des chaussures à talons Il préfère glander en caleçon, s'comporter comme un p'tit garçon Deux capitaines, un bateau, j'aperçois la grisaille qui plane sur leur salon Finie, l'idylle ensoleillée finies, les aspirations épicuriennes J'entends l'tonnerre gronder plusieurs fois par semaine, suivi d'une pluie de reproches diluvienne Embourbés dans la routine, ils dépérissent, la vérité s'est remaquillée Ils aimeraient tant retourner le sablier, recoller les débris de rêves éparpillés Mais l'amour est assis dans un petit wagon dévalant des montagnes russes Aucune barre de sécurité ne peut le retenir, il suit le processus Et finit par s'envoler vers un ciel plus clément sans cumulonimbus Je l'ai vu déserter pas mal de foyers, ceci n'est qu'une rupture de plus Tous les dimanches, il se réveille seul Il déambule en silence dans le plus simple appareil, seul Dans ce décor, quelques miroirs lui permettent de se sentir moins seul Il brûle encore dans l'étouffoir, on peut dire qu'il s'en tire bien seul Planté devant son frigo, il devient explorateur En quête de restes qu'il engloutira tristement devant son écran d'ordinateur Il fume dans sa cuisine, fenêtres fermées, puis fixe d'un air dépité La petite montagne de vaisselle sale qu'il a lentement érigée Un cur d'occasion dans un corps sans passion Les souvenirs d'une vie bien rangée dans un grand carton Une armoire à moitié vide, des placards à moitié pleins Une pile de guides des villes visitées quand, à deux, ils n'étaient qu'un J'l'ai croisé dans l'escalier tout à l'heure, il m'a souri, soudain, son regard s'est éteint Il était là mais je savais pertinemment que, dans sa tête, il était loin Il refaisait le plein d'ébats de fous rires, de débats, de soupirs dont je fus témoin Revivant ces moments que le temps déteint, rembobinant avec soin le film avant la fin</t>
+          <t>Approche, viens Chut, nul besoin d'm'expliquer c'qui t'est arrivé, j'le sais déjà J'imagine très bien l'état dans lequel tu es Laisse-moi te conter mon voyage</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MiAm MiAm</t>
+          <t>New York</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Je vends des bouts d'shit le lundi devant des boutiques de lingerie Je mets des moule-bites bluffant mes groupies qui sont des rouquines de quinze piges Mes singeries étourdissent, intriguent les fourmis Indignent les touristes cainris sans sous-titres Phrases paranormales, projection d'vitamines J'me pavane au taf, comme les lions, j'vis la nuit J'me barre à dos d'âne, balade au calme J'croise Paranoyan, connexion Lille-Paris ! Blabla sarcastique, bagage aquatique Ma voix assagit les barbares tard la nuit Vis ma vie gars, ça t'irradiera T'iras vite boire, ça t'dynamisera Le rap tourne en rond comme un poisson rouge Coincé dans son bocal depuis mille neuf cent soixante douze T'as téléchargé tous les projets d'Hippo t'as tout bon Si c'est pas le cas, j'te plante avec des ciseaux à bouts ronds Miam, miam, miam, miam, miam, c'est bon ça ! Quand on s'masturbe, on t'engraisse Mama, mama, mama mia ! En cas d'coup dur, on encaisse Miam, miam, miam, miam, miam, c'est bon ça ! A chaque mesure, on progresse Mama, mama, mama mia ! Appuie vite sur Control S Quand je rappe droit au but, j'atteins le stade vélodrame Va dire aux chômeurs surdiplômés que le savoir est une arme Pendant qu'les trafiquants d'armes se frottent les mains en Afrique Au point d'voir une kalashnikov sur le drapeau du Mozambique Toujours dans la hood, le cul entre deux chaises Une musicale et une chaise électrique Je suis ce blanc qui fait du rap comme un black ferait du golf En baisant plus de pétasses que Tiger Woods Mon époque Van Damme a fait des Jean-Claude Vandales Et des Jean-Claude vend grammes parlent de douze J'ai toujours pas ma case pendant qu'les adolescents Passent de BB Brunes à ces rappeurs qui parlent de swag Et puis t'as pas réalisé, y a plus de dealers que de Mc Do Donc les petits tapent des rails aussi longs que les Champs Elysées Les grands retournent dans les sous-sols faire des sous sales Car la 'sique, c'est mort d'ouvrir un coffre avec une clé de sol Miam, miam, miam, miam, miam, c'est bon ça ! J'ai la banane pour ta guenon Mama, mama, mama mia ! Ta sirène mouille comme un thon Miam, miam, miam, miam, miam, c'est bon ça ! Pour les boulets, les canons Mama, mama, mama mia ! Tu pleures quand j'te fais l'oignon Des histoires de rappeurs ont commencé sur de la tromperie Donc ils finissent paumés dans la vraie vie quand leur carrière finit Et j'te passe les haineux qui jouent les vrais mais ne font pas d'vues Ils peuvent violer sur YouTube, personne s'en apercevrait Pendant qu'tu critiques entre deux onglets YouPorn Une miss fait gonfler mon épi d'maïs comme du pop-corn Si tu m'adores, je te mords le coeur Car les loups ne se changent pas en labradors J'ai rejoint la Nouvelle Zélande en transilien J'mets des capotes pour éléphants, de grands bonnets phrygiens Ouais, j'l'admets, j'suis l'amant rêvé, mes amis l'savent J'rapperai jusqu'à m'en péter les amygdales J'brise les vitres avec mes rimes épiques et fines Pisse des litres, asperge vite des flics débiles Les filles s'excitent dès que j'exhibe mes griffes Elles décryptent ces lignes extirpées de mes tripes très cleans</t>
+          <t>Hier, j'étais encore dans l'hexagone Me voici assis à l'arrière d'un taxi jaune À l'ère du billet vert, on la surnomme La nouvelle Rome La cité mère des surhommes, je lâche mes vers dans la grosse pomme À l'ombre d'un gratte-ciel hautain, je tends l'oreille Et entends soudain le cri de King Kong qui s'éveille au loin Je compte les sosies de Brad Pitt, les braves types En batterie, à Wall Street, les traders qui bad trip New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, des toits aux sous-sols New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, New York J'aperçois Obama puis passe un moment au MoMA À mimer ma maman qui m'a transmis l'amour de l'art et des aplats Hop la, j'bosse l'articulation À poil, dos à l'asphalte bloque la circulation Mate New York, cette ville cosmopolite Où poussent de lisses monolithes Où sortent de grosses motos d'flics, de riches sodomites Des clips d'Alicia Keys et Jay Z, style photos chics Adoucis, je m'assoupis dans la ville insomniaque Lors d'une promenade en barque sur le lac de Central Park God bless la Statue de la Liberté topless En état avancé d'ébriété, j'entame sans stress Un freestyle à la mémoire d'ODB KRS One applaudit le Madison Square Garden est conquis J'invite sur scène MF, Woody Allen Smoothe da Hustler Nous sommes rejoins par Chip Fu, Tonedeff et Busta</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Monstre et Cie</t>
+          <t>Nu dans ta douche</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sable dans le dos, champagne dans le seau Mon sabre dans le thorax d'un anthropophage J'bois du jus d'coco dans des coquillages Dors dans un sarcophage encerclé par de gros grillages J'ai peur d'être attaqué quand je fais la sieste Mon visage est balafré, j'ai connu la peste On est loin des vacances à la plage J'ai rejoint cette île effarante à la nage Oui, j'ai fui ce monde rempli De zombies, de grands tas d'immondices, y songe Tout s'est effondré, il y a vingt-huit ans Impuissant, j'ai regardé ma mère Se faire manger par des centaines de morts-vivants C'était exorbitant maman ? Isolé, je survis au soleil et j'attends Obligé de me suffire à moi-même, c'est navrant Mon destin changea un vendredi soir entre dix et onze Le moment fut noir triste et sombre, j'deale mes 'ons-s' tranquille Devant c'bar, un premier zombie en pleine rue Le ventre ouvert, les yeux hors des orbites, j'tombe de haut, ému Par la scène, n'aperçois pas l'second derrière moi Lesquive d'un poil de 'ul-c' grâce au barman et à sa vodka Hop là, roulade à la Moax Payne, mon cur s'emballe Attrape un tesson d''teille et t'choppe ça À la gorge, saigne, frappe partout où j'peux Jai pris la fuite ce jour-là, depuis, mes potes se nomment Whisky-Cola J'suis devenu un bouseux armé jusqu'aux dents Pendant un moment, j'étais lié à un groupe de gens Même ma famille fut dévorée dès les premières semaines On a perdu les trois-quarts de l'équipe en une saison Seule, j'traîne, gueule, peine à trouver d'la graille La chair humaine n'est pas si mal, frère, plus d'raison Moi, j'suis seul parmi les monstres, et le seul gars qui dénonce Le linceul où glisse le monde, la noirceur qui risque de plomber Latmosphère d'jà grise et sombre, ouais, j'suis seul contre tous Et, sur le seuil, j'te repousse car, sans vouloir mépriser lautre Je misole, deviens ouf, et fais ma place parmi les ombres Crée une bad combinaison, déraison, manque de souffle Enfermé dans ma p'tite maison, toujours vivant tant qu'je souffre Constamment au bord du gouffre et sous une incessante pression J'parle pas avec dérision, en mission dès qu'la porte souvre Avancer dans c'monde de sourds est ma toute première ambition J'me pose pas dix mille questions, car la seule réponse que j'trouve Est quil faut survivre en eaux troubles, et marcher en toute discrétion Réalité ou fiction ? Jai limpression quon sengouffre Dans un tunnel qui sent l'souffre et, sans y voir de direction Moi, jai lintime conviction, que, tous ensemble, on sétouffe Et quil faut vivre seul et cest tout, ouais, cest mon unique solution face aux monstres J'ai besoin d'cet outil planqué dans l'garage mais comment l'atteindre ? Mon jardin est infesté d'mecs à trois jambes J'en ai dessoudé un, puis deux, puis cinquante-quatre, j'm'en rappelle Au trentième, j'n'avais qu'vingt-trois ans Belle journée mémorable, j'ai dû étouffer mon p'tit frère Avant qu'sa morsure n'atteigne mes artères fémorales Oui, c'est dur, ma mère y tenait, à c'mioche, elle a pas fait long feu Une fois des leurs, j'ai dû la finir à la pioche À présent, j'suis rodé c'est sûr, limite, je trouve ça cool Qu'on n's'accouple plus, qu'on puisse couper des têtes Qu'on s'saoule au sang d'zombie coupé à une flotte virusée Maintenant qu'on n'bouffe plus trop, j'ai arrêté d'mouler des cakes Aussi, j'aime recevoir des invités, oui, j'suis plus cool qu'avant Si tu as froid, je t'en prie, viens te réchauffer J'allume le four chut, ne dis rien, sachant qu'je tiens l'fusil Approche, l'ami, qu'j'puisse te désosser easy</t>
+          <t>Hippo le nigaud, l'amigo du micro, le mythe et le mytho, le métronome A taché de mille mots des kilos de rivaux, de minos débiles et de vrais bonshommes Quand je siffle des mélodies comme M le Maudit Même la Vénus de Milo applaudit Voici le druide et le griot, le bridge et le tricot vieillot Le pépin dans l'abricot, le briquet dans le Frigo Je veux des moments câlins avec des mamans catins Me réveiller un matin dans la cage de mon lapin Je porte un air débonnaire sous mon bonnet de bain Fais peur aux fiers légionnaires en leur donnant du pain J'ai deux tableaux de Gauguin, j'ai déjà lu le bottin Tu sembles hautain, pourtant, tu remues bien ton popotin J'ai souvent faim lorsque je sens le doux parfum d'un défunt Roule sans frein et, quand je mens, j'arrive parfois à mes fins Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Mal rasé, mon corps est matelassé à cause des Mars glacés Des steaks tartares quand je suis carnassier Et je vais t'arnaquer, comme Barnabé À qui j'ai vendu du rat noir au prix d'un bon canard laqué Pourtant, je combats les coups bas des banques Les quotas, les montres, les compas, les tanks Ma langue joue du tam-tam, chauffe tes tempes C'est Hippocampe qui fout le ramdam donc, allez, danse J'écoute les doutes de tous Les résumés des matchs de foot et des courses De la mousse pousse sous mes pieds, souvent grippé, je tousse Comme un ours qui fumerait avec un patch collé aux bourses Dans la brousse, sans ma trousse de toilettes, j'ai la frousse Crie à l'aide quand des mouches se ramènent, puis me couche Près d'une souche, mon haleine me dégoûte mais les hyènes Me veulent toutes, je m'accouple avec toutes celles qui louchent T'as qu'à barrer mon nom sur la liste des invités Mais je risque d'occuper une piste à l'entrée De m'accaparer tous tes disques rayés Et d'en faire des délices qui puissent captiver Ceux qui s'agitent et ceux qui le méritent Ceux qui méditent transpirent Je fais saliver tous ceux qui m'évitent Ceux qui débitent admirent Ceux qui m'imitent font rire Car mes mimiques sont celles D'un gars limite martyr Psychorigide sans herbe Sincère ami du verbe, c'est irréfutable Timide, acerbe, c'est irrévocable Comme tirées d'une fable, mes syllabes Médicinales de cigale sont irresponsables Hippo, Hippo, Hippo, Hippo, ouais ! Hippo, Hippo, Hippo, Hippo c'est l'meilleur !</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Montagnes Russes</t>
+          <t>Nul En Sport</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Moi, j'vis des hauts et des bas, jsuis tout en haut quand j'rappe Mais vite retombe quand j'mate que ça ne me rapporte pas Et, devant mon plateau repas, des vidéos me parlent Des clips très beaux me narguent et ça devient nimporte quoi Mais j'nen fais pas tout un plat, les idéaux comme d'hab' Nous disent égaux, semblables, utilisent la langue de bois On aura encore le droit aux clichés confortables Aux idées qu'on formate, auxquels je naccorde pas De crédit, ni même de poids, en bas d'léchelle à chaque fin du mois J'suis pourtant toujours tout en haut au micro check En bas quand on parle demploi, ni cadre, ni grand chef En haut quand on parlera de cette rime et des dix prochaines Les hauts et les bas vite senchaînent, tout comme les exploits Et les bides semmêlent, les espoirs et les mises en scènes qui déçoivent Et on vit sans être des esclaves, ni même des puissants maîtres Mais cest tout d'même épuisant dêtre dans cette foire qui mentraîne encore cette fois x2 On vit des hauts et des bas, des montagnes russes depuis le départ Mais crois pas que tout l'monde samuse et qu'la vie tépargne Cest à celui qui montera l'plus à labri des regards Pas à celui qui tombera juste entre les étages On trime sur des remontées mécaniques des tréfonds océaniques À la renommée, mais, une fois au sommet, ébahis On n'peut que sombrer, on s'laisse retomber Le temps nous est compté, quelle éprouvante épopée tragique C'est la descente qui nous décoiffe, nous met des baffes Nous broie, nous froisse, l'on grimace, l'on se crispe, l'on se fâche L'insouciance laisse place à la tourmente, l'extase À la souffrance, la jouvence à l'incontinence Notre existence un manège où l'on avance sans frein Il faut apprendre à toucher le fond avec entrain À renaître de ses cendres, à remonter la pente À jongler avec ses émotions, à supporter l'attente Épaulé par ses amis, sa famille, voire par des inconnus C'est beau mais rare et, quand cela arrive, crois-moi, c'est impromptu Quand j'ai la gueule de bois quand j'meurs de froid, quand j'pleure quand j'me sens seul Je dois me dire qu'ça ira mieux vu qu'on vit tous des hauts, des bas x2 Jai mes hauts et mes bas, mes bons, mes mauvais départs Mes coups de bol, mes coup de blues, mes coups du sort et mes coups dun soir Ma vie une belle garce mythomane, une sorte de pompier pyromane Ça passe du rire aux larmes, de quoi perdre quelques kilogrammes Des fois, je lose total, mais jai le moral Des fois, je gagne mais je déprime plus que Jean-Pierre Coffe au McDonald Jfais du trampoline, dans mon encéphale Ballotté entre connerie sans égale et sagesse ancestrale Pour moi, la perfection est perfectible Donc jme torture lesprit pour des détails imperceptibles Et, si tu mexpliques que cest psychotique, jreste sceptique Car tout va bien tant qu'le public est réceptif Ça va, ça vient comme entre deux jambes écartées Jpasse des abysses aux étoiles, sapé en cosmonaute palmé T'as capté ? Un coup tu vas palper, lautre tu vas raquer Ça passe des palmiers au glacier donc laisse-toi aller La vie cest les montagnes russes x2</t>
+          <t>Taxi, taxi, taxi ! Oh ! Eh ! Taxi ! Ah l'enfoiré, putain ! Oh non, le bus ! Le bus ! Le bus, attendez ! Attendez ! Eh, j'vais... Je vais pas rentrer à pied quand même ? J'ai grossi, j'ai de la cellulite Faut que je ressuscite, mais j'suis pas très motivé J'ai bien trop peur des fractures, j'suis plus vraiment filiforme J'pourrais faire un infarctus en jouant au mini-golf x2 Nul, nul, nul En sport Il est où ton jogging ? J'aurais bien aimé pratiquer la capoeira Le vélo sans les mains mais, le sport et moi, ça fait trois Vu qu'en EPS, j'n'avais pas la moyenne Je n'pourrai jamais surfer de vague hawaïenne Au foot, à la récré, j'étais le déchet de l'équipe J'étais celui qu'on choisissait en dernier, juste après les filles On m'appelait le défonceur, je massacrais les attaquants En les taclant, on m'a sacré meilleur buteur contre son camp J'étais une calamité sur le terrain Et, ce, bien avant de tiser et fumer des joints J'ai toujours eu du mal à courir en serrant les poings Donc, au relais, je faisais souvent tomber le témoin Au ping-pong, j'perdais tous les matchs à la suite J'commençais table une, j'finissais à la huit À l'équitation, j'aimais juste les balades Je n'ai jamais atteint le sommet des murs d'escalade J'ai fait du basket aussi, au bout d'une année J'ai bien failli réussir à mettre un panier À la natation, j'aimais faire de l'apnée Plonger comme un con, aller sous l'eau pour mater Au judo, j'avais pas d'amis, mais j'racontais ma vie Immobilisé sur le tatami Même aux jeux d'sport, sur mon Atari, j'étais tout moisi J'me suis fait un hématome en jouant à la Wii Elle est pas froide, j'te dis, elle est pas froide ! J'suis trop doux pour la boxe, trop hétéro pour la lutte Trop fragile pour le rugby, et trop frileux pour la luge Trop mou pour la course, trop lent pour l'escrime Debout sur la poutre à la gym, j'avais le vertige Au moindre effort physique, j'ai des courbatures Faudrait qu'j'arrête de rester caché sous ma couverture On m'verra jamais aux JO courir à toute allure À part en live pendant la cérémonie d'ouverture Tu vas taper dans c'ballon ? C'est pas par là ! Mais va t'acheter des pieds ! T'es mauvais !2</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Naufrage</t>
+          <t>On a beau dire</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Approche, viens Chut, nul besoin d'm'expliquer c'qui t'est arrivé, j'le sais déjà J'imagine très bien l'état dans lequel tu es Laisse-moi te conter mon voyage</t>
+          <t>On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs seffritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Petite partie dbelote avec pépé, mémé tricotte J'm'ennuie, comme chaque été, j'suis loin d'mes potes Les yeux dans l'vague, je grimpe aux arbres et je sifflote J'combats ls monstres imaginaires comme Don Quichott Pépé écoute mes anecdotes, j'parle que dcinéma Sur un sentier dmontagne, en short, sous les épicéas Maman vient d'accoucher, papa sachète un camescope Ma sur, c'est sa nouvelle mascotte Chaque mercredi avec Laurent et Kakadi On s'fait des burritos, on loue des films, on s'avachit Papa travaille la nuit avec son groupe de mariachis Souvent, il reste au lit ou compose sur son Atari Bercé par ses mélodies, obsédé par les filles du lycée Premier spliff sur fond de rap et fous rires alcoolisés Ma sur et moi, on parle moins, nos liens sont distendus La nuit, jdors plus, j'regarde des films de Ku...brick J'ai jamais rien vu d'aussi beau, jamais rien senti d'aussi fort La femme que j'aime a fabriqué ce tout p'tit corps Elle m'appelle déjà papa, j'suis son mentor Parfois, elle m'parle et j'écoute pas, j'ai tellement tort Parce que, ces phrases, elle les répètera pas On a beau dire qu'on n'vit qu'une fois pas, au fond, on n'y croit pas Maintenant, j'ai trois enfants qui jouent, des étoiles dans les yeux J'profite de ma famille et savoure ces instants précieux On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Tempêtes de fin d'siècle, coupure d'électricité Des zombies sous mon lit veulent me grignoter les pieds Mais j'ai pas peur, vu qu't'es dans la chambre à côté Avec tes prises de judo, tu vas tous les démonter Papa nous récupère à la gare, maman rigole Main dans la main en ribambelle, et je décolle J'aimerais qu'on vive ensemble pour l'éternité Mais, parfois, la nuit, j'entends des pleurs étouffés Tu dors chez qui, c'week-end ? Chez ton père ou ta mère ? Bah j'vais plutôt squatter chez mon frère C'est mon cocon, mon nuage de coton Ma nièce et moi, on joue, et j'lui fredonne des chansons J'apprends la gratte, c'est ma seule activité Pour oublier qu'mon premier amour m'a quitté Mémé est morte, pépé radote On joue aux cartes à deux, j'aime bien quand on papote Premier jour de taf la vie me baffe, je cherche en vain ma place Dans le métro, j'angoisse le soir, je déprime dans mon sas Ma famille s'est éparpillée On m'prend déjà pour une adulte, moi, j'ai rien vu arriver Laissez-moi tranquille, par pitié, j'veux juste retourner Sous ma couette pour échapper à la réalité, faut qu'j'arrête J'pousse la porte du studio, un casque sur la tête Mon frère est avec moi et, là, ça rec On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>+ ou -</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Hier, j'étais encore dans l'hexagone Me voici assis à l'arrière d'un taxi jaune À l'ère du billet vert, on la surnomme La nouvelle Rome La cité mère des surhommes, je lâche mes vers dans la grosse pomme À l'ombre d'un gratte-ciel hautain, je tends l'oreille Et entends soudain le cri de King Kong qui s'éveille au loin Je compte les sosies de Brad Pitt, les braves types En batterie, à Wall Street, les traders qui bad trip New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, des toits aux sous-sols New York, New York, j'y vais sans boussole New York, New York, croise des gens loufoques New York, New York, jazz, hip-hop ou rock New York, New York, New York J'aperçois Obama puis passe un moment au MoMA À mimer ma maman qui m'a transmis l'amour de l'art et des aplats Hop la, j'bosse l'articulation À poil, dos à l'asphalte bloque la circulation Mate New York, cette ville cosmopolite Où poussent de lisses monolithes Où sortent de grosses motos d'flics, de riches sodomites Des clips d'Alicia Keys et Jay Z, style photos chics Adoucis, je m'assoupis dans la ville insomniaque Lors d'une promenade en barque sur le lac de Central Park God bless la Statue de la Liberté topless En état avancé d'ébriété, j'entame sans stress Un freestyle à la mémoire d'ODB KRS One applaudit le Madison Square Garden est conquis J'invite sur scène MF, Woody Allen Smoothe da Hustler Nous sommes rejoins par Chip Fu, Tonedeff et Busta</t>
+          <t>Je suis plus pensif qu'expansif, moins bobo que baba Plus sensible qu'excentrique, moins Rocco que Rocca Moins statique qu'extatique, plus mystérieux qu'ésotérique Moins chaise que guitare électrique, plus sérieux qu'hystérique Plus aqueduc qu'oléoduc Moins avenue que sombre ruelle Plus sandwich que toilettes turques Moins Candide que Pantagruel Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Je suis plus South Park que Simpson, moins Sean Paul que Nina Simone Plus Dragon Ball que Pokemon, moins Outkast que Raekwon Moins éolienne que moulin, plus prix Nobel que mondain Moins thé au miel que bon vin, plus tiep-bou-dien que boudin Moins bases navales que basses nasales Plus Johnny got his gun que L'Arme Fatale Plus sincère que jaloux, moins dispensaire que saloon Plus chaource que Chavroux, moins Mickey Mouse que Baloo x2</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Nu dans ta douche</t>
+          <t>Où suis-je ?</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Hippo le nigaud, l'amigo du micro, le mythe et le mytho, le métronome A taché de mille mots des kilos de rivaux, de minos débiles et de vrais bonshommes Quand je siffle des mélodies comme M le Maudit Même la Vénus de Milo applaudit Voici le druide et le griot, le bridge et le tricot vieillot Le pépin dans l'abricot, le briquet dans le Frigo Je veux des moments câlins avec des mamans catins Me réveiller un matin dans la cage de mon lapin Je porte un air débonnaire sous mon bonnet de bain Fais peur aux fiers légionnaires en leur donnant du pain J'ai deux tableaux de Gauguin, j'ai déjà lu le bottin Tu sembles hautain, pourtant, tu remues bien ton popotin J'ai souvent faim lorsque je sens le doux parfum d'un défunt Roule sans frein et, quand je mens, j'arrive parfois à mes fins Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Nu dans ta douche, j'éternue dans ta bouche Mal rasé, mon corps est matelassé à cause des Mars glacés Des steaks tartares quand je suis carnassier Et je vais t'arnaquer, comme Barnabé À qui j'ai vendu du rat noir au prix d'un bon canard laqué Pourtant, je combats les coups bas des banques Les quotas, les montres, les compas, les tanks Ma langue joue du tam-tam, chauffe tes tempes C'est Hippocampe qui fout le ramdam donc, allez, danse J'écoute les doutes de tous Les résumés des matchs de foot et des courses De la mousse pousse sous mes pieds, souvent grippé, je tousse Comme un ours qui fumerait avec un patch collé aux bourses Dans la brousse, sans ma trousse de toilettes, j'ai la frousse Crie à l'aide quand des mouches se ramènent, puis me couche Près d'une souche, mon haleine me dégoûte mais les hyènes Me veulent toutes, je m'accouple avec toutes celles qui louchent T'as qu'à barrer mon nom sur la liste des invités Mais je risque d'occuper une piste à l'entrée De m'accaparer tous tes disques rayés Et d'en faire des délices qui puissent captiver Ceux qui s'agitent et ceux qui le méritent Ceux qui méditent transpirent Je fais saliver tous ceux qui m'évitent Ceux qui débitent admirent Ceux qui m'imitent font rire Car mes mimiques sont celles D'un gars limite martyr Psychorigide sans herbe Sincère ami du verbe, c'est irréfutable Timide, acerbe, c'est irrévocable Comme tirées d'une fable, mes syllabes Médicinales de cigale sont irresponsables Hippo, Hippo, Hippo, Hippo, ouais ! Hippo, Hippo, Hippo, Hippo c'est l'meilleur !</t>
+          <t>Où suis-je ? Serait-ce une chambre funéraire ? Le silence enlace l'obscurité mais j'ai les idées claires Il faut qu'je sorte de là, j'étouffe Je sens un souffle sur mon cou, j'ai p't-être une momie à mes trousses J'voudrais pas qu'elle me touche, qu'elle me tourmente, ça m'épouvante C'est éprouvant, faut qu'j'me calme, je m'essouffle Je respire enfin, extirpé des tripes De cette pyramide enclin à me questionner en vain Est-ce un mirage ou un monument défiant le temps ? Un ermitage où s'abritent les convalescents ? Comment ai-je pu me retrouver dans ce tombeau ? Seul et sans flambeau, perdu comme Peter Pan dans son landau J'erre dans ce paysage lunaire J'entends miauler des chats affamés aux abords du Caire Ce décor beige et or est d'excellente facture Je vois des cigognes rejoindre leurs villégiatures Ont-elles livré des enfants en pâture À ce monde immature dont les parures rassurent ? Moi, sous ce ciel azur Je n'ai pas fière allure Le réel est un mur Le rêve, une embrasure Loin de tout centre-ville Hors de ma chrysalide J'avance le ventre vide J'ignore ce qu'il m'arrive Mais je me sens revivre Mes plaies se cicatrisent Tandis que danse le Nil Roulent les pyramides Je rêve éveillé, le jour s'évapore Chaque seconde est rayée, le présent déjà mort Un rire énigmatique attire mon attention Est-il défendu d'goûter au fruit d'son imagination ? Au bord du Nil où se courbent des roseaux L'ombre d'un volatile me surplombe, j'ai moins chaud Mais ce n'est pas l'ombre d'un oiseau ordinaire Apeuré par ce monstre, je fais trois pas en arrière</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Nul En Sport</t>
+          <t>Panda</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi, taxi, taxi ! Oh ! Eh ! Taxi ! Ah l'enfoiré, putain ! Oh non, le bus ! Le bus ! Le bus, attendez ! Attendez ! Eh, j'vais... Je vais pas rentrer à pied quand même ? J'ai grossi, j'ai de la cellulite Faut que je ressuscite, mais j'suis pas très motivé J'ai bien trop peur des fractures, j'suis plus vraiment filiforme J'pourrais faire un infarctus en jouant au mini-golf x2 Nul, nul, nul En sport Il est où ton jogging ? J'aurais bien aimé pratiquer la capoeira Le vélo sans les mains mais, le sport et moi, ça fait trois Vu qu'en EPS, j'n'avais pas la moyenne Je n'pourrai jamais surfer de vague hawaïenne Au foot, à la récré, j'étais le déchet de l'équipe J'étais celui qu'on choisissait en dernier, juste après les filles On m'appelait le défonceur, je massacrais les attaquants En les taclant, on m'a sacré meilleur buteur contre son camp J'étais une calamité sur le terrain Et, ce, bien avant de tiser et fumer des joints J'ai toujours eu du mal à courir en serrant les poings Donc, au relais, je faisais souvent tomber le témoin Au ping-pong, j'perdais tous les matchs à la suite J'commençais table une, j'finissais à la huit À l'équitation, j'aimais juste les balades Je n'ai jamais atteint le sommet des murs d'escalade J'ai fait du basket aussi, au bout d'une année J'ai bien failli réussir à mettre un panier À la natation, j'aimais faire de l'apnée Plonger comme un con, aller sous l'eau pour mater Au judo, j'avais pas d'amis, mais j'racontais ma vie Immobilisé sur le tatami Même aux jeux d'sport, sur mon Atari, j'étais tout moisi J'me suis fait un hématome en jouant à la Wii Elle est pas froide, j'te dis, elle est pas froide ! J'suis trop doux pour la boxe, trop hétéro pour la lutte Trop fragile pour le rugby, et trop frileux pour la luge Trop mou pour la course, trop lent pour l'escrime Debout sur la poutre à la gym, j'avais le vertige Au moindre effort physique, j'ai des courbatures Faudrait qu'j'arrête de rester caché sous ma couverture On m'verra jamais aux JO courir à toute allure À part en live pendant la cérémonie d'ouverture Tu vas taper dans c'ballon ? C'est pas par là ! Mais va t'acheter des pieds ! T'es mauvais !2</t>
+          <t>L'homme a tenté de reproduire le chaos De la nature dans une cage aussi lugubre qu'un caveau Tableau hanté par des sculptures d'animaux Sous l'ossature d'une forêt, un insalubre caniveau Cadeau diplomatique de la Chine, ce panda fantomatique Lézarde à la cime d'un arbre, derrière des grilles ou des barreaux À l'abri de l'orage, plus triste que sage, il a perdu son âme sauvage C'est dommage, il rend hommage à son oesophage lorsqu'il avale du fromage Avant, il se gavait de bambous qui avaient bon goût prenait de longs bains de boue en Faisant du kung fu, beaucoup de femelles qui étaient au courant Lui sautaient au cou puis prenaient son pouls, oui, c'était trop cool quand Il tenait le bon bout, maintenant tout fout l'camp Ce panda glande, bande comme un con Devant des gang bang de ratons laveurs Fait les cent pas, s'efface ou fait des bonds Scandant ses râles face à ces matons rêveurs Il apaise les petits et les grands le dimanche Cependant, ce panda s'est pendu à une branche x2 Ce panda trop tôt vieux, pot au feu au tofu S'ennuie, ça saute aux yeux, il n'est qu'une photo floue</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>On a beau dire</t>
+          <t>Papa au Foyer</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs seffritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Petite partie dbelote avec pépé, mémé tricotte J'm'ennuie, comme chaque été, j'suis loin d'mes potes Les yeux dans l'vague, je grimpe aux arbres et je sifflote J'combats ls monstres imaginaires comme Don Quichott Pépé écoute mes anecdotes, j'parle que dcinéma Sur un sentier dmontagne, en short, sous les épicéas Maman vient d'accoucher, papa sachète un camescope Ma sur, c'est sa nouvelle mascotte Chaque mercredi avec Laurent et Kakadi On s'fait des burritos, on loue des films, on s'avachit Papa travaille la nuit avec son groupe de mariachis Souvent, il reste au lit ou compose sur son Atari Bercé par ses mélodies, obsédé par les filles du lycée Premier spliff sur fond de rap et fous rires alcoolisés Ma sur et moi, on parle moins, nos liens sont distendus La nuit, jdors plus, j'regarde des films de Ku...brick J'ai jamais rien vu d'aussi beau, jamais rien senti d'aussi fort La femme que j'aime a fabriqué ce tout p'tit corps Elle m'appelle déjà papa, j'suis son mentor Parfois, elle m'parle et j'écoute pas, j'ai tellement tort Parce que, ces phrases, elle les répètera pas On a beau dire qu'on n'vit qu'une fois pas, au fond, on n'y croit pas Maintenant, j'ai trois enfants qui jouent, des étoiles dans les yeux J'profite de ma famille et savoure ces instants précieux On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares Tempêtes de fin d'siècle, coupure d'électricité Des zombies sous mon lit veulent me grignoter les pieds Mais j'ai pas peur, vu qu't'es dans la chambre à côté Avec tes prises de judo, tu vas tous les démonter Papa nous récupère à la gare, maman rigole Main dans la main en ribambelle, et je décolle J'aimerais qu'on vive ensemble pour l'éternité Mais, parfois, la nuit, j'entends des pleurs étouffés Tu dors chez qui, c'week-end ? Chez ton père ou ta mère ? Bah j'vais plutôt squatter chez mon frère C'est mon cocon, mon nuage de coton Ma nièce et moi, on joue, et j'lui fredonne des chansons J'apprends la gratte, c'est ma seule activité Pour oublier qu'mon premier amour m'a quitté Mémé est morte, pépé radote On joue aux cartes à deux, j'aime bien quand on papote Premier jour de taf la vie me baffe, je cherche en vain ma place Dans le métro, j'angoisse le soir, je déprime dans mon sas Ma famille s'est éparpillée On m'prend déjà pour une adulte, moi, j'ai rien vu arriver Laissez-moi tranquille, par pitié, j'veux juste retourner Sous ma couette pour échapper à la réalité, faut qu'j'arrête J'pousse la porte du studio, un casque sur la tête Mon frère est avec moi et, là, ça rec On a beau dire, on a beau dire que le temps passe vite On s'en rend compte toujours trop tard Nos souvenirs s'effritent, on attend la suite On fait des p'tits tas d'ces instants trop rares</t>
+          <t>- Papa - Qu'est-ce que tu as fais, là, hein ? Pourquoi tu as fait ça ? - Papa - C'est une bêtise ce que tu viens d'faire, une grosse bêtise. On met pas des miettes pare-terre, après, papa, il est obligé de passer le balai ou l'aspirateur, et, papa, il aime pas ça, hein - Papa Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer J'peux plus m'gratter les bourses Faut qu'j'aille au supermarché, acheter des couches Chez moi, y'a plus d'bières mais du lait d'croissance par pack de douze Des purées, des petits suisses, du talc et des mouches Qui volent au dessus d'la poubelle, j'la descends plus souvent que je n'palpe de flouze Je n'suis pas soigné, je n'paye pas le loyer J'espère quand même être un bon papa au foyer Mais j'me sens comme oppressé, guetté par les huissiers J'ai plus l'temps, j'suis pressé, j'lis mes mails aux WC J'dors entre un mur et ma femme, j'fais l'gars mature, incassable J'cache mes fractures à la cave, et mes factures dans un sac J'ai pas d'voiture mais un Mac, j'fais des ratures sur la page Où s'écrit mon court voyage, la dramaturgie est passable J'fuis mes responsabilités six étages à escalader Chargé comme une mule que l'on aurait génétiquement modifiée Un bébé malade harnaché qui s'en bat la race des papiers Qui s'emballe, déchire mes BD, à sept heure moins l'quart, réveillée J'voudrais faire la grasse matinée, qu'elle tartine mes Krisprolls Qu'elle s'entraîne toute seule à rapper plus vite que les Kriss Kross J'n'ai pas la rage car, chaque matin, j'ai l'occas' De sentir sa main froide sur ma joue, c'est un câlin mémorable, je l'avoue Transmettre et recevoir, l'aimer sans la décevoir L'élever, la regarder s'envoler avec espoir Et, quand je l'entends rire, j'oublie mes préoccupations Puisque, sans contrefaçon, je suis un daron Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa, papa, papa J'ai toujours pas trouvé la touche snooze sur ma fille Papa, papa... J'aimerais siroter des cocktails, posé sous une tonnelle Me bourrer la gueule en Ardèche ou à Marrakech Mais j'dois faire la vaisselle, ranger tout le bordel Et, à dix-sept heure, récupérer ma fille à la crèche Hier encore, y'avait des crocodiles sous mon lit Ma maman me lisait des histoires pour m'endormir D'où viennent mes cheveux blancs ? C'est un mystère Il paraîtrait que, maintenant, je suis un fils-père Papa au foyer Papa au foyer Papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Moi, je veux chanter que L'année prochaine, je serai grand Je ferai tout sans ma maman Je me peignerai tout seul Je me baignerai tout seul Je me moucherai tout seul Je me coucherai tout seul</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>+ ou -</t>
+          <t>Pas le temps</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Je suis plus pensif qu'expansif, moins bobo que baba Plus sensible qu'excentrique, moins Rocco que Rocca Moins statique qu'extatique, plus mystérieux qu'ésotérique Moins chaise que guitare électrique, plus sérieux qu'hystérique Plus aqueduc qu'oléoduc Moins avenue que sombre ruelle Plus sandwich que toilettes turques Moins Candide que Pantagruel Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Plus ou moins, plus ou moins Je suis plus South Park que Simpson, moins Sean Paul que Nina Simone Plus Dragon Ball que Pokemon, moins Outkast que Raekwon Moins éolienne que moulin, plus prix Nobel que mondain Moins thé au miel que bon vin, plus tiep-bou-dien que boudin Moins bases navales que basses nasales Plus Johnny got his gun que L'Arme Fatale Plus sincère que jaloux, moins dispensaire que saloon Plus chaource que Chavroux, moins Mickey Mouse que Baloo x2</t>
+          <t>Pas le temps Pas le temps de se dépayser Pas le temps de se stabiliser Pas le temps de préparer des repas équilibrés Pas le temps de dédramatiser Pas le temps de jouer, pas le temps de répéter Pas le temps d'échouer, pas le temps de progresser Pas le temps de s'ennuyer, pas le temps de soupirer Pas le temps de bronzer, pas le temps de roupiller Pas le temps de prendre un bain, pas le temps d'se laver les dents Pas le temps d'se garer vraiment bien Pas le temps d'attendre, pas le temps d'apprendre Pas le temps d'écouter des morceaux jusqu'à la fin Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps Pas le temps de fêter nos anniv' Pas le temps d'assister aux manifs Pas le temps d'être indécis, pas le temps d'être précis Pas le temps d'préparer le débrief' Pas le temps d'être un peu solidaire Pas le temps pour des préliminaires Pas le temps de faire la paix, pas le temps d'aimer la Terre Pas le temps de percer des mystères Pas le temps de laisser mijoter nos rêves dans la Grande Ourse Pas le temps de vérifier nos sources, faut gagner la course Pas le temps d'être poli, pas le temps d'être incompétent Pas le temps de réfléchir au fait qu'on n'a pas le temps Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Pas le temps de tomber amoureux Pas le temps pour les mots langoureux Pas le temps d'élever nos enfants, pas le temps d'appeler nos parents Pas le temps d'être moins malheureux Pas le temps d'être malade, pas le temps de réparer Pas le temps d'se balader au calme, pas le temps de buller Pas le temps de lire, pas le temps de rire Pas le temps de jouir, pas le temps de fuir, pas le temps de vivre Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Non, nous n'avons pas le temps Nous n'avons pas le temps Nous n'avons pas... le temps</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Où suis-je ?</t>
+          <t>Pas pour les jeunes</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Où suis-je ? Serait-ce une chambre funéraire ? Le silence enlace l'obscurité mais j'ai les idées claires Il faut qu'je sorte de là, j'étouffe Je sens un souffle sur mon cou, j'ai p't-être une momie à mes trousses J'voudrais pas qu'elle me touche, qu'elle me tourmente, ça m'épouvante C'est éprouvant, faut qu'j'me calme, je m'essouffle Je respire enfin, extirpé des tripes De cette pyramide enclin à me questionner en vain Est-ce un mirage ou un monument défiant le temps ? Un ermitage où s'abritent les convalescents ? Comment ai-je pu me retrouver dans ce tombeau ? Seul et sans flambeau, perdu comme Peter Pan dans son landau J'erre dans ce paysage lunaire J'entends miauler des chats affamés aux abords du Caire Ce décor beige et or est d'excellente facture Je vois des cigognes rejoindre leurs villégiatures Ont-elles livré des enfants en pâture À ce monde immature dont les parures rassurent ? Moi, sous ce ciel azur Je n'ai pas fière allure Le réel est un mur Le rêve, une embrasure Loin de tout centre-ville Hors de ma chrysalide J'avance le ventre vide J'ignore ce qu'il m'arrive Mais je me sens revivre Mes plaies se cicatrisent Tandis que danse le Nil Roulent les pyramides Je rêve éveillé, le jour s'évapore Chaque seconde est rayée, le présent déjà mort Un rire énigmatique attire mon attention Est-il défendu d'goûter au fruit d'son imagination ? Au bord du Nil où se courbent des roseaux L'ombre d'un volatile me surplombe, j'ai moins chaud Mais ce n'est pas l'ombre d'un oiseau ordinaire Apeuré par ce monstre, je fais trois pas en arrière</t>
+          <t>Évoquer des souvenirs du second millénaire Songer qu'à cette époque on trouvait la vie légère Pressentir le programme du soir comme un visionnaire Un p'tit spliff, une série suivis d'un bon missionnaire ça passe Fantasmer sur les puéricultrices et les maîtresses bonjour Entasser à la cave des cartons pleins d'VHS Dorcel Arriver de bonne heure pour pas rater la kermesse Maquiller de bonheur des yeux qui puent la détresse C'est pas pour les jeunes, c'est pas pour les jeunes C'est pas pour les jeunes, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Débroussailler ses narines, tailler la frange sur ses babines Prendre des décisions, seul aux commandes dans la salle des machines Claquer la bise à des patrons trop paternalistes Rentrer du taf aux heures de pointe et libérer de l'adrénaline ça, c'est ma vie Se faire vouvoyer, se dire Cool, ça y est, le respect est en place Puis, comme foudroyé, penser outragé qu'on est bon pour la casse Parler politique en dégustant des viandes en sauce avoir deux rôles l'essentiel et celui qu'on endosse Profiter d'un concert sans mettre un pied dans la fosse, vu qu'on l'a déjà dans la tombe C'est pas pour les jeunes bah non, c'est pas pour les jeunes hm-hm C'est pas pour les jeunes c'est pour qui alors ?, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Acheter des produits du terroir, bouffer des légumes tous les soirs Hurler dans sa tête J'en ai marre, j'veux voir mes potes, taper des barres Avoir plus de dettes que d'espoir, le cul comme seule échappatoire Faire constamment le grand écart entre la routine et la foire Booker la nounou, aller boire deux ou trois cocktails dans les bars Rentrer chez soi sur un brancard le lendemain réveil en fanfare Sortir ses gosses comme des clébards, jogging, claquettes et lunettes noires Taper la discute dans les squares tout en poussant des balançoires allez PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge t'as compris ou pas ? Haha Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge1</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Panda</t>
+          <t>Paye ton 16 #08 [Hippocampe Fou]</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>L'homme a tenté de reproduire le chaos De la nature dans une cage aussi lugubre qu'un caveau Tableau hanté par des sculptures d'animaux Sous l'ossature d'une forêt, un insalubre caniveau Cadeau diplomatique de la Chine, ce panda fantomatique Lézarde à la cime d'un arbre, derrière des grilles ou des barreaux À l'abri de l'orage, plus triste que sage, il a perdu son âme sauvage C'est dommage, il rend hommage à son oesophage lorsqu'il avale du fromage Avant, il se gavait de bambous qui avaient bon goût prenait de longs bains de boue en Faisant du kung fu, beaucoup de femelles qui étaient au courant Lui sautaient au cou puis prenaient son pouls, oui, c'était trop cool quand Il tenait le bon bout, maintenant tout fout l'camp Ce panda glande, bande comme un con Devant des gang bang de ratons laveurs Fait les cent pas, s'efface ou fait des bonds Scandant ses râles face à ces matons rêveurs Il apaise les petits et les grands le dimanche Cependant, ce panda s'est pendu à une branche x2 Ce panda trop tôt vieux, pot au feu au tofu S'ennuie, ça saute aux yeux, il n'est qu'une photo floue</t>
+          <t>J'suis l'idole de mes détracteurs qui m'portent dans leur cur Sur leurs épaules de déménageur, mes couplets révélateurs Sont naïfs, oui, dans ma salive, barbotent des bébés nageurs J'faxe les facteurs, taxe les gratteurs, pacse les pasteurs, les p'tits chiens Assez des rappeurs qui n'trouvent pas l'accélérateur, finissent par Cacher leur face d'acteur sous un masque de catcheur mexicain Marre de ces types pseudo-prolifiques au flow trop rigide Aux propos soporifiques qu'on glorifie J'vais butiner leurs pupilles mutilées, les laisser ruminer Dans un champ lexical en plexiglas pendant qu's'empale sur mon grand dard Leurs dulcinées dont j'aime cirer les trompes T'as pigé ? Ces wacks en mal d'idées, j'les gronde Le Graal se cache dans mon dédale, sur scène, je crache, me dévoile Me fâche et c'est légal, la nuit, je bronze en comptant les étoiles Si t'as d'la weed, l'ami, je serais ravi d'la fumer avec toi J'te ferais un gros freestyle rapide et t'iras conter mes exploits</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Papa au Foyer</t>
+          <t>Peppa Pig</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>- Papa - Qu'est-ce que tu as fais, là, hein ? Pourquoi tu as fait ça ? - Papa - C'est une bêtise ce que tu viens d'faire, une grosse bêtise. On met pas des miettes pare-terre, après, papa, il est obligé de passer le balai ou l'aspirateur, et, papa, il aime pas ça, hein - Papa Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer J'peux plus m'gratter les bourses Faut qu'j'aille au supermarché, acheter des couches Chez moi, y'a plus d'bières mais du lait d'croissance par pack de douze Des purées, des petits suisses, du talc et des mouches Qui volent au dessus d'la poubelle, j'la descends plus souvent que je n'palpe de flouze Je n'suis pas soigné, je n'paye pas le loyer J'espère quand même être un bon papa au foyer Mais j'me sens comme oppressé, guetté par les huissiers J'ai plus l'temps, j'suis pressé, j'lis mes mails aux WC J'dors entre un mur et ma femme, j'fais l'gars mature, incassable J'cache mes fractures à la cave, et mes factures dans un sac J'ai pas d'voiture mais un Mac, j'fais des ratures sur la page Où s'écrit mon court voyage, la dramaturgie est passable J'fuis mes responsabilités six étages à escalader Chargé comme une mule que l'on aurait génétiquement modifiée Un bébé malade harnaché qui s'en bat la race des papiers Qui s'emballe, déchire mes BD, à sept heure moins l'quart, réveillée J'voudrais faire la grasse matinée, qu'elle tartine mes Krisprolls Qu'elle s'entraîne toute seule à rapper plus vite que les Kriss Kross J'n'ai pas la rage car, chaque matin, j'ai l'occas' De sentir sa main froide sur ma joue, c'est un câlin mémorable, je l'avoue Transmettre et recevoir, l'aimer sans la décevoir L'élever, la regarder s'envoler avec espoir Et, quand je l'entends rire, j'oublie mes préoccupations Puisque, sans contrefaçon, je suis un daron Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa, papa, papa J'ai toujours pas trouvé la touche snooze sur ma fille Papa, papa... J'aimerais siroter des cocktails, posé sous une tonnelle Me bourrer la gueule en Ardèche ou à Marrakech Mais j'dois faire la vaisselle, ranger tout le bordel Et, à dix-sept heure, récupérer ma fille à la crèche Hier encore, y'avait des crocodiles sous mon lit Ma maman me lisait des histoires pour m'endormir D'où viennent mes cheveux blancs ? C'est un mystère Il paraîtrait que, maintenant, je suis un fils-père Papa au foyer Papa au foyer Papa au foyer Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Encore une fois, ça fait, ça fait Papa, papa au foyer Papa, papa au foyer Papa, papa au foyer Moi, je veux chanter que L'année prochaine, je serai grand Je ferai tout sans ma maman Je me peignerai tout seul Je me baignerai tout seul Je me moucherai tout seul Je me coucherai tout seul</t>
+          <t>Tapi dans le maquis comme un dealer corse, j'épie le game J'ai toujours plus de débit que Peter North, ça, c'est le gang Quand je veux les bolosser, je vise leur torse pour crever leur cur, je n'ai besoin que d'une seule strophe Mes effusions colorées comme Glitter Force auraient sans doute ravi le vampire d Düsseldorf J'fais pas de tubes mais jm plains pas, ça va bien trop de nuls, trop peu d'Alain Chabat Les plus asthmatiques, je les passe à tabac pour les diabétiques, j'ai d'la barbe à papa J'suis plutôt peace voire utopiste, j'rentre dans l'cercle des illusionnistes Je les fais disparaître avec mes p'tites baguettes avant d'aller chez le nutritionniste La nuit, j'hurle comme un loup des steppes, vas-y mollo Quand on m'casse les burnes, j'brûle et j'coupe les têtes, Sleepy Hollow Sous l'apparence pieuse d'un pur esthète maxi bobo J'terrasse la France, demain je tue les States, si si, yo yo Je sais qu'j'suis un grand artiste Sans doute trop avant-gardiste Je danse tout seul sur la piste Rejoignez-moi, c'est la crise Face aux fantômes du passé, je deviens Ghostbuster Là, j'arrive au bal masqué, c'est un un gros cluster Impassible comme Buster Keaton, jvois des tonnes de surs Ces mijaurées kiffent m'ignorer sous leur couronnes de fleurs Quand je m'ennuie, j'rappe dans ma tête, j'me fais des films comme à la Cinémathèque Baskets, jeans et casquette, c'est mon uniforme, là, je m'arrête comme si je venais de voir une licorne Voilà qu'elle me dévisage, elle a retiré son masque et n'a pas l'air si sage C'est un avion d'chasse, j'vais la faire décoller pour l'instant, j'suis collé à son arrière-train d'atterrissage Pas besoin de rails de cocaïne pour libérer de la dopamine, jla regarde lécher ses babines Elle est bonne mais c'est pas Bécassine, elle est plus cochonne que Peppa Pig Elle m'a payé une bière, elle m'a dit Passe à la maison, j'habite à cinq années-lumière Elle est inventive, drôle et super prospère, elle a déjà commandé le Uber Copter Dans son lit, ses yeux brillent comme des rubis, quand jlui fais part de mes lubies Elle gémit, elle pousse des Jésus Christ, elle jouit, elle glousse, je déglutis Gloups</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Pas le temps</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Pas le temps Pas le temps de se dépayser Pas le temps de se stabiliser Pas le temps de préparer des repas équilibrés Pas le temps de dédramatiser Pas le temps de jouer, pas le temps de répéter Pas le temps d'échouer, pas le temps de progresser Pas le temps de s'ennuyer, pas le temps de soupirer Pas le temps de bronzer, pas le temps de roupiller Pas le temps de prendre un bain, pas le temps d'se laver les dents Pas le temps d'se garer vraiment bien Pas le temps d'attendre, pas le temps d'apprendre Pas le temps d'écouter des morceaux jusqu'à la fin Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps Pas le temps de fêter nos anniv' Pas le temps d'assister aux manifs Pas le temps d'être indécis, pas le temps d'être précis Pas le temps d'préparer le débrief' Pas le temps d'être un peu solidaire Pas le temps pour des préliminaires Pas le temps de faire la paix, pas le temps d'aimer la Terre Pas le temps de percer des mystères Pas le temps de laisser mijoter nos rêves dans la Grande Ourse Pas le temps de vérifier nos sources, faut gagner la course Pas le temps d'être poli, pas le temps d'être incompétent Pas le temps de réfléchir au fait qu'on n'a pas le temps Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Pas le temps de tomber amoureux Pas le temps pour les mots langoureux Pas le temps d'élever nos enfants, pas le temps d'appeler nos parents Pas le temps d'être moins malheureux Pas le temps d'être malade, pas le temps de réparer Pas le temps d'se balader au calme, pas le temps de buller Pas le temps de lire, pas le temps de rire Pas le temps de jouir, pas le temps de fuir, pas le temps de vivre Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, non Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Pas le temps, pas le temps, pas le temps, pas le temps, pas le temps Nous n'avons pas le temps Non, nous n'avons pas le temps Nous n'avons pas le temps Nous n'avons pas... le temps</t>
+          <t>J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool J'ai pris d'assaut le hamac, ma femme, les aires d'jeux la matent J'aimerais qu'on vieillisse ensemble comme Michelle et Barack J'suis à deux doigts d'm'assoupir sous l'parasol, j'veux pas cuire J'kiffe le moment présent, là, y'a pas d'passé, pas d'avenir Héros d'un film d'inaction, couvert de transpiration Le rosé n'est plus frais donc j'remets des glaçons J'ressens de bonnes vibrations, j'laisse venir l'inspiration Je peins mon texte dans ma tête basé sur ces pures sensations Et, là, là, j'me sens bien, là J'me suis rarement senti aussi bien, ouais J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Comme un zombie, j'quitte ma tombe, cocktail chargé, j'fais la ronde Y'a pas d'plan Vigipirate, j'laisse mes enfants faire la bombe Maître-nageur en tatanes, j'suis mon propre barman Vu mon taux d'alcoolémie, là, c'est moi qui risque la noyade Eh, arrêtez d'm'éclabousser, hein Non, j'veux pas jouer Non, j'vais pas gonfler ta bouée T'as qu'à souffler J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Bah ouais, j'suis pas marrant La vie, c'est pas toujours fun, hein Moi, j'suis ieux-v' ? Eh, vous faites quoi, là ? T'es sûre ? Eh, si y'en a qui m'poussent, j'vais m'... Eh, c'est pas cool, hein J'fais l'requin dans la pistoche, wo-oh Verre de vin, bol de pistaches, wo-oh Fonce-dé' comme dans un festoche, wo-oh J'profite enfin du spectacle, wo-oh J'suis sous l'eau, au fond d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool</t>
         </is>
       </c>
     </row>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pas pour les jeunes</t>
+          <t>P.O.R.N</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Évoquer des souvenirs du second millénaire Songer qu'à cette époque on trouvait la vie légère Pressentir le programme du soir comme un visionnaire Un p'tit spliff, une série suivis d'un bon missionnaire ça passe Fantasmer sur les puéricultrices et les maîtresses bonjour Entasser à la cave des cartons pleins d'VHS Dorcel Arriver de bonne heure pour pas rater la kermesse Maquiller de bonheur des yeux qui puent la détresse C'est pas pour les jeunes, c'est pas pour les jeunes C'est pas pour les jeunes, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Débroussailler ses narines, tailler la frange sur ses babines Prendre des décisions, seul aux commandes dans la salle des machines Claquer la bise à des patrons trop paternalistes Rentrer du taf aux heures de pointe et libérer de l'adrénaline ça, c'est ma vie Se faire vouvoyer, se dire Cool, ça y est, le respect est en place Puis, comme foudroyé, penser outragé qu'on est bon pour la casse Parler politique en dégustant des viandes en sauce avoir deux rôles l'essentiel et celui qu'on endosse Profiter d'un concert sans mettre un pied dans la fosse, vu qu'on l'a déjà dans la tombe C'est pas pour les jeunes bah non, c'est pas pour les jeunes hm-hm C'est pas pour les jeunes c'est pour qui alors ?, c'est pour les gens de mon âge PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge Acheter des produits du terroir, bouffer des légumes tous les soirs Hurler dans sa tête J'en ai marre, j'veux voir mes potes, taper des barres Avoir plus de dettes que d'espoir, le cul comme seule échappatoire Faire constamment le grand écart entre la routine et la foire Booker la nounou, aller boire deux ou trois cocktails dans les bars Rentrer chez soi sur un brancard le lendemain réveil en fanfare Sortir ses gosses comme des clébards, jogging, claquettes et lunettes noires Taper la discute dans les squares tout en poussant des balançoires allez PPLJ Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non PPLJ Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge t'as compris ou pas ? Haha Pas pour les, pas pour les jeunes, c'est pas pour les jeunes non Pas pour les, pas pour les jeunes, c'est pour les gens de mon âge1</t>
+          <t>Pleasure off right now When it tickles down there, I go watch a video A couple minutes running through my panties and Im finished though I decode my body, get why it's picky, oh Know how to please it and release it, all that matters, period Images keep flashing, its a myriad Different genitalia, scenes are tailored, some of it is hideous And it be on my mind all day, feel like an idiot I just wanna get my nut and feel like Im the prettiest When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Imagine it as an instant relief I dont need the full meal yet, it's just an aperitif Imma act on my desires, that is my leitmotif Porn is never gonna die, I aint trynna start no beef But I swear a lot of it aint made for us It's hard to look at any of the videos in full consciousness Creamy pie, facial abuse, golden shower, its toys are us Some of these actors dont even know which zones are erogenous When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Elle a pas peur de parler ddick Tracy Elle est v'nue m'chercher dans un but précis Causer de cul et de porn, ça peut décupler mes forces oui Jadore faire juter le borgne quand j'ai bien scruté mon ordi Chacun ses goûts et ses fantasmes inavoués C'est si facile à trouver pas besoin d'y passer la journée Moi, jmate que du homemade où l'plaisir n'est pas simulé Ho merde! C'est pour ça qu'mon avant-bras est si musclé Quand la colère et le stress monte Je me tâte et les problèmes s'estompent Elles ont des joujous extra-longs Plein de gadgets à la James Bond Y a pas d'mal à s'faire du bien Le constat est unanime Formez des épicuriens Faites du porn éducatif Pas d'body de bimbo Si la MILF est typée, bingo! J'kiffe les plans subjectifs ou fixes Quand le mec fait jouir sa pine-co J'ai trouvé le clit et le point G, suivez le guide Allez vite je les pointe et vous quitte Pour découper des beats on peut dire qu'on est quitte Et que toute l'équipe est décoincée Wow When I watch that porn, porn, when I watch that porn I lock the door When I watch that porn, porn, when I watch that porn Im in the dark When I watch that porn, porn, when I watch that porn I put my headphones When I watch that porn, porn, when I watch that porn My wife and kids are sleeping When I watch that porn, porn, when I watch that porn</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Paye ton 16 #08 [Hippocampe Fou]</t>
+          <t>Pot-pourri</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'suis l'idole de mes détracteurs qui m'portent dans leur cur Sur leurs épaules de déménageur, mes couplets révélateurs Sont naïfs, oui, dans ma salive, barbotent des bébés nageurs J'faxe les facteurs, taxe les gratteurs, pacse les pasteurs, les p'tits chiens Assez des rappeurs qui n'trouvent pas l'accélérateur, finissent par Cacher leur face d'acteur sous un masque de catcheur mexicain Marre de ces types pseudo-prolifiques au flow trop rigide Aux propos soporifiques qu'on glorifie J'vais butiner leurs pupilles mutilées, les laisser ruminer Dans un champ lexical en plexiglas pendant qu's'empale sur mon grand dard Leurs dulcinées dont j'aime cirer les trompes T'as pigé ? Ces wacks en mal d'idées, j'les gronde Le Graal se cache dans mon dédale, sur scène, je crache, me dévoile Me fâche et c'est légal, la nuit, je bronze en comptant les étoiles Si t'as d'la weed, l'ami, je serais ravi d'la fumer avec toi J'te ferais un gros freestyle rapide et t'iras conter mes exploits</t>
+          <t>J'n'ai pas trop d'groupies, j'me baigne Dans des flaques d'eau croupies, entouré de radeaux d'fourmis Mes idées jouent à chat, font des saltos Le chaos règne dans mon sale pot-pourri Traîne pas là-bas, c'est chaud, mec, c'est pas Palavas-les-Flots, ouais C'est pas l'fait d'avoir des gros pecs qui fera de toi le roi des poètes Tu n'mets pas la barre très haut donc je danse le limbo Devant des bimbos Eurêka Bingo ! Entre texte et mélodie, je négocie des speed-dating Les mots sont à leur table et les musiques défilent Certains ne s'accorderont pas, genre décalage de groove D'autres, en revanche, fusionneront, et ce freestyle le prouve Quand je viens chanter, je peux toucher l'aisance de peu J'n'attends pas qu'mes bracelets se brisent pour réaliser mes vux Han, le son m'fait voyager, mais je ne fais pas l'touriste Non, je reste aussi poli que le crâne d'un moine bouddhiste Et j'y arrive depuis qu'je sais qu'j'peux l'faire Depuis que des martiens mélomanes m'ont donné l'feu vert Je suis ce fou terrien, vous ne foutez rien Vous êtes en galère comme quand Hippo roule des joints C'est pas moi, c'est la vie qui poétise Regarde toutes les rimes pauvres que certains monétisent Il serait facile de se dire que céo maîtrise Mais le type est trop carré, en fait, il géométrise Belliqueux, j'ai de délicieuses idées pernicieuses Des visions idylliques et hideuses, illimitées Mirifiques et miteuses, t'essaies de m'imiter Tandis que j'butine en toute humilité des filles humides assez rieuses Toi, tu mutiles leur clito' phallique Elles atteignent le septième ciel avec mon haricot magique Donc range tes cookies rances et ton omelette au jambon Mange mes couilles qui pendent, j'encule ta fossette au menton - C'était p't-être un p'tit peu too much, non ? - Too much, je sais pas, mais c'était... c'était crado, quoi, là...</t>
         </is>
       </c>
     </row>
@@ -2906,12 +2906,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Peppa Pig</t>
+          <t>Pubis Ennemi</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Tapi dans le maquis comme un dealer corse, j'épie le game J'ai toujours plus de débit que Peter North, ça, c'est le gang Quand je veux les bolosser, je vise leur torse pour crever leur cur, je n'ai besoin que d'une seule strophe Mes effusions colorées comme Glitter Force auraient sans doute ravi le vampire d Düsseldorf J'fais pas de tubes mais jm plains pas, ça va bien trop de nuls, trop peu d'Alain Chabat Les plus asthmatiques, je les passe à tabac pour les diabétiques, j'ai d'la barbe à papa J'suis plutôt peace voire utopiste, j'rentre dans l'cercle des illusionnistes Je les fais disparaître avec mes p'tites baguettes avant d'aller chez le nutritionniste La nuit, j'hurle comme un loup des steppes, vas-y mollo Quand on m'casse les burnes, j'brûle et j'coupe les têtes, Sleepy Hollow Sous l'apparence pieuse d'un pur esthète maxi bobo J'terrasse la France, demain je tue les States, si si, yo yo Je sais qu'j'suis un grand artiste Sans doute trop avant-gardiste Je danse tout seul sur la piste Rejoignez-moi, c'est la crise Face aux fantômes du passé, je deviens Ghostbuster Là, j'arrive au bal masqué, c'est un un gros cluster Impassible comme Buster Keaton, jvois des tonnes de surs Ces mijaurées kiffent m'ignorer sous leur couronnes de fleurs Quand je m'ennuie, j'rappe dans ma tête, j'me fais des films comme à la Cinémathèque Baskets, jeans et casquette, c'est mon uniforme, là, je m'arrête comme si je venais de voir une licorne Voilà qu'elle me dévisage, elle a retiré son masque et n'a pas l'air si sage C'est un avion d'chasse, j'vais la faire décoller pour l'instant, j'suis collé à son arrière-train d'atterrissage Pas besoin de rails de cocaïne pour libérer de la dopamine, jla regarde lécher ses babines Elle est bonne mais c'est pas Bécassine, elle est plus cochonne que Peppa Pig Elle m'a payé une bière, elle m'a dit Passe à la maison, j'habite à cinq années-lumière Elle est inventive, drôle et super prospère, elle a déjà commandé le Uber Copter Dans son lit, ses yeux brillent comme des rubis, quand jlui fais part de mes lubies Elle gémit, elle pousse des Jésus Christ, elle jouit, elle glousse, je déglutis Gloups</t>
+          <t>J'ai rencontré ce morbaque au bord d'un lac Lors d'un coït horrible avec une femme à barbe ingrate Croisée à la sortie d'un squat non loin de ma fac Sous un ciel voilé, j'avais bu deux-trois packs Ce morbaque immortel avait vécu Dans le bas-ventre velu de Cléopâtre et d'Imhotep Avait connu des détraqués sexuels, des filles modèles Les lits du château de Versailles et les p'tits motels Il avait squatté le pubis d'esclaves et de rois Celui d'Ulysse à l'étroit dans le cheval de Troie Il avait goûté à des saisons chaudes À des hivers dans des maisons closes côtoyant des boutons d'rose Il était tolérant, s'excitait facilement S'exprimait brillamment depuis dix mille ans Il avait traversé le temps et les océans Croisé des tyrans et des titans, exploré tous les continents S'agrippant de port en port, de poil en poil Du Radeau de La Méduse au Bateau-Lavoir D'un confessionnal aux toilettes sales d'une gare ou d'un bar Il avait appris à slalomer entre les lames de rasoirs Il m'a conté des histoires excellentes Depuis l'époque où il était lente Mais, j'l'ai refilé à une passante Paraît qu'il traîne dans un cirque avec des puces savantes x5 Pubis Pubis ennemi</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Quarantaine</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool J'ai pris d'assaut le hamac, ma femme, les aires d'jeux la matent J'aimerais qu'on vieillisse ensemble comme Michelle et Barack J'suis à deux doigts d'm'assoupir sous l'parasol, j'veux pas cuire J'kiffe le moment présent, là, y'a pas d'passé, pas d'avenir Héros d'un film d'inaction, couvert de transpiration Le rosé n'est plus frais donc j'remets des glaçons J'ressens de bonnes vibrations, j'laisse venir l'inspiration Je peins mon texte dans ma tête basé sur ces pures sensations Et, là, là, j'me sens bien, là J'me suis rarement senti aussi bien, ouais J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Comme un zombie, j'quitte ma tombe, cocktail chargé, j'fais la ronde Y'a pas d'plan Vigipirate, j'laisse mes enfants faire la bombe Maître-nageur en tatanes, j'suis mon propre barman Vu mon taux d'alcoolémie, là, c'est moi qui risque la noyade Eh, arrêtez d'm'éclabousser, hein Non, j'veux pas jouer Non, j'vais pas gonfler ta bouée T'as qu'à souffler J'feel good au bord d'la pool Personne ne boude, la vie s'écoule, c'est cool J'me saoule au bord d'la pool Les p'tits s'défoulent, la vie s'écoule Bah ouais, j'suis pas marrant La vie, c'est pas toujours fun, hein Moi, j'suis ieux-v' ? Eh, vous faites quoi, là ? T'es sûre ? Eh, si y'en a qui m'poussent, j'vais m'... Eh, c'est pas cool, hein J'fais l'requin dans la pistoche, wo-oh Verre de vin, bol de pistaches, wo-oh Fonce-dé' comme dans un festoche, wo-oh J'profite enfin du spectacle, wo-oh J'suis sous l'eau, au fond d'la pool Les p'tits s'défoulent, la vie s'écoule, c'est cool</t>
+          <t>Mouais... super... hun-hun... elle, elle est moche... ouais, c'est ça... lui, il raconte tout le temps les mêmes histoires... gngngngna, vas-y, raconte ta vie... rha, mais lui il pue d'la gueule, c'est chaud... Moi, j'ai pas qu'ça à faire, hein, rien à foutre... en plus, y'a plus rien à boire... j'sais pas danser... pfou, j'm'ennuie, bah ouais... les gens sont vilains... Ah ! Oh, lui, il a une toute petite tête ! Et ça rigole... et ça tchatche... la jeunesse, c'est plus d'mon âge... Bon, moi, j'vais pas tarder à m'barrer, hein... J'n'ai pas la vie d'une rock-star J'me couche de moins en moins tard Trois bières et j'suis dans le coltard J'marmonne et titube à la Gainsbarre J'me bourre de café, de vitamine C Pour mieux affronter ces mondanités Cette soirée m'ennuie, lopacité grandit J'ai vu quelqu'un bâiller, je suis contaminé Écoutez-vous parler si ça vous fait plaisir Mais j'me tire, poussez-vous, s'il vous plaît Laissez-moi glandouiller dans mon grand lit douillet J'veux vite rentrer chez moi comme Le Petit Poucet Voilà... comme ça, demain, j'me lève bien bien tard !.. J'me fais une bonne grosse sieste et... au dodo... J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre parenthèses La prochaine étape, c'est la quarantaine À mon anniversaire, on m'offre des pyjamas Quand j'entends des bruits suspects, la nuit, j'hurle Qui va là ? J'ai acheté la panoplie du parfait gars ramolli J'fais les cent pas dans ma tête pour cramer des calories Le Pape des papys, le Comte des coups d'barre Le roi de l'apathie, le ponte des pantouflards Oui, j'suis flemmard... Pour faire la sieste J'pourrais m'planquer dans la niche d'un clébard Je suis encore plus casanier qu'un escargot Je rêve de décrocher la lune à l'aide d'un escabeau Alors j'enfile une grenouillère, mon amour propre s'enfuit Je m'en vais dormir comme une pierre jusqu'à c'que mort s'ensuive J'suis né au siècle dernier, mais suis-je à d'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine Scratches Quarante piges, putain, c'est l'âge de mes parents C'est le moment où tes enfants te répètent T'es pas marrant Les familiarités font place au vouvoiement On passe devant le cimetière en se disant qu'il nous attend C'est le trek ou le footing, le stress et la routine Les soucis, les soupirs, les manèges sans looping La calvitie, les cernes et les rides, la famille Et le sacrifice, le début de la fin du feu d'artifice Tu redescends de la montagne, le passé t'accompagne Le futur t'angoisse mais tu te soignes Les potes s'éloignent, les époques se fanent Le temps t'escorte mais il t'escroque car il extorque l'âme J'accepte de vieillir La prise de poids, la perte de désir Mais, avant de finir cloîtré Je voudrais faire le tour de la voie lactée J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine J'ai mis ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine1</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>P.O.R.N</t>
+          <t>Qui aime bien, châtie bien</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Pleasure off right now When it tickles down there, I go watch a video A couple minutes running through my panties and Im finished though I decode my body, get why it's picky, oh Know how to please it and release it, all that matters, period Images keep flashing, its a myriad Different genitalia, scenes are tailored, some of it is hideous And it be on my mind all day, feel like an idiot I just wanna get my nut and feel like Im the prettiest When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Imagine it as an instant relief I dont need the full meal yet, it's just an aperitif Imma act on my desires, that is my leitmotif Porn is never gonna die, I aint trynna start no beef But I swear a lot of it aint made for us It's hard to look at any of the videos in full consciousness Creamy pie, facial abuse, golden shower, its toys are us Some of these actors dont even know which zones are erogenous When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn When I watch that porn, porn, when I watch that porn Pleasure off right now Elle a pas peur de parler ddick Tracy Elle est v'nue m'chercher dans un but précis Causer de cul et de porn, ça peut décupler mes forces oui Jadore faire juter le borgne quand j'ai bien scruté mon ordi Chacun ses goûts et ses fantasmes inavoués C'est si facile à trouver pas besoin d'y passer la journée Moi, jmate que du homemade où l'plaisir n'est pas simulé Ho merde! C'est pour ça qu'mon avant-bras est si musclé Quand la colère et le stress monte Je me tâte et les problèmes s'estompent Elles ont des joujous extra-longs Plein de gadgets à la James Bond Y a pas d'mal à s'faire du bien Le constat est unanime Formez des épicuriens Faites du porn éducatif Pas d'body de bimbo Si la MILF est typée, bingo! J'kiffe les plans subjectifs ou fixes Quand le mec fait jouir sa pine-co J'ai trouvé le clit et le point G, suivez le guide Allez vite je les pointe et vous quitte Pour découper des beats on peut dire qu'on est quitte Et que toute l'équipe est décoincée Wow When I watch that porn, porn, when I watch that porn I lock the door When I watch that porn, porn, when I watch that porn Im in the dark When I watch that porn, porn, when I watch that porn I put my headphones When I watch that porn, porn, when I watch that porn My wife and kids are sleeping When I watch that porn, porn, when I watch that porn</t>
+          <t>À la manière d'un tsunami géant Le rap aquatique peut engloutir l'espèce humaine Flow millésimé, j'pose avec générosité Pour les femmes qui s'épilent les zones à forte pilosité Ne sois pas terrorisé par mon tact mérovingien Besoin d'onctuosité je contacte des gros vagins J'ai des textes plus compacts que tes disques Mec, on m'appelle l'Antéchrist angélique Tu convoites, c'que t'es triste Je te bizute, tu dis zut, en deux minutes, t'es laminé La seule émotion que j'ressens en t'écoutant, c'est la pitié J'éclate ta tête à claque, tes rimes plates manquent de saveur comme du slim fast T'as tes vapeurs, faut qu'tu t'hydrates, donc j'écarte tes cuisses flasques Ne prends pas peur, sache que je suis chaste J'monopolise ton boule, cette friandise qu'on souille Dans une cellule exiguë d'une prison d'Istanbul Je vais scier tes testicules, en faire une petite tambouille T'apprécies et ça te stimule, en fait, tu kiffes l'embrouille Là, faut qu't'imagines un minotaure sous-marin dans sa grotte Avec d'la carapace de crevette sur les yeux Et une langue en forme de tentacule de poulpe Et qui t'clash depuis son canapé en corail T'as moins d'vocabulaire qu'un gamin sourd en primaire Et ton flow caduque sent le sapin, fourbe antiquaire Nul besoin d'être érudit pour percer le mystère Je suis rappeur en CDI et toi, intérimaire Tu tuerais père et mère pour un petit concert T'es orphelin, tu désespères, t'inquiète, je suis ton père J'suis invicible et mon génie n'est pas héréditaire L'infanticide est mon hobby dixit les faits divers Ta mère la fouine s'fait ken' en levrette par Jabba le Hutt sur la planète Tatooine Puis baragouine J'emmerde les mecs ! dans des petits bars à gouines Alors arrête tes foutaises, les gens n'écoutent pas tes longs monologues Ils jactent dans ton dos, tu deviens rouge comme chez ton proctologue Arriviste pathétique comme Barry Lyndon Sors sans tes bas résilles, comme Paris Hilton Croque dans cette pomme mortelle et maléfique car Telle est ma définition d'un couplet magnétique, stop Ça picote, hein ? Oh oui, ça picote Ça fait bobo Mais t'as bien mérité cette fessée Vu qu'en plus... T'es têtu, bruyant, très turbulent Ton regard fuyant n'est pas rassurant La plupart du temps, tu t'masturbes en Face d'une glace hurlant J'fais du rap mutant ! Je t'épouvante souvent, t'éprouve en t'essoufflant Me défoule en t'souillant, t'ébouillante et fous l'camp J'suis médisant et te maîtrise en étant méprisant T'es pas séduisant, non, t'es déprimant x2 Hippocampe Fou est un poète Dissonant, doué, incorrect, oui, c'est un Troubadour troublant et grotesque doublé d'un Loup-garou bouffant des cortex Aïe, aïe, aïe Comme on dit je t'ai mangé Mais qui aime bien, châtie bien J'te dis ça de renard à poussin1</t>
         </is>
       </c>
     </row>
@@ -2957,12 +2957,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Pot-pourri</t>
+          <t>Qui je ne suis pas</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>J'n'ai pas trop d'groupies, j'me baigne Dans des flaques d'eau croupies, entouré de radeaux d'fourmis Mes idées jouent à chat, font des saltos Le chaos règne dans mon sale pot-pourri Traîne pas là-bas, c'est chaud, mec, c'est pas Palavas-les-Flots, ouais C'est pas l'fait d'avoir des gros pecs qui fera de toi le roi des poètes Tu n'mets pas la barre très haut donc je danse le limbo Devant des bimbos Eurêka Bingo ! Entre texte et mélodie, je négocie des speed-dating Les mots sont à leur table et les musiques défilent Certains ne s'accorderont pas, genre décalage de groove D'autres, en revanche, fusionneront, et ce freestyle le prouve Quand je viens chanter, je peux toucher l'aisance de peu J'n'attends pas qu'mes bracelets se brisent pour réaliser mes vux Han, le son m'fait voyager, mais je ne fais pas l'touriste Non, je reste aussi poli que le crâne d'un moine bouddhiste Et j'y arrive depuis qu'je sais qu'j'peux l'faire Depuis que des martiens mélomanes m'ont donné l'feu vert Je suis ce fou terrien, vous ne foutez rien Vous êtes en galère comme quand Hippo roule des joints C'est pas moi, c'est la vie qui poétise Regarde toutes les rimes pauvres que certains monétisent Il serait facile de se dire que céo maîtrise Mais le type est trop carré, en fait, il géométrise Belliqueux, j'ai de délicieuses idées pernicieuses Des visions idylliques et hideuses, illimitées Mirifiques et miteuses, t'essaies de m'imiter Tandis que j'butine en toute humilité des filles humides assez rieuses Toi, tu mutiles leur clito' phallique Elles atteignent le septième ciel avec mon haricot magique Donc range tes cookies rances et ton omelette au jambon Mange mes couilles qui pendent, j'encule ta fossette au menton - C'était p't-être un p'tit peu too much, non ? - Too much, je sais pas, mais c'était... c'était crado, quoi, là...</t>
+          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
         </is>
       </c>
     </row>
@@ -2974,12 +2974,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Pubis Ennemi</t>
+          <t>Régis</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>J'ai rencontré ce morbaque au bord d'un lac Lors d'un coït horrible avec une femme à barbe ingrate Croisée à la sortie d'un squat non loin de ma fac Sous un ciel voilé, j'avais bu deux-trois packs Ce morbaque immortel avait vécu Dans le bas-ventre velu de Cléopâtre et d'Imhotep Avait connu des détraqués sexuels, des filles modèles Les lits du château de Versailles et les p'tits motels Il avait squatté le pubis d'esclaves et de rois Celui d'Ulysse à l'étroit dans le cheval de Troie Il avait goûté à des saisons chaudes À des hivers dans des maisons closes côtoyant des boutons d'rose Il était tolérant, s'excitait facilement S'exprimait brillamment depuis dix mille ans Il avait traversé le temps et les océans Croisé des tyrans et des titans, exploré tous les continents S'agrippant de port en port, de poil en poil Du Radeau de La Méduse au Bateau-Lavoir D'un confessionnal aux toilettes sales d'une gare ou d'un bar Il avait appris à slalomer entre les lames de rasoirs Il m'a conté des histoires excellentes Depuis l'époque où il était lente Mais, j'l'ai refilé à une passante Paraît qu'il traîne dans un cirque avec des puces savantes x5 Pubis Pubis ennemi</t>
+          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
         </is>
       </c>
     </row>
@@ -2991,12 +2991,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Quarantaine</t>
+          <t>Relais 4X20</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Mouais... super... hun-hun... elle, elle est moche... ouais, c'est ça... lui, il raconte tout le temps les mêmes histoires... gngngngna, vas-y, raconte ta vie... rha, mais lui il pue d'la gueule, c'est chaud... Moi, j'ai pas qu'ça à faire, hein, rien à foutre... en plus, y'a plus rien à boire... j'sais pas danser... pfou, j'm'ennuie, bah ouais... les gens sont vilains... Ah ! Oh, lui, il a une toute petite tête ! Et ça rigole... et ça tchatche... la jeunesse, c'est plus d'mon âge... Bon, moi, j'vais pas tarder à m'barrer, hein... J'n'ai pas la vie d'une rock-star J'me couche de moins en moins tard Trois bières et j'suis dans le coltard J'marmonne et titube à la Gainsbarre J'me bourre de café, de vitamine C Pour mieux affronter ces mondanités Cette soirée m'ennuie, lopacité grandit J'ai vu quelqu'un bâiller, je suis contaminé Écoutez-vous parler si ça vous fait plaisir Mais j'me tire, poussez-vous, s'il vous plaît Laissez-moi glandouiller dans mon grand lit douillet J'veux vite rentrer chez moi comme Le Petit Poucet Voilà... comme ça, demain, j'me lève bien bien tard !.. J'me fais une bonne grosse sieste et... au dodo... J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre parenthèses La prochaine étape, c'est la quarantaine À mon anniversaire, on m'offre des pyjamas Quand j'entends des bruits suspects, la nuit, j'hurle Qui va là ? J'ai acheté la panoplie du parfait gars ramolli J'fais les cent pas dans ma tête pour cramer des calories Le Pape des papys, le Comte des coups d'barre Le roi de l'apathie, le ponte des pantouflards Oui, j'suis flemmard... Pour faire la sieste J'pourrais m'planquer dans la niche d'un clébard Je suis encore plus casanier qu'un escargot Je rêve de décrocher la lune à l'aide d'un escabeau Alors j'enfile une grenouillère, mon amour propre s'enfuit Je m'en vais dormir comme une pierre jusqu'à c'que mort s'ensuive J'suis né au siècle dernier, mais suis-je à d'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine Je mets ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine Scratches Quarante piges, putain, c'est l'âge de mes parents C'est le moment où tes enfants te répètent T'es pas marrant Les familiarités font place au vouvoiement On passe devant le cimetière en se disant qu'il nous attend C'est le trek ou le footing, le stress et la routine Les soucis, les soupirs, les manèges sans looping La calvitie, les cernes et les rides, la famille Et le sacrifice, le début de la fin du feu d'artifice Tu redescends de la montagne, le passé t'accompagne Le futur t'angoisse mais tu te soignes Les potes s'éloignent, les époques se fanent Le temps t'escorte mais il t'escroque car il extorque l'âme J'accepte de vieillir La prise de poids, la perte de désir Mais, avant de finir cloîtré Je voudrais faire le tour de la voie lactée J'suis né au siècle dernier, mais suis-je à l'ancienne ? Dans les soirées mondaines, j'erre comme une âme en peine J'ai mis ma vie sociale entre charentaises La prochaine étape, c'est la quarantaine1</t>
+          <t>Dur, dur d'être attentif quand j'fume plus de quarante spliffs J'culbute au ralenti puis murmure des saloperies Pas d'calomnie, mate, v'là l'OVNI qui amerrit J'sais pas si t'as saisi quand j'étais p'tit C'était western spaghetti et space cake à la cantine Laisse faire, je t'attendris, j'suis expert en inepties J'crée des crises d'épilepsie, épie les filles, défie les psys De l'audace, de l'inédit pour dix mille esprits loquaces Le succès, ça passe, j'boirai la tasse Puis me voilerai la face, me contenterai d'un ça passe Le sarcasme comme arme pour lutter contre un tas d'crasses J'entends qu'j't'agace, j'suis un enfant d'la basse Il est grand temps qu'j'm'arrache, j'catapulte Des toiles d'art brut, casse ta nuque Sans armada russe et me balade nu Dans un immense champ d'patates d'où j'recrache la lune J'deale de la potion magique, ris d'vos narrations statiques Ecriture aromatique fruit de ma passion à risque J'me sens lubrique voire impudique, j'crois qu'sans musique J'serais un d'ces gars douteux qui s'tripote sur les bancs publics J'ai juste pris le mic histoire de remporter le titre Si ta copine te quitte, c'est que t'es grand en gueule mais petit dans le slip T'as la grippe, une otite, les yeux en trou de bite Arrête le shit, tu fais flipper, pour te kicker, j'ai pas besoin de clique J'suis pas tendre, confonds pas avec Mike Brant J'trouve l'inspiration comme quand Jean-Marie lit Mein Kampf Ton son est crado, pire qu'un pédo' en Thaïlande Tu parles de voiture allemande mais tu prends l'bus avec ta bande Lâche le mic et retourne faire du shopping En ville, avec tes copines L'Eni' is not joking Juste avec deux rimes, j't'embobine Pire que Baudelaire à Brooklyn j'mélange poésie et trash talking J'arrive classique, flow massif à la Shaq' O'neal Si mon son tourne dans ta tire, tu roules en claques-mobile J't'explique ta zik, c'est pas audible Et tu rêves qu'un jour j'te recrute pour un feat ? Yo, t'as pas l'profil Au mic, j'ai la forme, j'rappe comme j'fais mon jogging J'élimine les gros wacks et les toxines P'tit con, j'te mets ippon car t'es bidon Pire qu'un 'leur-dea' sans chichon ou Jean Sarkozy sans piston Plutôt du genre autonome quand certains gars font l'aumône Le beat, j'taffe, rime grave, freestyle holocauste Pour les p'tits gars flow low cost, ceux qui s'croient trop locos J'ai plus d'images qu'il n'y d'villages ou d'visages au Togo J'arrive grosso modo comme un gosse au zoo Bien déridé, plus excité qu'un d'ces gros bonobos J'suis comme les impôts locaux, je parle aux riches, aux prolos Et j'réunis les opposés comme pour un Bordeaux-Sochaux Si tu raffoles de nos flows, ne t'affole pas trop, molo Je kick, je deviens plus heureux qu'un gars qui gagne au Loto Rangez donc vos autos ainsi qu'vos motos, nos mots Ont plus de couleurs et de vie qu'une vulgaire photos Lomo Si j'fais une faute au mot lot, tu n'pourras pas l'homologuer T'étais nul à l'écrit et pas meilleur aux oraux J'débite du boulot solo pour mettre les boules aux sonos Et reste fort et explore sans mini marque au polo Pendant qu'tes potos causent trop, j'suis dans un duo costaud La zik et moi, c'est comme la lumière pour un gars trop claustro' Comme l'alcool au clodo, le flingue aux vatos locos J'te dis on forme une team énorme, tout comme TornadoZorro Quand j'dis qu'j'serais célèbre, j'suis plus crédible, ça fait bientôt quinze piges J'avance mais j'sais pas vraiment où j'me dirige Quand j'rappe tout seul dans mon coin, c'est la folie, j'me prends pour un prodige Mon seul public, c'est mes potes parce que je les oblige J'm'incruste en te disant que je suis juste de visite Après, j'te pique le titre avant qu'tu réalises que j'suis un parasite J'écris la plupart de mes speechs à la va-vite Mais bon, c'est vraiment pas ma faute si, l'écriture, c'est mon pouvoir magique Une étoile noire, c'est compliqué à repérer dans le ciel J'ai observé le mouv' sous tous les angles, j'ai capté l'essentiel J'te ponds un truc démentiel en moins de dix centièmes J'impose mon son dans ta maison parce que je suis sans gêne Perdu, j'veux vivre mes rêves mais je sais plus lesquels J'ai mis du temps à me lancer parce que j'suis un diesel La vie t'abime des fois, c'est difficile de rester zen Y'a que sur scène que j'me sens vraiment pousser des ailes Quand L'Eni' m'invite, j'réponds Ok David J't'écris un truc en speed parce que, mon rap, c'est d'la restauration rapide Mais d'la trois étoiles, si t'as le ventre vide Viens te nourrir, à la fin, tu seras comme Hagrid3</t>
         </is>
       </c>
     </row>
@@ -3008,12 +3008,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Qui aime bien, châtie bien</t>
+          <t>Replay</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>À la manière d'un tsunami géant Le rap aquatique peut engloutir l'espèce humaine Flow millésimé, j'pose avec générosité Pour les femmes qui s'épilent les zones à forte pilosité Ne sois pas terrorisé par mon tact mérovingien Besoin d'onctuosité je contacte des gros vagins J'ai des textes plus compacts que tes disques Mec, on m'appelle l'Antéchrist angélique Tu convoites, c'que t'es triste Je te bizute, tu dis zut, en deux minutes, t'es laminé La seule émotion que j'ressens en t'écoutant, c'est la pitié J'éclate ta tête à claque, tes rimes plates manquent de saveur comme du slim fast T'as tes vapeurs, faut qu'tu t'hydrates, donc j'écarte tes cuisses flasques Ne prends pas peur, sache que je suis chaste J'monopolise ton boule, cette friandise qu'on souille Dans une cellule exiguë d'une prison d'Istanbul Je vais scier tes testicules, en faire une petite tambouille T'apprécies et ça te stimule, en fait, tu kiffes l'embrouille Là, faut qu't'imagines un minotaure sous-marin dans sa grotte Avec d'la carapace de crevette sur les yeux Et une langue en forme de tentacule de poulpe Et qui t'clash depuis son canapé en corail T'as moins d'vocabulaire qu'un gamin sourd en primaire Et ton flow caduque sent le sapin, fourbe antiquaire Nul besoin d'être érudit pour percer le mystère Je suis rappeur en CDI et toi, intérimaire Tu tuerais père et mère pour un petit concert T'es orphelin, tu désespères, t'inquiète, je suis ton père J'suis invicible et mon génie n'est pas héréditaire L'infanticide est mon hobby dixit les faits divers Ta mère la fouine s'fait ken' en levrette par Jabba le Hutt sur la planète Tatooine Puis baragouine J'emmerde les mecs ! dans des petits bars à gouines Alors arrête tes foutaises, les gens n'écoutent pas tes longs monologues Ils jactent dans ton dos, tu deviens rouge comme chez ton proctologue Arriviste pathétique comme Barry Lyndon Sors sans tes bas résilles, comme Paris Hilton Croque dans cette pomme mortelle et maléfique car Telle est ma définition d'un couplet magnétique, stop Ça picote, hein ? Oh oui, ça picote Ça fait bobo Mais t'as bien mérité cette fessée Vu qu'en plus... T'es têtu, bruyant, très turbulent Ton regard fuyant n'est pas rassurant La plupart du temps, tu t'masturbes en Face d'une glace hurlant J'fais du rap mutant ! Je t'épouvante souvent, t'éprouve en t'essoufflant Me défoule en t'souillant, t'ébouillante et fous l'camp J'suis médisant et te maîtrise en étant méprisant T'es pas séduisant, non, t'es déprimant x2 Hippocampe Fou est un poète Dissonant, doué, incorrect, oui, c'est un Troubadour troublant et grotesque doublé d'un Loup-garou bouffant des cortex Aïe, aïe, aïe Comme on dit je t'ai mangé Mais qui aime bien, châtie bien J'te dis ça de renard à poussin1</t>
+          <t>J'aime la vitesse mais jamais au volant d'un bolide allemand, quand j'suis devant la foule J'suis comme à la maison, ouais, y a pas de bafouille même quand j'cavale en rappant J'avais peur des pétards bien avant le Bataclan boom, mais si Kanye sencanaille Et fait tourner celui de Kimmy Kardashian ok, jfume, affalé comme un flan C'est pt-être pas la Belle au bois dormant, vu qu'elle est maléfique mais, bon, tant pis, le mal est fait, trop tard J'vais pull up le beat et rebooter la fête, le pilon ma défait chut Roulé-boulé, j'mts les bouchées doubles t j'vous laisse tous étouffer Sous des coulées d'boue, j'suis shooté mais mon style est bulletproof Avec Y2, j'casse tout, tel un voyou, j'bafoue Jai du bagout, j'l'avoue, cloue le bec des zazous J'ai des yeux d'enfant, j'vois les choses en grand Par le trou de la serrure, comme un petit passe-partout Y a pas d'acte de bravoure, ni de pacte t't't' Que des flaques d'amour et des blagues grave lourdes J'mets des claques en série, claque, claque, claque J'me déplace sans permis et sans plaque, là, jattaque what? Si t'es cardiaque, je te car-jack et me casse vite dans les Carpates, y a des vampires J'suis la barbaque, mais je m'en fiche, j'ai des contacts, j'ai le contrat pour le comte Drac' Il a les crocs, je le constate, et puis des crampes à l'estomac, je décampe, j'suis pas trauma' Là, je rampe tel un cobra, quelle aubaine, je vais vite à l'hôpital, tu las vu, quand je m'étale, tout le game est dans le coma Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Look, pop another pilly I be getting busy, I be gettin litty imma really have the city on a hunnid fifty Nothing pretty bout it, baby, I dont got a doubt about it, had to get it imma flip its another automatic Weapon imma take it to my funeral and not regret it, only thing I let get to my head was all the baddest bitches I dont give a fuck if itll be another homicidal, I just need a mother fucking lighter and a shot of Irish whiskey Bitch, please, no kissing just some Monica Lewinsky Imma die lit like a lamp on, cut it like coupons, I only trust karma like sutra And food trucks serving ya crew with one hand on two nuts, I practice celibacy cuz I dont give two fucks About a bitch, who gotta problem with? Hop up out the whip, gratata tha shit S'il vous plaît, would you give me a break? Im cool off you bitches like air dry showers, Im high as towers that Donald Trump owns My coast is clear like a shot of Svedka Vodka The way I double up my finance they think my ass got cloned I jump in that whip like a kid in a gym wita mask on my face, I am finishing him Do not sub in a zero, placebo affect whatchoo smoking it for if you high off my shit Its a thin line between love and hate, thats a fact that aint cap, you just looked at the dress code too late Im just waving at bitches and skating on niggaz and taking that shit to my grave when Im finished Estamos en un punto moviéndose a velocidades vertiginosas Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais</t>
         </is>
       </c>
     </row>
@@ -3025,12 +3025,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Qui je ne suis pas</t>
+          <t>Respire</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
+          <t>On s'accroche puis on laisse fuir On sconstruit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Le ciel est gris, c'est pas grisant, c'est déprimant Le monde est sourd et trop bruyant, ça, c'est épuisant Les optimistes ont un slogan pas si fascinant Après la pluie vient le beau temps, ouais, c'est évident La joie nous éclair de façon éphémère, ça, cest navrant Mais faut pas slaissr faire, c'est clair, cest la vie qui nous l'apprend Quand t'es sur les rotules, à cran, au fond du gouffre souffle Faut parfois prendre du recul pour aller de l'avant Na-na-na-na-na-na-na-na, na Na-na-na, na-na-na Na-na-na-na-na-na-na-na, na Na-na-na On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Notre écorce est recouverte de curs gravés Mais, bien souvent, nos larmes arrosent des fleurs fanées Difficile de n'pas plier face à ces grandes bourrasques Mais on essaye de tenir bon, de rester enthousiaste Faut laisser passer l'orage, c'est vital Le temps nous emportera tous, c'est inévitable En attendant, on rit, on pleure, on vit, c'est pas si mal On connaît la fin mais on respire, c'est l'principal On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire</t>
         </is>
       </c>
     </row>
@@ -3042,12 +3042,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Régis</t>
+          <t>Retroman</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
+          <t>J'suis tellement nostalgique que les gens qui m'connaissent m'ont trouvé un surnom, c'est... Retroman Retroman Retroman Retroman J'habite un immeuble à colombages Rongé par le temps, ses murs s'effritent comme du parmesan Mes meubles ont au moins dix fois mon âge Je vis calmement et ça rend jaloux la plupart des gens Je mange de l'aigle et du faisan À l'aide d'une fourchette à deux dents Ma ville est grise et glace le sang Ses habitants sont haletants Tous ces gens ternes m'attristent Ils prennent des vessies pour des lanternes magiques Quand je m'emmerde la nuit, je lis des manuscrits en vieux français Ce mois-ci, j'ai déchiffré dix phrases de Montaigne et Racine Je suis un poil taquin, j'aime faire peur aux gamins Et, pour le carnaval, je m'habille en Arlequin Les soirs de gros chagrin, là non, j'fais pas l'malin Et dors en diagonale dans mon lit à baldaquin Retroman Retroman Retroman Retroman Je trempe ma plume dans un encrier Datant de la seconde moitié du onzième siècle J'voudrais capturer deux, trois grues cendrées Afin de correspondre avec un bonze espiègle Je me douche les jours de pluie, sous les gouttières Me rase avec des bouts d'verre, conserve de l'eau croupie dans des soupières Je suis fier d'être rétro De ne jamais avoir voulu prendre le métro J'y risque la mort car les escalators Sont en fait des dinos féroces enragés J'adore les tricératops alors On m'a offert un rhinocéros empaillé Le souci, c'est qu'je vis dans un minuscule deux pièces Une grotte qui pue le charbon, le crottin d'cheval Mais il m'arrive de porter des costumes trois pièces Culotte, chaperon et cotte de mailles Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie Depuis tout petit, on m'traite de vieux con Dans un océan de nostalgie, j'touche le fond J'épie toutes les filles à tête de guenon Leurs voix sont obsédantes, volcaniques, d'outre-tombe Celles qui me traitent d'élitiste détestable Ignorent qu'en fait j'suis fétichiste des pieds sales Oui, j'admire l'ancien temps sur son piédestal Ponctue mes phrases d'un juron médiéval Je porte des sabots, pratique des danses de salon tribales Égorge des crapauds, m'agite en transe grâce à mon cigare Quand mon coq fait cot-codec, ça m'rappelle que nos vies s'consument J'aime les objets obsolètes, ils ressuscitent ceux qui n'sont plus Plus qu'une passion, c'est un mode de vie Je voyage dans le passé de jour comme de nuit Aux puces, je chine et dépense donc je suis Et tant pis, si je finis sous un pont-levis Retroman Je crois qu'autrefois est mon mot préféré Retroman Chez moi, j'ai un coq pour me réveiller Retroman Je flâne chaque semaine dans les vide-greniers Retroman Et, quand j'ai la migraine, je me fais dix saignées Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie</t>
         </is>
       </c>
     </row>
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Relais 4X20</t>
+          <t>Road Trip de pitre aux U.S.A.</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Dur, dur d'être attentif quand j'fume plus de quarante spliffs J'culbute au ralenti puis murmure des saloperies Pas d'calomnie, mate, v'là l'OVNI qui amerrit J'sais pas si t'as saisi quand j'étais p'tit C'était western spaghetti et space cake à la cantine Laisse faire, je t'attendris, j'suis expert en inepties J'crée des crises d'épilepsie, épie les filles, défie les psys De l'audace, de l'inédit pour dix mille esprits loquaces Le succès, ça passe, j'boirai la tasse Puis me voilerai la face, me contenterai d'un ça passe Le sarcasme comme arme pour lutter contre un tas d'crasses J'entends qu'j't'agace, j'suis un enfant d'la basse Il est grand temps qu'j'm'arrache, j'catapulte Des toiles d'art brut, casse ta nuque Sans armada russe et me balade nu Dans un immense champ d'patates d'où j'recrache la lune J'deale de la potion magique, ris d'vos narrations statiques Ecriture aromatique fruit de ma passion à risque J'me sens lubrique voire impudique, j'crois qu'sans musique J'serais un d'ces gars douteux qui s'tripote sur les bancs publics J'ai juste pris le mic histoire de remporter le titre Si ta copine te quitte, c'est que t'es grand en gueule mais petit dans le slip T'as la grippe, une otite, les yeux en trou de bite Arrête le shit, tu fais flipper, pour te kicker, j'ai pas besoin de clique J'suis pas tendre, confonds pas avec Mike Brant J'trouve l'inspiration comme quand Jean-Marie lit Mein Kampf Ton son est crado, pire qu'un pédo' en Thaïlande Tu parles de voiture allemande mais tu prends l'bus avec ta bande Lâche le mic et retourne faire du shopping En ville, avec tes copines L'Eni' is not joking Juste avec deux rimes, j't'embobine Pire que Baudelaire à Brooklyn j'mélange poésie et trash talking J'arrive classique, flow massif à la Shaq' O'neal Si mon son tourne dans ta tire, tu roules en claques-mobile J't'explique ta zik, c'est pas audible Et tu rêves qu'un jour j'te recrute pour un feat ? Yo, t'as pas l'profil Au mic, j'ai la forme, j'rappe comme j'fais mon jogging J'élimine les gros wacks et les toxines P'tit con, j'te mets ippon car t'es bidon Pire qu'un 'leur-dea' sans chichon ou Jean Sarkozy sans piston Plutôt du genre autonome quand certains gars font l'aumône Le beat, j'taffe, rime grave, freestyle holocauste Pour les p'tits gars flow low cost, ceux qui s'croient trop locos J'ai plus d'images qu'il n'y d'villages ou d'visages au Togo J'arrive grosso modo comme un gosse au zoo Bien déridé, plus excité qu'un d'ces gros bonobos J'suis comme les impôts locaux, je parle aux riches, aux prolos Et j'réunis les opposés comme pour un Bordeaux-Sochaux Si tu raffoles de nos flows, ne t'affole pas trop, molo Je kick, je deviens plus heureux qu'un gars qui gagne au Loto Rangez donc vos autos ainsi qu'vos motos, nos mots Ont plus de couleurs et de vie qu'une vulgaire photos Lomo Si j'fais une faute au mot lot, tu n'pourras pas l'homologuer T'étais nul à l'écrit et pas meilleur aux oraux J'débite du boulot solo pour mettre les boules aux sonos Et reste fort et explore sans mini marque au polo Pendant qu'tes potos causent trop, j'suis dans un duo costaud La zik et moi, c'est comme la lumière pour un gars trop claustro' Comme l'alcool au clodo, le flingue aux vatos locos J'te dis on forme une team énorme, tout comme TornadoZorro Quand j'dis qu'j'serais célèbre, j'suis plus crédible, ça fait bientôt quinze piges J'avance mais j'sais pas vraiment où j'me dirige Quand j'rappe tout seul dans mon coin, c'est la folie, j'me prends pour un prodige Mon seul public, c'est mes potes parce que je les oblige J'm'incruste en te disant que je suis juste de visite Après, j'te pique le titre avant qu'tu réalises que j'suis un parasite J'écris la plupart de mes speechs à la va-vite Mais bon, c'est vraiment pas ma faute si, l'écriture, c'est mon pouvoir magique Une étoile noire, c'est compliqué à repérer dans le ciel J'ai observé le mouv' sous tous les angles, j'ai capté l'essentiel J'te ponds un truc démentiel en moins de dix centièmes J'impose mon son dans ta maison parce que je suis sans gêne Perdu, j'veux vivre mes rêves mais je sais plus lesquels J'ai mis du temps à me lancer parce que j'suis un diesel La vie t'abime des fois, c'est difficile de rester zen Y'a que sur scène que j'me sens vraiment pousser des ailes Quand L'Eni' m'invite, j'réponds Ok David J't'écris un truc en speed parce que, mon rap, c'est d'la restauration rapide Mais d'la trois étoiles, si t'as le ventre vide Viens te nourrir, à la fin, tu seras comme Hagrid3</t>
+          <t>En live à L.A., me prend l'envie d'hurler Hell Yeah ! Les sens en éveil, je me sens pousser des ailes mais La cité des anges fascine et dérange Abrite d'étranges artistes mélangés Des stars et des culturistes comme à Cannes, en mai J'ai le goût du risque, fume le calumet Y'a des bars assez futuristes, des plages Des sharks et des palmiers, ouais Si t'es tendu, je te conseille d'aller Visiter la ville à pieds dans toute son étendue J'porte un toast sur la West Coast, à ces fat bitches À ces Chinese et ces Chicanos, cheese I'm in 29 Palms at the 666 motel Bordel, I don't have XXX channels I write rhymes in a strange dark thin tunnel Miracles may happen If I drink your soul in an empty wine glass With a golden straw I gain twenty-one grams I'm quite nice, listen to Brahms and Amy Winehouse This bat could wear hats on her skinny white ass I hate calm, injure bees, hell's angels and trees And I laugh when they scream loud But I ain't so nasty, I shave with chainsaws My name's Sebastian, I create brainstorms Mad Seahorse on the road is trippin May the dark side of the force be with him Je dévore des yeux le Grand Canyon, mes iris en raffolent Ce décor onirique m'émeut et m'impressionne Tout est rougeoyant, magique, avec ou sans alcool Je saute d'une rive à l'autre avec une perche comme Jean Galfione L'Arizona, ça rigole pas, j'admire mon gars Car, à Paris, y'aura jamais d'panorama comme ça Revoici l'as des as qui crache des phrases et brasse les cartes À Las Vegas, village d'ersatz Les péripatéticiennes gagnent au poker Paradis artificiel, carré de joker J'avoue, j'fais tomber des lingots dans les machines à sous Et les gamines accourent, je joue pour payer mes impôts J'vais faire un casse, vider les caisses de tous les casinos Miser mon corps, pisser de l'or au bord du caniveau J'suis dans la Death Valley, bien installé dans la caisse, j'arrête Pas d'me dire que la Terre est une belle planète Le climat est aussi hostile que sur le soleil Dans ce désert, même Lucifer transpire des oreilles Y'a des fantômes de mineurs et de canassons Y'a pas d'ombre, j'te déconseille d'y faire un marathon Pour rigoler, j'pourrais sortir avec une loupe et m'immoler Ou ligoter un bonhomme de neige à une pierre, et l'ignorer Même les peaux mates mettent de la Biafine Rêvent d'un orage, regrettent lac et piscine J'vais débarquer à Bishop, fonce-dé' comme au coffee shop À cause de l'air conditionné, du chaud-froid et du gros hip-hop Hardcore comme un gars qui fait pas d'sport Poursuivi par un guépard et un vélociraptor La vallée d'la mort, j'adore C'est flippant et fascinant comme Dark Vador À Yosemite, y'a des rochers qui piquent, des forêts mythique Des chutes d'eau, des cow-boys sous des tipis J'ai vu Tic et Tac et Woody Woodpecker Les touristes rouspètent contre les moustiques et les ours prennent peur C'est le paradis des bûcherons Face aux séquoias, même les gros tas sont des pucerons En tout cas, si j'croise une indienne, j'lui dirai Reste cool J'vais tellement t'exploser les fesses qu'on finira par t'appeler Red Bull Dans une maison bleue, un junky dort sur son lit d'mort Laissons-le rêver de la saison deux de Twin Peaks, et se tordre De douleur, une horde de chômeurs filiformes Attend patiemment la livraison d'beuh de Green Peace and Love Entends-tu ces phoques fâchés qui suivent à la trace Dans ces rues pentues, les évadés d'Alcatraz ? L'enfant d'Hippo est ici, dans le quartier des hippies San Francisco, j'ai ffé-ki' mais mon road trip est fini Le disque d'Hippo sera bientôt dispo' Sur le pont d'Avignon et de San Francisco</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Replay</t>
+          <t>#Selfree</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>J'aime la vitesse mais jamais au volant d'un bolide allemand, quand j'suis devant la foule J'suis comme à la maison, ouais, y a pas de bafouille même quand j'cavale en rappant J'avais peur des pétards bien avant le Bataclan boom, mais si Kanye sencanaille Et fait tourner celui de Kimmy Kardashian ok, jfume, affalé comme un flan C'est pt-être pas la Belle au bois dormant, vu qu'elle est maléfique mais, bon, tant pis, le mal est fait, trop tard J'vais pull up le beat et rebooter la fête, le pilon ma défait chut Roulé-boulé, j'mts les bouchées doubles t j'vous laisse tous étouffer Sous des coulées d'boue, j'suis shooté mais mon style est bulletproof Avec Y2, j'casse tout, tel un voyou, j'bafoue Jai du bagout, j'l'avoue, cloue le bec des zazous J'ai des yeux d'enfant, j'vois les choses en grand Par le trou de la serrure, comme un petit passe-partout Y a pas d'acte de bravoure, ni de pacte t't't' Que des flaques d'amour et des blagues grave lourdes J'mets des claques en série, claque, claque, claque J'me déplace sans permis et sans plaque, là, jattaque what? Si t'es cardiaque, je te car-jack et me casse vite dans les Carpates, y a des vampires J'suis la barbaque, mais je m'en fiche, j'ai des contacts, j'ai le contrat pour le comte Drac' Il a les crocs, je le constate, et puis des crampes à l'estomac, je décampe, j'suis pas trauma' Là, je rampe tel un cobra, quelle aubaine, je vais vite à l'hôpital, tu las vu, quand je m'étale, tout le game est dans le coma Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Look, pop another pilly I be getting busy, I be gettin litty imma really have the city on a hunnid fifty Nothing pretty bout it, baby, I dont got a doubt about it, had to get it imma flip its another automatic Weapon imma take it to my funeral and not regret it, only thing I let get to my head was all the baddest bitches I dont give a fuck if itll be another homicidal, I just need a mother fucking lighter and a shot of Irish whiskey Bitch, please, no kissing just some Monica Lewinsky Imma die lit like a lamp on, cut it like coupons, I only trust karma like sutra And food trucks serving ya crew with one hand on two nuts, I practice celibacy cuz I dont give two fucks About a bitch, who gotta problem with? Hop up out the whip, gratata tha shit S'il vous plaît, would you give me a break? Im cool off you bitches like air dry showers, Im high as towers that Donald Trump owns My coast is clear like a shot of Svedka Vodka The way I double up my finance they think my ass got cloned I jump in that whip like a kid in a gym wita mask on my face, I am finishing him Do not sub in a zero, placebo affect whatchoo smoking it for if you high off my shit Its a thin line between love and hate, thats a fact that aint cap, you just looked at the dress code too late Im just waving at bitches and skating on niggaz and taking that shit to my grave when Im finished Estamos en un punto moviéndose a velocidades vertiginosas Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais Chaque jour est unique, on s'y fait on s'y fait J'préfère les souvenirs aux billets aux billets Quand j'regarderai ma vie en replay, j'me dirai Qu'j'ai rien à regretter, donc j'y vais ouais, j'y vais</t>
+          <t>Ma chambre est toujours bien rongée grâce à mes chicots de castor Dans leurs clips, ils sont moins expressifs que sur leur photo de passeport Ils font des bails de 'Cains-ri', stupides, cupides et sont ravis Ils s'prennent pour Victor Hugo, à quand Notre Dab de Paris ? Oh, fuck la culture de masse, moi, j'crée des sculptures de crasse On dit que la nature, en quête du plus pur extase, murmure mes phrases J'inverse la structure et te culbute de face, je voyage en seconde mais j'suis l'premier d'la classe J'suis plutôt bien élevé pour un esthète salace, je te mutile dans un bus et puis j'te cède ma place J'vends du sang d'Alien en spray, parfait pour tes soins dermatologiques J'recherche une nounou sexy pour surveiller mes spermatozoïdes Quand j'suis en manque de meuf, je soupire, je sue, j'achète une langue de buf pour lui jouir dessus Revenons à nos moutons Ils jouent les bêtes de foire, toujours en quête de gloire, faudrait qu'j'arrête de boire, de faire la fête le soir Mais j'profite de la vie sans peur car je sais qu'on passe du trotteur au déambulateur en quelques pas Ma grandeur n'a d'égale que ma sagesse, là, tu acquiesces Ma grandeur est une tare quand je parle de ces gars, je me rabaisse J'digère pas la défaite mais j'accepte les chèques, détecte les fakes et déteste les mecs Dont les textes me débectent, d'où ces déjections qui poussent à la réflexion, j'sais qu'ça t'affecte J'aime le cinéma en plein air en plein hiver, faire l'amour sur la neige sans préliminaire Je vais te faire devenir chèvre et bouc émissaire c'est lui qu'a commencé, monsieur le commissaire J'mens pas, t'as tenté de bouffer ma raie manta Mais, bon, disons qu'on est quitte, j't'invite avec ton équipe dans une maison d'arrêt pour un stage intensif de tantra Ça t'apprendra Bonsoir, les enfants</t>
         </is>
       </c>
     </row>
@@ -3093,12 +3093,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Respire</t>
+          <t>Sieste</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>On s'accroche puis on laisse fuir On sconstruit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Le ciel est gris, c'est pas grisant, c'est déprimant Le monde est sourd et trop bruyant, ça, c'est épuisant Les optimistes ont un slogan pas si fascinant Après la pluie vient le beau temps, ouais, c'est évident La joie nous éclair de façon éphémère, ça, cest navrant Mais faut pas slaissr faire, c'est clair, cest la vie qui nous l'apprend Quand t'es sur les rotules, à cran, au fond du gouffre souffle Faut parfois prendre du recul pour aller de l'avant Na-na-na-na-na-na-na-na, na Na-na-na, na-na-na Na-na-na-na-na-na-na-na, na Na-na-na On saccroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire Notre écorce est recouverte de curs gravés Mais, bien souvent, nos larmes arrosent des fleurs fanées Difficile de n'pas plier face à ces grandes bourrasques Mais on essaye de tenir bon, de rester enthousiaste Faut laisser passer l'orage, c'est vital Le temps nous emportera tous, c'est inévitable En attendant, on rit, on pleure, on vit, c'est pas si mal On connaît la fin mais on respire, c'est l'principal On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire On s'accroche puis on laisse fuir On s'construit sur des vestiges À l'affût d'une éclaircie On est seul mais on respire</t>
+          <t>Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres On se défoule, on fait les fous, quand tout s'écroule, on se ressoude La vie, c'est court, faut s'y résoudre, on s'marr en se serrant ls coudes La mort nous vise, nous shoot, au premier rang, y'a mes parents Et, moi, derrière, j'protège ma troupe Mon heure viendra, c'est pas un scoop, on l'verra pas sur grand écran Mais j'partirai rempli de doutes J'ai jamais cru au Paradis mais, quand je m'assoupis, j'y suis Je fuis tout c'qui me rend aigri J'ai peu d'amis, j'ai pas d'ennemis, j'ai mis ma famille à l'abri Est-ce que j'ai réussi ma vie ? On va dire oui Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres</t>
         </is>
       </c>
     </row>
@@ -3110,12 +3110,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Retroman</t>
+          <t>Si j’étais...</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>J'suis tellement nostalgique que les gens qui m'connaissent m'ont trouvé un surnom, c'est... Retroman Retroman Retroman Retroman J'habite un immeuble à colombages Rongé par le temps, ses murs s'effritent comme du parmesan Mes meubles ont au moins dix fois mon âge Je vis calmement et ça rend jaloux la plupart des gens Je mange de l'aigle et du faisan À l'aide d'une fourchette à deux dents Ma ville est grise et glace le sang Ses habitants sont haletants Tous ces gens ternes m'attristent Ils prennent des vessies pour des lanternes magiques Quand je m'emmerde la nuit, je lis des manuscrits en vieux français Ce mois-ci, j'ai déchiffré dix phrases de Montaigne et Racine Je suis un poil taquin, j'aime faire peur aux gamins Et, pour le carnaval, je m'habille en Arlequin Les soirs de gros chagrin, là non, j'fais pas l'malin Et dors en diagonale dans mon lit à baldaquin Retroman Retroman Retroman Retroman Je trempe ma plume dans un encrier Datant de la seconde moitié du onzième siècle J'voudrais capturer deux, trois grues cendrées Afin de correspondre avec un bonze espiègle Je me douche les jours de pluie, sous les gouttières Me rase avec des bouts d'verre, conserve de l'eau croupie dans des soupières Je suis fier d'être rétro De ne jamais avoir voulu prendre le métro J'y risque la mort car les escalators Sont en fait des dinos féroces enragés J'adore les tricératops alors On m'a offert un rhinocéros empaillé Le souci, c'est qu'je vis dans un minuscule deux pièces Une grotte qui pue le charbon, le crottin d'cheval Mais il m'arrive de porter des costumes trois pièces Culotte, chaperon et cotte de mailles Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie Depuis tout petit, on m'traite de vieux con Dans un océan de nostalgie, j'touche le fond J'épie toutes les filles à tête de guenon Leurs voix sont obsédantes, volcaniques, d'outre-tombe Celles qui me traitent d'élitiste détestable Ignorent qu'en fait j'suis fétichiste des pieds sales Oui, j'admire l'ancien temps sur son piédestal Ponctue mes phrases d'un juron médiéval Je porte des sabots, pratique des danses de salon tribales Égorge des crapauds, m'agite en transe grâce à mon cigare Quand mon coq fait cot-codec, ça m'rappelle que nos vies s'consument J'aime les objets obsolètes, ils ressuscitent ceux qui n'sont plus Plus qu'une passion, c'est un mode de vie Je voyage dans le passé de jour comme de nuit Aux puces, je chine et dépense donc je suis Et tant pis, si je finis sous un pont-levis Retroman Je crois qu'autrefois est mon mot préféré Retroman Chez moi, j'ai un coq pour me réveiller Retroman Je flâne chaque semaine dans les vide-greniers Retroman Et, quand j'ai la migraine, je me fais dix saignées Retroman L'abominable anachronisme Retroman La redoutable anomalie Retroman L'abominable anachronisme Retroman La redoutable anomalie</t>
+          <t>Si j'étais un fruit, je s'rais un citron Si j'étais un pêché, je s'rais mignon Si j'étais une île, je s'rais l'Atlantide Si j'étais un film, je s'rais de Lars Von Trier Si j'étais un cri, je s'rais silencieux Si j'étais un animal, je s'rais paresseux Si j'étais mon reflet, je s'rais le même en mieux Si j'étais vampire ou prêtre, je n'serais pas très pieux Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais une dent, je s'rais une molaire Si j'étais un héros, je s'rais Gulliver Si j'étais une BD, je s'rais Pervers Pépère Si j'étais un pays, je s'rais imaginaire Si j'étais un surhomme, je s'rais Zarathoustra Si j'étais un bouquin, je s'rais le Kâmasûtra Si j'étais une montagne, je s'rais sacrée Si j'étais une arme, je s'rais une colombe enragée Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais un tableau, je s'rais au Louvre Si j'étais un chevalier, je s'rais au fond des douves Si j'étais une maladie, je s'rais bénigne Si j'étais un signe astrologique, je s'rais Gremlin Si j'étais un refrain, je s'rais jaloux des couplets Si j'étais un meuble, je s'rais un coffre à jouets Si j'étais un arbre, je s'rais un sapin Si j'étais un mot, je s'rais celui d'la fin x2 Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça J'serais... J'serais... quoi ? J'serais ci J'serais ça Ahahaha H.I.2P.O Aociz et Blanka Ahahaha</t>
         </is>
       </c>
     </row>
@@ -3127,12 +3127,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Road Trip de pitre aux U.S.A.</t>
+          <t>Soirée de ouf</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>En live à L.A., me prend l'envie d'hurler Hell Yeah ! Les sens en éveil, je me sens pousser des ailes mais La cité des anges fascine et dérange Abrite d'étranges artistes mélangés Des stars et des culturistes comme à Cannes, en mai J'ai le goût du risque, fume le calumet Y'a des bars assez futuristes, des plages Des sharks et des palmiers, ouais Si t'es tendu, je te conseille d'aller Visiter la ville à pieds dans toute son étendue J'porte un toast sur la West Coast, à ces fat bitches À ces Chinese et ces Chicanos, cheese I'm in 29 Palms at the 666 motel Bordel, I don't have XXX channels I write rhymes in a strange dark thin tunnel Miracles may happen If I drink your soul in an empty wine glass With a golden straw I gain twenty-one grams I'm quite nice, listen to Brahms and Amy Winehouse This bat could wear hats on her skinny white ass I hate calm, injure bees, hell's angels and trees And I laugh when they scream loud But I ain't so nasty, I shave with chainsaws My name's Sebastian, I create brainstorms Mad Seahorse on the road is trippin May the dark side of the force be with him Je dévore des yeux le Grand Canyon, mes iris en raffolent Ce décor onirique m'émeut et m'impressionne Tout est rougeoyant, magique, avec ou sans alcool Je saute d'une rive à l'autre avec une perche comme Jean Galfione L'Arizona, ça rigole pas, j'admire mon gars Car, à Paris, y'aura jamais d'panorama comme ça Revoici l'as des as qui crache des phrases et brasse les cartes À Las Vegas, village d'ersatz Les péripatéticiennes gagnent au poker Paradis artificiel, carré de joker J'avoue, j'fais tomber des lingots dans les machines à sous Et les gamines accourent, je joue pour payer mes impôts J'vais faire un casse, vider les caisses de tous les casinos Miser mon corps, pisser de l'or au bord du caniveau J'suis dans la Death Valley, bien installé dans la caisse, j'arrête Pas d'me dire que la Terre est une belle planète Le climat est aussi hostile que sur le soleil Dans ce désert, même Lucifer transpire des oreilles Y'a des fantômes de mineurs et de canassons Y'a pas d'ombre, j'te déconseille d'y faire un marathon Pour rigoler, j'pourrais sortir avec une loupe et m'immoler Ou ligoter un bonhomme de neige à une pierre, et l'ignorer Même les peaux mates mettent de la Biafine Rêvent d'un orage, regrettent lac et piscine J'vais débarquer à Bishop, fonce-dé' comme au coffee shop À cause de l'air conditionné, du chaud-froid et du gros hip-hop Hardcore comme un gars qui fait pas d'sport Poursuivi par un guépard et un vélociraptor La vallée d'la mort, j'adore C'est flippant et fascinant comme Dark Vador À Yosemite, y'a des rochers qui piquent, des forêts mythique Des chutes d'eau, des cow-boys sous des tipis J'ai vu Tic et Tac et Woody Woodpecker Les touristes rouspètent contre les moustiques et les ours prennent peur C'est le paradis des bûcherons Face aux séquoias, même les gros tas sont des pucerons En tout cas, si j'croise une indienne, j'lui dirai Reste cool J'vais tellement t'exploser les fesses qu'on finira par t'appeler Red Bull Dans une maison bleue, un junky dort sur son lit d'mort Laissons-le rêver de la saison deux de Twin Peaks, et se tordre De douleur, une horde de chômeurs filiformes Attend patiemment la livraison d'beuh de Green Peace and Love Entends-tu ces phoques fâchés qui suivent à la trace Dans ces rues pentues, les évadés d'Alcatraz ? L'enfant d'Hippo est ici, dans le quartier des hippies San Francisco, j'ai ffé-ki' mais mon road trip est fini Le disque d'Hippo sera bientôt dispo' Sur le pont d'Avignon et de San Francisco</t>
+          <t>Soirée de ouf qui s'prépare, putain de bon plan ! Appartement de quatre cents mètres carré, seizième arrondissement Donc on s'y rend avec Fredo et Hippo' Quel mytho, on est encore en train d'attendre le dino' Ouais, bon, j'avoue, j'ai menti, mais, là, j'suis dans le métro qui M'amène au point de rendez-vous convenu dans l'après-midi Dans cinq minutes, j'arrive à destination Escroc, il doit lui rester au moins cinq ou six stations On sonne en bas, on rentre ensembles, du son dansant Une bonne ambiance, bon enfant, c'est stylé c'qu'on entend Excité, j'vais direct vers les pichets, Hippo m'dit J'vais pisser Moi, j'me suis exilé dans la cuisine équipée C'est la caverne d'Ali Baba Champagne et foie gras, Fredo, rate pas ça, viens voir par là Quoi, quoi, quoi, qu'est-ce que j'ai manqué ? T'aurais une fille à m'faire goûter, un petit verre à m'présenter ? Non, j'ai mieux qu'ça, y'a d'quoi s'rincer Viens trinquer, ouvre le Frigo, j'suis sûr qu'il est blindé Waah ! Qu'est-ce que c'est que ça ? Des sexes crades coupées Des restes d'excréments dans des masques de poupées C'est ça qu'je redoutais, dans les soirées huppées Ils ont des trips chelous, on retrouve Hippo et on s'arrache après Donc on retourne vers les toilettes en enjambant quelques galettes Mais, dans l'couloir, un type pas net brandit une belle arbalète La pointe vers nos têtes, donc on entame un demi-tour Le type me course, vite, je cours, emprunte vite cette issue de secours Attends, j'avais dit à Hippo On pars pas sans toi T'inquiète, le connaissant, il nous attend déjà en-bas Fredo, Yoshi, ho ! Vous êtes où les mecs ? Hé, elle déchire la soirée ? Les copains ? Wouhou ! Bonjour. Bonsoir monsieur Oui, non, j'ai pas, j'ai pas de mot de passe mais... Je rêvais d'une soirée bédo entre amis Mais j'ai perdu ces tarés de Fredo et Yoshi Et me voilà dans une arrière salle remplie de mâles Et de nanas qui aiment faire mal, c'est infernal Dans un sauna Bouli fait jouir Dora Qui s'écrie C'est gagné !, oui, c'est un panier À trois points d'suture, j'bois du lait caillé Susurre Beetlejuice trois fois pour crâner La playlist est éclectique Ça va de Rachmaninov à Mista Boombastic Atmosphère électrique Là-bas, de pâles mamies novas niquent sans bout d'plastique Je tombe sur trois madones Recouvrant la face d'Al Capone d'alcool et de mascarpone Dommage, je n'ai pas d'iPhone Sinon j'aurais filmé, envoyé ça, même à ma daronne Dans un coin, terrorisée Une érotomane hermaphrodite paraît lobotomisée La reine des aliens la suce Pendant qu'Edward aux mains d'argent lui met un doigt dans l'anus Alors j'me mets à danser la Carioca Ce qui semble impressionner la belle Carrie au bar Elle a du sang sur elle, j'me sens pas censuré Elle est très sensuelle, je la prends sans suer Les gars, il est six heure du matin On va manger du poulet ! Ouais ! Ah ! J'vais vomir...</t>
         </is>
       </c>
     </row>
@@ -3144,12 +3144,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>#Selfree</t>
+          <t>Soirée de ouf 2</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Ma chambre est toujours bien rongée grâce à mes chicots de castor Dans leurs clips, ils sont moins expressifs que sur leur photo de passeport Ils font des bails de 'Cains-ri', stupides, cupides et sont ravis Ils s'prennent pour Victor Hugo, à quand Notre Dab de Paris ? Oh, fuck la culture de masse, moi, j'crée des sculptures de crasse On dit que la nature, en quête du plus pur extase, murmure mes phrases J'inverse la structure et te culbute de face, je voyage en seconde mais j'suis l'premier d'la classe J'suis plutôt bien élevé pour un esthète salace, je te mutile dans un bus et puis j'te cède ma place J'vends du sang d'Alien en spray, parfait pour tes soins dermatologiques J'recherche une nounou sexy pour surveiller mes spermatozoïdes Quand j'suis en manque de meuf, je soupire, je sue, j'achète une langue de buf pour lui jouir dessus Revenons à nos moutons Ils jouent les bêtes de foire, toujours en quête de gloire, faudrait qu'j'arrête de boire, de faire la fête le soir Mais j'profite de la vie sans peur car je sais qu'on passe du trotteur au déambulateur en quelques pas Ma grandeur n'a d'égale que ma sagesse, là, tu acquiesces Ma grandeur est une tare quand je parle de ces gars, je me rabaisse J'digère pas la défaite mais j'accepte les chèques, détecte les fakes et déteste les mecs Dont les textes me débectent, d'où ces déjections qui poussent à la réflexion, j'sais qu'ça t'affecte J'aime le cinéma en plein air en plein hiver, faire l'amour sur la neige sans préliminaire Je vais te faire devenir chèvre et bouc émissaire c'est lui qu'a commencé, monsieur le commissaire J'mens pas, t'as tenté de bouffer ma raie manta Mais, bon, disons qu'on est quitte, j't'invite avec ton équipe dans une maison d'arrêt pour un stage intensif de tantra Ça t'apprendra Bonsoir, les enfants</t>
+          <t>Han Aïe J'ai froid, j'ai faim, j'ai mal Je suis leur proie, je prie sans fin la bonne étoile mais Ligoté dans un sous-sol aussi sale qu'obscur, j'ai Une sangsue collée à chacun de mes globes oculaires Toute les douze secondes, deux mecs à lunettes rondes Me mettent un violent coup de fourchette rouillée sous les ongles Ils m'ont perforé l'estomac, y ont desserré Un p'tit tuyau pour contrôler un chinchilla beaucoup trop gras La douleur est insoutenable mais, si je crie, je crains Qu'ils remplissent ma bouche de mie de pain puis qu'ils me scient le frein Ces vicelards me torturent depuis hier soir Pourvu que quelqu'un vienne me sauver, je perds espoir La, la la la la la la J'ai des fourmis dans les jambes La, la la la la la la Mais je ne sens plus mes membres La, la la la la la la Ces enfoirés vont me désosser La, la la la la la la Pourvu qu'mon vu soit vite exaucé Pourquoi ai-je la tête dans l'cul ? Je n'ai pas tellement bu Comment je suis rentré chez moi ? Je me rappelle vraiment plus J'appelle Fredo - Ça va, ma gueule ? T'es bien rentré ?, - Ouais - T'as pas eu d'news d'Hippo ?, - Non, - Vas-y, bah j'vais tester d'l'appeler Répondeur direct, j'vais plutôt passer chez lui On devait s'capter pour taffer vers midi, c'est ce qu'on s'était dit Il est quinze heures quand je sonne à son interphone Un mec sort, j'en profite, mais mon petit doigt me dit qu'y a personne Sa porte est ouverte, j'constate qu'il est pas là J'file à bouffer à son lama puis j'vais retourner dare-dare à la Teuf d'hier, c'est p't-être là-bas qu'il a dormi Je fouille mes SMS, retrouve l'adresse, et c'est parti J'arrive sur place mais je reconnais pas les lieux J'en crois pas mes yeux, y a qu'des vieux, et plus d'grandes cannettes bleues On m'dit Vous vous trompez d'adresse, c'est vrai qu'je r'connais rien J'descends, fouille les poubelles, à l'intérieur, je trouve son bonnet d'bain Putain d'bordel de merde, dites-moi qu'c'est pas vrai Y a un vrai problème, sinon jamais il s'en s'rait séparé J'sors le pass PTT pour aller fouiller la cave J'ouvre la porte et fais une découverte macabre La, la la la la la la Mon gros Hippo, que lui est-il arrivé ? La, la la la la la la J'ai remué ciel et terre pour le retrouver La, la la la la la la Et dire que tout ça s'annonçait comme une bonne soirée La, la la la la la la Tout avait si bien commençait puis tout a foiré Vision d'horreur, j'ai du mal à décrire la scène Pauvre Hippo, il faut que j'l'aide, il m'fait vraiment d'la peine Yosh', aide-moi c'est ça, l'idée, connard Tu f'sais l'malin, on t'a plus vu, t'as disparu sans dire au r'voir Pouf, tu m'as trouvé, c'est cool Cette bande de oufs s'apprêtait à me clouer les boules T'es dans un sale état, mon gars, que s'est-il passé ? Dépêche-toi d'me détacher, promis, j'te raconte après Ok, j'vais desserrer tes liens, ma lame n'est pas assez acérée Ces vauriens ont fait des nuds marins, tu vas galérer Mais, mon ami, ne sous-estime jamais ma dextérité Fais attention, derrière toi, revoilà les deux excités L'un d'eux m'attaque d'un double salto, j'esquive son coup Un quart de seconde après, c'était ses chicots feat mon genou Vas-y, gros, brise tous ses os On va le dépecer avec des ciseaux T'inquiète, j'ai vite réglé son compte à cet imbécile Le deuxième, où est-il ? J'me sens d'humeur assassine Ah, ce fils de pute est caché, j'vais en faire du steak haché Décapite-le, que j'puisse me vider dans sa trachée Non, pas l'temps d's'attarder, barrons-nous d'ce lieu Renverse donc ce bidon d'essence, qu'on y foute le feu La maison crame, servons-nous des flammes Pour allumer ce spliff et oublier ce drame La, la la la la la la On a fini par s'en tirer La, la la la la la la On les a fumés sans pitié La, la la la la la la On s'prend une bière chez l'épicier ? La, la la la la la la Je crois qu'on l'a bien mérité La, la la la la la la ces fadas La, la la la la la la J'ai pas appris à faire des saltos La, la la la la la la Un putain d'bon plan, c'est ça qu'il nous avait dit, c't escroc La, la la la la la la J'aurais bien aimé t'aider si j'étais attaché Yeah We don't give a...</t>
         </is>
       </c>
     </row>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sieste</t>
+          <t>Sushippo</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres On se défoule, on fait les fous, quand tout s'écroule, on se ressoude La vie, c'est court, faut s'y résoudre, on s'marr en se serrant ls coudes La mort nous vise, nous shoot, au premier rang, y'a mes parents Et, moi, derrière, j'protège ma troupe Mon heure viendra, c'est pas un scoop, on l'verra pas sur grand écran Mais j'partirai rempli de doutes J'ai jamais cru au Paradis mais, quand je m'assoupis, j'y suis Je fuis tout c'qui me rend aigri J'ai peu d'amis, j'ai pas d'ennemis, j'ai mis ma famille à l'abri Est-ce que j'ai réussi ma vie ? On va dire oui Tant pis si la Terre continue d'tourner pendant qu'j'fais la sieste J'reprends des forces, oublie mon nom, mon âge et mon adresse Et tous mes doutes se dissipent, un petit somme et ça repart Ni Dieu, ni maître, ni disciple, plus rien à foutre du regard des autres</t>
+          <t>J'suis un gars discret, distrait, facilement satisfait Même si mes émotions sont congelées comme Walt Disney Oui, j'sais qu'dans la vrai vie, Gepetto serait pédophile Le prince charmant nécrophile, et Némo un Filet-o-fish Il est horrible, il est fou cet Hippo ! J'dépéris au bistro, réfléchis quand j'tise trop Restant souple et dispo comme l'épouse de Willow Se faisant prendre en sandwich par E.T. et Guismo Fou rire narquois quand j'entends les gens jaser Le destin m'sourit parfois mais il a les dents cassées Un tantinet avisé Ça fait longtemps que j'ai réalisé que J'finirai incontinent, alité Dans un des cinq continents habités Alors avant d'être dur de la feuille et mou d'la verge D'errer dans les rues perdus en pyjama sous l'averse Avant que mes artères se bouchent et que ma bouche s'assèche Avant qu'ma pierre tombale s'affaisse, j'voudrais qu'ta croupe m'apaise1</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Si j’étais...</t>
+          <t>Swipe Right</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Si j'étais un fruit, je s'rais un citron Si j'étais un pêché, je s'rais mignon Si j'étais une île, je s'rais l'Atlantide Si j'étais un film, je s'rais de Lars Von Trier Si j'étais un cri, je s'rais silencieux Si j'étais un animal, je s'rais paresseux Si j'étais mon reflet, je s'rais le même en mieux Si j'étais vampire ou prêtre, je n'serais pas très pieux Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais une dent, je s'rais une molaire Si j'étais un héros, je s'rais Gulliver Si j'étais une BD, je s'rais Pervers Pépère Si j'étais un pays, je s'rais imaginaire Si j'étais un surhomme, je s'rais Zarathoustra Si j'étais un bouquin, je s'rais le Kâmasûtra Si j'étais une montagne, je s'rais sacrée Si j'étais une arme, je s'rais une colombe enragée Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais un tableau, je s'rais au Louvre Si j'étais un chevalier, je s'rais au fond des douves Si j'étais une maladie, je s'rais bénigne Si j'étais un signe astrologique, je s'rais Gremlin Si j'étais un refrain, je s'rais jaloux des couplets Si j'étais un meuble, je s'rais un coffre à jouets Si j'étais un arbre, je s'rais un sapin Si j'étais un mot, je s'rais celui d'la fin x2 Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça Si j'étais, si j'étais, si j'étais ci Si j'étais, si j'étais, si j'étais ça J'serais... J'serais... quoi ? J'serais ci J'serais ça Ahahaha H.I.2P.O Aociz et Blanka Ahahaha</t>
+          <t>Tu sais qu'elle gravite où ? autour de ta zone ah Livraison gratuite, bien mieux qu'Amazon bah ouais Tu veux kalachnik', tu swipe dans le tro-m' Quand t'es dans la street ou assis sur le trône voilà Quand t'ouvres l'appli', t'as comme un pouvoir Car ton pouce droit fait l'beau temps et la pluie Y'a beaucoup trop de MILFs et de cougars, tu les pourchasses Tu f'rais mieux de t'exiler en plein cur de la toundra T'as la poisse et pas la gouache Pour combattre cette addiction, y'a pas d'patch Affalé sur l'canapé, t'as ravalé ton ego, c'est beau T'as lavé ton maillot, t'es chaud, t'attends l'match Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Insatiable et malicieuse Tu joues la mante-religieuse Tu rêves d'un mâle délicieux Foutu comme un demi-Dieu T'en as marre de ces relations conflictuelles Quelle que soit la proie, tu t'adonnes à ton rituel Dans ce monde virtuel, tu cherches le plus naturel Au milieu de ces milliers de photos non-contractuelles Comment trouver le bon ? Pas le queutard Mais le bouche-trou, le coup d'un soir qui saura couper les ponts Le donneur d'orgasmes à la langue affûtée Qui n'oubliera surtout pas de te gamahucher Qui débarque de nulle part, comme parachuté En bref, un toutou sage qui ne demande qu'à chahuter T'as téléchargé Tinder pour trouver ce beau spécimen Si tu lui dis qui t'es, l'appli' te dira qui t'aimes Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe, swipe, swipe, swipe Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Soirée de ouf</t>
+          <t>Système D</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Soirée de ouf qui s'prépare, putain de bon plan ! Appartement de quatre cents mètres carré, seizième arrondissement Donc on s'y rend avec Fredo et Hippo' Quel mytho, on est encore en train d'attendre le dino' Ouais, bon, j'avoue, j'ai menti, mais, là, j'suis dans le métro qui M'amène au point de rendez-vous convenu dans l'après-midi Dans cinq minutes, j'arrive à destination Escroc, il doit lui rester au moins cinq ou six stations On sonne en bas, on rentre ensembles, du son dansant Une bonne ambiance, bon enfant, c'est stylé c'qu'on entend Excité, j'vais direct vers les pichets, Hippo m'dit J'vais pisser Moi, j'me suis exilé dans la cuisine équipée C'est la caverne d'Ali Baba Champagne et foie gras, Fredo, rate pas ça, viens voir par là Quoi, quoi, quoi, qu'est-ce que j'ai manqué ? T'aurais une fille à m'faire goûter, un petit verre à m'présenter ? Non, j'ai mieux qu'ça, y'a d'quoi s'rincer Viens trinquer, ouvre le Frigo, j'suis sûr qu'il est blindé Waah ! Qu'est-ce que c'est que ça ? Des sexes crades coupées Des restes d'excréments dans des masques de poupées C'est ça qu'je redoutais, dans les soirées huppées Ils ont des trips chelous, on retrouve Hippo et on s'arrache après Donc on retourne vers les toilettes en enjambant quelques galettes Mais, dans l'couloir, un type pas net brandit une belle arbalète La pointe vers nos têtes, donc on entame un demi-tour Le type me course, vite, je cours, emprunte vite cette issue de secours Attends, j'avais dit à Hippo On pars pas sans toi T'inquiète, le connaissant, il nous attend déjà en-bas Fredo, Yoshi, ho ! Vous êtes où les mecs ? Hé, elle déchire la soirée ? Les copains ? Wouhou ! Bonjour. Bonsoir monsieur Oui, non, j'ai pas, j'ai pas de mot de passe mais... Je rêvais d'une soirée bédo entre amis Mais j'ai perdu ces tarés de Fredo et Yoshi Et me voilà dans une arrière salle remplie de mâles Et de nanas qui aiment faire mal, c'est infernal Dans un sauna Bouli fait jouir Dora Qui s'écrie C'est gagné !, oui, c'est un panier À trois points d'suture, j'bois du lait caillé Susurre Beetlejuice trois fois pour crâner La playlist est éclectique Ça va de Rachmaninov à Mista Boombastic Atmosphère électrique Là-bas, de pâles mamies novas niquent sans bout d'plastique Je tombe sur trois madones Recouvrant la face d'Al Capone d'alcool et de mascarpone Dommage, je n'ai pas d'iPhone Sinon j'aurais filmé, envoyé ça, même à ma daronne Dans un coin, terrorisée Une érotomane hermaphrodite paraît lobotomisée La reine des aliens la suce Pendant qu'Edward aux mains d'argent lui met un doigt dans l'anus Alors j'me mets à danser la Carioca Ce qui semble impressionner la belle Carrie au bar Elle a du sang sur elle, j'me sens pas censuré Elle est très sensuelle, je la prends sans suer Les gars, il est six heure du matin On va manger du poulet ! Ouais ! Ah ! J'vais vomir...</t>
+          <t>J'avais jamais autant appelé mes parents J'm'étais jamais senti aussi proche des gens Tout en restant chez moi Est-ce que t'y crois ? J'avais jamais autant respecté la loi hey ! En m'abrutisant pénard dans mon canap' En laissant calmement s'installer la peur Au départ c'est vrai j'en avais rien à battre Maintenant j'applaudis les médecins à vingt heures J'danse tout seul dans le noir J'ai le blues du dimanche soir Mais tous les jours c'est tous les soirs dimanche J'vois plus le jour c'est tous les soir nuit blanche Pu-pu-putain de pandémie j'suis sensé as' et mad, ami Le bu-but, méga dépistage massif J'peux plus voir mes ne-bru, de-blond, rouquines Dépêche de prescrire la chloroquine Le virus kill, personne est tranquille On se confine, enfermé à la Scofield Ça y est, ça y est, c'est la fin de mon couplet E-K-L-I-P-S poto tu connais A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Les yeux sont submergés parlez moi Les mots seront soignés parlez moi C'est vrai le beau temps nous paraît loin Est-ce que pour autant faut parler moins ? Quel sera le bilan ? Qu'on ne dira qu'à demi-mot Quand même les dominants tomberont comme des dominos Demi débite oui à deux mille à l'heure J'écoute le doc et Ministère AMER Ce soir je souffre, laissez moi, je souffle L'envie d'être aveugle ou bien de devenir sourd J'ai jamais bougé je suis toujours chez moi Même quand je sors je suis toujours chez moi Compter les jours en criant à l'aide Amour sur vous est l'unique remède Et si j'bois tous les soirs Je vais devenir asocial Si ça dure jusqu'à la sortie Je vais devenir insortable J'envoie des mails des fusées de détresse dans l'espace Échoué dans l'oeil du cyclone j'attends que la tempête passe Faut que je m'implique pour l'instant je m'applique à lire les statistiques épidémiologiques Je regarde l'évolution du Covid dans le monde comme le tableau des médailles aux Jeux Olympiques J'ai compté le nombre de caractères dans le Petit Robert Transformé ma corde à linge en tyrolienne Avec moi mes gosses font l'école buissonnière Mais je maintiens la paix entre eux je mérite un prix Nobel Certains triment, d'autres streament Moi j'ai qu'un p'tit rôle dans le film Mais j'reste optimiste et crie par la fenêtre On va tous mûrir avant de tous renaître Find me dancing on all alone in this crowd Please don't tell me I can't dance and feel the dark A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère On va tous mûrir avant de tous renaître</t>
         </is>
       </c>
     </row>
@@ -3212,12 +3212,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Soirée de ouf 2</t>
+          <t>Tapalaref</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Han Aïe J'ai froid, j'ai faim, j'ai mal Je suis leur proie, je prie sans fin la bonne étoile mais Ligoté dans un sous-sol aussi sale qu'obscur, j'ai Une sangsue collée à chacun de mes globes oculaires Toute les douze secondes, deux mecs à lunettes rondes Me mettent un violent coup de fourchette rouillée sous les ongles Ils m'ont perforé l'estomac, y ont desserré Un p'tit tuyau pour contrôler un chinchilla beaucoup trop gras La douleur est insoutenable mais, si je crie, je crains Qu'ils remplissent ma bouche de mie de pain puis qu'ils me scient le frein Ces vicelards me torturent depuis hier soir Pourvu que quelqu'un vienne me sauver, je perds espoir La, la la la la la la J'ai des fourmis dans les jambes La, la la la la la la Mais je ne sens plus mes membres La, la la la la la la Ces enfoirés vont me désosser La, la la la la la la Pourvu qu'mon vu soit vite exaucé Pourquoi ai-je la tête dans l'cul ? Je n'ai pas tellement bu Comment je suis rentré chez moi ? Je me rappelle vraiment plus J'appelle Fredo - Ça va, ma gueule ? T'es bien rentré ?, - Ouais - T'as pas eu d'news d'Hippo ?, - Non, - Vas-y, bah j'vais tester d'l'appeler Répondeur direct, j'vais plutôt passer chez lui On devait s'capter pour taffer vers midi, c'est ce qu'on s'était dit Il est quinze heures quand je sonne à son interphone Un mec sort, j'en profite, mais mon petit doigt me dit qu'y a personne Sa porte est ouverte, j'constate qu'il est pas là J'file à bouffer à son lama puis j'vais retourner dare-dare à la Teuf d'hier, c'est p't-être là-bas qu'il a dormi Je fouille mes SMS, retrouve l'adresse, et c'est parti J'arrive sur place mais je reconnais pas les lieux J'en crois pas mes yeux, y a qu'des vieux, et plus d'grandes cannettes bleues On m'dit Vous vous trompez d'adresse, c'est vrai qu'je r'connais rien J'descends, fouille les poubelles, à l'intérieur, je trouve son bonnet d'bain Putain d'bordel de merde, dites-moi qu'c'est pas vrai Y a un vrai problème, sinon jamais il s'en s'rait séparé J'sors le pass PTT pour aller fouiller la cave J'ouvre la porte et fais une découverte macabre La, la la la la la la Mon gros Hippo, que lui est-il arrivé ? La, la la la la la la J'ai remué ciel et terre pour le retrouver La, la la la la la la Et dire que tout ça s'annonçait comme une bonne soirée La, la la la la la la Tout avait si bien commençait puis tout a foiré Vision d'horreur, j'ai du mal à décrire la scène Pauvre Hippo, il faut que j'l'aide, il m'fait vraiment d'la peine Yosh', aide-moi c'est ça, l'idée, connard Tu f'sais l'malin, on t'a plus vu, t'as disparu sans dire au r'voir Pouf, tu m'as trouvé, c'est cool Cette bande de oufs s'apprêtait à me clouer les boules T'es dans un sale état, mon gars, que s'est-il passé ? Dépêche-toi d'me détacher, promis, j'te raconte après Ok, j'vais desserrer tes liens, ma lame n'est pas assez acérée Ces vauriens ont fait des nuds marins, tu vas galérer Mais, mon ami, ne sous-estime jamais ma dextérité Fais attention, derrière toi, revoilà les deux excités L'un d'eux m'attaque d'un double salto, j'esquive son coup Un quart de seconde après, c'était ses chicots feat mon genou Vas-y, gros, brise tous ses os On va le dépecer avec des ciseaux T'inquiète, j'ai vite réglé son compte à cet imbécile Le deuxième, où est-il ? J'me sens d'humeur assassine Ah, ce fils de pute est caché, j'vais en faire du steak haché Décapite-le, que j'puisse me vider dans sa trachée Non, pas l'temps d's'attarder, barrons-nous d'ce lieu Renverse donc ce bidon d'essence, qu'on y foute le feu La maison crame, servons-nous des flammes Pour allumer ce spliff et oublier ce drame La, la la la la la la On a fini par s'en tirer La, la la la la la la On les a fumés sans pitié La, la la la la la la On s'prend une bière chez l'épicier ? La, la la la la la la Je crois qu'on l'a bien mérité La, la la la la la la ces fadas La, la la la la la la J'ai pas appris à faire des saltos La, la la la la la la Un putain d'bon plan, c'est ça qu'il nous avait dit, c't escroc La, la la la la la la J'aurais bien aimé t'aider si j'étais attaché Yeah We don't give a...</t>
+          <t>J'sais pas comment tu vis sans Twitch, c'est triste comme tes sandwichs Sur TikTok, t'es cringe, papa, crois-moi, j'te le dis, j'm'en fiche Ta vie, c'est un thread horreur, j'avoue, j'aurais préféré un featuring avec Natsu Haha Ris pas, j'parle du shiba, il est plus suivi qu'toi, bref t'as pas la réf' T'es bon sur scène mais dans les petites salles, on t'voit jamais dans les festivals vlan Tu connais aucune star dans l'game, j'attends toujours mon autographe d'Angèle D'ailleurs, c'est pas toi l'meilleur, t'es qu'un mauvais player, quand tu fumes, t'as les yux rouges Comme Muzan, obligé d'appelr les piliers de Demon Slayer t'as pas la réf' Au collège, personne n'te connaît, à part mon prof d'Histoire fan de poney Bah il est gentil Il a soixante ans, il est malentendant, il habite seul avec sa mère dans leur forêt N'aie pas l'seum, fais pas l'jeune, arrête avec tes mots d'ado boloss T'es grave cheum, eh Fat Gum, dis-moi, où sont passés tes abdos ? Bah ? T'as pas d'bling, t'as pas d'army Hein ?, tes seuls fans, c'est des mamies Non ? Personne n'vient voir tes chorégraphies moisies, même pas tes amis Papa, j'espère que tu m'en veux pas au calme Devant tes clips, j'rigole pas, tais-toi, laisse-moi regarder Joyca t'as pas la réf' Bien vu, le tacle, mais j'l'évite comme Olive Tom, j'arrive broliqué comme Shaft, John McClane, Cobra, Jack Slater ou Nicki Larson J'connais Tu joues les valkyries mais t'es pas d'taille face à mon artillerie Et toutes les phrases qui riment dans mon joli cahier Waikiki, woo-hah, boom biddy bye Tranquille Tu shine, tu t'crois dans l'coup, c'est cela, oui Branchée comme une Tesla, mais que peux-tu contre une Ferrari ? J'crois qu't'as pas compris, j't'oublie dans les marécages de la mélancolie en compagnie d'Artax Hey, petit Tamagotchi, tu veux qu'j'te nourrisse ? Contacte-moi par fax Hein ? Sache qu'un tas de personnages que tu trouves illustres Seront oubliés comme Brandon, Brenda, Cortex, Minus, Hilguegue ou P'tit Gus Chut T'as le même style que tes copines, t'as le baggy, t'as le legging et le patte d'eph' Dose T'as peur de pas trouver ta place, tu te fonds dans la masse, pourquoi tu fais la cheffe ? J'te file une pièce de cinq francs, une chignole, un bout de ruban, c'est pas insultant C'est le kit intégral pour fabriquer ta médaille d'argent Tu forces Tu communiques dans le sque-m', miskine, mais où est le respect, hein ? Wesh... T'as plus la tête sur les épaules, normal, il ne peut en rester qu'un - T'es éclaté, franchement, comme tes playlists... - Ouais mais, soixante-quinze pourcents d'c'qu'y a dans tes playlists, c'est moi qui t'ai fait découvrir... Tous les Disney déjà, quand t'étais p'tite... Doja Cat, Ice Spice, Central Cee... - Ouais, Hippo, il apparaît pas dans mes playlists, en tout cas... On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' - Mais il est bien, ton prof d'Histoire, moi, il... j'le trouve un peu... voilà, il est un peu rigide, il est... - Il est chauve T'as pas la réf'</t>
         </is>
       </c>
     </row>
@@ -3229,12 +3229,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sushippo</t>
+          <t>Tête étoilée</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>J'suis un gars discret, distrait, facilement satisfait Même si mes émotions sont congelées comme Walt Disney Oui, j'sais qu'dans la vrai vie, Gepetto serait pédophile Le prince charmant nécrophile, et Némo un Filet-o-fish Il est horrible, il est fou cet Hippo ! J'dépéris au bistro, réfléchis quand j'tise trop Restant souple et dispo comme l'épouse de Willow Se faisant prendre en sandwich par E.T. et Guismo Fou rire narquois quand j'entends les gens jaser Le destin m'sourit parfois mais il a les dents cassées Un tantinet avisé Ça fait longtemps que j'ai réalisé que J'finirai incontinent, alité Dans un des cinq continents habités Alors avant d'être dur de la feuille et mou d'la verge D'errer dans les rues perdus en pyjama sous l'averse Avant que mes artères se bouchent et que ma bouche s'assèche Avant qu'ma pierre tombale s'affaisse, j'voudrais qu'ta croupe m'apaise1</t>
+          <t>J'vois des halos et des auras dans les dédales où j'm'installe Délires vocaux, K.O. total, super combo, coup spatial C'est une expérience paranormale, en pleine décadence, karma trop sale J'écris des galaxies, thème astral mon train d'vie est une navette spatiale C'est du dioxyde de carbone qu'on inhale, des produits toxiques dans mon eau minérale Sur une autre planète intersidérale, le vide qui défile, l'esprit qui dévale Je divague, je divise, je distords les distances des discours dyslexiques qui explorent l'existence Des phases brillantes dans l'espace immense, j'étudie l'sens des étoiles filantes J'vis comme un poète décalé, plans sur la comète, je me laisse aller Je vis comme un poète décalé, comme la comète, je m'laisse aller Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Je n'fume pas de drogue, en tous cas, j'n'en achète pas J'suis sur la pirogue et Kylie Minogue me fait des Lalala Je lévite et médite à longueur de temps, j'écris des récits quand mon cur se pend L'ennemi rétrécit même sans faire le grand quand je ris dehors, c'est que je pleure dedans Ça végète comme des vegans sous perf' j'fais du son, j'en suis super fier T'as tenté, t'as loupé, tu n'es bon qu'à bouder, j'vais sortir le fer chaud, motus et bouche soudée Comme les coiffeurs, vous êtes tous de mèche soit t'as les cheveux longs, soit t'as une coupe de merde Tu veux jouer l'Américain mais, dis-moi, who's the best? Et allez vous faire enfiler comme des housses de couette Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Quand on m'donne des billets, je les dissimule quand tu touches ta femme, tu lui dis Simule J'travaille chaque couplet comme un discours d'investiture à la sueur de mes testicules Je me sens revivre quand vient l'heure d'été j'fais pas trop d'heures sup', j'suis plus RTT Over the rainbow, y'a des LGBT j'ai kiffé ton clip sur Malaise TV T'aimes les journées bien remplies ? Je te fulguro-fist, j'crois qu'il y a du bon en toi, j'suis un pur utopiste Tu peux suçoter mes doigts d'pied en bord de scène j'dois vider ma besace pour remplir ma bedaine J'viens recoller les morceaux comme après une baston de mecs bourrés Dans un minuscule magasin de porcelaine Elle a un corps de renne, je l'emmène en Laponie j'rappe poliment mes boniments sur des rhapsodies Quand je sors de mon boulot, tout le monde m'applaudit tu payes pour diffuser tes albums, moi, j'les vaporise Ma vie de famille est très palpitante quand tu chantes, mes oreilles sont récalcitrantes Mes propos sont sales, la forme est captivante même du fond de l'abyme, j'vois des étoiles filantes Hippo, j'balance la ricotta, j'crois plus au Père Noël, j'crois en Saint Nico K Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller On n'fait que tourner en rond comme les galaxies, on a la tête éclatée, on est désaxés Le calme, la tempête, l'orage et l'éclaircie, on va leur faire de l'ombre avant de s'éclipser Vitesse, lumière, inertie, loin de la réalité Les détails sont si précis, on oublie la gravité Je suis perdu, j'ai beaucoup cherché mais j'ai pas repéré l'Étoile du Berger L'avenir est flou, le ciel est voilé, j'décolle au-dessus d'tout, horaire décalé Pas d'autotune ni dauto-stop, virée nocturne, des potes au top Les neurones fument, c'est notre pause clope, des rayons d'lune, des stroboscopes Big Bang, poussières d'étoiles yin-yang pour faire des choix Big Bang, poussières d'étoiles yin-yang pour faire des choix Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller</t>
         </is>
       </c>
     </row>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Swipe Right</t>
+          <t>Tiens-moi la main</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Tu sais qu'elle gravite où ? autour de ta zone ah Livraison gratuite, bien mieux qu'Amazon bah ouais Tu veux kalachnik', tu swipe dans le tro-m' Quand t'es dans la street ou assis sur le trône voilà Quand t'ouvres l'appli', t'as comme un pouvoir Car ton pouce droit fait l'beau temps et la pluie Y'a beaucoup trop de MILFs et de cougars, tu les pourchasses Tu f'rais mieux de t'exiler en plein cur de la toundra T'as la poisse et pas la gouache Pour combattre cette addiction, y'a pas d'patch Affalé sur l'canapé, t'as ravalé ton ego, c'est beau T'as lavé ton maillot, t'es chaud, t'attends l'match Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Insatiable et malicieuse Tu joues la mante-religieuse Tu rêves d'un mâle délicieux Foutu comme un demi-Dieu T'en as marre de ces relations conflictuelles Quelle que soit la proie, tu t'adonnes à ton rituel Dans ce monde virtuel, tu cherches le plus naturel Au milieu de ces milliers de photos non-contractuelles Comment trouver le bon ? Pas le queutard Mais le bouche-trou, le coup d'un soir qui saura couper les ponts Le donneur d'orgasmes à la langue affûtée Qui n'oubliera surtout pas de te gamahucher Qui débarque de nulle part, comme parachuté En bref, un toutou sage qui ne demande qu'à chahuter T'as téléchargé Tinder pour trouver ce beau spécimen Si tu lui dis qui t'es, l'appli' te dira qui t'aimes Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right Swipe, swipe, swipe, swipe Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe right, swipe right, swipe right ... Swipe, swipe, swipe, swipe Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? Swipe right, swipe right, c'est l'moment propice, fais ton choix Swipe right, swipe right, valide son profil, t'attends quoi ? T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match T'attends l'match, t'attends l'match</t>
+          <t>J'ai parlé à tes doudous hier soir, tu leur manques Ils m'ont dit qu'ils étaient fiers de toi, ils t'attendent J'les ai rassurés, j'leur ai dit qu't'allais bientôt rentrer Je sais qu'ici tu t'ennuies, j'suis venu pour te border Faut pas t'inquiéter, tous ces gens sont là pour te soigner Ces tuyaux dans ton nez, c'est pour chasser les mauvaises pensées Et puis cette machine qui fait bip, c'est pour écouter ton cur chanter Je veille à c'qu'il garde le rythme pour que l'on puisse encore danser Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens On va sourire encore, tiens-moi la main On va laisser le monde s'assoupir, et au milieu de la nuit On empruntera la trappe secrète bien cachée sous ton lit On ira où tu veux, même si y a d'l'eau dans mes yeux J'suis là pour exaucer tous tes vux, pour t'accompagner jusqu'aux cieux Imagine un peu tout c'qui t'attend, faut chausser tes souliers de rubis Tu vas t'émerveiller mais, avant, avant... Profitons de ces derniers moments, ne sois pas effrayée Il faut pas me quitter maintenant, reste éveillée Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens Tiens-moi la main Tu vas rendre jaloux ces oiseaux qui gazouillent En survolant l'Everest et les chutes d'Iguazu Le Grand Canyon, la banquise, le Vanuatu La vallée des Rois puis le Machu Picchu Tu noirciras des carnets de voyage et des partitions Moi, d'en bas, j'observerai ton ascension Tu feras de la luge sur les nuages Frémiras pendant ton alunissage T'apprivoiseras des comètes qui slaloment entre les planètes Tu feras des guilis aux aliens, là-bas où le temps s'arrête Un jour, on se retrouvera, on se prendra dans les bras On se serrera fort et on s'aimera Alors, tiens-moi la main Tiens-moi la main1</t>
         </is>
       </c>
     </row>
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Système D</t>
+          <t>Tits &amp; Cats</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>J'avais jamais autant appelé mes parents J'm'étais jamais senti aussi proche des gens Tout en restant chez moi Est-ce que t'y crois ? J'avais jamais autant respecté la loi hey ! En m'abrutisant pénard dans mon canap' En laissant calmement s'installer la peur Au départ c'est vrai j'en avais rien à battre Maintenant j'applaudis les médecins à vingt heures J'danse tout seul dans le noir J'ai le blues du dimanche soir Mais tous les jours c'est tous les soirs dimanche J'vois plus le jour c'est tous les soir nuit blanche Pu-pu-putain de pandémie j'suis sensé as' et mad, ami Le bu-but, méga dépistage massif J'peux plus voir mes ne-bru, de-blond, rouquines Dépêche de prescrire la chloroquine Le virus kill, personne est tranquille On se confine, enfermé à la Scofield Ça y est, ça y est, c'est la fin de mon couplet E-K-L-I-P-S poto tu connais A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Les yeux sont submergés parlez moi Les mots seront soignés parlez moi C'est vrai le beau temps nous paraît loin Est-ce que pour autant faut parler moins ? Quel sera le bilan ? Qu'on ne dira qu'à demi-mot Quand même les dominants tomberont comme des dominos Demi débite oui à deux mille à l'heure J'écoute le doc et Ministère AMER Ce soir je souffre, laissez moi, je souffle L'envie d'être aveugle ou bien de devenir sourd J'ai jamais bougé je suis toujours chez moi Même quand je sors je suis toujours chez moi Compter les jours en criant à l'aide Amour sur vous est l'unique remède Et si j'bois tous les soirs Je vais devenir asocial Si ça dure jusqu'à la sortie Je vais devenir insortable J'envoie des mails des fusées de détresse dans l'espace Échoué dans l'oeil du cyclone j'attends que la tempête passe Faut que je m'implique pour l'instant je m'applique à lire les statistiques épidémiologiques Je regarde l'évolution du Covid dans le monde comme le tableau des médailles aux Jeux Olympiques J'ai compté le nombre de caractères dans le Petit Robert Transformé ma corde à linge en tyrolienne Avec moi mes gosses font l'école buissonnière Mais je maintiens la paix entre eux je mérite un prix Nobel Certains triment, d'autres streament Moi j'ai qu'un p'tit rôle dans le film Mais j'reste optimiste et crie par la fenêtre On va tous mûrir avant de tous renaître Find me dancing on all alone in this crowd Please don't tell me I can't dance and feel the dark A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer A la lueur du soir, difficile d'expliquer Les émotions qui s'emparent de nos corps éparpillés Milliers de trajectoires, milliers de vies reliées Par une même histoire, demain peut tout changer Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère Le Covid nique sa mère On va tous mûrir avant de tous renaître</t>
+          <t>Tits Cats Mix raps MaDJestyk, Hippo', apparence de fauves, avalanche de mots Athlétique hypnose, poto, t'as saisi l'topo ? Approche, éclate en sanglots, l'alcool bout dans ton sang chaud Pas d'bol, ça part en pogo, là, j'sors l'appareil photo Mad Show pour les barges et les gadjos, pas pour les machos, ni pour les fachos Ça secoue la basse-cour, ça fout la gastro À base de passe-passe, lourde est la basse, gros Guette ce fou dubstep, tel un loup des steppes, pas la peine de s'taire Comme un nunchaku, on t'a vite 'ché-cou' Allez, bouge tes couilles, do you understand ?</t>
         </is>
       </c>
     </row>
@@ -3280,12 +3280,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tapalaref</t>
+          <t>Tourist Guide</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>J'sais pas comment tu vis sans Twitch, c'est triste comme tes sandwichs Sur TikTok, t'es cringe, papa, crois-moi, j'te le dis, j'm'en fiche Ta vie, c'est un thread horreur, j'avoue, j'aurais préféré un featuring avec Natsu Haha Ris pas, j'parle du shiba, il est plus suivi qu'toi, bref t'as pas la réf' T'es bon sur scène mais dans les petites salles, on t'voit jamais dans les festivals vlan Tu connais aucune star dans l'game, j'attends toujours mon autographe d'Angèle D'ailleurs, c'est pas toi l'meilleur, t'es qu'un mauvais player, quand tu fumes, t'as les yux rouges Comme Muzan, obligé d'appelr les piliers de Demon Slayer t'as pas la réf' Au collège, personne n'te connaît, à part mon prof d'Histoire fan de poney Bah il est gentil Il a soixante ans, il est malentendant, il habite seul avec sa mère dans leur forêt N'aie pas l'seum, fais pas l'jeune, arrête avec tes mots d'ado boloss T'es grave cheum, eh Fat Gum, dis-moi, où sont passés tes abdos ? Bah ? T'as pas d'bling, t'as pas d'army Hein ?, tes seuls fans, c'est des mamies Non ? Personne n'vient voir tes chorégraphies moisies, même pas tes amis Papa, j'espère que tu m'en veux pas au calme Devant tes clips, j'rigole pas, tais-toi, laisse-moi regarder Joyca t'as pas la réf' Bien vu, le tacle, mais j'l'évite comme Olive Tom, j'arrive broliqué comme Shaft, John McClane, Cobra, Jack Slater ou Nicki Larson J'connais Tu joues les valkyries mais t'es pas d'taille face à mon artillerie Et toutes les phrases qui riment dans mon joli cahier Waikiki, woo-hah, boom biddy bye Tranquille Tu shine, tu t'crois dans l'coup, c'est cela, oui Branchée comme une Tesla, mais que peux-tu contre une Ferrari ? J'crois qu't'as pas compris, j't'oublie dans les marécages de la mélancolie en compagnie d'Artax Hey, petit Tamagotchi, tu veux qu'j'te nourrisse ? Contacte-moi par fax Hein ? Sache qu'un tas de personnages que tu trouves illustres Seront oubliés comme Brandon, Brenda, Cortex, Minus, Hilguegue ou P'tit Gus Chut T'as le même style que tes copines, t'as le baggy, t'as le legging et le patte d'eph' Dose T'as peur de pas trouver ta place, tu te fonds dans la masse, pourquoi tu fais la cheffe ? J'te file une pièce de cinq francs, une chignole, un bout de ruban, c'est pas insultant C'est le kit intégral pour fabriquer ta médaille d'argent Tu forces Tu communiques dans le sque-m', miskine, mais où est le respect, hein ? Wesh... T'as plus la tête sur les épaules, normal, il ne peut en rester qu'un - T'es éclaté, franchement, comme tes playlists... - Ouais mais, soixante-quinze pourcents d'c'qu'y a dans tes playlists, c'est moi qui t'ai fait découvrir... Tous les Disney déjà, quand t'étais p'tite... Doja Cat, Ice Spice, Central Cee... - Ouais, Hippo, il apparaît pas dans mes playlists, en tout cas... On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' On a la même langue mais pas le même jargon, pas les mêmes gestes On a les mêmes rêves, on a les mêmes valeurs, mais t'as pas la réf' - Mais il est bien, ton prof d'Histoire, moi, il... j'le trouve un peu... voilà, il est un peu rigide, il est... - Il est chauve T'as pas la réf'</t>
+          <t>À RETRANSCRIRE ! À RETRANSCRIRE ! À RETRANSCRIRE ! T'as vendu tes mixtapes aux p'tites vieilles, à l'hospice Pour partir célébrer le Spring Break à Auschwitz T'es pas vraiment compatissant non Tu rêves d'organiser des colonies d'vacances au Vatican ouais En fait, t'en fais qu'à ta tête, t'es pas croyant Alors tu crois que ça toctroie le droit de faire du naturisme à La Mecque Certains veulent décrocher la lune, toi, tu prends le soleil J'te catapulte sans parachute vers un champ d'éoliennes Tu vis ton voyage dans ta bulle, y'a pas de partage, t'abuses T'as geeké sur ton téléphone sans kiffer la plage, on t'a vu Taguer des vestiges, des uvres de Banksy Visiter Venise et Saint-Pétersbourg sur un jet-ski T'as bu l'eau du Gange, t'as survécu à la tourista T'as mis tes claquettes et t'as fait trempette à Fukushima Tu sues quand t'as plus d'réseau, t'as dû tomber du berceau Ta bêtise est inscrite au patrimoine mondial de l'UNESCO Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr À RETRANSCRIRE !</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Tête étoilée</t>
+          <t>Tout seul</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>J'vois des halos et des auras dans les dédales où j'm'installe Délires vocaux, K.O. total, super combo, coup spatial C'est une expérience paranormale, en pleine décadence, karma trop sale J'écris des galaxies, thème astral mon train d'vie est une navette spatiale C'est du dioxyde de carbone qu'on inhale, des produits toxiques dans mon eau minérale Sur une autre planète intersidérale, le vide qui défile, l'esprit qui dévale Je divague, je divise, je distords les distances des discours dyslexiques qui explorent l'existence Des phases brillantes dans l'espace immense, j'étudie l'sens des étoiles filantes J'vis comme un poète décalé, plans sur la comète, je me laisse aller Je vis comme un poète décalé, comme la comète, je m'laisse aller Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Je n'fume pas de drogue, en tous cas, j'n'en achète pas J'suis sur la pirogue et Kylie Minogue me fait des Lalala Je lévite et médite à longueur de temps, j'écris des récits quand mon cur se pend L'ennemi rétrécit même sans faire le grand quand je ris dehors, c'est que je pleure dedans Ça végète comme des vegans sous perf' j'fais du son, j'en suis super fier T'as tenté, t'as loupé, tu n'es bon qu'à bouder, j'vais sortir le fer chaud, motus et bouche soudée Comme les coiffeurs, vous êtes tous de mèche soit t'as les cheveux longs, soit t'as une coupe de merde Tu veux jouer l'Américain mais, dis-moi, who's the best? Et allez vous faire enfiler comme des housses de couette Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller Quand on m'donne des billets, je les dissimule quand tu touches ta femme, tu lui dis Simule J'travaille chaque couplet comme un discours d'investiture à la sueur de mes testicules Je me sens revivre quand vient l'heure d'été j'fais pas trop d'heures sup', j'suis plus RTT Over the rainbow, y'a des LGBT j'ai kiffé ton clip sur Malaise TV T'aimes les journées bien remplies ? Je te fulguro-fist, j'crois qu'il y a du bon en toi, j'suis un pur utopiste Tu peux suçoter mes doigts d'pied en bord de scène j'dois vider ma besace pour remplir ma bedaine J'viens recoller les morceaux comme après une baston de mecs bourrés Dans un minuscule magasin de porcelaine Elle a un corps de renne, je l'emmène en Laponie j'rappe poliment mes boniments sur des rhapsodies Quand je sors de mon boulot, tout le monde m'applaudit tu payes pour diffuser tes albums, moi, j'les vaporise Ma vie de famille est très palpitante quand tu chantes, mes oreilles sont récalcitrantes Mes propos sont sales, la forme est captivante même du fond de l'abyme, j'vois des étoiles filantes Hippo, j'balance la ricotta, j'crois plus au Père Noël, j'crois en Saint Nico K Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller On n'fait que tourner en rond comme les galaxies, on a la tête éclatée, on est désaxés Le calme, la tempête, l'orage et l'éclaircie, on va leur faire de l'ombre avant de s'éclipser Vitesse, lumière, inertie, loin de la réalité Les détails sont si précis, on oublie la gravité Je suis perdu, j'ai beaucoup cherché mais j'ai pas repéré l'Étoile du Berger L'avenir est flou, le ciel est voilé, j'décolle au-dessus d'tout, horaire décalé Pas d'autotune ni dauto-stop, virée nocturne, des potes au top Les neurones fument, c'est notre pause clope, des rayons d'lune, des stroboscopes Big Bang, poussières d'étoiles yin-yang pour faire des choix Big Bang, poussières d'étoiles yin-yang pour faire des choix Mec décalé, tête étoilée, mec décalé, tête étoilée Mec décalé, tête étoilée, comme la comète, je m'laisse aller</t>
+          <t>Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Seul dans mes pensées, seul dans ma tête Seul sur le chantier, seul aux manettes Seul dans les tranchées, seul face au danger Seul désenchanté, seul à la fête Seul, j'écris des vers, j'erre dans l'inconnu Sommes-nous seuls dans l'univers ? Ça, c'est mystère sans doute insoluble Moi, dans l'absolu, j'suis pas solitaire Mais j'aime être seul, contempler le ciel, c'est pas mortifère Hors de ma cage, j'suis comme un sage dans un village désert Nous n'sommes que de passage, faut profiter du voyage éclair J'bâtis des ponts, pas des remparts, j'crois qu'le message est clair La vie est faite pour qu'on la partage avec ceux qu'on aime, pourtant, parfois, j'préfère être Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul J'avance, ma trajectoire s'efface, parfois j'la retrace Seul sur la terrasse, chevalier d'la table basse Tu peux m'appeler Lancelot même quand je crache le feu J'compte pas devenir l'idole des jeunes avec mon rap de vieux J'écris pour moi tout seul, j'm'en fous d'plaire à tout l'monde J'ai jamais eu les dents longues, j'suis du genre à briller dans l'ombre J'me mets à poil grâce à ma plume, j'essaye de pas m'décevoir J'ai plus besoin d'faire le bon élève, j'ai d'jà fini mes devoirs Moi, j'n'écoute que mon intuition, pas leurs voix fades de GPS On dit qu'on veut conquérir l'espace, on lance des fusées de détresse Avec les miens, j'ai quitté la Grosse Pomme, on sera comme James dans la Grosse Pèche Quand l'humain finira rayé du globe par manque d'amour et d'eau fraîche Oula, mes émotions s'entremêlent J'crois qu'le spliff m'euthanasie J'sais pas si j'ai choisi la vie qu'je mène Ou si c'est elle qui m'a choisi Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Tout seul Tout seul J'suis là, tout seul Tout seul</t>
         </is>
       </c>
     </row>
@@ -3314,12 +3314,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Tiens-moi la main</t>
+          <t>Triste</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>J'ai parlé à tes doudous hier soir, tu leur manques Ils m'ont dit qu'ils étaient fiers de toi, ils t'attendent J'les ai rassurés, j'leur ai dit qu't'allais bientôt rentrer Je sais qu'ici tu t'ennuies, j'suis venu pour te border Faut pas t'inquiéter, tous ces gens sont là pour te soigner Ces tuyaux dans ton nez, c'est pour chasser les mauvaises pensées Et puis cette machine qui fait bip, c'est pour écouter ton cur chanter Je veille à c'qu'il garde le rythme pour que l'on puisse encore danser Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens On va sourire encore, tiens-moi la main On va laisser le monde s'assoupir, et au milieu de la nuit On empruntera la trappe secrète bien cachée sous ton lit On ira où tu veux, même si y a d'l'eau dans mes yeux J'suis là pour exaucer tous tes vux, pour t'accompagner jusqu'aux cieux Imagine un peu tout c'qui t'attend, faut chausser tes souliers de rubis Tu vas t'émerveiller mais, avant, avant... Profitons de ces derniers moments, ne sois pas effrayée Il faut pas me quitter maintenant, reste éveillée Tiens-moi la main Tiens-moi la main Il faut pas qu'tu t'endormes, reste avec moi, tous les deux, on est biens Tiens-moi la main Tu vas rendre jaloux ces oiseaux qui gazouillent En survolant l'Everest et les chutes d'Iguazu Le Grand Canyon, la banquise, le Vanuatu La vallée des Rois puis le Machu Picchu Tu noirciras des carnets de voyage et des partitions Moi, d'en bas, j'observerai ton ascension Tu feras de la luge sur les nuages Frémiras pendant ton alunissage T'apprivoiseras des comètes qui slaloment entre les planètes Tu feras des guilis aux aliens, là-bas où le temps s'arrête Un jour, on se retrouvera, on se prendra dans les bras On se serrera fort et on s'aimera Alors, tiens-moi la main Tiens-moi la main1</t>
+          <t>Quand j'vois l'visage de mes parents sur ces vieilles photos qui jaunissent Quand j'pense à mes amours d'antan en recomptant mes cicatrices Quand j'plie les habits d'mes enfants et réalise qu'ils grandissent Quand j'assiste à un enterrement, je suis pieds nus sur la banquise Triste J'me sens triste, esquinté Triste, triste J'me sens triste, égaré Quand j'repasse devant mon école où dort ma conduite exemplaire Quand j'vois mes souvenirs qui s'étiolent à chaque fois qu'j'en fais l'inventaire Quand j'farfouille dans mon téléphone, que j'vois l'numéro d'mon grand-père Quand j'pense à toutes ces herbes folles qui poussent là où reposent nos ancêtres Triste J'me sens triste, esquinté Triste, triste J'me sens triste, dévasté Quand j'vois ces puissants qui se targuent d'envoyer leurs soldats jetables Pacifier des régions instables qu'ils piétinent comme des châteaux d'sable Quand j'pense à c'que la guerre engendre des cris, des larmes, du sang, des cendres Quand j'vois la souffrance se répandre comme un tsunami en décembre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, révolté Quand j'vois se fissurer l'écorce de cette jeune femme à bout de force Sans ses gosses, seule sous un porche, la honte la ronge, le froid l'écorche Quand j'imagine son quotidien dans une petite pièce sans fenêtre Quand j'pense à son regard éteint pendant qu'la misère la pénètre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, écuré Quand ma tristesse déborde Je pleure des cordes J'éponge tout et j'm'essore Sinon ça fait désordre Triste, triste J'me sens triste Triste J'me sens triste</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Tits &amp; Cats</t>
+          <t>Trou</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Tits Cats Mix raps MaDJestyk, Hippo', apparence de fauves, avalanche de mots Athlétique hypnose, poto, t'as saisi l'topo ? Approche, éclate en sanglots, l'alcool bout dans ton sang chaud Pas d'bol, ça part en pogo, là, j'sors l'appareil photo Mad Show pour les barges et les gadjos, pas pour les machos, ni pour les fachos Ça secoue la basse-cour, ça fout la gastro À base de passe-passe, lourde est la basse, gros Guette ce fou dubstep, tel un loup des steppes, pas la peine de s'taire Comme un nunchaku, on t'a vite 'ché-cou' Allez, bouge tes couilles, do you understand ?</t>
+          <t>Bienvenue dans mon terrier Quand j'hiberne, tous les jours sont fériés De la weed sèche dans mon herbier Maître Renard me l'a livrée à l'insu des fermiers Quand j'me creuse la tête, j'fourmille d'idées C'est le fourbi dans l'fournil où cuisent de savoureuses maquettes J'ai l'tournis, étourdi, pour ne pas dire fonce-dé J'défie les blaireaux qui me toisent et leurs sourcils froncés Dans l'underground, j'ai fait mon trou Encore debout au troisième round, j'enfonce le clou Le vent en poupe, un hippocampe comme figure de proue Pour gagner ma croûte, je n'travaille pas si dur, je joue À cache-cache avec les créatures de Dante et Kafka J'caresse l'une des trois têtes de cerbère qui ronge des carcasses De chérubins damnés dont planent encore les voix de castrats L'été, Hadès me prête sa belle villa dans le Tartare Cru dans mes propos, je cuis sous les projos J'veux juste amuser la galerie, faire cogiter les bobos Les aristos, les prolos, les libéraux, les cocos Les voir s'agiter ensemble et communier lors d'un pogo L'art nous réunit en temps d'crise J'envoie du bois pour épouser ma vie en dents d'scie Retrouve-moi dans trente piges à poil en Birkenstock Sous une plage du Cap d'Agde, Guttentag Herr Lidenbrock Oui, j'ai des copains sous terre, jamais du-per Car j'ai du flair, j'enfouis ma joie, comme Isabelle Huppert Je fouine sur le net à la recherche d'une belette Quand j'en trouve une, je pousse des cris de suricate alerte et J'décalotte délicatement mon rat-taupe nu il est immortel, on dit qu'un vampire l'a mordu Je vais droit au but en déballant ma vie tordue j'rêve éveillé donc, j'avoue, je n'dors plus Fouisseur, je jouis seul en ficelant de ruisselants Écrits, semant l'épuisement chez ceux qui me suivent depuis si longtemps Autour de moi, y'a des cercueils qui s'effritent Y'a les squelettes d'ex mecs obèses qui ont brisé l'omerta Y'a des fossiles disséminés, mes vers qui s'excitent J'ai l'amertume d'une pelure d'agrume, j'perce des tunnels, comme Bertha Mais y'a toujours une lueur dans mon foyer Laissez-moi vous choyer, concocter des potions pour vous soigner Goûtez ma bonne soupe de magma glacé Mes infusions de racines pour digérer le passé Dans mon esprit, c'est l'anarchie, pas un royaume Des images s'entrechoquent faisant l'effet d'un chaud tord-boyaux J'ai mangé le monde, recraché le noyau J'l'ai planté dans un trou noir, j'm'en vais cueillir quelques joyaux Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Trou story Dans ma maison sous terre1</t>
         </is>
       </c>
     </row>
@@ -3348,12 +3348,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tourist Guide</t>
+          <t>Tu t’souviens pas ?!</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>À RETRANSCRIRE ! À RETRANSCRIRE ! À RETRANSCRIRE ! T'as vendu tes mixtapes aux p'tites vieilles, à l'hospice Pour partir célébrer le Spring Break à Auschwitz T'es pas vraiment compatissant non Tu rêves d'organiser des colonies d'vacances au Vatican ouais En fait, t'en fais qu'à ta tête, t'es pas croyant Alors tu crois que ça toctroie le droit de faire du naturisme à La Mecque Certains veulent décrocher la lune, toi, tu prends le soleil J'te catapulte sans parachute vers un champ d'éoliennes Tu vis ton voyage dans ta bulle, y'a pas de partage, t'abuses T'as geeké sur ton téléphone sans kiffer la plage, on t'a vu Taguer des vestiges, des uvres de Banksy Visiter Venise et Saint-Pétersbourg sur un jet-ski T'as bu l'eau du Gange, t'as survécu à la tourista T'as mis tes claquettes et t'as fait trempette à Fukushima Tu sues quand t'as plus d'réseau, t'as dû tomber du berceau Ta bêtise est inscrite au patrimoine mondial de l'UNESCO Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr Pour te payer ce tour du globe, t'as charbonné très dur Tu vas marquer l'époque de ton empreinte carbone, c'est sûr À RETRANSCRIRE !</t>
+          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
         </is>
       </c>
     </row>
@@ -3365,12 +3365,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tout seul</t>
+          <t>Underground</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Seul dans mes pensées, seul dans ma tête Seul sur le chantier, seul aux manettes Seul dans les tranchées, seul face au danger Seul désenchanté, seul à la fête Seul, j'écris des vers, j'erre dans l'inconnu Sommes-nous seuls dans l'univers ? Ça, c'est mystère sans doute insoluble Moi, dans l'absolu, j'suis pas solitaire Mais j'aime être seul, contempler le ciel, c'est pas mortifère Hors de ma cage, j'suis comme un sage dans un village désert Nous n'sommes que de passage, faut profiter du voyage éclair J'bâtis des ponts, pas des remparts, j'crois qu'le message est clair La vie est faite pour qu'on la partage avec ceux qu'on aime, pourtant, parfois, j'préfère être Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul J'avance, ma trajectoire s'efface, parfois j'la retrace Seul sur la terrasse, chevalier d'la table basse Tu peux m'appeler Lancelot même quand je crache le feu J'compte pas devenir l'idole des jeunes avec mon rap de vieux J'écris pour moi tout seul, j'm'en fous d'plaire à tout l'monde J'ai jamais eu les dents longues, j'suis du genre à briller dans l'ombre J'me mets à poil grâce à ma plume, j'essaye de pas m'décevoir J'ai plus besoin d'faire le bon élève, j'ai d'jà fini mes devoirs Moi, j'n'écoute que mon intuition, pas leurs voix fades de GPS On dit qu'on veut conquérir l'espace, on lance des fusées de détresse Avec les miens, j'ai quitté la Grosse Pomme, on sera comme James dans la Grosse Pèche Quand l'humain finira rayé du globe par manque d'amour et d'eau fraîche Oula, mes émotions s'entremêlent J'crois qu'le spliff m'euthanasie J'sais pas si j'ai choisi la vie qu'je mène Ou si c'est elle qui m'a choisi Tout seul tout seul J'suis là, tout seul tout seul J'ai besoin d'douceur mais j'suis tout seul tout seul J'dérive tout seul tout seul Tout seul Tout seul J'suis là, tout seul Tout seul</t>
+          <t>Ma femme, c'est ma muse, c'est mon roi Ça fait plus de dix ans qu'on vit sous le même toit Elle m'a avoué, hier soir, qu'elle ne croyait plus en moi Ça m'a laissé sans voix Chez nous, c'est elle qui porte la culotte en dentelle Elle ne court pas après l'argent, elle est certaine de mon talent Mais a l'impression que j'me démène pour ne récolter qu'des applaudissements Quelques j'aime et un succès confidentiel La faute à qui ? À moi, plein d'apathie, qui me repose sur mes acquis ? Observant le monde via un écran comme si j'étais banni ? Moi qui mise petit, qui ai perdu mon appétit ? À ma voix de baryton lambda sorti d'une abbaye ? Aux maisons d'disques trop frileuses, en quête de tubes de l'été ? Au grand public peu curieux qui veut qu'on lui donne la becquée ? Aux médias qui sépient les uns les autres sans s'mouiller ? Désignant les élus à leurs apôtres bien dressés Peu importe, loin de ces chemins balisés J'ai plongé dans des mers agitées En écoutant mon cur palpiter, il s'est arrêté Il a fallu que l'on menterre pour me ranimer J'renais plein de rêves et de rage, j'pourrais arrêter le rap Mais c'est un art honorable, une sorte de drogue Qui crame et crève le crane, fait pleurer les braves Je n'fais qu'explorer mes failles sans trêve, très peu le savent J'gamberge jour et nuit pour trouver des thèmes insolites Des axes inédits, j'ai déjà la chance de n'pas être incompris De plus en plus de gens me trouvent brillant, pourtant, je m'assombris La prospérité ne fera pas d'moi un artiste accompli J'écris pour me rafistoler, pas pour les sous J'suis devenu fou à force denregistrer dans des cellules capitonnées Mais j'suis quand même habilité à piloter une foule Apte à frissonner, c'est cool, j'peux pas l'ignorer Comme un mec bourré dans un musée, je fais tomber des nues Perdu dans mon imaginaire, je me dis qu'j'n'ai rien vécu Quand j'balance un clip, jattends le buzz et j'suis tout l'temps déçu Tandis qu'aveuglés par leur ambition, d'autres achètent des vues Autant dire qu'ils n'ont aucun mérite, aucune éthique Je reste intègre et ce depuis La Secte Phonétik L'écriture a des vertus introspectives L'acte est solitaire mais la réflexion collective Jessaye de me renouveler sans renier mes principes J'refuse de quémander un feat, tout miser sur un beat Ou un clip impudique, copier des gimmicks Des gestuelles ou des mimiques tout en me ventant d'être unique Ouais, y'a tant d'artistes dont jadmire le travail fantastique Ceux qui les imitent sont inodores comme des fleurs en plastique Avec leur voix robotisée, ils se la jouent cantatrice J'préfère écouter chouiner mon fils qui fait de grands caprices Comme un chimiste, j'ai le sens de la formule Si t'as l'esprit étriqué, t'as qu'à augmenter le volume Puisque Mozart a fini dans la fosse commune J'suis quasi convaincu qu'ma renommée sera posthume Je n'vous demande pas d'vous apitoyer sur mon sort Même si ma carrière tangue, j'vous amènerai à bon port Et tant pis si, ce soir, j'touche un cachet dérisoire Merci d'écouter mes p'tites histoires, merci d'y croire</t>
         </is>
       </c>
     </row>
@@ -3382,12 +3382,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Triste</t>
+          <t>Un peu de magie</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Quand j'vois l'visage de mes parents sur ces vieilles photos qui jaunissent Quand j'pense à mes amours d'antan en recomptant mes cicatrices Quand j'plie les habits d'mes enfants et réalise qu'ils grandissent Quand j'assiste à un enterrement, je suis pieds nus sur la banquise Triste J'me sens triste, esquinté Triste, triste J'me sens triste, égaré Quand j'repasse devant mon école où dort ma conduite exemplaire Quand j'vois mes souvenirs qui s'étiolent à chaque fois qu'j'en fais l'inventaire Quand j'farfouille dans mon téléphone, que j'vois l'numéro d'mon grand-père Quand j'pense à toutes ces herbes folles qui poussent là où reposent nos ancêtres Triste J'me sens triste, esquinté Triste, triste J'me sens triste, dévasté Quand j'vois ces puissants qui se targuent d'envoyer leurs soldats jetables Pacifier des régions instables qu'ils piétinent comme des châteaux d'sable Quand j'pense à c'que la guerre engendre des cris, des larmes, du sang, des cendres Quand j'vois la souffrance se répandre comme un tsunami en décembre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, révolté Quand j'vois se fissurer l'écorce de cette jeune femme à bout de force Sans ses gosses, seule sous un porche, la honte la ronge, le froid l'écorche Quand j'imagine son quotidien dans une petite pièce sans fenêtre Quand j'pense à son regard éteint pendant qu'la misère la pénètre Triste J'me sens triste, esquinté Triste, triste J'me sens triste, écuré Quand ma tristesse déborde Je pleure des cordes J'éponge tout et j'm'essore Sinon ça fait désordre Triste, triste J'me sens triste Triste J'me sens triste</t>
+          <t>J'attends un signe, que la flamme d'une bougie vacille Que les étoiles s'alignent ou bien qu'un satellite scintille En c'moment, c'est pas la joie, j'aimerais y croire, j'ai pas la foi Mais j'sais quoi faire quand ça va pas Quand la vie nous met au défi, quand on rame ici Y'en a qui fuient, y'en a qui voient des psys, y'en a qui prient Moi, j'me balade dans des paysages verdoyants Ou j'hallucine face à l'océan chatoyant qui ondule Et j'frissonne sous mon pull en écoutant du Satie Je pleure un temps et puis j'appelle un ami J'me dis qu'y'a p't-être un peu de magie Chacun sa thérapie, j'imagine Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie J'ai l'air plus mature, mais sous mon armure Se dresse un vieil enfant assoiffé d'aventures À qui tout semble doux-amer, clair-obscur Toujours en quête d'humains sincères au bal de l'imposture Plus j'en apprends, plus j'me sens ignorant J'suis qu'une virgule dans un subtil roman C'que j'entreprends me semble insignifiant Y'a rien à faire sur les photos, je souris tristement Y'a plus grand-chose qui m'émerveille mais j'sais voler d'mes propres ailes J'irai m'abreuver de soleil avant d'm'enraciner J'peux pas revenir en arrière, revoir ceux qui sont déjà sous terre J'peux plus leur dire en face Je t'aime, mais j'peux l'imaginer Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie</t>
         </is>
       </c>
     </row>
@@ -3399,12 +3399,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Trou</t>
+          <t>Votez pour moi !</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bienvenue dans mon terrier Quand j'hiberne, tous les jours sont fériés De la weed sèche dans mon herbier Maître Renard me l'a livrée à l'insu des fermiers Quand j'me creuse la tête, j'fourmille d'idées C'est le fourbi dans l'fournil où cuisent de savoureuses maquettes J'ai l'tournis, étourdi, pour ne pas dire fonce-dé J'défie les blaireaux qui me toisent et leurs sourcils froncés Dans l'underground, j'ai fait mon trou Encore debout au troisième round, j'enfonce le clou Le vent en poupe, un hippocampe comme figure de proue Pour gagner ma croûte, je n'travaille pas si dur, je joue À cache-cache avec les créatures de Dante et Kafka J'caresse l'une des trois têtes de cerbère qui ronge des carcasses De chérubins damnés dont planent encore les voix de castrats L'été, Hadès me prête sa belle villa dans le Tartare Cru dans mes propos, je cuis sous les projos J'veux juste amuser la galerie, faire cogiter les bobos Les aristos, les prolos, les libéraux, les cocos Les voir s'agiter ensemble et communier lors d'un pogo L'art nous réunit en temps d'crise J'envoie du bois pour épouser ma vie en dents d'scie Retrouve-moi dans trente piges à poil en Birkenstock Sous une plage du Cap d'Agde, Guttentag Herr Lidenbrock Oui, j'ai des copains sous terre, jamais du-per Car j'ai du flair, j'enfouis ma joie, comme Isabelle Huppert Je fouine sur le net à la recherche d'une belette Quand j'en trouve une, je pousse des cris de suricate alerte et J'décalotte délicatement mon rat-taupe nu il est immortel, on dit qu'un vampire l'a mordu Je vais droit au but en déballant ma vie tordue j'rêve éveillé donc, j'avoue, je n'dors plus Fouisseur, je jouis seul en ficelant de ruisselants Écrits, semant l'épuisement chez ceux qui me suivent depuis si longtemps Autour de moi, y'a des cercueils qui s'effritent Y'a les squelettes d'ex mecs obèses qui ont brisé l'omerta Y'a des fossiles disséminés, mes vers qui s'excitent J'ai l'amertume d'une pelure d'agrume, j'perce des tunnels, comme Bertha Mais y'a toujours une lueur dans mon foyer Laissez-moi vous choyer, concocter des potions pour vous soigner Goûtez ma bonne soupe de magma glacé Mes infusions de racines pour digérer le passé Dans mon esprit, c'est l'anarchie, pas un royaume Des images s'entrechoquent faisant l'effet d'un chaud tord-boyaux J'ai mangé le monde, recraché le noyau J'l'ai planté dans un trou noir, j'm'en vais cueillir quelques joyaux Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Allez, gratte, gratte, gratte, allez, creuse Trou story Dans ma maison sous terre1</t>
+          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
         </is>
       </c>
     </row>
@@ -3416,78 +3416,10 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Tu t’souviens pas ?!</t>
+          <t>Wiki Freestyle</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
-        <is>
-          <t>x2 Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quel délice d'apercevoir Régis faisant la roue Au sommet d'un édifice ou au bord d'un précipice Car, de Singapour à Saint-Paul, Régis, c'est tout un symbole Martyr qui fait rire sponsorisé par Synthol Il ne craint ni la douleur, ni le ridicule, d'ailleurs Il s'est coincé les testicules dans un taille-crayon minuscule Il aime se fracasser, mais faut pas s'tracasser Pour lui et sa famille car ce sont tous des bras cassés x2 Dès la naissance, j'repère les Régis illico Ils s'étranglent tous avec leurs cordons ombilicaux Les Régis sniffent de tout, même des coquelicots Et leur mère enceinte buvait tous les jours trois bouteilles de Veuve Cliquot Y'a que quand il a la peau grasse qu'un Régis réfléchit Et, face à lui, c'est de rire que tout le monde fléchit Il travaille pour Vidéo Gag depuis sa plus tendre enfance Je crois que pas mal de miroirs reflètent des Régis en France x2 D'abord, t'as l'Régis chez qui les moustaches trahissent Ses activités fétiches, oui, Régis boit du pastis La moto, l'bateau, l'auto, l'cheval de Zorro Regarde Régis danser si t'as l'moral à zéro Ensuite, dans Régis, t'as une tendance au suicide Involontaire, certes, oui, ça, c'est l'côté risible Et puis, t'as l'côté nuisible quand il tripote les fusibles Tu t'souviens d'AZF, bin, c'est Régis à l'usine Régis chahute, il va bientôt se faire bobo Tout l'monde attend sa chute comme celles des histoires de Toto Quand il mourra devant la caméra, tout le monde rira Criera Hip hip hip hourra ! puis on l'oubliera</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Hippocampe Fou</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Underground</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Ma femme, c'est ma muse, c'est mon roi Ça fait plus de dix ans qu'on vit sous le même toit Elle m'a avoué, hier soir, qu'elle ne croyait plus en moi Ça m'a laissé sans voix Chez nous, c'est elle qui porte la culotte en dentelle Elle ne court pas après l'argent, elle est certaine de mon talent Mais a l'impression que j'me démène pour ne récolter qu'des applaudissements Quelques j'aime et un succès confidentiel La faute à qui ? À moi, plein d'apathie, qui me repose sur mes acquis ? Observant le monde via un écran comme si j'étais banni ? Moi qui mise petit, qui ai perdu mon appétit ? À ma voix de baryton lambda sorti d'une abbaye ? Aux maisons d'disques trop frileuses, en quête de tubes de l'été ? Au grand public peu curieux qui veut qu'on lui donne la becquée ? Aux médias qui sépient les uns les autres sans s'mouiller ? Désignant les élus à leurs apôtres bien dressés Peu importe, loin de ces chemins balisés J'ai plongé dans des mers agitées En écoutant mon cur palpiter, il s'est arrêté Il a fallu que l'on menterre pour me ranimer J'renais plein de rêves et de rage, j'pourrais arrêter le rap Mais c'est un art honorable, une sorte de drogue Qui crame et crève le crane, fait pleurer les braves Je n'fais qu'explorer mes failles sans trêve, très peu le savent J'gamberge jour et nuit pour trouver des thèmes insolites Des axes inédits, j'ai déjà la chance de n'pas être incompris De plus en plus de gens me trouvent brillant, pourtant, je m'assombris La prospérité ne fera pas d'moi un artiste accompli J'écris pour me rafistoler, pas pour les sous J'suis devenu fou à force denregistrer dans des cellules capitonnées Mais j'suis quand même habilité à piloter une foule Apte à frissonner, c'est cool, j'peux pas l'ignorer Comme un mec bourré dans un musée, je fais tomber des nues Perdu dans mon imaginaire, je me dis qu'j'n'ai rien vécu Quand j'balance un clip, jattends le buzz et j'suis tout l'temps déçu Tandis qu'aveuglés par leur ambition, d'autres achètent des vues Autant dire qu'ils n'ont aucun mérite, aucune éthique Je reste intègre et ce depuis La Secte Phonétik L'écriture a des vertus introspectives L'acte est solitaire mais la réflexion collective Jessaye de me renouveler sans renier mes principes J'refuse de quémander un feat, tout miser sur un beat Ou un clip impudique, copier des gimmicks Des gestuelles ou des mimiques tout en me ventant d'être unique Ouais, y'a tant d'artistes dont jadmire le travail fantastique Ceux qui les imitent sont inodores comme des fleurs en plastique Avec leur voix robotisée, ils se la jouent cantatrice J'préfère écouter chouiner mon fils qui fait de grands caprices Comme un chimiste, j'ai le sens de la formule Si t'as l'esprit étriqué, t'as qu'à augmenter le volume Puisque Mozart a fini dans la fosse commune J'suis quasi convaincu qu'ma renommée sera posthume Je n'vous demande pas d'vous apitoyer sur mon sort Même si ma carrière tangue, j'vous amènerai à bon port Et tant pis si, ce soir, j'touche un cachet dérisoire Merci d'écouter mes p'tites histoires, merci d'y croire</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Hippocampe Fou</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Un peu de magie</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>J'attends un signe, que la flamme d'une bougie vacille Que les étoiles s'alignent ou bien qu'un satellite scintille En c'moment, c'est pas la joie, j'aimerais y croire, j'ai pas la foi Mais j'sais quoi faire quand ça va pas Quand la vie nous met au défi, quand on rame ici Y'en a qui fuient, y'en a qui voient des psys, y'en a qui prient Moi, j'me balade dans des paysages verdoyants Ou j'hallucine face à l'océan chatoyant qui ondule Et j'frissonne sous mon pull en écoutant du Satie Je pleure un temps et puis j'appelle un ami J'me dis qu'y'a p't-être un peu de magie Chacun sa thérapie, j'imagine Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie J'ai l'air plus mature, mais sous mon armure Se dresse un vieil enfant assoiffé d'aventures À qui tout semble doux-amer, clair-obscur Toujours en quête d'humains sincères au bal de l'imposture Plus j'en apprends, plus j'me sens ignorant J'suis qu'une virgule dans un subtil roman C'que j'entreprends me semble insignifiant Y'a rien à faire sur les photos, je souris tristement Y'a plus grand-chose qui m'émerveille mais j'sais voler d'mes propres ailes J'irai m'abreuver de soleil avant d'm'enraciner J'peux pas revenir en arrière, revoir ceux qui sont déjà sous terre J'peux plus leur dire en face Je t'aime, mais j'peux l'imaginer Pour déjouer ce piège établi Rejouer cette unique partie J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Pour remonter le cours de ma vie Retrouver ceux qui sont partis J'ai juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie Juste besoin d'un peu de magie</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Hippocampe Fou</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Votez pour moi !</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Mettez vos bonnets phrygiens à l'effigie Du meilleur Phonéticien, dès que j'ouvre la bouche, la poésie vient J'invente des choré' si biens que même les Nord Coréens Leur ont donné des noms ringards, planqués dans des sous-terrains Je n'ai pas de défaut, et j'épate les filles Rien ne dépasse mes mots, je n'enfle pas les chevilles Je nage le papillon dans un océan de chenilles Ma voix de baryton, je l'échangerai pas contre des billes Je rappe mieux que les 'Ricains, trop colérique et vilain Je cours très vite malgré mon zizi divin Flow magnifique, prolifique, magnétique, maléfique Pour étudier ma technique, faut faire de l'astrophysique Mes phéromones excitent la faune et la flore Djayhef et Nivu m'adorent, collectionnent les métaphores Je fais du street art smart coloré comme des Smarties Am-stram-gram, honorez Hippo l'artiste Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Acclamez-le, proclamez-le Gourou pour nous gouverner Dénudez-vous, répudiez-vous Pendez-nous où vous voudrez Il est scientifiquement prouvé que je suis né surdoué Personne ne peut en douter, il suffit de m'écouter Très au-dessus de la moyenne, et ce dans tous les domaines On considère mon ADN comme l'avenir l'espèce humaine Je suis un homme à part, je suis né pour diriger D'ailleurs, comme Bonaparte, j'ai du mal à digérer En commission parlementaire, on me fait des ovations On dit, de mes argumentaires, qu'ils attisent les passions Le son de ma voix suffit à déclencher Chez les grands-pères endimanchés de frénétiques déhanchés Oui, depuis que je suis né, je fais des rêves éveillé Qui me révèlent peu à peu le destin de l'humanité Et grâce à mes visions, je connais ma mission Je vais gagner l'élection et créer la connexion Entre tous les adeptes qui se trouvent sur la planète Et nous chanterons à tue-tête cette incantation secrète x2 Plus fort qu'un antivirus, plus utile qu'un abribus Plus complet qu'un couteau suisse ou qu'un parking à Paris Lui, c'est le plus assidu, il a des textes qui tuent Mesdames et messieurs, veuillez acclamer Nivu J'suis plus célèbre que le Père Noël, plus riche que les Bettencourt J'fais de l'ombre à la Ville Lumière, j'ai arnaqué Rocancourt Je peux sevrer Amy Winehouse, éclipser David Copperfield J'fais des orgies à la Penthouse, j'lis plus de livres que Michel Field J'ai crevé lil de Le Pen, je danse comme un bon piranha J'ai couché avec des lesbiennes qui ont atteint le nirvana J'peux glacer l'désert, sauver plus de bêtes que la SPA J'viens sécher les mers, j'ai regarni PPDA J'peux désembouteiller l'périph', j'suis plus doux que du chinchilla Comme Bob, j'peux shooter l'shérif ou rendre huppée une favela J'peux décrocher la lune, mon viaduc sera mon linceul J'ai épousé Venus, j'ai montré le moonwalk à Michael J'peux effrayer le Diable et pervertir des anges Aucun vivant n'est assez fiable pour conter ma légende Alors, pour écrire mon odyssée, j'ressusciterai Homère D'toutes façons, c'est moi, l'plus fort, qui m'l'a dit ? C'est ma mère x2 Votez Djahyef, descendant de Naej C'est la crème de la crème, the best of the best C'est le seul gourou possible, soyons sérieux, regardez-nous Acclamez-le sans attendre et, ensuite, huez-nous</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Hippocampe Fou</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Wiki Freestyle</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
         <is>
           <t>Merci à celui ou celle qui a créé ma page Wikipédia... J'trouve qu'elle pourrait être un peu plus détaillée... Comme j'peux pas vraiment la modifier, bah... Né en mille neuf cent quatre-vingt-quatre à Thonon-les-Bains D'une mère française et d'un papa colombien Il a grandi dans le quinzième arrondissement de Paris Fasciné par les catastrophes et les tueurs en série Fils unique jusqu'à ses neuf ans t demi Aucun problème de santé, à part un légère anémie Avec ses dents d'lapin, ses cernes de raton laveur Il écoute la radio dans son lit jusqu'à pas d'heure Il aime Nirvana, la dance, Queen et Michael Les Disney, les films de Spielberg, les acteurs Stéroïdés, les vidéo-clubs, Dorothée La Game-Boy en noir et blanc comme Psychose qui l'a terrorisé Ravagé par l'acné, il fuit dans les astres IAM et les Fugees vont le marquer Tout comme 2001, l'Odyssée de l'espace Le cinéphile veut devenir cinéaste Il obtient son bac' scientifique tant bien que mal S'inscrit à la fac' de ciné, squatte les petites salles Les parcs, les ruelles, les musées de la capitale Il noircit des carnets, se prend pour un marginal hun Il improvise avec ses potes, c'est un nouveau départ Fait des cyphers avec des tas d'inconnus dans les squares Le rythme et les mots le passionnent Beaucoup d'artistes l'inspirent et l'impressionnent La verve de Brassens, l'interprétation de Barbara Les flows de Biggie, Busta Rhymes et les thèmes de Java Il veut tout mélanger mais se différencier Il publie deux morceaux sur MySpace pour se lancer Il est si content quand on lui propose d'animer Des soirées slam dans un petit bar à Ménilmontant Il y freestyle avec deux rappeurs et, là, gros déclic Ensembles, ils forment un trio La Secte Phonétik S'en suivent quatre années de kif, d'escapades et de splifs De plans de batailles et de travail pas très lucratif Il emménage à Montmartre avec sa dulcinée Sa web-série Vidéo Rap le fait turbiner Il devient papa, quitte La Secte et se rabat vite Sur ses nouveaux clips, c'est le début du rap aquatique La suite tient en si peu de mots Une trilogie d'albums autour du cycle de l'eau yo Wiki Freestyle, Wiki Freestyle Tu connais</t>
         </is>
